--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="579">
   <si>
     <t>Acronym</t>
   </si>
@@ -2231,6 +2231,9 @@
   <si>
     <t>Number of breaches</t>
   </si>
+  <si>
+    <t>Wastewater Distance To Target (DTT) Big cities</t>
+  </si>
 </sst>
 </file>
 
@@ -5466,6 +5469,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5554,6 +5561,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5590,9 +5636,6 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5641,113 +5684,113 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5755,36 +5798,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5797,6 +5810,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -5806,23 +5831,11 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5852,6 +5865,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5879,38 +5925,11 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5931,101 +5950,85 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6338,7 +6341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6634,10 +6637,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F62"/>
+  <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6658,8 +6661,8 @@
       <c r="B3" s="325" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="906"/>
-      <c r="D3" s="906"/>
+      <c r="C3" s="910"/>
+      <c r="D3" s="910"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="326"/>
@@ -6692,10 +6695,10 @@
       <c r="D10" s="333" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="907" t="s">
+      <c r="E10" s="911" t="s">
         <v>574</v>
       </c>
-      <c r="F10" s="908"/>
+      <c r="F10" s="912"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="334" t="s">
@@ -6846,10 +6849,10 @@
       <c r="D30" s="344" t="s">
         <v>316</v>
       </c>
-      <c r="E30" s="907" t="s">
+      <c r="E30" s="911" t="s">
         <v>574</v>
       </c>
-      <c r="F30" s="908"/>
+      <c r="F30" s="912"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="334" t="s">
@@ -6997,10 +7000,10 @@
       <c r="D49" s="344" t="s">
         <v>316</v>
       </c>
-      <c r="E49" s="907" t="s">
+      <c r="E49" s="911" t="s">
         <v>574</v>
       </c>
-      <c r="F49" s="908"/>
+      <c r="F49" s="912"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="334" t="s">
@@ -7123,13 +7126,165 @@
       <c r="E62" s="370"/>
       <c r="F62" s="354"/>
     </row>
+    <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B65" s="328" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B66" s="329"/>
+      <c r="C66" s="329"/>
+      <c r="D66" s="330" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="331"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="515" t="s">
+        <v>491</v>
+      </c>
+      <c r="C68" s="332" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="344" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" s="911" t="s">
+        <v>574</v>
+      </c>
+      <c r="F68" s="912"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="516" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="335" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="345" t="s">
+        <v>520</v>
+      </c>
+      <c r="E69" s="517" t="s">
+        <v>521</v>
+      </c>
+      <c r="F69" s="518" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="338" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" s="347"/>
+      <c r="D70" s="355">
+        <v>100</v>
+      </c>
+      <c r="E70" s="355"/>
+      <c r="F70" s="352"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="339" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="348"/>
+      <c r="D71" s="356"/>
+      <c r="E71" s="375"/>
+      <c r="F71" s="376"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="363" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" s="364"/>
+      <c r="D72" s="365"/>
+      <c r="E72" s="377"/>
+      <c r="F72" s="378"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="340"/>
+      <c r="C73" s="349"/>
+      <c r="D73" s="357"/>
+      <c r="E73" s="358"/>
+      <c r="F73" s="353"/>
+    </row>
+    <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="341" t="s">
+        <v>571</v>
+      </c>
+      <c r="C74" s="350"/>
+      <c r="D74" s="359"/>
+      <c r="E74" s="359"/>
+      <c r="F74" s="354"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="339" t="s">
+        <v>568</v>
+      </c>
+      <c r="C75" s="348"/>
+      <c r="D75" s="356"/>
+      <c r="E75" s="356"/>
+      <c r="F75" s="353"/>
+    </row>
+    <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="379" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76" s="367"/>
+      <c r="D76" s="365"/>
+      <c r="E76" s="365"/>
+      <c r="F76" s="354"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="342"/>
+      <c r="C77" s="351"/>
+      <c r="D77" s="360"/>
+      <c r="E77" s="360"/>
+      <c r="F77" s="353"/>
+    </row>
+    <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="341" t="s">
+        <v>572</v>
+      </c>
+      <c r="C78" s="350"/>
+      <c r="D78" s="361"/>
+      <c r="E78" s="361"/>
+      <c r="F78" s="354"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="339" t="s">
+        <v>568</v>
+      </c>
+      <c r="C79" s="348"/>
+      <c r="D79" s="356"/>
+      <c r="E79" s="356"/>
+      <c r="F79" s="353"/>
+    </row>
+    <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="380" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" s="348"/>
+      <c r="D80" s="356"/>
+      <c r="E80" s="356"/>
+      <c r="F80" s="353"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="373"/>
+      <c r="C81" s="369"/>
+      <c r="D81" s="374"/>
+      <c r="E81" s="370"/>
+      <c r="F81" s="354"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E68:F68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7169,8 +7324,8 @@
       </c>
       <c r="C2" s="385"/>
       <c r="D2" s="385"/>
-      <c r="E2" s="904"/>
-      <c r="F2" s="904"/>
+      <c r="E2" s="901"/>
+      <c r="F2" s="901"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="384"/>
@@ -7202,13 +7357,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="382"/>
-      <c r="B6" s="905" t="s">
+      <c r="B6" s="902" t="s">
         <v>492</v>
       </c>
-      <c r="C6" s="905"/>
-      <c r="D6" s="905"/>
-      <c r="E6" s="905"/>
-      <c r="F6" s="905"/>
+      <c r="C6" s="902"/>
+      <c r="D6" s="902"/>
+      <c r="E6" s="902"/>
+      <c r="F6" s="902"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="382"/>
@@ -7223,14 +7378,14 @@
       <c r="B8" s="411" t="s">
         <v>526</v>
       </c>
-      <c r="C8" s="909" t="s">
+      <c r="C8" s="913" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="910"/>
-      <c r="E8" s="909" t="s">
+      <c r="D8" s="914"/>
+      <c r="E8" s="913" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="910"/>
+      <c r="F8" s="914"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="382"/>
@@ -7366,11 +7521,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="382"/>
-      <c r="B22" s="899"/>
-      <c r="C22" s="899"/>
-      <c r="D22" s="899"/>
-      <c r="E22" s="899"/>
-      <c r="F22" s="899"/>
+      <c r="B22" s="907"/>
+      <c r="C22" s="907"/>
+      <c r="D22" s="907"/>
+      <c r="E22" s="907"/>
+      <c r="F22" s="907"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="382"/>
@@ -7392,7 +7547,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="382"/>
-      <c r="B25" s="975" t="s">
+      <c r="B25" s="787" t="s">
         <v>569</v>
       </c>
       <c r="C25" s="383"/>
@@ -7402,7 +7557,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="382"/>
-      <c r="B26" s="975" t="s">
+      <c r="B26" s="787" t="s">
         <v>570</v>
       </c>
       <c r="C26" s="383"/>
@@ -7427,7 +7582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -7441,13 +7596,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="911" t="s">
+      <c r="B2" s="915" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="912" t="s">
+      <c r="C2" s="916" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="912" t="s">
+      <c r="D2" s="916" t="s">
         <v>214</v>
       </c>
       <c r="E2" s="436" t="s">
@@ -7482,9 +7637,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="911"/>
-      <c r="C3" s="913"/>
-      <c r="D3" s="913"/>
+      <c r="B3" s="915"/>
+      <c r="C3" s="917"/>
+      <c r="D3" s="917"/>
       <c r="E3" s="451" t="s">
         <v>334</v>
       </c>
@@ -7517,7 +7672,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="914" t="s">
+      <c r="B4" s="918" t="s">
         <v>337</v>
       </c>
       <c r="C4" s="437" t="s">
@@ -7536,7 +7691,7 @@
       <c r="N4" s="439"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="914"/>
+      <c r="B5" s="918"/>
       <c r="C5" s="437" t="s">
         <v>129</v>
       </c>
@@ -7553,7 +7708,7 @@
       <c r="N5" s="439"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="915"/>
+      <c r="B6" s="919"/>
       <c r="C6" s="447" t="s">
         <v>327</v>
       </c>
@@ -7648,10 +7803,10 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1:Y1"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7667,43 +7822,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="928" t="s">
+      <c r="A1" s="923" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="929"/>
+      <c r="B1" s="924"/>
       <c r="C1" s="467"/>
-      <c r="D1" s="919" t="s">
+      <c r="D1" s="934" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="920"/>
-      <c r="F1" s="920"/>
-      <c r="G1" s="920"/>
-      <c r="H1" s="920"/>
-      <c r="I1" s="921"/>
-      <c r="J1" s="930" t="s">
+      <c r="E1" s="935"/>
+      <c r="F1" s="935"/>
+      <c r="G1" s="935"/>
+      <c r="H1" s="935"/>
+      <c r="I1" s="936"/>
+      <c r="J1" s="925" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="931"/>
-      <c r="L1" s="931"/>
-      <c r="M1" s="931"/>
-      <c r="N1" s="932"/>
-      <c r="O1" s="933" t="s">
+      <c r="K1" s="926"/>
+      <c r="L1" s="926"/>
+      <c r="M1" s="926"/>
+      <c r="N1" s="927"/>
+      <c r="O1" s="928" t="s">
         <v>340</v>
       </c>
-      <c r="P1" s="934"/>
-      <c r="Q1" s="935"/>
+      <c r="P1" s="929"/>
+      <c r="Q1" s="930"/>
       <c r="R1" s="454" t="s">
         <v>116</v>
       </c>
       <c r="S1" s="455"/>
-      <c r="T1" s="927" t="s">
+      <c r="T1" s="922" t="s">
         <v>537</v>
       </c>
-      <c r="U1" s="927"/>
-      <c r="V1" s="927"/>
-      <c r="W1" s="927"/>
-      <c r="X1" s="927"/>
-      <c r="Y1" s="927"/>
+      <c r="U1" s="922"/>
+      <c r="V1" s="922"/>
+      <c r="W1" s="922"/>
+      <c r="X1" s="922"/>
+      <c r="Y1" s="922"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="457" t="s">
@@ -7715,18 +7870,18 @@
       <c r="C2" s="458" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="924" t="s">
+      <c r="D2" s="939" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="923"/>
-      <c r="F2" s="923" t="s">
+      <c r="E2" s="938"/>
+      <c r="F2" s="938" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="923"/>
-      <c r="H2" s="922" t="s">
+      <c r="G2" s="938"/>
+      <c r="H2" s="937" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="922"/>
+      <c r="I2" s="937"/>
       <c r="J2" s="459">
         <v>0</v>
       </c>
@@ -7757,18 +7912,18 @@
       <c r="S2" s="699" t="s">
         <v>127</v>
       </c>
-      <c r="T2" s="925" t="s">
+      <c r="T2" s="920" t="s">
         <v>504</v>
       </c>
-      <c r="U2" s="925"/>
-      <c r="V2" s="926" t="s">
+      <c r="U2" s="920"/>
+      <c r="V2" s="921" t="s">
         <v>523</v>
       </c>
-      <c r="W2" s="926"/>
-      <c r="X2" s="926" t="s">
+      <c r="W2" s="921"/>
+      <c r="X2" s="921" t="s">
         <v>524</v>
       </c>
-      <c r="Y2" s="926"/>
+      <c r="Y2" s="921"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="462"/>
@@ -7794,13 +7949,13 @@
       <c r="I3" s="683" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="916" t="s">
+      <c r="J3" s="931" t="s">
         <v>349</v>
       </c>
-      <c r="K3" s="917"/>
-      <c r="L3" s="917"/>
-      <c r="M3" s="917"/>
-      <c r="N3" s="918"/>
+      <c r="K3" s="932"/>
+      <c r="L3" s="932"/>
+      <c r="M3" s="932"/>
+      <c r="N3" s="933"/>
       <c r="O3" s="470"/>
       <c r="P3" s="470"/>
       <c r="Q3" s="470"/>
@@ -9029,6 +9184,11 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9036,11 +9196,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9080,25 +9235,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="845" t="s">
+      <c r="A1" s="818" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="846"/>
-      <c r="C1" s="846"/>
-      <c r="D1" s="846"/>
-      <c r="E1" s="846"/>
-      <c r="F1" s="846"/>
+      <c r="B1" s="819"/>
+      <c r="C1" s="819"/>
+      <c r="D1" s="819"/>
+      <c r="E1" s="819"/>
+      <c r="F1" s="819"/>
       <c r="G1" s="484"/>
-      <c r="H1" s="939" t="s">
+      <c r="H1" s="945" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="940"/>
-      <c r="J1" s="940"/>
+      <c r="I1" s="946"/>
+      <c r="J1" s="946"/>
       <c r="K1" s="486"/>
       <c r="L1" s="476"/>
       <c r="M1" s="486"/>
       <c r="N1" s="477"/>
-      <c r="O1" s="937" t="s">
+      <c r="O1" s="943" t="s">
         <v>351</v>
       </c>
       <c r="P1" s="478"/>
@@ -9110,26 +9265,26 @@
       <c r="T1" s="476"/>
       <c r="U1" s="486"/>
       <c r="V1" s="477"/>
-      <c r="W1" s="937" t="s">
+      <c r="W1" s="943" t="s">
         <v>353</v>
       </c>
       <c r="X1" s="478"/>
-      <c r="Y1" s="941" t="s">
+      <c r="Y1" s="947" t="s">
         <v>354</v>
       </c>
-      <c r="Z1" s="941"/>
-      <c r="AA1" s="941"/>
-      <c r="AB1" s="941"/>
-      <c r="AC1" s="941"/>
-      <c r="AD1" s="942"/>
-      <c r="AE1" s="937" t="s">
+      <c r="Z1" s="947"/>
+      <c r="AA1" s="947"/>
+      <c r="AB1" s="947"/>
+      <c r="AC1" s="947"/>
+      <c r="AD1" s="948"/>
+      <c r="AE1" s="943" t="s">
         <v>355</v>
       </c>
-      <c r="AF1" s="936" t="s">
+      <c r="AF1" s="942" t="s">
         <v>522</v>
       </c>
-      <c r="AG1" s="927"/>
-      <c r="AH1" s="927"/>
+      <c r="AG1" s="922"/>
+      <c r="AH1" s="922"/>
       <c r="AI1" s="706"/>
       <c r="AJ1" s="706"/>
       <c r="AK1" s="706"/>
@@ -9188,56 +9343,56 @@
       <c r="C2" s="485" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="944" t="s">
+      <c r="D2" s="941" t="s">
         <v>527</v>
       </c>
-      <c r="E2" s="944"/>
-      <c r="F2" s="944" t="s">
+      <c r="E2" s="941"/>
+      <c r="F2" s="941" t="s">
         <v>528</v>
       </c>
-      <c r="G2" s="944"/>
+      <c r="G2" s="941"/>
       <c r="H2" s="480"/>
-      <c r="I2" s="943" t="s">
+      <c r="I2" s="940" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="943"/>
-      <c r="K2" s="943" t="s">
+      <c r="J2" s="940"/>
+      <c r="K2" s="940" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="943"/>
-      <c r="M2" s="943" t="s">
+      <c r="L2" s="940"/>
+      <c r="M2" s="940" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="945"/>
-      <c r="O2" s="938"/>
+      <c r="N2" s="949"/>
+      <c r="O2" s="944"/>
       <c r="P2" s="481"/>
-      <c r="Q2" s="943" t="s">
+      <c r="Q2" s="940" t="s">
         <v>224</v>
       </c>
-      <c r="R2" s="943"/>
-      <c r="S2" s="943" t="s">
+      <c r="R2" s="940"/>
+      <c r="S2" s="940" t="s">
         <v>225</v>
       </c>
-      <c r="T2" s="943"/>
-      <c r="U2" s="943" t="s">
+      <c r="T2" s="940"/>
+      <c r="U2" s="940" t="s">
         <v>226</v>
       </c>
-      <c r="V2" s="945"/>
-      <c r="W2" s="938"/>
+      <c r="V2" s="949"/>
+      <c r="W2" s="944"/>
       <c r="X2" s="481"/>
-      <c r="Y2" s="943" t="s">
+      <c r="Y2" s="940" t="s">
         <v>224</v>
       </c>
-      <c r="Z2" s="943"/>
-      <c r="AA2" s="943" t="s">
+      <c r="Z2" s="940"/>
+      <c r="AA2" s="940" t="s">
         <v>225</v>
       </c>
-      <c r="AB2" s="943"/>
-      <c r="AC2" s="943" t="s">
+      <c r="AB2" s="940"/>
+      <c r="AC2" s="940" t="s">
         <v>226</v>
       </c>
-      <c r="AD2" s="945"/>
-      <c r="AE2" s="938"/>
+      <c r="AD2" s="949"/>
+      <c r="AE2" s="944"/>
       <c r="AF2" s="700" t="s">
         <v>504</v>
       </c>
@@ -10123,6 +10278,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
@@ -10139,8 +10296,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10355,9 +10510,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="964"/>
-      <c r="B1" s="835"/>
-      <c r="C1" s="835"/>
+      <c r="A1" s="950"/>
+      <c r="B1" s="849"/>
+      <c r="C1" s="849"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="759"/>
@@ -10372,13 +10527,13 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="968" t="s">
+      <c r="A3" s="958" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="970" t="s">
+      <c r="B3" s="960" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="971"/>
+      <c r="C3" s="961"/>
       <c r="D3" s="956" t="s">
         <v>494</v>
       </c>
@@ -10397,14 +10552,14 @@
       <c r="K3" s="739"/>
       <c r="L3" s="739"/>
       <c r="N3" s="724"/>
-      <c r="O3" s="953" t="s">
+      <c r="O3" s="972" t="s">
         <v>384</v>
       </c>
-      <c r="P3" s="953"/>
-      <c r="Q3" s="953" t="s">
+      <c r="P3" s="972"/>
+      <c r="Q3" s="972" t="s">
         <v>385</v>
       </c>
-      <c r="R3" s="953"/>
+      <c r="R3" s="972"/>
       <c r="S3" s="724"/>
       <c r="T3" s="732" t="s">
         <v>386</v>
@@ -10412,7 +10567,7 @@
       <c r="U3" s="724"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="969"/>
+      <c r="A4" s="959"/>
       <c r="B4" s="524" t="s">
         <v>387</v>
       </c>
@@ -10671,14 +10826,14 @@
       <c r="K10" s="739"/>
       <c r="L10" s="739"/>
       <c r="N10" s="732"/>
-      <c r="O10" s="953" t="s">
+      <c r="O10" s="972" t="s">
         <v>387</v>
       </c>
-      <c r="P10" s="953"/>
-      <c r="Q10" s="953" t="s">
+      <c r="P10" s="972"/>
+      <c r="Q10" s="972" t="s">
         <v>394</v>
       </c>
-      <c r="R10" s="953"/>
+      <c r="R10" s="972"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="757" t="str">
@@ -10742,7 +10897,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="968" t="s">
+      <c r="A13" s="958" t="s">
         <v>395</v>
       </c>
       <c r="B13" s="523" t="str">
@@ -10788,7 +10943,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="969"/>
+      <c r="A14" s="959"/>
       <c r="B14" s="526" t="s">
         <v>388</v>
       </c>
@@ -10918,34 +11073,34 @@
       <c r="A21" s="514" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="958" t="s">
+      <c r="B21" s="973" t="s">
         <v>549</v>
       </c>
-      <c r="C21" s="959"/>
-      <c r="D21" s="959"/>
-      <c r="E21" s="959"/>
-      <c r="F21" s="959"/>
-      <c r="G21" s="959"/>
+      <c r="C21" s="974"/>
+      <c r="D21" s="974"/>
+      <c r="E21" s="974"/>
+      <c r="F21" s="974"/>
+      <c r="G21" s="974"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="528" t="s">
         <v>364</v>
       </c>
-      <c r="B22" s="960" t="str">
+      <c r="B22" s="962" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="961"/>
-      <c r="D22" s="960" t="str">
+      <c r="C22" s="963"/>
+      <c r="D22" s="962" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="961"/>
-      <c r="F22" s="960" t="str">
+      <c r="E22" s="963"/>
+      <c r="F22" s="962" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="961"/>
+      <c r="G22" s="963"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="529"/>
@@ -11372,11 +11527,11 @@
       <c r="A41" s="531" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="966" t="str">
+      <c r="B41" s="952" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="967"/>
+      <c r="C41" s="953"/>
       <c r="D41" s="954" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
@@ -11600,11 +11755,11 @@
       <c r="F53" s="729" t="s">
         <v>555</v>
       </c>
-      <c r="H53" s="946" t="s">
+      <c r="H53" s="975" t="s">
         <v>542</v>
       </c>
-      <c r="I53" s="946"/>
-      <c r="J53" s="946"/>
+      <c r="I53" s="975"/>
+      <c r="J53" s="975"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="720" t="s">
@@ -11774,11 +11929,11 @@
       <c r="F63" s="729" t="s">
         <v>555</v>
       </c>
-      <c r="H63" s="946" t="s">
+      <c r="H63" s="975" t="s">
         <v>556</v>
       </c>
-      <c r="I63" s="946"/>
-      <c r="J63" s="946"/>
+      <c r="I63" s="975"/>
+      <c r="J63" s="975"/>
       <c r="L63" s="727"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11965,12 +12120,12 @@
       <c r="A74" s="637" t="s">
         <v>409</v>
       </c>
-      <c r="B74" s="965" t="s">
+      <c r="B74" s="951" t="s">
         <v>495</v>
       </c>
-      <c r="C74" s="965"/>
-      <c r="D74" s="965"/>
-      <c r="E74" s="965"/>
+      <c r="C74" s="951"/>
+      <c r="D74" s="951"/>
+      <c r="E74" s="951"/>
       <c r="I74" s="728"/>
       <c r="J74" s="728"/>
       <c r="K74" s="728"/>
@@ -12286,36 +12441,36 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="951" t="str">
+      <c r="B85" s="966" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="952"/>
-      <c r="D85" s="951" t="str">
+      <c r="C85" s="967"/>
+      <c r="D85" s="966" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="952"/>
-      <c r="F85" s="951" t="str">
+      <c r="E85" s="967"/>
+      <c r="F85" s="966" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="952"/>
+      <c r="G85" s="967"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="515"/>
-      <c r="B86" s="907" t="s">
+      <c r="B86" s="911" t="s">
         <v>317</v>
       </c>
-      <c r="C86" s="908"/>
-      <c r="D86" s="907" t="s">
+      <c r="C86" s="912"/>
+      <c r="D86" s="911" t="s">
         <v>317</v>
       </c>
-      <c r="E86" s="908"/>
-      <c r="F86" s="907" t="s">
+      <c r="E86" s="912"/>
+      <c r="F86" s="911" t="s">
         <v>317</v>
       </c>
-      <c r="G86" s="908"/>
+      <c r="G86" s="912"/>
       <c r="N86" s="732" t="s">
         <v>436</v>
       </c>
@@ -12596,36 +12751,36 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="951" t="str">
+      <c r="B101" s="966" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="952"/>
-      <c r="D101" s="951" t="str">
+      <c r="C101" s="967"/>
+      <c r="D101" s="966" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="952"/>
-      <c r="F101" s="951" t="str">
+      <c r="E101" s="967"/>
+      <c r="F101" s="966" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="952"/>
+      <c r="G101" s="967"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="515"/>
-      <c r="B102" s="907" t="s">
+      <c r="B102" s="911" t="s">
         <v>317</v>
       </c>
-      <c r="C102" s="908"/>
-      <c r="D102" s="907" t="s">
+      <c r="C102" s="912"/>
+      <c r="D102" s="911" t="s">
         <v>317</v>
       </c>
-      <c r="E102" s="908"/>
-      <c r="F102" s="907" t="s">
+      <c r="E102" s="912"/>
+      <c r="F102" s="911" t="s">
         <v>317</v>
       </c>
-      <c r="G102" s="908"/>
+      <c r="G102" s="912"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="516" t="s">
@@ -12906,36 +13061,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="947" t="str">
+      <c r="B116" s="968" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="948"/>
-      <c r="D116" s="947" t="str">
+      <c r="C116" s="969"/>
+      <c r="D116" s="968" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="948"/>
-      <c r="F116" s="947" t="str">
+      <c r="E116" s="969"/>
+      <c r="F116" s="968" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="948"/>
+      <c r="G116" s="969"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="554"/>
-      <c r="B117" s="949" t="s">
+      <c r="B117" s="970" t="s">
         <v>317</v>
       </c>
-      <c r="C117" s="950"/>
-      <c r="D117" s="949" t="s">
+      <c r="C117" s="971"/>
+      <c r="D117" s="970" t="s">
         <v>317</v>
       </c>
-      <c r="E117" s="950"/>
-      <c r="F117" s="949" t="s">
+      <c r="E117" s="971"/>
+      <c r="F117" s="970" t="s">
         <v>317</v>
       </c>
-      <c r="G117" s="950"/>
+      <c r="G117" s="971"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="555" t="s">
@@ -13238,12 +13393,12 @@
       <c r="A129" s="558" t="s">
         <v>395</v>
       </c>
-      <c r="B129" s="962" t="str">
+      <c r="B129" s="964" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="963"/>
-      <c r="D129" s="963"/>
+      <c r="C129" s="965"/>
+      <c r="D129" s="965"/>
       <c r="N129" s="732" t="s">
         <v>436</v>
       </c>
@@ -14019,16 +14174,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14042,22 +14203,16 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17391,7 +17546,7 @@
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="972" t="s">
+      <c r="D1" s="786" t="s">
         <v>109</v>
       </c>
       <c r="E1" s="5"/>
@@ -17452,62 +17607,62 @@
       <c r="AP3" s="7"/>
     </row>
     <row r="4" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="786" t="s">
+      <c r="A4" s="788" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="787"/>
-      <c r="C4" s="787"/>
-      <c r="D4" s="787"/>
-      <c r="E4" s="788"/>
-      <c r="F4" s="788"/>
-      <c r="G4" s="788"/>
-      <c r="H4" s="788"/>
-      <c r="I4" s="788"/>
-      <c r="J4" s="788"/>
-      <c r="K4" s="788"/>
-      <c r="L4" s="788"/>
-      <c r="M4" s="788"/>
-      <c r="N4" s="788"/>
-      <c r="O4" s="788"/>
-      <c r="P4" s="788"/>
-      <c r="Q4" s="788"/>
-      <c r="R4" s="788"/>
-      <c r="S4" s="788"/>
-      <c r="T4" s="788"/>
-      <c r="U4" s="788"/>
-      <c r="V4" s="788"/>
-      <c r="W4" s="788"/>
-      <c r="X4" s="788"/>
-      <c r="Y4" s="788"/>
-      <c r="Z4" s="788"/>
-      <c r="AA4" s="788"/>
-      <c r="AB4" s="788"/>
-      <c r="AC4" s="788"/>
-      <c r="AD4" s="788"/>
-      <c r="AE4" s="788"/>
-      <c r="AF4" s="788"/>
-      <c r="AG4" s="788"/>
-      <c r="AH4" s="788"/>
-      <c r="AI4" s="788"/>
-      <c r="AJ4" s="788"/>
-      <c r="AK4" s="788"/>
-      <c r="AL4" s="788"/>
-      <c r="AM4" s="788"/>
-      <c r="AN4" s="788"/>
-      <c r="AO4" s="788"/>
-      <c r="AP4" s="788"/>
+      <c r="B4" s="789"/>
+      <c r="C4" s="789"/>
+      <c r="D4" s="789"/>
+      <c r="E4" s="790"/>
+      <c r="F4" s="790"/>
+      <c r="G4" s="790"/>
+      <c r="H4" s="790"/>
+      <c r="I4" s="790"/>
+      <c r="J4" s="790"/>
+      <c r="K4" s="790"/>
+      <c r="L4" s="790"/>
+      <c r="M4" s="790"/>
+      <c r="N4" s="790"/>
+      <c r="O4" s="790"/>
+      <c r="P4" s="790"/>
+      <c r="Q4" s="790"/>
+      <c r="R4" s="790"/>
+      <c r="S4" s="790"/>
+      <c r="T4" s="790"/>
+      <c r="U4" s="790"/>
+      <c r="V4" s="790"/>
+      <c r="W4" s="790"/>
+      <c r="X4" s="790"/>
+      <c r="Y4" s="790"/>
+      <c r="Z4" s="790"/>
+      <c r="AA4" s="790"/>
+      <c r="AB4" s="790"/>
+      <c r="AC4" s="790"/>
+      <c r="AD4" s="790"/>
+      <c r="AE4" s="790"/>
+      <c r="AF4" s="790"/>
+      <c r="AG4" s="790"/>
+      <c r="AH4" s="790"/>
+      <c r="AI4" s="790"/>
+      <c r="AJ4" s="790"/>
+      <c r="AK4" s="790"/>
+      <c r="AL4" s="790"/>
+      <c r="AM4" s="790"/>
+      <c r="AN4" s="790"/>
+      <c r="AO4" s="790"/>
+      <c r="AP4" s="790"/>
     </row>
     <row r="5" spans="1:42" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="789" t="s">
+      <c r="A5" s="791" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="789" t="s">
+      <c r="B5" s="791" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="789" t="s">
+      <c r="C5" s="791" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="789" t="s">
+      <c r="D5" s="791" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -17567,10 +17722,10 @@
       <c r="W5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="791" t="s">
+      <c r="X5" s="793" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="791" t="s">
+      <c r="Y5" s="793" t="s">
         <v>84</v>
       </c>
       <c r="Z5" s="17" t="s">
@@ -17600,7 +17755,7 @@
       <c r="AH5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AI5" s="791" t="s">
+      <c r="AI5" s="793" t="s">
         <v>93</v>
       </c>
       <c r="AJ5" s="17" t="s">
@@ -17609,27 +17764,27 @@
       <c r="AK5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AL5" s="789" t="s">
+      <c r="AL5" s="791" t="s">
         <v>96</v>
       </c>
-      <c r="AM5" s="789" t="s">
+      <c r="AM5" s="791" t="s">
         <v>97</v>
       </c>
-      <c r="AN5" s="789" t="s">
+      <c r="AN5" s="791" t="s">
         <v>98</v>
       </c>
-      <c r="AO5" s="789" t="s">
+      <c r="AO5" s="791" t="s">
         <v>99</v>
       </c>
-      <c r="AP5" s="789" t="s">
+      <c r="AP5" s="791" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="790"/>
-      <c r="B6" s="790"/>
-      <c r="C6" s="790"/>
-      <c r="D6" s="790"/>
+      <c r="A6" s="792"/>
+      <c r="B6" s="792"/>
+      <c r="C6" s="792"/>
+      <c r="D6" s="792"/>
       <c r="E6" s="15" t="s">
         <v>101</v>
       </c>
@@ -17687,8 +17842,8 @@
       <c r="W6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="X6" s="792"/>
-      <c r="Y6" s="792"/>
+      <c r="X6" s="794"/>
+      <c r="Y6" s="794"/>
       <c r="Z6" s="10" t="s">
         <v>102</v>
       </c>
@@ -17716,18 +17871,18 @@
       <c r="AH6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="AI6" s="792"/>
+      <c r="AI6" s="794"/>
       <c r="AJ6" s="10" t="s">
         <v>102</v>
       </c>
       <c r="AK6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AL6" s="790"/>
-      <c r="AM6" s="790"/>
-      <c r="AN6" s="790"/>
-      <c r="AO6" s="790"/>
-      <c r="AP6" s="790"/>
+      <c r="AL6" s="792"/>
+      <c r="AM6" s="792"/>
+      <c r="AN6" s="792"/>
+      <c r="AO6" s="792"/>
+      <c r="AP6" s="792"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="AD7" s="9"/>
@@ -57893,36 +58048,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="772" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="801"/>
-      <c r="B1" s="801"/>
-      <c r="C1" s="801"/>
-      <c r="D1" s="802"/>
-      <c r="E1" s="803"/>
-      <c r="F1" s="803"/>
-      <c r="G1" s="804"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="808"/>
-      <c r="N1" s="809"/>
-      <c r="O1" s="809"/>
-      <c r="P1" s="810"/>
-      <c r="Q1" s="811"/>
-      <c r="R1" s="811"/>
-      <c r="S1" s="793"/>
-      <c r="T1" s="794"/>
-      <c r="U1" s="794"/>
-      <c r="V1" s="795"/>
-      <c r="W1" s="796"/>
-      <c r="X1" s="796"/>
-      <c r="Y1" s="797"/>
-      <c r="Z1" s="798"/>
-      <c r="AA1" s="798"/>
-      <c r="AB1" s="799"/>
-      <c r="AC1" s="800"/>
-      <c r="AD1" s="800"/>
+      <c r="A1" s="803"/>
+      <c r="B1" s="803"/>
+      <c r="C1" s="803"/>
+      <c r="D1" s="804"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="808"/>
+      <c r="K1" s="809"/>
+      <c r="L1" s="809"/>
+      <c r="M1" s="810"/>
+      <c r="N1" s="811"/>
+      <c r="O1" s="811"/>
+      <c r="P1" s="812"/>
+      <c r="Q1" s="813"/>
+      <c r="R1" s="813"/>
+      <c r="S1" s="795"/>
+      <c r="T1" s="796"/>
+      <c r="U1" s="796"/>
+      <c r="V1" s="797"/>
+      <c r="W1" s="798"/>
+      <c r="X1" s="798"/>
+      <c r="Y1" s="799"/>
+      <c r="Z1" s="800"/>
+      <c r="AA1" s="800"/>
+      <c r="AB1" s="801"/>
+      <c r="AC1" s="802"/>
+      <c r="AD1" s="802"/>
     </row>
     <row r="2" spans="1:30" s="771" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="761"/>
@@ -57997,10 +58152,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="812" t="s">
+      <c r="A1" s="814" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="814" t="s">
+      <c r="B1" s="816" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="682" t="s">
@@ -58050,8 +58205,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="813"/>
-      <c r="B2" s="815"/>
+      <c r="A2" s="815"/>
+      <c r="B2" s="817"/>
       <c r="C2" s="10" t="s">
         <v>102</v>
       </c>
@@ -58215,123 +58370,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="673" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="845" t="s">
+      <c r="A1" s="818" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="846"/>
-      <c r="C1" s="846"/>
-      <c r="D1" s="846"/>
-      <c r="E1" s="846"/>
-      <c r="F1" s="846"/>
-      <c r="G1" s="846"/>
-      <c r="H1" s="847" t="s">
+      <c r="B1" s="819"/>
+      <c r="C1" s="819"/>
+      <c r="D1" s="819"/>
+      <c r="E1" s="819"/>
+      <c r="F1" s="819"/>
+      <c r="G1" s="819"/>
+      <c r="H1" s="820" t="s">
         <v>504</v>
       </c>
-      <c r="I1" s="848"/>
-      <c r="J1" s="848"/>
-      <c r="K1" s="848"/>
-      <c r="L1" s="848"/>
-      <c r="M1" s="849"/>
-      <c r="N1" s="850" t="s">
+      <c r="I1" s="821"/>
+      <c r="J1" s="821"/>
+      <c r="K1" s="821"/>
+      <c r="L1" s="821"/>
+      <c r="M1" s="822"/>
+      <c r="N1" s="823" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="828"/>
-      <c r="P1" s="828"/>
-      <c r="Q1" s="828"/>
-      <c r="R1" s="828"/>
-      <c r="S1" s="828"/>
-      <c r="T1" s="828"/>
-      <c r="U1" s="828"/>
-      <c r="V1" s="851" t="s">
+      <c r="O1" s="824"/>
+      <c r="P1" s="824"/>
+      <c r="Q1" s="824"/>
+      <c r="R1" s="824"/>
+      <c r="S1" s="824"/>
+      <c r="T1" s="824"/>
+      <c r="U1" s="824"/>
+      <c r="V1" s="825" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="852"/>
-      <c r="X1" s="853"/>
-      <c r="Y1" s="853"/>
-      <c r="Z1" s="854"/>
-      <c r="AA1" s="855" t="s">
+      <c r="W1" s="826"/>
+      <c r="X1" s="827"/>
+      <c r="Y1" s="827"/>
+      <c r="Z1" s="828"/>
+      <c r="AA1" s="829" t="s">
         <v>119</v>
       </c>
-      <c r="AB1" s="856"/>
-      <c r="AC1" s="856"/>
-      <c r="AD1" s="856"/>
-      <c r="AE1" s="856"/>
-      <c r="AF1" s="856"/>
-      <c r="AG1" s="856"/>
-      <c r="AH1" s="856"/>
-      <c r="AI1" s="856"/>
-      <c r="AJ1" s="856"/>
-      <c r="AK1" s="856"/>
-      <c r="AL1" s="856"/>
-      <c r="AM1" s="856"/>
+      <c r="AB1" s="830"/>
+      <c r="AC1" s="830"/>
+      <c r="AD1" s="830"/>
+      <c r="AE1" s="830"/>
+      <c r="AF1" s="830"/>
+      <c r="AG1" s="830"/>
+      <c r="AH1" s="830"/>
+      <c r="AI1" s="830"/>
+      <c r="AJ1" s="830"/>
+      <c r="AK1" s="830"/>
+      <c r="AL1" s="830"/>
+      <c r="AM1" s="830"/>
       <c r="AN1" s="53"/>
       <c r="AO1" s="54"/>
-      <c r="AP1" s="827" t="s">
+      <c r="AP1" s="842" t="s">
         <v>120</v>
       </c>
-      <c r="AQ1" s="828"/>
-      <c r="AR1" s="828"/>
-      <c r="AS1" s="828"/>
-      <c r="AT1" s="828"/>
-      <c r="AU1" s="828"/>
-      <c r="AV1" s="828"/>
-      <c r="AW1" s="829"/>
-      <c r="AX1" s="836" t="s">
+      <c r="AQ1" s="824"/>
+      <c r="AR1" s="824"/>
+      <c r="AS1" s="824"/>
+      <c r="AT1" s="824"/>
+      <c r="AU1" s="824"/>
+      <c r="AV1" s="824"/>
+      <c r="AW1" s="843"/>
+      <c r="AX1" s="850" t="s">
         <v>121</v>
       </c>
-      <c r="AY1" s="837"/>
-      <c r="AZ1" s="837"/>
-      <c r="BA1" s="837"/>
-      <c r="BB1" s="837"/>
-      <c r="BC1" s="838"/>
-      <c r="BD1" s="839" t="s">
+      <c r="AY1" s="851"/>
+      <c r="AZ1" s="851"/>
+      <c r="BA1" s="851"/>
+      <c r="BB1" s="851"/>
+      <c r="BC1" s="852"/>
+      <c r="BD1" s="853" t="s">
         <v>122</v>
       </c>
-      <c r="BE1" s="840"/>
-      <c r="BF1" s="840"/>
-      <c r="BG1" s="840"/>
-      <c r="BH1" s="840"/>
-      <c r="BI1" s="841"/>
-      <c r="BJ1" s="842" t="s">
+      <c r="BE1" s="854"/>
+      <c r="BF1" s="854"/>
+      <c r="BG1" s="854"/>
+      <c r="BH1" s="854"/>
+      <c r="BI1" s="855"/>
+      <c r="BJ1" s="856" t="s">
         <v>123</v>
       </c>
-      <c r="BK1" s="843"/>
-      <c r="BL1" s="843"/>
-      <c r="BM1" s="843"/>
-      <c r="BN1" s="843"/>
-      <c r="BO1" s="843"/>
-      <c r="BP1" s="844"/>
-      <c r="BQ1" s="816" t="s">
+      <c r="BK1" s="857"/>
+      <c r="BL1" s="857"/>
+      <c r="BM1" s="857"/>
+      <c r="BN1" s="857"/>
+      <c r="BO1" s="857"/>
+      <c r="BP1" s="858"/>
+      <c r="BQ1" s="831" t="s">
         <v>124</v>
       </c>
-      <c r="BR1" s="817"/>
-      <c r="BS1" s="817"/>
-      <c r="BT1" s="817"/>
-      <c r="BU1" s="817"/>
-      <c r="BV1" s="817"/>
+      <c r="BR1" s="832"/>
+      <c r="BS1" s="832"/>
+      <c r="BT1" s="832"/>
+      <c r="BU1" s="832"/>
+      <c r="BV1" s="832"/>
       <c r="BW1" s="54"/>
       <c r="BX1" s="55"/>
-      <c r="BY1" s="818" t="s">
+      <c r="BY1" s="833" t="s">
         <v>125</v>
       </c>
-      <c r="BZ1" s="819"/>
-      <c r="CA1" s="819"/>
-      <c r="CB1" s="819"/>
-      <c r="CC1" s="819"/>
-      <c r="CD1" s="819"/>
-      <c r="CE1" s="819"/>
-      <c r="CF1" s="820"/>
-      <c r="CG1" s="820"/>
-      <c r="CH1" s="820"/>
-      <c r="CI1" s="820"/>
-      <c r="CJ1" s="820"/>
-      <c r="CK1" s="820"/>
-      <c r="CL1" s="820"/>
-      <c r="CM1" s="820"/>
-      <c r="CN1" s="820"/>
-      <c r="CO1" s="820"/>
-      <c r="CP1" s="820"/>
-      <c r="CQ1" s="820"/>
+      <c r="BZ1" s="834"/>
+      <c r="CA1" s="834"/>
+      <c r="CB1" s="834"/>
+      <c r="CC1" s="834"/>
+      <c r="CD1" s="834"/>
+      <c r="CE1" s="834"/>
+      <c r="CF1" s="835"/>
+      <c r="CG1" s="835"/>
+      <c r="CH1" s="835"/>
+      <c r="CI1" s="835"/>
+      <c r="CJ1" s="835"/>
+      <c r="CK1" s="835"/>
+      <c r="CL1" s="835"/>
+      <c r="CM1" s="835"/>
+      <c r="CN1" s="835"/>
+      <c r="CO1" s="835"/>
+      <c r="CP1" s="835"/>
+      <c r="CQ1" s="835"/>
     </row>
     <row r="2" spans="1:95" s="673" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -58355,18 +58510,18 @@
       <c r="G2" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="821" t="s">
+      <c r="H2" s="836" t="s">
         <v>505</v>
       </c>
-      <c r="I2" s="822"/>
-      <c r="J2" s="822" t="s">
+      <c r="I2" s="837"/>
+      <c r="J2" s="837" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="822"/>
-      <c r="L2" s="822" t="s">
+      <c r="K2" s="837"/>
+      <c r="L2" s="837" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="823"/>
+      <c r="M2" s="838"/>
       <c r="N2" s="58" t="s">
         <v>126</v>
       </c>
@@ -58475,36 +58630,36 @@
       <c r="AW2" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="AX2" s="824" t="s">
+      <c r="AX2" s="839" t="s">
         <v>161</v>
       </c>
-      <c r="AY2" s="825"/>
-      <c r="AZ2" s="825"/>
-      <c r="BA2" s="825" t="s">
+      <c r="AY2" s="840"/>
+      <c r="AZ2" s="840"/>
+      <c r="BA2" s="840" t="s">
         <v>162</v>
       </c>
-      <c r="BB2" s="825"/>
-      <c r="BC2" s="826"/>
-      <c r="BD2" s="830" t="s">
+      <c r="BB2" s="840"/>
+      <c r="BC2" s="841"/>
+      <c r="BD2" s="844" t="s">
         <v>161</v>
       </c>
-      <c r="BE2" s="831"/>
-      <c r="BF2" s="831"/>
-      <c r="BG2" s="831" t="s">
+      <c r="BE2" s="845"/>
+      <c r="BF2" s="845"/>
+      <c r="BG2" s="845" t="s">
         <v>162</v>
       </c>
-      <c r="BH2" s="831"/>
-      <c r="BI2" s="832"/>
-      <c r="BJ2" s="833" t="s">
+      <c r="BH2" s="845"/>
+      <c r="BI2" s="846"/>
+      <c r="BJ2" s="847" t="s">
         <v>161</v>
       </c>
-      <c r="BK2" s="834"/>
-      <c r="BL2" s="834"/>
-      <c r="BM2" s="834" t="s">
+      <c r="BK2" s="848"/>
+      <c r="BL2" s="848"/>
+      <c r="BM2" s="848" t="s">
         <v>162</v>
       </c>
-      <c r="BN2" s="835"/>
-      <c r="BO2" s="835"/>
+      <c r="BN2" s="849"/>
+      <c r="BO2" s="849"/>
       <c r="BP2" s="70" t="s">
         <v>163</v>
       </c>
@@ -59137,11 +59292,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59157,6 +59307,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59239,127 +59394,127 @@
         <v>203</v>
       </c>
       <c r="L1" s="146"/>
-      <c r="M1" s="880" t="s">
+      <c r="M1" s="859" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="973" t="s">
+      <c r="N1" s="860" t="s">
         <v>564</v>
       </c>
-      <c r="O1" s="974"/>
-      <c r="P1" s="974"/>
-      <c r="Q1" s="974"/>
-      <c r="R1" s="883" t="s">
+      <c r="O1" s="861"/>
+      <c r="P1" s="861"/>
+      <c r="Q1" s="861"/>
+      <c r="R1" s="862" t="s">
         <v>504</v>
       </c>
-      <c r="S1" s="876"/>
-      <c r="T1" s="876"/>
-      <c r="U1" s="876"/>
-      <c r="V1" s="876"/>
-      <c r="W1" s="876"/>
-      <c r="X1" s="884"/>
-      <c r="Y1" s="870" t="s">
+      <c r="S1" s="863"/>
+      <c r="T1" s="863"/>
+      <c r="U1" s="863"/>
+      <c r="V1" s="863"/>
+      <c r="W1" s="863"/>
+      <c r="X1" s="864"/>
+      <c r="Y1" s="865" t="s">
         <v>512</v>
       </c>
-      <c r="Z1" s="840"/>
-      <c r="AA1" s="885" t="s">
+      <c r="Z1" s="854"/>
+      <c r="AA1" s="868" t="s">
         <v>205</v>
       </c>
-      <c r="AB1" s="858" t="s">
+      <c r="AB1" s="879" t="s">
         <v>206</v>
       </c>
-      <c r="AC1" s="872" t="s">
+      <c r="AC1" s="875" t="s">
         <v>207</v>
       </c>
-      <c r="AD1" s="873"/>
-      <c r="AE1" s="873"/>
-      <c r="AF1" s="874"/>
-      <c r="AG1" s="875" t="s">
+      <c r="AD1" s="876"/>
+      <c r="AE1" s="876"/>
+      <c r="AF1" s="877"/>
+      <c r="AG1" s="878" t="s">
         <v>208</v>
       </c>
-      <c r="AH1" s="876"/>
-      <c r="AI1" s="876"/>
-      <c r="AJ1" s="876"/>
-      <c r="AK1" s="876"/>
-      <c r="AL1" s="876"/>
-      <c r="AM1" s="876"/>
-      <c r="AN1" s="876"/>
-      <c r="AO1" s="858" t="s">
+      <c r="AH1" s="863"/>
+      <c r="AI1" s="863"/>
+      <c r="AJ1" s="863"/>
+      <c r="AK1" s="863"/>
+      <c r="AL1" s="863"/>
+      <c r="AM1" s="863"/>
+      <c r="AN1" s="863"/>
+      <c r="AO1" s="879" t="s">
         <v>209</v>
       </c>
-      <c r="AP1" s="870" t="s">
+      <c r="AP1" s="865" t="s">
         <v>511</v>
       </c>
-      <c r="AQ1" s="840"/>
-      <c r="AR1" s="840"/>
-      <c r="AS1" s="841"/>
-      <c r="AT1" s="878" t="s">
+      <c r="AQ1" s="854"/>
+      <c r="AR1" s="854"/>
+      <c r="AS1" s="855"/>
+      <c r="AT1" s="882" t="s">
         <v>210</v>
       </c>
-      <c r="AU1" s="879"/>
-      <c r="AV1" s="879"/>
-      <c r="AW1" s="879"/>
-      <c r="AX1" s="879"/>
-      <c r="AY1" s="879"/>
-      <c r="AZ1" s="879"/>
-      <c r="BA1" s="879"/>
-      <c r="BB1" s="879"/>
-      <c r="BC1" s="879"/>
-      <c r="BD1" s="879"/>
-      <c r="BE1" s="879"/>
-      <c r="BF1" s="879"/>
-      <c r="BG1" s="879"/>
-      <c r="BH1" s="879"/>
-      <c r="BI1" s="879"/>
-      <c r="BJ1" s="879"/>
-      <c r="BK1" s="879"/>
-      <c r="BL1" s="879"/>
-      <c r="BM1" s="879"/>
-      <c r="BN1" s="879"/>
-      <c r="BO1" s="879"/>
-      <c r="BP1" s="879"/>
-      <c r="BQ1" s="879"/>
-      <c r="BR1" s="879"/>
-      <c r="BS1" s="879"/>
-      <c r="BT1" s="879"/>
-      <c r="BU1" s="879"/>
-      <c r="BV1" s="879"/>
-      <c r="BW1" s="858" t="s">
+      <c r="AU1" s="883"/>
+      <c r="AV1" s="883"/>
+      <c r="AW1" s="883"/>
+      <c r="AX1" s="883"/>
+      <c r="AY1" s="883"/>
+      <c r="AZ1" s="883"/>
+      <c r="BA1" s="883"/>
+      <c r="BB1" s="883"/>
+      <c r="BC1" s="883"/>
+      <c r="BD1" s="883"/>
+      <c r="BE1" s="883"/>
+      <c r="BF1" s="883"/>
+      <c r="BG1" s="883"/>
+      <c r="BH1" s="883"/>
+      <c r="BI1" s="883"/>
+      <c r="BJ1" s="883"/>
+      <c r="BK1" s="883"/>
+      <c r="BL1" s="883"/>
+      <c r="BM1" s="883"/>
+      <c r="BN1" s="883"/>
+      <c r="BO1" s="883"/>
+      <c r="BP1" s="883"/>
+      <c r="BQ1" s="883"/>
+      <c r="BR1" s="883"/>
+      <c r="BS1" s="883"/>
+      <c r="BT1" s="883"/>
+      <c r="BU1" s="883"/>
+      <c r="BV1" s="883"/>
+      <c r="BW1" s="879" t="s">
         <v>211</v>
       </c>
-      <c r="BX1" s="870" t="s">
+      <c r="BX1" s="865" t="s">
         <v>510</v>
       </c>
-      <c r="BY1" s="840"/>
-      <c r="BZ1" s="840"/>
-      <c r="CA1" s="841"/>
-      <c r="CB1" s="869" t="s">
+      <c r="BY1" s="854"/>
+      <c r="BZ1" s="854"/>
+      <c r="CA1" s="855"/>
+      <c r="CB1" s="891" t="s">
         <v>529</v>
       </c>
-      <c r="CC1" s="871" t="s">
+      <c r="CC1" s="873" t="s">
         <v>119</v>
       </c>
-      <c r="CD1" s="871"/>
-      <c r="CE1" s="871"/>
-      <c r="CF1" s="871"/>
-      <c r="CG1" s="871"/>
-      <c r="CH1" s="871"/>
-      <c r="CI1" s="871"/>
-      <c r="CJ1" s="871"/>
-      <c r="CK1" s="871"/>
-      <c r="CL1" s="871"/>
-      <c r="CM1" s="871"/>
-      <c r="CN1" s="871"/>
+      <c r="CD1" s="873"/>
+      <c r="CE1" s="873"/>
+      <c r="CF1" s="873"/>
+      <c r="CG1" s="873"/>
+      <c r="CH1" s="873"/>
+      <c r="CI1" s="873"/>
+      <c r="CJ1" s="873"/>
+      <c r="CK1" s="873"/>
+      <c r="CL1" s="873"/>
+      <c r="CM1" s="873"/>
+      <c r="CN1" s="873"/>
       <c r="CO1" s="147"/>
-      <c r="CP1" s="857" t="s">
+      <c r="CP1" s="887" t="s">
         <v>124</v>
       </c>
-      <c r="CQ1" s="828"/>
-      <c r="CR1" s="828"/>
-      <c r="CS1" s="828"/>
-      <c r="CT1" s="828"/>
-      <c r="CU1" s="828"/>
-      <c r="CV1" s="828"/>
-      <c r="CW1" s="829"/>
+      <c r="CQ1" s="824"/>
+      <c r="CR1" s="824"/>
+      <c r="CS1" s="824"/>
+      <c r="CT1" s="824"/>
+      <c r="CU1" s="824"/>
+      <c r="CV1" s="824"/>
+      <c r="CW1" s="843"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="148" t="s">
@@ -59398,7 +59553,7 @@
       <c r="L2" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="880"/>
+      <c r="M2" s="859"/>
       <c r="N2" s="153" t="s">
         <v>216</v>
       </c>
@@ -59414,22 +59569,22 @@
       <c r="R2" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="887" t="s">
+      <c r="S2" s="870" t="s">
         <v>505</v>
       </c>
-      <c r="T2" s="835"/>
-      <c r="U2" s="888" t="s">
+      <c r="T2" s="849"/>
+      <c r="U2" s="871" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="888"/>
-      <c r="W2" s="888" t="s">
+      <c r="V2" s="871"/>
+      <c r="W2" s="871" t="s">
         <v>134</v>
       </c>
-      <c r="X2" s="889"/>
-      <c r="Y2" s="864"/>
-      <c r="Z2" s="865"/>
-      <c r="AA2" s="886"/>
-      <c r="AB2" s="859"/>
+      <c r="X2" s="872"/>
+      <c r="Y2" s="866"/>
+      <c r="Z2" s="867"/>
+      <c r="AA2" s="869"/>
+      <c r="AB2" s="880"/>
       <c r="AC2" s="154" t="s">
         <v>220</v>
       </c>
@@ -59442,81 +59597,81 @@
       <c r="AF2" s="154" t="s">
         <v>223</v>
       </c>
-      <c r="AG2" s="877" t="s">
+      <c r="AG2" s="881" t="s">
         <v>224</v>
       </c>
-      <c r="AH2" s="862"/>
-      <c r="AI2" s="862" t="s">
+      <c r="AH2" s="874"/>
+      <c r="AI2" s="874" t="s">
         <v>225</v>
       </c>
-      <c r="AJ2" s="862"/>
-      <c r="AK2" s="862" t="s">
+      <c r="AJ2" s="874"/>
+      <c r="AK2" s="874" t="s">
         <v>226</v>
       </c>
-      <c r="AL2" s="862"/>
+      <c r="AL2" s="874"/>
       <c r="AM2" s="155" t="s">
         <v>227</v>
       </c>
       <c r="AN2" s="155" t="s">
         <v>228</v>
       </c>
-      <c r="AO2" s="859"/>
-      <c r="AP2" s="864" t="s">
+      <c r="AO2" s="880"/>
+      <c r="AP2" s="866" t="s">
         <v>229</v>
       </c>
-      <c r="AQ2" s="865"/>
-      <c r="AR2" s="866" t="s">
+      <c r="AQ2" s="867"/>
+      <c r="AR2" s="884" t="s">
         <v>230</v>
       </c>
-      <c r="AS2" s="867"/>
-      <c r="AT2" s="862" t="s">
+      <c r="AS2" s="885"/>
+      <c r="AT2" s="874" t="s">
         <v>231</v>
       </c>
-      <c r="AU2" s="862"/>
-      <c r="AV2" s="863" t="s">
+      <c r="AU2" s="874"/>
+      <c r="AV2" s="886" t="s">
         <v>232</v>
       </c>
-      <c r="AW2" s="863"/>
-      <c r="AX2" s="863" t="s">
+      <c r="AW2" s="886"/>
+      <c r="AX2" s="886" t="s">
         <v>233</v>
       </c>
-      <c r="AY2" s="863"/>
+      <c r="AY2" s="886"/>
       <c r="AZ2" s="155" t="s">
         <v>234</v>
       </c>
       <c r="BA2" s="155" t="s">
         <v>235</v>
       </c>
-      <c r="BB2" s="862" t="s">
+      <c r="BB2" s="874" t="s">
         <v>236</v>
       </c>
-      <c r="BC2" s="862"/>
-      <c r="BD2" s="863" t="s">
+      <c r="BC2" s="874"/>
+      <c r="BD2" s="886" t="s">
         <v>237</v>
       </c>
-      <c r="BE2" s="863"/>
-      <c r="BF2" s="863" t="s">
+      <c r="BE2" s="886"/>
+      <c r="BF2" s="886" t="s">
         <v>238</v>
       </c>
-      <c r="BG2" s="863"/>
+      <c r="BG2" s="886"/>
       <c r="BH2" s="155" t="s">
         <v>239</v>
       </c>
       <c r="BI2" s="155" t="s">
         <v>240</v>
       </c>
-      <c r="BJ2" s="862" t="s">
+      <c r="BJ2" s="874" t="s">
         <v>241</v>
       </c>
-      <c r="BK2" s="862"/>
-      <c r="BL2" s="863" t="s">
+      <c r="BK2" s="874"/>
+      <c r="BL2" s="886" t="s">
         <v>242</v>
       </c>
-      <c r="BM2" s="863"/>
-      <c r="BN2" s="863" t="s">
+      <c r="BM2" s="886"/>
+      <c r="BN2" s="886" t="s">
         <v>243</v>
       </c>
-      <c r="BO2" s="863"/>
+      <c r="BO2" s="886"/>
       <c r="BP2" s="155" t="s">
         <v>244</v>
       </c>
@@ -59538,16 +59693,16 @@
       <c r="BV2" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="BW2" s="859"/>
-      <c r="BX2" s="864" t="s">
+      <c r="BW2" s="880"/>
+      <c r="BX2" s="866" t="s">
         <v>229</v>
       </c>
-      <c r="BY2" s="865"/>
-      <c r="BZ2" s="866" t="s">
+      <c r="BY2" s="867"/>
+      <c r="BZ2" s="884" t="s">
         <v>230</v>
       </c>
-      <c r="CA2" s="867"/>
-      <c r="CB2" s="869"/>
+      <c r="CA2" s="885"/>
+      <c r="CB2" s="891"/>
       <c r="CC2" s="139" t="s">
         <v>142</v>
       </c>
@@ -59587,22 +59742,22 @@
       <c r="CO2" s="141" t="s">
         <v>513</v>
       </c>
-      <c r="CP2" s="868" t="s">
+      <c r="CP2" s="890" t="s">
         <v>252</v>
       </c>
-      <c r="CQ2" s="860"/>
-      <c r="CR2" s="860" t="s">
+      <c r="CQ2" s="888"/>
+      <c r="CR2" s="888" t="s">
         <v>253</v>
       </c>
-      <c r="CS2" s="860"/>
-      <c r="CT2" s="860" t="s">
+      <c r="CS2" s="888"/>
+      <c r="CT2" s="888" t="s">
         <v>254</v>
       </c>
-      <c r="CU2" s="860"/>
-      <c r="CV2" s="860" t="s">
+      <c r="CU2" s="888"/>
+      <c r="CV2" s="888" t="s">
         <v>255</v>
       </c>
-      <c r="CW2" s="861"/>
+      <c r="CW2" s="889"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="169"/>
@@ -60467,29 +60622,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60506,6 +60638,29 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60548,105 +60703,110 @@
       <c r="K1" s="145"/>
       <c r="L1" s="146"/>
       <c r="M1" s="713"/>
-      <c r="N1" s="881"/>
-      <c r="O1" s="882"/>
-      <c r="P1" s="882"/>
-      <c r="Q1" s="882"/>
-      <c r="R1" s="883"/>
-      <c r="S1" s="876"/>
-      <c r="T1" s="876"/>
-      <c r="U1" s="876"/>
-      <c r="V1" s="876"/>
-      <c r="W1" s="876"/>
-      <c r="X1" s="884"/>
-      <c r="Y1" s="870"/>
-      <c r="Z1" s="840"/>
+      <c r="N1" s="895"/>
+      <c r="O1" s="896"/>
+      <c r="P1" s="896"/>
+      <c r="Q1" s="896"/>
+      <c r="R1" s="862"/>
+      <c r="S1" s="863"/>
+      <c r="T1" s="863"/>
+      <c r="U1" s="863"/>
+      <c r="V1" s="863"/>
+      <c r="W1" s="863"/>
+      <c r="X1" s="864"/>
+      <c r="Y1" s="865"/>
+      <c r="Z1" s="854"/>
       <c r="AA1" s="714"/>
       <c r="AB1" s="712"/>
-      <c r="AC1" s="872"/>
-      <c r="AD1" s="873"/>
-      <c r="AE1" s="873"/>
-      <c r="AF1" s="874"/>
-      <c r="AG1" s="875"/>
-      <c r="AH1" s="876"/>
-      <c r="AI1" s="876"/>
-      <c r="AJ1" s="876"/>
-      <c r="AK1" s="876"/>
-      <c r="AL1" s="876"/>
-      <c r="AM1" s="876"/>
-      <c r="AN1" s="876"/>
+      <c r="AC1" s="875"/>
+      <c r="AD1" s="876"/>
+      <c r="AE1" s="876"/>
+      <c r="AF1" s="877"/>
+      <c r="AG1" s="878"/>
+      <c r="AH1" s="863"/>
+      <c r="AI1" s="863"/>
+      <c r="AJ1" s="863"/>
+      <c r="AK1" s="863"/>
+      <c r="AL1" s="863"/>
+      <c r="AM1" s="863"/>
+      <c r="AN1" s="863"/>
       <c r="AO1" s="712"/>
-      <c r="AP1" s="870"/>
-      <c r="AQ1" s="840"/>
-      <c r="AR1" s="840"/>
-      <c r="AS1" s="841"/>
-      <c r="AT1" s="878"/>
-      <c r="AU1" s="879"/>
-      <c r="AV1" s="879"/>
-      <c r="AW1" s="879"/>
-      <c r="AX1" s="879"/>
-      <c r="AY1" s="879"/>
-      <c r="AZ1" s="879"/>
-      <c r="BA1" s="879"/>
-      <c r="BB1" s="879"/>
-      <c r="BC1" s="879"/>
-      <c r="BD1" s="879"/>
-      <c r="BE1" s="879"/>
-      <c r="BF1" s="879"/>
-      <c r="BG1" s="879"/>
-      <c r="BH1" s="879"/>
-      <c r="BI1" s="879"/>
-      <c r="BJ1" s="879"/>
-      <c r="BK1" s="879"/>
-      <c r="BL1" s="879"/>
-      <c r="BM1" s="879"/>
-      <c r="BN1" s="879"/>
-      <c r="BO1" s="879"/>
-      <c r="BP1" s="879"/>
-      <c r="BQ1" s="879"/>
-      <c r="BR1" s="879"/>
-      <c r="BS1" s="879"/>
-      <c r="BT1" s="879"/>
-      <c r="BU1" s="879"/>
-      <c r="BV1" s="879"/>
+      <c r="AP1" s="865"/>
+      <c r="AQ1" s="854"/>
+      <c r="AR1" s="854"/>
+      <c r="AS1" s="855"/>
+      <c r="AT1" s="882"/>
+      <c r="AU1" s="883"/>
+      <c r="AV1" s="883"/>
+      <c r="AW1" s="883"/>
+      <c r="AX1" s="883"/>
+      <c r="AY1" s="883"/>
+      <c r="AZ1" s="883"/>
+      <c r="BA1" s="883"/>
+      <c r="BB1" s="883"/>
+      <c r="BC1" s="883"/>
+      <c r="BD1" s="883"/>
+      <c r="BE1" s="883"/>
+      <c r="BF1" s="883"/>
+      <c r="BG1" s="883"/>
+      <c r="BH1" s="883"/>
+      <c r="BI1" s="883"/>
+      <c r="BJ1" s="883"/>
+      <c r="BK1" s="883"/>
+      <c r="BL1" s="883"/>
+      <c r="BM1" s="883"/>
+      <c r="BN1" s="883"/>
+      <c r="BO1" s="883"/>
+      <c r="BP1" s="883"/>
+      <c r="BQ1" s="883"/>
+      <c r="BR1" s="883"/>
+      <c r="BS1" s="883"/>
+      <c r="BT1" s="883"/>
+      <c r="BU1" s="883"/>
+      <c r="BV1" s="883"/>
       <c r="BW1" s="712"/>
-      <c r="BX1" s="870"/>
-      <c r="BY1" s="840"/>
-      <c r="BZ1" s="840"/>
-      <c r="CA1" s="841"/>
-      <c r="CB1" s="871"/>
-      <c r="CC1" s="871"/>
-      <c r="CD1" s="871"/>
-      <c r="CE1" s="871"/>
-      <c r="CF1" s="871"/>
-      <c r="CG1" s="871"/>
-      <c r="CH1" s="871"/>
-      <c r="CI1" s="871"/>
-      <c r="CJ1" s="871"/>
-      <c r="CK1" s="871"/>
-      <c r="CL1" s="871"/>
-      <c r="CM1" s="871"/>
+      <c r="BX1" s="865"/>
+      <c r="BY1" s="854"/>
+      <c r="BZ1" s="854"/>
+      <c r="CA1" s="855"/>
+      <c r="CB1" s="873"/>
+      <c r="CC1" s="873"/>
+      <c r="CD1" s="873"/>
+      <c r="CE1" s="873"/>
+      <c r="CF1" s="873"/>
+      <c r="CG1" s="873"/>
+      <c r="CH1" s="873"/>
+      <c r="CI1" s="873"/>
+      <c r="CJ1" s="873"/>
+      <c r="CK1" s="873"/>
+      <c r="CL1" s="873"/>
+      <c r="CM1" s="873"/>
       <c r="CN1" s="711"/>
-      <c r="CO1" s="857"/>
-      <c r="CP1" s="828"/>
-      <c r="CQ1" s="828"/>
-      <c r="CR1" s="828"/>
-      <c r="CS1" s="828"/>
-      <c r="CT1" s="828"/>
-      <c r="CU1" s="828"/>
-      <c r="CV1" s="829"/>
-      <c r="CW1" s="890"/>
-      <c r="CX1" s="891"/>
-      <c r="CY1" s="891"/>
-      <c r="CZ1" s="892"/>
-      <c r="DA1" s="891"/>
-      <c r="DB1" s="891"/>
-      <c r="DC1" s="892"/>
-      <c r="DD1" s="891"/>
-      <c r="DE1" s="891"/>
+      <c r="CO1" s="887"/>
+      <c r="CP1" s="824"/>
+      <c r="CQ1" s="824"/>
+      <c r="CR1" s="824"/>
+      <c r="CS1" s="824"/>
+      <c r="CT1" s="824"/>
+      <c r="CU1" s="824"/>
+      <c r="CV1" s="843"/>
+      <c r="CW1" s="892"/>
+      <c r="CX1" s="893"/>
+      <c r="CY1" s="893"/>
+      <c r="CZ1" s="894"/>
+      <c r="DA1" s="893"/>
+      <c r="DB1" s="893"/>
+      <c r="DC1" s="894"/>
+      <c r="DD1" s="893"/>
+      <c r="DE1" s="893"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -60655,11 +60815,6 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -60682,12 +60837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="895" t="s">
+      <c r="A1" s="899" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="896"/>
-      <c r="C1" s="896"/>
-      <c r="D1" s="893" t="s">
+      <c r="B1" s="900"/>
+      <c r="C1" s="900"/>
+      <c r="D1" s="897" t="s">
         <v>258</v>
       </c>
     </row>
@@ -60701,7 +60856,7 @@
       <c r="C2" s="474" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="894"/>
+      <c r="D2" s="898"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="465"/>
@@ -60789,10 +60944,10 @@
       <c r="B2" s="204" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="904" t="s">
+      <c r="C2" s="901" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="904"/>
+      <c r="D2" s="901"/>
       <c r="E2" s="202"/>
       <c r="F2" s="202"/>
       <c r="G2" s="202"/>
@@ -60917,32 +61072,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201"/>
-      <c r="B7" s="905" t="s">
+      <c r="B7" s="902" t="s">
         <v>488</v>
       </c>
-      <c r="C7" s="905"/>
-      <c r="D7" s="905"/>
+      <c r="C7" s="902"/>
+      <c r="D7" s="902"/>
       <c r="E7" s="202"/>
       <c r="F7" s="202"/>
       <c r="G7" s="202"/>
       <c r="H7" s="202"/>
       <c r="I7" s="202"/>
-      <c r="J7" s="905" t="s">
+      <c r="J7" s="902" t="s">
         <v>487</v>
       </c>
-      <c r="K7" s="905"/>
-      <c r="L7" s="905"/>
+      <c r="K7" s="902"/>
+      <c r="L7" s="902"/>
       <c r="M7" s="202"/>
       <c r="N7" s="202"/>
       <c r="O7" s="202"/>
       <c r="P7" s="203" t="s">
         <v>280</v>
       </c>
-      <c r="Q7" s="905" t="s">
+      <c r="Q7" s="902" t="s">
         <v>488</v>
       </c>
-      <c r="R7" s="905"/>
-      <c r="S7" s="905"/>
+      <c r="R7" s="902"/>
+      <c r="S7" s="902"/>
       <c r="T7" s="202"/>
       <c r="U7" s="216" t="s">
         <v>281</v>
@@ -60976,41 +61131,41 @@
       <c r="B9" s="217" t="s">
         <v>490</v>
       </c>
-      <c r="C9" s="900" t="s">
+      <c r="C9" s="903" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="901"/>
-      <c r="E9" s="900" t="s">
+      <c r="D9" s="904"/>
+      <c r="E9" s="903" t="s">
         <v>283</v>
       </c>
-      <c r="F9" s="901"/>
+      <c r="F9" s="904"/>
       <c r="G9" s="202"/>
       <c r="H9" s="202"/>
       <c r="I9" s="202"/>
       <c r="J9" s="217" t="s">
         <v>490</v>
       </c>
-      <c r="K9" s="900" t="s">
+      <c r="K9" s="903" t="s">
         <v>282</v>
       </c>
-      <c r="L9" s="901"/>
-      <c r="M9" s="900" t="s">
+      <c r="L9" s="904"/>
+      <c r="M9" s="903" t="s">
         <v>283</v>
       </c>
-      <c r="N9" s="901"/>
+      <c r="N9" s="904"/>
       <c r="O9" s="202"/>
       <c r="P9" s="202"/>
       <c r="Q9" s="217" t="s">
         <v>490</v>
       </c>
-      <c r="R9" s="900" t="s">
+      <c r="R9" s="903" t="s">
         <v>282</v>
       </c>
-      <c r="S9" s="901"/>
-      <c r="T9" s="900" t="s">
+      <c r="S9" s="904"/>
+      <c r="T9" s="903" t="s">
         <v>283</v>
       </c>
-      <c r="U9" s="901"/>
+      <c r="U9" s="904"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="201"/>
@@ -61072,10 +61227,10 @@
       </c>
       <c r="C11" s="222"/>
       <c r="D11" s="222"/>
-      <c r="E11" s="897" t="s">
+      <c r="E11" s="905" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="898"/>
+      <c r="F11" s="906"/>
       <c r="G11" s="223"/>
       <c r="H11" s="223"/>
       <c r="I11" s="223"/>
@@ -61084,10 +61239,10 @@
       </c>
       <c r="K11" s="202"/>
       <c r="L11" s="202"/>
-      <c r="M11" s="902" t="s">
+      <c r="M11" s="908" t="s">
         <v>287</v>
       </c>
-      <c r="N11" s="903"/>
+      <c r="N11" s="909"/>
       <c r="O11" s="223"/>
       <c r="P11" s="223"/>
       <c r="Q11" s="221" t="s">
@@ -61095,10 +61250,10 @@
       </c>
       <c r="R11" s="222"/>
       <c r="S11" s="222"/>
-      <c r="T11" s="897" t="s">
+      <c r="T11" s="905" t="s">
         <v>287</v>
       </c>
-      <c r="U11" s="898"/>
+      <c r="U11" s="906"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="201"/>
@@ -61333,10 +61488,10 @@
       </c>
       <c r="C20" s="303"/>
       <c r="D20" s="250"/>
-      <c r="E20" s="897" t="s">
+      <c r="E20" s="905" t="s">
         <v>294</v>
       </c>
-      <c r="F20" s="898"/>
+      <c r="F20" s="906"/>
       <c r="G20" s="231"/>
       <c r="H20" s="231"/>
       <c r="I20" s="202"/>
@@ -61345,10 +61500,10 @@
       </c>
       <c r="K20" s="303"/>
       <c r="L20" s="250"/>
-      <c r="M20" s="897" t="s">
+      <c r="M20" s="905" t="s">
         <v>294</v>
       </c>
-      <c r="N20" s="898"/>
+      <c r="N20" s="906"/>
       <c r="O20" s="241"/>
       <c r="P20" s="241"/>
       <c r="Q20" s="221" t="s">
@@ -61356,10 +61511,10 @@
       </c>
       <c r="R20" s="303"/>
       <c r="S20" s="250"/>
-      <c r="T20" s="897" t="s">
+      <c r="T20" s="905" t="s">
         <v>294</v>
       </c>
-      <c r="U20" s="898"/>
+      <c r="U20" s="906"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="201"/>
@@ -61623,10 +61778,10 @@
       </c>
       <c r="C30" s="303"/>
       <c r="D30" s="250"/>
-      <c r="E30" s="897" t="s">
+      <c r="E30" s="905" t="s">
         <v>294</v>
       </c>
-      <c r="F30" s="898"/>
+      <c r="F30" s="906"/>
       <c r="G30" s="231"/>
       <c r="H30" s="231"/>
       <c r="I30" s="202"/>
@@ -61635,10 +61790,10 @@
       </c>
       <c r="K30" s="303"/>
       <c r="L30" s="250"/>
-      <c r="M30" s="897" t="s">
+      <c r="M30" s="905" t="s">
         <v>294</v>
       </c>
-      <c r="N30" s="898"/>
+      <c r="N30" s="906"/>
       <c r="O30" s="241"/>
       <c r="P30" s="241"/>
       <c r="Q30" s="221" t="s">
@@ -61646,10 +61801,10 @@
       </c>
       <c r="R30" s="303"/>
       <c r="S30" s="250"/>
-      <c r="T30" s="897" t="s">
+      <c r="T30" s="905" t="s">
         <v>294</v>
       </c>
-      <c r="U30" s="898"/>
+      <c r="U30" s="906"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="263"/>
@@ -61988,11 +62143,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="201"/>
-      <c r="B42" s="899"/>
-      <c r="C42" s="899"/>
-      <c r="D42" s="899"/>
-      <c r="E42" s="899"/>
-      <c r="F42" s="899"/>
+      <c r="B42" s="907"/>
+      <c r="C42" s="907"/>
+      <c r="D42" s="907"/>
+      <c r="E42" s="907"/>
+      <c r="F42" s="907"/>
       <c r="G42" s="241"/>
       <c r="H42" s="202"/>
       <c r="I42" s="241"/>
@@ -62137,15 +62292,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -62157,6 +62303,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>UWWTP treatment and performance</t>
-  </si>
-  <si>
-    <t>Compliance of treatment plant under expired and pending deadline</t>
   </si>
   <si>
     <t>Compliance of treatment plant under expired deadlines</t>
@@ -2292,6 +2289,9 @@
   <si>
     <t>Summary</t>
   </si>
+  <si>
+    <t>Compliance of treatment plant under pending deadline</t>
+  </si>
 </sst>
 </file>
 
@@ -5704,6 +5704,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="32" fillId="22" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5735,6 +5738,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5771,9 +5813,6 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5822,140 +5861,113 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5963,15 +5975,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5984,6 +5987,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -5993,23 +6008,11 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6039,6 +6042,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6064,48 +6100,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6127,84 +6121,90 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6538,31 +6538,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="773" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="774" t="s">
         <v>475</v>
-      </c>
-      <c r="B2" s="774" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="771" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B3" s="774" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="771" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B4" s="774" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="771" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B5" s="772" t="s">
         <v>6</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="771" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B6" s="772" t="s">
         <v>3</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="771" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B7" s="772" t="s">
         <v>15</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="771" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B8" s="772" t="s">
         <v>2</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="771" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" s="772" t="s">
         <v>21</v>
@@ -6602,15 +6602,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="771" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="772" t="s">
         <v>546</v>
-      </c>
-      <c r="B10" s="772" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="771" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B11" s="772" t="s">
         <v>4</v>
@@ -6618,15 +6618,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="771" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="772" t="s">
         <v>549</v>
-      </c>
-      <c r="B12" s="772" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="771" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B13" s="772" t="s">
         <v>7</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="771" t="s">
+        <v>551</v>
+      </c>
+      <c r="B14" s="772" t="s">
         <v>552</v>
-      </c>
-      <c r="B14" s="772" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="772" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,20 +6653,20 @@
         <v>23</v>
       </c>
       <c r="B16" s="772" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="771" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="772" t="s">
         <v>556</v>
-      </c>
-      <c r="B17" s="772" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="771" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B18" s="772" t="s">
         <v>13</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="771" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B19" s="772" t="s">
         <v>10</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="771" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B20" s="772" t="s">
         <v>12</v>
@@ -6690,15 +6690,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="771" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B21" s="774" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="771" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="772" t="s">
         <v>8</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="771" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B23" s="772" t="s">
         <v>18</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="771" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24" s="772" t="s">
         <v>11</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="771" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B25" s="772" t="s">
         <v>9</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="771" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B26" s="772" t="s">
         <v>17</v>
@@ -6738,15 +6738,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="771" t="s">
+        <v>563</v>
+      </c>
+      <c r="B27" s="772" t="s">
         <v>564</v>
-      </c>
-      <c r="B27" s="772" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="771" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B28" s="772" t="s">
         <v>14</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="771" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B30" s="772" t="s">
         <v>16</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="771" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B32" s="772" t="s">
         <v>5</v>
@@ -6786,114 +6786,114 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="771" t="s">
+        <v>568</v>
+      </c>
+      <c r="B33" s="772" t="s">
         <v>569</v>
-      </c>
-      <c r="B33" s="772" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="775" t="s">
+        <v>570</v>
+      </c>
+      <c r="B34" s="776" t="s">
         <v>571</v>
-      </c>
-      <c r="B34" s="776" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="771" t="s">
+        <v>572</v>
+      </c>
+      <c r="B35" s="776" t="s">
         <v>573</v>
-      </c>
-      <c r="B35" s="776" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="771" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" s="772" t="s">
         <v>575</v>
-      </c>
-      <c r="B36" s="772" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="775" t="s">
+        <v>576</v>
+      </c>
+      <c r="B37" s="772" t="s">
         <v>577</v>
-      </c>
-      <c r="B37" s="772" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="775" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="772" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="775" t="s">
+        <v>579</v>
+      </c>
+      <c r="B39" s="776" t="s">
         <v>580</v>
-      </c>
-      <c r="B39" s="776" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="775" t="s">
+        <v>581</v>
+      </c>
+      <c r="B40" s="776" t="s">
         <v>582</v>
-      </c>
-      <c r="B40" s="776" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="775" t="s">
+        <v>583</v>
+      </c>
+      <c r="B41" s="776" t="s">
         <v>584</v>
-      </c>
-      <c r="B41" s="776" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="777" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="776" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="775" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B43" s="776" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="775" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B44" s="776" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="775" t="s">
+        <v>588</v>
+      </c>
+      <c r="B45" s="776" t="s">
         <v>589</v>
-      </c>
-      <c r="B45" s="776" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="775" t="s">
+        <v>590</v>
+      </c>
+      <c r="B46" s="776" t="s">
         <v>591</v>
-      </c>
-      <c r="B46" s="776" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -6923,16 +6923,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="322" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="323"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="324" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="927"/>
-      <c r="D3" s="927"/>
+        <v>239</v>
+      </c>
+      <c r="C3" s="928"/>
+      <c r="D3" s="928"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="325"/>
@@ -6942,14 +6942,14 @@
     </row>
     <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="327" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="328"/>
       <c r="C8" s="328"/>
       <c r="D8" s="329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -6957,31 +6957,31 @@
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="503" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C10" s="331" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="332" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" s="928" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="929"/>
+        <v>278</v>
+      </c>
+      <c r="E10" s="929" t="s">
+        <v>533</v>
+      </c>
+      <c r="F10" s="930"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="334" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="343" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="505" t="s">
         <v>480</v>
-      </c>
-      <c r="E11" s="505" t="s">
-        <v>481</v>
       </c>
       <c r="F11" s="336" t="s">
         <v>70</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="337" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="344"/>
       <c r="D12" s="349">
@@ -7000,7 +7000,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="338" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C13" s="345"/>
       <c r="D13" s="350"/>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="356" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" s="357"/>
       <c r="D14" s="358"/>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C17" s="822"/>
       <c r="D17" s="808"/>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="799" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="805"/>
       <c r="D18" s="807"/>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="820" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C19" s="821"/>
       <c r="D19" s="823"/>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="804" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
@@ -7100,14 +7100,14 @@
     </row>
     <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="327" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="328"/>
       <c r="C28" s="328"/>
       <c r="D28" s="329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -7115,31 +7115,31 @@
     </row>
     <row r="30" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="503" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C30" s="331" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" s="342" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="928" t="s">
-        <v>534</v>
-      </c>
-      <c r="F30" s="929"/>
+        <v>278</v>
+      </c>
+      <c r="E30" s="929" t="s">
+        <v>533</v>
+      </c>
+      <c r="F30" s="930"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="334" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" s="343" t="s">
+        <v>479</v>
+      </c>
+      <c r="E31" s="335" t="s">
         <v>480</v>
-      </c>
-      <c r="E31" s="335" t="s">
-        <v>481</v>
       </c>
       <c r="F31" s="336" t="s">
         <v>70</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="337" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C32" s="344"/>
       <c r="D32" s="349">
@@ -7158,7 +7158,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="338" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="345"/>
       <c r="D33" s="350"/>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="356" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C34" s="357"/>
       <c r="D34" s="358"/>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="813" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="800"/>
       <c r="D38" s="807"/>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="816" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C39" s="817"/>
       <c r="D39" s="823"/>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="816" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
@@ -7255,14 +7255,14 @@
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="328"/>
       <c r="C47" s="328"/>
       <c r="D47" s="329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -7270,31 +7270,31 @@
     </row>
     <row r="49" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="503" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C49" s="331" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D49" s="342" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="928" t="s">
-        <v>534</v>
-      </c>
-      <c r="F49" s="929"/>
+        <v>278</v>
+      </c>
+      <c r="E49" s="929" t="s">
+        <v>533</v>
+      </c>
+      <c r="F49" s="930"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" s="334" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="343" t="s">
+        <v>479</v>
+      </c>
+      <c r="E50" s="505" t="s">
         <v>480</v>
-      </c>
-      <c r="E50" s="505" t="s">
-        <v>481</v>
       </c>
       <c r="F50" s="336" t="s">
         <v>70</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="337" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="344"/>
       <c r="D51" s="349">
@@ -7313,7 +7313,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="338" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C52" s="345"/>
       <c r="D52" s="350"/>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="356" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C53" s="357"/>
       <c r="D53" s="358"/>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C56" s="345"/>
       <c r="D56" s="801"/>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="819" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C57" s="800"/>
       <c r="D57" s="807"/>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="815" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C58" s="817"/>
       <c r="D58" s="823"/>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="804" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
@@ -7410,14 +7410,14 @@
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B66" s="328"/>
       <c r="C66" s="328"/>
       <c r="D66" s="329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
@@ -7425,31 +7425,31 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="503" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C68" s="331" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D68" s="342" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="928" t="s">
-        <v>534</v>
-      </c>
-      <c r="F68" s="929"/>
+        <v>278</v>
+      </c>
+      <c r="E68" s="929" t="s">
+        <v>533</v>
+      </c>
+      <c r="F68" s="930"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="334" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" s="343" t="s">
+        <v>479</v>
+      </c>
+      <c r="E69" s="505" t="s">
         <v>480</v>
-      </c>
-      <c r="E69" s="505" t="s">
-        <v>481</v>
       </c>
       <c r="F69" s="506" t="s">
         <v>70</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="70" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="337" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C70" s="344"/>
       <c r="D70" s="349">
@@ -7468,7 +7468,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="338" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C71" s="345"/>
       <c r="D71" s="350"/>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="356" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C72" s="357"/>
       <c r="D72" s="358"/>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="818" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C75" s="814"/>
       <c r="D75" s="350"/>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B76" s="819" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C76" s="800"/>
       <c r="D76" s="807"/>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="815" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C77" s="817"/>
       <c r="D77" s="823"/>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="804" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
@@ -7596,7 +7596,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="370"/>
       <c r="B1" s="371" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="371"/>
       <c r="D1" s="371"/>
@@ -7606,12 +7606,12 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="370"/>
       <c r="B2" s="373" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="925"/>
-      <c r="F2" s="925"/>
+      <c r="E2" s="919"/>
+      <c r="F2" s="919"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7632,24 +7632,24 @@
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="370"/>
       <c r="B5" s="376" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
       <c r="E5" s="371"/>
       <c r="F5" s="377" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="926" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="926"/>
-      <c r="D6" s="926"/>
-      <c r="E6" s="926"/>
-      <c r="F6" s="926"/>
+      <c r="B6" s="920" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="920"/>
+      <c r="D6" s="920"/>
+      <c r="E6" s="920"/>
+      <c r="F6" s="920"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7662,39 +7662,39 @@
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="370"/>
       <c r="B8" s="399" t="s">
-        <v>486</v>
-      </c>
-      <c r="C8" s="930" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="931" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="932"/>
+      <c r="E8" s="931" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="931"/>
-      <c r="E8" s="930" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="931"/>
+      <c r="F8" s="932"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
       <c r="B9" s="400" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="397" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="398" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="380" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" s="381" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="382"/>
       <c r="B10" s="404" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="383"/>
       <c r="D10" s="410"/>
@@ -7704,7 +7704,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="382"/>
       <c r="B11" s="405" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="387"/>
       <c r="D11" s="411"/>
@@ -7714,7 +7714,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="385"/>
       <c r="B12" s="401" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" s="396"/>
       <c r="D12" s="395"/>
@@ -7732,7 +7732,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="382"/>
       <c r="B14" s="389" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="407"/>
       <c r="D14" s="413"/>
@@ -7742,7 +7742,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="385"/>
       <c r="B15" s="402" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C15" s="384"/>
       <c r="D15" s="386"/>
@@ -7752,7 +7752,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="385"/>
       <c r="B16" s="401" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C16" s="396"/>
       <c r="D16" s="395"/>
@@ -7770,7 +7770,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="382"/>
       <c r="B18" s="389" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="407"/>
       <c r="D18" s="413"/>
@@ -7780,7 +7780,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="385"/>
       <c r="B19" s="402" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="386"/>
@@ -7790,7 +7790,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="385"/>
       <c r="B20" s="403" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C20" s="390"/>
       <c r="D20" s="388"/>
@@ -7807,11 +7807,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="920"/>
-      <c r="C22" s="920"/>
-      <c r="D22" s="920"/>
-      <c r="E22" s="920"/>
-      <c r="F22" s="920"/>
+      <c r="B22" s="925"/>
+      <c r="C22" s="925"/>
+      <c r="D22" s="925"/>
+      <c r="E22" s="925"/>
+      <c r="F22" s="925"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7824,7 +7824,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="370"/>
       <c r="B24" s="379" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="371"/>
       <c r="D24" s="371"/>
@@ -7834,7 +7834,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
       <c r="B25" s="770" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C25" s="371"/>
       <c r="D25" s="371"/>
@@ -7844,7 +7844,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
       <c r="B26" s="770" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C26" s="371"/>
       <c r="D26" s="371"/>
@@ -7882,87 +7882,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="932" t="s">
+      <c r="B2" s="933" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="933" t="s">
+      <c r="C2" s="934" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="933" t="s">
-        <v>179</v>
+      <c r="D2" s="934" t="s">
+        <v>178</v>
       </c>
       <c r="E2" s="424" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="424" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="424" t="s">
+      <c r="G2" s="424" t="s">
         <v>290</v>
       </c>
-      <c r="G2" s="424" t="s">
+      <c r="H2" s="424" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="424" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="424" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="424" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="424" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="424" t="s">
+      <c r="K2" s="438" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="438" t="s">
+      <c r="L2" s="438" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="438" t="s">
+      <c r="M2" s="438" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="438" t="s">
+      <c r="N2" s="438" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="438" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="933"/>
+      <c r="C3" s="935"/>
+      <c r="D3" s="935"/>
+      <c r="E3" s="439" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="932"/>
-      <c r="C3" s="934"/>
-      <c r="D3" s="934"/>
-      <c r="E3" s="439" t="s">
+      <c r="F3" s="439" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="439" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="439" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="439" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="439" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="440" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="439" t="s">
+      <c r="L3" s="440" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="439" t="s">
+      <c r="M3" s="440" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="439" t="s">
-        <v>297</v>
-      </c>
-      <c r="I3" s="439" t="s">
-        <v>297</v>
-      </c>
-      <c r="J3" s="439" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="440" t="s">
+      <c r="N3" s="440" t="s">
         <v>298</v>
       </c>
-      <c r="L3" s="440" t="s">
-        <v>298</v>
-      </c>
-      <c r="M3" s="440" t="s">
-        <v>298</v>
-      </c>
-      <c r="N3" s="440" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="936" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="935" t="s">
-        <v>300</v>
-      </c>
       <c r="C4" s="425" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D4" s="425"/>
       <c r="E4" s="426"/>
@@ -7977,9 +7977,9 @@
       <c r="N4" s="427"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="935"/>
+      <c r="B5" s="936"/>
       <c r="C5" s="425" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="425"/>
       <c r="E5" s="426"/>
@@ -7994,9 +7994,9 @@
       <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="936"/>
+      <c r="B6" s="937"/>
       <c r="C6" s="435" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="435"/>
       <c r="E6" s="436"/>
@@ -8108,66 +8108,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="949" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="950"/>
+      <c r="A1" s="941" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="942"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="940" t="s">
+      <c r="D1" s="952" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="953"/>
+      <c r="F1" s="953"/>
+      <c r="G1" s="953"/>
+      <c r="H1" s="953"/>
+      <c r="I1" s="954"/>
+      <c r="J1" s="943" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="941"/>
-      <c r="F1" s="941"/>
-      <c r="G1" s="941"/>
-      <c r="H1" s="941"/>
-      <c r="I1" s="942"/>
-      <c r="J1" s="951" t="s">
+      <c r="K1" s="944"/>
+      <c r="L1" s="944"/>
+      <c r="M1" s="944"/>
+      <c r="N1" s="945"/>
+      <c r="O1" s="946" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="952"/>
-      <c r="L1" s="952"/>
-      <c r="M1" s="952"/>
-      <c r="N1" s="953"/>
-      <c r="O1" s="954" t="s">
-        <v>303</v>
-      </c>
-      <c r="P1" s="955"/>
-      <c r="Q1" s="956"/>
+      <c r="P1" s="947"/>
+      <c r="Q1" s="948"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="948" t="s">
-        <v>497</v>
-      </c>
-      <c r="U1" s="948"/>
-      <c r="V1" s="948"/>
-      <c r="W1" s="948"/>
-      <c r="X1" s="948"/>
-      <c r="Y1" s="948"/>
+      <c r="T1" s="940" t="s">
+        <v>496</v>
+      </c>
+      <c r="U1" s="940"/>
+      <c r="V1" s="940"/>
+      <c r="W1" s="940"/>
+      <c r="X1" s="940"/>
+      <c r="Y1" s="940"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="445" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="446" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="957" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="445" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="446" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="945" t="s">
+      <c r="E2" s="956"/>
+      <c r="F2" s="956" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="944"/>
-      <c r="F2" s="944" t="s">
+      <c r="G2" s="956"/>
+      <c r="H2" s="955" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="944"/>
-      <c r="H2" s="943" t="s">
-        <v>307</v>
-      </c>
-      <c r="I2" s="943"/>
+      <c r="I2" s="955"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8178,70 +8178,70 @@
         <v>2</v>
       </c>
       <c r="M2" s="448" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="449" t="s">
         <v>308</v>
       </c>
-      <c r="N2" s="449" t="s">
+      <c r="O2" s="459" t="s">
         <v>309</v>
       </c>
-      <c r="O2" s="459" t="s">
+      <c r="P2" s="459" t="s">
         <v>310</v>
-      </c>
-      <c r="P2" s="459" t="s">
-        <v>311</v>
       </c>
       <c r="Q2" s="459" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="681" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="682" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="682" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="946" t="s">
-        <v>465</v>
-      </c>
-      <c r="U2" s="946"/>
-      <c r="V2" s="947" t="s">
+      <c r="T2" s="938" t="s">
+        <v>464</v>
+      </c>
+      <c r="U2" s="938"/>
+      <c r="V2" s="939" t="s">
+        <v>482</v>
+      </c>
+      <c r="W2" s="939"/>
+      <c r="X2" s="939" t="s">
         <v>483</v>
       </c>
-      <c r="W2" s="947"/>
-      <c r="X2" s="947" t="s">
-        <v>484</v>
-      </c>
-      <c r="Y2" s="947"/>
+      <c r="Y2" s="939"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
       <c r="B3" s="450"/>
       <c r="C3" s="451" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="663" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E3" s="666" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="663" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G3" s="666" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="663" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I3" s="666" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="937" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="938"/>
-      <c r="L3" s="938"/>
-      <c r="M3" s="938"/>
-      <c r="N3" s="939"/>
+      <c r="J3" s="949" t="s">
+        <v>311</v>
+      </c>
+      <c r="K3" s="950"/>
+      <c r="L3" s="950"/>
+      <c r="M3" s="950"/>
+      <c r="N3" s="951"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -8251,19 +8251,19 @@
         <v>72</v>
       </c>
       <c r="U3" s="685" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V3" s="686" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="708" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X3" s="686" t="s">
         <v>72</v>
       </c>
       <c r="Y3" s="708" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9470,6 +9470,11 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9477,11 +9482,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9521,56 +9521,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="864" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="865"/>
-      <c r="C1" s="865"/>
-      <c r="D1" s="865"/>
-      <c r="E1" s="865"/>
-      <c r="F1" s="865"/>
+      <c r="A1" s="836" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="963" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="964"/>
-      <c r="J1" s="964"/>
+      <c r="H1" s="961" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="962"/>
+      <c r="J1" s="962"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="961" t="s">
-        <v>314</v>
+      <c r="O1" s="959" t="s">
+        <v>313</v>
       </c>
       <c r="P1" s="466"/>
       <c r="Q1" s="474" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R1" s="464"/>
       <c r="S1" s="474"/>
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="961" t="s">
+      <c r="W1" s="959" t="s">
+        <v>315</v>
+      </c>
+      <c r="X1" s="466"/>
+      <c r="Y1" s="963" t="s">
         <v>316</v>
       </c>
-      <c r="X1" s="466"/>
-      <c r="Y1" s="965" t="s">
+      <c r="Z1" s="963"/>
+      <c r="AA1" s="963"/>
+      <c r="AB1" s="963"/>
+      <c r="AC1" s="963"/>
+      <c r="AD1" s="964"/>
+      <c r="AE1" s="959" t="s">
         <v>317</v>
       </c>
-      <c r="Z1" s="965"/>
-      <c r="AA1" s="965"/>
-      <c r="AB1" s="965"/>
-      <c r="AC1" s="965"/>
-      <c r="AD1" s="966"/>
-      <c r="AE1" s="961" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF1" s="960" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG1" s="948"/>
-      <c r="AH1" s="948"/>
+      <c r="AF1" s="958" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG1" s="940"/>
+      <c r="AH1" s="940"/>
       <c r="AI1" s="689"/>
       <c r="AJ1" s="689"/>
       <c r="AK1" s="689"/>
@@ -9621,72 +9621,72 @@
     </row>
     <row r="2" spans="1:81" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="467" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="473" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="473" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="473" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="959" t="s">
+      <c r="D2" s="966" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="966"/>
+      <c r="F2" s="966" t="s">
         <v>487</v>
       </c>
-      <c r="E2" s="959"/>
-      <c r="F2" s="959" t="s">
-        <v>488</v>
-      </c>
-      <c r="G2" s="959"/>
+      <c r="G2" s="966"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="957" t="s">
+      <c r="I2" s="965" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="965"/>
+      <c r="K2" s="965" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="957"/>
-      <c r="K2" s="957" t="s">
+      <c r="L2" s="965"/>
+      <c r="M2" s="965" t="s">
         <v>190</v>
       </c>
-      <c r="L2" s="957"/>
-      <c r="M2" s="957" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="958"/>
-      <c r="O2" s="962"/>
+      <c r="N2" s="967"/>
+      <c r="O2" s="960"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="957" t="s">
+      <c r="Q2" s="965" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="965"/>
+      <c r="S2" s="965" t="s">
         <v>189</v>
       </c>
-      <c r="R2" s="957"/>
-      <c r="S2" s="957" t="s">
+      <c r="T2" s="965"/>
+      <c r="U2" s="965" t="s">
         <v>190</v>
       </c>
-      <c r="T2" s="957"/>
-      <c r="U2" s="957" t="s">
-        <v>191</v>
-      </c>
-      <c r="V2" s="958"/>
-      <c r="W2" s="962"/>
+      <c r="V2" s="967"/>
+      <c r="W2" s="960"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="957" t="s">
+      <c r="Y2" s="965" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="965"/>
+      <c r="AA2" s="965" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="957"/>
-      <c r="AA2" s="957" t="s">
+      <c r="AB2" s="965"/>
+      <c r="AC2" s="965" t="s">
         <v>190</v>
       </c>
-      <c r="AB2" s="957"/>
-      <c r="AC2" s="957" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD2" s="958"/>
-      <c r="AE2" s="962"/>
+      <c r="AD2" s="967"/>
+      <c r="AE2" s="960"/>
       <c r="AF2" s="683" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG2" s="684" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH2" s="684" t="s">
         <v>483</v>
-      </c>
-      <c r="AH2" s="684" t="s">
-        <v>484</v>
       </c>
       <c r="AI2" s="689"/>
       <c r="AJ2" s="689"/>
@@ -9740,91 +9740,91 @@
       <c r="A3" s="462"/>
       <c r="B3" s="462"/>
       <c r="C3" s="475" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="475" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="475" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="475" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="475" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="481" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="484" t="s">
         <v>321</v>
-      </c>
-      <c r="I3" s="484" t="s">
-        <v>322</v>
       </c>
       <c r="J3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N3" s="482" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="483" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P3" s="481" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="484" t="s">
         <v>321</v>
-      </c>
-      <c r="Q3" s="484" t="s">
-        <v>322</v>
       </c>
       <c r="R3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="S3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="U3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V3" s="482" t="s">
         <v>70</v>
       </c>
       <c r="W3" s="485" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X3" s="481" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Z3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="AA3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="AC3" s="479" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD3" s="482" t="s">
         <v>70</v>
       </c>
       <c r="AE3" s="485" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF3" s="685" t="s">
         <v>72</v>
@@ -10564,6 +10564,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="A1:F1"/>
@@ -10580,8 +10582,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10601,18 +10601,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="486" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="487" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="488" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="488" t="s">
+      <c r="C3" s="489" t="s">
         <v>328</v>
-      </c>
-      <c r="C3" s="489" t="s">
-        <v>329</v>
       </c>
       <c r="D3" s="667" t="s">
         <v>72</v>
@@ -10620,67 +10620,67 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="490" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="491" t="s">
         <v>330</v>
-      </c>
-      <c r="B4" s="491" t="s">
-        <v>331</v>
       </c>
       <c r="C4" s="669"/>
       <c r="D4" s="691"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="492" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="670"/>
       <c r="D5" s="692"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="492" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" s="493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="670"/>
       <c r="D6" s="692"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="492" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="670"/>
       <c r="D7" s="692"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="492" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="671"/>
       <c r="D8" s="693"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="492" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="493" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="671"/>
       <c r="D9" s="693"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="494" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="495"/>
       <c r="C10" s="672"/>
@@ -10688,74 +10688,74 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="486" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="496" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="497" t="s">
         <v>327</v>
       </c>
-      <c r="B17" s="497" t="s">
+      <c r="C17" s="673" t="s">
         <v>328</v>
-      </c>
-      <c r="C17" s="673" t="s">
-        <v>329</v>
       </c>
       <c r="D17" s="677"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="498" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="499" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C18" s="674"/>
       <c r="D18" s="678"/>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="498" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="499" t="s">
         <v>340</v>
-      </c>
-      <c r="B19" s="499" t="s">
-        <v>341</v>
       </c>
       <c r="C19" s="675"/>
       <c r="D19" s="678"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="492" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="500" t="s">
         <v>342</v>
-      </c>
-      <c r="B20" s="500" t="s">
-        <v>343</v>
       </c>
       <c r="C20" s="675"/>
       <c r="D20" s="678"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="492" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="675"/>
       <c r="D21" s="678"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="492" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C22" s="675"/>
       <c r="D22" s="678"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="494" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="501"/>
       <c r="C23" s="676"/>
@@ -10796,93 +10796,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="985"/>
-      <c r="B1" s="854"/>
-      <c r="C1" s="854"/>
+      <c r="A1" s="968"/>
+      <c r="B1" s="867"/>
+      <c r="C1" s="867"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="742"/>
       <c r="J2" s="743" t="s">
+        <v>488</v>
+      </c>
+      <c r="K2" s="743" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="743" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="976" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="978" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="979"/>
+      <c r="D3" s="974" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="975"/>
+      <c r="F3" s="974" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="743" t="s">
-        <v>347</v>
-      </c>
-      <c r="L2" s="743" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="989" t="s">
-        <v>346</v>
-      </c>
-      <c r="B3" s="991" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="992"/>
-      <c r="D3" s="977" t="s">
-        <v>455</v>
-      </c>
-      <c r="E3" s="978"/>
-      <c r="F3" s="977" t="s">
-        <v>490</v>
-      </c>
-      <c r="G3" s="978"/>
+      <c r="G3" s="975"/>
       <c r="I3" s="740" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J3" s="741" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K3" s="722"/>
       <c r="L3" s="722"/>
       <c r="N3" s="707"/>
-      <c r="O3" s="974" t="s">
+      <c r="O3" s="990" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" s="990"/>
+      <c r="Q3" s="990" t="s">
         <v>347</v>
       </c>
-      <c r="P3" s="974"/>
-      <c r="Q3" s="974" t="s">
-        <v>348</v>
-      </c>
-      <c r="R3" s="974"/>
+      <c r="R3" s="990"/>
       <c r="S3" s="707"/>
       <c r="T3" s="715" t="s">
+        <v>348</v>
+      </c>
+      <c r="U3" s="707"/>
+    </row>
+    <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="977"/>
+      <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
-      <c r="U3" s="707"/>
-    </row>
-    <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="990"/>
-      <c r="B4" s="512" t="s">
+      <c r="C4" s="512" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="512" t="s">
-        <v>351</v>
-      </c>
       <c r="D4" s="512" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="512" t="s">
         <v>350</v>
       </c>
-      <c r="E4" s="512" t="s">
-        <v>351</v>
-      </c>
       <c r="F4" s="512" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="512" t="s">
         <v>350</v>
-      </c>
-      <c r="G4" s="512" t="s">
-        <v>351</v>
       </c>
       <c r="I4" s="740" t="str">
         <f t="shared" ref="I4:I7" si="0">$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J4" s="741" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K4" s="722"/>
       <c r="L4" s="722"/>
       <c r="N4" s="715" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O4" s="724" t="str">
         <f>D3</f>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="574" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="575"/>
       <c r="C5" s="575"/>
@@ -10925,7 +10925,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J5" s="741" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K5" s="722"/>
       <c r="L5" s="722"/>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="577" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" s="578"/>
       <c r="C6" s="578"/>
@@ -10974,7 +10974,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J6" s="741" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K6" s="722"/>
       <c r="L6" s="722"/>
@@ -11010,7 +11010,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="577" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" s="578"/>
       <c r="C7" s="578"/>
@@ -11023,7 +11023,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J7" s="741" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K7" s="722"/>
       <c r="L7" s="722"/>
@@ -11063,12 +11063,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J8" s="741" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K8" s="722"/>
       <c r="L8" s="722"/>
       <c r="N8" s="715" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O8" s="715">
         <f>SUM(O5:O7)</f>
@@ -11096,7 +11096,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J9" s="741" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K9" s="722"/>
       <c r="L9" s="722"/>
@@ -11107,19 +11107,19 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J10" s="741" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K10" s="722"/>
       <c r="L10" s="722"/>
       <c r="N10" s="715"/>
-      <c r="O10" s="974" t="s">
-        <v>350</v>
-      </c>
-      <c r="P10" s="974"/>
-      <c r="Q10" s="974" t="s">
-        <v>357</v>
-      </c>
-      <c r="R10" s="974"/>
+      <c r="O10" s="990" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="990"/>
+      <c r="Q10" s="990" t="s">
+        <v>356</v>
+      </c>
+      <c r="R10" s="990"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="740" t="str">
@@ -11127,12 +11127,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J11" s="741" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K11" s="722"/>
       <c r="L11" s="722"/>
       <c r="N11" s="715" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O11" s="732" t="str">
         <f>D3</f>
@@ -11157,7 +11157,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J12" s="741" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K12" s="722"/>
       <c r="L12" s="722"/>
@@ -11183,8 +11183,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="989" t="s">
-        <v>358</v>
+      <c r="A13" s="976" t="s">
+        <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
         <f>B3</f>
@@ -11203,7 +11203,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J13" s="741" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K13" s="722"/>
       <c r="L13" s="722"/>
@@ -11229,22 +11229,22 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="990"/>
+      <c r="A14" s="977"/>
       <c r="B14" s="514" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" s="525" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="701" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="740" t="str">
         <f t="shared" ref="I14:I17" si="3">$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J14" s="741" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K14" s="722"/>
       <c r="L14" s="722"/>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="513" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="520"/>
       <c r="C15" s="520"/>
@@ -11281,12 +11281,12 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J15" s="741" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K15" s="722"/>
       <c r="L15" s="722"/>
       <c r="N15" s="715" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O15" s="715">
         <f>SUM(O12:O14)</f>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="513" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B16" s="520"/>
       <c r="C16" s="520"/>
@@ -11317,14 +11317,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J16" s="741" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K16" s="722"/>
       <c r="L16" s="722"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="513" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B17" s="520"/>
       <c r="C17" s="520"/>
@@ -11334,14 +11334,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J17" s="741" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K17" s="722"/>
       <c r="L17" s="722"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B18" s="520"/>
       <c r="C18" s="520"/>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="515" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B19" s="520"/>
       <c r="C19" s="520"/>
@@ -11357,79 +11357,79 @@
     </row>
     <row r="21" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="502" t="s">
-        <v>363</v>
-      </c>
-      <c r="B21" s="979" t="s">
-        <v>509</v>
-      </c>
-      <c r="C21" s="980"/>
-      <c r="D21" s="980"/>
-      <c r="E21" s="980"/>
-      <c r="F21" s="980"/>
-      <c r="G21" s="980"/>
+        <v>362</v>
+      </c>
+      <c r="B21" s="991" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="992"/>
+      <c r="D21" s="992"/>
+      <c r="E21" s="992"/>
+      <c r="F21" s="992"/>
+      <c r="G21" s="992"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" s="981" t="str">
+        <v>326</v>
+      </c>
+      <c r="B22" s="980" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="982"/>
-      <c r="D22" s="981" t="str">
+      <c r="C22" s="981"/>
+      <c r="D22" s="980" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="982"/>
-      <c r="F22" s="981" t="str">
+      <c r="E22" s="981"/>
+      <c r="F22" s="980" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="982"/>
+      <c r="G22" s="981"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
       <c r="B23" s="609" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C23" s="518" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="518" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="518" t="s">
+        <v>363</v>
+      </c>
+      <c r="F23" s="518" t="s">
+        <v>330</v>
+      </c>
+      <c r="G23" s="518" t="s">
+        <v>363</v>
+      </c>
+      <c r="N23" s="727" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="518" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="518" t="s">
+      <c r="O23" s="727" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q23" s="727" t="s">
         <v>364</v>
       </c>
-      <c r="F23" s="518" t="s">
-        <v>331</v>
-      </c>
-      <c r="G23" s="518" t="s">
+      <c r="R23" s="727" t="s">
+        <v>330</v>
+      </c>
+      <c r="T23" s="727" t="s">
         <v>364</v>
       </c>
-      <c r="N23" s="727" t="s">
-        <v>365</v>
-      </c>
-      <c r="O23" s="727" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q23" s="727" t="s">
-        <v>365</v>
-      </c>
-      <c r="R23" s="727" t="s">
-        <v>331</v>
-      </c>
-      <c r="T23" s="727" t="s">
-        <v>365</v>
-      </c>
       <c r="U23" s="727" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="572" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B24" s="605"/>
       <c r="C24" s="605"/>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="715" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U24" s="729">
         <f>D24</f>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="579" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B25" s="606"/>
       <c r="C25" s="606"/>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="715" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U25" s="729">
         <f>B24</f>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="573" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B26" s="607"/>
       <c r="C26" s="607"/>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="573" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B27" s="607"/>
       <c r="C27" s="607"/>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="573" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="607"/>
       <c r="C28" s="607"/>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="573" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="607"/>
       <c r="C29" s="607"/>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="583" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="607"/>
       <c r="C30" s="607"/>
@@ -11616,10 +11616,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N31" s="715" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O31" s="715" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P31" s="707"/>
       <c r="Q31" s="707"/>
@@ -11656,7 +11656,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N33" s="715" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O33" s="722">
         <f>D25</f>
@@ -11715,10 +11715,10 @@
     </row>
     <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="521" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="521" t="s">
         <v>327</v>
-      </c>
-      <c r="B35" s="521" t="s">
-        <v>328</v>
       </c>
       <c r="C35" s="522" t="str">
         <f>B3</f>
@@ -11762,10 +11762,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="523" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="524" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C36" s="585"/>
       <c r="D36" s="585"/>
@@ -11800,10 +11800,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="523" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="524" t="s">
         <v>340</v>
-      </c>
-      <c r="B37" s="524" t="s">
-        <v>341</v>
       </c>
       <c r="C37" s="604"/>
       <c r="D37" s="604"/>
@@ -11811,65 +11811,65 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="519" t="s">
-        <v>373</v>
-      </c>
-      <c r="B41" s="987" t="str">
+        <v>372</v>
+      </c>
+      <c r="B41" s="970" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="988"/>
-      <c r="D41" s="975" t="str">
+      <c r="C41" s="971"/>
+      <c r="D41" s="972" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="976"/>
-      <c r="F41" s="975" t="str">
+      <c r="E41" s="973"/>
+      <c r="F41" s="972" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="976"/>
+      <c r="G41" s="973"/>
       <c r="N41" s="707"/>
       <c r="O41" s="734" t="s">
+        <v>458</v>
+      </c>
+      <c r="P41" s="734" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q41" s="715" t="s">
         <v>459</v>
       </c>
-      <c r="P41" s="734" t="s">
+      <c r="R41" s="715" t="s">
         <v>462</v>
       </c>
-      <c r="Q41" s="715" t="s">
+      <c r="S41" s="715" t="s">
         <v>460</v>
       </c>
-      <c r="R41" s="715" t="s">
+      <c r="T41" s="715" t="s">
         <v>463</v>
-      </c>
-      <c r="S41" s="715" t="s">
-        <v>461</v>
-      </c>
-      <c r="T41" s="715" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="519"/>
       <c r="B42" s="519" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="519" t="s">
+        <v>346</v>
+      </c>
+      <c r="D42" s="519" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" s="519" t="s">
+        <v>346</v>
+      </c>
+      <c r="F42" s="519" t="s">
+        <v>373</v>
+      </c>
+      <c r="G42" s="519" t="s">
+        <v>346</v>
+      </c>
+      <c r="N42" s="733" t="s">
         <v>374</v>
-      </c>
-      <c r="C42" s="519" t="s">
-        <v>347</v>
-      </c>
-      <c r="D42" s="519" t="s">
-        <v>374</v>
-      </c>
-      <c r="E42" s="519" t="s">
-        <v>347</v>
-      </c>
-      <c r="F42" s="519" t="s">
-        <v>374</v>
-      </c>
-      <c r="G42" s="519" t="s">
-        <v>347</v>
-      </c>
-      <c r="N42" s="733" t="s">
-        <v>375</v>
       </c>
       <c r="O42" s="722">
         <f>C43</f>
@@ -11898,7 +11898,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="513" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B43" s="520"/>
       <c r="C43" s="520"/>
@@ -11907,7 +11907,7 @@
       <c r="F43" s="582"/>
       <c r="G43" s="582"/>
       <c r="N43" s="715" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O43" s="722">
         <f>B44</f>
@@ -11936,7 +11936,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="576" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" s="580"/>
       <c r="C44" s="580"/>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="576" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" s="580"/>
       <c r="C45" s="580"/>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="576" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B46" s="580"/>
       <c r="C46" s="580"/>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="576" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" s="580"/>
       <c r="C47" s="580"/>
@@ -11980,7 +11980,7 @@
     </row>
     <row r="48" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="576" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B48" s="580"/>
       <c r="C48" s="580"/>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="576" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="580"/>
       <c r="C49" s="580"/>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="576" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B50" s="580"/>
       <c r="C50" s="580"/>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="576" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B51" s="580"/>
       <c r="C51" s="580"/>
@@ -12024,32 +12024,32 @@
     </row>
     <row r="53" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="730" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B53" s="526" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C53" s="526" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D53" s="712" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E53" s="712" t="s">
+        <v>513</v>
+      </c>
+      <c r="F53" s="712" t="s">
         <v>514</v>
       </c>
-      <c r="F53" s="712" t="s">
-        <v>515</v>
-      </c>
-      <c r="H53" s="967" t="s">
-        <v>502</v>
-      </c>
-      <c r="I53" s="967"/>
-      <c r="J53" s="967"/>
+      <c r="H53" s="993" t="s">
+        <v>501</v>
+      </c>
+      <c r="I53" s="993"/>
+      <c r="J53" s="993"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="703" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="703" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="703" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="703" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="703" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="703" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="703" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="703" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B61" s="582"/>
       <c r="C61" s="582"/>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="703" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
@@ -12198,33 +12198,33 @@
     </row>
     <row r="63" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="731" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" s="527" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C63" s="527" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D63" s="712" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E63" s="712" t="s">
+        <v>513</v>
+      </c>
+      <c r="F63" s="712" t="s">
         <v>514</v>
       </c>
-      <c r="F63" s="712" t="s">
+      <c r="H63" s="993" t="s">
         <v>515</v>
       </c>
-      <c r="H63" s="967" t="s">
-        <v>516</v>
-      </c>
-      <c r="I63" s="967"/>
-      <c r="J63" s="967"/>
+      <c r="I63" s="993"/>
+      <c r="J63" s="993"/>
       <c r="L63" s="710"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="703" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B64" s="581"/>
       <c r="C64" s="581"/>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="703" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B65" s="582"/>
       <c r="C65" s="582"/>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="703" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" s="582"/>
       <c r="C66" s="582"/>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="703" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B67" s="582"/>
       <c r="C67" s="582"/>
@@ -12300,7 +12300,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="703" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" s="582"/>
       <c r="C68" s="582"/>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="703" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" s="582"/>
       <c r="C69" s="582"/>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="703" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B70" s="582"/>
       <c r="C70" s="582"/>
@@ -12357,7 +12357,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="704" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B71" s="705"/>
       <c r="C71" s="705"/>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="706" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B72" s="707"/>
       <c r="C72" s="707"/>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="502" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I73" s="710"/>
       <c r="J73" s="710"/>
@@ -12404,14 +12404,14 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="623" t="s">
-        <v>372</v>
-      </c>
-      <c r="B74" s="986" t="s">
-        <v>456</v>
-      </c>
-      <c r="C74" s="986"/>
-      <c r="D74" s="986"/>
-      <c r="E74" s="986"/>
+        <v>371</v>
+      </c>
+      <c r="B74" s="969" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="969"/>
+      <c r="D74" s="969"/>
+      <c r="E74" s="969"/>
       <c r="I74" s="711"/>
       <c r="J74" s="711"/>
       <c r="K74" s="711"/>
@@ -12419,22 +12419,22 @@
     </row>
     <row r="75" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="530" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B75" s="608" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C75" s="531"/>
       <c r="D75" s="608" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E75" s="532"/>
       <c r="F75" s="533" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G75" s="534"/>
       <c r="H75" s="533" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I75" s="529"/>
       <c r="J75" s="735"/>
@@ -12442,42 +12442,42 @@
     </row>
     <row r="76" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="507" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" s="508" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="C76" s="508" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D76" s="508" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="E76" s="509" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F76" s="535" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
       <c r="G76" s="584" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H76" s="621" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
       <c r="I76" s="622" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J76" s="736"/>
       <c r="K76" s="736"/>
     </row>
     <row r="77" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="617" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B77" s="620"/>
       <c r="C77" s="593"/>
@@ -12490,7 +12490,7 @@
       <c r="J77" s="737"/>
       <c r="K77" s="737"/>
       <c r="N77" s="720" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O77" s="720" t="str">
         <f>D3</f>
@@ -12501,7 +12501,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="Q77" s="721" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R77" s="739" t="str">
         <f>$D$3</f>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="618" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B78" s="611"/>
       <c r="C78" s="594"/>
@@ -12527,7 +12527,7 @@
       <c r="J78" s="737"/>
       <c r="K78" s="737"/>
       <c r="N78" s="715" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O78" s="722">
         <f t="shared" ref="O78:O83" si="10">H77</f>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="715" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R78" s="722">
         <f t="shared" ref="R78:R83" si="12">F77</f>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="618" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B79" s="611"/>
       <c r="C79" s="594"/>
@@ -12564,7 +12564,7 @@
       <c r="J79" s="737"/>
       <c r="K79" s="737"/>
       <c r="N79" s="723" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O79" s="722">
         <f t="shared" si="10"/>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="723" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R79" s="722">
         <f t="shared" si="12"/>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="618" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B80" s="611"/>
       <c r="C80" s="594"/>
@@ -12601,7 +12601,7 @@
       <c r="J80" s="737"/>
       <c r="K80" s="737"/>
       <c r="N80" s="723" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O80" s="722">
         <f t="shared" si="10"/>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="723" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R80" s="722">
         <f t="shared" si="12"/>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="618" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B81" s="613"/>
       <c r="C81" s="594"/>
@@ -12638,7 +12638,7 @@
       <c r="J81" s="738"/>
       <c r="K81" s="738"/>
       <c r="N81" s="723" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O81" s="722">
         <f t="shared" si="10"/>
@@ -12649,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="723" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R81" s="722">
         <f t="shared" si="12"/>
@@ -12662,7 +12662,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="619" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" s="615"/>
       <c r="C82" s="595"/>
@@ -12675,7 +12675,7 @@
       <c r="J82" s="738"/>
       <c r="K82" s="738"/>
       <c r="N82" s="723" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O82" s="722">
         <f t="shared" si="10"/>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="723" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R82" s="722">
         <f t="shared" si="12"/>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N83" s="723" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O83" s="722">
         <f t="shared" si="10"/>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="723" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R83" s="722">
         <f t="shared" si="12"/>
@@ -12723,42 +12723,42 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="536" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="972" t="str">
+      <c r="B85" s="984" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="973"/>
-      <c r="D85" s="972" t="str">
+      <c r="C85" s="985"/>
+      <c r="D85" s="984" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="973"/>
-      <c r="F85" s="972" t="str">
+      <c r="E85" s="985"/>
+      <c r="F85" s="984" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="973"/>
+      <c r="G85" s="985"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
-      <c r="B86" s="928" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="929"/>
-      <c r="D86" s="928" t="s">
-        <v>280</v>
-      </c>
-      <c r="E86" s="929"/>
-      <c r="F86" s="928" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86" s="929"/>
+      <c r="B86" s="929" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="930"/>
+      <c r="D86" s="929" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86" s="930"/>
+      <c r="F86" s="929" t="s">
+        <v>279</v>
+      </c>
+      <c r="G86" s="930"/>
       <c r="N86" s="715" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O86" s="739" t="str">
         <f>F3</f>
@@ -12775,28 +12775,28 @@
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="504" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B87" s="505" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="506" t="s">
         <v>70</v>
       </c>
       <c r="D87" s="505" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E87" s="506" t="s">
         <v>70</v>
       </c>
       <c r="F87" s="505" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G87" s="506" t="s">
         <v>70</v>
       </c>
       <c r="N87" s="717" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O87" s="715">
         <f t="shared" ref="O87:P94" si="14">C88</f>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="537" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B88" s="590">
         <v>100</v>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="G88" s="568"/>
       <c r="N88" s="718" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O88" s="715">
         <f t="shared" si="14"/>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="538" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B89" s="590"/>
       <c r="C89" s="520"/>
@@ -12854,7 +12854,7 @@
       <c r="F89" s="590"/>
       <c r="G89" s="582"/>
       <c r="N89" s="717" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O89" s="715">
         <f t="shared" si="14"/>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="537" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B90" s="590">
         <v>100</v>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="G90" s="568"/>
       <c r="N90" s="718" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O90" s="715">
         <f t="shared" si="14"/>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B91" s="591"/>
       <c r="C91" s="520"/>
@@ -12912,7 +12912,7 @@
       <c r="F91" s="591"/>
       <c r="G91" s="582"/>
       <c r="N91" s="718" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O91" s="715">
         <f t="shared" si="14"/>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="92" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="538" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B92" s="591"/>
       <c r="C92" s="520"/>
@@ -12938,7 +12938,7 @@
       <c r="F92" s="591"/>
       <c r="G92" s="582"/>
       <c r="N92" s="719" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O92" s="715">
         <f t="shared" si="14"/>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="539" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B93" s="592">
         <v>100</v>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="G93" s="568"/>
       <c r="N93" s="718" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O93" s="715">
         <f t="shared" si="14"/>
@@ -12987,7 +12987,7 @@
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B94" s="591"/>
       <c r="C94" s="520"/>
@@ -12996,7 +12996,7 @@
       <c r="F94" s="591"/>
       <c r="G94" s="582"/>
       <c r="N94" s="718" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O94" s="715">
         <f t="shared" si="14"/>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="538" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B95" s="591"/>
       <c r="C95" s="520"/>
@@ -13033,65 +13033,65 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="536" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="972" t="str">
+      <c r="B101" s="984" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="973"/>
-      <c r="D101" s="972" t="str">
+      <c r="C101" s="985"/>
+      <c r="D101" s="984" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="973"/>
-      <c r="F101" s="972" t="str">
+      <c r="E101" s="985"/>
+      <c r="F101" s="984" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="973"/>
+      <c r="G101" s="985"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
-      <c r="B102" s="928" t="s">
-        <v>280</v>
-      </c>
-      <c r="C102" s="929"/>
-      <c r="D102" s="928" t="s">
-        <v>280</v>
-      </c>
-      <c r="E102" s="929"/>
-      <c r="F102" s="928" t="s">
-        <v>280</v>
-      </c>
-      <c r="G102" s="929"/>
+      <c r="B102" s="929" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="930"/>
+      <c r="D102" s="929" t="s">
+        <v>279</v>
+      </c>
+      <c r="E102" s="930"/>
+      <c r="F102" s="929" t="s">
+        <v>279</v>
+      </c>
+      <c r="G102" s="930"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B103" s="505" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103" s="506" t="s">
         <v>70</v>
       </c>
       <c r="D103" s="505" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E103" s="506" t="s">
         <v>70</v>
       </c>
       <c r="F103" s="505" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G103" s="506" t="s">
         <v>70</v>
       </c>
       <c r="N103" s="715" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O103" s="739" t="str">
         <f>$F$3</f>
@@ -13108,7 +13108,7 @@
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="537" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B104" s="590">
         <v>100</v>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="G104" s="568"/>
       <c r="N104" s="537" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O104" s="709">
         <f t="shared" ref="O104:P111" si="16">C104</f>
@@ -13140,7 +13140,7 @@
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="538" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B105" s="590"/>
       <c r="C105" s="520"/>
@@ -13149,7 +13149,7 @@
       <c r="F105" s="590"/>
       <c r="G105" s="582"/>
       <c r="N105" s="538" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O105" s="709">
         <f t="shared" si="16"/>
@@ -13166,7 +13166,7 @@
     </row>
     <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="537" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B106" s="590">
         <v>100</v>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="G106" s="568"/>
       <c r="N106" s="537" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O106" s="709">
         <f t="shared" si="16"/>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B107" s="591"/>
       <c r="C107" s="520"/>
@@ -13207,7 +13207,7 @@
       <c r="F107" s="591"/>
       <c r="G107" s="582"/>
       <c r="N107" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O107" s="709">
         <f t="shared" si="16"/>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="538" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B108" s="591"/>
       <c r="C108" s="520"/>
@@ -13233,7 +13233,7 @@
       <c r="F108" s="591"/>
       <c r="G108" s="582"/>
       <c r="N108" s="538" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O108" s="709">
         <f t="shared" si="16"/>
@@ -13250,7 +13250,7 @@
     </row>
     <row r="109" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="539" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B109" s="592">
         <v>100</v>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="G109" s="568"/>
       <c r="N109" s="539" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O109" s="709">
         <f t="shared" si="16"/>
@@ -13282,7 +13282,7 @@
     </row>
     <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B110" s="591"/>
       <c r="C110" s="520"/>
@@ -13291,7 +13291,7 @@
       <c r="F110" s="591"/>
       <c r="G110" s="582"/>
       <c r="N110" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O110" s="709">
         <f t="shared" si="16"/>
@@ -13308,7 +13308,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="538" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B111" s="591"/>
       <c r="C111" s="520"/>
@@ -13317,7 +13317,7 @@
       <c r="F111" s="591"/>
       <c r="G111" s="582"/>
       <c r="N111" s="538" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O111" s="709">
         <f t="shared" si="16"/>
@@ -13343,59 +13343,59 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="536" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="968" t="str">
+      <c r="B116" s="986" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="969"/>
-      <c r="D116" s="968" t="str">
+      <c r="C116" s="987"/>
+      <c r="D116" s="986" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="969"/>
-      <c r="F116" s="968" t="str">
+      <c r="E116" s="987"/>
+      <c r="F116" s="986" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="969"/>
+      <c r="G116" s="987"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="970" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="971"/>
-      <c r="D117" s="970" t="s">
-        <v>280</v>
-      </c>
-      <c r="E117" s="971"/>
-      <c r="F117" s="970" t="s">
-        <v>280</v>
-      </c>
-      <c r="G117" s="971"/>
+      <c r="B117" s="988" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" s="989"/>
+      <c r="D117" s="988" t="s">
+        <v>279</v>
+      </c>
+      <c r="E117" s="989"/>
+      <c r="F117" s="988" t="s">
+        <v>279</v>
+      </c>
+      <c r="G117" s="989"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B118" s="544" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C118" s="545" t="s">
         <v>70</v>
       </c>
       <c r="D118" s="544" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E118" s="545" t="s">
         <v>70</v>
       </c>
       <c r="F118" s="544" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G118" s="545" t="s">
         <v>70</v>
@@ -13404,7 +13404,7 @@
       <c r="J118" s="569"/>
       <c r="K118" s="569"/>
       <c r="N118" s="715" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O118" s="739" t="str">
         <f>$F$3</f>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="537" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B119" s="590">
         <v>100</v>
@@ -13439,7 +13439,7 @@
       <c r="J119" s="569"/>
       <c r="K119" s="569"/>
       <c r="N119" s="537" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O119" s="709">
         <f t="shared" ref="O119:P126" si="18">D119</f>
@@ -13456,7 +13456,7 @@
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="538" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B120" s="590"/>
       <c r="C120" s="520"/>
@@ -13468,7 +13468,7 @@
       <c r="J120" s="569"/>
       <c r="K120" s="569"/>
       <c r="N120" s="538" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O120" s="709">
         <f t="shared" si="18"/>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="537" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" s="590">
         <v>100</v>
@@ -13503,7 +13503,7 @@
       <c r="J121" s="569"/>
       <c r="K121" s="569"/>
       <c r="N121" s="537" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O121" s="709">
         <f t="shared" si="18"/>
@@ -13520,7 +13520,7 @@
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B122" s="591"/>
       <c r="C122" s="520"/>
@@ -13532,7 +13532,7 @@
       <c r="J122" s="569"/>
       <c r="K122" s="569"/>
       <c r="N122" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O122" s="709">
         <f t="shared" si="18"/>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="538" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B123" s="591"/>
       <c r="C123" s="520"/>
@@ -13561,7 +13561,7 @@
       <c r="J123" s="569"/>
       <c r="K123" s="569"/>
       <c r="N123" s="538" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O123" s="626">
         <f t="shared" si="18"/>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="124" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="539" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B124" s="592">
         <v>100</v>
@@ -13596,7 +13596,7 @@
       <c r="J124" s="569"/>
       <c r="K124" s="569"/>
       <c r="N124" s="539" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O124" s="626">
         <f t="shared" si="18"/>
@@ -13613,7 +13613,7 @@
     </row>
     <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B125" s="591"/>
       <c r="C125" s="520"/>
@@ -13625,7 +13625,7 @@
       <c r="J125" s="569"/>
       <c r="K125" s="569"/>
       <c r="N125" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O125" s="626">
         <f t="shared" si="18"/>
@@ -13642,7 +13642,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="538" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B126" s="591"/>
       <c r="C126" s="520"/>
@@ -13651,7 +13651,7 @@
       <c r="F126" s="591"/>
       <c r="G126" s="582"/>
       <c r="N126" s="538" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O126" s="626">
         <f t="shared" si="18"/>
@@ -13677,16 +13677,16 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="546" t="s">
-        <v>358</v>
-      </c>
-      <c r="B129" s="983" t="str">
+        <v>357</v>
+      </c>
+      <c r="B129" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="984"/>
-      <c r="D129" s="984"/>
+      <c r="C129" s="983"/>
+      <c r="D129" s="983"/>
       <c r="N129" s="715" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O129" s="739" t="str">
         <f>$F$3</f>
@@ -13710,7 +13710,7 @@
         <v>70</v>
       </c>
       <c r="D130" s="549" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N130" s="715" t="str">
         <f>CONCATENATE("Collection 
@@ -13733,7 +13733,7 @@
     </row>
     <row r="131" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="550" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B131" s="588">
         <v>100</v>
@@ -13761,7 +13761,7 @@
     </row>
     <row r="132" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="513" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B132" s="588"/>
       <c r="C132" s="520"/>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="513" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B133" s="588"/>
       <c r="C133" s="520"/>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="513" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B134" s="588"/>
       <c r="C134" s="520"/>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="513" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B135" s="588"/>
       <c r="C135" s="520"/>
@@ -13811,7 +13811,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="513" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B136" s="588"/>
       <c r="C136" s="520"/>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="513" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B137" s="588"/>
       <c r="C137" s="520"/>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="513" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B138" s="588"/>
       <c r="C138" s="520"/>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="513" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B139" s="588"/>
       <c r="C139" s="520"/>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="147" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B147" s="553"/>
       <c r="C147" s="554" t="str">
@@ -13864,7 +13864,7 @@
     </row>
     <row r="148" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="556" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B148" s="556" t="s">
         <v>73</v>
@@ -13873,7 +13873,7 @@
       <c r="D148" s="587"/>
       <c r="E148" s="587"/>
       <c r="N148" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O148" s="553"/>
       <c r="P148" s="555" t="str">
@@ -13887,7 +13887,7 @@
     </row>
     <row r="149" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="556" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B149" s="556" t="s">
         <v>73</v>
@@ -13896,7 +13896,7 @@
       <c r="D149" s="587"/>
       <c r="E149" s="587"/>
       <c r="N149" s="556" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O149" s="556" t="s">
         <v>73</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>73</v>
@@ -13915,7 +13915,7 @@
       <c r="D150" s="587"/>
       <c r="E150" s="587"/>
       <c r="N150" s="556" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O150" s="556" t="s">
         <v>73</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>73</v>
@@ -13934,7 +13934,7 @@
       <c r="D151" s="587"/>
       <c r="E151" s="587"/>
       <c r="N151" s="556" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O151" s="556" t="s">
         <v>73</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="556" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B152" s="556" t="s">
         <v>73</v>
@@ -13953,7 +13953,7 @@
       <c r="D152" s="587"/>
       <c r="E152" s="587"/>
       <c r="N152" s="556" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O152" s="556" t="s">
         <v>73</v>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="556" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B153" s="556" t="s">
         <v>73</v>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="154" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="556" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B154" s="556" t="s">
         <v>73</v>
@@ -13983,7 +13983,7 @@
       <c r="D154" s="587"/>
       <c r="E154" s="587"/>
       <c r="N154" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O154" s="553"/>
       <c r="P154" s="555" t="str">
@@ -13997,7 +13997,7 @@
     </row>
     <row r="155" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="556" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B155" s="556" t="s">
         <v>73</v>
@@ -14006,7 +14006,7 @@
       <c r="D155" s="587"/>
       <c r="E155" s="587"/>
       <c r="N155" s="556" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O155" s="556" t="s">
         <v>73</v>
@@ -14017,7 +14017,7 @@
     <row r="156" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D156" s="528"/>
       <c r="N156" s="556" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O156" s="556" t="s">
         <v>73</v>
@@ -14028,7 +14028,7 @@
     <row r="157" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="528"/>
       <c r="N157" s="556" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O157" s="556" t="s">
         <v>73</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="158" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B158" s="552"/>
       <c r="C158" s="555" t="str">
@@ -14054,7 +14054,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="N158" s="556" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O158" s="556" t="s">
         <v>73</v>
@@ -14064,7 +14064,7 @@
     </row>
     <row r="159" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="556" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" s="556" t="s">
         <v>72</v>
@@ -14075,7 +14075,7 @@
     </row>
     <row r="160" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="556" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B160" s="556" t="s">
         <v>72</v>
@@ -14084,7 +14084,7 @@
       <c r="D160" s="589"/>
       <c r="E160" s="589"/>
       <c r="N160" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O160" s="552"/>
       <c r="P160" s="555" t="str">
@@ -14098,7 +14098,7 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="556" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B161" s="556" t="s">
         <v>72</v>
@@ -14107,7 +14107,7 @@
       <c r="D161" s="589"/>
       <c r="E161" s="589"/>
       <c r="N161" s="556" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O161" s="556" t="s">
         <v>72</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="556" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" s="556" t="s">
         <v>72</v>
@@ -14132,7 +14132,7 @@
       <c r="D162" s="589"/>
       <c r="E162" s="589"/>
       <c r="N162" s="556" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O162" s="556" t="s">
         <v>72</v>
@@ -14149,7 +14149,7 @@
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D163" s="528"/>
       <c r="N163" s="556" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O163" s="556" t="s">
         <v>72</v>
@@ -14166,7 +14166,7 @@
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D164" s="528"/>
       <c r="N164" s="556" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O164" s="556" t="s">
         <v>72</v>
@@ -14182,7 +14182,7 @@
     </row>
     <row r="165" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A165" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B165" s="558"/>
       <c r="C165" s="554" t="str">
@@ -14200,10 +14200,10 @@
     </row>
     <row r="166" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="556" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B166" s="556" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="520"/>
       <c r="D166" s="587"/>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="168" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B168" s="553"/>
       <c r="C168" s="554" t="str">
@@ -14229,16 +14229,16 @@
     </row>
     <row r="169" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="556" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B169" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="588"/>
       <c r="D169" s="589"/>
       <c r="E169" s="589"/>
       <c r="N169" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O169" s="553"/>
       <c r="P169" s="555" t="str">
@@ -14252,19 +14252,19 @@
     </row>
     <row r="170" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="556" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B170" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170" s="588"/>
       <c r="D170" s="589"/>
       <c r="E170" s="589"/>
       <c r="N170" s="556" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O170" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P170" s="557">
         <f>D169</f>
@@ -14277,19 +14277,19 @@
     </row>
     <row r="171" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="556" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B171" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C171" s="588"/>
       <c r="D171" s="589"/>
       <c r="E171" s="589"/>
       <c r="N171" s="556" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O171" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P171" s="557">
         <f>D171</f>
@@ -14302,19 +14302,19 @@
     </row>
     <row r="172" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="556" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B172" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" s="588"/>
       <c r="D172" s="589"/>
       <c r="E172" s="589"/>
       <c r="N172" s="556" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O172" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P172" s="557">
         <f>D173</f>
@@ -14327,19 +14327,19 @@
     </row>
     <row r="173" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="556" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B173" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" s="588"/>
       <c r="D173" s="589"/>
       <c r="E173" s="589"/>
       <c r="N173" s="556" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O173" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P173" s="557">
         <f>D175</f>
@@ -14352,10 +14352,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="556" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B174" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C174" s="588"/>
       <c r="D174" s="589"/>
@@ -14363,16 +14363,16 @@
     </row>
     <row r="175" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="556" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C175" s="588"/>
       <c r="D175" s="589"/>
       <c r="E175" s="589"/>
       <c r="N175" s="552" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O175" s="553"/>
       <c r="P175" s="555" t="str">
@@ -14386,19 +14386,19 @@
     </row>
     <row r="176" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="556" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B176" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C176" s="588"/>
       <c r="D176" s="589"/>
       <c r="E176" s="589"/>
       <c r="N176" s="556" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O176" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P176" s="557">
         <f>D170</f>
@@ -14411,10 +14411,10 @@
     </row>
     <row r="177" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N177" s="556" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O177" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P177" s="557">
         <f>D172</f>
@@ -14427,10 +14427,10 @@
     </row>
     <row r="178" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N178" s="556" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O178" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P178" s="557">
         <f>D174</f>
@@ -14443,10 +14443,10 @@
     </row>
     <row r="179" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N179" s="556" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O179" s="556" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P179" s="557">
         <f>D176</f>
@@ -14460,16 +14460,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14483,22 +14489,16 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14521,7 +14521,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="627" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14531,16 +14531,16 @@
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="631" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="631" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="631" t="s">
+      <c r="C5" s="631" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="631" t="s">
         <v>439</v>
-      </c>
-      <c r="C5" s="631" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" s="631" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15328,7 +15328,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="636" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15336,16 +15336,16 @@
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="637" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="637" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="637" t="s">
-        <v>439</v>
-      </c>
       <c r="C5" s="767" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D5" s="637" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15383,27 +15383,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="643" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="644" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="644" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="644" t="s">
+      <c r="C4" s="644" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="644" t="s">
+      <c r="D4" s="644" t="s">
         <v>446</v>
       </c>
-      <c r="D4" s="644" t="s">
+      <c r="E4" s="644" t="s">
         <v>447</v>
       </c>
-      <c r="E4" s="644" t="s">
-        <v>448</v>
-      </c>
       <c r="F4" s="644" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -17785,7 +17785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -17894,66 +17894,66 @@
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="824" t="s">
-        <v>512</v>
-      </c>
-      <c r="B4" s="825"/>
-      <c r="C4" s="825"/>
-      <c r="D4" s="825"/>
-      <c r="E4" s="825"/>
-      <c r="F4" s="826"/>
-      <c r="G4" s="826"/>
-      <c r="H4" s="826"/>
-      <c r="I4" s="826"/>
-      <c r="J4" s="826"/>
-      <c r="K4" s="826"/>
-      <c r="L4" s="826"/>
-      <c r="M4" s="826"/>
-      <c r="N4" s="826"/>
-      <c r="O4" s="826"/>
-      <c r="P4" s="826"/>
-      <c r="Q4" s="826"/>
-      <c r="R4" s="826"/>
-      <c r="S4" s="826"/>
-      <c r="T4" s="826"/>
-      <c r="U4" s="826"/>
-      <c r="V4" s="826"/>
-      <c r="W4" s="826"/>
-      <c r="X4" s="826"/>
-      <c r="Y4" s="826"/>
-      <c r="Z4" s="826"/>
-      <c r="AA4" s="826"/>
-      <c r="AB4" s="826"/>
-      <c r="AC4" s="826"/>
-      <c r="AD4" s="826"/>
-      <c r="AE4" s="826"/>
-      <c r="AF4" s="826"/>
-      <c r="AG4" s="826"/>
-      <c r="AH4" s="826"/>
-      <c r="AI4" s="826"/>
-      <c r="AJ4" s="826"/>
-      <c r="AK4" s="826"/>
-      <c r="AL4" s="826"/>
-      <c r="AM4" s="826"/>
-      <c r="AN4" s="826"/>
-      <c r="AO4" s="826"/>
-      <c r="AP4" s="826"/>
-      <c r="AQ4" s="826"/>
+      <c r="A4" s="825" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" s="826"/>
+      <c r="C4" s="826"/>
+      <c r="D4" s="826"/>
+      <c r="E4" s="826"/>
+      <c r="F4" s="827"/>
+      <c r="G4" s="827"/>
+      <c r="H4" s="827"/>
+      <c r="I4" s="827"/>
+      <c r="J4" s="827"/>
+      <c r="K4" s="827"/>
+      <c r="L4" s="827"/>
+      <c r="M4" s="827"/>
+      <c r="N4" s="827"/>
+      <c r="O4" s="827"/>
+      <c r="P4" s="827"/>
+      <c r="Q4" s="827"/>
+      <c r="R4" s="827"/>
+      <c r="S4" s="827"/>
+      <c r="T4" s="827"/>
+      <c r="U4" s="827"/>
+      <c r="V4" s="827"/>
+      <c r="W4" s="827"/>
+      <c r="X4" s="827"/>
+      <c r="Y4" s="827"/>
+      <c r="Z4" s="827"/>
+      <c r="AA4" s="827"/>
+      <c r="AB4" s="827"/>
+      <c r="AC4" s="827"/>
+      <c r="AD4" s="827"/>
+      <c r="AE4" s="827"/>
+      <c r="AF4" s="827"/>
+      <c r="AG4" s="827"/>
+      <c r="AH4" s="827"/>
+      <c r="AI4" s="827"/>
+      <c r="AJ4" s="827"/>
+      <c r="AK4" s="827"/>
+      <c r="AL4" s="827"/>
+      <c r="AM4" s="827"/>
+      <c r="AN4" s="827"/>
+      <c r="AO4" s="827"/>
+      <c r="AP4" s="827"/>
+      <c r="AQ4" s="827"/>
     </row>
     <row r="5" spans="1:43" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="827" t="s">
+      <c r="A5" s="828" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="827" t="s">
+      <c r="B5" s="828" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="797" t="s">
-        <v>598</v>
-      </c>
-      <c r="D5" s="827" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="828" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="827" t="s">
+      <c r="E5" s="828" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -18013,10 +18013,10 @@
       <c r="X5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="829" t="s">
+      <c r="Y5" s="830" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="829" t="s">
+      <c r="Z5" s="830" t="s">
         <v>49</v>
       </c>
       <c r="AA5" s="16" t="s">
@@ -18046,7 +18046,7 @@
       <c r="AI5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="829" t="s">
+      <c r="AJ5" s="830" t="s">
         <v>58</v>
       </c>
       <c r="AK5" s="16" t="s">
@@ -18055,28 +18055,28 @@
       <c r="AL5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" s="827" t="s">
+      <c r="AM5" s="828" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="827" t="s">
+      <c r="AN5" s="828" t="s">
         <v>62</v>
       </c>
-      <c r="AO5" s="827" t="s">
+      <c r="AO5" s="828" t="s">
         <v>63</v>
       </c>
-      <c r="AP5" s="827" t="s">
+      <c r="AP5" s="828" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="827" t="s">
+      <c r="AQ5" s="828" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="828"/>
-      <c r="B6" s="828"/>
+      <c r="A6" s="829"/>
+      <c r="B6" s="829"/>
       <c r="C6" s="798"/>
-      <c r="D6" s="828"/>
-      <c r="E6" s="828"/>
+      <c r="D6" s="829"/>
+      <c r="E6" s="829"/>
       <c r="F6" s="14" t="s">
         <v>66</v>
       </c>
@@ -18134,8 +18134,8 @@
       <c r="X6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="830"/>
-      <c r="Z6" s="830"/>
+      <c r="Y6" s="831"/>
+      <c r="Z6" s="831"/>
       <c r="AA6" s="9" t="s">
         <v>67</v>
       </c>
@@ -18163,18 +18163,18 @@
       <c r="AI6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AJ6" s="830"/>
+      <c r="AJ6" s="831"/>
       <c r="AK6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AL6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AM6" s="828"/>
-      <c r="AN6" s="828"/>
-      <c r="AO6" s="828"/>
-      <c r="AP6" s="828"/>
-      <c r="AQ6" s="828"/>
+      <c r="AM6" s="829"/>
+      <c r="AN6" s="829"/>
+      <c r="AO6" s="829"/>
+      <c r="AP6" s="829"/>
+      <c r="AQ6" s="829"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AE7" s="8"/>
@@ -18188,7 +18188,7 @@
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="662"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="993"/>
+      <c r="C9" s="824"/>
       <c r="D9" s="662"/>
       <c r="E9" s="662"/>
       <c r="F9" s="662"/>
@@ -58243,7 +58243,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="649" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -58254,25 +58254,25 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="651" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="651" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="651" t="s">
+      <c r="C5" s="767" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="651" t="s">
         <v>445</v>
       </c>
-      <c r="C5" s="767" t="s">
-        <v>513</v>
-      </c>
-      <c r="D5" s="651" t="s">
+      <c r="E5" s="651" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="651" t="s">
-        <v>447</v>
-      </c>
       <c r="F5" s="767" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G5" s="651" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -58434,23 +58434,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="831" t="s">
+      <c r="A1" s="832" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="833" t="s">
+      <c r="B1" s="834" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="665" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D1" s="768" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="768" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="768" t="s">
+      <c r="F1" s="661" t="s">
         <v>518</v>
-      </c>
-      <c r="F1" s="661" t="s">
-        <v>519</v>
       </c>
       <c r="G1" s="661" t="s">
         <v>50</v>
@@ -58487,8 +58487,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="832"/>
-      <c r="B2" s="834"/>
+      <c r="A2" s="833"/>
+      <c r="B2" s="835"/>
       <c r="C2" s="9" t="s">
         <v>67</v>
       </c>
@@ -58624,11 +58624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="BX5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="AW5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
+      <selection pane="bottomRight" activeCell="AX1" sqref="AX1:BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58652,379 +58652,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="864" t="s">
+      <c r="A1" s="836" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="865"/>
-      <c r="C1" s="865"/>
-      <c r="D1" s="865"/>
-      <c r="E1" s="865"/>
-      <c r="F1" s="865"/>
-      <c r="G1" s="865"/>
-      <c r="H1" s="866" t="s">
-        <v>465</v>
-      </c>
-      <c r="I1" s="867"/>
-      <c r="J1" s="867"/>
-      <c r="K1" s="867"/>
-      <c r="L1" s="867"/>
-      <c r="M1" s="868"/>
-      <c r="N1" s="869" t="s">
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
+      <c r="G1" s="837"/>
+      <c r="H1" s="838" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="839"/>
+      <c r="J1" s="839"/>
+      <c r="K1" s="839"/>
+      <c r="L1" s="839"/>
+      <c r="M1" s="840"/>
+      <c r="N1" s="841" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="847"/>
-      <c r="P1" s="847"/>
-      <c r="Q1" s="847"/>
-      <c r="R1" s="847"/>
-      <c r="S1" s="847"/>
-      <c r="T1" s="847"/>
-      <c r="U1" s="847"/>
-      <c r="V1" s="870" t="s">
+      <c r="O1" s="842"/>
+      <c r="P1" s="842"/>
+      <c r="Q1" s="842"/>
+      <c r="R1" s="842"/>
+      <c r="S1" s="842"/>
+      <c r="T1" s="842"/>
+      <c r="U1" s="842"/>
+      <c r="V1" s="843" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="871"/>
-      <c r="X1" s="872"/>
-      <c r="Y1" s="872"/>
-      <c r="Z1" s="873"/>
-      <c r="AA1" s="874" t="s">
+      <c r="W1" s="844"/>
+      <c r="X1" s="845"/>
+      <c r="Y1" s="845"/>
+      <c r="Z1" s="846"/>
+      <c r="AA1" s="847" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="875"/>
-      <c r="AC1" s="875"/>
-      <c r="AD1" s="875"/>
-      <c r="AE1" s="875"/>
-      <c r="AF1" s="875"/>
-      <c r="AG1" s="875"/>
-      <c r="AH1" s="875"/>
-      <c r="AI1" s="875"/>
-      <c r="AJ1" s="875"/>
-      <c r="AK1" s="875"/>
-      <c r="AL1" s="875"/>
-      <c r="AM1" s="875"/>
+      <c r="AB1" s="848"/>
+      <c r="AC1" s="848"/>
+      <c r="AD1" s="848"/>
+      <c r="AE1" s="848"/>
+      <c r="AF1" s="848"/>
+      <c r="AG1" s="848"/>
+      <c r="AH1" s="848"/>
+      <c r="AI1" s="848"/>
+      <c r="AJ1" s="848"/>
+      <c r="AK1" s="848"/>
+      <c r="AL1" s="848"/>
+      <c r="AM1" s="848"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="846" t="s">
+      <c r="AP1" s="860" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="847"/>
-      <c r="AR1" s="847"/>
-      <c r="AS1" s="847"/>
-      <c r="AT1" s="847"/>
-      <c r="AU1" s="847"/>
-      <c r="AV1" s="847"/>
-      <c r="AW1" s="848"/>
-      <c r="AX1" s="855" t="s">
+      <c r="AQ1" s="842"/>
+      <c r="AR1" s="842"/>
+      <c r="AS1" s="842"/>
+      <c r="AT1" s="842"/>
+      <c r="AU1" s="842"/>
+      <c r="AV1" s="842"/>
+      <c r="AW1" s="861"/>
+      <c r="AX1" s="868" t="s">
+        <v>598</v>
+      </c>
+      <c r="AY1" s="869"/>
+      <c r="AZ1" s="869"/>
+      <c r="BA1" s="869"/>
+      <c r="BB1" s="869"/>
+      <c r="BC1" s="870"/>
+      <c r="BD1" s="871" t="s">
         <v>86</v>
       </c>
-      <c r="AY1" s="856"/>
-      <c r="AZ1" s="856"/>
-      <c r="BA1" s="856"/>
-      <c r="BB1" s="856"/>
-      <c r="BC1" s="857"/>
-      <c r="BD1" s="858" t="s">
+      <c r="BE1" s="872"/>
+      <c r="BF1" s="872"/>
+      <c r="BG1" s="872"/>
+      <c r="BH1" s="872"/>
+      <c r="BI1" s="873"/>
+      <c r="BJ1" s="874" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="859"/>
-      <c r="BF1" s="859"/>
-      <c r="BG1" s="859"/>
-      <c r="BH1" s="859"/>
-      <c r="BI1" s="860"/>
-      <c r="BJ1" s="861" t="s">
+      <c r="BK1" s="875"/>
+      <c r="BL1" s="875"/>
+      <c r="BM1" s="875"/>
+      <c r="BN1" s="875"/>
+      <c r="BO1" s="875"/>
+      <c r="BP1" s="876"/>
+      <c r="BQ1" s="849" t="s">
         <v>88</v>
       </c>
-      <c r="BK1" s="862"/>
-      <c r="BL1" s="862"/>
-      <c r="BM1" s="862"/>
-      <c r="BN1" s="862"/>
-      <c r="BO1" s="862"/>
-      <c r="BP1" s="863"/>
-      <c r="BQ1" s="835" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR1" s="836"/>
-      <c r="BS1" s="836"/>
-      <c r="BT1" s="836"/>
-      <c r="BU1" s="836"/>
-      <c r="BV1" s="836"/>
+      <c r="BR1" s="850"/>
+      <c r="BS1" s="850"/>
+      <c r="BT1" s="850"/>
+      <c r="BU1" s="850"/>
+      <c r="BV1" s="850"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="837" t="s">
-        <v>90</v>
-      </c>
-      <c r="BZ1" s="838"/>
-      <c r="CA1" s="838"/>
-      <c r="CB1" s="838"/>
-      <c r="CC1" s="838"/>
-      <c r="CD1" s="838"/>
-      <c r="CE1" s="838"/>
-      <c r="CF1" s="839"/>
-      <c r="CG1" s="839"/>
-      <c r="CH1" s="839"/>
-      <c r="CI1" s="839"/>
-      <c r="CJ1" s="839"/>
-      <c r="CK1" s="839"/>
-      <c r="CL1" s="839"/>
-      <c r="CM1" s="839"/>
-      <c r="CN1" s="839"/>
-      <c r="CO1" s="839"/>
-      <c r="CP1" s="839"/>
-      <c r="CQ1" s="839"/>
+      <c r="BY1" s="851" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ1" s="852"/>
+      <c r="CA1" s="852"/>
+      <c r="CB1" s="852"/>
+      <c r="CC1" s="852"/>
+      <c r="CD1" s="852"/>
+      <c r="CE1" s="852"/>
+      <c r="CF1" s="853"/>
+      <c r="CG1" s="853"/>
+      <c r="CH1" s="853"/>
+      <c r="CI1" s="853"/>
+      <c r="CJ1" s="853"/>
+      <c r="CK1" s="853"/>
+      <c r="CL1" s="853"/>
+      <c r="CM1" s="853"/>
+      <c r="CN1" s="853"/>
+      <c r="CO1" s="853"/>
+      <c r="CP1" s="853"/>
+      <c r="CQ1" s="853"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="D2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="H2" s="854" t="s">
+        <v>465</v>
+      </c>
+      <c r="I2" s="855"/>
+      <c r="J2" s="855" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="840" t="s">
-        <v>466</v>
-      </c>
-      <c r="I2" s="841"/>
-      <c r="J2" s="841" t="s">
+      <c r="K2" s="855"/>
+      <c r="L2" s="855" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="841"/>
-      <c r="L2" s="841" t="s">
+      <c r="M2" s="856"/>
+      <c r="N2" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="842"/>
-      <c r="N2" s="57" t="s">
+      <c r="R2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG2" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="V2" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="X2" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z2" s="63" t="s">
+      <c r="AI2" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK2" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL2" s="67" t="s">
         <v>521</v>
       </c>
-      <c r="AA2" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB2" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD2" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE2" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG2" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ2" s="67" t="s">
+      <c r="AM2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="AK2" s="67" t="s">
-        <v>523</v>
-      </c>
-      <c r="AL2" s="67" t="s">
-        <v>522</v>
-      </c>
-      <c r="AM2" s="67" t="s">
+      <c r="AN2" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="AN2" s="68" t="s">
+      <c r="AO2" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="AO2" s="57" t="s">
+      <c r="AP2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="AP2" s="58" t="s">
+      <c r="AQ2" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="AQ2" s="58" t="s">
+      <c r="AR2" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="AR2" s="58" t="s">
+      <c r="AS2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AS2" s="58" t="s">
+      <c r="AT2" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="AT2" s="58" t="s">
+      <c r="AU2" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="AU2" s="58" t="s">
+      <c r="AV2" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="AW2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AV2" s="58" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW2" s="59" t="s">
+      <c r="AX2" s="857" t="s">
         <v>125</v>
       </c>
-      <c r="AX2" s="843" t="s">
+      <c r="AY2" s="858"/>
+      <c r="AZ2" s="858"/>
+      <c r="BA2" s="858" t="s">
         <v>126</v>
       </c>
-      <c r="AY2" s="844"/>
-      <c r="AZ2" s="844"/>
-      <c r="BA2" s="844" t="s">
+      <c r="BB2" s="858"/>
+      <c r="BC2" s="859"/>
+      <c r="BD2" s="862" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE2" s="863"/>
+      <c r="BF2" s="863"/>
+      <c r="BG2" s="863" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH2" s="863"/>
+      <c r="BI2" s="864"/>
+      <c r="BJ2" s="865" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK2" s="866"/>
+      <c r="BL2" s="866"/>
+      <c r="BM2" s="866" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN2" s="867"/>
+      <c r="BO2" s="867"/>
+      <c r="BP2" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="BB2" s="844"/>
-      <c r="BC2" s="845"/>
-      <c r="BD2" s="849" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE2" s="850"/>
-      <c r="BF2" s="850"/>
-      <c r="BG2" s="850" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH2" s="850"/>
-      <c r="BI2" s="851"/>
-      <c r="BJ2" s="852" t="s">
-        <v>126</v>
-      </c>
-      <c r="BK2" s="853"/>
-      <c r="BL2" s="853"/>
-      <c r="BM2" s="853" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN2" s="854"/>
-      <c r="BO2" s="854"/>
-      <c r="BP2" s="69" t="s">
+      <c r="BQ2" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="BQ2" s="70" t="s">
+      <c r="BR2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="BR2" s="71" t="s">
+      <c r="BS2" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="BS2" s="71" t="s">
+      <c r="BT2" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="BT2" s="71" t="s">
+      <c r="BU2" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="BU2" s="71" t="s">
+      <c r="BV2" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="BV2" s="71" t="s">
+      <c r="BW2" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="BW2" s="57" t="s">
+      <c r="BX2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="BX2" s="58" t="s">
+      <c r="BY2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="BY2" s="58" t="s">
+      <c r="BZ2" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="BZ2" s="58" t="s">
+      <c r="CA2" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="CA2" s="58" t="s">
+      <c r="CB2" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="CB2" s="58" t="s">
+      <c r="CC2" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="CC2" s="58" t="s">
+      <c r="CD2" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="CD2" s="58" t="s">
+      <c r="CE2" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="CE2" s="58" t="s">
+      <c r="CF2" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="CF2" s="58" t="s">
+      <c r="CG2" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="CG2" s="58" t="s">
+      <c r="CH2" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="CH2" s="58" t="s">
+      <c r="CI2" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="CI2" s="58" t="s">
+      <c r="CJ2" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="CJ2" s="58" t="s">
+      <c r="CK2" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="CK2" s="58" t="s">
+      <c r="CL2" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="CL2" s="58" t="s">
+      <c r="CM2" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="CM2" s="58" t="s">
+      <c r="CN2" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="CN2" s="58" t="s">
+      <c r="CO2" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="CO2" s="58" t="s">
+      <c r="CP2" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="CP2" s="58" t="s">
+      <c r="CQ2" s="58" t="s">
         <v>154</v>
-      </c>
-      <c r="CQ2" s="58" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:95" s="659" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -59032,40 +59032,40 @@
       <c r="B3" s="72"/>
       <c r="C3" s="73"/>
       <c r="D3" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
       <c r="H3" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="106" t="s">
-        <v>158</v>
-      </c>
       <c r="K3" s="106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L3" s="106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M3" s="107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N3" s="108"/>
       <c r="O3" s="109"/>
       <c r="P3" s="109"/>
       <c r="Q3" s="109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R3" s="109" t="s">
         <v>70</v>
       </c>
       <c r="S3" s="109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T3" s="109" t="s">
         <v>70</v>
@@ -59110,58 +59110,58 @@
       <c r="AV3" s="119"/>
       <c r="AW3" s="120"/>
       <c r="AX3" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY3" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="AY3" s="122" t="s">
+      <c r="AZ3" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="AZ3" s="123" t="s">
-        <v>161</v>
-      </c>
       <c r="BA3" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB3" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="BB3" s="122" t="s">
+      <c r="BC3" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="BC3" s="124" t="s">
-        <v>161</v>
-      </c>
       <c r="BD3" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE3" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="BE3" s="126" t="s">
+      <c r="BF3" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="BF3" s="127" t="s">
-        <v>161</v>
-      </c>
       <c r="BG3" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH3" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="BH3" s="126" t="s">
+      <c r="BI3" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="BI3" s="128" t="s">
-        <v>161</v>
-      </c>
       <c r="BJ3" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK3" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="BK3" s="130" t="s">
+      <c r="BL3" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="BL3" s="131" t="s">
-        <v>161</v>
-      </c>
       <c r="BM3" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN3" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="BN3" s="130" t="s">
+      <c r="BO3" s="132" t="s">
         <v>160</v>
-      </c>
-      <c r="BO3" s="132" t="s">
-        <v>161</v>
       </c>
       <c r="BP3" s="133"/>
       <c r="BQ3" s="134"/>
@@ -59171,7 +59171,7 @@
       <c r="BU3" s="135"/>
       <c r="BV3" s="135"/>
       <c r="BW3" s="57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BX3" s="58" t="s">
         <v>73</v>
@@ -59183,10 +59183,10 @@
         <v>72</v>
       </c>
       <c r="CA3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CB3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CC3" s="58" t="s">
         <v>73</v>
@@ -59198,10 +59198,10 @@
         <v>72</v>
       </c>
       <c r="CF3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CG3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CH3" s="58" t="s">
         <v>73</v>
@@ -59213,10 +59213,10 @@
         <v>72</v>
       </c>
       <c r="CK3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CL3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CM3" s="58" t="s">
         <v>73</v>
@@ -59228,10 +59228,10 @@
         <v>72</v>
       </c>
       <c r="CP3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CQ3" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:95" s="660" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -59527,7 +59527,7 @@
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S7" s="51"/>
       <c r="T7" s="51"/>
@@ -59539,7 +59539,7 @@
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S8" s="51"/>
       <c r="T8" s="51"/>
@@ -59551,7 +59551,7 @@
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
@@ -59563,7 +59563,7 @@
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -59574,11 +59574,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59594,6 +59589,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59673,332 +59673,332 @@
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
       <c r="K1" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="145"/>
+      <c r="M1" s="877" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="145"/>
-      <c r="M1" s="899" t="s">
+      <c r="N1" s="878" t="s">
+        <v>523</v>
+      </c>
+      <c r="O1" s="879"/>
+      <c r="P1" s="879"/>
+      <c r="Q1" s="879"/>
+      <c r="R1" s="880" t="s">
+        <v>464</v>
+      </c>
+      <c r="S1" s="881"/>
+      <c r="T1" s="881"/>
+      <c r="U1" s="881"/>
+      <c r="V1" s="881"/>
+      <c r="W1" s="881"/>
+      <c r="X1" s="882"/>
+      <c r="Y1" s="883" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z1" s="872"/>
+      <c r="AA1" s="886" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="900" t="s">
-        <v>524</v>
-      </c>
-      <c r="O1" s="901"/>
-      <c r="P1" s="901"/>
-      <c r="Q1" s="901"/>
-      <c r="R1" s="902" t="s">
-        <v>465</v>
-      </c>
-      <c r="S1" s="895"/>
-      <c r="T1" s="895"/>
-      <c r="U1" s="895"/>
-      <c r="V1" s="895"/>
-      <c r="W1" s="895"/>
-      <c r="X1" s="903"/>
-      <c r="Y1" s="889" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z1" s="859"/>
-      <c r="AA1" s="904" t="s">
+      <c r="AB1" s="897" t="s">
         <v>170</v>
       </c>
-      <c r="AB1" s="877" t="s">
+      <c r="AC1" s="893" t="s">
         <v>171</v>
       </c>
-      <c r="AC1" s="891" t="s">
+      <c r="AD1" s="894"/>
+      <c r="AE1" s="894"/>
+      <c r="AF1" s="895"/>
+      <c r="AG1" s="896" t="s">
         <v>172</v>
       </c>
-      <c r="AD1" s="892"/>
-      <c r="AE1" s="892"/>
-      <c r="AF1" s="893"/>
-      <c r="AG1" s="894" t="s">
+      <c r="AH1" s="881"/>
+      <c r="AI1" s="881"/>
+      <c r="AJ1" s="881"/>
+      <c r="AK1" s="881"/>
+      <c r="AL1" s="881"/>
+      <c r="AM1" s="881"/>
+      <c r="AN1" s="881"/>
+      <c r="AO1" s="897" t="s">
         <v>173</v>
       </c>
-      <c r="AH1" s="895"/>
-      <c r="AI1" s="895"/>
-      <c r="AJ1" s="895"/>
-      <c r="AK1" s="895"/>
-      <c r="AL1" s="895"/>
-      <c r="AM1" s="895"/>
-      <c r="AN1" s="895"/>
-      <c r="AO1" s="877" t="s">
+      <c r="AP1" s="883" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ1" s="872"/>
+      <c r="AR1" s="872"/>
+      <c r="AS1" s="873"/>
+      <c r="AT1" s="900" t="s">
         <v>174</v>
       </c>
-      <c r="AP1" s="889" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ1" s="859"/>
-      <c r="AR1" s="859"/>
-      <c r="AS1" s="860"/>
-      <c r="AT1" s="897" t="s">
+      <c r="AU1" s="901"/>
+      <c r="AV1" s="901"/>
+      <c r="AW1" s="901"/>
+      <c r="AX1" s="901"/>
+      <c r="AY1" s="901"/>
+      <c r="AZ1" s="901"/>
+      <c r="BA1" s="901"/>
+      <c r="BB1" s="901"/>
+      <c r="BC1" s="901"/>
+      <c r="BD1" s="901"/>
+      <c r="BE1" s="901"/>
+      <c r="BF1" s="901"/>
+      <c r="BG1" s="901"/>
+      <c r="BH1" s="901"/>
+      <c r="BI1" s="901"/>
+      <c r="BJ1" s="901"/>
+      <c r="BK1" s="901"/>
+      <c r="BL1" s="901"/>
+      <c r="BM1" s="901"/>
+      <c r="BN1" s="901"/>
+      <c r="BO1" s="901"/>
+      <c r="BP1" s="901"/>
+      <c r="BQ1" s="901"/>
+      <c r="BR1" s="901"/>
+      <c r="BS1" s="901"/>
+      <c r="BT1" s="901"/>
+      <c r="BU1" s="901"/>
+      <c r="BV1" s="901"/>
+      <c r="BW1" s="897" t="s">
         <v>175</v>
       </c>
-      <c r="AU1" s="898"/>
-      <c r="AV1" s="898"/>
-      <c r="AW1" s="898"/>
-      <c r="AX1" s="898"/>
-      <c r="AY1" s="898"/>
-      <c r="AZ1" s="898"/>
-      <c r="BA1" s="898"/>
-      <c r="BB1" s="898"/>
-      <c r="BC1" s="898"/>
-      <c r="BD1" s="898"/>
-      <c r="BE1" s="898"/>
-      <c r="BF1" s="898"/>
-      <c r="BG1" s="898"/>
-      <c r="BH1" s="898"/>
-      <c r="BI1" s="898"/>
-      <c r="BJ1" s="898"/>
-      <c r="BK1" s="898"/>
-      <c r="BL1" s="898"/>
-      <c r="BM1" s="898"/>
-      <c r="BN1" s="898"/>
-      <c r="BO1" s="898"/>
-      <c r="BP1" s="898"/>
-      <c r="BQ1" s="898"/>
-      <c r="BR1" s="898"/>
-      <c r="BS1" s="898"/>
-      <c r="BT1" s="898"/>
-      <c r="BU1" s="898"/>
-      <c r="BV1" s="898"/>
-      <c r="BW1" s="877" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX1" s="889" t="s">
-        <v>471</v>
-      </c>
-      <c r="BY1" s="859"/>
-      <c r="BZ1" s="859"/>
-      <c r="CA1" s="860"/>
-      <c r="CB1" s="888" t="s">
-        <v>489</v>
-      </c>
-      <c r="CC1" s="890" t="s">
+      <c r="BX1" s="883" t="s">
+        <v>470</v>
+      </c>
+      <c r="BY1" s="872"/>
+      <c r="BZ1" s="872"/>
+      <c r="CA1" s="873"/>
+      <c r="CB1" s="909" t="s">
+        <v>488</v>
+      </c>
+      <c r="CC1" s="891" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="890"/>
-      <c r="CE1" s="890"/>
-      <c r="CF1" s="890"/>
-      <c r="CG1" s="890"/>
-      <c r="CH1" s="890"/>
-      <c r="CI1" s="890"/>
-      <c r="CJ1" s="890"/>
-      <c r="CK1" s="890"/>
-      <c r="CL1" s="890"/>
-      <c r="CM1" s="890"/>
-      <c r="CN1" s="890"/>
+      <c r="CD1" s="891"/>
+      <c r="CE1" s="891"/>
+      <c r="CF1" s="891"/>
+      <c r="CG1" s="891"/>
+      <c r="CH1" s="891"/>
+      <c r="CI1" s="891"/>
+      <c r="CJ1" s="891"/>
+      <c r="CK1" s="891"/>
+      <c r="CL1" s="891"/>
+      <c r="CM1" s="891"/>
+      <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="876" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ1" s="847"/>
-      <c r="CR1" s="847"/>
-      <c r="CS1" s="847"/>
-      <c r="CT1" s="847"/>
-      <c r="CU1" s="847"/>
-      <c r="CV1" s="847"/>
-      <c r="CW1" s="848"/>
+      <c r="CP1" s="905" t="s">
+        <v>88</v>
+      </c>
+      <c r="CQ1" s="842"/>
+      <c r="CR1" s="842"/>
+      <c r="CS1" s="842"/>
+      <c r="CT1" s="842"/>
+      <c r="CU1" s="842"/>
+      <c r="CV1" s="842"/>
+      <c r="CW1" s="861"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="148" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="E2" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="F2" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="G2" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="877"/>
+      <c r="N2" s="152" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="152" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="157" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="888" t="s">
+        <v>465</v>
+      </c>
+      <c r="T2" s="867"/>
+      <c r="U2" s="889" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="137" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="899"/>
-      <c r="N2" s="152" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="152" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="152" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q2" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="R2" s="157" t="s">
+      <c r="V2" s="889"/>
+      <c r="W2" s="889" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="890"/>
+      <c r="Y2" s="884"/>
+      <c r="Z2" s="885"/>
+      <c r="AA2" s="887"/>
+      <c r="AB2" s="898"/>
+      <c r="AC2" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="S2" s="906" t="s">
-        <v>466</v>
-      </c>
-      <c r="T2" s="854"/>
-      <c r="U2" s="907" t="s">
-        <v>98</v>
-      </c>
-      <c r="V2" s="907"/>
-      <c r="W2" s="907" t="s">
-        <v>99</v>
-      </c>
-      <c r="X2" s="908"/>
-      <c r="Y2" s="883"/>
-      <c r="Z2" s="884"/>
-      <c r="AA2" s="905"/>
-      <c r="AB2" s="878"/>
-      <c r="AC2" s="153" t="s">
+      <c r="AD2" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="153" t="s">
+      <c r="AE2" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="153" t="s">
+      <c r="AF2" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="153" t="s">
+      <c r="AG2" s="899" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="896" t="s">
+      <c r="AH2" s="892"/>
+      <c r="AI2" s="892" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="881"/>
-      <c r="AI2" s="881" t="s">
+      <c r="AJ2" s="892"/>
+      <c r="AK2" s="892" t="s">
         <v>190</v>
       </c>
-      <c r="AJ2" s="881"/>
-      <c r="AK2" s="881" t="s">
+      <c r="AL2" s="892"/>
+      <c r="AM2" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="881"/>
-      <c r="AM2" s="154" t="s">
+      <c r="AN2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="AN2" s="154" t="s">
+      <c r="AO2" s="898"/>
+      <c r="AP2" s="884" t="s">
         <v>193</v>
       </c>
-      <c r="AO2" s="878"/>
-      <c r="AP2" s="883" t="s">
+      <c r="AQ2" s="885"/>
+      <c r="AR2" s="902" t="s">
         <v>194</v>
       </c>
-      <c r="AQ2" s="884"/>
-      <c r="AR2" s="885" t="s">
+      <c r="AS2" s="903"/>
+      <c r="AT2" s="892" t="s">
         <v>195</v>
       </c>
-      <c r="AS2" s="886"/>
-      <c r="AT2" s="881" t="s">
+      <c r="AU2" s="892"/>
+      <c r="AV2" s="904" t="s">
         <v>196</v>
       </c>
-      <c r="AU2" s="881"/>
-      <c r="AV2" s="882" t="s">
+      <c r="AW2" s="904"/>
+      <c r="AX2" s="904" t="s">
         <v>197</v>
       </c>
-      <c r="AW2" s="882"/>
-      <c r="AX2" s="882" t="s">
+      <c r="AY2" s="904"/>
+      <c r="AZ2" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="AY2" s="882"/>
-      <c r="AZ2" s="154" t="s">
+      <c r="BA2" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="BA2" s="154" t="s">
+      <c r="BB2" s="892" t="s">
         <v>200</v>
       </c>
-      <c r="BB2" s="881" t="s">
+      <c r="BC2" s="892"/>
+      <c r="BD2" s="904" t="s">
         <v>201</v>
       </c>
-      <c r="BC2" s="881"/>
-      <c r="BD2" s="882" t="s">
+      <c r="BE2" s="904"/>
+      <c r="BF2" s="904" t="s">
         <v>202</v>
       </c>
-      <c r="BE2" s="882"/>
-      <c r="BF2" s="882" t="s">
+      <c r="BG2" s="904"/>
+      <c r="BH2" s="154" t="s">
         <v>203</v>
       </c>
-      <c r="BG2" s="882"/>
-      <c r="BH2" s="154" t="s">
+      <c r="BI2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="BI2" s="154" t="s">
+      <c r="BJ2" s="892" t="s">
         <v>205</v>
       </c>
-      <c r="BJ2" s="881" t="s">
+      <c r="BK2" s="892"/>
+      <c r="BL2" s="904" t="s">
         <v>206</v>
       </c>
-      <c r="BK2" s="881"/>
-      <c r="BL2" s="882" t="s">
+      <c r="BM2" s="904"/>
+      <c r="BN2" s="904" t="s">
         <v>207</v>
       </c>
-      <c r="BM2" s="882"/>
-      <c r="BN2" s="882" t="s">
+      <c r="BO2" s="904"/>
+      <c r="BP2" s="154" t="s">
         <v>208</v>
       </c>
-      <c r="BO2" s="882"/>
-      <c r="BP2" s="154" t="s">
+      <c r="BQ2" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="BQ2" s="154" t="s">
+      <c r="BR2" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="BR2" s="156" t="s">
+      <c r="BS2" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="BS2" s="156" t="s">
+      <c r="BT2" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="BT2" s="156" t="s">
+      <c r="BU2" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="BU2" s="154" t="s">
+      <c r="BV2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="BV2" s="154" t="s">
+      <c r="BW2" s="898"/>
+      <c r="BX2" s="884" t="s">
+        <v>193</v>
+      </c>
+      <c r="BY2" s="885"/>
+      <c r="BZ2" s="902" t="s">
+        <v>194</v>
+      </c>
+      <c r="CA2" s="903"/>
+      <c r="CB2" s="909"/>
+      <c r="CC2" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD2" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="BW2" s="878"/>
-      <c r="BX2" s="883" t="s">
-        <v>194</v>
-      </c>
-      <c r="BY2" s="884"/>
-      <c r="BZ2" s="885" t="s">
-        <v>195</v>
-      </c>
-      <c r="CA2" s="886"/>
-      <c r="CB2" s="888"/>
-      <c r="CC2" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD2" s="138" t="s">
-        <v>216</v>
-      </c>
       <c r="CE2" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF2" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="CF2" s="138" t="s">
+      <c r="CG2" s="139" t="s">
         <v>111</v>
-      </c>
-      <c r="CG2" s="139" t="s">
-        <v>112</v>
       </c>
       <c r="CH2" s="140" t="s">
         <v>25</v>
@@ -60013,45 +60013,45 @@
         <v>35</v>
       </c>
       <c r="CL2" s="140" t="s">
+        <v>524</v>
+      </c>
+      <c r="CM2" s="140" t="s">
         <v>525</v>
-      </c>
-      <c r="CM2" s="140" t="s">
-        <v>526</v>
       </c>
       <c r="CN2" s="140" t="s">
         <v>44</v>
       </c>
       <c r="CO2" s="140" t="s">
-        <v>474</v>
-      </c>
-      <c r="CP2" s="887" t="s">
+        <v>473</v>
+      </c>
+      <c r="CP2" s="908" t="s">
+        <v>216</v>
+      </c>
+      <c r="CQ2" s="906"/>
+      <c r="CR2" s="906" t="s">
         <v>217</v>
       </c>
-      <c r="CQ2" s="879"/>
-      <c r="CR2" s="879" t="s">
+      <c r="CS2" s="906"/>
+      <c r="CT2" s="906" t="s">
         <v>218</v>
       </c>
-      <c r="CS2" s="879"/>
-      <c r="CT2" s="879" t="s">
+      <c r="CU2" s="906"/>
+      <c r="CV2" s="906" t="s">
         <v>219</v>
       </c>
-      <c r="CU2" s="879"/>
-      <c r="CV2" s="879" t="s">
-        <v>220</v>
-      </c>
-      <c r="CW2" s="880"/>
+      <c r="CW2" s="907"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
       <c r="B3" s="169"/>
       <c r="C3" s="158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="158"/>
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
@@ -60062,172 +60062,172 @@
       <c r="N3" s="159"/>
       <c r="O3" s="159"/>
       <c r="P3" s="159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="159"/>
       <c r="R3" s="157"/>
       <c r="S3" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="T3" s="181" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="V3" s="181" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="X3" s="182" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="U3" s="181" t="s">
-        <v>157</v>
-      </c>
-      <c r="V3" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="W3" s="181" t="s">
-        <v>157</v>
-      </c>
-      <c r="X3" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y3" s="183" t="s">
-        <v>158</v>
-      </c>
       <c r="Z3" s="184" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA3" s="185" t="s">
         <v>222</v>
       </c>
-      <c r="AA3" s="185" t="s">
-        <v>223</v>
-      </c>
       <c r="AB3" s="186" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC3" s="158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD3" s="158" t="s">
         <v>72</v>
       </c>
       <c r="AE3" s="158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF3" s="158" t="s">
         <v>72</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH3" s="166" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI3" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="AI3" s="166" t="s">
-        <v>157</v>
-      </c>
       <c r="AJ3" s="166" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="AK3" s="166" t="s">
-        <v>157</v>
-      </c>
       <c r="AL3" s="166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM3" s="175"/>
       <c r="AN3" s="175"/>
       <c r="AO3" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP3" s="187" t="s">
         <v>223</v>
       </c>
-      <c r="AP3" s="187" t="s">
+      <c r="AQ3" s="184" t="s">
         <v>224</v>
       </c>
-      <c r="AQ3" s="184" t="s">
-        <v>225</v>
-      </c>
       <c r="AR3" s="188" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS3" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="AS3" s="189" t="s">
-        <v>225</v>
-      </c>
       <c r="AT3" s="164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AU3" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV3" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="AV3" s="164" t="s">
-        <v>157</v>
-      </c>
       <c r="AW3" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX3" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="AX3" s="164" t="s">
-        <v>157</v>
-      </c>
       <c r="AY3" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AZ3" s="175"/>
       <c r="BA3" s="175"/>
       <c r="BB3" s="164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC3" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD3" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="BD3" s="164" t="s">
-        <v>157</v>
-      </c>
       <c r="BE3" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF3" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="BF3" s="164" t="s">
-        <v>157</v>
-      </c>
       <c r="BG3" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BH3" s="175"/>
       <c r="BI3" s="175"/>
       <c r="BJ3" s="164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BK3" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL3" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="BL3" s="164" t="s">
-        <v>157</v>
-      </c>
       <c r="BM3" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN3" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="BN3" s="164" t="s">
-        <v>157</v>
-      </c>
       <c r="BO3" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BP3" s="175"/>
       <c r="BQ3" s="175"/>
       <c r="BR3" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BS3" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BT3" s="164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BU3" s="175"/>
       <c r="BV3" s="175"/>
       <c r="BW3" s="186" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BX3" s="183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BY3" s="184" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BZ3" s="184" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CA3" s="189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CB3" s="702"/>
       <c r="CC3" s="177"/>
@@ -60244,28 +60244,28 @@
       <c r="CN3" s="179"/>
       <c r="CO3" s="179"/>
       <c r="CP3" s="190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CQ3" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="CR3" s="191" t="s">
         <v>156</v>
       </c>
-      <c r="CR3" s="191" t="s">
-        <v>157</v>
-      </c>
       <c r="CS3" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="CT3" s="191" t="s">
         <v>156</v>
       </c>
-      <c r="CT3" s="191" t="s">
-        <v>157</v>
-      </c>
       <c r="CU3" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="CV3" s="191" t="s">
         <v>156</v>
       </c>
-      <c r="CV3" s="191" t="s">
-        <v>157</v>
-      </c>
       <c r="CW3" s="192" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:104" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -60579,7 +60579,7 @@
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="136"/>
       <c r="P7" s="136"/>
@@ -60618,7 +60618,7 @@
     </row>
     <row r="8" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A8" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="136"/>
       <c r="P8" s="136"/>
@@ -60657,7 +60657,7 @@
     </row>
     <row r="9" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="136"/>
       <c r="P9" s="136"/>
@@ -60696,171 +60696,171 @@
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A13" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F15" s="136"/>
       <c r="G15" s="136"/>
     </row>
     <row r="16" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A16" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="136"/>
       <c r="G16" s="136"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="136"/>
       <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="136"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="136"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F24" s="136"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F25" s="136"/>
       <c r="G25" s="136"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F27" s="136"/>
       <c r="G27" s="136"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" s="136"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="136"/>
       <c r="G29" s="136"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="136"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F33" s="136"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F35" s="136"/>
       <c r="G35" s="136"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="136"/>
       <c r="G36" s="136"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F39" s="136"/>
       <c r="G39" s="136"/>
@@ -60870,7 +60870,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="136"/>
     </row>
@@ -60904,29 +60904,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60943,6 +60920,29 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60985,105 +60985,110 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="696"/>
-      <c r="N1" s="909"/>
-      <c r="O1" s="910"/>
-      <c r="P1" s="910"/>
-      <c r="Q1" s="910"/>
-      <c r="R1" s="902"/>
-      <c r="S1" s="895"/>
-      <c r="T1" s="895"/>
-      <c r="U1" s="895"/>
-      <c r="V1" s="895"/>
-      <c r="W1" s="895"/>
-      <c r="X1" s="903"/>
-      <c r="Y1" s="889"/>
-      <c r="Z1" s="859"/>
+      <c r="N1" s="913"/>
+      <c r="O1" s="914"/>
+      <c r="P1" s="914"/>
+      <c r="Q1" s="914"/>
+      <c r="R1" s="880"/>
+      <c r="S1" s="881"/>
+      <c r="T1" s="881"/>
+      <c r="U1" s="881"/>
+      <c r="V1" s="881"/>
+      <c r="W1" s="881"/>
+      <c r="X1" s="882"/>
+      <c r="Y1" s="883"/>
+      <c r="Z1" s="872"/>
       <c r="AA1" s="697"/>
       <c r="AB1" s="695"/>
-      <c r="AC1" s="891"/>
-      <c r="AD1" s="892"/>
-      <c r="AE1" s="892"/>
-      <c r="AF1" s="893"/>
-      <c r="AG1" s="894"/>
-      <c r="AH1" s="895"/>
-      <c r="AI1" s="895"/>
-      <c r="AJ1" s="895"/>
-      <c r="AK1" s="895"/>
-      <c r="AL1" s="895"/>
-      <c r="AM1" s="895"/>
-      <c r="AN1" s="895"/>
+      <c r="AC1" s="893"/>
+      <c r="AD1" s="894"/>
+      <c r="AE1" s="894"/>
+      <c r="AF1" s="895"/>
+      <c r="AG1" s="896"/>
+      <c r="AH1" s="881"/>
+      <c r="AI1" s="881"/>
+      <c r="AJ1" s="881"/>
+      <c r="AK1" s="881"/>
+      <c r="AL1" s="881"/>
+      <c r="AM1" s="881"/>
+      <c r="AN1" s="881"/>
       <c r="AO1" s="695"/>
-      <c r="AP1" s="889"/>
-      <c r="AQ1" s="859"/>
-      <c r="AR1" s="859"/>
-      <c r="AS1" s="860"/>
-      <c r="AT1" s="897"/>
-      <c r="AU1" s="898"/>
-      <c r="AV1" s="898"/>
-      <c r="AW1" s="898"/>
-      <c r="AX1" s="898"/>
-      <c r="AY1" s="898"/>
-      <c r="AZ1" s="898"/>
-      <c r="BA1" s="898"/>
-      <c r="BB1" s="898"/>
-      <c r="BC1" s="898"/>
-      <c r="BD1" s="898"/>
-      <c r="BE1" s="898"/>
-      <c r="BF1" s="898"/>
-      <c r="BG1" s="898"/>
-      <c r="BH1" s="898"/>
-      <c r="BI1" s="898"/>
-      <c r="BJ1" s="898"/>
-      <c r="BK1" s="898"/>
-      <c r="BL1" s="898"/>
-      <c r="BM1" s="898"/>
-      <c r="BN1" s="898"/>
-      <c r="BO1" s="898"/>
-      <c r="BP1" s="898"/>
-      <c r="BQ1" s="898"/>
-      <c r="BR1" s="898"/>
-      <c r="BS1" s="898"/>
-      <c r="BT1" s="898"/>
-      <c r="BU1" s="898"/>
-      <c r="BV1" s="898"/>
+      <c r="AP1" s="883"/>
+      <c r="AQ1" s="872"/>
+      <c r="AR1" s="872"/>
+      <c r="AS1" s="873"/>
+      <c r="AT1" s="900"/>
+      <c r="AU1" s="901"/>
+      <c r="AV1" s="901"/>
+      <c r="AW1" s="901"/>
+      <c r="AX1" s="901"/>
+      <c r="AY1" s="901"/>
+      <c r="AZ1" s="901"/>
+      <c r="BA1" s="901"/>
+      <c r="BB1" s="901"/>
+      <c r="BC1" s="901"/>
+      <c r="BD1" s="901"/>
+      <c r="BE1" s="901"/>
+      <c r="BF1" s="901"/>
+      <c r="BG1" s="901"/>
+      <c r="BH1" s="901"/>
+      <c r="BI1" s="901"/>
+      <c r="BJ1" s="901"/>
+      <c r="BK1" s="901"/>
+      <c r="BL1" s="901"/>
+      <c r="BM1" s="901"/>
+      <c r="BN1" s="901"/>
+      <c r="BO1" s="901"/>
+      <c r="BP1" s="901"/>
+      <c r="BQ1" s="901"/>
+      <c r="BR1" s="901"/>
+      <c r="BS1" s="901"/>
+      <c r="BT1" s="901"/>
+      <c r="BU1" s="901"/>
+      <c r="BV1" s="901"/>
       <c r="BW1" s="695"/>
-      <c r="BX1" s="889"/>
-      <c r="BY1" s="859"/>
-      <c r="BZ1" s="859"/>
-      <c r="CA1" s="860"/>
-      <c r="CB1" s="890"/>
-      <c r="CC1" s="890"/>
-      <c r="CD1" s="890"/>
-      <c r="CE1" s="890"/>
-      <c r="CF1" s="890"/>
-      <c r="CG1" s="890"/>
-      <c r="CH1" s="890"/>
-      <c r="CI1" s="890"/>
-      <c r="CJ1" s="890"/>
-      <c r="CK1" s="890"/>
-      <c r="CL1" s="890"/>
-      <c r="CM1" s="890"/>
+      <c r="BX1" s="883"/>
+      <c r="BY1" s="872"/>
+      <c r="BZ1" s="872"/>
+      <c r="CA1" s="873"/>
+      <c r="CB1" s="891"/>
+      <c r="CC1" s="891"/>
+      <c r="CD1" s="891"/>
+      <c r="CE1" s="891"/>
+      <c r="CF1" s="891"/>
+      <c r="CG1" s="891"/>
+      <c r="CH1" s="891"/>
+      <c r="CI1" s="891"/>
+      <c r="CJ1" s="891"/>
+      <c r="CK1" s="891"/>
+      <c r="CL1" s="891"/>
+      <c r="CM1" s="891"/>
       <c r="CN1" s="694"/>
-      <c r="CO1" s="876"/>
-      <c r="CP1" s="847"/>
-      <c r="CQ1" s="847"/>
-      <c r="CR1" s="847"/>
-      <c r="CS1" s="847"/>
-      <c r="CT1" s="847"/>
-      <c r="CU1" s="847"/>
-      <c r="CV1" s="848"/>
-      <c r="CW1" s="911"/>
-      <c r="CX1" s="912"/>
-      <c r="CY1" s="912"/>
-      <c r="CZ1" s="913"/>
-      <c r="DA1" s="912"/>
-      <c r="DB1" s="912"/>
-      <c r="DC1" s="913"/>
-      <c r="DD1" s="912"/>
-      <c r="DE1" s="912"/>
+      <c r="CO1" s="905"/>
+      <c r="CP1" s="842"/>
+      <c r="CQ1" s="842"/>
+      <c r="CR1" s="842"/>
+      <c r="CS1" s="842"/>
+      <c r="CT1" s="842"/>
+      <c r="CU1" s="842"/>
+      <c r="CV1" s="861"/>
+      <c r="CW1" s="910"/>
+      <c r="CX1" s="911"/>
+      <c r="CY1" s="911"/>
+      <c r="CZ1" s="912"/>
+      <c r="DA1" s="911"/>
+      <c r="DB1" s="911"/>
+      <c r="DC1" s="912"/>
+      <c r="DD1" s="911"/>
+      <c r="DE1" s="911"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61092,11 +61097,6 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61119,26 +61119,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="916" t="s">
+      <c r="A1" s="917" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="917"/>
-      <c r="C1" s="917"/>
-      <c r="D1" s="914" t="s">
-        <v>223</v>
+      <c r="B1" s="918"/>
+      <c r="C1" s="918"/>
+      <c r="D1" s="915" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="462" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="462" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" s="462" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="915"/>
+        <v>93</v>
+      </c>
+      <c r="D2" s="916"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="453"/>
@@ -61197,10 +61197,10 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="200"/>
       <c r="B1" s="201" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="202" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
@@ -61224,12 +61224,12 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="200"/>
       <c r="B2" s="203" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="919" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="925" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="925"/>
+      <c r="D2" s="919"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61320,60 +61320,60 @@
     <row r="6" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="200"/>
       <c r="B6" s="213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="201"/>
       <c r="D6" s="201"/>
       <c r="E6" s="201"/>
       <c r="F6" s="214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
       <c r="I6" s="201"/>
       <c r="J6" s="213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K6" s="201"/>
       <c r="L6" s="201"/>
       <c r="M6" s="201"/>
       <c r="N6" s="214" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O6" s="201"/>
       <c r="P6" s="201"/>
       <c r="Q6" s="213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R6" s="201"/>
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="926"/>
-      <c r="C7" s="926"/>
-      <c r="D7" s="926"/>
+      <c r="B7" s="920"/>
+      <c r="C7" s="920"/>
+      <c r="D7" s="920"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="926"/>
-      <c r="K7" s="926"/>
-      <c r="L7" s="926"/>
+      <c r="J7" s="920"/>
+      <c r="K7" s="920"/>
+      <c r="L7" s="920"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="926"/>
-      <c r="R7" s="926"/>
-      <c r="S7" s="926"/>
+        <v>243</v>
+      </c>
+      <c r="Q7" s="920"/>
+      <c r="R7" s="920"/>
+      <c r="S7" s="920"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
     </row>
@@ -61403,136 +61403,136 @@
     <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="200"/>
       <c r="B9" s="216" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C9" s="921" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="922"/>
       <c r="E9" s="921" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="922"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K9" s="921" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L9" s="922"/>
       <c r="M9" s="921" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N9" s="922"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R9" s="921" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S9" s="922"/>
       <c r="T9" s="921" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U9" s="922"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
       <c r="B10" s="217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="218" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="219" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="219" t="s">
         <v>247</v>
-      </c>
-      <c r="E10" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="219" t="s">
-        <v>248</v>
       </c>
       <c r="G10" s="201"/>
       <c r="H10" s="201"/>
       <c r="I10" s="201"/>
       <c r="J10" s="217" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="219" t="s">
         <v>247</v>
-      </c>
-      <c r="M10" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10" s="219" t="s">
-        <v>248</v>
       </c>
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R10" s="218" t="s">
         <v>69</v>
       </c>
       <c r="S10" s="219" t="s">
+        <v>246</v>
+      </c>
+      <c r="T10" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="U10" s="219" t="s">
         <v>247</v>
-      </c>
-      <c r="T10" s="218" t="s">
-        <v>156</v>
-      </c>
-      <c r="U10" s="219" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="200"/>
       <c r="B11" s="220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
-      <c r="E11" s="918" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="919"/>
+      <c r="E11" s="923" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="924"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
       <c r="J11" s="223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="923" t="s">
-        <v>250</v>
-      </c>
-      <c r="N11" s="924"/>
+      <c r="M11" s="926" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" s="927"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
-      <c r="T11" s="918" t="s">
-        <v>250</v>
-      </c>
-      <c r="U11" s="919"/>
+      <c r="T11" s="923" t="s">
+        <v>249</v>
+      </c>
+      <c r="U11" s="924"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
       <c r="B12" s="224" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C12" s="300"/>
       <c r="D12" s="282"/>
@@ -61542,7 +61542,7 @@
       <c r="H12" s="222"/>
       <c r="I12" s="222"/>
       <c r="J12" s="224" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K12" s="300"/>
       <c r="L12" s="282"/>
@@ -61551,7 +61551,7 @@
       <c r="O12" s="222"/>
       <c r="P12" s="222"/>
       <c r="Q12" s="224" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R12" s="300"/>
       <c r="S12" s="282"/>
@@ -61561,7 +61561,7 @@
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="200"/>
       <c r="B13" s="321" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="301"/>
       <c r="D13" s="283"/>
@@ -61571,7 +61571,7 @@
       <c r="H13" s="222"/>
       <c r="I13" s="222"/>
       <c r="J13" s="321" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K13" s="301"/>
       <c r="L13" s="283"/>
@@ -61580,7 +61580,7 @@
       <c r="O13" s="222"/>
       <c r="P13" s="222"/>
       <c r="Q13" s="321" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R13" s="301"/>
       <c r="S13" s="283"/>
@@ -61590,7 +61590,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="200"/>
       <c r="B14" s="225" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="301"/>
       <c r="D14" s="284"/>
@@ -61600,7 +61600,7 @@
       <c r="H14" s="222"/>
       <c r="I14" s="222"/>
       <c r="J14" s="225" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K14" s="301"/>
       <c r="L14" s="284"/>
@@ -61609,7 +61609,7 @@
       <c r="O14" s="222"/>
       <c r="P14" s="222"/>
       <c r="Q14" s="225" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R14" s="301"/>
       <c r="S14" s="284"/>
@@ -61619,7 +61619,7 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="200"/>
       <c r="B15" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="227"/>
       <c r="D15" s="228"/>
@@ -61629,7 +61629,7 @@
       <c r="H15" s="230"/>
       <c r="I15" s="201"/>
       <c r="J15" s="226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K15" s="227"/>
       <c r="L15" s="228"/>
@@ -61638,7 +61638,7 @@
       <c r="O15" s="201"/>
       <c r="P15" s="201"/>
       <c r="Q15" s="226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R15" s="227"/>
       <c r="S15" s="228"/>
@@ -61648,7 +61648,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="231"/>
       <c r="B16" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="233"/>
       <c r="D16" s="234"/>
@@ -61658,7 +61658,7 @@
       <c r="H16" s="230"/>
       <c r="I16" s="230"/>
       <c r="J16" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K16" s="233"/>
       <c r="L16" s="234"/>
@@ -61667,7 +61667,7 @@
       <c r="O16" s="201"/>
       <c r="P16" s="201"/>
       <c r="Q16" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R16" s="233"/>
       <c r="S16" s="234"/>
@@ -61677,7 +61677,7 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="200"/>
       <c r="B17" s="236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="237"/>
       <c r="D17" s="239"/>
@@ -61687,7 +61687,7 @@
       <c r="H17" s="230"/>
       <c r="I17" s="201"/>
       <c r="J17" s="236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K17" s="237"/>
       <c r="L17" s="238"/>
@@ -61696,7 +61696,7 @@
       <c r="O17" s="240"/>
       <c r="P17" s="240"/>
       <c r="Q17" s="236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R17" s="237"/>
       <c r="S17" s="238"/>
@@ -61706,7 +61706,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="200"/>
       <c r="B18" s="241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C18" s="242"/>
       <c r="D18" s="243"/>
@@ -61716,7 +61716,7 @@
       <c r="H18" s="230"/>
       <c r="I18" s="201"/>
       <c r="J18" s="241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K18" s="242"/>
       <c r="L18" s="243"/>
@@ -61725,7 +61725,7 @@
       <c r="O18" s="201"/>
       <c r="P18" s="201"/>
       <c r="Q18" s="241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R18" s="242"/>
       <c r="S18" s="243"/>
@@ -61758,42 +61758,42 @@
     <row r="20" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="200"/>
       <c r="B20" s="220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="918" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" s="919"/>
+      <c r="E20" s="923" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="924"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
       <c r="J20" s="220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
-      <c r="M20" s="918" t="s">
-        <v>257</v>
-      </c>
-      <c r="N20" s="919"/>
+      <c r="M20" s="923" t="s">
+        <v>256</v>
+      </c>
+      <c r="N20" s="924"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
-      <c r="T20" s="918" t="s">
-        <v>257</v>
-      </c>
-      <c r="U20" s="919"/>
+      <c r="T20" s="923" t="s">
+        <v>256</v>
+      </c>
+      <c r="U20" s="924"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
       <c r="B21" s="250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" s="251"/>
       <c r="D21" s="252"/>
@@ -61803,7 +61803,7 @@
       <c r="H21" s="230"/>
       <c r="I21" s="201"/>
       <c r="J21" s="250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K21" s="251"/>
       <c r="L21" s="252"/>
@@ -61812,7 +61812,7 @@
       <c r="O21" s="240"/>
       <c r="P21" s="240"/>
       <c r="Q21" s="226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R21" s="227"/>
       <c r="S21" s="228"/>
@@ -61822,7 +61822,7 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="231"/>
       <c r="B22" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" s="233"/>
       <c r="D22" s="234"/>
@@ -61832,7 +61832,7 @@
       <c r="H22" s="230"/>
       <c r="I22" s="240"/>
       <c r="J22" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K22" s="233"/>
       <c r="L22" s="234"/>
@@ -61841,7 +61841,7 @@
       <c r="O22" s="240"/>
       <c r="P22" s="240"/>
       <c r="Q22" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R22" s="233"/>
       <c r="S22" s="234"/>
@@ -61851,7 +61851,7 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="200"/>
       <c r="B23" s="236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="237"/>
       <c r="D23" s="238"/>
@@ -61861,7 +61861,7 @@
       <c r="H23" s="230"/>
       <c r="I23" s="201"/>
       <c r="J23" s="236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K23" s="237"/>
       <c r="L23" s="238"/>
@@ -61870,7 +61870,7 @@
       <c r="O23" s="240"/>
       <c r="P23" s="240"/>
       <c r="Q23" s="236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R23" s="237"/>
       <c r="S23" s="238"/>
@@ -61880,7 +61880,7 @@
     <row r="24" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="200"/>
       <c r="B24" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" s="237"/>
       <c r="D24" s="239"/>
@@ -61890,7 +61890,7 @@
       <c r="H24" s="230"/>
       <c r="I24" s="201"/>
       <c r="J24" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K24" s="255"/>
       <c r="L24" s="238"/>
@@ -61899,7 +61899,7 @@
       <c r="O24" s="240"/>
       <c r="P24" s="240"/>
       <c r="Q24" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R24" s="255"/>
       <c r="S24" s="238"/>
@@ -61909,7 +61909,7 @@
     <row r="25" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="200"/>
       <c r="B25" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="237"/>
       <c r="D25" s="239"/>
@@ -61919,7 +61919,7 @@
       <c r="H25" s="230"/>
       <c r="I25" s="201"/>
       <c r="J25" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K25" s="255"/>
       <c r="L25" s="238"/>
@@ -61928,7 +61928,7 @@
       <c r="O25" s="240"/>
       <c r="P25" s="240"/>
       <c r="Q25" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R25" s="255"/>
       <c r="S25" s="238"/>
@@ -61938,7 +61938,7 @@
     <row r="26" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="200"/>
       <c r="B26" s="254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="237"/>
       <c r="D26" s="239"/>
@@ -61948,7 +61948,7 @@
       <c r="H26" s="230"/>
       <c r="I26" s="201"/>
       <c r="J26" s="254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K26" s="255"/>
       <c r="L26" s="246"/>
@@ -61957,7 +61957,7 @@
       <c r="O26" s="240"/>
       <c r="P26" s="240"/>
       <c r="Q26" s="254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R26" s="255"/>
       <c r="S26" s="238"/>
@@ -61967,7 +61967,7 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="200"/>
       <c r="B27" s="256" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="237"/>
       <c r="D27" s="239"/>
@@ -61977,7 +61977,7 @@
       <c r="H27" s="230"/>
       <c r="I27" s="201"/>
       <c r="J27" s="256" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K27" s="255"/>
       <c r="L27" s="239"/>
@@ -61986,7 +61986,7 @@
       <c r="O27" s="240"/>
       <c r="P27" s="240"/>
       <c r="Q27" s="254" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R27" s="255"/>
       <c r="S27" s="238"/>
@@ -61996,7 +61996,7 @@
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="200"/>
       <c r="B28" s="303" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C28" s="242"/>
       <c r="D28" s="244"/>
@@ -62006,7 +62006,7 @@
       <c r="H28" s="230"/>
       <c r="I28" s="201"/>
       <c r="J28" s="303" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K28" s="242"/>
       <c r="L28" s="244"/>
@@ -62015,7 +62015,7 @@
       <c r="O28" s="240"/>
       <c r="P28" s="240"/>
       <c r="Q28" s="241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R28" s="242"/>
       <c r="S28" s="243"/>
@@ -62048,42 +62048,42 @@
     <row r="30" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="200"/>
       <c r="B30" s="220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="918" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="919"/>
+      <c r="E30" s="923" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="924"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
       <c r="J30" s="220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="918" t="s">
-        <v>594</v>
-      </c>
-      <c r="N30" s="919"/>
+      <c r="M30" s="923" t="s">
+        <v>593</v>
+      </c>
+      <c r="N30" s="924"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
-      <c r="T30" s="918" t="s">
-        <v>257</v>
-      </c>
-      <c r="U30" s="919"/>
+      <c r="T30" s="923" t="s">
+        <v>256</v>
+      </c>
+      <c r="U30" s="924"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
       <c r="B31" s="250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="263"/>
       <c r="D31" s="264"/>
@@ -62093,24 +62093,24 @@
       <c r="H31" s="266"/>
       <c r="I31" s="267"/>
       <c r="J31" s="304" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K31" s="305" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L31" s="306" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M31" s="306" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N31" s="306" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O31" s="268"/>
       <c r="P31" s="268"/>
       <c r="Q31" s="226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R31" s="269"/>
       <c r="S31" s="270"/>
@@ -62120,7 +62120,7 @@
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="272"/>
       <c r="B32" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="273"/>
       <c r="D32" s="274"/>
@@ -62130,24 +62130,24 @@
       <c r="H32" s="276"/>
       <c r="I32" s="277"/>
       <c r="J32" s="307" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K32" s="308" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L32" s="309" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M32" s="309" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O32" s="277"/>
       <c r="P32" s="277"/>
       <c r="Q32" s="232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R32" s="273"/>
       <c r="S32" s="278"/>
@@ -62157,7 +62157,7 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="200"/>
       <c r="B33" s="236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="237"/>
       <c r="D33" s="238"/>
@@ -62167,7 +62167,7 @@
       <c r="H33" s="230"/>
       <c r="I33" s="201"/>
       <c r="J33" s="310" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K33" s="311"/>
       <c r="L33" s="312"/>
@@ -62176,7 +62176,7 @@
       <c r="O33" s="240"/>
       <c r="P33" s="240"/>
       <c r="Q33" s="236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R33" s="237"/>
       <c r="S33" s="238"/>
@@ -62186,7 +62186,7 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="279"/>
       <c r="B34" s="254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="237"/>
       <c r="D34" s="239"/>
@@ -62196,7 +62196,7 @@
       <c r="H34" s="230"/>
       <c r="I34" s="230"/>
       <c r="J34" s="315" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K34" s="316"/>
       <c r="L34" s="312"/>
@@ -62205,7 +62205,7 @@
       <c r="O34" s="280"/>
       <c r="P34" s="280"/>
       <c r="Q34" s="254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R34" s="255"/>
       <c r="S34" s="238"/>
@@ -62215,7 +62215,7 @@
     <row r="35" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="279"/>
       <c r="B35" s="254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="237"/>
       <c r="D35" s="239"/>
@@ -62225,7 +62225,7 @@
       <c r="H35" s="230"/>
       <c r="I35" s="230"/>
       <c r="J35" s="315" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K35" s="316"/>
       <c r="L35" s="312"/>
@@ -62234,7 +62234,7 @@
       <c r="O35" s="280"/>
       <c r="P35" s="280"/>
       <c r="Q35" s="254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R35" s="255"/>
       <c r="S35" s="238"/>
@@ -62244,7 +62244,7 @@
     <row r="36" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="279"/>
       <c r="B36" s="254" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="237"/>
       <c r="D36" s="239"/>
@@ -62254,7 +62254,7 @@
       <c r="H36" s="230"/>
       <c r="I36" s="230"/>
       <c r="J36" s="315" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K36" s="316"/>
       <c r="L36" s="312"/>
@@ -62263,7 +62263,7 @@
       <c r="O36" s="280"/>
       <c r="P36" s="280"/>
       <c r="Q36" s="254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R36" s="255"/>
       <c r="S36" s="238"/>
@@ -62273,7 +62273,7 @@
     <row r="37" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="279"/>
       <c r="B37" s="254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" s="237"/>
       <c r="D37" s="239"/>
@@ -62283,7 +62283,7 @@
       <c r="H37" s="230"/>
       <c r="I37" s="230"/>
       <c r="J37" s="315" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K37" s="316"/>
       <c r="L37" s="312"/>
@@ -62292,7 +62292,7 @@
       <c r="O37" s="280"/>
       <c r="P37" s="280"/>
       <c r="Q37" s="254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R37" s="255"/>
       <c r="S37" s="238"/>
@@ -62302,7 +62302,7 @@
     <row r="38" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="279"/>
       <c r="B38" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="237"/>
       <c r="D38" s="239"/>
@@ -62312,7 +62312,7 @@
       <c r="H38" s="230"/>
       <c r="I38" s="230"/>
       <c r="J38" s="315" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K38" s="316"/>
       <c r="L38" s="312"/>
@@ -62321,7 +62321,7 @@
       <c r="O38" s="280"/>
       <c r="P38" s="280"/>
       <c r="Q38" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R38" s="255"/>
       <c r="S38" s="238"/>
@@ -62331,7 +62331,7 @@
     <row r="39" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="279"/>
       <c r="B39" s="254" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="237"/>
       <c r="D39" s="239"/>
@@ -62341,7 +62341,7 @@
       <c r="H39" s="230"/>
       <c r="I39" s="230"/>
       <c r="J39" s="315" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K39" s="316"/>
       <c r="L39" s="312"/>
@@ -62350,7 +62350,7 @@
       <c r="O39" s="280"/>
       <c r="P39" s="280"/>
       <c r="Q39" s="254" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R39" s="255"/>
       <c r="S39" s="238"/>
@@ -62360,7 +62360,7 @@
     <row r="40" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="279"/>
       <c r="B40" s="254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="237"/>
       <c r="D40" s="239"/>
@@ -62370,7 +62370,7 @@
       <c r="H40" s="230"/>
       <c r="I40" s="230"/>
       <c r="J40" s="315" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K40" s="316"/>
       <c r="L40" s="312"/>
@@ -62379,7 +62379,7 @@
       <c r="O40" s="280"/>
       <c r="P40" s="280"/>
       <c r="Q40" s="254" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R40" s="255"/>
       <c r="S40" s="238"/>
@@ -62389,7 +62389,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="200"/>
       <c r="B41" s="241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C41" s="242"/>
       <c r="D41" s="243"/>
@@ -62399,7 +62399,7 @@
       <c r="H41" s="230"/>
       <c r="I41" s="201"/>
       <c r="J41" s="317" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K41" s="318"/>
       <c r="L41" s="319"/>
@@ -62408,7 +62408,7 @@
       <c r="O41" s="240"/>
       <c r="P41" s="240"/>
       <c r="Q41" s="241" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R41" s="242"/>
       <c r="S41" s="243"/>
@@ -62417,11 +62417,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="920"/>
-      <c r="C42" s="920"/>
-      <c r="D42" s="920"/>
-      <c r="E42" s="920"/>
-      <c r="F42" s="920"/>
+      <c r="B42" s="925"/>
+      <c r="C42" s="925"/>
+      <c r="D42" s="925"/>
+      <c r="E42" s="925"/>
+      <c r="F42" s="925"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -62441,7 +62441,7 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="200"/>
       <c r="B43" s="281" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43" s="230"/>
       <c r="D43" s="230"/>
@@ -62466,7 +62466,7 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="200"/>
       <c r="B44" s="202" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C44" s="230"/>
       <c r="D44" s="230"/>
@@ -62491,7 +62491,7 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="200"/>
       <c r="B45" s="202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="201"/>
       <c r="D45" s="201"/>
@@ -62516,7 +62516,7 @@
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="200"/>
       <c r="B46" s="202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C46" s="201"/>
       <c r="D46" s="201"/>
@@ -62541,7 +62541,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="200"/>
       <c r="B47" s="202" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C47" s="201"/>
       <c r="D47" s="201"/>
@@ -62566,15 +62566,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -62586,6 +62577,15 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="4"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="600">
   <si>
     <t>Acronym</t>
   </si>
@@ -2272,9 +2272,6 @@
     <t>This sheet presents at country level aggregated values for waste water collection and treatment situation when for each level of treatment respectively equipment is in place and performance = pass. This is different from sheet summary legal compliance which considers all rules of the Directive.</t>
   </si>
   <si>
-    <t>SA/CSA applying Art. 5</t>
-  </si>
-  <si>
     <t>NR (reference: wastewater load connected to collecting system)</t>
   </si>
   <si>
@@ -2291,6 +2288,12 @@
   </si>
   <si>
     <t>Compliance of treatment plant under pending deadline</t>
+  </si>
+  <si>
+    <t>SA/CSA applying Art. 5.2,3</t>
+  </si>
+  <si>
+    <t>SA/CSA applying Art. 5.4</t>
   </si>
 </sst>
 </file>
@@ -5740,45 +5743,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5813,6 +5777,9 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5861,6 +5828,111 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5873,21 +5945,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5903,62 +5963,11 @@
     <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5969,12 +5978,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5987,32 +5990,32 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6042,6 +6045,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6075,31 +6105,10 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6121,15 +6130,61 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6142,18 +6197,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6165,46 +6208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6518,9 +6521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7052,7 +7053,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="820" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C19" s="821"/>
       <c r="D19" s="823"/>
@@ -7088,7 +7089,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="804" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
@@ -7210,7 +7211,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="816" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C39" s="817"/>
       <c r="D39" s="823"/>
@@ -7246,7 +7247,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="816" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
@@ -7365,7 +7366,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="815" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C58" s="817"/>
       <c r="D58" s="823"/>
@@ -7401,7 +7402,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="804" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
@@ -7520,7 +7521,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="815" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" s="817"/>
       <c r="D77" s="823"/>
@@ -7556,7 +7557,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="804" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
@@ -7610,8 +7611,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="919"/>
-      <c r="F2" s="919"/>
+      <c r="E2" s="926"/>
+      <c r="F2" s="926"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7643,13 +7644,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="920" t="s">
+      <c r="B6" s="927" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="920"/>
-      <c r="D6" s="920"/>
-      <c r="E6" s="920"/>
-      <c r="F6" s="920"/>
+      <c r="C6" s="927"/>
+      <c r="D6" s="927"/>
+      <c r="E6" s="927"/>
+      <c r="F6" s="927"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7807,11 +7808,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="925"/>
-      <c r="C22" s="925"/>
-      <c r="D22" s="925"/>
-      <c r="E22" s="925"/>
-      <c r="F22" s="925"/>
+      <c r="B22" s="921"/>
+      <c r="C22" s="921"/>
+      <c r="D22" s="921"/>
+      <c r="E22" s="921"/>
+      <c r="F22" s="921"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -8108,43 +8109,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="941" t="s">
+      <c r="A1" s="950" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="942"/>
+      <c r="B1" s="951"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="952" t="s">
+      <c r="D1" s="941" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="953"/>
-      <c r="F1" s="953"/>
-      <c r="G1" s="953"/>
-      <c r="H1" s="953"/>
-      <c r="I1" s="954"/>
-      <c r="J1" s="943" t="s">
+      <c r="E1" s="942"/>
+      <c r="F1" s="942"/>
+      <c r="G1" s="942"/>
+      <c r="H1" s="942"/>
+      <c r="I1" s="943"/>
+      <c r="J1" s="952" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="944"/>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="945"/>
-      <c r="O1" s="946" t="s">
+      <c r="K1" s="953"/>
+      <c r="L1" s="953"/>
+      <c r="M1" s="953"/>
+      <c r="N1" s="954"/>
+      <c r="O1" s="955" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="947"/>
-      <c r="Q1" s="948"/>
+      <c r="P1" s="956"/>
+      <c r="Q1" s="957"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="940" t="s">
+      <c r="T1" s="949" t="s">
         <v>496</v>
       </c>
-      <c r="U1" s="940"/>
-      <c r="V1" s="940"/>
-      <c r="W1" s="940"/>
-      <c r="X1" s="940"/>
-      <c r="Y1" s="940"/>
+      <c r="U1" s="949"/>
+      <c r="V1" s="949"/>
+      <c r="W1" s="949"/>
+      <c r="X1" s="949"/>
+      <c r="Y1" s="949"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8156,18 +8157,18 @@
       <c r="C2" s="446" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="957" t="s">
+      <c r="D2" s="946" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="956"/>
-      <c r="F2" s="956" t="s">
+      <c r="E2" s="945"/>
+      <c r="F2" s="945" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="956"/>
-      <c r="H2" s="955" t="s">
+      <c r="G2" s="945"/>
+      <c r="H2" s="944" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="955"/>
+      <c r="I2" s="944"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8198,18 +8199,18 @@
       <c r="S2" s="682" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="938" t="s">
+      <c r="T2" s="947" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="938"/>
-      <c r="V2" s="939" t="s">
+      <c r="U2" s="947"/>
+      <c r="V2" s="948" t="s">
         <v>482</v>
       </c>
-      <c r="W2" s="939"/>
-      <c r="X2" s="939" t="s">
+      <c r="W2" s="948"/>
+      <c r="X2" s="948" t="s">
         <v>483</v>
       </c>
-      <c r="Y2" s="939"/>
+      <c r="Y2" s="948"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8235,13 +8236,13 @@
       <c r="I3" s="666" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="949" t="s">
+      <c r="J3" s="938" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="950"/>
-      <c r="L3" s="950"/>
-      <c r="M3" s="950"/>
-      <c r="N3" s="951"/>
+      <c r="K3" s="939"/>
+      <c r="L3" s="939"/>
+      <c r="M3" s="939"/>
+      <c r="N3" s="940"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -9470,11 +9471,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9482,6 +9478,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9521,25 +9522,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="836" t="s">
+      <c r="A1" s="865" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="837"/>
-      <c r="E1" s="837"/>
-      <c r="F1" s="837"/>
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="961" t="s">
+      <c r="H1" s="963" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="962"/>
-      <c r="J1" s="962"/>
+      <c r="I1" s="964"/>
+      <c r="J1" s="964"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="959" t="s">
+      <c r="O1" s="961" t="s">
         <v>313</v>
       </c>
       <c r="P1" s="466"/>
@@ -9551,26 +9552,26 @@
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="959" t="s">
+      <c r="W1" s="961" t="s">
         <v>315</v>
       </c>
       <c r="X1" s="466"/>
-      <c r="Y1" s="963" t="s">
+      <c r="Y1" s="965" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="963"/>
-      <c r="AA1" s="963"/>
-      <c r="AB1" s="963"/>
-      <c r="AC1" s="963"/>
-      <c r="AD1" s="964"/>
-      <c r="AE1" s="959" t="s">
+      <c r="Z1" s="965"/>
+      <c r="AA1" s="965"/>
+      <c r="AB1" s="965"/>
+      <c r="AC1" s="965"/>
+      <c r="AD1" s="966"/>
+      <c r="AE1" s="961" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="958" t="s">
+      <c r="AF1" s="960" t="s">
         <v>481</v>
       </c>
-      <c r="AG1" s="940"/>
-      <c r="AH1" s="940"/>
+      <c r="AG1" s="949"/>
+      <c r="AH1" s="949"/>
       <c r="AI1" s="689"/>
       <c r="AJ1" s="689"/>
       <c r="AK1" s="689"/>
@@ -9629,56 +9630,56 @@
       <c r="C2" s="473" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="966" t="s">
+      <c r="D2" s="959" t="s">
         <v>486</v>
       </c>
-      <c r="E2" s="966"/>
-      <c r="F2" s="966" t="s">
+      <c r="E2" s="959"/>
+      <c r="F2" s="959" t="s">
         <v>487</v>
       </c>
-      <c r="G2" s="966"/>
+      <c r="G2" s="959"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="965" t="s">
+      <c r="I2" s="958" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="965"/>
-      <c r="K2" s="965" t="s">
+      <c r="J2" s="958"/>
+      <c r="K2" s="958" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="965"/>
-      <c r="M2" s="965" t="s">
+      <c r="L2" s="958"/>
+      <c r="M2" s="958" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="967"/>
-      <c r="O2" s="960"/>
+      <c r="O2" s="962"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="965" t="s">
+      <c r="Q2" s="958" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="965"/>
-      <c r="S2" s="965" t="s">
+      <c r="R2" s="958"/>
+      <c r="S2" s="958" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="965"/>
-      <c r="U2" s="965" t="s">
+      <c r="T2" s="958"/>
+      <c r="U2" s="958" t="s">
         <v>190</v>
       </c>
       <c r="V2" s="967"/>
-      <c r="W2" s="960"/>
+      <c r="W2" s="962"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="965" t="s">
+      <c r="Y2" s="958" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="965"/>
-      <c r="AA2" s="965" t="s">
+      <c r="Z2" s="958"/>
+      <c r="AA2" s="958" t="s">
         <v>189</v>
       </c>
-      <c r="AB2" s="965"/>
-      <c r="AC2" s="965" t="s">
+      <c r="AB2" s="958"/>
+      <c r="AC2" s="958" t="s">
         <v>190</v>
       </c>
       <c r="AD2" s="967"/>
-      <c r="AE2" s="960"/>
+      <c r="AE2" s="962"/>
       <c r="AF2" s="683" t="s">
         <v>464</v>
       </c>
@@ -10564,6 +10565,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
@@ -10580,8 +10583,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10796,9 +10797,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="968"/>
-      <c r="B1" s="867"/>
-      <c r="C1" s="867"/>
+      <c r="A1" s="986"/>
+      <c r="B1" s="855"/>
+      <c r="C1" s="855"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="742"/>
@@ -10813,21 +10814,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="976" t="s">
+      <c r="A3" s="990" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="978" t="s">
+      <c r="B3" s="992" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="979"/>
-      <c r="D3" s="974" t="s">
+      <c r="C3" s="993"/>
+      <c r="D3" s="978" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="975"/>
-      <c r="F3" s="974" t="s">
+      <c r="E3" s="979"/>
+      <c r="F3" s="978" t="s">
         <v>489</v>
       </c>
-      <c r="G3" s="975"/>
+      <c r="G3" s="979"/>
       <c r="I3" s="740" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
@@ -10838,14 +10839,14 @@
       <c r="K3" s="722"/>
       <c r="L3" s="722"/>
       <c r="N3" s="707"/>
-      <c r="O3" s="990" t="s">
+      <c r="O3" s="975" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="990"/>
-      <c r="Q3" s="990" t="s">
+      <c r="P3" s="975"/>
+      <c r="Q3" s="975" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="990"/>
+      <c r="R3" s="975"/>
       <c r="S3" s="707"/>
       <c r="T3" s="715" t="s">
         <v>348</v>
@@ -10853,7 +10854,7 @@
       <c r="U3" s="707"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="977"/>
+      <c r="A4" s="991"/>
       <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
@@ -11112,14 +11113,14 @@
       <c r="K10" s="722"/>
       <c r="L10" s="722"/>
       <c r="N10" s="715"/>
-      <c r="O10" s="990" t="s">
+      <c r="O10" s="975" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="990"/>
-      <c r="Q10" s="990" t="s">
+      <c r="P10" s="975"/>
+      <c r="Q10" s="975" t="s">
         <v>356</v>
       </c>
-      <c r="R10" s="990"/>
+      <c r="R10" s="975"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="740" t="str">
@@ -11183,7 +11184,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="976" t="s">
+      <c r="A13" s="990" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11229,7 +11230,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="977"/>
+      <c r="A14" s="991"/>
       <c r="B14" s="514" t="s">
         <v>350</v>
       </c>
@@ -11359,34 +11360,34 @@
       <c r="A21" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="991" t="s">
+      <c r="B21" s="980" t="s">
         <v>508</v>
       </c>
-      <c r="C21" s="992"/>
-      <c r="D21" s="992"/>
-      <c r="E21" s="992"/>
-      <c r="F21" s="992"/>
-      <c r="G21" s="992"/>
+      <c r="C21" s="981"/>
+      <c r="D21" s="981"/>
+      <c r="E21" s="981"/>
+      <c r="F21" s="981"/>
+      <c r="G21" s="981"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="980" t="str">
+      <c r="B22" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="981"/>
-      <c r="D22" s="980" t="str">
+      <c r="C22" s="983"/>
+      <c r="D22" s="982" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="981"/>
-      <c r="F22" s="980" t="str">
+      <c r="E22" s="983"/>
+      <c r="F22" s="982" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="981"/>
+      <c r="G22" s="983"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11813,21 +11814,21 @@
       <c r="A41" s="519" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="970" t="str">
+      <c r="B41" s="988" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="971"/>
-      <c r="D41" s="972" t="str">
+      <c r="C41" s="989"/>
+      <c r="D41" s="976" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="973"/>
-      <c r="F41" s="972" t="str">
+      <c r="E41" s="977"/>
+      <c r="F41" s="976" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="973"/>
+      <c r="G41" s="977"/>
       <c r="N41" s="707"/>
       <c r="O41" s="734" t="s">
         <v>458</v>
@@ -12041,11 +12042,11 @@
       <c r="F53" s="712" t="s">
         <v>514</v>
       </c>
-      <c r="H53" s="993" t="s">
+      <c r="H53" s="968" t="s">
         <v>501</v>
       </c>
-      <c r="I53" s="993"/>
-      <c r="J53" s="993"/>
+      <c r="I53" s="968"/>
+      <c r="J53" s="968"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="703" t="s">
@@ -12215,11 +12216,11 @@
       <c r="F63" s="712" t="s">
         <v>514</v>
       </c>
-      <c r="H63" s="993" t="s">
+      <c r="H63" s="968" t="s">
         <v>515</v>
       </c>
-      <c r="I63" s="993"/>
-      <c r="J63" s="993"/>
+      <c r="I63" s="968"/>
+      <c r="J63" s="968"/>
       <c r="L63" s="710"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12406,12 +12407,12 @@
       <c r="A74" s="623" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="969" t="s">
+      <c r="B74" s="987" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="969"/>
-      <c r="D74" s="969"/>
-      <c r="E74" s="969"/>
+      <c r="C74" s="987"/>
+      <c r="D74" s="987"/>
+      <c r="E74" s="987"/>
       <c r="I74" s="711"/>
       <c r="J74" s="711"/>
       <c r="K74" s="711"/>
@@ -12727,21 +12728,21 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="984" t="str">
+      <c r="B85" s="973" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="985"/>
-      <c r="D85" s="984" t="str">
+      <c r="C85" s="974"/>
+      <c r="D85" s="973" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="985"/>
-      <c r="F85" s="984" t="str">
+      <c r="E85" s="974"/>
+      <c r="F85" s="973" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="985"/>
+      <c r="G85" s="974"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
@@ -13037,21 +13038,21 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="984" t="str">
+      <c r="B101" s="973" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="985"/>
-      <c r="D101" s="984" t="str">
+      <c r="C101" s="974"/>
+      <c r="D101" s="973" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="985"/>
-      <c r="F101" s="984" t="str">
+      <c r="E101" s="974"/>
+      <c r="F101" s="973" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="985"/>
+      <c r="G101" s="974"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
@@ -13347,36 +13348,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="986" t="str">
+      <c r="B116" s="969" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="987"/>
-      <c r="D116" s="986" t="str">
+      <c r="C116" s="970"/>
+      <c r="D116" s="969" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="987"/>
-      <c r="F116" s="986" t="str">
+      <c r="E116" s="970"/>
+      <c r="F116" s="969" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="987"/>
+      <c r="G116" s="970"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="988" t="s">
+      <c r="B117" s="971" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="989"/>
-      <c r="D117" s="988" t="s">
+      <c r="C117" s="972"/>
+      <c r="D117" s="971" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="989"/>
-      <c r="F117" s="988" t="s">
+      <c r="E117" s="972"/>
+      <c r="F117" s="971" t="s">
         <v>279</v>
       </c>
-      <c r="G117" s="989"/>
+      <c r="G117" s="972"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13679,12 +13680,12 @@
       <c r="A129" s="546" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="982" t="str">
+      <c r="B129" s="984" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="983"/>
-      <c r="D129" s="983"/>
+      <c r="C129" s="985"/>
+      <c r="D129" s="985"/>
       <c r="N129" s="715" t="s">
         <v>398</v>
       </c>
@@ -13906,7 +13907,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>73</v>
@@ -13925,7 +13926,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>73</v>
@@ -14460,22 +14461,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14489,16 +14484,22 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17948,7 +17949,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="797" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D5" s="828" t="s">
         <v>27</v>
@@ -58624,7 +58625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="AW5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -58652,123 +58653,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="836" t="s">
+      <c r="A1" s="865" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="837"/>
-      <c r="E1" s="837"/>
-      <c r="F1" s="837"/>
-      <c r="G1" s="837"/>
-      <c r="H1" s="838" t="s">
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
+      <c r="G1" s="866"/>
+      <c r="H1" s="867" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="839"/>
-      <c r="J1" s="839"/>
-      <c r="K1" s="839"/>
-      <c r="L1" s="839"/>
-      <c r="M1" s="840"/>
-      <c r="N1" s="841" t="s">
+      <c r="I1" s="868"/>
+      <c r="J1" s="868"/>
+      <c r="K1" s="868"/>
+      <c r="L1" s="868"/>
+      <c r="M1" s="869"/>
+      <c r="N1" s="870" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="842"/>
-      <c r="P1" s="842"/>
-      <c r="Q1" s="842"/>
-      <c r="R1" s="842"/>
-      <c r="S1" s="842"/>
-      <c r="T1" s="842"/>
-      <c r="U1" s="842"/>
-      <c r="V1" s="843" t="s">
+      <c r="O1" s="848"/>
+      <c r="P1" s="848"/>
+      <c r="Q1" s="848"/>
+      <c r="R1" s="848"/>
+      <c r="S1" s="848"/>
+      <c r="T1" s="848"/>
+      <c r="U1" s="848"/>
+      <c r="V1" s="871" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="844"/>
-      <c r="X1" s="845"/>
-      <c r="Y1" s="845"/>
-      <c r="Z1" s="846"/>
-      <c r="AA1" s="847" t="s">
+      <c r="W1" s="872"/>
+      <c r="X1" s="873"/>
+      <c r="Y1" s="873"/>
+      <c r="Z1" s="874"/>
+      <c r="AA1" s="875" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="848"/>
-      <c r="AC1" s="848"/>
-      <c r="AD1" s="848"/>
-      <c r="AE1" s="848"/>
-      <c r="AF1" s="848"/>
-      <c r="AG1" s="848"/>
-      <c r="AH1" s="848"/>
-      <c r="AI1" s="848"/>
-      <c r="AJ1" s="848"/>
-      <c r="AK1" s="848"/>
-      <c r="AL1" s="848"/>
-      <c r="AM1" s="848"/>
+      <c r="AB1" s="876"/>
+      <c r="AC1" s="876"/>
+      <c r="AD1" s="876"/>
+      <c r="AE1" s="876"/>
+      <c r="AF1" s="876"/>
+      <c r="AG1" s="876"/>
+      <c r="AH1" s="876"/>
+      <c r="AI1" s="876"/>
+      <c r="AJ1" s="876"/>
+      <c r="AK1" s="876"/>
+      <c r="AL1" s="876"/>
+      <c r="AM1" s="876"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="860" t="s">
+      <c r="AP1" s="847" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="842"/>
-      <c r="AR1" s="842"/>
-      <c r="AS1" s="842"/>
-      <c r="AT1" s="842"/>
-      <c r="AU1" s="842"/>
-      <c r="AV1" s="842"/>
-      <c r="AW1" s="861"/>
-      <c r="AX1" s="868" t="s">
-        <v>598</v>
-      </c>
-      <c r="AY1" s="869"/>
-      <c r="AZ1" s="869"/>
-      <c r="BA1" s="869"/>
-      <c r="BB1" s="869"/>
-      <c r="BC1" s="870"/>
-      <c r="BD1" s="871" t="s">
+      <c r="AQ1" s="848"/>
+      <c r="AR1" s="848"/>
+      <c r="AS1" s="848"/>
+      <c r="AT1" s="848"/>
+      <c r="AU1" s="848"/>
+      <c r="AV1" s="848"/>
+      <c r="AW1" s="849"/>
+      <c r="AX1" s="856" t="s">
+        <v>597</v>
+      </c>
+      <c r="AY1" s="857"/>
+      <c r="AZ1" s="857"/>
+      <c r="BA1" s="857"/>
+      <c r="BB1" s="857"/>
+      <c r="BC1" s="858"/>
+      <c r="BD1" s="859" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="872"/>
-      <c r="BF1" s="872"/>
-      <c r="BG1" s="872"/>
-      <c r="BH1" s="872"/>
-      <c r="BI1" s="873"/>
-      <c r="BJ1" s="874" t="s">
+      <c r="BE1" s="860"/>
+      <c r="BF1" s="860"/>
+      <c r="BG1" s="860"/>
+      <c r="BH1" s="860"/>
+      <c r="BI1" s="861"/>
+      <c r="BJ1" s="862" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" s="875"/>
-      <c r="BL1" s="875"/>
-      <c r="BM1" s="875"/>
-      <c r="BN1" s="875"/>
-      <c r="BO1" s="875"/>
-      <c r="BP1" s="876"/>
-      <c r="BQ1" s="849" t="s">
+      <c r="BK1" s="863"/>
+      <c r="BL1" s="863"/>
+      <c r="BM1" s="863"/>
+      <c r="BN1" s="863"/>
+      <c r="BO1" s="863"/>
+      <c r="BP1" s="864"/>
+      <c r="BQ1" s="836" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="850"/>
-      <c r="BS1" s="850"/>
-      <c r="BT1" s="850"/>
-      <c r="BU1" s="850"/>
-      <c r="BV1" s="850"/>
+      <c r="BR1" s="837"/>
+      <c r="BS1" s="837"/>
+      <c r="BT1" s="837"/>
+      <c r="BU1" s="837"/>
+      <c r="BV1" s="837"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="851" t="s">
+      <c r="BY1" s="838" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="852"/>
-      <c r="CA1" s="852"/>
-      <c r="CB1" s="852"/>
-      <c r="CC1" s="852"/>
-      <c r="CD1" s="852"/>
-      <c r="CE1" s="852"/>
-      <c r="CF1" s="853"/>
-      <c r="CG1" s="853"/>
-      <c r="CH1" s="853"/>
-      <c r="CI1" s="853"/>
-      <c r="CJ1" s="853"/>
-      <c r="CK1" s="853"/>
-      <c r="CL1" s="853"/>
-      <c r="CM1" s="853"/>
-      <c r="CN1" s="853"/>
-      <c r="CO1" s="853"/>
-      <c r="CP1" s="853"/>
-      <c r="CQ1" s="853"/>
+      <c r="BZ1" s="839"/>
+      <c r="CA1" s="839"/>
+      <c r="CB1" s="839"/>
+      <c r="CC1" s="839"/>
+      <c r="CD1" s="839"/>
+      <c r="CE1" s="839"/>
+      <c r="CF1" s="840"/>
+      <c r="CG1" s="840"/>
+      <c r="CH1" s="840"/>
+      <c r="CI1" s="840"/>
+      <c r="CJ1" s="840"/>
+      <c r="CK1" s="840"/>
+      <c r="CL1" s="840"/>
+      <c r="CM1" s="840"/>
+      <c r="CN1" s="840"/>
+      <c r="CO1" s="840"/>
+      <c r="CP1" s="840"/>
+      <c r="CQ1" s="840"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58792,18 +58793,18 @@
       <c r="G2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="854" t="s">
+      <c r="H2" s="841" t="s">
         <v>465</v>
       </c>
-      <c r="I2" s="855"/>
-      <c r="J2" s="855" t="s">
+      <c r="I2" s="842"/>
+      <c r="J2" s="842" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="855"/>
-      <c r="L2" s="855" t="s">
+      <c r="K2" s="842"/>
+      <c r="L2" s="842" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="856"/>
+      <c r="M2" s="843"/>
       <c r="N2" s="57" t="s">
         <v>90</v>
       </c>
@@ -58912,36 +58913,36 @@
       <c r="AW2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AX2" s="857" t="s">
+      <c r="AX2" s="844" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" s="858"/>
-      <c r="AZ2" s="858"/>
-      <c r="BA2" s="858" t="s">
+      <c r="AY2" s="845"/>
+      <c r="AZ2" s="845"/>
+      <c r="BA2" s="845" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="858"/>
-      <c r="BC2" s="859"/>
-      <c r="BD2" s="862" t="s">
+      <c r="BB2" s="845"/>
+      <c r="BC2" s="846"/>
+      <c r="BD2" s="850" t="s">
         <v>125</v>
       </c>
-      <c r="BE2" s="863"/>
-      <c r="BF2" s="863"/>
-      <c r="BG2" s="863" t="s">
+      <c r="BE2" s="851"/>
+      <c r="BF2" s="851"/>
+      <c r="BG2" s="851" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" s="863"/>
-      <c r="BI2" s="864"/>
-      <c r="BJ2" s="865" t="s">
+      <c r="BH2" s="851"/>
+      <c r="BI2" s="852"/>
+      <c r="BJ2" s="853" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="866"/>
-      <c r="BL2" s="866"/>
-      <c r="BM2" s="866" t="s">
+      <c r="BK2" s="854"/>
+      <c r="BL2" s="854"/>
+      <c r="BM2" s="854" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="867"/>
-      <c r="BO2" s="867"/>
+      <c r="BN2" s="855"/>
+      <c r="BO2" s="855"/>
       <c r="BP2" s="69" t="s">
         <v>127</v>
       </c>
@@ -59574,6 +59575,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59589,11 +59595,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59676,100 +59677,100 @@
         <v>167</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="877" t="s">
+      <c r="M1" s="900" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="878" t="s">
+      <c r="N1" s="901" t="s">
         <v>523</v>
       </c>
-      <c r="O1" s="879"/>
-      <c r="P1" s="879"/>
-      <c r="Q1" s="879"/>
-      <c r="R1" s="880" t="s">
+      <c r="O1" s="902"/>
+      <c r="P1" s="902"/>
+      <c r="Q1" s="902"/>
+      <c r="R1" s="903" t="s">
         <v>464</v>
       </c>
-      <c r="S1" s="881"/>
-      <c r="T1" s="881"/>
-      <c r="U1" s="881"/>
-      <c r="V1" s="881"/>
-      <c r="W1" s="881"/>
-      <c r="X1" s="882"/>
-      <c r="Y1" s="883" t="s">
+      <c r="S1" s="896"/>
+      <c r="T1" s="896"/>
+      <c r="U1" s="896"/>
+      <c r="V1" s="896"/>
+      <c r="W1" s="896"/>
+      <c r="X1" s="904"/>
+      <c r="Y1" s="890" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="872"/>
-      <c r="AA1" s="886" t="s">
+      <c r="Z1" s="860"/>
+      <c r="AA1" s="905" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="897" t="s">
+      <c r="AB1" s="878" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="893" t="s">
+      <c r="AC1" s="892" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="894"/>
-      <c r="AE1" s="894"/>
-      <c r="AF1" s="895"/>
-      <c r="AG1" s="896" t="s">
+      <c r="AD1" s="893"/>
+      <c r="AE1" s="893"/>
+      <c r="AF1" s="894"/>
+      <c r="AG1" s="895" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="881"/>
-      <c r="AI1" s="881"/>
-      <c r="AJ1" s="881"/>
-      <c r="AK1" s="881"/>
-      <c r="AL1" s="881"/>
-      <c r="AM1" s="881"/>
-      <c r="AN1" s="881"/>
-      <c r="AO1" s="897" t="s">
+      <c r="AH1" s="896"/>
+      <c r="AI1" s="896"/>
+      <c r="AJ1" s="896"/>
+      <c r="AK1" s="896"/>
+      <c r="AL1" s="896"/>
+      <c r="AM1" s="896"/>
+      <c r="AN1" s="896"/>
+      <c r="AO1" s="878" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" s="883" t="s">
+      <c r="AP1" s="890" t="s">
         <v>471</v>
       </c>
-      <c r="AQ1" s="872"/>
-      <c r="AR1" s="872"/>
-      <c r="AS1" s="873"/>
-      <c r="AT1" s="900" t="s">
+      <c r="AQ1" s="860"/>
+      <c r="AR1" s="860"/>
+      <c r="AS1" s="861"/>
+      <c r="AT1" s="898" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="901"/>
-      <c r="AV1" s="901"/>
-      <c r="AW1" s="901"/>
-      <c r="AX1" s="901"/>
-      <c r="AY1" s="901"/>
-      <c r="AZ1" s="901"/>
-      <c r="BA1" s="901"/>
-      <c r="BB1" s="901"/>
-      <c r="BC1" s="901"/>
-      <c r="BD1" s="901"/>
-      <c r="BE1" s="901"/>
-      <c r="BF1" s="901"/>
-      <c r="BG1" s="901"/>
-      <c r="BH1" s="901"/>
-      <c r="BI1" s="901"/>
-      <c r="BJ1" s="901"/>
-      <c r="BK1" s="901"/>
-      <c r="BL1" s="901"/>
-      <c r="BM1" s="901"/>
-      <c r="BN1" s="901"/>
-      <c r="BO1" s="901"/>
-      <c r="BP1" s="901"/>
-      <c r="BQ1" s="901"/>
-      <c r="BR1" s="901"/>
-      <c r="BS1" s="901"/>
-      <c r="BT1" s="901"/>
-      <c r="BU1" s="901"/>
-      <c r="BV1" s="901"/>
-      <c r="BW1" s="897" t="s">
+      <c r="AU1" s="899"/>
+      <c r="AV1" s="899"/>
+      <c r="AW1" s="899"/>
+      <c r="AX1" s="899"/>
+      <c r="AY1" s="899"/>
+      <c r="AZ1" s="899"/>
+      <c r="BA1" s="899"/>
+      <c r="BB1" s="899"/>
+      <c r="BC1" s="899"/>
+      <c r="BD1" s="899"/>
+      <c r="BE1" s="899"/>
+      <c r="BF1" s="899"/>
+      <c r="BG1" s="899"/>
+      <c r="BH1" s="899"/>
+      <c r="BI1" s="899"/>
+      <c r="BJ1" s="899"/>
+      <c r="BK1" s="899"/>
+      <c r="BL1" s="899"/>
+      <c r="BM1" s="899"/>
+      <c r="BN1" s="899"/>
+      <c r="BO1" s="899"/>
+      <c r="BP1" s="899"/>
+      <c r="BQ1" s="899"/>
+      <c r="BR1" s="899"/>
+      <c r="BS1" s="899"/>
+      <c r="BT1" s="899"/>
+      <c r="BU1" s="899"/>
+      <c r="BV1" s="899"/>
+      <c r="BW1" s="878" t="s">
         <v>175</v>
       </c>
-      <c r="BX1" s="883" t="s">
+      <c r="BX1" s="890" t="s">
         <v>470</v>
       </c>
-      <c r="BY1" s="872"/>
-      <c r="BZ1" s="872"/>
-      <c r="CA1" s="873"/>
-      <c r="CB1" s="909" t="s">
+      <c r="BY1" s="860"/>
+      <c r="BZ1" s="860"/>
+      <c r="CA1" s="861"/>
+      <c r="CB1" s="889" t="s">
         <v>488</v>
       </c>
       <c r="CC1" s="891" t="s">
@@ -59787,16 +59788,16 @@
       <c r="CM1" s="891"/>
       <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="905" t="s">
+      <c r="CP1" s="877" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" s="842"/>
-      <c r="CR1" s="842"/>
-      <c r="CS1" s="842"/>
-      <c r="CT1" s="842"/>
-      <c r="CU1" s="842"/>
-      <c r="CV1" s="842"/>
-      <c r="CW1" s="861"/>
+      <c r="CQ1" s="848"/>
+      <c r="CR1" s="848"/>
+      <c r="CS1" s="848"/>
+      <c r="CT1" s="848"/>
+      <c r="CU1" s="848"/>
+      <c r="CV1" s="848"/>
+      <c r="CW1" s="849"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59835,7 +59836,7 @@
       <c r="L2" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="877"/>
+      <c r="M2" s="900"/>
       <c r="N2" s="152" t="s">
         <v>180</v>
       </c>
@@ -59851,22 +59852,22 @@
       <c r="R2" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="888" t="s">
+      <c r="S2" s="907" t="s">
         <v>465</v>
       </c>
-      <c r="T2" s="867"/>
-      <c r="U2" s="889" t="s">
+      <c r="T2" s="855"/>
+      <c r="U2" s="908" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="889"/>
-      <c r="W2" s="889" t="s">
+      <c r="V2" s="908"/>
+      <c r="W2" s="908" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="890"/>
+      <c r="X2" s="909"/>
       <c r="Y2" s="884"/>
       <c r="Z2" s="885"/>
-      <c r="AA2" s="887"/>
-      <c r="AB2" s="898"/>
+      <c r="AA2" s="906"/>
+      <c r="AB2" s="879"/>
       <c r="AC2" s="153" t="s">
         <v>184</v>
       </c>
@@ -59879,81 +59880,81 @@
       <c r="AF2" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="AG2" s="899" t="s">
+      <c r="AG2" s="897" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" s="892"/>
-      <c r="AI2" s="892" t="s">
+      <c r="AH2" s="882"/>
+      <c r="AI2" s="882" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="892"/>
-      <c r="AK2" s="892" t="s">
+      <c r="AJ2" s="882"/>
+      <c r="AK2" s="882" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" s="892"/>
+      <c r="AL2" s="882"/>
       <c r="AM2" s="154" t="s">
         <v>191</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="AO2" s="898"/>
+      <c r="AO2" s="879"/>
       <c r="AP2" s="884" t="s">
         <v>193</v>
       </c>
       <c r="AQ2" s="885"/>
-      <c r="AR2" s="902" t="s">
+      <c r="AR2" s="886" t="s">
         <v>194</v>
       </c>
-      <c r="AS2" s="903"/>
-      <c r="AT2" s="892" t="s">
+      <c r="AS2" s="887"/>
+      <c r="AT2" s="882" t="s">
         <v>195</v>
       </c>
-      <c r="AU2" s="892"/>
-      <c r="AV2" s="904" t="s">
+      <c r="AU2" s="882"/>
+      <c r="AV2" s="883" t="s">
         <v>196</v>
       </c>
-      <c r="AW2" s="904"/>
-      <c r="AX2" s="904" t="s">
+      <c r="AW2" s="883"/>
+      <c r="AX2" s="883" t="s">
         <v>197</v>
       </c>
-      <c r="AY2" s="904"/>
+      <c r="AY2" s="883"/>
       <c r="AZ2" s="154" t="s">
         <v>198</v>
       </c>
       <c r="BA2" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="BB2" s="892" t="s">
+      <c r="BB2" s="882" t="s">
         <v>200</v>
       </c>
-      <c r="BC2" s="892"/>
-      <c r="BD2" s="904" t="s">
+      <c r="BC2" s="882"/>
+      <c r="BD2" s="883" t="s">
         <v>201</v>
       </c>
-      <c r="BE2" s="904"/>
-      <c r="BF2" s="904" t="s">
+      <c r="BE2" s="883"/>
+      <c r="BF2" s="883" t="s">
         <v>202</v>
       </c>
-      <c r="BG2" s="904"/>
+      <c r="BG2" s="883"/>
       <c r="BH2" s="154" t="s">
         <v>203</v>
       </c>
       <c r="BI2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="BJ2" s="892" t="s">
+      <c r="BJ2" s="882" t="s">
         <v>205</v>
       </c>
-      <c r="BK2" s="892"/>
-      <c r="BL2" s="904" t="s">
+      <c r="BK2" s="882"/>
+      <c r="BL2" s="883" t="s">
         <v>206</v>
       </c>
-      <c r="BM2" s="904"/>
-      <c r="BN2" s="904" t="s">
+      <c r="BM2" s="883"/>
+      <c r="BN2" s="883" t="s">
         <v>207</v>
       </c>
-      <c r="BO2" s="904"/>
+      <c r="BO2" s="883"/>
       <c r="BP2" s="154" t="s">
         <v>208</v>
       </c>
@@ -59975,16 +59976,16 @@
       <c r="BV2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="BW2" s="898"/>
+      <c r="BW2" s="879"/>
       <c r="BX2" s="884" t="s">
         <v>193</v>
       </c>
       <c r="BY2" s="885"/>
-      <c r="BZ2" s="902" t="s">
+      <c r="BZ2" s="886" t="s">
         <v>194</v>
       </c>
-      <c r="CA2" s="903"/>
-      <c r="CB2" s="909"/>
+      <c r="CA2" s="887"/>
+      <c r="CB2" s="889"/>
       <c r="CC2" s="138" t="s">
         <v>106</v>
       </c>
@@ -60024,22 +60025,22 @@
       <c r="CO2" s="140" t="s">
         <v>473</v>
       </c>
-      <c r="CP2" s="908" t="s">
+      <c r="CP2" s="888" t="s">
         <v>216</v>
       </c>
-      <c r="CQ2" s="906"/>
-      <c r="CR2" s="906" t="s">
+      <c r="CQ2" s="880"/>
+      <c r="CR2" s="880" t="s">
         <v>217</v>
       </c>
-      <c r="CS2" s="906"/>
-      <c r="CT2" s="906" t="s">
+      <c r="CS2" s="880"/>
+      <c r="CT2" s="880" t="s">
         <v>218</v>
       </c>
-      <c r="CU2" s="906"/>
-      <c r="CV2" s="906" t="s">
+      <c r="CU2" s="880"/>
+      <c r="CV2" s="880" t="s">
         <v>219</v>
       </c>
-      <c r="CW2" s="907"/>
+      <c r="CW2" s="881"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60904,6 +60905,29 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60920,29 +60944,6 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60985,72 +60986,72 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="696"/>
-      <c r="N1" s="913"/>
-      <c r="O1" s="914"/>
-      <c r="P1" s="914"/>
-      <c r="Q1" s="914"/>
-      <c r="R1" s="880"/>
-      <c r="S1" s="881"/>
-      <c r="T1" s="881"/>
-      <c r="U1" s="881"/>
-      <c r="V1" s="881"/>
-      <c r="W1" s="881"/>
-      <c r="X1" s="882"/>
-      <c r="Y1" s="883"/>
-      <c r="Z1" s="872"/>
+      <c r="N1" s="910"/>
+      <c r="O1" s="911"/>
+      <c r="P1" s="911"/>
+      <c r="Q1" s="911"/>
+      <c r="R1" s="903"/>
+      <c r="S1" s="896"/>
+      <c r="T1" s="896"/>
+      <c r="U1" s="896"/>
+      <c r="V1" s="896"/>
+      <c r="W1" s="896"/>
+      <c r="X1" s="904"/>
+      <c r="Y1" s="890"/>
+      <c r="Z1" s="860"/>
       <c r="AA1" s="697"/>
       <c r="AB1" s="695"/>
-      <c r="AC1" s="893"/>
-      <c r="AD1" s="894"/>
-      <c r="AE1" s="894"/>
-      <c r="AF1" s="895"/>
-      <c r="AG1" s="896"/>
-      <c r="AH1" s="881"/>
-      <c r="AI1" s="881"/>
-      <c r="AJ1" s="881"/>
-      <c r="AK1" s="881"/>
-      <c r="AL1" s="881"/>
-      <c r="AM1" s="881"/>
-      <c r="AN1" s="881"/>
+      <c r="AC1" s="892"/>
+      <c r="AD1" s="893"/>
+      <c r="AE1" s="893"/>
+      <c r="AF1" s="894"/>
+      <c r="AG1" s="895"/>
+      <c r="AH1" s="896"/>
+      <c r="AI1" s="896"/>
+      <c r="AJ1" s="896"/>
+      <c r="AK1" s="896"/>
+      <c r="AL1" s="896"/>
+      <c r="AM1" s="896"/>
+      <c r="AN1" s="896"/>
       <c r="AO1" s="695"/>
-      <c r="AP1" s="883"/>
-      <c r="AQ1" s="872"/>
-      <c r="AR1" s="872"/>
-      <c r="AS1" s="873"/>
-      <c r="AT1" s="900"/>
-      <c r="AU1" s="901"/>
-      <c r="AV1" s="901"/>
-      <c r="AW1" s="901"/>
-      <c r="AX1" s="901"/>
-      <c r="AY1" s="901"/>
-      <c r="AZ1" s="901"/>
-      <c r="BA1" s="901"/>
-      <c r="BB1" s="901"/>
-      <c r="BC1" s="901"/>
-      <c r="BD1" s="901"/>
-      <c r="BE1" s="901"/>
-      <c r="BF1" s="901"/>
-      <c r="BG1" s="901"/>
-      <c r="BH1" s="901"/>
-      <c r="BI1" s="901"/>
-      <c r="BJ1" s="901"/>
-      <c r="BK1" s="901"/>
-      <c r="BL1" s="901"/>
-      <c r="BM1" s="901"/>
-      <c r="BN1" s="901"/>
-      <c r="BO1" s="901"/>
-      <c r="BP1" s="901"/>
-      <c r="BQ1" s="901"/>
-      <c r="BR1" s="901"/>
-      <c r="BS1" s="901"/>
-      <c r="BT1" s="901"/>
-      <c r="BU1" s="901"/>
-      <c r="BV1" s="901"/>
+      <c r="AP1" s="890"/>
+      <c r="AQ1" s="860"/>
+      <c r="AR1" s="860"/>
+      <c r="AS1" s="861"/>
+      <c r="AT1" s="898"/>
+      <c r="AU1" s="899"/>
+      <c r="AV1" s="899"/>
+      <c r="AW1" s="899"/>
+      <c r="AX1" s="899"/>
+      <c r="AY1" s="899"/>
+      <c r="AZ1" s="899"/>
+      <c r="BA1" s="899"/>
+      <c r="BB1" s="899"/>
+      <c r="BC1" s="899"/>
+      <c r="BD1" s="899"/>
+      <c r="BE1" s="899"/>
+      <c r="BF1" s="899"/>
+      <c r="BG1" s="899"/>
+      <c r="BH1" s="899"/>
+      <c r="BI1" s="899"/>
+      <c r="BJ1" s="899"/>
+      <c r="BK1" s="899"/>
+      <c r="BL1" s="899"/>
+      <c r="BM1" s="899"/>
+      <c r="BN1" s="899"/>
+      <c r="BO1" s="899"/>
+      <c r="BP1" s="899"/>
+      <c r="BQ1" s="899"/>
+      <c r="BR1" s="899"/>
+      <c r="BS1" s="899"/>
+      <c r="BT1" s="899"/>
+      <c r="BU1" s="899"/>
+      <c r="BV1" s="899"/>
       <c r="BW1" s="695"/>
-      <c r="BX1" s="883"/>
-      <c r="BY1" s="872"/>
-      <c r="BZ1" s="872"/>
-      <c r="CA1" s="873"/>
+      <c r="BX1" s="890"/>
+      <c r="BY1" s="860"/>
+      <c r="BZ1" s="860"/>
+      <c r="CA1" s="861"/>
       <c r="CB1" s="891"/>
       <c r="CC1" s="891"/>
       <c r="CD1" s="891"/>
@@ -61064,31 +61065,26 @@
       <c r="CL1" s="891"/>
       <c r="CM1" s="891"/>
       <c r="CN1" s="694"/>
-      <c r="CO1" s="905"/>
-      <c r="CP1" s="842"/>
-      <c r="CQ1" s="842"/>
-      <c r="CR1" s="842"/>
-      <c r="CS1" s="842"/>
-      <c r="CT1" s="842"/>
-      <c r="CU1" s="842"/>
-      <c r="CV1" s="861"/>
-      <c r="CW1" s="910"/>
-      <c r="CX1" s="911"/>
-      <c r="CY1" s="911"/>
-      <c r="CZ1" s="912"/>
-      <c r="DA1" s="911"/>
-      <c r="DB1" s="911"/>
-      <c r="DC1" s="912"/>
-      <c r="DD1" s="911"/>
-      <c r="DE1" s="911"/>
+      <c r="CO1" s="877"/>
+      <c r="CP1" s="848"/>
+      <c r="CQ1" s="848"/>
+      <c r="CR1" s="848"/>
+      <c r="CS1" s="848"/>
+      <c r="CT1" s="848"/>
+      <c r="CU1" s="848"/>
+      <c r="CV1" s="849"/>
+      <c r="CW1" s="912"/>
+      <c r="CX1" s="913"/>
+      <c r="CY1" s="913"/>
+      <c r="CZ1" s="914"/>
+      <c r="DA1" s="913"/>
+      <c r="DB1" s="913"/>
+      <c r="DC1" s="914"/>
+      <c r="DD1" s="913"/>
+      <c r="DE1" s="913"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61097,6 +61093,11 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61177,11 +61178,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -61192,9 +61191,11 @@
     <col min="13" max="13" width="15.77734375" customWidth="1"/>
     <col min="17" max="17" width="34.21875" customWidth="1"/>
     <col min="20" max="20" width="16.77734375" customWidth="1"/>
+    <col min="24" max="24" width="34.21875" customWidth="1"/>
+    <col min="27" max="27" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="200"/>
       <c r="B1" s="201" t="s">
         <v>238</v>
@@ -61220,16 +61221,23 @@
       <c r="S1" s="201"/>
       <c r="T1" s="201"/>
       <c r="U1" s="201"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="372"/>
+      <c r="W1" s="372"/>
+      <c r="X1" s="372"/>
+      <c r="Y1" s="372"/>
+      <c r="Z1" s="372"/>
+      <c r="AA1" s="372"/>
+      <c r="AB1" s="372"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="200"/>
       <c r="B2" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="919" t="s">
+      <c r="C2" s="926" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="919"/>
+      <c r="D2" s="926"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61247,8 +61255,15 @@
       <c r="S2" s="201"/>
       <c r="T2" s="201"/>
       <c r="U2" s="201"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="372"/>
+      <c r="W2" s="372"/>
+      <c r="X2" s="372"/>
+      <c r="Y2" s="372"/>
+      <c r="Z2" s="372"/>
+      <c r="AA2" s="372"/>
+      <c r="AB2" s="372"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
       <c r="B3" s="201"/>
       <c r="C3" s="205"/>
@@ -61270,8 +61285,15 @@
       <c r="S3" s="201"/>
       <c r="T3" s="201"/>
       <c r="U3" s="201"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" s="372"/>
+      <c r="W3" s="372"/>
+      <c r="X3" s="372"/>
+      <c r="Y3" s="372"/>
+      <c r="Z3" s="372"/>
+      <c r="AA3" s="372"/>
+      <c r="AB3" s="372"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
@@ -61293,8 +61315,15 @@
       <c r="S4" s="201"/>
       <c r="T4" s="201"/>
       <c r="U4" s="201"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" s="372"/>
+      <c r="W4" s="372"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="372"/>
+      <c r="Z4" s="372"/>
+      <c r="AA4" s="372"/>
+      <c r="AB4" s="372"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
       <c r="B5" s="201"/>
       <c r="C5" s="201"/>
@@ -61316,8 +61345,15 @@
       <c r="S5" s="201"/>
       <c r="T5" s="201"/>
       <c r="U5" s="201"/>
-    </row>
-    <row r="6" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V5" s="372"/>
+      <c r="W5" s="372"/>
+      <c r="X5" s="372"/>
+      <c r="Y5" s="372"/>
+      <c r="Z5" s="372"/>
+      <c r="AA5" s="372"/>
+      <c r="AB5" s="372"/>
+    </row>
+    <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="200"/>
       <c r="B6" s="213" t="s">
         <v>222</v>
@@ -61349,35 +61385,55 @@
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="V6" s="372"/>
+      <c r="W6" s="372"/>
+      <c r="X6" s="376" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y6" s="372"/>
+      <c r="Z6" s="372"/>
+      <c r="AA6" s="372"/>
+      <c r="AB6" s="377" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="920"/>
-      <c r="C7" s="920"/>
-      <c r="D7" s="920"/>
+      <c r="B7" s="927"/>
+      <c r="C7" s="927"/>
+      <c r="D7" s="927"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="920"/>
-      <c r="K7" s="920"/>
-      <c r="L7" s="920"/>
+      <c r="J7" s="927"/>
+      <c r="K7" s="927"/>
+      <c r="L7" s="927"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" s="920"/>
-      <c r="R7" s="920"/>
-      <c r="S7" s="920"/>
+      <c r="Q7" s="927"/>
+      <c r="R7" s="927"/>
+      <c r="S7" s="927"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="372"/>
+      <c r="W7" s="372" t="s">
+        <v>243</v>
+      </c>
+      <c r="X7" s="927"/>
+      <c r="Y7" s="927"/>
+      <c r="Z7" s="927"/>
+      <c r="AA7" s="372"/>
+      <c r="AB7" s="215"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="200"/>
       <c r="B8" s="201"/>
       <c r="C8" s="201"/>
@@ -61399,49 +61455,69 @@
       <c r="S8" s="201"/>
       <c r="T8" s="201"/>
       <c r="U8" s="201"/>
-    </row>
-    <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="372"/>
+      <c r="W8" s="372"/>
+      <c r="X8" s="372"/>
+      <c r="Y8" s="372"/>
+      <c r="Z8" s="372"/>
+      <c r="AA8" s="372"/>
+      <c r="AB8" s="372"/>
+    </row>
+    <row r="9" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="200"/>
       <c r="B9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="921" t="s">
+      <c r="C9" s="922" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="922"/>
-      <c r="E9" s="921" t="s">
+      <c r="D9" s="923"/>
+      <c r="E9" s="922" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="922"/>
+      <c r="F9" s="923"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="921" t="s">
+      <c r="K9" s="922" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="922"/>
-      <c r="M9" s="921" t="s">
+      <c r="L9" s="923"/>
+      <c r="M9" s="922" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="922"/>
+      <c r="N9" s="923"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="R9" s="921" t="s">
+      <c r="R9" s="922" t="s">
         <v>244</v>
       </c>
-      <c r="S9" s="922"/>
-      <c r="T9" s="921" t="s">
+      <c r="S9" s="923"/>
+      <c r="T9" s="922" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="922"/>
-    </row>
-    <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="923"/>
+      <c r="V9" s="372"/>
+      <c r="W9" s="372"/>
+      <c r="X9" s="216" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y9" s="922" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z9" s="923"/>
+      <c r="AA9" s="922" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB9" s="923"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
       <c r="B10" s="217" t="s">
         <v>241</v>
@@ -61479,7 +61555,7 @@
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="R10" s="218" t="s">
         <v>69</v>
@@ -61493,18 +61569,35 @@
       <c r="U10" s="219" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="372"/>
+      <c r="W10" s="372"/>
+      <c r="X10" s="217" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y10" s="218" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z10" s="219" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA10" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB10" s="219" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="200"/>
       <c r="B11" s="220" t="s">
         <v>248</v>
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
-      <c r="E11" s="923" t="s">
+      <c r="E11" s="919" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="924"/>
+      <c r="F11" s="920"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
@@ -61513,10 +61606,10 @@
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="926" t="s">
+      <c r="M11" s="924" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="927"/>
+      <c r="N11" s="925"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
@@ -61524,12 +61617,23 @@
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
-      <c r="T11" s="923" t="s">
+      <c r="T11" s="919" t="s">
         <v>249</v>
       </c>
-      <c r="U11" s="924"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U11" s="920"/>
+      <c r="V11" s="372"/>
+      <c r="W11" s="372"/>
+      <c r="X11" s="220" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="919" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB11" s="920"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
       <c r="B12" s="224" t="s">
         <v>484</v>
@@ -61557,8 +61661,17 @@
       <c r="S12" s="282"/>
       <c r="T12" s="287"/>
       <c r="U12" s="285"/>
-    </row>
-    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="372"/>
+      <c r="W12" s="372"/>
+      <c r="X12" s="224" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y12" s="300"/>
+      <c r="Z12" s="282"/>
+      <c r="AA12" s="287"/>
+      <c r="AB12" s="285"/>
+    </row>
+    <row r="13" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="200"/>
       <c r="B13" s="321" t="s">
         <v>250</v>
@@ -61586,8 +61699,17 @@
       <c r="S13" s="283"/>
       <c r="T13" s="288"/>
       <c r="U13" s="286"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="372"/>
+      <c r="W13" s="372"/>
+      <c r="X13" s="321" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y13" s="301"/>
+      <c r="Z13" s="283"/>
+      <c r="AA13" s="288"/>
+      <c r="AB13" s="286"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="200"/>
       <c r="B14" s="225" t="s">
         <v>251</v>
@@ -61615,8 +61737,17 @@
       <c r="S14" s="284"/>
       <c r="T14" s="288"/>
       <c r="U14" s="286"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="372"/>
+      <c r="W14" s="372"/>
+      <c r="X14" s="225" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y14" s="301"/>
+      <c r="Z14" s="284"/>
+      <c r="AA14" s="288"/>
+      <c r="AB14" s="286"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="200"/>
       <c r="B15" s="226" t="s">
         <v>252</v>
@@ -61644,8 +61775,17 @@
       <c r="S15" s="228"/>
       <c r="T15" s="289"/>
       <c r="U15" s="229"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="372"/>
+      <c r="W15" s="372"/>
+      <c r="X15" s="226" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y15" s="269"/>
+      <c r="Z15" s="270"/>
+      <c r="AA15" s="299"/>
+      <c r="AB15" s="271"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="231"/>
       <c r="B16" s="232" t="s">
         <v>254</v>
@@ -61673,8 +61813,17 @@
       <c r="S16" s="234"/>
       <c r="T16" s="296"/>
       <c r="U16" s="235"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="372"/>
+      <c r="W16" s="372"/>
+      <c r="X16" s="378" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y16" s="273"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="296"/>
+      <c r="AB16" s="275"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="200"/>
       <c r="B17" s="236" t="s">
         <v>233</v>
@@ -61702,8 +61851,17 @@
       <c r="S17" s="238"/>
       <c r="T17" s="293"/>
       <c r="U17" s="239"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" s="277"/>
+      <c r="W17" s="277"/>
+      <c r="X17" s="236" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y17" s="237"/>
+      <c r="Z17" s="238"/>
+      <c r="AA17" s="293"/>
+      <c r="AB17" s="239"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="200"/>
       <c r="B18" s="241" t="s">
         <v>449</v>
@@ -61731,8 +61889,17 @@
       <c r="S18" s="243"/>
       <c r="T18" s="291"/>
       <c r="U18" s="244"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" s="372"/>
+      <c r="W18" s="372"/>
+      <c r="X18" s="241" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y18" s="242"/>
+      <c r="Z18" s="243"/>
+      <c r="AA18" s="291"/>
+      <c r="AB18" s="244"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="202"/>
       <c r="B19" s="236"/>
       <c r="C19" s="245"/>
@@ -61754,18 +61921,25 @@
       <c r="S19" s="246"/>
       <c r="T19" s="201"/>
       <c r="U19" s="248"/>
-    </row>
-    <row r="20" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="372"/>
+      <c r="W19" s="372"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="245"/>
+      <c r="Z19" s="246"/>
+      <c r="AA19" s="372"/>
+      <c r="AB19" s="248"/>
+    </row>
+    <row r="20" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="200"/>
       <c r="B20" s="220" t="s">
         <v>255</v>
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="923" t="s">
+      <c r="E20" s="919" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="924"/>
+      <c r="F20" s="920"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
@@ -61774,10 +61948,10 @@
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
-      <c r="M20" s="923" t="s">
+      <c r="M20" s="919" t="s">
         <v>256</v>
       </c>
-      <c r="N20" s="924"/>
+      <c r="N20" s="920"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
@@ -61785,12 +61959,23 @@
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
-      <c r="T20" s="923" t="s">
+      <c r="T20" s="919" t="s">
         <v>256</v>
       </c>
-      <c r="U20" s="924"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="920"/>
+      <c r="V20" s="277"/>
+      <c r="W20" s="277"/>
+      <c r="X20" s="220" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y20" s="302"/>
+      <c r="Z20" s="249"/>
+      <c r="AA20" s="919" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB20" s="920"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
       <c r="B21" s="250" t="s">
         <v>253</v>
@@ -61818,8 +62003,17 @@
       <c r="S21" s="228"/>
       <c r="T21" s="289"/>
       <c r="U21" s="229"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="277"/>
+      <c r="W21" s="277"/>
+      <c r="X21" s="226" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y21" s="269"/>
+      <c r="Z21" s="270"/>
+      <c r="AA21" s="299"/>
+      <c r="AB21" s="271"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="231"/>
       <c r="B22" s="232" t="s">
         <v>254</v>
@@ -61847,8 +62041,17 @@
       <c r="S22" s="234"/>
       <c r="T22" s="296"/>
       <c r="U22" s="235"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="277"/>
+      <c r="W22" s="277"/>
+      <c r="X22" s="378" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y22" s="273"/>
+      <c r="Z22" s="278"/>
+      <c r="AA22" s="296"/>
+      <c r="AB22" s="275"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="200"/>
       <c r="B23" s="236" t="s">
         <v>257</v>
@@ -61876,8 +62079,17 @@
       <c r="S23" s="238"/>
       <c r="T23" s="293"/>
       <c r="U23" s="239"/>
-    </row>
-    <row r="24" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="277"/>
+      <c r="W23" s="277"/>
+      <c r="X23" s="236" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y23" s="237"/>
+      <c r="Z23" s="238"/>
+      <c r="AA23" s="293"/>
+      <c r="AB23" s="239"/>
+    </row>
+    <row r="24" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="200"/>
       <c r="B24" s="254" t="s">
         <v>258</v>
@@ -61905,8 +62117,17 @@
       <c r="S24" s="238"/>
       <c r="T24" s="297"/>
       <c r="U24" s="239"/>
-    </row>
-    <row r="25" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="277"/>
+      <c r="W24" s="277"/>
+      <c r="X24" s="254" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y24" s="255"/>
+      <c r="Z24" s="238"/>
+      <c r="AA24" s="297"/>
+      <c r="AB24" s="239"/>
+    </row>
+    <row r="25" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="200"/>
       <c r="B25" s="254" t="s">
         <v>259</v>
@@ -61934,8 +62155,17 @@
       <c r="S25" s="238"/>
       <c r="T25" s="297"/>
       <c r="U25" s="239"/>
-    </row>
-    <row r="26" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="277"/>
+      <c r="W25" s="277"/>
+      <c r="X25" s="254" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y25" s="255"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="297"/>
+      <c r="AB25" s="239"/>
+    </row>
+    <row r="26" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="200"/>
       <c r="B26" s="254" t="s">
         <v>260</v>
@@ -61963,8 +62193,17 @@
       <c r="S26" s="238"/>
       <c r="T26" s="297"/>
       <c r="U26" s="239"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26" s="277"/>
+      <c r="W26" s="277"/>
+      <c r="X26" s="254" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" s="255"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="239"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="200"/>
       <c r="B27" s="256" t="s">
         <v>261</v>
@@ -61992,8 +62231,17 @@
       <c r="S27" s="238"/>
       <c r="T27" s="297"/>
       <c r="U27" s="239"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27" s="277"/>
+      <c r="W27" s="277"/>
+      <c r="X27" s="254" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" s="255"/>
+      <c r="Z27" s="238"/>
+      <c r="AA27" s="297"/>
+      <c r="AB27" s="239"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="200"/>
       <c r="B28" s="303" t="s">
         <v>449</v>
@@ -62021,8 +62269,17 @@
       <c r="S28" s="243"/>
       <c r="T28" s="242"/>
       <c r="U28" s="244"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" s="277"/>
+      <c r="W28" s="277"/>
+      <c r="X28" s="241" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y28" s="242"/>
+      <c r="Z28" s="243"/>
+      <c r="AA28" s="242"/>
+      <c r="AB28" s="244"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="200"/>
       <c r="B29" s="257"/>
       <c r="C29" s="258"/>
@@ -62044,18 +62301,25 @@
       <c r="S29" s="259"/>
       <c r="T29" s="240"/>
       <c r="U29" s="261"/>
-    </row>
-    <row r="30" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V29" s="277"/>
+      <c r="W29" s="277"/>
+      <c r="X29" s="257"/>
+      <c r="Y29" s="258"/>
+      <c r="Z29" s="259"/>
+      <c r="AA29" s="277"/>
+      <c r="AB29" s="261"/>
+    </row>
+    <row r="30" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="200"/>
       <c r="B30" s="220" t="s">
         <v>262</v>
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="923" t="s">
+      <c r="E30" s="919" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="924"/>
+      <c r="F30" s="920"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
@@ -62064,10 +62328,10 @@
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="923" t="s">
-        <v>593</v>
-      </c>
-      <c r="N30" s="924"/>
+      <c r="M30" s="919" t="s">
+        <v>592</v>
+      </c>
+      <c r="N30" s="920"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
@@ -62075,12 +62339,23 @@
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
-      <c r="T30" s="923" t="s">
+      <c r="T30" s="919" t="s">
         <v>256</v>
       </c>
-      <c r="U30" s="924"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="920"/>
+      <c r="V30" s="277"/>
+      <c r="W30" s="277"/>
+      <c r="X30" s="220" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" s="302"/>
+      <c r="Z30" s="249"/>
+      <c r="AA30" s="919" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB30" s="920"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
       <c r="B31" s="250" t="s">
         <v>253</v>
@@ -62116,8 +62391,17 @@
       <c r="S31" s="270"/>
       <c r="T31" s="299"/>
       <c r="U31" s="271"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" s="379"/>
+      <c r="W31" s="379"/>
+      <c r="X31" s="226" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y31" s="269"/>
+      <c r="Z31" s="270"/>
+      <c r="AA31" s="299"/>
+      <c r="AB31" s="271"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="272"/>
       <c r="B32" s="232" t="s">
         <v>254</v>
@@ -62153,8 +62437,17 @@
       <c r="S32" s="278"/>
       <c r="T32" s="295"/>
       <c r="U32" s="275"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32" s="277"/>
+      <c r="W32" s="277"/>
+      <c r="X32" s="378" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y32" s="273"/>
+      <c r="Z32" s="278"/>
+      <c r="AA32" s="296"/>
+      <c r="AB32" s="275"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="200"/>
       <c r="B33" s="236" t="s">
         <v>257</v>
@@ -62182,8 +62475,17 @@
       <c r="S33" s="238"/>
       <c r="T33" s="293"/>
       <c r="U33" s="239"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" s="277"/>
+      <c r="W33" s="277"/>
+      <c r="X33" s="236" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" s="237"/>
+      <c r="Z33" s="238"/>
+      <c r="AA33" s="293"/>
+      <c r="AB33" s="239"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="279"/>
       <c r="B34" s="254" t="s">
         <v>263</v>
@@ -62211,8 +62513,17 @@
       <c r="S34" s="238"/>
       <c r="T34" s="255"/>
       <c r="U34" s="239"/>
-    </row>
-    <row r="35" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="280"/>
+      <c r="W34" s="280"/>
+      <c r="X34" s="254" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y34" s="255"/>
+      <c r="Z34" s="238"/>
+      <c r="AA34" s="255"/>
+      <c r="AB34" s="239"/>
+    </row>
+    <row r="35" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="279"/>
       <c r="B35" s="254" t="s">
         <v>264</v>
@@ -62240,8 +62551,17 @@
       <c r="S35" s="238"/>
       <c r="T35" s="255"/>
       <c r="U35" s="239"/>
-    </row>
-    <row r="36" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V35" s="280"/>
+      <c r="W35" s="280"/>
+      <c r="X35" s="254" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y35" s="255"/>
+      <c r="Z35" s="238"/>
+      <c r="AA35" s="255"/>
+      <c r="AB35" s="239"/>
+    </row>
+    <row r="36" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="279"/>
       <c r="B36" s="254" t="s">
         <v>265</v>
@@ -62269,8 +62589,17 @@
       <c r="S36" s="238"/>
       <c r="T36" s="255"/>
       <c r="U36" s="239"/>
-    </row>
-    <row r="37" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V36" s="280"/>
+      <c r="W36" s="280"/>
+      <c r="X36" s="254" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y36" s="255"/>
+      <c r="Z36" s="238"/>
+      <c r="AA36" s="255"/>
+      <c r="AB36" s="239"/>
+    </row>
+    <row r="37" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="279"/>
       <c r="B37" s="254" t="s">
         <v>267</v>
@@ -62298,8 +62627,17 @@
       <c r="S37" s="238"/>
       <c r="T37" s="255"/>
       <c r="U37" s="239"/>
-    </row>
-    <row r="38" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="280"/>
+      <c r="W37" s="280"/>
+      <c r="X37" s="254" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y37" s="255"/>
+      <c r="Z37" s="238"/>
+      <c r="AA37" s="255"/>
+      <c r="AB37" s="239"/>
+    </row>
+    <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="279"/>
       <c r="B38" s="254" t="s">
         <v>259</v>
@@ -62327,8 +62665,17 @@
       <c r="S38" s="238"/>
       <c r="T38" s="255"/>
       <c r="U38" s="239"/>
-    </row>
-    <row r="39" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V38" s="280"/>
+      <c r="W38" s="280"/>
+      <c r="X38" s="254" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y38" s="255"/>
+      <c r="Z38" s="238"/>
+      <c r="AA38" s="255"/>
+      <c r="AB38" s="239"/>
+    </row>
+    <row r="39" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="279"/>
       <c r="B39" s="254" t="s">
         <v>268</v>
@@ -62356,8 +62703,17 @@
       <c r="S39" s="238"/>
       <c r="T39" s="255"/>
       <c r="U39" s="239"/>
-    </row>
-    <row r="40" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V39" s="280"/>
+      <c r="W39" s="280"/>
+      <c r="X39" s="254" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y39" s="255"/>
+      <c r="Z39" s="238"/>
+      <c r="AA39" s="255"/>
+      <c r="AB39" s="239"/>
+    </row>
+    <row r="40" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="279"/>
       <c r="B40" s="254" t="s">
         <v>270</v>
@@ -62385,8 +62741,17 @@
       <c r="S40" s="238"/>
       <c r="T40" s="255"/>
       <c r="U40" s="239"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" s="280"/>
+      <c r="W40" s="280"/>
+      <c r="X40" s="254" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y40" s="255"/>
+      <c r="Z40" s="238"/>
+      <c r="AA40" s="255"/>
+      <c r="AB40" s="239"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="200"/>
       <c r="B41" s="241" t="s">
         <v>449</v>
@@ -62414,14 +62779,23 @@
       <c r="S41" s="243"/>
       <c r="T41" s="242"/>
       <c r="U41" s="244"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41" s="277"/>
+      <c r="W41" s="277"/>
+      <c r="X41" s="241" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y41" s="242"/>
+      <c r="Z41" s="243"/>
+      <c r="AA41" s="242"/>
+      <c r="AB41" s="244"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="925"/>
-      <c r="C42" s="925"/>
-      <c r="D42" s="925"/>
-      <c r="E42" s="925"/>
-      <c r="F42" s="925"/>
+      <c r="B42" s="921"/>
+      <c r="C42" s="921"/>
+      <c r="D42" s="921"/>
+      <c r="E42" s="921"/>
+      <c r="F42" s="921"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -62437,8 +62811,15 @@
       <c r="S42" s="240"/>
       <c r="T42" s="240"/>
       <c r="U42" s="240"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" s="277"/>
+      <c r="W42" s="277"/>
+      <c r="X42" s="277"/>
+      <c r="Y42" s="277"/>
+      <c r="Z42" s="277"/>
+      <c r="AA42" s="277"/>
+      <c r="AB42" s="277"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="200"/>
       <c r="B43" s="281" t="s">
         <v>273</v>
@@ -62462,8 +62843,15 @@
       <c r="S43" s="230"/>
       <c r="T43" s="230"/>
       <c r="U43" s="230"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" s="276"/>
+      <c r="W43" s="276"/>
+      <c r="X43" s="276"/>
+      <c r="Y43" s="276"/>
+      <c r="Z43" s="276"/>
+      <c r="AA43" s="276"/>
+      <c r="AB43" s="276"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="200"/>
       <c r="B44" s="202" t="s">
         <v>274</v>
@@ -62487,8 +62875,15 @@
       <c r="S44" s="230"/>
       <c r="T44" s="230"/>
       <c r="U44" s="230"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" s="276"/>
+      <c r="W44" s="276"/>
+      <c r="X44" s="276"/>
+      <c r="Y44" s="276"/>
+      <c r="Z44" s="276"/>
+      <c r="AA44" s="276"/>
+      <c r="AB44" s="276"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="200"/>
       <c r="B45" s="202" t="s">
         <v>275</v>
@@ -62512,8 +62907,15 @@
       <c r="S45" s="201"/>
       <c r="T45" s="201"/>
       <c r="U45" s="201"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" s="372"/>
+      <c r="W45" s="372"/>
+      <c r="X45" s="372"/>
+      <c r="Y45" s="372"/>
+      <c r="Z45" s="372"/>
+      <c r="AA45" s="372"/>
+      <c r="AB45" s="372"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="200"/>
       <c r="B46" s="202" t="s">
         <v>276</v>
@@ -62537,8 +62939,15 @@
       <c r="S46" s="201"/>
       <c r="T46" s="201"/>
       <c r="U46" s="201"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46" s="372"/>
+      <c r="W46" s="372"/>
+      <c r="X46" s="372"/>
+      <c r="Y46" s="372"/>
+      <c r="Z46" s="372"/>
+      <c r="AA46" s="372"/>
+      <c r="AB46" s="372"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="200"/>
       <c r="B47" s="202" t="s">
         <v>277</v>
@@ -62562,10 +62971,32 @@
       <c r="S47" s="201"/>
       <c r="T47" s="201"/>
       <c r="U47" s="201"/>
+      <c r="V47" s="372"/>
+      <c r="W47" s="372"/>
+      <c r="X47" s="372"/>
+      <c r="Y47" s="372"/>
+      <c r="Z47" s="372"/>
+      <c r="AA47" s="372"/>
+      <c r="AB47" s="372"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="20">
+  <mergeCells count="26">
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -62577,15 +63008,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -1927,9 +1927,6 @@
     <t>Art 5(8) sensitive area</t>
   </si>
   <si>
-    <t>Date of designation of Art. 5(4)</t>
-  </si>
-  <si>
     <t>[% of the collected load]</t>
   </si>
   <si>
@@ -2295,6 +2292,9 @@
   <si>
     <t>SA/CSA applying Art. 5.4</t>
   </si>
+  <si>
+    <t>Date of begin life</t>
+  </si>
 </sst>
 </file>
 
@@ -2307,7 +2307,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\/mm\/dd"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2568,12 +2568,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5392,13 +5386,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -5418,22 +5409,22 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5615,13 +5606,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5710,6 +5701,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5741,6 +5735,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5777,9 +5810,6 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5828,140 +5858,113 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5969,15 +5972,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5996,26 +5990,26 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6045,6 +6039,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6072,46 +6099,16 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6130,84 +6127,81 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6521,380 +6515,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" style="775" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.44140625" style="776" customWidth="1"/>
+    <col min="1" max="1" width="45" style="774" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.44140625" style="775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="771" t="s">
+      <c r="A1" s="770" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="772" t="s">
+      <c r="B1" s="771" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="773" t="s">
+      <c r="A2" s="772" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="774" t="s">
+      <c r="B2" s="773" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="771" t="s">
+      <c r="A3" s="770" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="773" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="770" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="774" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="771" t="s">
+      <c r="B4" s="773" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="770" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="774" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="771" t="s">
+      <c r="B5" s="771" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="770" t="s">
         <v>540</v>
       </c>
-      <c r="B5" s="772" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="771" t="s">
+      <c r="B6" s="771" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="770" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="772" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="771" t="s">
+      <c r="B7" s="771" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="770" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="772" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="771" t="s">
+      <c r="B8" s="771" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="770" t="s">
         <v>543</v>
       </c>
-      <c r="B8" s="772" t="s">
+      <c r="B9" s="771" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="770" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="771" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="770" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" s="771" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="770" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="771" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="770" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" s="771" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="770" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="771" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="770" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="771" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="770" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="771" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="770" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="771" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="770" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="771" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="770" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="771" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="770" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="771" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="770" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" s="773" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="770" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="771" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="770" t="s">
+        <v>503</v>
+      </c>
+      <c r="B23" s="771" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="770" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" s="771" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="770" t="s">
+        <v>560</v>
+      </c>
+      <c r="B25" s="771" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="770" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="771" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="770" t="s">
+        <v>562</v>
+      </c>
+      <c r="B27" s="771" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="770" t="s">
+        <v>564</v>
+      </c>
+      <c r="B28" s="771" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="770">
+        <v>1</v>
+      </c>
+      <c r="B29" s="771" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="770" t="s">
+        <v>565</v>
+      </c>
+      <c r="B30" s="771" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="770">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="771" t="s">
-        <v>544</v>
-      </c>
-      <c r="B9" s="772" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="771" t="s">
-        <v>545</v>
-      </c>
-      <c r="B10" s="772" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="771" t="s">
-        <v>547</v>
-      </c>
-      <c r="B11" s="772" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="771" t="s">
-        <v>548</v>
-      </c>
-      <c r="B12" s="772" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="771" t="s">
-        <v>550</v>
-      </c>
-      <c r="B13" s="772" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="771" t="s">
-        <v>551</v>
-      </c>
-      <c r="B14" s="772" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="771" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="772" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="771" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="772" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="771" t="s">
-        <v>555</v>
-      </c>
-      <c r="B17" s="772" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="771" t="s">
-        <v>557</v>
-      </c>
-      <c r="B18" s="772" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="771" t="s">
-        <v>558</v>
-      </c>
-      <c r="B19" s="772" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="771" t="s">
-        <v>559</v>
-      </c>
-      <c r="B20" s="772" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="771" t="s">
-        <v>510</v>
-      </c>
-      <c r="B21" s="774" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="771" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="772" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="771" t="s">
-        <v>504</v>
-      </c>
-      <c r="B23" s="772" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="771" t="s">
-        <v>506</v>
-      </c>
-      <c r="B24" s="772" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="771" t="s">
-        <v>561</v>
-      </c>
-      <c r="B25" s="772" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="771" t="s">
-        <v>562</v>
-      </c>
-      <c r="B26" s="772" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="771" t="s">
-        <v>563</v>
-      </c>
-      <c r="B27" s="772" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="771" t="s">
-        <v>565</v>
-      </c>
-      <c r="B28" s="772" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="771">
-        <v>1</v>
-      </c>
-      <c r="B29" s="772" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="771" t="s">
+      <c r="B31" s="771" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="770" t="s">
         <v>566</v>
       </c>
-      <c r="B30" s="772" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="771">
-        <v>2</v>
-      </c>
-      <c r="B31" s="772" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="771" t="s">
+      <c r="B32" s="771" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="770" t="s">
         <v>567</v>
       </c>
-      <c r="B32" s="772" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="771" t="s">
+      <c r="B33" s="771" t="s">
         <v>568</v>
       </c>
-      <c r="B33" s="772" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="774" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="775" t="s">
+      <c r="B34" s="775" t="s">
         <v>570</v>
       </c>
-      <c r="B34" s="776" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="770" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="771" t="s">
+      <c r="B35" s="775" t="s">
         <v>572</v>
       </c>
-      <c r="B35" s="776" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="770" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="771" t="s">
+      <c r="B36" s="771" t="s">
         <v>574</v>
       </c>
-      <c r="B36" s="772" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="774" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="775" t="s">
+      <c r="B37" s="771" t="s">
         <v>576</v>
       </c>
-      <c r="B37" s="772" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="774" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="771" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="775" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="772" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="774" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="775" t="s">
+      <c r="B39" s="775" t="s">
         <v>579</v>
       </c>
-      <c r="B39" s="776" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="774" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="775" t="s">
+      <c r="B40" s="775" t="s">
         <v>581</v>
       </c>
-      <c r="B40" s="776" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="774" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="775" t="s">
+      <c r="B41" s="775" t="s">
         <v>583</v>
       </c>
-      <c r="B41" s="776" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="776" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="775" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="777" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="776" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="774" t="s">
+        <v>522</v>
+      </c>
+      <c r="B43" s="775" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="775" t="s">
-        <v>523</v>
-      </c>
-      <c r="B43" s="776" t="s">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="774" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="775" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="775" t="s">
-        <v>533</v>
-      </c>
-      <c r="B44" s="776" t="s">
+    <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="774" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="775" t="s">
+      <c r="B45" s="775" t="s">
         <v>588</v>
       </c>
-      <c r="B45" s="776" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="774" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="775" t="s">
+      <c r="B46" s="775" t="s">
         <v>590</v>
-      </c>
-      <c r="B46" s="776" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -6943,7 +6937,7 @@
     </row>
     <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="327" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -6967,7 +6961,7 @@
         <v>278</v>
       </c>
       <c r="E10" s="929" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F10" s="930"/>
     </row>
@@ -6979,10 +6973,10 @@
         <v>155</v>
       </c>
       <c r="D11" s="343" t="s">
+        <v>478</v>
+      </c>
+      <c r="E11" s="505" t="s">
         <v>479</v>
-      </c>
-      <c r="E11" s="505" t="s">
-        <v>480</v>
       </c>
       <c r="F11" s="336" t="s">
         <v>70</v>
@@ -7022,61 +7016,61 @@
       <c r="C15" s="346"/>
       <c r="D15" s="351"/>
       <c r="E15" s="352"/>
-      <c r="F15" s="802"/>
+      <c r="F15" s="801"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
       <c r="E16" s="353"/>
-      <c r="F16" s="803"/>
+      <c r="F16" s="802"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>527</v>
-      </c>
-      <c r="C17" s="822"/>
-      <c r="D17" s="808"/>
-      <c r="E17" s="806"/>
-      <c r="F17" s="802"/>
+        <v>526</v>
+      </c>
+      <c r="C17" s="821"/>
+      <c r="D17" s="807"/>
+      <c r="E17" s="805"/>
+      <c r="F17" s="801"/>
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="799" t="s">
+      <c r="B18" s="798" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="805"/>
-      <c r="D18" s="807"/>
-      <c r="E18" s="807"/>
-      <c r="F18" s="811"/>
+      <c r="C18" s="804"/>
+      <c r="D18" s="806"/>
+      <c r="E18" s="806"/>
+      <c r="F18" s="810"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="820" t="s">
-        <v>595</v>
-      </c>
-      <c r="C19" s="821"/>
-      <c r="D19" s="823"/>
-      <c r="E19" s="823"/>
-      <c r="F19" s="810"/>
+      <c r="B19" s="819" t="s">
+        <v>594</v>
+      </c>
+      <c r="C19" s="820"/>
+      <c r="D19" s="822"/>
+      <c r="E19" s="822"/>
+      <c r="F19" s="809"/>
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
       <c r="E20" s="354"/>
-      <c r="F20" s="803"/>
+      <c r="F20" s="802"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
       <c r="E21" s="350"/>
-      <c r="F21" s="802"/>
+      <c r="F21" s="801"/>
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
@@ -7085,23 +7079,23 @@
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
       <c r="E22" s="350"/>
-      <c r="F22" s="802"/>
+      <c r="F22" s="801"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="804" t="s">
-        <v>595</v>
+      <c r="B23" s="803" t="s">
+        <v>594</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
       <c r="E23" s="361"/>
-      <c r="F23" s="803"/>
+      <c r="F23" s="802"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D26" s="326"/>
     </row>
     <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="327" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7125,7 +7119,7 @@
         <v>278</v>
       </c>
       <c r="E30" s="929" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F30" s="930"/>
     </row>
@@ -7137,10 +7131,10 @@
         <v>155</v>
       </c>
       <c r="D31" s="343" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" s="335" t="s">
         <v>479</v>
-      </c>
-      <c r="E31" s="335" t="s">
-        <v>480</v>
       </c>
       <c r="F31" s="336" t="s">
         <v>70</v>
@@ -7180,61 +7174,61 @@
       <c r="C35" s="346"/>
       <c r="D35" s="351"/>
       <c r="E35" s="352"/>
-      <c r="F35" s="802"/>
+      <c r="F35" s="801"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
       <c r="E36" s="353"/>
-      <c r="F36" s="803"/>
+      <c r="F36" s="802"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
       <c r="E37" s="350"/>
-      <c r="F37" s="802"/>
+      <c r="F37" s="801"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="813" t="s">
+      <c r="B38" s="812" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="800"/>
-      <c r="D38" s="807"/>
-      <c r="E38" s="807"/>
-      <c r="F38" s="811"/>
+      <c r="C38" s="799"/>
+      <c r="D38" s="806"/>
+      <c r="E38" s="806"/>
+      <c r="F38" s="810"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="816" t="s">
-        <v>595</v>
-      </c>
-      <c r="C39" s="817"/>
-      <c r="D39" s="823"/>
-      <c r="E39" s="823"/>
-      <c r="F39" s="810"/>
+      <c r="B39" s="815" t="s">
+        <v>594</v>
+      </c>
+      <c r="C39" s="816"/>
+      <c r="D39" s="822"/>
+      <c r="E39" s="822"/>
+      <c r="F39" s="809"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
       <c r="E40" s="354"/>
-      <c r="F40" s="803"/>
+      <c r="F40" s="802"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
       <c r="E41" s="350"/>
-      <c r="F41" s="802"/>
+      <c r="F41" s="801"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
@@ -7243,20 +7237,20 @@
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
       <c r="E42" s="350"/>
-      <c r="F42" s="802"/>
+      <c r="F42" s="801"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="816" t="s">
-        <v>595</v>
+      <c r="B43" s="815" t="s">
+        <v>594</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
       <c r="E43" s="359"/>
-      <c r="F43" s="803"/>
+      <c r="F43" s="802"/>
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7280,7 +7274,7 @@
         <v>278</v>
       </c>
       <c r="E49" s="929" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F49" s="930"/>
     </row>
@@ -7292,10 +7286,10 @@
         <v>155</v>
       </c>
       <c r="D50" s="343" t="s">
+        <v>478</v>
+      </c>
+      <c r="E50" s="505" t="s">
         <v>479</v>
-      </c>
-      <c r="E50" s="505" t="s">
-        <v>480</v>
       </c>
       <c r="F50" s="336" t="s">
         <v>70</v>
@@ -7335,61 +7329,61 @@
       <c r="C54" s="346"/>
       <c r="D54" s="351"/>
       <c r="E54" s="352"/>
-      <c r="F54" s="802"/>
+      <c r="F54" s="801"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
       <c r="E55" s="353"/>
-      <c r="F55" s="803"/>
+      <c r="F55" s="802"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C56" s="345"/>
-      <c r="D56" s="801"/>
-      <c r="E56" s="808"/>
-      <c r="F56" s="809"/>
+      <c r="D56" s="800"/>
+      <c r="E56" s="807"/>
+      <c r="F56" s="808"/>
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="819" t="s">
+      <c r="B57" s="818" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="800"/>
-      <c r="D57" s="807"/>
-      <c r="E57" s="807"/>
-      <c r="F57" s="811"/>
+      <c r="C57" s="799"/>
+      <c r="D57" s="806"/>
+      <c r="E57" s="806"/>
+      <c r="F57" s="810"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="815" t="s">
-        <v>595</v>
-      </c>
-      <c r="C58" s="817"/>
-      <c r="D58" s="823"/>
-      <c r="E58" s="823"/>
-      <c r="F58" s="810"/>
+      <c r="B58" s="814" t="s">
+        <v>594</v>
+      </c>
+      <c r="C58" s="816"/>
+      <c r="D58" s="822"/>
+      <c r="E58" s="822"/>
+      <c r="F58" s="809"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
       <c r="E59" s="354"/>
-      <c r="F59" s="803"/>
+      <c r="F59" s="802"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
       <c r="E60" s="350"/>
-      <c r="F60" s="802"/>
+      <c r="F60" s="801"/>
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
@@ -7398,20 +7392,20 @@
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
       <c r="E61" s="350"/>
-      <c r="F61" s="802"/>
+      <c r="F61" s="801"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="804" t="s">
-        <v>595</v>
+      <c r="B62" s="803" t="s">
+        <v>594</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
       <c r="E62" s="361"/>
-      <c r="F62" s="803"/>
+      <c r="F62" s="802"/>
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
@@ -7435,7 +7429,7 @@
         <v>278</v>
       </c>
       <c r="E68" s="929" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F68" s="930"/>
     </row>
@@ -7447,10 +7441,10 @@
         <v>155</v>
       </c>
       <c r="D69" s="343" t="s">
+        <v>478</v>
+      </c>
+      <c r="E69" s="505" t="s">
         <v>479</v>
-      </c>
-      <c r="E69" s="505" t="s">
-        <v>480</v>
       </c>
       <c r="F69" s="506" t="s">
         <v>70</v>
@@ -7490,61 +7484,61 @@
       <c r="C73" s="346"/>
       <c r="D73" s="351"/>
       <c r="E73" s="352"/>
-      <c r="F73" s="802"/>
+      <c r="F73" s="801"/>
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
       <c r="E74" s="353"/>
-      <c r="F74" s="803"/>
+      <c r="F74" s="802"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="818" t="s">
-        <v>527</v>
-      </c>
-      <c r="C75" s="814"/>
+      <c r="B75" s="817" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" s="813"/>
       <c r="D75" s="350"/>
       <c r="E75" s="350"/>
-      <c r="F75" s="802"/>
+      <c r="F75" s="801"/>
     </row>
     <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="819" t="s">
+      <c r="B76" s="818" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="800"/>
-      <c r="D76" s="807"/>
-      <c r="E76" s="807"/>
-      <c r="F76" s="811"/>
+      <c r="C76" s="799"/>
+      <c r="D76" s="806"/>
+      <c r="E76" s="806"/>
+      <c r="F76" s="810"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="815" t="s">
-        <v>595</v>
-      </c>
-      <c r="C77" s="817"/>
-      <c r="D77" s="823"/>
-      <c r="E77" s="823"/>
-      <c r="F77" s="812"/>
+      <c r="B77" s="814" t="s">
+        <v>594</v>
+      </c>
+      <c r="C77" s="816"/>
+      <c r="D77" s="822"/>
+      <c r="E77" s="822"/>
+      <c r="F77" s="811"/>
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
       <c r="E78" s="354"/>
-      <c r="F78" s="803"/>
+      <c r="F78" s="802"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
       <c r="E79" s="350"/>
-      <c r="F79" s="802"/>
+      <c r="F79" s="801"/>
     </row>
     <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
@@ -7553,16 +7547,16 @@
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
       <c r="E80" s="350"/>
-      <c r="F80" s="802"/>
+      <c r="F80" s="801"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="804" t="s">
-        <v>595</v>
+      <c r="B81" s="803" t="s">
+        <v>594</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
       <c r="E81" s="361"/>
-      <c r="F81" s="803"/>
+      <c r="F81" s="802"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7611,8 +7605,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="926"/>
-      <c r="F2" s="926"/>
+      <c r="E2" s="924"/>
+      <c r="F2" s="924"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7633,7 +7627,7 @@
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="370"/>
       <c r="B5" s="376" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
@@ -7644,13 +7638,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="927" t="s">
+      <c r="B6" s="921" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="927"/>
-      <c r="D6" s="927"/>
-      <c r="E6" s="927"/>
-      <c r="F6" s="927"/>
+      <c r="C6" s="921"/>
+      <c r="D6" s="921"/>
+      <c r="E6" s="921"/>
+      <c r="F6" s="921"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7663,7 +7657,7 @@
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="370"/>
       <c r="B8" s="399" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C8" s="931" t="s">
         <v>244</v>
@@ -7743,7 +7737,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="385"/>
       <c r="B15" s="402" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C15" s="384"/>
       <c r="D15" s="386"/>
@@ -7781,7 +7775,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="385"/>
       <c r="B19" s="402" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="386"/>
@@ -7808,11 +7802,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="921"/>
-      <c r="C22" s="921"/>
-      <c r="D22" s="921"/>
-      <c r="E22" s="921"/>
-      <c r="F22" s="921"/>
+      <c r="B22" s="925"/>
+      <c r="C22" s="925"/>
+      <c r="D22" s="925"/>
+      <c r="E22" s="925"/>
+      <c r="F22" s="925"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7834,8 +7828,8 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
-      <c r="B25" s="770" t="s">
-        <v>528</v>
+      <c r="B25" s="769" t="s">
+        <v>527</v>
       </c>
       <c r="C25" s="371"/>
       <c r="D25" s="371"/>
@@ -7844,8 +7838,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
-      <c r="B26" s="770" t="s">
-        <v>529</v>
+      <c r="B26" s="769" t="s">
+        <v>528</v>
       </c>
       <c r="C26" s="371"/>
       <c r="D26" s="371"/>
@@ -7963,7 +7957,7 @@
         <v>299</v>
       </c>
       <c r="C4" s="425" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D4" s="425"/>
       <c r="E4" s="426"/>
@@ -8109,43 +8103,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="950" t="s">
+      <c r="A1" s="941" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="951"/>
+      <c r="B1" s="942"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="941" t="s">
+      <c r="D1" s="952" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="942"/>
-      <c r="F1" s="942"/>
-      <c r="G1" s="942"/>
-      <c r="H1" s="942"/>
-      <c r="I1" s="943"/>
-      <c r="J1" s="952" t="s">
+      <c r="E1" s="953"/>
+      <c r="F1" s="953"/>
+      <c r="G1" s="953"/>
+      <c r="H1" s="953"/>
+      <c r="I1" s="954"/>
+      <c r="J1" s="943" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="953"/>
-      <c r="L1" s="953"/>
-      <c r="M1" s="953"/>
-      <c r="N1" s="954"/>
-      <c r="O1" s="955" t="s">
+      <c r="K1" s="944"/>
+      <c r="L1" s="944"/>
+      <c r="M1" s="944"/>
+      <c r="N1" s="945"/>
+      <c r="O1" s="946" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="956"/>
-      <c r="Q1" s="957"/>
+      <c r="P1" s="947"/>
+      <c r="Q1" s="948"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="949" t="s">
-        <v>496</v>
-      </c>
-      <c r="U1" s="949"/>
-      <c r="V1" s="949"/>
-      <c r="W1" s="949"/>
-      <c r="X1" s="949"/>
-      <c r="Y1" s="949"/>
+      <c r="T1" s="940" t="s">
+        <v>495</v>
+      </c>
+      <c r="U1" s="940"/>
+      <c r="V1" s="940"/>
+      <c r="W1" s="940"/>
+      <c r="X1" s="940"/>
+      <c r="Y1" s="940"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8157,18 +8151,18 @@
       <c r="C2" s="446" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="946" t="s">
+      <c r="D2" s="957" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="945"/>
-      <c r="F2" s="945" t="s">
+      <c r="E2" s="956"/>
+      <c r="F2" s="956" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="945"/>
-      <c r="H2" s="944" t="s">
+      <c r="G2" s="956"/>
+      <c r="H2" s="955" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="944"/>
+      <c r="I2" s="955"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8193,24 +8187,24 @@
       <c r="Q2" s="459" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="681" t="s">
+      <c r="R2" s="680" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="682" t="s">
+      <c r="S2" s="681" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="947" t="s">
+      <c r="T2" s="938" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="947"/>
-      <c r="V2" s="948" t="s">
+      <c r="U2" s="938"/>
+      <c r="V2" s="939" t="s">
+        <v>481</v>
+      </c>
+      <c r="W2" s="939"/>
+      <c r="X2" s="939" t="s">
         <v>482</v>
       </c>
-      <c r="W2" s="948"/>
-      <c r="X2" s="948" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y2" s="948"/>
+      <c r="Y2" s="939"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8221,50 +8215,50 @@
       <c r="D3" s="663" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="666" t="s">
+      <c r="E3" s="665" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="663" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="666" t="s">
+      <c r="G3" s="665" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="663" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="666" t="s">
+      <c r="I3" s="665" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="938" t="s">
+      <c r="J3" s="949" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="939"/>
-      <c r="L3" s="939"/>
-      <c r="M3" s="939"/>
-      <c r="N3" s="940"/>
+      <c r="K3" s="950"/>
+      <c r="L3" s="950"/>
+      <c r="M3" s="950"/>
+      <c r="N3" s="951"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
       <c r="R3" s="453"/>
       <c r="S3" s="454"/>
-      <c r="T3" s="685" t="s">
+      <c r="T3" s="684" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="685" t="s">
-        <v>497</v>
-      </c>
-      <c r="V3" s="686" t="s">
+      <c r="U3" s="684" t="s">
+        <v>496</v>
+      </c>
+      <c r="V3" s="685" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="708" t="s">
-        <v>497</v>
-      </c>
-      <c r="X3" s="686" t="s">
+      <c r="W3" s="707" t="s">
+        <v>496</v>
+      </c>
+      <c r="X3" s="685" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="708" t="s">
-        <v>497</v>
+      <c r="Y3" s="707" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -8287,12 +8281,12 @@
       <c r="Q4" s="458"/>
       <c r="R4" s="453"/>
       <c r="S4" s="453"/>
-      <c r="T4" s="687"/>
-      <c r="U4" s="687"/>
-      <c r="V4" s="688"/>
-      <c r="W4" s="688"/>
-      <c r="X4" s="688"/>
-      <c r="Y4" s="688"/>
+      <c r="T4" s="686"/>
+      <c r="U4" s="686"/>
+      <c r="V4" s="687"/>
+      <c r="W4" s="687"/>
+      <c r="X4" s="687"/>
+      <c r="Y4" s="687"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="441"/>
@@ -8314,8 +8308,8 @@
       <c r="Q5" s="441"/>
       <c r="R5" s="441"/>
       <c r="S5" s="441"/>
-      <c r="T5" s="680"/>
-      <c r="U5" s="699"/>
+      <c r="T5" s="679"/>
+      <c r="U5" s="698"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="441"/>
@@ -8337,8 +8331,8 @@
       <c r="Q6" s="441"/>
       <c r="R6" s="441"/>
       <c r="S6" s="441"/>
-      <c r="T6" s="680"/>
-      <c r="U6" s="699"/>
+      <c r="T6" s="679"/>
+      <c r="U6" s="698"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="441"/>
@@ -8360,8 +8354,8 @@
       <c r="Q7" s="441"/>
       <c r="R7" s="441"/>
       <c r="S7" s="441"/>
-      <c r="T7" s="680"/>
-      <c r="U7" s="699"/>
+      <c r="T7" s="679"/>
+      <c r="U7" s="698"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="441"/>
@@ -8383,8 +8377,8 @@
       <c r="Q8" s="441"/>
       <c r="R8" s="441"/>
       <c r="S8" s="441"/>
-      <c r="T8" s="680"/>
-      <c r="U8" s="699"/>
+      <c r="T8" s="679"/>
+      <c r="U8" s="698"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="441"/>
@@ -8406,8 +8400,8 @@
       <c r="Q9" s="441"/>
       <c r="R9" s="441"/>
       <c r="S9" s="441"/>
-      <c r="T9" s="680"/>
-      <c r="U9" s="699"/>
+      <c r="T9" s="679"/>
+      <c r="U9" s="698"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="441"/>
@@ -8429,8 +8423,8 @@
       <c r="Q10" s="441"/>
       <c r="R10" s="441"/>
       <c r="S10" s="441"/>
-      <c r="T10" s="680"/>
-      <c r="U10" s="699"/>
+      <c r="T10" s="679"/>
+      <c r="U10" s="698"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="441"/>
@@ -8452,8 +8446,8 @@
       <c r="Q11" s="441"/>
       <c r="R11" s="441"/>
       <c r="S11" s="441"/>
-      <c r="T11" s="680"/>
-      <c r="U11" s="699"/>
+      <c r="T11" s="679"/>
+      <c r="U11" s="698"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="441"/>
@@ -8475,8 +8469,8 @@
       <c r="Q12" s="441"/>
       <c r="R12" s="441"/>
       <c r="S12" s="441"/>
-      <c r="T12" s="680"/>
-      <c r="U12" s="699"/>
+      <c r="T12" s="679"/>
+      <c r="U12" s="698"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="441"/>
@@ -8498,8 +8492,8 @@
       <c r="Q13" s="441"/>
       <c r="R13" s="441"/>
       <c r="S13" s="441"/>
-      <c r="T13" s="680"/>
-      <c r="U13" s="699"/>
+      <c r="T13" s="679"/>
+      <c r="U13" s="698"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="441"/>
@@ -8521,8 +8515,8 @@
       <c r="Q14" s="441"/>
       <c r="R14" s="441"/>
       <c r="S14" s="441"/>
-      <c r="T14" s="680"/>
-      <c r="U14" s="699"/>
+      <c r="T14" s="679"/>
+      <c r="U14" s="698"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="441"/>
@@ -8544,8 +8538,8 @@
       <c r="Q15" s="441"/>
       <c r="R15" s="441"/>
       <c r="S15" s="441"/>
-      <c r="T15" s="680"/>
-      <c r="U15" s="699"/>
+      <c r="T15" s="679"/>
+      <c r="U15" s="698"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="441"/>
@@ -8567,8 +8561,8 @@
       <c r="Q16" s="441"/>
       <c r="R16" s="441"/>
       <c r="S16" s="441"/>
-      <c r="T16" s="680"/>
-      <c r="U16" s="699"/>
+      <c r="T16" s="679"/>
+      <c r="U16" s="698"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="441"/>
@@ -8590,8 +8584,8 @@
       <c r="Q17" s="441"/>
       <c r="R17" s="441"/>
       <c r="S17" s="441"/>
-      <c r="T17" s="680"/>
-      <c r="U17" s="699"/>
+      <c r="T17" s="679"/>
+      <c r="U17" s="698"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="441"/>
@@ -8613,8 +8607,8 @@
       <c r="Q18" s="441"/>
       <c r="R18" s="441"/>
       <c r="S18" s="441"/>
-      <c r="T18" s="680"/>
-      <c r="U18" s="699"/>
+      <c r="T18" s="679"/>
+      <c r="U18" s="698"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="441"/>
@@ -8636,8 +8630,8 @@
       <c r="Q19" s="441"/>
       <c r="R19" s="441"/>
       <c r="S19" s="441"/>
-      <c r="T19" s="680"/>
-      <c r="U19" s="699"/>
+      <c r="T19" s="679"/>
+      <c r="U19" s="698"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="441"/>
@@ -8659,8 +8653,8 @@
       <c r="Q20" s="441"/>
       <c r="R20" s="441"/>
       <c r="S20" s="441"/>
-      <c r="T20" s="680"/>
-      <c r="U20" s="699"/>
+      <c r="T20" s="679"/>
+      <c r="U20" s="698"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="441"/>
@@ -8682,8 +8676,8 @@
       <c r="Q21" s="441"/>
       <c r="R21" s="441"/>
       <c r="S21" s="441"/>
-      <c r="T21" s="680"/>
-      <c r="U21" s="699"/>
+      <c r="T21" s="679"/>
+      <c r="U21" s="698"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="441"/>
@@ -8705,8 +8699,8 @@
       <c r="Q22" s="441"/>
       <c r="R22" s="441"/>
       <c r="S22" s="441"/>
-      <c r="T22" s="680"/>
-      <c r="U22" s="699"/>
+      <c r="T22" s="679"/>
+      <c r="U22" s="698"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="441"/>
@@ -8728,8 +8722,8 @@
       <c r="Q23" s="441"/>
       <c r="R23" s="441"/>
       <c r="S23" s="441"/>
-      <c r="T23" s="680"/>
-      <c r="U23" s="699"/>
+      <c r="T23" s="679"/>
+      <c r="U23" s="698"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="441"/>
@@ -8751,8 +8745,8 @@
       <c r="Q24" s="441"/>
       <c r="R24" s="441"/>
       <c r="S24" s="441"/>
-      <c r="T24" s="680"/>
-      <c r="U24" s="699"/>
+      <c r="T24" s="679"/>
+      <c r="U24" s="698"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="441"/>
@@ -8774,8 +8768,8 @@
       <c r="Q25" s="441"/>
       <c r="R25" s="441"/>
       <c r="S25" s="441"/>
-      <c r="T25" s="680"/>
-      <c r="U25" s="699"/>
+      <c r="T25" s="679"/>
+      <c r="U25" s="698"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="441"/>
@@ -8797,8 +8791,8 @@
       <c r="Q26" s="441"/>
       <c r="R26" s="441"/>
       <c r="S26" s="441"/>
-      <c r="T26" s="680"/>
-      <c r="U26" s="699"/>
+      <c r="T26" s="679"/>
+      <c r="U26" s="698"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="441"/>
@@ -8820,8 +8814,8 @@
       <c r="Q27" s="441"/>
       <c r="R27" s="441"/>
       <c r="S27" s="441"/>
-      <c r="T27" s="680"/>
-      <c r="U27" s="699"/>
+      <c r="T27" s="679"/>
+      <c r="U27" s="698"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="441"/>
@@ -8843,8 +8837,8 @@
       <c r="Q28" s="441"/>
       <c r="R28" s="441"/>
       <c r="S28" s="441"/>
-      <c r="T28" s="680"/>
-      <c r="U28" s="699"/>
+      <c r="T28" s="679"/>
+      <c r="U28" s="698"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="441"/>
@@ -8866,8 +8860,8 @@
       <c r="Q29" s="441"/>
       <c r="R29" s="441"/>
       <c r="S29" s="441"/>
-      <c r="T29" s="680"/>
-      <c r="U29" s="699"/>
+      <c r="T29" s="679"/>
+      <c r="U29" s="698"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="441"/>
@@ -8889,8 +8883,8 @@
       <c r="Q30" s="441"/>
       <c r="R30" s="441"/>
       <c r="S30" s="441"/>
-      <c r="T30" s="680"/>
-      <c r="U30" s="699"/>
+      <c r="T30" s="679"/>
+      <c r="U30" s="698"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="441"/>
@@ -8912,8 +8906,8 @@
       <c r="Q31" s="441"/>
       <c r="R31" s="441"/>
       <c r="S31" s="441"/>
-      <c r="T31" s="680"/>
-      <c r="U31" s="699"/>
+      <c r="T31" s="679"/>
+      <c r="U31" s="698"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="441"/>
@@ -8935,8 +8929,8 @@
       <c r="Q32" s="441"/>
       <c r="R32" s="441"/>
       <c r="S32" s="441"/>
-      <c r="T32" s="680"/>
-      <c r="U32" s="699"/>
+      <c r="T32" s="679"/>
+      <c r="U32" s="698"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="441"/>
@@ -8958,8 +8952,8 @@
       <c r="Q33" s="441"/>
       <c r="R33" s="441"/>
       <c r="S33" s="441"/>
-      <c r="T33" s="680"/>
-      <c r="U33" s="699"/>
+      <c r="T33" s="679"/>
+      <c r="U33" s="698"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="441"/>
@@ -8981,8 +8975,8 @@
       <c r="Q34" s="441"/>
       <c r="R34" s="441"/>
       <c r="S34" s="441"/>
-      <c r="T34" s="680"/>
-      <c r="U34" s="699"/>
+      <c r="T34" s="679"/>
+      <c r="U34" s="698"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="441"/>
@@ -9004,8 +8998,8 @@
       <c r="Q35" s="441"/>
       <c r="R35" s="441"/>
       <c r="S35" s="441"/>
-      <c r="T35" s="680"/>
-      <c r="U35" s="699"/>
+      <c r="T35" s="679"/>
+      <c r="U35" s="698"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="441"/>
@@ -9027,8 +9021,8 @@
       <c r="Q36" s="441"/>
       <c r="R36" s="441"/>
       <c r="S36" s="441"/>
-      <c r="T36" s="680"/>
-      <c r="U36" s="699"/>
+      <c r="T36" s="679"/>
+      <c r="U36" s="698"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="441"/>
@@ -9050,8 +9044,8 @@
       <c r="Q37" s="441"/>
       <c r="R37" s="441"/>
       <c r="S37" s="441"/>
-      <c r="T37" s="680"/>
-      <c r="U37" s="699"/>
+      <c r="T37" s="679"/>
+      <c r="U37" s="698"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="441"/>
@@ -9073,8 +9067,8 @@
       <c r="Q38" s="441"/>
       <c r="R38" s="441"/>
       <c r="S38" s="441"/>
-      <c r="T38" s="680"/>
-      <c r="U38" s="699"/>
+      <c r="T38" s="679"/>
+      <c r="U38" s="698"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="441"/>
@@ -9096,8 +9090,8 @@
       <c r="Q39" s="441"/>
       <c r="R39" s="441"/>
       <c r="S39" s="441"/>
-      <c r="T39" s="680"/>
-      <c r="U39" s="699"/>
+      <c r="T39" s="679"/>
+      <c r="U39" s="698"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="441"/>
@@ -9119,8 +9113,8 @@
       <c r="Q40" s="441"/>
       <c r="R40" s="441"/>
       <c r="S40" s="441"/>
-      <c r="T40" s="680"/>
-      <c r="U40" s="699"/>
+      <c r="T40" s="679"/>
+      <c r="U40" s="698"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="441"/>
@@ -9142,8 +9136,8 @@
       <c r="Q41" s="441"/>
       <c r="R41" s="441"/>
       <c r="S41" s="441"/>
-      <c r="T41" s="680"/>
-      <c r="U41" s="699"/>
+      <c r="T41" s="679"/>
+      <c r="U41" s="698"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="441"/>
@@ -9165,8 +9159,8 @@
       <c r="Q42" s="441"/>
       <c r="R42" s="441"/>
       <c r="S42" s="441"/>
-      <c r="T42" s="680"/>
-      <c r="U42" s="699"/>
+      <c r="T42" s="679"/>
+      <c r="U42" s="698"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="441"/>
@@ -9188,8 +9182,8 @@
       <c r="Q43" s="441"/>
       <c r="R43" s="441"/>
       <c r="S43" s="441"/>
-      <c r="T43" s="680"/>
-      <c r="U43" s="699"/>
+      <c r="T43" s="679"/>
+      <c r="U43" s="698"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="441"/>
@@ -9211,8 +9205,8 @@
       <c r="Q44" s="441"/>
       <c r="R44" s="441"/>
       <c r="S44" s="441"/>
-      <c r="T44" s="680"/>
-      <c r="U44" s="699"/>
+      <c r="T44" s="679"/>
+      <c r="U44" s="698"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="441"/>
@@ -9234,8 +9228,8 @@
       <c r="Q45" s="441"/>
       <c r="R45" s="441"/>
       <c r="S45" s="441"/>
-      <c r="T45" s="680"/>
-      <c r="U45" s="699"/>
+      <c r="T45" s="679"/>
+      <c r="U45" s="698"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="441"/>
@@ -9257,8 +9251,8 @@
       <c r="Q46" s="441"/>
       <c r="R46" s="441"/>
       <c r="S46" s="441"/>
-      <c r="T46" s="680"/>
-      <c r="U46" s="699"/>
+      <c r="T46" s="679"/>
+      <c r="U46" s="698"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="441"/>
@@ -9280,8 +9274,8 @@
       <c r="Q47" s="441"/>
       <c r="R47" s="441"/>
       <c r="S47" s="441"/>
-      <c r="T47" s="680"/>
-      <c r="U47" s="699"/>
+      <c r="T47" s="679"/>
+      <c r="U47" s="698"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="441"/>
@@ -9303,8 +9297,8 @@
       <c r="Q48" s="441"/>
       <c r="R48" s="441"/>
       <c r="S48" s="441"/>
-      <c r="T48" s="680"/>
-      <c r="U48" s="699"/>
+      <c r="T48" s="679"/>
+      <c r="U48" s="698"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="441"/>
@@ -9326,8 +9320,8 @@
       <c r="Q49" s="441"/>
       <c r="R49" s="441"/>
       <c r="S49" s="441"/>
-      <c r="T49" s="680"/>
-      <c r="U49" s="699"/>
+      <c r="T49" s="679"/>
+      <c r="U49" s="698"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="441"/>
@@ -9349,8 +9343,8 @@
       <c r="Q50" s="441"/>
       <c r="R50" s="441"/>
       <c r="S50" s="441"/>
-      <c r="T50" s="680"/>
-      <c r="U50" s="699"/>
+      <c r="T50" s="679"/>
+      <c r="U50" s="698"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="441"/>
@@ -9372,8 +9366,8 @@
       <c r="Q51" s="441"/>
       <c r="R51" s="441"/>
       <c r="S51" s="441"/>
-      <c r="T51" s="680"/>
-      <c r="U51" s="699"/>
+      <c r="T51" s="679"/>
+      <c r="U51" s="698"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="441"/>
@@ -9395,8 +9389,8 @@
       <c r="Q52" s="441"/>
       <c r="R52" s="441"/>
       <c r="S52" s="441"/>
-      <c r="T52" s="680"/>
-      <c r="U52" s="699"/>
+      <c r="T52" s="679"/>
+      <c r="U52" s="698"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="441"/>
@@ -9418,8 +9412,8 @@
       <c r="Q53" s="441"/>
       <c r="R53" s="441"/>
       <c r="S53" s="441"/>
-      <c r="T53" s="680"/>
-      <c r="U53" s="699"/>
+      <c r="T53" s="679"/>
+      <c r="U53" s="698"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="441"/>
@@ -9441,8 +9435,8 @@
       <c r="Q54" s="441"/>
       <c r="R54" s="441"/>
       <c r="S54" s="441"/>
-      <c r="T54" s="680"/>
-      <c r="U54" s="699"/>
+      <c r="T54" s="679"/>
+      <c r="U54" s="698"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="441"/>
@@ -9464,13 +9458,18 @@
       <c r="Q55" s="441"/>
       <c r="R55" s="441"/>
       <c r="S55" s="441"/>
-      <c r="T55" s="680"/>
-      <c r="U55" s="699"/>
+      <c r="T55" s="679"/>
+      <c r="U55" s="698"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9478,11 +9477,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9522,25 +9516,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="865" t="s">
+      <c r="A1" s="836" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
-      <c r="D1" s="866"/>
-      <c r="E1" s="866"/>
-      <c r="F1" s="866"/>
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="963" t="s">
+      <c r="H1" s="964" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="964"/>
-      <c r="J1" s="964"/>
+      <c r="I1" s="965"/>
+      <c r="J1" s="965"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="961" t="s">
+      <c r="O1" s="962" t="s">
         <v>313</v>
       </c>
       <c r="P1" s="466"/>
@@ -9552,73 +9546,73 @@
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="961" t="s">
+      <c r="W1" s="962" t="s">
         <v>315</v>
       </c>
       <c r="X1" s="466"/>
-      <c r="Y1" s="965" t="s">
+      <c r="Y1" s="966" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="965"/>
-      <c r="AA1" s="965"/>
-      <c r="AB1" s="965"/>
-      <c r="AC1" s="965"/>
-      <c r="AD1" s="966"/>
-      <c r="AE1" s="961" t="s">
+      <c r="Z1" s="966"/>
+      <c r="AA1" s="966"/>
+      <c r="AB1" s="966"/>
+      <c r="AC1" s="966"/>
+      <c r="AD1" s="967"/>
+      <c r="AE1" s="962" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="960" t="s">
-        <v>481</v>
-      </c>
-      <c r="AG1" s="949"/>
-      <c r="AH1" s="949"/>
-      <c r="AI1" s="689"/>
-      <c r="AJ1" s="689"/>
-      <c r="AK1" s="689"/>
-      <c r="AL1" s="689"/>
-      <c r="AM1" s="689"/>
-      <c r="AN1" s="689"/>
-      <c r="AO1" s="689"/>
-      <c r="AP1" s="689"/>
-      <c r="AQ1" s="689"/>
-      <c r="AR1" s="689"/>
-      <c r="AS1" s="689"/>
-      <c r="AT1" s="689"/>
-      <c r="AU1" s="689"/>
-      <c r="AV1" s="689"/>
-      <c r="AW1" s="689"/>
-      <c r="AX1" s="689"/>
-      <c r="AY1" s="689"/>
-      <c r="AZ1" s="689"/>
-      <c r="BA1" s="689"/>
-      <c r="BB1" s="689"/>
-      <c r="BC1" s="689"/>
-      <c r="BD1" s="689"/>
-      <c r="BE1" s="689"/>
-      <c r="BF1" s="689"/>
-      <c r="BG1" s="689"/>
-      <c r="BH1" s="689"/>
-      <c r="BI1" s="689"/>
-      <c r="BJ1" s="689"/>
-      <c r="BK1" s="689"/>
-      <c r="BL1" s="689"/>
-      <c r="BM1" s="689"/>
-      <c r="BN1" s="689"/>
-      <c r="BO1" s="689"/>
-      <c r="BP1" s="689"/>
-      <c r="BQ1" s="689"/>
-      <c r="BR1" s="689"/>
-      <c r="BS1" s="689"/>
-      <c r="BT1" s="689"/>
-      <c r="BU1" s="689"/>
-      <c r="BV1" s="689"/>
-      <c r="BW1" s="689"/>
-      <c r="BX1" s="689"/>
-      <c r="BY1" s="689"/>
-      <c r="BZ1" s="689"/>
-      <c r="CA1" s="689"/>
-      <c r="CB1" s="689"/>
-      <c r="CC1" s="689"/>
+      <c r="AF1" s="961" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG1" s="940"/>
+      <c r="AH1" s="940"/>
+      <c r="AI1" s="688"/>
+      <c r="AJ1" s="688"/>
+      <c r="AK1" s="688"/>
+      <c r="AL1" s="688"/>
+      <c r="AM1" s="688"/>
+      <c r="AN1" s="688"/>
+      <c r="AO1" s="688"/>
+      <c r="AP1" s="688"/>
+      <c r="AQ1" s="688"/>
+      <c r="AR1" s="688"/>
+      <c r="AS1" s="688"/>
+      <c r="AT1" s="688"/>
+      <c r="AU1" s="688"/>
+      <c r="AV1" s="688"/>
+      <c r="AW1" s="688"/>
+      <c r="AX1" s="688"/>
+      <c r="AY1" s="688"/>
+      <c r="AZ1" s="688"/>
+      <c r="BA1" s="688"/>
+      <c r="BB1" s="688"/>
+      <c r="BC1" s="688"/>
+      <c r="BD1" s="688"/>
+      <c r="BE1" s="688"/>
+      <c r="BF1" s="688"/>
+      <c r="BG1" s="688"/>
+      <c r="BH1" s="688"/>
+      <c r="BI1" s="688"/>
+      <c r="BJ1" s="688"/>
+      <c r="BK1" s="688"/>
+      <c r="BL1" s="688"/>
+      <c r="BM1" s="688"/>
+      <c r="BN1" s="688"/>
+      <c r="BO1" s="688"/>
+      <c r="BP1" s="688"/>
+      <c r="BQ1" s="688"/>
+      <c r="BR1" s="688"/>
+      <c r="BS1" s="688"/>
+      <c r="BT1" s="688"/>
+      <c r="BU1" s="688"/>
+      <c r="BV1" s="688"/>
+      <c r="BW1" s="688"/>
+      <c r="BX1" s="688"/>
+      <c r="BY1" s="688"/>
+      <c r="BZ1" s="688"/>
+      <c r="CA1" s="688"/>
+      <c r="CB1" s="688"/>
+      <c r="CC1" s="688"/>
     </row>
     <row r="2" spans="1:81" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="467" t="s">
@@ -9630,14 +9624,14 @@
       <c r="C2" s="473" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="959" t="s">
+      <c r="D2" s="960" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="960"/>
+      <c r="F2" s="960" t="s">
         <v>486</v>
       </c>
-      <c r="E2" s="959"/>
-      <c r="F2" s="959" t="s">
-        <v>487</v>
-      </c>
-      <c r="G2" s="959"/>
+      <c r="G2" s="960"/>
       <c r="H2" s="468"/>
       <c r="I2" s="958" t="s">
         <v>188</v>
@@ -9650,8 +9644,8 @@
       <c r="M2" s="958" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="967"/>
-      <c r="O2" s="962"/>
+      <c r="N2" s="959"/>
+      <c r="O2" s="963"/>
       <c r="P2" s="469"/>
       <c r="Q2" s="958" t="s">
         <v>188</v>
@@ -9664,8 +9658,8 @@
       <c r="U2" s="958" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="967"/>
-      <c r="W2" s="962"/>
+      <c r="V2" s="959"/>
+      <c r="W2" s="963"/>
       <c r="X2" s="469"/>
       <c r="Y2" s="958" t="s">
         <v>188</v>
@@ -9678,64 +9672,64 @@
       <c r="AC2" s="958" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="967"/>
-      <c r="AE2" s="962"/>
-      <c r="AF2" s="683" t="s">
+      <c r="AD2" s="959"/>
+      <c r="AE2" s="963"/>
+      <c r="AF2" s="682" t="s">
         <v>464</v>
       </c>
-      <c r="AG2" s="684" t="s">
+      <c r="AG2" s="683" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH2" s="683" t="s">
         <v>482</v>
       </c>
-      <c r="AH2" s="684" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI2" s="689"/>
-      <c r="AJ2" s="689"/>
-      <c r="AK2" s="689"/>
-      <c r="AL2" s="689"/>
-      <c r="AM2" s="689"/>
-      <c r="AN2" s="689"/>
-      <c r="AO2" s="689"/>
-      <c r="AP2" s="689"/>
-      <c r="AQ2" s="689"/>
-      <c r="AR2" s="689"/>
-      <c r="AS2" s="689"/>
-      <c r="AT2" s="689"/>
-      <c r="AU2" s="689"/>
-      <c r="AV2" s="689"/>
-      <c r="AW2" s="689"/>
-      <c r="AX2" s="689"/>
-      <c r="AY2" s="689"/>
-      <c r="AZ2" s="689"/>
-      <c r="BA2" s="689"/>
-      <c r="BB2" s="689"/>
-      <c r="BC2" s="689"/>
-      <c r="BD2" s="689"/>
-      <c r="BE2" s="689"/>
-      <c r="BF2" s="689"/>
-      <c r="BG2" s="689"/>
-      <c r="BH2" s="689"/>
-      <c r="BI2" s="689"/>
-      <c r="BJ2" s="689"/>
-      <c r="BK2" s="689"/>
-      <c r="BL2" s="689"/>
-      <c r="BM2" s="689"/>
-      <c r="BN2" s="689"/>
-      <c r="BO2" s="689"/>
-      <c r="BP2" s="689"/>
-      <c r="BQ2" s="689"/>
-      <c r="BR2" s="689"/>
-      <c r="BS2" s="689"/>
-      <c r="BT2" s="689"/>
-      <c r="BU2" s="689"/>
-      <c r="BV2" s="689"/>
-      <c r="BW2" s="689"/>
-      <c r="BX2" s="689"/>
-      <c r="BY2" s="689"/>
-      <c r="BZ2" s="689"/>
-      <c r="CA2" s="689"/>
-      <c r="CB2" s="689"/>
-      <c r="CC2" s="689"/>
+      <c r="AI2" s="688"/>
+      <c r="AJ2" s="688"/>
+      <c r="AK2" s="688"/>
+      <c r="AL2" s="688"/>
+      <c r="AM2" s="688"/>
+      <c r="AN2" s="688"/>
+      <c r="AO2" s="688"/>
+      <c r="AP2" s="688"/>
+      <c r="AQ2" s="688"/>
+      <c r="AR2" s="688"/>
+      <c r="AS2" s="688"/>
+      <c r="AT2" s="688"/>
+      <c r="AU2" s="688"/>
+      <c r="AV2" s="688"/>
+      <c r="AW2" s="688"/>
+      <c r="AX2" s="688"/>
+      <c r="AY2" s="688"/>
+      <c r="AZ2" s="688"/>
+      <c r="BA2" s="688"/>
+      <c r="BB2" s="688"/>
+      <c r="BC2" s="688"/>
+      <c r="BD2" s="688"/>
+      <c r="BE2" s="688"/>
+      <c r="BF2" s="688"/>
+      <c r="BG2" s="688"/>
+      <c r="BH2" s="688"/>
+      <c r="BI2" s="688"/>
+      <c r="BJ2" s="688"/>
+      <c r="BK2" s="688"/>
+      <c r="BL2" s="688"/>
+      <c r="BM2" s="688"/>
+      <c r="BN2" s="688"/>
+      <c r="BO2" s="688"/>
+      <c r="BP2" s="688"/>
+      <c r="BQ2" s="688"/>
+      <c r="BR2" s="688"/>
+      <c r="BS2" s="688"/>
+      <c r="BT2" s="688"/>
+      <c r="BU2" s="688"/>
+      <c r="BV2" s="688"/>
+      <c r="BW2" s="688"/>
+      <c r="BX2" s="688"/>
+      <c r="BY2" s="688"/>
+      <c r="BZ2" s="688"/>
+      <c r="CA2" s="688"/>
+      <c r="CB2" s="688"/>
+      <c r="CC2" s="688"/>
     </row>
     <row r="3" spans="1:81" s="13" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="462"/>
@@ -9827,62 +9821,62 @@
       <c r="AE3" s="485" t="s">
         <v>324</v>
       </c>
-      <c r="AF3" s="685" t="s">
+      <c r="AF3" s="684" t="s">
         <v>72</v>
       </c>
-      <c r="AG3" s="686" t="s">
+      <c r="AG3" s="685" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="686" t="s">
+      <c r="AH3" s="685" t="s">
         <v>72</v>
       </c>
-      <c r="AI3" s="690"/>
-      <c r="AJ3" s="690"/>
-      <c r="AK3" s="690"/>
-      <c r="AL3" s="690"/>
-      <c r="AM3" s="690"/>
-      <c r="AN3" s="690"/>
-      <c r="AO3" s="690"/>
-      <c r="AP3" s="690"/>
-      <c r="AQ3" s="690"/>
-      <c r="AR3" s="690"/>
-      <c r="AS3" s="690"/>
-      <c r="AT3" s="690"/>
-      <c r="AU3" s="690"/>
-      <c r="AV3" s="690"/>
-      <c r="AW3" s="690"/>
-      <c r="AX3" s="690"/>
-      <c r="AY3" s="690"/>
-      <c r="AZ3" s="690"/>
-      <c r="BA3" s="690"/>
-      <c r="BB3" s="690"/>
-      <c r="BC3" s="690"/>
-      <c r="BD3" s="690"/>
-      <c r="BE3" s="690"/>
-      <c r="BF3" s="690"/>
-      <c r="BG3" s="690"/>
-      <c r="BH3" s="690"/>
-      <c r="BI3" s="690"/>
-      <c r="BJ3" s="690"/>
-      <c r="BK3" s="690"/>
-      <c r="BL3" s="690"/>
-      <c r="BM3" s="690"/>
-      <c r="BN3" s="690"/>
-      <c r="BO3" s="690"/>
-      <c r="BP3" s="690"/>
-      <c r="BQ3" s="690"/>
-      <c r="BR3" s="690"/>
-      <c r="BS3" s="690"/>
-      <c r="BT3" s="690"/>
-      <c r="BU3" s="690"/>
-      <c r="BV3" s="690"/>
-      <c r="BW3" s="690"/>
-      <c r="BX3" s="690"/>
-      <c r="BY3" s="690"/>
-      <c r="BZ3" s="690"/>
-      <c r="CA3" s="690"/>
-      <c r="CB3" s="690"/>
-      <c r="CC3" s="690"/>
+      <c r="AI3" s="689"/>
+      <c r="AJ3" s="689"/>
+      <c r="AK3" s="689"/>
+      <c r="AL3" s="689"/>
+      <c r="AM3" s="689"/>
+      <c r="AN3" s="689"/>
+      <c r="AO3" s="689"/>
+      <c r="AP3" s="689"/>
+      <c r="AQ3" s="689"/>
+      <c r="AR3" s="689"/>
+      <c r="AS3" s="689"/>
+      <c r="AT3" s="689"/>
+      <c r="AU3" s="689"/>
+      <c r="AV3" s="689"/>
+      <c r="AW3" s="689"/>
+      <c r="AX3" s="689"/>
+      <c r="AY3" s="689"/>
+      <c r="AZ3" s="689"/>
+      <c r="BA3" s="689"/>
+      <c r="BB3" s="689"/>
+      <c r="BC3" s="689"/>
+      <c r="BD3" s="689"/>
+      <c r="BE3" s="689"/>
+      <c r="BF3" s="689"/>
+      <c r="BG3" s="689"/>
+      <c r="BH3" s="689"/>
+      <c r="BI3" s="689"/>
+      <c r="BJ3" s="689"/>
+      <c r="BK3" s="689"/>
+      <c r="BL3" s="689"/>
+      <c r="BM3" s="689"/>
+      <c r="BN3" s="689"/>
+      <c r="BO3" s="689"/>
+      <c r="BP3" s="689"/>
+      <c r="BQ3" s="689"/>
+      <c r="BR3" s="689"/>
+      <c r="BS3" s="689"/>
+      <c r="BT3" s="689"/>
+      <c r="BU3" s="689"/>
+      <c r="BV3" s="689"/>
+      <c r="BW3" s="689"/>
+      <c r="BX3" s="689"/>
+      <c r="BY3" s="689"/>
+      <c r="BZ3" s="689"/>
+      <c r="CA3" s="689"/>
+      <c r="CB3" s="689"/>
+      <c r="CC3" s="689"/>
     </row>
     <row r="4" spans="1:81" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="461"/>
@@ -9916,56 +9910,56 @@
       <c r="AC4" s="479"/>
       <c r="AD4" s="478"/>
       <c r="AE4" s="480"/>
-      <c r="AF4" s="687"/>
-      <c r="AG4" s="688"/>
-      <c r="AH4" s="688"/>
-      <c r="AI4" s="689"/>
-      <c r="AJ4" s="689"/>
-      <c r="AK4" s="689"/>
-      <c r="AL4" s="689"/>
-      <c r="AM4" s="689"/>
-      <c r="AN4" s="689"/>
-      <c r="AO4" s="689"/>
-      <c r="AP4" s="689"/>
-      <c r="AQ4" s="689"/>
-      <c r="AR4" s="689"/>
-      <c r="AS4" s="689"/>
-      <c r="AT4" s="689"/>
-      <c r="AU4" s="689"/>
-      <c r="AV4" s="689"/>
-      <c r="AW4" s="689"/>
-      <c r="AX4" s="689"/>
-      <c r="AY4" s="689"/>
-      <c r="AZ4" s="689"/>
-      <c r="BA4" s="689"/>
-      <c r="BB4" s="689"/>
-      <c r="BC4" s="689"/>
-      <c r="BD4" s="689"/>
-      <c r="BE4" s="689"/>
-      <c r="BF4" s="689"/>
-      <c r="BG4" s="689"/>
-      <c r="BH4" s="689"/>
-      <c r="BI4" s="689"/>
-      <c r="BJ4" s="689"/>
-      <c r="BK4" s="689"/>
-      <c r="BL4" s="689"/>
-      <c r="BM4" s="689"/>
-      <c r="BN4" s="689"/>
-      <c r="BO4" s="689"/>
-      <c r="BP4" s="689"/>
-      <c r="BQ4" s="689"/>
-      <c r="BR4" s="689"/>
-      <c r="BS4" s="689"/>
-      <c r="BT4" s="689"/>
-      <c r="BU4" s="689"/>
-      <c r="BV4" s="689"/>
-      <c r="BW4" s="689"/>
-      <c r="BX4" s="689"/>
-      <c r="BY4" s="689"/>
-      <c r="BZ4" s="689"/>
-      <c r="CA4" s="689"/>
-      <c r="CB4" s="689"/>
-      <c r="CC4" s="689"/>
+      <c r="AF4" s="686"/>
+      <c r="AG4" s="687"/>
+      <c r="AH4" s="687"/>
+      <c r="AI4" s="688"/>
+      <c r="AJ4" s="688"/>
+      <c r="AK4" s="688"/>
+      <c r="AL4" s="688"/>
+      <c r="AM4" s="688"/>
+      <c r="AN4" s="688"/>
+      <c r="AO4" s="688"/>
+      <c r="AP4" s="688"/>
+      <c r="AQ4" s="688"/>
+      <c r="AR4" s="688"/>
+      <c r="AS4" s="688"/>
+      <c r="AT4" s="688"/>
+      <c r="AU4" s="688"/>
+      <c r="AV4" s="688"/>
+      <c r="AW4" s="688"/>
+      <c r="AX4" s="688"/>
+      <c r="AY4" s="688"/>
+      <c r="AZ4" s="688"/>
+      <c r="BA4" s="688"/>
+      <c r="BB4" s="688"/>
+      <c r="BC4" s="688"/>
+      <c r="BD4" s="688"/>
+      <c r="BE4" s="688"/>
+      <c r="BF4" s="688"/>
+      <c r="BG4" s="688"/>
+      <c r="BH4" s="688"/>
+      <c r="BI4" s="688"/>
+      <c r="BJ4" s="688"/>
+      <c r="BK4" s="688"/>
+      <c r="BL4" s="688"/>
+      <c r="BM4" s="688"/>
+      <c r="BN4" s="688"/>
+      <c r="BO4" s="688"/>
+      <c r="BP4" s="688"/>
+      <c r="BQ4" s="688"/>
+      <c r="BR4" s="688"/>
+      <c r="BS4" s="688"/>
+      <c r="BT4" s="688"/>
+      <c r="BU4" s="688"/>
+      <c r="BV4" s="688"/>
+      <c r="BW4" s="688"/>
+      <c r="BX4" s="688"/>
+      <c r="BY4" s="688"/>
+      <c r="BZ4" s="688"/>
+      <c r="CA4" s="688"/>
+      <c r="CB4" s="688"/>
+      <c r="CC4" s="688"/>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A5" s="463"/>
@@ -10565,6 +10559,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
@@ -10581,8 +10577,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10615,7 +10609,7 @@
       <c r="C3" s="489" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="667" t="s">
+      <c r="D3" s="666" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10626,8 +10620,8 @@
       <c r="B4" s="491" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="669"/>
-      <c r="D4" s="691"/>
+      <c r="C4" s="668"/>
+      <c r="D4" s="690"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="492" t="s">
@@ -10636,8 +10630,8 @@
       <c r="B5" s="493" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="670"/>
-      <c r="D5" s="692"/>
+      <c r="C5" s="669"/>
+      <c r="D5" s="691"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="492" t="s">
@@ -10646,8 +10640,8 @@
       <c r="B6" s="493" t="s">
         <v>330</v>
       </c>
-      <c r="C6" s="670"/>
-      <c r="D6" s="692"/>
+      <c r="C6" s="669"/>
+      <c r="D6" s="691"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="492" t="s">
@@ -10656,8 +10650,8 @@
       <c r="B7" s="493" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="670"/>
-      <c r="D7" s="692"/>
+      <c r="C7" s="669"/>
+      <c r="D7" s="691"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="492" t="s">
@@ -10666,8 +10660,8 @@
       <c r="B8" s="493" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="671"/>
-      <c r="D8" s="693"/>
+      <c r="C8" s="670"/>
+      <c r="D8" s="692"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="492" t="s">
@@ -10676,16 +10670,16 @@
       <c r="B9" s="493" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="671"/>
-      <c r="D9" s="693"/>
+      <c r="C9" s="670"/>
+      <c r="D9" s="692"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="494" t="s">
         <v>336</v>
       </c>
       <c r="B10" s="495"/>
-      <c r="C10" s="672"/>
-      <c r="D10" s="668"/>
+      <c r="C10" s="671"/>
+      <c r="D10" s="667"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="486" t="s">
@@ -10699,10 +10693,10 @@
       <c r="B17" s="497" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="673" t="s">
+      <c r="C17" s="672" t="s">
         <v>328</v>
       </c>
-      <c r="D17" s="677"/>
+      <c r="D17" s="676"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="498" t="s">
@@ -10711,8 +10705,8 @@
       <c r="B18" s="499" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="674"/>
-      <c r="D18" s="678"/>
+      <c r="C18" s="673"/>
+      <c r="D18" s="677"/>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="498" t="s">
@@ -10721,8 +10715,8 @@
       <c r="B19" s="499" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="675"/>
-      <c r="D19" s="678"/>
+      <c r="C19" s="674"/>
+      <c r="D19" s="677"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="492" t="s">
@@ -10731,8 +10725,8 @@
       <c r="B20" s="500" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="675"/>
-      <c r="D20" s="678"/>
+      <c r="C20" s="674"/>
+      <c r="D20" s="677"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="492" t="s">
@@ -10741,8 +10735,8 @@
       <c r="B21" s="500" t="s">
         <v>342</v>
       </c>
-      <c r="C21" s="675"/>
-      <c r="D21" s="678"/>
+      <c r="C21" s="674"/>
+      <c r="D21" s="677"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="492" t="s">
@@ -10751,16 +10745,16 @@
       <c r="B22" s="500" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="675"/>
-      <c r="D22" s="678"/>
+      <c r="C22" s="674"/>
+      <c r="D22" s="677"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="494" t="s">
         <v>336</v>
       </c>
       <c r="B23" s="501"/>
-      <c r="C23" s="676"/>
-      <c r="D23" s="678"/>
+      <c r="C23" s="675"/>
+      <c r="D23" s="677"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -10797,64 +10791,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="986"/>
-      <c r="B1" s="855"/>
-      <c r="C1" s="855"/>
+      <c r="A1" s="968"/>
+      <c r="B1" s="867"/>
+      <c r="C1" s="867"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I2" s="742"/>
-      <c r="J2" s="743" t="s">
+      <c r="I2" s="741"/>
+      <c r="J2" s="742" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="742" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="742" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="976" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="978" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="979"/>
+      <c r="D3" s="974" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="975"/>
+      <c r="F3" s="974" t="s">
         <v>488</v>
       </c>
-      <c r="K2" s="743" t="s">
-        <v>346</v>
-      </c>
-      <c r="L2" s="743" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="990" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3" s="992" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="993"/>
-      <c r="D3" s="978" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" s="979"/>
-      <c r="F3" s="978" t="s">
-        <v>489</v>
-      </c>
-      <c r="G3" s="979"/>
-      <c r="I3" s="740" t="str">
+      <c r="G3" s="975"/>
+      <c r="I3" s="739" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J3" s="741" t="s">
-        <v>504</v>
-      </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="722"/>
-      <c r="N3" s="707"/>
-      <c r="O3" s="975" t="s">
+      <c r="J3" s="740" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" s="721"/>
+      <c r="L3" s="721"/>
+      <c r="N3" s="706"/>
+      <c r="O3" s="990" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="975"/>
-      <c r="Q3" s="975" t="s">
+      <c r="P3" s="990"/>
+      <c r="Q3" s="990" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="975"/>
-      <c r="S3" s="707"/>
-      <c r="T3" s="715" t="s">
+      <c r="R3" s="990"/>
+      <c r="S3" s="706"/>
+      <c r="T3" s="714" t="s">
         <v>348</v>
       </c>
-      <c r="U3" s="707"/>
+      <c r="U3" s="706"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="991"/>
+      <c r="A4" s="977"/>
       <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
@@ -10873,40 +10867,40 @@
       <c r="G4" s="512" t="s">
         <v>350</v>
       </c>
-      <c r="I4" s="740" t="str">
+      <c r="I4" s="739" t="str">
         <f t="shared" ref="I4:I7" si="0">$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J4" s="741" t="s">
-        <v>505</v>
-      </c>
-      <c r="K4" s="722"/>
-      <c r="L4" s="722"/>
-      <c r="N4" s="715" t="s">
+      <c r="J4" s="740" t="s">
+        <v>504</v>
+      </c>
+      <c r="K4" s="721"/>
+      <c r="L4" s="721"/>
+      <c r="N4" s="714" t="s">
         <v>351</v>
       </c>
-      <c r="O4" s="724" t="str">
+      <c r="O4" s="723" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="P4" s="724" t="str">
+      <c r="P4" s="723" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="Q4" s="724" t="str">
+      <c r="Q4" s="723" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="R4" s="724" t="str">
+      <c r="R4" s="723" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="S4" s="707"/>
-      <c r="T4" s="725" t="str">
+      <c r="S4" s="706"/>
+      <c r="T4" s="724" t="str">
         <f>O4</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="U4" s="725" t="str">
+      <c r="U4" s="724" t="str">
         <f>P4</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -10921,41 +10915,41 @@
       <c r="E5" s="582"/>
       <c r="F5" s="582"/>
       <c r="G5" s="582"/>
-      <c r="I5" s="740" t="str">
+      <c r="I5" s="739" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J5" s="741" t="s">
-        <v>506</v>
-      </c>
-      <c r="K5" s="722"/>
-      <c r="L5" s="722"/>
-      <c r="N5" s="715" t="str">
+      <c r="J5" s="740" t="s">
+        <v>505</v>
+      </c>
+      <c r="K5" s="721"/>
+      <c r="L5" s="721"/>
+      <c r="N5" s="714" t="str">
         <f>A5</f>
         <v>2 000 - 10 000</v>
       </c>
-      <c r="O5" s="715">
+      <c r="O5" s="714">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="722">
+      <c r="P5" s="721">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="726" t="e">
+      <c r="Q5" s="725" t="e">
         <f>O5/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="726">
+      <c r="R5" s="725">
         <f>IF(P8&lt;&gt;0,P5/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="707"/>
-      <c r="T5" s="722">
+      <c r="S5" s="706"/>
+      <c r="T5" s="721">
         <f t="shared" ref="T5:U7" si="1">O5/1000</f>
         <v>0</v>
       </c>
-      <c r="U5" s="722">
+      <c r="U5" s="721">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10970,41 +10964,41 @@
       <c r="E6" s="582"/>
       <c r="F6" s="582"/>
       <c r="G6" s="582"/>
-      <c r="I6" s="740" t="str">
+      <c r="I6" s="739" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J6" s="741" t="s">
-        <v>510</v>
-      </c>
-      <c r="K6" s="722"/>
-      <c r="L6" s="722"/>
-      <c r="N6" s="715" t="str">
+      <c r="J6" s="740" t="s">
+        <v>509</v>
+      </c>
+      <c r="K6" s="721"/>
+      <c r="L6" s="721"/>
+      <c r="N6" s="714" t="str">
         <f>A6</f>
         <v>10 001 - 100 000</v>
       </c>
-      <c r="O6" s="715">
+      <c r="O6" s="714">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="722">
+      <c r="P6" s="721">
         <f>C6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="726" t="e">
+      <c r="Q6" s="725" t="e">
         <f>O6/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="726">
+      <c r="R6" s="725">
         <f>IF(P8&lt;&gt;0,P6/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="707"/>
-      <c r="T6" s="722">
+      <c r="S6" s="706"/>
+      <c r="T6" s="721">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="722">
+      <c r="U6" s="721">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11019,172 +11013,172 @@
       <c r="E7" s="582"/>
       <c r="F7" s="582"/>
       <c r="G7" s="582"/>
-      <c r="I7" s="740" t="str">
+      <c r="I7" s="739" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J7" s="741" t="s">
-        <v>507</v>
-      </c>
-      <c r="K7" s="722"/>
-      <c r="L7" s="722"/>
-      <c r="N7" s="715" t="str">
+      <c r="J7" s="740" t="s">
+        <v>506</v>
+      </c>
+      <c r="K7" s="721"/>
+      <c r="L7" s="721"/>
+      <c r="N7" s="714" t="str">
         <f>A7</f>
         <v>&gt;100 000</v>
       </c>
-      <c r="O7" s="715">
+      <c r="O7" s="714">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="722">
+      <c r="P7" s="721">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="726" t="e">
+      <c r="Q7" s="725" t="e">
         <f>O7/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="726">
+      <c r="R7" s="725">
         <f>IF(P8&lt;&gt;0,P7/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="707"/>
-      <c r="T7" s="722">
+      <c r="S7" s="706"/>
+      <c r="T7" s="721">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="722">
+      <c r="U7" s="721">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I8" s="740" t="str">
+      <c r="I8" s="739" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J8" s="741" t="s">
-        <v>504</v>
-      </c>
-      <c r="K8" s="722"/>
-      <c r="L8" s="722"/>
-      <c r="N8" s="715" t="s">
+      <c r="J8" s="740" t="s">
+        <v>503</v>
+      </c>
+      <c r="K8" s="721"/>
+      <c r="L8" s="721"/>
+      <c r="N8" s="714" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="715">
+      <c r="O8" s="714">
         <f>SUM(O5:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="722">
+      <c r="P8" s="721">
         <f>SUM(P5:P7)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="726" t="e">
+      <c r="Q8" s="725" t="e">
         <f>O8/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="726">
+      <c r="R8" s="725">
         <f>IF(P8&lt;&gt;0,P8/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="707"/>
-      <c r="T8" s="707"/>
-      <c r="U8" s="707"/>
+      <c r="S8" s="706"/>
+      <c r="T8" s="706"/>
+      <c r="U8" s="706"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I9" s="740" t="str">
+      <c r="I9" s="739" t="str">
         <f t="shared" ref="I9:I12" si="2">$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J9" s="741" t="s">
-        <v>505</v>
-      </c>
-      <c r="K9" s="722"/>
-      <c r="L9" s="722"/>
+      <c r="J9" s="740" t="s">
+        <v>504</v>
+      </c>
+      <c r="K9" s="721"/>
+      <c r="L9" s="721"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I10" s="740" t="str">
+      <c r="I10" s="739" t="str">
         <f t="shared" si="2"/>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J10" s="741" t="s">
-        <v>506</v>
-      </c>
-      <c r="K10" s="722"/>
-      <c r="L10" s="722"/>
-      <c r="N10" s="715"/>
-      <c r="O10" s="975" t="s">
+      <c r="J10" s="740" t="s">
+        <v>505</v>
+      </c>
+      <c r="K10" s="721"/>
+      <c r="L10" s="721"/>
+      <c r="N10" s="714"/>
+      <c r="O10" s="990" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="975"/>
-      <c r="Q10" s="975" t="s">
+      <c r="P10" s="990"/>
+      <c r="Q10" s="990" t="s">
         <v>356</v>
       </c>
-      <c r="R10" s="975"/>
+      <c r="R10" s="990"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I11" s="740" t="str">
+      <c r="I11" s="739" t="str">
         <f t="shared" si="2"/>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J11" s="741" t="s">
-        <v>510</v>
-      </c>
-      <c r="K11" s="722"/>
-      <c r="L11" s="722"/>
-      <c r="N11" s="715" t="s">
+      <c r="J11" s="740" t="s">
+        <v>509</v>
+      </c>
+      <c r="K11" s="721"/>
+      <c r="L11" s="721"/>
+      <c r="N11" s="714" t="s">
         <v>345</v>
       </c>
-      <c r="O11" s="732" t="str">
+      <c r="O11" s="731" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="P11" s="724" t="str">
+      <c r="P11" s="723" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="Q11" s="724" t="str">
+      <c r="Q11" s="723" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="R11" s="724" t="str">
+      <c r="R11" s="723" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I12" s="740" t="str">
+      <c r="I12" s="739" t="str">
         <f t="shared" si="2"/>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J12" s="741" t="s">
-        <v>507</v>
-      </c>
-      <c r="K12" s="722"/>
-      <c r="L12" s="722"/>
-      <c r="N12" s="715" t="str">
+      <c r="J12" s="740" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="721"/>
+      <c r="L12" s="721"/>
+      <c r="N12" s="714" t="str">
         <f>A5</f>
         <v>2 000 - 10 000</v>
       </c>
-      <c r="O12" s="715">
+      <c r="O12" s="714">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="P12" s="722">
+      <c r="P12" s="721">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="726" t="e">
+      <c r="Q12" s="725" t="e">
         <f>O12/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="726">
+      <c r="R12" s="725">
         <f>IF(P15&lt;&gt;0,P12/P$15,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="990" t="s">
+      <c r="A13" s="976" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11195,77 +11189,77 @@
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="D13" s="700" t="str">
+      <c r="D13" s="699" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="I13" s="740" t="str">
+      <c r="I13" s="739" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J13" s="741" t="s">
-        <v>504</v>
-      </c>
-      <c r="K13" s="722"/>
-      <c r="L13" s="722"/>
-      <c r="N13" s="715" t="str">
+      <c r="J13" s="740" t="s">
+        <v>503</v>
+      </c>
+      <c r="K13" s="721"/>
+      <c r="L13" s="721"/>
+      <c r="N13" s="714" t="str">
         <f>A6</f>
         <v>10 001 - 100 000</v>
       </c>
-      <c r="O13" s="715">
+      <c r="O13" s="714">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="P13" s="722">
+      <c r="P13" s="721">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="726" t="e">
+      <c r="Q13" s="725" t="e">
         <f>O13/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="726">
+      <c r="R13" s="725">
         <f>IF(P15&lt;&gt;0,P13/P$15,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="991"/>
+      <c r="A14" s="977"/>
       <c r="B14" s="514" t="s">
         <v>350</v>
       </c>
       <c r="C14" s="525" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="701" t="s">
+      <c r="D14" s="700" t="s">
         <v>350</v>
       </c>
-      <c r="I14" s="740" t="str">
+      <c r="I14" s="739" t="str">
         <f t="shared" ref="I14:I17" si="3">$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J14" s="741" t="s">
-        <v>505</v>
-      </c>
-      <c r="K14" s="722"/>
-      <c r="L14" s="722"/>
-      <c r="N14" s="715" t="str">
+      <c r="J14" s="740" t="s">
+        <v>504</v>
+      </c>
+      <c r="K14" s="721"/>
+      <c r="L14" s="721"/>
+      <c r="N14" s="714" t="str">
         <f>A7</f>
         <v>&gt;100 000</v>
       </c>
-      <c r="O14" s="715">
+      <c r="O14" s="714">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P14" s="722">
+      <c r="P14" s="721">
         <f>B7</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="726" t="e">
+      <c r="Q14" s="725" t="e">
         <f>O14/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="726">
+      <c r="R14" s="725">
         <f>IF(P15&lt;&gt;0,P14/P$15,0)</f>
         <v>0</v>
       </c>
@@ -11277,31 +11271,31 @@
       <c r="B15" s="520"/>
       <c r="C15" s="520"/>
       <c r="D15" s="582"/>
-      <c r="I15" s="740" t="str">
+      <c r="I15" s="739" t="str">
         <f t="shared" si="3"/>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J15" s="741" t="s">
-        <v>506</v>
-      </c>
-      <c r="K15" s="722"/>
-      <c r="L15" s="722"/>
-      <c r="N15" s="715" t="s">
+      <c r="J15" s="740" t="s">
+        <v>505</v>
+      </c>
+      <c r="K15" s="721"/>
+      <c r="L15" s="721"/>
+      <c r="N15" s="714" t="s">
         <v>355</v>
       </c>
-      <c r="O15" s="715">
+      <c r="O15" s="714">
         <f>SUM(O12:O14)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="715">
+      <c r="P15" s="714">
         <f>SUM(P12:P14)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="726" t="e">
+      <c r="Q15" s="725" t="e">
         <f>O15/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="726">
+      <c r="R15" s="725">
         <f>IF(P15&lt;&gt;0,P15/P$15,0)</f>
         <v>0</v>
       </c>
@@ -11313,15 +11307,15 @@
       <c r="B16" s="520"/>
       <c r="C16" s="520"/>
       <c r="D16" s="582"/>
-      <c r="I16" s="740" t="str">
+      <c r="I16" s="739" t="str">
         <f t="shared" si="3"/>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J16" s="741" t="s">
-        <v>510</v>
-      </c>
-      <c r="K16" s="722"/>
-      <c r="L16" s="722"/>
+      <c r="J16" s="740" t="s">
+        <v>509</v>
+      </c>
+      <c r="K16" s="721"/>
+      <c r="L16" s="721"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="513" t="s">
@@ -11330,15 +11324,15 @@
       <c r="B17" s="520"/>
       <c r="C17" s="520"/>
       <c r="D17" s="582"/>
-      <c r="I17" s="740" t="str">
+      <c r="I17" s="739" t="str">
         <f t="shared" si="3"/>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J17" s="741" t="s">
-        <v>507</v>
-      </c>
-      <c r="K17" s="722"/>
-      <c r="L17" s="722"/>
+      <c r="J17" s="740" t="s">
+        <v>506</v>
+      </c>
+      <c r="K17" s="721"/>
+      <c r="L17" s="721"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
@@ -11360,34 +11354,34 @@
       <c r="A21" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="980" t="s">
-        <v>508</v>
-      </c>
-      <c r="C21" s="981"/>
-      <c r="D21" s="981"/>
-      <c r="E21" s="981"/>
-      <c r="F21" s="981"/>
-      <c r="G21" s="981"/>
+      <c r="B21" s="991" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="992"/>
+      <c r="D21" s="992"/>
+      <c r="E21" s="992"/>
+      <c r="F21" s="992"/>
+      <c r="G21" s="992"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="982" t="str">
+      <c r="B22" s="980" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="983"/>
-      <c r="D22" s="982" t="str">
+      <c r="C22" s="981"/>
+      <c r="D22" s="980" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="983"/>
-      <c r="F22" s="982" t="str">
+      <c r="E22" s="981"/>
+      <c r="F22" s="980" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="983"/>
+      <c r="G22" s="981"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11409,22 +11403,22 @@
       <c r="G23" s="518" t="s">
         <v>363</v>
       </c>
-      <c r="N23" s="727" t="s">
+      <c r="N23" s="726" t="s">
         <v>364</v>
       </c>
-      <c r="O23" s="727" t="s">
+      <c r="O23" s="726" t="s">
         <v>363</v>
       </c>
-      <c r="Q23" s="727" t="s">
+      <c r="Q23" s="726" t="s">
         <v>364</v>
       </c>
-      <c r="R23" s="727" t="s">
+      <c r="R23" s="726" t="s">
         <v>330</v>
       </c>
-      <c r="T23" s="727" t="s">
+      <c r="T23" s="726" t="s">
         <v>364</v>
       </c>
-      <c r="U23" s="727" t="s">
+      <c r="U23" s="726" t="s">
         <v>330</v>
       </c>
     </row>
@@ -11438,26 +11432,26 @@
       <c r="E24" s="605"/>
       <c r="F24" s="606"/>
       <c r="G24" s="606"/>
-      <c r="N24" s="715" t="str">
+      <c r="N24" s="714" t="str">
         <f t="shared" ref="N24:N29" si="4">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="O24" s="726">
+      <c r="O24" s="725">
         <f t="shared" ref="O24:O29" si="5">C25/100</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="715" t="str">
+      <c r="Q24" s="714" t="str">
         <f t="shared" ref="Q24:R29" si="6">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="R24" s="728">
+      <c r="R24" s="727">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T24" s="715" t="s">
+      <c r="T24" s="714" t="s">
         <v>454</v>
       </c>
-      <c r="U24" s="729">
+      <c r="U24" s="728">
         <f>D24</f>
         <v>0</v>
       </c>
@@ -11472,26 +11466,26 @@
       <c r="E25" s="606"/>
       <c r="F25" s="606"/>
       <c r="G25" s="606"/>
-      <c r="N25" s="715" t="str">
+      <c r="N25" s="714" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="O25" s="726">
+      <c r="O25" s="725">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="715" t="str">
+      <c r="Q25" s="714" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="R25" s="728">
+      <c r="R25" s="727">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T25" s="715" t="s">
+      <c r="T25" s="714" t="s">
         <v>456</v>
       </c>
-      <c r="U25" s="729">
+      <c r="U25" s="728">
         <f>B24</f>
         <v>0</v>
       </c>
@@ -11506,19 +11500,19 @@
       <c r="E26" s="607"/>
       <c r="F26" s="607"/>
       <c r="G26" s="607"/>
-      <c r="N26" s="715" t="str">
+      <c r="N26" s="714" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="O26" s="726">
+      <c r="O26" s="725">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="715" t="str">
+      <c r="Q26" s="714" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="R26" s="728">
+      <c r="R26" s="727">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11533,19 +11527,19 @@
       <c r="E27" s="607"/>
       <c r="F27" s="607"/>
       <c r="G27" s="607"/>
-      <c r="N27" s="715" t="str">
+      <c r="N27" s="714" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="O27" s="726">
+      <c r="O27" s="725">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="715" t="str">
+      <c r="Q27" s="714" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="R27" s="728">
+      <c r="R27" s="727">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11560,19 +11554,19 @@
       <c r="E28" s="607"/>
       <c r="F28" s="607"/>
       <c r="G28" s="607"/>
-      <c r="N28" s="715" t="str">
+      <c r="N28" s="714" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="O28" s="726">
+      <c r="O28" s="725">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="715" t="str">
+      <c r="Q28" s="714" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="R28" s="728">
+      <c r="R28" s="727">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11587,19 +11581,19 @@
       <c r="E29" s="607"/>
       <c r="F29" s="607"/>
       <c r="G29" s="607"/>
-      <c r="N29" s="715" t="str">
+      <c r="N29" s="714" t="str">
         <f t="shared" si="4"/>
         <v>not reported</v>
       </c>
-      <c r="O29" s="726">
+      <c r="O29" s="725">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="715" t="str">
+      <c r="Q29" s="714" t="str">
         <f t="shared" si="6"/>
         <v>not reported</v>
       </c>
-      <c r="R29" s="728">
+      <c r="R29" s="727">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11616,100 +11610,100 @@
       <c r="G30" s="582"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N31" s="715" t="s">
+      <c r="N31" s="714" t="s">
         <v>371</v>
       </c>
-      <c r="O31" s="715" t="s">
+      <c r="O31" s="714" t="s">
         <v>457</v>
       </c>
-      <c r="P31" s="707"/>
-      <c r="Q31" s="707"/>
-      <c r="R31" s="707"/>
-      <c r="S31" s="707"/>
-      <c r="T31" s="707"/>
+      <c r="P31" s="706"/>
+      <c r="Q31" s="706"/>
+      <c r="R31" s="706"/>
+      <c r="S31" s="706"/>
+      <c r="T31" s="706"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N32" s="707"/>
-      <c r="O32" s="715" t="str">
+      <c r="N32" s="706"/>
+      <c r="O32" s="714" t="str">
         <f>N24</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="P32" s="715" t="str">
+      <c r="P32" s="714" t="str">
         <f>N25</f>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="Q32" s="715" t="str">
+      <c r="Q32" s="714" t="str">
         <f>N26</f>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="R32" s="715" t="str">
+      <c r="R32" s="714" t="str">
         <f>N27</f>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="S32" s="715" t="str">
+      <c r="S32" s="714" t="str">
         <f>N28</f>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="T32" s="715" t="str">
+      <c r="T32" s="714" t="str">
         <f>N29</f>
         <v>not reported</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N33" s="715" t="s">
+      <c r="N33" s="714" t="s">
         <v>454</v>
       </c>
-      <c r="O33" s="722">
+      <c r="O33" s="721">
         <f>D25</f>
         <v>0</v>
       </c>
-      <c r="P33" s="722">
+      <c r="P33" s="721">
         <f>D26</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="722">
+      <c r="Q33" s="721">
         <f>D27</f>
         <v>0</v>
       </c>
-      <c r="R33" s="722">
+      <c r="R33" s="721">
         <f>D28</f>
         <v>0</v>
       </c>
-      <c r="S33" s="722">
+      <c r="S33" s="721">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="T33" s="722">
+      <c r="T33" s="721">
         <f>D24-D25-D26-D27-D28-D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N34" s="715" t="str">
+      <c r="N34" s="714" t="str">
         <f>B22</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="O34" s="728">
+      <c r="O34" s="727">
         <f>B25</f>
         <v>0</v>
       </c>
-      <c r="P34" s="728">
+      <c r="P34" s="727">
         <f>B26</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="728">
+      <c r="Q34" s="727">
         <f>B27</f>
         <v>0</v>
       </c>
-      <c r="R34" s="728">
+      <c r="R34" s="727">
         <f>B28</f>
         <v>0</v>
       </c>
-      <c r="S34" s="722">
+      <c r="S34" s="721">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="T34" s="728">
+      <c r="T34" s="727">
         <f>B24-B25-B26-B27-B28-B29</f>
         <v>0</v>
       </c>
@@ -11733,30 +11727,30 @@
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="N35" s="726">
+      <c r="N35" s="725">
         <v>20.12</v>
       </c>
-      <c r="O35" s="726" t="e">
+      <c r="O35" s="725" t="e">
         <f t="shared" ref="O35:T36" si="7">O33/SUM($O33:$T33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P35" s="726" t="e">
+      <c r="P35" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q35" s="726" t="e">
+      <c r="Q35" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="726" t="e">
+      <c r="R35" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="726" t="e">
+      <c r="S35" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="726" t="e">
+      <c r="T35" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -11771,30 +11765,30 @@
       <c r="C36" s="585"/>
       <c r="D36" s="585"/>
       <c r="E36" s="585"/>
-      <c r="N36" s="726">
+      <c r="N36" s="725">
         <v>20.14</v>
       </c>
-      <c r="O36" s="726" t="e">
+      <c r="O36" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P36" s="726" t="e">
+      <c r="P36" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q36" s="726" t="e">
+      <c r="Q36" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="726" t="e">
+      <c r="R36" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S36" s="726" t="e">
+      <c r="S36" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="726" t="e">
+      <c r="T36" s="725" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -11814,38 +11808,38 @@
       <c r="A41" s="519" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="988" t="str">
+      <c r="B41" s="970" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="989"/>
-      <c r="D41" s="976" t="str">
+      <c r="C41" s="971"/>
+      <c r="D41" s="972" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="977"/>
-      <c r="F41" s="976" t="str">
+      <c r="E41" s="973"/>
+      <c r="F41" s="972" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="977"/>
-      <c r="N41" s="707"/>
-      <c r="O41" s="734" t="s">
+      <c r="G41" s="973"/>
+      <c r="N41" s="706"/>
+      <c r="O41" s="733" t="s">
         <v>458</v>
       </c>
-      <c r="P41" s="734" t="s">
+      <c r="P41" s="733" t="s">
         <v>461</v>
       </c>
-      <c r="Q41" s="715" t="s">
+      <c r="Q41" s="714" t="s">
         <v>459</v>
       </c>
-      <c r="R41" s="715" t="s">
+      <c r="R41" s="714" t="s">
         <v>462</v>
       </c>
-      <c r="S41" s="715" t="s">
+      <c r="S41" s="714" t="s">
         <v>460</v>
       </c>
-      <c r="T41" s="715" t="s">
+      <c r="T41" s="714" t="s">
         <v>463</v>
       </c>
     </row>
@@ -11869,30 +11863,30 @@
       <c r="G42" s="519" t="s">
         <v>346</v>
       </c>
-      <c r="N42" s="733" t="s">
+      <c r="N42" s="732" t="s">
         <v>374</v>
       </c>
-      <c r="O42" s="722">
+      <c r="O42" s="721">
         <f>C43</f>
         <v>0</v>
       </c>
-      <c r="P42" s="722">
+      <c r="P42" s="721">
         <f>E43</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="722">
+      <c r="Q42" s="721">
         <f>C46</f>
         <v>0</v>
       </c>
-      <c r="R42" s="722">
+      <c r="R42" s="721">
         <f>E46</f>
         <v>0</v>
       </c>
-      <c r="S42" s="722">
+      <c r="S42" s="721">
         <f>C49</f>
         <v>0</v>
       </c>
-      <c r="T42" s="722">
+      <c r="T42" s="721">
         <f>E49</f>
         <v>0</v>
       </c>
@@ -11907,30 +11901,30 @@
       <c r="E43" s="520"/>
       <c r="F43" s="582"/>
       <c r="G43" s="582"/>
-      <c r="N43" s="715" t="s">
+      <c r="N43" s="714" t="s">
         <v>376</v>
       </c>
-      <c r="O43" s="722">
+      <c r="O43" s="721">
         <f>B44</f>
         <v>0</v>
       </c>
-      <c r="P43" s="722">
+      <c r="P43" s="721">
         <f>E44</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="722">
+      <c r="Q43" s="721">
         <f>C47</f>
         <v>0</v>
       </c>
-      <c r="R43" s="722">
+      <c r="R43" s="721">
         <f>E47</f>
         <v>0</v>
       </c>
-      <c r="S43" s="722">
+      <c r="S43" s="721">
         <f>C50</f>
         <v>0</v>
       </c>
-      <c r="T43" s="722">
+      <c r="T43" s="721">
         <f>E50</f>
         <v>0</v>
       </c>
@@ -12024,8 +12018,8 @@
       <c r="G51" s="582"/>
     </row>
     <row r="53" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="730" t="s">
-        <v>503</v>
+      <c r="A53" s="729" t="s">
+        <v>502</v>
       </c>
       <c r="B53" s="526" t="s">
         <v>374</v>
@@ -12033,173 +12027,173 @@
       <c r="C53" s="526" t="s">
         <v>376</v>
       </c>
-      <c r="D53" s="712" t="s">
+      <c r="D53" s="711" t="s">
         <v>385</v>
       </c>
-      <c r="E53" s="712" t="s">
+      <c r="E53" s="711" t="s">
+        <v>512</v>
+      </c>
+      <c r="F53" s="711" t="s">
         <v>513</v>
       </c>
-      <c r="F53" s="712" t="s">
-        <v>514</v>
-      </c>
-      <c r="H53" s="968" t="s">
-        <v>501</v>
-      </c>
-      <c r="I53" s="968"/>
-      <c r="J53" s="968"/>
+      <c r="H53" s="993" t="s">
+        <v>500</v>
+      </c>
+      <c r="I53" s="993"/>
+      <c r="J53" s="993"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="703" t="s">
-        <v>498</v>
+      <c r="A54" s="702" t="s">
+        <v>497</v>
       </c>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
-      <c r="D54" s="713"/>
-      <c r="E54" s="713"/>
-      <c r="F54" s="713">
+      <c r="D54" s="712"/>
+      <c r="E54" s="712"/>
+      <c r="F54" s="712">
         <f>D54-E54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="703" t="s">
-        <v>490</v>
+      <c r="A55" s="702" t="s">
+        <v>489</v>
       </c>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
-      <c r="D55" s="713"/>
-      <c r="E55" s="713"/>
-      <c r="F55" s="713">
+      <c r="D55" s="712"/>
+      <c r="E55" s="712"/>
+      <c r="F55" s="712">
         <f t="shared" ref="F55:F62" si="8">D55-E55</f>
         <v>0</v>
       </c>
-      <c r="H55" s="710"/>
-      <c r="I55" s="710"/>
-      <c r="J55" s="710"/>
-      <c r="L55" s="710"/>
+      <c r="H55" s="709"/>
+      <c r="I55" s="709"/>
+      <c r="J55" s="709"/>
+      <c r="L55" s="709"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="703" t="s">
-        <v>493</v>
+      <c r="A56" s="702" t="s">
+        <v>492</v>
       </c>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
-      <c r="D56" s="713"/>
-      <c r="E56" s="713"/>
-      <c r="F56" s="713">
+      <c r="D56" s="712"/>
+      <c r="E56" s="712"/>
+      <c r="F56" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H56" s="710"/>
-      <c r="I56" s="710"/>
-      <c r="J56" s="710"/>
-      <c r="L56" s="710"/>
+      <c r="H56" s="709"/>
+      <c r="I56" s="709"/>
+      <c r="J56" s="709"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="703" t="s">
-        <v>499</v>
+      <c r="A57" s="702" t="s">
+        <v>498</v>
       </c>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
-      <c r="D57" s="713"/>
-      <c r="E57" s="713"/>
-      <c r="F57" s="713">
+      <c r="D57" s="712"/>
+      <c r="E57" s="712"/>
+      <c r="F57" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H57" s="710"/>
-      <c r="I57" s="710"/>
-      <c r="J57" s="710"/>
-      <c r="L57" s="710"/>
+      <c r="H57" s="709"/>
+      <c r="I57" s="709"/>
+      <c r="J57" s="709"/>
+      <c r="L57" s="709"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="703" t="s">
-        <v>491</v>
+      <c r="A58" s="702" t="s">
+        <v>490</v>
       </c>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
-      <c r="D58" s="713"/>
-      <c r="E58" s="713"/>
-      <c r="F58" s="713">
+      <c r="D58" s="712"/>
+      <c r="E58" s="712"/>
+      <c r="F58" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H58" s="710"/>
-      <c r="I58" s="710"/>
-      <c r="J58" s="710"/>
-      <c r="L58" s="710"/>
+      <c r="H58" s="709"/>
+      <c r="I58" s="709"/>
+      <c r="J58" s="709"/>
+      <c r="L58" s="709"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="703" t="s">
-        <v>494</v>
+      <c r="A59" s="702" t="s">
+        <v>493</v>
       </c>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
-      <c r="D59" s="713"/>
-      <c r="E59" s="713"/>
-      <c r="F59" s="713">
+      <c r="D59" s="712"/>
+      <c r="E59" s="712"/>
+      <c r="F59" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H59" s="710"/>
-      <c r="I59" s="710"/>
-      <c r="J59" s="710"/>
-      <c r="L59" s="710"/>
+      <c r="H59" s="709"/>
+      <c r="I59" s="709"/>
+      <c r="J59" s="709"/>
+      <c r="L59" s="709"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="703" t="s">
-        <v>500</v>
+      <c r="A60" s="702" t="s">
+        <v>499</v>
       </c>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
-      <c r="D60" s="713"/>
-      <c r="E60" s="713"/>
-      <c r="F60" s="713">
+      <c r="D60" s="712"/>
+      <c r="E60" s="712"/>
+      <c r="F60" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H60" s="710"/>
-      <c r="I60" s="710"/>
-      <c r="J60" s="710"/>
-      <c r="L60" s="710"/>
+      <c r="H60" s="709"/>
+      <c r="I60" s="709"/>
+      <c r="J60" s="709"/>
+      <c r="L60" s="709"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="703" t="s">
-        <v>492</v>
+      <c r="A61" s="702" t="s">
+        <v>491</v>
       </c>
       <c r="B61" s="582"/>
       <c r="C61" s="582"/>
-      <c r="D61" s="713"/>
-      <c r="E61" s="713"/>
-      <c r="F61" s="713">
+      <c r="D61" s="712"/>
+      <c r="E61" s="712"/>
+      <c r="F61" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H61" s="710"/>
-      <c r="I61" s="710"/>
-      <c r="J61" s="710"/>
-      <c r="L61" s="710"/>
+      <c r="H61" s="709"/>
+      <c r="I61" s="709"/>
+      <c r="J61" s="709"/>
+      <c r="L61" s="709"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="703" t="s">
-        <v>495</v>
+      <c r="A62" s="702" t="s">
+        <v>494</v>
       </c>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
-      <c r="D62" s="713"/>
-      <c r="E62" s="713"/>
-      <c r="F62" s="713">
+      <c r="D62" s="712"/>
+      <c r="E62" s="712"/>
+      <c r="F62" s="712">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H62" s="710"/>
-      <c r="I62" s="710"/>
-      <c r="J62" s="710"/>
-      <c r="L62" s="710"/>
+      <c r="H62" s="709"/>
+      <c r="I62" s="709"/>
+      <c r="J62" s="709"/>
+      <c r="L62" s="709"/>
     </row>
     <row r="63" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="731" t="s">
-        <v>502</v>
+      <c r="A63" s="730" t="s">
+        <v>501</v>
       </c>
       <c r="B63" s="527" t="s">
         <v>374</v>
@@ -12207,216 +12201,216 @@
       <c r="C63" s="527" t="s">
         <v>376</v>
       </c>
-      <c r="D63" s="712" t="s">
+      <c r="D63" s="711" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="712" t="s">
+      <c r="E63" s="711" t="s">
+        <v>512</v>
+      </c>
+      <c r="F63" s="711" t="s">
         <v>513</v>
       </c>
-      <c r="F63" s="712" t="s">
+      <c r="H63" s="993" t="s">
         <v>514</v>
       </c>
-      <c r="H63" s="968" t="s">
-        <v>515</v>
-      </c>
-      <c r="I63" s="968"/>
-      <c r="J63" s="968"/>
-      <c r="L63" s="710"/>
+      <c r="I63" s="993"/>
+      <c r="J63" s="993"/>
+      <c r="L63" s="709"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="703" t="s">
-        <v>498</v>
+      <c r="A64" s="702" t="s">
+        <v>497</v>
       </c>
       <c r="B64" s="581"/>
       <c r="C64" s="581"/>
-      <c r="D64" s="713"/>
-      <c r="E64" s="713"/>
-      <c r="F64" s="713">
+      <c r="D64" s="712"/>
+      <c r="E64" s="712"/>
+      <c r="F64" s="712">
         <f>D64-E64</f>
         <v>0</v>
       </c>
-      <c r="G64" s="710"/>
-      <c r="H64" s="710"/>
-      <c r="I64" s="710"/>
-      <c r="J64" s="710"/>
-      <c r="K64" s="710"/>
-      <c r="L64" s="710"/>
+      <c r="G64" s="709"/>
+      <c r="H64" s="709"/>
+      <c r="I64" s="709"/>
+      <c r="J64" s="709"/>
+      <c r="K64" s="709"/>
+      <c r="L64" s="709"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="703" t="s">
-        <v>490</v>
+      <c r="A65" s="702" t="s">
+        <v>489</v>
       </c>
       <c r="B65" s="582"/>
       <c r="C65" s="582"/>
-      <c r="D65" s="713"/>
-      <c r="E65" s="713"/>
-      <c r="F65" s="713">
+      <c r="D65" s="712"/>
+      <c r="E65" s="712"/>
+      <c r="F65" s="712">
         <f t="shared" ref="F65:F72" si="9">D65-E65</f>
         <v>0</v>
       </c>
-      <c r="G65" s="710"/>
-      <c r="H65" s="710"/>
-      <c r="I65" s="710"/>
-      <c r="J65" s="710"/>
-      <c r="K65" s="710"/>
-      <c r="L65" s="710"/>
+      <c r="G65" s="709"/>
+      <c r="H65" s="709"/>
+      <c r="I65" s="709"/>
+      <c r="J65" s="709"/>
+      <c r="K65" s="709"/>
+      <c r="L65" s="709"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="703" t="s">
-        <v>493</v>
+      <c r="A66" s="702" t="s">
+        <v>492</v>
       </c>
       <c r="B66" s="582"/>
       <c r="C66" s="582"/>
-      <c r="D66" s="713"/>
-      <c r="E66" s="713"/>
-      <c r="F66" s="713">
+      <c r="D66" s="712"/>
+      <c r="E66" s="712"/>
+      <c r="F66" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G66" s="710"/>
-      <c r="H66" s="710"/>
-      <c r="I66" s="710"/>
-      <c r="J66" s="710"/>
-      <c r="K66" s="710"/>
-      <c r="L66" s="710"/>
+      <c r="G66" s="709"/>
+      <c r="H66" s="709"/>
+      <c r="I66" s="709"/>
+      <c r="J66" s="709"/>
+      <c r="K66" s="709"/>
+      <c r="L66" s="709"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="703" t="s">
-        <v>499</v>
+      <c r="A67" s="702" t="s">
+        <v>498</v>
       </c>
       <c r="B67" s="582"/>
       <c r="C67" s="582"/>
-      <c r="D67" s="713"/>
-      <c r="E67" s="713"/>
-      <c r="F67" s="713">
+      <c r="D67" s="712"/>
+      <c r="E67" s="712"/>
+      <c r="F67" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G67" s="710"/>
-      <c r="H67" s="710"/>
-      <c r="I67" s="710"/>
-      <c r="J67" s="710"/>
-      <c r="K67" s="710"/>
-      <c r="L67" s="710"/>
+      <c r="G67" s="709"/>
+      <c r="H67" s="709"/>
+      <c r="I67" s="709"/>
+      <c r="J67" s="709"/>
+      <c r="K67" s="709"/>
+      <c r="L67" s="709"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="703" t="s">
-        <v>491</v>
+      <c r="A68" s="702" t="s">
+        <v>490</v>
       </c>
       <c r="B68" s="582"/>
       <c r="C68" s="582"/>
-      <c r="D68" s="713"/>
-      <c r="E68" s="713"/>
-      <c r="F68" s="713">
+      <c r="D68" s="712"/>
+      <c r="E68" s="712"/>
+      <c r="F68" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G68" s="710"/>
-      <c r="H68" s="710"/>
-      <c r="I68" s="710"/>
-      <c r="J68" s="710"/>
-      <c r="K68" s="710"/>
-      <c r="L68" s="710"/>
+      <c r="G68" s="709"/>
+      <c r="H68" s="709"/>
+      <c r="I68" s="709"/>
+      <c r="J68" s="709"/>
+      <c r="K68" s="709"/>
+      <c r="L68" s="709"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="703" t="s">
-        <v>494</v>
+      <c r="A69" s="702" t="s">
+        <v>493</v>
       </c>
       <c r="B69" s="582"/>
       <c r="C69" s="582"/>
-      <c r="D69" s="713"/>
-      <c r="E69" s="713"/>
-      <c r="F69" s="713">
+      <c r="D69" s="712"/>
+      <c r="E69" s="712"/>
+      <c r="F69" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G69" s="710"/>
-      <c r="H69" s="710"/>
-      <c r="I69" s="710"/>
-      <c r="J69" s="710"/>
-      <c r="K69" s="710"/>
-      <c r="L69" s="710"/>
+      <c r="G69" s="709"/>
+      <c r="H69" s="709"/>
+      <c r="I69" s="709"/>
+      <c r="J69" s="709"/>
+      <c r="K69" s="709"/>
+      <c r="L69" s="709"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="703" t="s">
-        <v>500</v>
+      <c r="A70" s="702" t="s">
+        <v>499</v>
       </c>
       <c r="B70" s="582"/>
       <c r="C70" s="582"/>
-      <c r="D70" s="713"/>
-      <c r="E70" s="713"/>
-      <c r="F70" s="713">
+      <c r="D70" s="712"/>
+      <c r="E70" s="712"/>
+      <c r="F70" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G70" s="710"/>
-      <c r="H70" s="710"/>
-      <c r="I70" s="710"/>
-      <c r="J70" s="710"/>
-      <c r="K70" s="710"/>
-      <c r="L70" s="710"/>
+      <c r="G70" s="709"/>
+      <c r="H70" s="709"/>
+      <c r="I70" s="709"/>
+      <c r="J70" s="709"/>
+      <c r="K70" s="709"/>
+      <c r="L70" s="709"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="704" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" s="705"/>
-      <c r="C71" s="705"/>
-      <c r="D71" s="714"/>
-      <c r="E71" s="714"/>
-      <c r="F71" s="713">
+      <c r="A71" s="703" t="s">
+        <v>491</v>
+      </c>
+      <c r="B71" s="704"/>
+      <c r="C71" s="704"/>
+      <c r="D71" s="713"/>
+      <c r="E71" s="713"/>
+      <c r="F71" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G71" s="710"/>
-      <c r="H71" s="710"/>
-      <c r="I71" s="710"/>
-      <c r="J71" s="710"/>
-      <c r="K71" s="710"/>
-      <c r="L71" s="710"/>
+      <c r="G71" s="709"/>
+      <c r="H71" s="709"/>
+      <c r="I71" s="709"/>
+      <c r="J71" s="709"/>
+      <c r="K71" s="709"/>
+      <c r="L71" s="709"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="706" t="s">
-        <v>495</v>
-      </c>
-      <c r="B72" s="707"/>
-      <c r="C72" s="707"/>
-      <c r="D72" s="707"/>
-      <c r="E72" s="707"/>
-      <c r="F72" s="713">
+      <c r="A72" s="705" t="s">
+        <v>494</v>
+      </c>
+      <c r="B72" s="706"/>
+      <c r="C72" s="706"/>
+      <c r="D72" s="706"/>
+      <c r="E72" s="706"/>
+      <c r="F72" s="712">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G72" s="711"/>
-      <c r="H72" s="711"/>
-      <c r="I72" s="710"/>
-      <c r="J72" s="710"/>
-      <c r="K72" s="710"/>
-      <c r="L72" s="710"/>
+      <c r="G72" s="710"/>
+      <c r="H72" s="710"/>
+      <c r="I72" s="709"/>
+      <c r="J72" s="709"/>
+      <c r="K72" s="709"/>
+      <c r="L72" s="709"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="502" t="s">
         <v>386</v>
       </c>
-      <c r="I73" s="710"/>
-      <c r="J73" s="710"/>
-      <c r="K73" s="710"/>
-      <c r="L73" s="710"/>
+      <c r="I73" s="709"/>
+      <c r="J73" s="709"/>
+      <c r="K73" s="709"/>
+      <c r="L73" s="709"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="623" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="987" t="s">
+      <c r="B74" s="969" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="987"/>
-      <c r="D74" s="987"/>
-      <c r="E74" s="987"/>
-      <c r="I74" s="711"/>
-      <c r="J74" s="711"/>
-      <c r="K74" s="711"/>
-      <c r="L74" s="711"/>
+      <c r="C74" s="969"/>
+      <c r="D74" s="969"/>
+      <c r="E74" s="969"/>
+      <c r="I74" s="710"/>
+      <c r="J74" s="710"/>
+      <c r="K74" s="710"/>
+      <c r="L74" s="710"/>
     </row>
     <row r="75" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="530" t="s">
@@ -12438,8 +12432,8 @@
         <v>388</v>
       </c>
       <c r="I75" s="529"/>
-      <c r="J75" s="735"/>
-      <c r="K75" s="735"/>
+      <c r="J75" s="734"/>
+      <c r="K75" s="734"/>
     </row>
     <row r="76" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="507" t="s">
@@ -12473,8 +12467,8 @@
       <c r="I76" s="622" t="s">
         <v>247</v>
       </c>
-      <c r="J76" s="736"/>
-      <c r="K76" s="736"/>
+      <c r="J76" s="735"/>
+      <c r="K76" s="735"/>
     </row>
     <row r="77" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="617" t="s">
@@ -12488,27 +12482,27 @@
       <c r="G77" s="596"/>
       <c r="H77" s="561"/>
       <c r="I77" s="600"/>
-      <c r="J77" s="737"/>
-      <c r="K77" s="737"/>
-      <c r="N77" s="720" t="s">
+      <c r="J77" s="736"/>
+      <c r="K77" s="736"/>
+      <c r="N77" s="719" t="s">
         <v>389</v>
       </c>
-      <c r="O77" s="720" t="str">
+      <c r="O77" s="719" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="P77" s="721" t="str">
+      <c r="P77" s="720" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="Q77" s="721" t="s">
+      <c r="Q77" s="720" t="s">
         <v>389</v>
       </c>
-      <c r="R77" s="739" t="str">
+      <c r="R77" s="738" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="S77" s="721" t="str">
+      <c r="S77" s="720" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -12525,27 +12519,27 @@
       <c r="G78" s="597"/>
       <c r="H78" s="563"/>
       <c r="I78" s="601"/>
-      <c r="J78" s="737"/>
-      <c r="K78" s="737"/>
-      <c r="N78" s="715" t="s">
+      <c r="J78" s="736"/>
+      <c r="K78" s="736"/>
+      <c r="N78" s="714" t="s">
         <v>390</v>
       </c>
-      <c r="O78" s="722">
+      <c r="O78" s="721">
         <f t="shared" ref="O78:O83" si="10">H77</f>
         <v>0</v>
       </c>
-      <c r="P78" s="715">
+      <c r="P78" s="714">
         <f t="shared" ref="P78:P83" si="11">D77</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="715" t="s">
+      <c r="Q78" s="714" t="s">
         <v>283</v>
       </c>
-      <c r="R78" s="722">
+      <c r="R78" s="721">
         <f t="shared" ref="R78:R83" si="12">F77</f>
         <v>0</v>
       </c>
-      <c r="S78" s="715">
+      <c r="S78" s="714">
         <f t="shared" ref="S78:S83" si="13">B77</f>
         <v>0</v>
       </c>
@@ -12562,27 +12556,27 @@
       <c r="G79" s="597"/>
       <c r="H79" s="563"/>
       <c r="I79" s="601"/>
-      <c r="J79" s="737"/>
-      <c r="K79" s="737"/>
-      <c r="N79" s="723" t="s">
+      <c r="J79" s="736"/>
+      <c r="K79" s="736"/>
+      <c r="N79" s="722" t="s">
         <v>280</v>
       </c>
-      <c r="O79" s="722">
+      <c r="O79" s="721">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P79" s="715">
+      <c r="P79" s="714">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="723" t="s">
+      <c r="Q79" s="722" t="s">
         <v>280</v>
       </c>
-      <c r="R79" s="722">
+      <c r="R79" s="721">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S79" s="715">
+      <c r="S79" s="714">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12599,27 +12593,27 @@
       <c r="G80" s="597"/>
       <c r="H80" s="563"/>
       <c r="I80" s="601"/>
-      <c r="J80" s="737"/>
-      <c r="K80" s="737"/>
-      <c r="N80" s="723" t="s">
+      <c r="J80" s="736"/>
+      <c r="K80" s="736"/>
+      <c r="N80" s="722" t="s">
         <v>391</v>
       </c>
-      <c r="O80" s="722">
+      <c r="O80" s="721">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P80" s="715">
+      <c r="P80" s="714">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="723" t="s">
+      <c r="Q80" s="722" t="s">
         <v>391</v>
       </c>
-      <c r="R80" s="722">
+      <c r="R80" s="721">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S80" s="715">
+      <c r="S80" s="714">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12636,27 +12630,27 @@
       <c r="G81" s="598"/>
       <c r="H81" s="565"/>
       <c r="I81" s="602"/>
-      <c r="J81" s="738"/>
-      <c r="K81" s="738"/>
-      <c r="N81" s="723" t="s">
+      <c r="J81" s="737"/>
+      <c r="K81" s="737"/>
+      <c r="N81" s="722" t="s">
         <v>393</v>
       </c>
-      <c r="O81" s="722">
+      <c r="O81" s="721">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P81" s="715">
+      <c r="P81" s="714">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="723" t="s">
+      <c r="Q81" s="722" t="s">
         <v>392</v>
       </c>
-      <c r="R81" s="722">
+      <c r="R81" s="721">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S81" s="715">
+      <c r="S81" s="714">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12673,51 +12667,51 @@
       <c r="G82" s="599"/>
       <c r="H82" s="567"/>
       <c r="I82" s="603"/>
-      <c r="J82" s="738"/>
-      <c r="K82" s="738"/>
-      <c r="N82" s="723" t="s">
+      <c r="J82" s="737"/>
+      <c r="K82" s="737"/>
+      <c r="N82" s="722" t="s">
         <v>394</v>
       </c>
-      <c r="O82" s="722">
+      <c r="O82" s="721">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P82" s="715">
+      <c r="P82" s="714">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="723" t="s">
+      <c r="Q82" s="722" t="s">
         <v>394</v>
       </c>
-      <c r="R82" s="722">
+      <c r="R82" s="721">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S82" s="715">
+      <c r="S82" s="714">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N83" s="723" t="s">
+      <c r="N83" s="722" t="s">
         <v>396</v>
       </c>
-      <c r="O83" s="722">
+      <c r="O83" s="721">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P83" s="715">
+      <c r="P83" s="714">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="723" t="s">
+      <c r="Q83" s="722" t="s">
         <v>395</v>
       </c>
-      <c r="R83" s="722">
+      <c r="R83" s="721">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S83" s="715">
+      <c r="S83" s="714">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12728,21 +12722,21 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="973" t="str">
+      <c r="B85" s="984" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="974"/>
-      <c r="D85" s="973" t="str">
+      <c r="C85" s="985"/>
+      <c r="D85" s="984" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="974"/>
-      <c r="F85" s="973" t="str">
+      <c r="E85" s="985"/>
+      <c r="F85" s="984" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="974"/>
+      <c r="G85" s="985"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
@@ -12758,18 +12752,18 @@
         <v>279</v>
       </c>
       <c r="G86" s="930"/>
-      <c r="N86" s="715" t="s">
+      <c r="N86" s="714" t="s">
         <v>398</v>
       </c>
-      <c r="O86" s="739" t="str">
+      <c r="O86" s="738" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P86" s="739" t="str">
+      <c r="P86" s="738" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q86" s="716" t="str">
+      <c r="Q86" s="715" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -12796,18 +12790,18 @@
       <c r="G87" s="506" t="s">
         <v>70</v>
       </c>
-      <c r="N87" s="717" t="s">
+      <c r="N87" s="716" t="s">
         <v>399</v>
       </c>
-      <c r="O87" s="715">
+      <c r="O87" s="714">
         <f t="shared" ref="O87:P94" si="14">C88</f>
         <v>0</v>
       </c>
-      <c r="P87" s="715">
+      <c r="P87" s="714">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="Q87" s="715">
+      <c r="Q87" s="714">
         <f t="shared" ref="Q87:Q94" si="15">B88</f>
         <v>100</v>
       </c>
@@ -12828,18 +12822,18 @@
         <v>100</v>
       </c>
       <c r="G88" s="568"/>
-      <c r="N88" s="718" t="s">
+      <c r="N88" s="717" t="s">
         <v>400</v>
       </c>
-      <c r="O88" s="715">
+      <c r="O88" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P88" s="715">
+      <c r="P88" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="715">
+      <c r="Q88" s="714">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12854,18 +12848,18 @@
       <c r="E89" s="520"/>
       <c r="F89" s="590"/>
       <c r="G89" s="582"/>
-      <c r="N89" s="717" t="s">
+      <c r="N89" s="716" t="s">
         <v>401</v>
       </c>
-      <c r="O89" s="715">
+      <c r="O89" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P89" s="715">
+      <c r="P89" s="714">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="Q89" s="715">
+      <c r="Q89" s="714">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -12886,18 +12880,18 @@
         <v>100</v>
       </c>
       <c r="G90" s="568"/>
-      <c r="N90" s="718" t="s">
+      <c r="N90" s="717" t="s">
         <v>402</v>
       </c>
-      <c r="O90" s="715">
+      <c r="O90" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P90" s="715">
+      <c r="P90" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="715">
+      <c r="Q90" s="714">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12912,18 +12906,18 @@
       <c r="E91" s="520"/>
       <c r="F91" s="591"/>
       <c r="G91" s="582"/>
-      <c r="N91" s="718" t="s">
+      <c r="N91" s="717" t="s">
         <v>403</v>
       </c>
-      <c r="O91" s="715">
+      <c r="O91" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P91" s="715">
+      <c r="P91" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="715">
+      <c r="Q91" s="714">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12938,18 +12932,18 @@
       <c r="E92" s="520"/>
       <c r="F92" s="591"/>
       <c r="G92" s="582"/>
-      <c r="N92" s="719" t="s">
+      <c r="N92" s="718" t="s">
         <v>404</v>
       </c>
-      <c r="O92" s="715">
+      <c r="O92" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P92" s="715">
+      <c r="P92" s="714">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="Q92" s="715">
+      <c r="Q92" s="714">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -12970,18 +12964,18 @@
         <v>100</v>
       </c>
       <c r="G93" s="568"/>
-      <c r="N93" s="718" t="s">
+      <c r="N93" s="717" t="s">
         <v>405</v>
       </c>
-      <c r="O93" s="715">
+      <c r="O93" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P93" s="715">
+      <c r="P93" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="715">
+      <c r="Q93" s="714">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12996,18 +12990,18 @@
       <c r="E94" s="520"/>
       <c r="F94" s="591"/>
       <c r="G94" s="582"/>
-      <c r="N94" s="718" t="s">
+      <c r="N94" s="717" t="s">
         <v>406</v>
       </c>
-      <c r="O94" s="715">
+      <c r="O94" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P94" s="715">
+      <c r="P94" s="714">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="715">
+      <c r="Q94" s="714">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13038,21 +13032,21 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="973" t="str">
+      <c r="B101" s="984" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="974"/>
-      <c r="D101" s="973" t="str">
+      <c r="C101" s="985"/>
+      <c r="D101" s="984" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="974"/>
-      <c r="F101" s="973" t="str">
+      <c r="E101" s="985"/>
+      <c r="F101" s="984" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="974"/>
+      <c r="G101" s="985"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
@@ -13091,18 +13085,18 @@
       <c r="G103" s="506" t="s">
         <v>70</v>
       </c>
-      <c r="N103" s="715" t="s">
+      <c r="N103" s="714" t="s">
         <v>398</v>
       </c>
-      <c r="O103" s="739" t="str">
+      <c r="O103" s="738" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P103" s="739" t="str">
+      <c r="P103" s="738" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q103" s="739" t="str">
+      <c r="Q103" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -13126,7 +13120,7 @@
       <c r="N104" s="537" t="s">
         <v>399</v>
       </c>
-      <c r="O104" s="709">
+      <c r="O104" s="708">
         <f t="shared" ref="O104:P111" si="16">C104</f>
         <v>0</v>
       </c>
@@ -13152,7 +13146,7 @@
       <c r="N105" s="538" t="s">
         <v>400</v>
       </c>
-      <c r="O105" s="709">
+      <c r="O105" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13184,7 +13178,7 @@
       <c r="N106" s="537" t="s">
         <v>401</v>
       </c>
-      <c r="O106" s="709">
+      <c r="O106" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13210,7 +13204,7 @@
       <c r="N107" s="538" t="s">
         <v>402</v>
       </c>
-      <c r="O107" s="709">
+      <c r="O107" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13236,7 +13230,7 @@
       <c r="N108" s="538" t="s">
         <v>403</v>
       </c>
-      <c r="O108" s="709">
+      <c r="O108" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13268,7 +13262,7 @@
       <c r="N109" s="539" t="s">
         <v>404</v>
       </c>
-      <c r="O109" s="709">
+      <c r="O109" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13294,7 +13288,7 @@
       <c r="N110" s="538" t="s">
         <v>405</v>
       </c>
-      <c r="O110" s="709">
+      <c r="O110" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13320,7 +13314,7 @@
       <c r="N111" s="538" t="s">
         <v>406</v>
       </c>
-      <c r="O111" s="709">
+      <c r="O111" s="708">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13348,36 +13342,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="969" t="str">
+      <c r="B116" s="986" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="970"/>
-      <c r="D116" s="969" t="str">
+      <c r="C116" s="987"/>
+      <c r="D116" s="986" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="970"/>
-      <c r="F116" s="969" t="str">
+      <c r="E116" s="987"/>
+      <c r="F116" s="986" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="970"/>
+      <c r="G116" s="987"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="971" t="s">
+      <c r="B117" s="988" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="972"/>
-      <c r="D117" s="971" t="s">
+      <c r="C117" s="989"/>
+      <c r="D117" s="988" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="972"/>
-      <c r="F117" s="971" t="s">
+      <c r="E117" s="989"/>
+      <c r="F117" s="988" t="s">
         <v>279</v>
       </c>
-      <c r="G117" s="972"/>
+      <c r="G117" s="989"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13404,18 +13398,18 @@
       <c r="I118" s="569"/>
       <c r="J118" s="569"/>
       <c r="K118" s="569"/>
-      <c r="N118" s="715" t="s">
+      <c r="N118" s="714" t="s">
         <v>398</v>
       </c>
-      <c r="O118" s="739" t="str">
+      <c r="O118" s="738" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P118" s="739" t="str">
+      <c r="P118" s="738" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q118" s="739" t="str">
+      <c r="Q118" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -13442,7 +13436,7 @@
       <c r="N119" s="537" t="s">
         <v>399</v>
       </c>
-      <c r="O119" s="709">
+      <c r="O119" s="708">
         <f t="shared" ref="O119:P126" si="18">D119</f>
         <v>100</v>
       </c>
@@ -13471,7 +13465,7 @@
       <c r="N120" s="538" t="s">
         <v>400</v>
       </c>
-      <c r="O120" s="709">
+      <c r="O120" s="708">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -13506,7 +13500,7 @@
       <c r="N121" s="537" t="s">
         <v>401</v>
       </c>
-      <c r="O121" s="709">
+      <c r="O121" s="708">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
@@ -13535,7 +13529,7 @@
       <c r="N122" s="538" t="s">
         <v>402</v>
       </c>
-      <c r="O122" s="709">
+      <c r="O122" s="708">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -13680,24 +13674,24 @@
       <c r="A129" s="546" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="984" t="str">
+      <c r="B129" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="985"/>
-      <c r="D129" s="985"/>
-      <c r="N129" s="715" t="s">
+      <c r="C129" s="983"/>
+      <c r="D129" s="983"/>
+      <c r="N129" s="714" t="s">
         <v>398</v>
       </c>
-      <c r="O129" s="739" t="str">
+      <c r="O129" s="738" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P129" s="739" t="str">
+      <c r="P129" s="738" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q129" s="739" t="str">
+      <c r="Q129" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -13713,21 +13707,21 @@
       <c r="D130" s="549" t="s">
         <v>409</v>
       </c>
-      <c r="N130" s="715" t="str">
+      <c r="N130" s="714" t="str">
         <f>CONCATENATE("Collection 
 ", B3, " : target ", TEXT(Q119,"# ##0"), " p.e.")</f>
         <v>Collection 
 [#current_year#]  : target 0 p.e.</v>
       </c>
-      <c r="O130" s="722">
+      <c r="O130" s="721">
         <f>D120</f>
         <v>0</v>
       </c>
-      <c r="P130" s="722">
+      <c r="P130" s="721">
         <f>E120</f>
         <v>0</v>
       </c>
-      <c r="Q130" s="722">
+      <c r="Q130" s="721">
         <f>C120</f>
         <v>0</v>
       </c>
@@ -13741,21 +13735,21 @@
       </c>
       <c r="C131" s="568"/>
       <c r="D131" s="586"/>
-      <c r="N131" s="715" t="str">
+      <c r="N131" s="714" t="str">
         <f>CONCATENATE("Secondary treatment 
 ", B3, " : target ", TEXT(Q121,"# ##0"), " p.e.")</f>
         <v>Secondary treatment 
 [#current_year#]  : target 0 p.e.</v>
       </c>
-      <c r="O131" s="722">
+      <c r="O131" s="721">
         <f>D123</f>
         <v>0</v>
       </c>
-      <c r="P131" s="722">
+      <c r="P131" s="721">
         <f>E123</f>
         <v>0</v>
       </c>
-      <c r="Q131" s="722">
+      <c r="Q131" s="721">
         <f>C123</f>
         <v>0</v>
       </c>
@@ -13767,21 +13761,21 @@
       <c r="B132" s="588"/>
       <c r="C132" s="520"/>
       <c r="D132" s="582"/>
-      <c r="N132" s="715" t="str">
+      <c r="N132" s="714" t="str">
         <f>CONCATENATE("Tertiary treatment 
 ", B3, " : target ", TEXT(Q124,"# ##0"), " p.e.")</f>
         <v>Tertiary treatment 
 [#current_year#]  : target 0 p.e.</v>
       </c>
-      <c r="O132" s="722">
+      <c r="O132" s="721">
         <f>D126</f>
         <v>0</v>
       </c>
-      <c r="P132" s="722">
+      <c r="P132" s="721">
         <f>E126</f>
         <v>0</v>
       </c>
-      <c r="Q132" s="722">
+      <c r="Q132" s="721">
         <f>C126</f>
         <v>0</v>
       </c>
@@ -13907,7 +13901,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>73</v>
@@ -13926,7 +13920,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>73</v>
@@ -14461,16 +14455,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14484,22 +14484,16 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15342,7 +15336,7 @@
       <c r="B5" s="637" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="767" t="s">
+      <c r="C5" s="766" t="s">
         <v>441</v>
       </c>
       <c r="D5" s="637" t="s">
@@ -17833,7 +17827,7 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="769" t="s">
+      <c r="E1" s="768" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="4"/>
@@ -17896,7 +17890,7 @@
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="825" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="826"/>
       <c r="C4" s="826"/>
@@ -17948,8 +17942,8 @@
       <c r="B5" s="828" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="797" t="s">
-        <v>596</v>
+      <c r="C5" s="796" t="s">
+        <v>595</v>
       </c>
       <c r="D5" s="828" t="s">
         <v>27</v>
@@ -18075,7 +18069,7 @@
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="829"/>
       <c r="B6" s="829"/>
-      <c r="C6" s="798"/>
+      <c r="C6" s="797"/>
       <c r="D6" s="829"/>
       <c r="E6" s="829"/>
       <c r="F6" s="14" t="s">
@@ -18182,14 +18176,14 @@
       <c r="AH7" s="8"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="C8" s="757"/>
+      <c r="C8" s="756"/>
       <c r="AE8" s="625"/>
       <c r="AH8" s="625"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="662"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="824"/>
+      <c r="C9" s="823"/>
       <c r="D9" s="662"/>
       <c r="E9" s="662"/>
       <c r="F9" s="662"/>
@@ -58260,8 +58254,8 @@
       <c r="B5" s="651" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="767" t="s">
-        <v>512</v>
+      <c r="C5" s="766" t="s">
+        <v>511</v>
       </c>
       <c r="D5" s="651" t="s">
         <v>445</v>
@@ -58269,7 +58263,7 @@
       <c r="E5" s="651" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="767" t="s">
+      <c r="F5" s="766" t="s">
         <v>441</v>
       </c>
       <c r="G5" s="651" t="s">
@@ -58313,98 +58307,98 @@
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" style="757" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" style="756" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" style="757" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" style="756" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="40.21875" style="757" customWidth="1"/>
+    <col min="9" max="9" width="40.21875" style="756" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="40.21875" style="757" customWidth="1"/>
+    <col min="12" max="12" width="40.21875" style="756" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="40.21875" style="757" customWidth="1"/>
+    <col min="15" max="15" width="40.21875" style="756" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="27.33203125" customWidth="1"/>
-    <col min="18" max="18" width="40.21875" style="757" customWidth="1"/>
+    <col min="18" max="18" width="40.21875" style="756" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="27.33203125" customWidth="1"/>
-    <col min="21" max="21" width="40.21875" style="757" customWidth="1"/>
+    <col min="21" max="21" width="40.21875" style="756" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
     <col min="23" max="23" width="27.33203125" customWidth="1"/>
-    <col min="24" max="24" width="40.21875" style="757" customWidth="1"/>
+    <col min="24" max="24" width="40.21875" style="756" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
     <col min="26" max="26" width="27.33203125" customWidth="1"/>
-    <col min="27" max="27" width="40.21875" style="757" customWidth="1"/>
+    <col min="27" max="27" width="40.21875" style="756" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
-    <col min="30" max="30" width="40.21875" style="757" customWidth="1"/>
+    <col min="30" max="30" width="40.21875" style="756" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="755" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="778"/>
-      <c r="B1" s="778"/>
-      <c r="C1" s="778"/>
-      <c r="D1" s="779"/>
-      <c r="E1" s="780"/>
-      <c r="F1" s="780"/>
-      <c r="G1" s="781"/>
-      <c r="H1" s="782"/>
-      <c r="I1" s="782"/>
-      <c r="J1" s="783"/>
-      <c r="K1" s="784"/>
-      <c r="L1" s="784"/>
-      <c r="M1" s="785"/>
-      <c r="N1" s="786"/>
-      <c r="O1" s="786"/>
-      <c r="P1" s="787"/>
-      <c r="Q1" s="788"/>
-      <c r="R1" s="788"/>
-      <c r="S1" s="789"/>
-      <c r="T1" s="790"/>
-      <c r="U1" s="790"/>
-      <c r="V1" s="791"/>
-      <c r="W1" s="792"/>
-      <c r="X1" s="792"/>
-      <c r="Y1" s="793"/>
-      <c r="Z1" s="794"/>
-      <c r="AA1" s="794"/>
-      <c r="AB1" s="795"/>
-      <c r="AC1" s="796"/>
-      <c r="AD1" s="796"/>
-    </row>
-    <row r="2" spans="1:30" s="754" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="744"/>
-      <c r="B2" s="744"/>
-      <c r="C2" s="758"/>
-      <c r="D2" s="745"/>
-      <c r="E2" s="745"/>
-      <c r="F2" s="756"/>
-      <c r="G2" s="746"/>
-      <c r="H2" s="746"/>
-      <c r="I2" s="759"/>
-      <c r="J2" s="747"/>
-      <c r="K2" s="747"/>
-      <c r="L2" s="760"/>
-      <c r="M2" s="748"/>
-      <c r="N2" s="748"/>
-      <c r="O2" s="761"/>
-      <c r="P2" s="749"/>
-      <c r="Q2" s="749"/>
-      <c r="R2" s="762"/>
-      <c r="S2" s="750"/>
-      <c r="T2" s="750"/>
-      <c r="U2" s="763"/>
-      <c r="V2" s="751"/>
-      <c r="W2" s="751"/>
-      <c r="X2" s="764"/>
-      <c r="Y2" s="752"/>
-      <c r="Z2" s="752"/>
-      <c r="AA2" s="765"/>
-      <c r="AB2" s="753"/>
-      <c r="AC2" s="753"/>
-      <c r="AD2" s="766"/>
+    <row r="1" spans="1:30" s="754" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="777"/>
+      <c r="B1" s="777"/>
+      <c r="C1" s="777"/>
+      <c r="D1" s="778"/>
+      <c r="E1" s="779"/>
+      <c r="F1" s="779"/>
+      <c r="G1" s="780"/>
+      <c r="H1" s="781"/>
+      <c r="I1" s="781"/>
+      <c r="J1" s="782"/>
+      <c r="K1" s="783"/>
+      <c r="L1" s="783"/>
+      <c r="M1" s="784"/>
+      <c r="N1" s="785"/>
+      <c r="O1" s="785"/>
+      <c r="P1" s="786"/>
+      <c r="Q1" s="787"/>
+      <c r="R1" s="787"/>
+      <c r="S1" s="788"/>
+      <c r="T1" s="789"/>
+      <c r="U1" s="789"/>
+      <c r="V1" s="790"/>
+      <c r="W1" s="791"/>
+      <c r="X1" s="791"/>
+      <c r="Y1" s="792"/>
+      <c r="Z1" s="793"/>
+      <c r="AA1" s="793"/>
+      <c r="AB1" s="794"/>
+      <c r="AC1" s="795"/>
+      <c r="AD1" s="795"/>
+    </row>
+    <row r="2" spans="1:30" s="753" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="743"/>
+      <c r="B2" s="743"/>
+      <c r="C2" s="757"/>
+      <c r="D2" s="744"/>
+      <c r="E2" s="744"/>
+      <c r="F2" s="755"/>
+      <c r="G2" s="745"/>
+      <c r="H2" s="745"/>
+      <c r="I2" s="758"/>
+      <c r="J2" s="746"/>
+      <c r="K2" s="746"/>
+      <c r="L2" s="759"/>
+      <c r="M2" s="747"/>
+      <c r="N2" s="747"/>
+      <c r="O2" s="760"/>
+      <c r="P2" s="748"/>
+      <c r="Q2" s="748"/>
+      <c r="R2" s="761"/>
+      <c r="S2" s="749"/>
+      <c r="T2" s="749"/>
+      <c r="U2" s="762"/>
+      <c r="V2" s="750"/>
+      <c r="W2" s="750"/>
+      <c r="X2" s="763"/>
+      <c r="Y2" s="751"/>
+      <c r="Z2" s="751"/>
+      <c r="AA2" s="764"/>
+      <c r="AB2" s="752"/>
+      <c r="AC2" s="752"/>
+      <c r="AD2" s="765"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58416,11 +58410,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58441,17 +58435,17 @@
       <c r="B1" s="834" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="665" t="s">
-        <v>478</v>
-      </c>
-      <c r="D1" s="768" t="s">
+      <c r="C1" s="824" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1" s="767" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="767" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="768" t="s">
+      <c r="F1" s="661" t="s">
         <v>517</v>
-      </c>
-      <c r="F1" s="661" t="s">
-        <v>518</v>
       </c>
       <c r="G1" s="661" t="s">
         <v>50</v>
@@ -58653,123 +58647,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="865" t="s">
+      <c r="A1" s="836" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
-      <c r="D1" s="866"/>
-      <c r="E1" s="866"/>
-      <c r="F1" s="866"/>
-      <c r="G1" s="866"/>
-      <c r="H1" s="867" t="s">
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
+      <c r="G1" s="837"/>
+      <c r="H1" s="838" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="868"/>
-      <c r="J1" s="868"/>
-      <c r="K1" s="868"/>
-      <c r="L1" s="868"/>
-      <c r="M1" s="869"/>
-      <c r="N1" s="870" t="s">
+      <c r="I1" s="839"/>
+      <c r="J1" s="839"/>
+      <c r="K1" s="839"/>
+      <c r="L1" s="839"/>
+      <c r="M1" s="840"/>
+      <c r="N1" s="841" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="848"/>
-      <c r="P1" s="848"/>
-      <c r="Q1" s="848"/>
-      <c r="R1" s="848"/>
-      <c r="S1" s="848"/>
-      <c r="T1" s="848"/>
-      <c r="U1" s="848"/>
-      <c r="V1" s="871" t="s">
+      <c r="O1" s="842"/>
+      <c r="P1" s="842"/>
+      <c r="Q1" s="842"/>
+      <c r="R1" s="842"/>
+      <c r="S1" s="842"/>
+      <c r="T1" s="842"/>
+      <c r="U1" s="842"/>
+      <c r="V1" s="843" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="872"/>
-      <c r="X1" s="873"/>
-      <c r="Y1" s="873"/>
-      <c r="Z1" s="874"/>
-      <c r="AA1" s="875" t="s">
+      <c r="W1" s="844"/>
+      <c r="X1" s="845"/>
+      <c r="Y1" s="845"/>
+      <c r="Z1" s="846"/>
+      <c r="AA1" s="847" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="876"/>
-      <c r="AC1" s="876"/>
-      <c r="AD1" s="876"/>
-      <c r="AE1" s="876"/>
-      <c r="AF1" s="876"/>
-      <c r="AG1" s="876"/>
-      <c r="AH1" s="876"/>
-      <c r="AI1" s="876"/>
-      <c r="AJ1" s="876"/>
-      <c r="AK1" s="876"/>
-      <c r="AL1" s="876"/>
-      <c r="AM1" s="876"/>
+      <c r="AB1" s="848"/>
+      <c r="AC1" s="848"/>
+      <c r="AD1" s="848"/>
+      <c r="AE1" s="848"/>
+      <c r="AF1" s="848"/>
+      <c r="AG1" s="848"/>
+      <c r="AH1" s="848"/>
+      <c r="AI1" s="848"/>
+      <c r="AJ1" s="848"/>
+      <c r="AK1" s="848"/>
+      <c r="AL1" s="848"/>
+      <c r="AM1" s="848"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="847" t="s">
+      <c r="AP1" s="860" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="848"/>
-      <c r="AR1" s="848"/>
-      <c r="AS1" s="848"/>
-      <c r="AT1" s="848"/>
-      <c r="AU1" s="848"/>
-      <c r="AV1" s="848"/>
-      <c r="AW1" s="849"/>
-      <c r="AX1" s="856" t="s">
-        <v>597</v>
-      </c>
-      <c r="AY1" s="857"/>
-      <c r="AZ1" s="857"/>
-      <c r="BA1" s="857"/>
-      <c r="BB1" s="857"/>
-      <c r="BC1" s="858"/>
-      <c r="BD1" s="859" t="s">
+      <c r="AQ1" s="842"/>
+      <c r="AR1" s="842"/>
+      <c r="AS1" s="842"/>
+      <c r="AT1" s="842"/>
+      <c r="AU1" s="842"/>
+      <c r="AV1" s="842"/>
+      <c r="AW1" s="861"/>
+      <c r="AX1" s="868" t="s">
+        <v>596</v>
+      </c>
+      <c r="AY1" s="869"/>
+      <c r="AZ1" s="869"/>
+      <c r="BA1" s="869"/>
+      <c r="BB1" s="869"/>
+      <c r="BC1" s="870"/>
+      <c r="BD1" s="871" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="860"/>
-      <c r="BF1" s="860"/>
-      <c r="BG1" s="860"/>
-      <c r="BH1" s="860"/>
-      <c r="BI1" s="861"/>
-      <c r="BJ1" s="862" t="s">
+      <c r="BE1" s="872"/>
+      <c r="BF1" s="872"/>
+      <c r="BG1" s="872"/>
+      <c r="BH1" s="872"/>
+      <c r="BI1" s="873"/>
+      <c r="BJ1" s="874" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" s="863"/>
-      <c r="BL1" s="863"/>
-      <c r="BM1" s="863"/>
-      <c r="BN1" s="863"/>
-      <c r="BO1" s="863"/>
-      <c r="BP1" s="864"/>
-      <c r="BQ1" s="836" t="s">
+      <c r="BK1" s="875"/>
+      <c r="BL1" s="875"/>
+      <c r="BM1" s="875"/>
+      <c r="BN1" s="875"/>
+      <c r="BO1" s="875"/>
+      <c r="BP1" s="876"/>
+      <c r="BQ1" s="849" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="837"/>
-      <c r="BS1" s="837"/>
-      <c r="BT1" s="837"/>
-      <c r="BU1" s="837"/>
-      <c r="BV1" s="837"/>
+      <c r="BR1" s="850"/>
+      <c r="BS1" s="850"/>
+      <c r="BT1" s="850"/>
+      <c r="BU1" s="850"/>
+      <c r="BV1" s="850"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="838" t="s">
+      <c r="BY1" s="851" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="839"/>
-      <c r="CA1" s="839"/>
-      <c r="CB1" s="839"/>
-      <c r="CC1" s="839"/>
-      <c r="CD1" s="839"/>
-      <c r="CE1" s="839"/>
-      <c r="CF1" s="840"/>
-      <c r="CG1" s="840"/>
-      <c r="CH1" s="840"/>
-      <c r="CI1" s="840"/>
-      <c r="CJ1" s="840"/>
-      <c r="CK1" s="840"/>
-      <c r="CL1" s="840"/>
-      <c r="CM1" s="840"/>
-      <c r="CN1" s="840"/>
-      <c r="CO1" s="840"/>
-      <c r="CP1" s="840"/>
-      <c r="CQ1" s="840"/>
+      <c r="BZ1" s="852"/>
+      <c r="CA1" s="852"/>
+      <c r="CB1" s="852"/>
+      <c r="CC1" s="852"/>
+      <c r="CD1" s="852"/>
+      <c r="CE1" s="852"/>
+      <c r="CF1" s="853"/>
+      <c r="CG1" s="853"/>
+      <c r="CH1" s="853"/>
+      <c r="CI1" s="853"/>
+      <c r="CJ1" s="853"/>
+      <c r="CK1" s="853"/>
+      <c r="CL1" s="853"/>
+      <c r="CM1" s="853"/>
+      <c r="CN1" s="853"/>
+      <c r="CO1" s="853"/>
+      <c r="CP1" s="853"/>
+      <c r="CQ1" s="853"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58793,18 +58787,18 @@
       <c r="G2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="841" t="s">
+      <c r="H2" s="854" t="s">
         <v>465</v>
       </c>
-      <c r="I2" s="842"/>
-      <c r="J2" s="842" t="s">
+      <c r="I2" s="855"/>
+      <c r="J2" s="855" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="842"/>
-      <c r="L2" s="842" t="s">
+      <c r="K2" s="855"/>
+      <c r="L2" s="855" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="843"/>
+      <c r="M2" s="856"/>
       <c r="N2" s="57" t="s">
         <v>90</v>
       </c>
@@ -58839,10 +58833,10 @@
         <v>103</v>
       </c>
       <c r="Y2" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z2" s="63" t="s">
         <v>519</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>520</v>
       </c>
       <c r="AA2" s="64" t="s">
         <v>106</v>
@@ -58875,10 +58869,10 @@
         <v>114</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL2" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM2" s="67" t="s">
         <v>115</v>
@@ -58913,36 +58907,36 @@
       <c r="AW2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AX2" s="844" t="s">
+      <c r="AX2" s="857" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" s="845"/>
-      <c r="AZ2" s="845"/>
-      <c r="BA2" s="845" t="s">
+      <c r="AY2" s="858"/>
+      <c r="AZ2" s="858"/>
+      <c r="BA2" s="858" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="845"/>
-      <c r="BC2" s="846"/>
-      <c r="BD2" s="850" t="s">
+      <c r="BB2" s="858"/>
+      <c r="BC2" s="859"/>
+      <c r="BD2" s="862" t="s">
         <v>125</v>
       </c>
-      <c r="BE2" s="851"/>
-      <c r="BF2" s="851"/>
-      <c r="BG2" s="851" t="s">
+      <c r="BE2" s="863"/>
+      <c r="BF2" s="863"/>
+      <c r="BG2" s="863" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" s="851"/>
-      <c r="BI2" s="852"/>
-      <c r="BJ2" s="853" t="s">
+      <c r="BH2" s="863"/>
+      <c r="BI2" s="864"/>
+      <c r="BJ2" s="865" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="854"/>
-      <c r="BL2" s="854"/>
-      <c r="BM2" s="854" t="s">
+      <c r="BK2" s="866"/>
+      <c r="BL2" s="866"/>
+      <c r="BM2" s="866" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="855"/>
-      <c r="BO2" s="855"/>
+      <c r="BN2" s="867"/>
+      <c r="BO2" s="867"/>
       <c r="BP2" s="69" t="s">
         <v>127</v>
       </c>
@@ -59575,11 +59569,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59595,6 +59584,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59677,101 +59671,101 @@
         <v>167</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="900" t="s">
+      <c r="M1" s="877" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="901" t="s">
-        <v>523</v>
-      </c>
-      <c r="O1" s="902"/>
-      <c r="P1" s="902"/>
-      <c r="Q1" s="902"/>
-      <c r="R1" s="903" t="s">
+      <c r="N1" s="878" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" s="879"/>
+      <c r="P1" s="879"/>
+      <c r="Q1" s="879"/>
+      <c r="R1" s="880" t="s">
         <v>464</v>
       </c>
-      <c r="S1" s="896"/>
-      <c r="T1" s="896"/>
-      <c r="U1" s="896"/>
-      <c r="V1" s="896"/>
-      <c r="W1" s="896"/>
-      <c r="X1" s="904"/>
-      <c r="Y1" s="890" t="s">
+      <c r="S1" s="881"/>
+      <c r="T1" s="881"/>
+      <c r="U1" s="881"/>
+      <c r="V1" s="881"/>
+      <c r="W1" s="881"/>
+      <c r="X1" s="882"/>
+      <c r="Y1" s="883" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="860"/>
-      <c r="AA1" s="905" t="s">
+      <c r="Z1" s="872"/>
+      <c r="AA1" s="886" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="878" t="s">
+      <c r="AB1" s="897" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="892" t="s">
+      <c r="AC1" s="893" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="893"/>
-      <c r="AE1" s="893"/>
-      <c r="AF1" s="894"/>
-      <c r="AG1" s="895" t="s">
+      <c r="AD1" s="894"/>
+      <c r="AE1" s="894"/>
+      <c r="AF1" s="895"/>
+      <c r="AG1" s="896" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="896"/>
-      <c r="AI1" s="896"/>
-      <c r="AJ1" s="896"/>
-      <c r="AK1" s="896"/>
-      <c r="AL1" s="896"/>
-      <c r="AM1" s="896"/>
-      <c r="AN1" s="896"/>
-      <c r="AO1" s="878" t="s">
+      <c r="AH1" s="881"/>
+      <c r="AI1" s="881"/>
+      <c r="AJ1" s="881"/>
+      <c r="AK1" s="881"/>
+      <c r="AL1" s="881"/>
+      <c r="AM1" s="881"/>
+      <c r="AN1" s="881"/>
+      <c r="AO1" s="897" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" s="890" t="s">
+      <c r="AP1" s="883" t="s">
         <v>471</v>
       </c>
-      <c r="AQ1" s="860"/>
-      <c r="AR1" s="860"/>
-      <c r="AS1" s="861"/>
-      <c r="AT1" s="898" t="s">
+      <c r="AQ1" s="872"/>
+      <c r="AR1" s="872"/>
+      <c r="AS1" s="873"/>
+      <c r="AT1" s="900" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="899"/>
-      <c r="AV1" s="899"/>
-      <c r="AW1" s="899"/>
-      <c r="AX1" s="899"/>
-      <c r="AY1" s="899"/>
-      <c r="AZ1" s="899"/>
-      <c r="BA1" s="899"/>
-      <c r="BB1" s="899"/>
-      <c r="BC1" s="899"/>
-      <c r="BD1" s="899"/>
-      <c r="BE1" s="899"/>
-      <c r="BF1" s="899"/>
-      <c r="BG1" s="899"/>
-      <c r="BH1" s="899"/>
-      <c r="BI1" s="899"/>
-      <c r="BJ1" s="899"/>
-      <c r="BK1" s="899"/>
-      <c r="BL1" s="899"/>
-      <c r="BM1" s="899"/>
-      <c r="BN1" s="899"/>
-      <c r="BO1" s="899"/>
-      <c r="BP1" s="899"/>
-      <c r="BQ1" s="899"/>
-      <c r="BR1" s="899"/>
-      <c r="BS1" s="899"/>
-      <c r="BT1" s="899"/>
-      <c r="BU1" s="899"/>
-      <c r="BV1" s="899"/>
-      <c r="BW1" s="878" t="s">
+      <c r="AU1" s="901"/>
+      <c r="AV1" s="901"/>
+      <c r="AW1" s="901"/>
+      <c r="AX1" s="901"/>
+      <c r="AY1" s="901"/>
+      <c r="AZ1" s="901"/>
+      <c r="BA1" s="901"/>
+      <c r="BB1" s="901"/>
+      <c r="BC1" s="901"/>
+      <c r="BD1" s="901"/>
+      <c r="BE1" s="901"/>
+      <c r="BF1" s="901"/>
+      <c r="BG1" s="901"/>
+      <c r="BH1" s="901"/>
+      <c r="BI1" s="901"/>
+      <c r="BJ1" s="901"/>
+      <c r="BK1" s="901"/>
+      <c r="BL1" s="901"/>
+      <c r="BM1" s="901"/>
+      <c r="BN1" s="901"/>
+      <c r="BO1" s="901"/>
+      <c r="BP1" s="901"/>
+      <c r="BQ1" s="901"/>
+      <c r="BR1" s="901"/>
+      <c r="BS1" s="901"/>
+      <c r="BT1" s="901"/>
+      <c r="BU1" s="901"/>
+      <c r="BV1" s="901"/>
+      <c r="BW1" s="897" t="s">
         <v>175</v>
       </c>
-      <c r="BX1" s="890" t="s">
+      <c r="BX1" s="883" t="s">
         <v>470</v>
       </c>
-      <c r="BY1" s="860"/>
-      <c r="BZ1" s="860"/>
-      <c r="CA1" s="861"/>
-      <c r="CB1" s="889" t="s">
-        <v>488</v>
+      <c r="BY1" s="872"/>
+      <c r="BZ1" s="872"/>
+      <c r="CA1" s="873"/>
+      <c r="CB1" s="909" t="s">
+        <v>487</v>
       </c>
       <c r="CC1" s="891" t="s">
         <v>84</v>
@@ -59788,16 +59782,16 @@
       <c r="CM1" s="891"/>
       <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="877" t="s">
+      <c r="CP1" s="905" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" s="848"/>
-      <c r="CR1" s="848"/>
-      <c r="CS1" s="848"/>
-      <c r="CT1" s="848"/>
-      <c r="CU1" s="848"/>
-      <c r="CV1" s="848"/>
-      <c r="CW1" s="849"/>
+      <c r="CQ1" s="842"/>
+      <c r="CR1" s="842"/>
+      <c r="CS1" s="842"/>
+      <c r="CT1" s="842"/>
+      <c r="CU1" s="842"/>
+      <c r="CV1" s="842"/>
+      <c r="CW1" s="861"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59836,7 +59830,7 @@
       <c r="L2" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="900"/>
+      <c r="M2" s="877"/>
       <c r="N2" s="152" t="s">
         <v>180</v>
       </c>
@@ -59852,22 +59846,22 @@
       <c r="R2" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="907" t="s">
+      <c r="S2" s="888" t="s">
         <v>465</v>
       </c>
-      <c r="T2" s="855"/>
-      <c r="U2" s="908" t="s">
+      <c r="T2" s="867"/>
+      <c r="U2" s="889" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="908"/>
-      <c r="W2" s="908" t="s">
+      <c r="V2" s="889"/>
+      <c r="W2" s="889" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="909"/>
+      <c r="X2" s="890"/>
       <c r="Y2" s="884"/>
       <c r="Z2" s="885"/>
-      <c r="AA2" s="906"/>
-      <c r="AB2" s="879"/>
+      <c r="AA2" s="887"/>
+      <c r="AB2" s="898"/>
       <c r="AC2" s="153" t="s">
         <v>184</v>
       </c>
@@ -59880,81 +59874,81 @@
       <c r="AF2" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="AG2" s="897" t="s">
+      <c r="AG2" s="899" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" s="882"/>
-      <c r="AI2" s="882" t="s">
+      <c r="AH2" s="892"/>
+      <c r="AI2" s="892" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="882"/>
-      <c r="AK2" s="882" t="s">
+      <c r="AJ2" s="892"/>
+      <c r="AK2" s="892" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" s="882"/>
+      <c r="AL2" s="892"/>
       <c r="AM2" s="154" t="s">
         <v>191</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="AO2" s="879"/>
+      <c r="AO2" s="898"/>
       <c r="AP2" s="884" t="s">
         <v>193</v>
       </c>
       <c r="AQ2" s="885"/>
-      <c r="AR2" s="886" t="s">
+      <c r="AR2" s="902" t="s">
         <v>194</v>
       </c>
-      <c r="AS2" s="887"/>
-      <c r="AT2" s="882" t="s">
+      <c r="AS2" s="903"/>
+      <c r="AT2" s="892" t="s">
         <v>195</v>
       </c>
-      <c r="AU2" s="882"/>
-      <c r="AV2" s="883" t="s">
+      <c r="AU2" s="892"/>
+      <c r="AV2" s="904" t="s">
         <v>196</v>
       </c>
-      <c r="AW2" s="883"/>
-      <c r="AX2" s="883" t="s">
+      <c r="AW2" s="904"/>
+      <c r="AX2" s="904" t="s">
         <v>197</v>
       </c>
-      <c r="AY2" s="883"/>
+      <c r="AY2" s="904"/>
       <c r="AZ2" s="154" t="s">
         <v>198</v>
       </c>
       <c r="BA2" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="BB2" s="882" t="s">
+      <c r="BB2" s="892" t="s">
         <v>200</v>
       </c>
-      <c r="BC2" s="882"/>
-      <c r="BD2" s="883" t="s">
+      <c r="BC2" s="892"/>
+      <c r="BD2" s="904" t="s">
         <v>201</v>
       </c>
-      <c r="BE2" s="883"/>
-      <c r="BF2" s="883" t="s">
+      <c r="BE2" s="904"/>
+      <c r="BF2" s="904" t="s">
         <v>202</v>
       </c>
-      <c r="BG2" s="883"/>
+      <c r="BG2" s="904"/>
       <c r="BH2" s="154" t="s">
         <v>203</v>
       </c>
       <c r="BI2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="BJ2" s="882" t="s">
+      <c r="BJ2" s="892" t="s">
         <v>205</v>
       </c>
-      <c r="BK2" s="882"/>
-      <c r="BL2" s="883" t="s">
+      <c r="BK2" s="892"/>
+      <c r="BL2" s="904" t="s">
         <v>206</v>
       </c>
-      <c r="BM2" s="883"/>
-      <c r="BN2" s="883" t="s">
+      <c r="BM2" s="904"/>
+      <c r="BN2" s="904" t="s">
         <v>207</v>
       </c>
-      <c r="BO2" s="883"/>
+      <c r="BO2" s="904"/>
       <c r="BP2" s="154" t="s">
         <v>208</v>
       </c>
@@ -59976,16 +59970,16 @@
       <c r="BV2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="BW2" s="879"/>
+      <c r="BW2" s="898"/>
       <c r="BX2" s="884" t="s">
         <v>193</v>
       </c>
       <c r="BY2" s="885"/>
-      <c r="BZ2" s="886" t="s">
+      <c r="BZ2" s="902" t="s">
         <v>194</v>
       </c>
-      <c r="CA2" s="887"/>
-      <c r="CB2" s="889"/>
+      <c r="CA2" s="903"/>
+      <c r="CB2" s="909"/>
       <c r="CC2" s="138" t="s">
         <v>106</v>
       </c>
@@ -60014,10 +60008,10 @@
         <v>35</v>
       </c>
       <c r="CL2" s="140" t="s">
+        <v>523</v>
+      </c>
+      <c r="CM2" s="140" t="s">
         <v>524</v>
-      </c>
-      <c r="CM2" s="140" t="s">
-        <v>525</v>
       </c>
       <c r="CN2" s="140" t="s">
         <v>44</v>
@@ -60025,22 +60019,22 @@
       <c r="CO2" s="140" t="s">
         <v>473</v>
       </c>
-      <c r="CP2" s="888" t="s">
+      <c r="CP2" s="908" t="s">
         <v>216</v>
       </c>
-      <c r="CQ2" s="880"/>
-      <c r="CR2" s="880" t="s">
+      <c r="CQ2" s="906"/>
+      <c r="CR2" s="906" t="s">
         <v>217</v>
       </c>
-      <c r="CS2" s="880"/>
-      <c r="CT2" s="880" t="s">
+      <c r="CS2" s="906"/>
+      <c r="CT2" s="906" t="s">
         <v>218</v>
       </c>
-      <c r="CU2" s="880"/>
-      <c r="CV2" s="880" t="s">
+      <c r="CU2" s="906"/>
+      <c r="CV2" s="906" t="s">
         <v>219</v>
       </c>
-      <c r="CW2" s="881"/>
+      <c r="CW2" s="907"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60230,7 +60224,7 @@
       <c r="CA3" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="CB3" s="702"/>
+      <c r="CB3" s="701"/>
       <c r="CC3" s="177"/>
       <c r="CD3" s="177"/>
       <c r="CE3" s="177"/>
@@ -60349,7 +60343,7 @@
       <c r="BY4" s="161"/>
       <c r="BZ4" s="161"/>
       <c r="CA4" s="161"/>
-      <c r="CB4" s="702"/>
+      <c r="CB4" s="701"/>
       <c r="CC4" s="176"/>
       <c r="CD4" s="176"/>
       <c r="CE4" s="176"/>
@@ -60611,7 +60605,7 @@
       <c r="BY7" s="136"/>
       <c r="BZ7" s="136"/>
       <c r="CA7" s="136"/>
-      <c r="CB7" s="699"/>
+      <c r="CB7" s="698"/>
       <c r="CR7" s="136"/>
       <c r="CT7" s="136"/>
       <c r="CV7" s="136"/>
@@ -60650,7 +60644,7 @@
       <c r="BY8" s="136"/>
       <c r="BZ8" s="136"/>
       <c r="CA8" s="136"/>
-      <c r="CB8" s="699"/>
+      <c r="CB8" s="698"/>
       <c r="CR8" s="136"/>
       <c r="CT8" s="136"/>
       <c r="CV8" s="136"/>
@@ -60689,7 +60683,7 @@
       <c r="BY9" s="136"/>
       <c r="BZ9" s="136"/>
       <c r="CA9" s="136"/>
-      <c r="CB9" s="699"/>
+      <c r="CB9" s="698"/>
       <c r="CR9" s="136"/>
       <c r="CT9" s="136"/>
       <c r="CV9" s="136"/>
@@ -60905,29 +60899,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60944,6 +60915,29 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60985,73 +60979,73 @@
       <c r="J1" s="143"/>
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
-      <c r="M1" s="696"/>
-      <c r="N1" s="910"/>
-      <c r="O1" s="911"/>
-      <c r="P1" s="911"/>
-      <c r="Q1" s="911"/>
-      <c r="R1" s="903"/>
-      <c r="S1" s="896"/>
-      <c r="T1" s="896"/>
-      <c r="U1" s="896"/>
-      <c r="V1" s="896"/>
-      <c r="W1" s="896"/>
-      <c r="X1" s="904"/>
-      <c r="Y1" s="890"/>
-      <c r="Z1" s="860"/>
-      <c r="AA1" s="697"/>
-      <c r="AB1" s="695"/>
-      <c r="AC1" s="892"/>
-      <c r="AD1" s="893"/>
-      <c r="AE1" s="893"/>
-      <c r="AF1" s="894"/>
-      <c r="AG1" s="895"/>
-      <c r="AH1" s="896"/>
-      <c r="AI1" s="896"/>
-      <c r="AJ1" s="896"/>
-      <c r="AK1" s="896"/>
-      <c r="AL1" s="896"/>
-      <c r="AM1" s="896"/>
-      <c r="AN1" s="896"/>
-      <c r="AO1" s="695"/>
-      <c r="AP1" s="890"/>
-      <c r="AQ1" s="860"/>
-      <c r="AR1" s="860"/>
-      <c r="AS1" s="861"/>
-      <c r="AT1" s="898"/>
-      <c r="AU1" s="899"/>
-      <c r="AV1" s="899"/>
-      <c r="AW1" s="899"/>
-      <c r="AX1" s="899"/>
-      <c r="AY1" s="899"/>
-      <c r="AZ1" s="899"/>
-      <c r="BA1" s="899"/>
-      <c r="BB1" s="899"/>
-      <c r="BC1" s="899"/>
-      <c r="BD1" s="899"/>
-      <c r="BE1" s="899"/>
-      <c r="BF1" s="899"/>
-      <c r="BG1" s="899"/>
-      <c r="BH1" s="899"/>
-      <c r="BI1" s="899"/>
-      <c r="BJ1" s="899"/>
-      <c r="BK1" s="899"/>
-      <c r="BL1" s="899"/>
-      <c r="BM1" s="899"/>
-      <c r="BN1" s="899"/>
-      <c r="BO1" s="899"/>
-      <c r="BP1" s="899"/>
-      <c r="BQ1" s="899"/>
-      <c r="BR1" s="899"/>
-      <c r="BS1" s="899"/>
-      <c r="BT1" s="899"/>
-      <c r="BU1" s="899"/>
-      <c r="BV1" s="899"/>
-      <c r="BW1" s="695"/>
-      <c r="BX1" s="890"/>
-      <c r="BY1" s="860"/>
-      <c r="BZ1" s="860"/>
-      <c r="CA1" s="861"/>
+      <c r="M1" s="695"/>
+      <c r="N1" s="913"/>
+      <c r="O1" s="914"/>
+      <c r="P1" s="914"/>
+      <c r="Q1" s="914"/>
+      <c r="R1" s="880"/>
+      <c r="S1" s="881"/>
+      <c r="T1" s="881"/>
+      <c r="U1" s="881"/>
+      <c r="V1" s="881"/>
+      <c r="W1" s="881"/>
+      <c r="X1" s="882"/>
+      <c r="Y1" s="883"/>
+      <c r="Z1" s="872"/>
+      <c r="AA1" s="696"/>
+      <c r="AB1" s="694"/>
+      <c r="AC1" s="893"/>
+      <c r="AD1" s="894"/>
+      <c r="AE1" s="894"/>
+      <c r="AF1" s="895"/>
+      <c r="AG1" s="896"/>
+      <c r="AH1" s="881"/>
+      <c r="AI1" s="881"/>
+      <c r="AJ1" s="881"/>
+      <c r="AK1" s="881"/>
+      <c r="AL1" s="881"/>
+      <c r="AM1" s="881"/>
+      <c r="AN1" s="881"/>
+      <c r="AO1" s="694"/>
+      <c r="AP1" s="883"/>
+      <c r="AQ1" s="872"/>
+      <c r="AR1" s="872"/>
+      <c r="AS1" s="873"/>
+      <c r="AT1" s="900"/>
+      <c r="AU1" s="901"/>
+      <c r="AV1" s="901"/>
+      <c r="AW1" s="901"/>
+      <c r="AX1" s="901"/>
+      <c r="AY1" s="901"/>
+      <c r="AZ1" s="901"/>
+      <c r="BA1" s="901"/>
+      <c r="BB1" s="901"/>
+      <c r="BC1" s="901"/>
+      <c r="BD1" s="901"/>
+      <c r="BE1" s="901"/>
+      <c r="BF1" s="901"/>
+      <c r="BG1" s="901"/>
+      <c r="BH1" s="901"/>
+      <c r="BI1" s="901"/>
+      <c r="BJ1" s="901"/>
+      <c r="BK1" s="901"/>
+      <c r="BL1" s="901"/>
+      <c r="BM1" s="901"/>
+      <c r="BN1" s="901"/>
+      <c r="BO1" s="901"/>
+      <c r="BP1" s="901"/>
+      <c r="BQ1" s="901"/>
+      <c r="BR1" s="901"/>
+      <c r="BS1" s="901"/>
+      <c r="BT1" s="901"/>
+      <c r="BU1" s="901"/>
+      <c r="BV1" s="901"/>
+      <c r="BW1" s="694"/>
+      <c r="BX1" s="883"/>
+      <c r="BY1" s="872"/>
+      <c r="BZ1" s="872"/>
+      <c r="CA1" s="873"/>
       <c r="CB1" s="891"/>
       <c r="CC1" s="891"/>
       <c r="CD1" s="891"/>
@@ -61064,27 +61058,32 @@
       <c r="CK1" s="891"/>
       <c r="CL1" s="891"/>
       <c r="CM1" s="891"/>
-      <c r="CN1" s="694"/>
-      <c r="CO1" s="877"/>
-      <c r="CP1" s="848"/>
-      <c r="CQ1" s="848"/>
-      <c r="CR1" s="848"/>
-      <c r="CS1" s="848"/>
-      <c r="CT1" s="848"/>
-      <c r="CU1" s="848"/>
-      <c r="CV1" s="849"/>
-      <c r="CW1" s="912"/>
-      <c r="CX1" s="913"/>
-      <c r="CY1" s="913"/>
-      <c r="CZ1" s="914"/>
-      <c r="DA1" s="913"/>
-      <c r="DB1" s="913"/>
-      <c r="DC1" s="914"/>
-      <c r="DD1" s="913"/>
-      <c r="DE1" s="913"/>
+      <c r="CN1" s="693"/>
+      <c r="CO1" s="905"/>
+      <c r="CP1" s="842"/>
+      <c r="CQ1" s="842"/>
+      <c r="CR1" s="842"/>
+      <c r="CS1" s="842"/>
+      <c r="CT1" s="842"/>
+      <c r="CU1" s="842"/>
+      <c r="CV1" s="861"/>
+      <c r="CW1" s="910"/>
+      <c r="CX1" s="911"/>
+      <c r="CY1" s="911"/>
+      <c r="CZ1" s="912"/>
+      <c r="DA1" s="911"/>
+      <c r="DB1" s="911"/>
+      <c r="DC1" s="912"/>
+      <c r="DD1" s="911"/>
+      <c r="DE1" s="911"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61093,11 +61092,6 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61147,13 +61141,13 @@
       <c r="C3" s="454" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="679"/>
+      <c r="D3" s="678"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="453"/>
       <c r="B4" s="453"/>
-      <c r="C4" s="698"/>
-      <c r="D4" s="679"/>
+      <c r="C4" s="697"/>
+      <c r="D4" s="678"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="167"/>
@@ -61234,10 +61228,10 @@
       <c r="B2" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="926" t="s">
+      <c r="C2" s="924" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="926"/>
+      <c r="D2" s="924"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61385,7 +61379,7 @@
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V6" s="372"/>
       <c r="W6" s="372"/>
@@ -61396,40 +61390,40 @@
       <c r="Z6" s="372"/>
       <c r="AA6" s="372"/>
       <c r="AB6" s="377" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="927"/>
-      <c r="C7" s="927"/>
-      <c r="D7" s="927"/>
+      <c r="B7" s="921"/>
+      <c r="C7" s="921"/>
+      <c r="D7" s="921"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="927"/>
-      <c r="K7" s="927"/>
-      <c r="L7" s="927"/>
+      <c r="J7" s="921"/>
+      <c r="K7" s="921"/>
+      <c r="L7" s="921"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" s="927"/>
-      <c r="R7" s="927"/>
-      <c r="S7" s="927"/>
+      <c r="Q7" s="921"/>
+      <c r="R7" s="921"/>
+      <c r="S7" s="921"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
         <v>243</v>
       </c>
-      <c r="X7" s="927"/>
-      <c r="Y7" s="927"/>
-      <c r="Z7" s="927"/>
+      <c r="X7" s="921"/>
+      <c r="Y7" s="921"/>
+      <c r="Z7" s="921"/>
       <c r="AA7" s="372"/>
       <c r="AB7" s="215"/>
     </row>
@@ -61555,7 +61549,7 @@
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R10" s="218" t="s">
         <v>69</v>
@@ -61572,7 +61566,7 @@
       <c r="V10" s="372"/>
       <c r="W10" s="372"/>
       <c r="X10" s="217" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Y10" s="218" t="s">
         <v>69</v>
@@ -61606,10 +61600,10 @@
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="924" t="s">
+      <c r="M11" s="926" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="925"/>
+      <c r="N11" s="927"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
@@ -61636,7 +61630,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
       <c r="B12" s="224" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C12" s="300"/>
       <c r="D12" s="282"/>
@@ -61646,7 +61640,7 @@
       <c r="H12" s="222"/>
       <c r="I12" s="222"/>
       <c r="J12" s="224" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K12" s="300"/>
       <c r="L12" s="282"/>
@@ -61655,7 +61649,7 @@
       <c r="O12" s="222"/>
       <c r="P12" s="222"/>
       <c r="Q12" s="224" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R12" s="300"/>
       <c r="S12" s="282"/>
@@ -61664,7 +61658,7 @@
       <c r="V12" s="372"/>
       <c r="W12" s="372"/>
       <c r="X12" s="224" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y12" s="300"/>
       <c r="Z12" s="282"/>
@@ -62329,7 +62323,7 @@
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
       <c r="M30" s="919" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N30" s="920"/>
       <c r="O30" s="240"/>
@@ -62371,16 +62365,16 @@
         <v>253</v>
       </c>
       <c r="K31" s="305" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L31" s="306" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M31" s="306" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N31" s="306" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O31" s="268"/>
       <c r="P31" s="268"/>
@@ -62417,16 +62411,16 @@
         <v>254</v>
       </c>
       <c r="K32" s="308" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L32" s="309" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M32" s="309" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O32" s="277"/>
       <c r="P32" s="277"/>
@@ -62791,11 +62785,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="921"/>
-      <c r="C42" s="921"/>
-      <c r="D42" s="921"/>
-      <c r="E42" s="921"/>
-      <c r="F42" s="921"/>
+      <c r="B42" s="925"/>
+      <c r="C42" s="925"/>
+      <c r="D42" s="925"/>
+      <c r="E42" s="925"/>
+      <c r="F42" s="925"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -62982,21 +62976,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -63008,6 +62987,21 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA20:AB20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -2041,12 +2041,6 @@
 Number of agglomerations</t>
   </si>
   <si>
-    <t>First date of application of criterion N [Art. 5(2,3)] for this SA</t>
-  </si>
-  <si>
-    <t>First date of application of criterion P [Art. 5(2,3)] for this SA</t>
-  </si>
-  <si>
     <t>First date of application of Art. 5(4)</t>
   </si>
   <si>
@@ -2293,7 +2287,13 @@
     <t>SA/CSA applying Art. 5.4</t>
   </si>
   <si>
-    <t>Date of begin life</t>
+    <t>Date of designation</t>
+  </si>
+  <si>
+    <t>First date of application of criterion N for this SA</t>
+  </si>
+  <si>
+    <t>First date of application of criterion P for this SA</t>
   </si>
 </sst>
 </file>
@@ -5737,45 +5737,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5810,6 +5771,9 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5858,6 +5822,111 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5870,21 +5939,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5900,62 +5957,11 @@
     <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5966,12 +5972,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5990,26 +5990,26 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6039,6 +6039,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6071,33 +6098,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6127,6 +6127,58 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6139,18 +6191,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6162,46 +6202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6541,7 +6541,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="770" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B3" s="773" t="s">
         <v>476</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="770" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B4" s="773" t="s">
         <v>477</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="770" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B5" s="771" t="s">
         <v>6</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="770" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B6" s="771" t="s">
         <v>3</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="770" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B7" s="771" t="s">
         <v>15</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="770" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B8" s="771" t="s">
         <v>2</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="770" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B9" s="771" t="s">
         <v>21</v>
@@ -6597,15 +6597,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="770" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B10" s="771" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="770" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B11" s="771" t="s">
         <v>4</v>
@@ -6613,15 +6613,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="770" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B12" s="771" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="770" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B13" s="771" t="s">
         <v>7</v>
@@ -6629,10 +6629,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="770" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B14" s="771" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,7 +6640,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="771" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6648,20 +6648,20 @@
         <v>23</v>
       </c>
       <c r="B16" s="771" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="770" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B17" s="771" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="770" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B18" s="771" t="s">
         <v>13</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="770" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B19" s="771" t="s">
         <v>10</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="770" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B20" s="771" t="s">
         <v>12</v>
@@ -6688,7 +6688,7 @@
         <v>509</v>
       </c>
       <c r="B21" s="773" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6717,7 +6717,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="770" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B25" s="771" t="s">
         <v>9</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="770" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B26" s="771" t="s">
         <v>17</v>
@@ -6733,15 +6733,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="770" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B27" s="771" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="770" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B28" s="771" t="s">
         <v>14</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="770" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B30" s="771" t="s">
         <v>16</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="770" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B32" s="771" t="s">
         <v>5</v>
@@ -6781,42 +6781,42 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="770" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B33" s="771" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="774" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B34" s="775" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="770" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B35" s="775" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="770" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B36" s="771" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="774" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B37" s="771" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6824,31 +6824,31 @@
         <v>102</v>
       </c>
       <c r="B38" s="771" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="774" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B39" s="775" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="774" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B40" s="775" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="774" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B41" s="775" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -6856,39 +6856,39 @@
         <v>124</v>
       </c>
       <c r="B42" s="775" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="774" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B43" s="775" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="774" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B44" s="775" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="774" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B45" s="775" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="774" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B46" s="775" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="327" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -6961,7 +6961,7 @@
         <v>278</v>
       </c>
       <c r="E10" s="929" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F10" s="930"/>
     </row>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C17" s="821"/>
       <c r="D17" s="807"/>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="819" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C19" s="820"/>
       <c r="D19" s="822"/>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="803" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="327" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7119,7 +7119,7 @@
         <v>278</v>
       </c>
       <c r="E30" s="929" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F30" s="930"/>
     </row>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="815" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C39" s="816"/>
       <c r="D39" s="822"/>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="815" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7274,7 +7274,7 @@
         <v>278</v>
       </c>
       <c r="E49" s="929" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F49" s="930"/>
     </row>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C56" s="345"/>
       <c r="D56" s="800"/>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="814" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C58" s="816"/>
       <c r="D58" s="822"/>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="803" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
@@ -7429,7 +7429,7 @@
         <v>278</v>
       </c>
       <c r="E68" s="929" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F68" s="930"/>
     </row>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="817" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C75" s="813"/>
       <c r="D75" s="350"/>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="814" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C77" s="816"/>
       <c r="D77" s="822"/>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="803" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
@@ -7605,8 +7605,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="924"/>
-      <c r="F2" s="924"/>
+      <c r="E2" s="926"/>
+      <c r="F2" s="926"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7627,7 +7627,7 @@
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="370"/>
       <c r="B5" s="376" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
@@ -7638,13 +7638,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="921" t="s">
+      <c r="B6" s="927" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="921"/>
-      <c r="D6" s="921"/>
-      <c r="E6" s="921"/>
-      <c r="F6" s="921"/>
+      <c r="C6" s="927"/>
+      <c r="D6" s="927"/>
+      <c r="E6" s="927"/>
+      <c r="F6" s="927"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7737,7 +7737,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="385"/>
       <c r="B15" s="402" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C15" s="384"/>
       <c r="D15" s="386"/>
@@ -7775,7 +7775,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="385"/>
       <c r="B19" s="402" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="386"/>
@@ -7802,11 +7802,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="925"/>
-      <c r="C22" s="925"/>
-      <c r="D22" s="925"/>
-      <c r="E22" s="925"/>
-      <c r="F22" s="925"/>
+      <c r="B22" s="921"/>
+      <c r="C22" s="921"/>
+      <c r="D22" s="921"/>
+      <c r="E22" s="921"/>
+      <c r="F22" s="921"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7829,7 +7829,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
       <c r="B25" s="769" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C25" s="371"/>
       <c r="D25" s="371"/>
@@ -7839,7 +7839,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
       <c r="B26" s="769" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C26" s="371"/>
       <c r="D26" s="371"/>
@@ -7957,7 +7957,7 @@
         <v>299</v>
       </c>
       <c r="C4" s="425" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D4" s="425"/>
       <c r="E4" s="426"/>
@@ -8103,43 +8103,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="941" t="s">
+      <c r="A1" s="950" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="942"/>
+      <c r="B1" s="951"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="952" t="s">
+      <c r="D1" s="941" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="953"/>
-      <c r="F1" s="953"/>
-      <c r="G1" s="953"/>
-      <c r="H1" s="953"/>
-      <c r="I1" s="954"/>
-      <c r="J1" s="943" t="s">
+      <c r="E1" s="942"/>
+      <c r="F1" s="942"/>
+      <c r="G1" s="942"/>
+      <c r="H1" s="942"/>
+      <c r="I1" s="943"/>
+      <c r="J1" s="952" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="944"/>
-      <c r="L1" s="944"/>
-      <c r="M1" s="944"/>
-      <c r="N1" s="945"/>
-      <c r="O1" s="946" t="s">
+      <c r="K1" s="953"/>
+      <c r="L1" s="953"/>
+      <c r="M1" s="953"/>
+      <c r="N1" s="954"/>
+      <c r="O1" s="955" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="947"/>
-      <c r="Q1" s="948"/>
+      <c r="P1" s="956"/>
+      <c r="Q1" s="957"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="940" t="s">
+      <c r="T1" s="949" t="s">
         <v>495</v>
       </c>
-      <c r="U1" s="940"/>
-      <c r="V1" s="940"/>
-      <c r="W1" s="940"/>
-      <c r="X1" s="940"/>
-      <c r="Y1" s="940"/>
+      <c r="U1" s="949"/>
+      <c r="V1" s="949"/>
+      <c r="W1" s="949"/>
+      <c r="X1" s="949"/>
+      <c r="Y1" s="949"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8151,18 +8151,18 @@
       <c r="C2" s="446" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="957" t="s">
+      <c r="D2" s="946" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="956"/>
-      <c r="F2" s="956" t="s">
+      <c r="E2" s="945"/>
+      <c r="F2" s="945" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="956"/>
-      <c r="H2" s="955" t="s">
+      <c r="G2" s="945"/>
+      <c r="H2" s="944" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="955"/>
+      <c r="I2" s="944"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8193,18 +8193,18 @@
       <c r="S2" s="681" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="938" t="s">
+      <c r="T2" s="947" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="938"/>
-      <c r="V2" s="939" t="s">
+      <c r="U2" s="947"/>
+      <c r="V2" s="948" t="s">
         <v>481</v>
       </c>
-      <c r="W2" s="939"/>
-      <c r="X2" s="939" t="s">
+      <c r="W2" s="948"/>
+      <c r="X2" s="948" t="s">
         <v>482</v>
       </c>
-      <c r="Y2" s="939"/>
+      <c r="Y2" s="948"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8230,13 +8230,13 @@
       <c r="I3" s="665" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="949" t="s">
+      <c r="J3" s="938" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="950"/>
-      <c r="L3" s="950"/>
-      <c r="M3" s="950"/>
-      <c r="N3" s="951"/>
+      <c r="K3" s="939"/>
+      <c r="L3" s="939"/>
+      <c r="M3" s="939"/>
+      <c r="N3" s="940"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -9465,11 +9465,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9477,6 +9472,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9516,14 +9516,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="836" t="s">
+      <c r="A1" s="865" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="837"/>
-      <c r="E1" s="837"/>
-      <c r="F1" s="837"/>
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
       <c r="G1" s="472"/>
       <c r="H1" s="964" t="s">
         <v>169</v>
@@ -9564,8 +9564,8 @@
       <c r="AF1" s="961" t="s">
         <v>480</v>
       </c>
-      <c r="AG1" s="940"/>
-      <c r="AH1" s="940"/>
+      <c r="AG1" s="949"/>
+      <c r="AH1" s="949"/>
       <c r="AI1" s="688"/>
       <c r="AJ1" s="688"/>
       <c r="AK1" s="688"/>
@@ -10559,11 +10559,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
@@ -10577,6 +10572,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10791,9 +10791,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="968"/>
-      <c r="B1" s="867"/>
-      <c r="C1" s="867"/>
+      <c r="A1" s="986"/>
+      <c r="B1" s="855"/>
+      <c r="C1" s="855"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="741"/>
@@ -10808,21 +10808,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="976" t="s">
+      <c r="A3" s="990" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="978" t="s">
+      <c r="B3" s="992" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="979"/>
-      <c r="D3" s="974" t="s">
+      <c r="C3" s="993"/>
+      <c r="D3" s="978" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="975"/>
-      <c r="F3" s="974" t="s">
+      <c r="E3" s="979"/>
+      <c r="F3" s="978" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="975"/>
+      <c r="G3" s="979"/>
       <c r="I3" s="739" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
@@ -10833,14 +10833,14 @@
       <c r="K3" s="721"/>
       <c r="L3" s="721"/>
       <c r="N3" s="706"/>
-      <c r="O3" s="990" t="s">
+      <c r="O3" s="975" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="990"/>
-      <c r="Q3" s="990" t="s">
+      <c r="P3" s="975"/>
+      <c r="Q3" s="975" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="990"/>
+      <c r="R3" s="975"/>
       <c r="S3" s="706"/>
       <c r="T3" s="714" t="s">
         <v>348</v>
@@ -10848,7 +10848,7 @@
       <c r="U3" s="706"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="977"/>
+      <c r="A4" s="991"/>
       <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
@@ -11107,14 +11107,14 @@
       <c r="K10" s="721"/>
       <c r="L10" s="721"/>
       <c r="N10" s="714"/>
-      <c r="O10" s="990" t="s">
+      <c r="O10" s="975" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="990"/>
-      <c r="Q10" s="990" t="s">
+      <c r="P10" s="975"/>
+      <c r="Q10" s="975" t="s">
         <v>356</v>
       </c>
-      <c r="R10" s="990"/>
+      <c r="R10" s="975"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="739" t="str">
@@ -11178,7 +11178,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="976" t="s">
+      <c r="A13" s="990" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11224,7 +11224,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="977"/>
+      <c r="A14" s="991"/>
       <c r="B14" s="514" t="s">
         <v>350</v>
       </c>
@@ -11354,34 +11354,34 @@
       <c r="A21" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="991" t="s">
+      <c r="B21" s="980" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="992"/>
-      <c r="D21" s="992"/>
-      <c r="E21" s="992"/>
-      <c r="F21" s="992"/>
-      <c r="G21" s="992"/>
+      <c r="C21" s="981"/>
+      <c r="D21" s="981"/>
+      <c r="E21" s="981"/>
+      <c r="F21" s="981"/>
+      <c r="G21" s="981"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="980" t="str">
+      <c r="B22" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="981"/>
-      <c r="D22" s="980" t="str">
+      <c r="C22" s="983"/>
+      <c r="D22" s="982" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="981"/>
-      <c r="F22" s="980" t="str">
+      <c r="E22" s="983"/>
+      <c r="F22" s="982" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="981"/>
+      <c r="G22" s="983"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11808,21 +11808,21 @@
       <c r="A41" s="519" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="970" t="str">
+      <c r="B41" s="988" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="971"/>
-      <c r="D41" s="972" t="str">
+      <c r="C41" s="989"/>
+      <c r="D41" s="976" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="973"/>
-      <c r="F41" s="972" t="str">
+      <c r="E41" s="977"/>
+      <c r="F41" s="976" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="973"/>
+      <c r="G41" s="977"/>
       <c r="N41" s="706"/>
       <c r="O41" s="733" t="s">
         <v>458</v>
@@ -12036,11 +12036,11 @@
       <c r="F53" s="711" t="s">
         <v>513</v>
       </c>
-      <c r="H53" s="993" t="s">
+      <c r="H53" s="968" t="s">
         <v>500</v>
       </c>
-      <c r="I53" s="993"/>
-      <c r="J53" s="993"/>
+      <c r="I53" s="968"/>
+      <c r="J53" s="968"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="702" t="s">
@@ -12210,11 +12210,11 @@
       <c r="F63" s="711" t="s">
         <v>513</v>
       </c>
-      <c r="H63" s="993" t="s">
+      <c r="H63" s="968" t="s">
         <v>514</v>
       </c>
-      <c r="I63" s="993"/>
-      <c r="J63" s="993"/>
+      <c r="I63" s="968"/>
+      <c r="J63" s="968"/>
       <c r="L63" s="709"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12401,12 +12401,12 @@
       <c r="A74" s="623" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="969" t="s">
+      <c r="B74" s="987" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="969"/>
-      <c r="D74" s="969"/>
-      <c r="E74" s="969"/>
+      <c r="C74" s="987"/>
+      <c r="D74" s="987"/>
+      <c r="E74" s="987"/>
       <c r="I74" s="710"/>
       <c r="J74" s="710"/>
       <c r="K74" s="710"/>
@@ -12722,21 +12722,21 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="984" t="str">
+      <c r="B85" s="973" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="985"/>
-      <c r="D85" s="984" t="str">
+      <c r="C85" s="974"/>
+      <c r="D85" s="973" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="985"/>
-      <c r="F85" s="984" t="str">
+      <c r="E85" s="974"/>
+      <c r="F85" s="973" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="985"/>
+      <c r="G85" s="974"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
@@ -13032,21 +13032,21 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="984" t="str">
+      <c r="B101" s="973" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="985"/>
-      <c r="D101" s="984" t="str">
+      <c r="C101" s="974"/>
+      <c r="D101" s="973" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="985"/>
-      <c r="F101" s="984" t="str">
+      <c r="E101" s="974"/>
+      <c r="F101" s="973" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="985"/>
+      <c r="G101" s="974"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
@@ -13342,36 +13342,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="986" t="str">
+      <c r="B116" s="969" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="987"/>
-      <c r="D116" s="986" t="str">
+      <c r="C116" s="970"/>
+      <c r="D116" s="969" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="987"/>
-      <c r="F116" s="986" t="str">
+      <c r="E116" s="970"/>
+      <c r="F116" s="969" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="987"/>
+      <c r="G116" s="970"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="988" t="s">
+      <c r="B117" s="971" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="989"/>
-      <c r="D117" s="988" t="s">
+      <c r="C117" s="972"/>
+      <c r="D117" s="971" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="989"/>
-      <c r="F117" s="988" t="s">
+      <c r="E117" s="972"/>
+      <c r="F117" s="971" t="s">
         <v>279</v>
       </c>
-      <c r="G117" s="989"/>
+      <c r="G117" s="972"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13674,12 +13674,12 @@
       <c r="A129" s="546" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="982" t="str">
+      <c r="B129" s="984" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="983"/>
-      <c r="D129" s="983"/>
+      <c r="C129" s="985"/>
+      <c r="D129" s="985"/>
       <c r="N129" s="714" t="s">
         <v>398</v>
       </c>
@@ -13901,7 +13901,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>73</v>
@@ -13920,7 +13920,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>73</v>
@@ -14455,22 +14455,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14484,16 +14478,22 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17943,7 +17943,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="796" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D5" s="828" t="s">
         <v>27</v>
@@ -58414,7 +58414,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58436,16 +58436,16 @@
         <v>26</v>
       </c>
       <c r="C1" s="824" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="767" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="767" t="s">
         <v>599</v>
       </c>
-      <c r="D1" s="767" t="s">
+      <c r="F1" s="661" t="s">
         <v>515</v>
-      </c>
-      <c r="E1" s="767" t="s">
-        <v>516</v>
-      </c>
-      <c r="F1" s="661" t="s">
-        <v>517</v>
       </c>
       <c r="G1" s="661" t="s">
         <v>50</v>
@@ -58647,123 +58647,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="836" t="s">
+      <c r="A1" s="865" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="837"/>
-      <c r="E1" s="837"/>
-      <c r="F1" s="837"/>
-      <c r="G1" s="837"/>
-      <c r="H1" s="838" t="s">
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
+      <c r="G1" s="866"/>
+      <c r="H1" s="867" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="839"/>
-      <c r="J1" s="839"/>
-      <c r="K1" s="839"/>
-      <c r="L1" s="839"/>
-      <c r="M1" s="840"/>
-      <c r="N1" s="841" t="s">
+      <c r="I1" s="868"/>
+      <c r="J1" s="868"/>
+      <c r="K1" s="868"/>
+      <c r="L1" s="868"/>
+      <c r="M1" s="869"/>
+      <c r="N1" s="870" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="842"/>
-      <c r="P1" s="842"/>
-      <c r="Q1" s="842"/>
-      <c r="R1" s="842"/>
-      <c r="S1" s="842"/>
-      <c r="T1" s="842"/>
-      <c r="U1" s="842"/>
-      <c r="V1" s="843" t="s">
+      <c r="O1" s="848"/>
+      <c r="P1" s="848"/>
+      <c r="Q1" s="848"/>
+      <c r="R1" s="848"/>
+      <c r="S1" s="848"/>
+      <c r="T1" s="848"/>
+      <c r="U1" s="848"/>
+      <c r="V1" s="871" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="844"/>
-      <c r="X1" s="845"/>
-      <c r="Y1" s="845"/>
-      <c r="Z1" s="846"/>
-      <c r="AA1" s="847" t="s">
+      <c r="W1" s="872"/>
+      <c r="X1" s="873"/>
+      <c r="Y1" s="873"/>
+      <c r="Z1" s="874"/>
+      <c r="AA1" s="875" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="848"/>
-      <c r="AC1" s="848"/>
-      <c r="AD1" s="848"/>
-      <c r="AE1" s="848"/>
-      <c r="AF1" s="848"/>
-      <c r="AG1" s="848"/>
-      <c r="AH1" s="848"/>
-      <c r="AI1" s="848"/>
-      <c r="AJ1" s="848"/>
-      <c r="AK1" s="848"/>
-      <c r="AL1" s="848"/>
-      <c r="AM1" s="848"/>
+      <c r="AB1" s="876"/>
+      <c r="AC1" s="876"/>
+      <c r="AD1" s="876"/>
+      <c r="AE1" s="876"/>
+      <c r="AF1" s="876"/>
+      <c r="AG1" s="876"/>
+      <c r="AH1" s="876"/>
+      <c r="AI1" s="876"/>
+      <c r="AJ1" s="876"/>
+      <c r="AK1" s="876"/>
+      <c r="AL1" s="876"/>
+      <c r="AM1" s="876"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="860" t="s">
+      <c r="AP1" s="847" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="842"/>
-      <c r="AR1" s="842"/>
-      <c r="AS1" s="842"/>
-      <c r="AT1" s="842"/>
-      <c r="AU1" s="842"/>
-      <c r="AV1" s="842"/>
-      <c r="AW1" s="861"/>
-      <c r="AX1" s="868" t="s">
-        <v>596</v>
-      </c>
-      <c r="AY1" s="869"/>
-      <c r="AZ1" s="869"/>
-      <c r="BA1" s="869"/>
-      <c r="BB1" s="869"/>
-      <c r="BC1" s="870"/>
-      <c r="BD1" s="871" t="s">
+      <c r="AQ1" s="848"/>
+      <c r="AR1" s="848"/>
+      <c r="AS1" s="848"/>
+      <c r="AT1" s="848"/>
+      <c r="AU1" s="848"/>
+      <c r="AV1" s="848"/>
+      <c r="AW1" s="849"/>
+      <c r="AX1" s="856" t="s">
+        <v>594</v>
+      </c>
+      <c r="AY1" s="857"/>
+      <c r="AZ1" s="857"/>
+      <c r="BA1" s="857"/>
+      <c r="BB1" s="857"/>
+      <c r="BC1" s="858"/>
+      <c r="BD1" s="859" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="872"/>
-      <c r="BF1" s="872"/>
-      <c r="BG1" s="872"/>
-      <c r="BH1" s="872"/>
-      <c r="BI1" s="873"/>
-      <c r="BJ1" s="874" t="s">
+      <c r="BE1" s="860"/>
+      <c r="BF1" s="860"/>
+      <c r="BG1" s="860"/>
+      <c r="BH1" s="860"/>
+      <c r="BI1" s="861"/>
+      <c r="BJ1" s="862" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" s="875"/>
-      <c r="BL1" s="875"/>
-      <c r="BM1" s="875"/>
-      <c r="BN1" s="875"/>
-      <c r="BO1" s="875"/>
-      <c r="BP1" s="876"/>
-      <c r="BQ1" s="849" t="s">
+      <c r="BK1" s="863"/>
+      <c r="BL1" s="863"/>
+      <c r="BM1" s="863"/>
+      <c r="BN1" s="863"/>
+      <c r="BO1" s="863"/>
+      <c r="BP1" s="864"/>
+      <c r="BQ1" s="836" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="850"/>
-      <c r="BS1" s="850"/>
-      <c r="BT1" s="850"/>
-      <c r="BU1" s="850"/>
-      <c r="BV1" s="850"/>
+      <c r="BR1" s="837"/>
+      <c r="BS1" s="837"/>
+      <c r="BT1" s="837"/>
+      <c r="BU1" s="837"/>
+      <c r="BV1" s="837"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="851" t="s">
+      <c r="BY1" s="838" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="852"/>
-      <c r="CA1" s="852"/>
-      <c r="CB1" s="852"/>
-      <c r="CC1" s="852"/>
-      <c r="CD1" s="852"/>
-      <c r="CE1" s="852"/>
-      <c r="CF1" s="853"/>
-      <c r="CG1" s="853"/>
-      <c r="CH1" s="853"/>
-      <c r="CI1" s="853"/>
-      <c r="CJ1" s="853"/>
-      <c r="CK1" s="853"/>
-      <c r="CL1" s="853"/>
-      <c r="CM1" s="853"/>
-      <c r="CN1" s="853"/>
-      <c r="CO1" s="853"/>
-      <c r="CP1" s="853"/>
-      <c r="CQ1" s="853"/>
+      <c r="BZ1" s="839"/>
+      <c r="CA1" s="839"/>
+      <c r="CB1" s="839"/>
+      <c r="CC1" s="839"/>
+      <c r="CD1" s="839"/>
+      <c r="CE1" s="839"/>
+      <c r="CF1" s="840"/>
+      <c r="CG1" s="840"/>
+      <c r="CH1" s="840"/>
+      <c r="CI1" s="840"/>
+      <c r="CJ1" s="840"/>
+      <c r="CK1" s="840"/>
+      <c r="CL1" s="840"/>
+      <c r="CM1" s="840"/>
+      <c r="CN1" s="840"/>
+      <c r="CO1" s="840"/>
+      <c r="CP1" s="840"/>
+      <c r="CQ1" s="840"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58787,18 +58787,18 @@
       <c r="G2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="854" t="s">
+      <c r="H2" s="841" t="s">
         <v>465</v>
       </c>
-      <c r="I2" s="855"/>
-      <c r="J2" s="855" t="s">
+      <c r="I2" s="842"/>
+      <c r="J2" s="842" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="855"/>
-      <c r="L2" s="855" t="s">
+      <c r="K2" s="842"/>
+      <c r="L2" s="842" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="856"/>
+      <c r="M2" s="843"/>
       <c r="N2" s="57" t="s">
         <v>90</v>
       </c>
@@ -58833,10 +58833,10 @@
         <v>103</v>
       </c>
       <c r="Y2" s="61" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Z2" s="63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AA2" s="64" t="s">
         <v>106</v>
@@ -58869,10 +58869,10 @@
         <v>114</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AL2" s="67" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AM2" s="67" t="s">
         <v>115</v>
@@ -58907,36 +58907,36 @@
       <c r="AW2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AX2" s="857" t="s">
+      <c r="AX2" s="844" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" s="858"/>
-      <c r="AZ2" s="858"/>
-      <c r="BA2" s="858" t="s">
+      <c r="AY2" s="845"/>
+      <c r="AZ2" s="845"/>
+      <c r="BA2" s="845" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="858"/>
-      <c r="BC2" s="859"/>
-      <c r="BD2" s="862" t="s">
+      <c r="BB2" s="845"/>
+      <c r="BC2" s="846"/>
+      <c r="BD2" s="850" t="s">
         <v>125</v>
       </c>
-      <c r="BE2" s="863"/>
-      <c r="BF2" s="863"/>
-      <c r="BG2" s="863" t="s">
+      <c r="BE2" s="851"/>
+      <c r="BF2" s="851"/>
+      <c r="BG2" s="851" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" s="863"/>
-      <c r="BI2" s="864"/>
-      <c r="BJ2" s="865" t="s">
+      <c r="BH2" s="851"/>
+      <c r="BI2" s="852"/>
+      <c r="BJ2" s="853" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="866"/>
-      <c r="BL2" s="866"/>
-      <c r="BM2" s="866" t="s">
+      <c r="BK2" s="854"/>
+      <c r="BL2" s="854"/>
+      <c r="BM2" s="854" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="867"/>
-      <c r="BO2" s="867"/>
+      <c r="BN2" s="855"/>
+      <c r="BO2" s="855"/>
       <c r="BP2" s="69" t="s">
         <v>127</v>
       </c>
@@ -59569,6 +59569,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59584,11 +59589,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59671,100 +59671,100 @@
         <v>167</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="877" t="s">
+      <c r="M1" s="900" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="878" t="s">
-        <v>522</v>
-      </c>
-      <c r="O1" s="879"/>
-      <c r="P1" s="879"/>
-      <c r="Q1" s="879"/>
-      <c r="R1" s="880" t="s">
+      <c r="N1" s="901" t="s">
+        <v>520</v>
+      </c>
+      <c r="O1" s="902"/>
+      <c r="P1" s="902"/>
+      <c r="Q1" s="902"/>
+      <c r="R1" s="903" t="s">
         <v>464</v>
       </c>
-      <c r="S1" s="881"/>
-      <c r="T1" s="881"/>
-      <c r="U1" s="881"/>
-      <c r="V1" s="881"/>
-      <c r="W1" s="881"/>
-      <c r="X1" s="882"/>
-      <c r="Y1" s="883" t="s">
+      <c r="S1" s="896"/>
+      <c r="T1" s="896"/>
+      <c r="U1" s="896"/>
+      <c r="V1" s="896"/>
+      <c r="W1" s="896"/>
+      <c r="X1" s="904"/>
+      <c r="Y1" s="890" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="872"/>
-      <c r="AA1" s="886" t="s">
+      <c r="Z1" s="860"/>
+      <c r="AA1" s="905" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="897" t="s">
+      <c r="AB1" s="878" t="s">
         <v>170</v>
       </c>
-      <c r="AC1" s="893" t="s">
+      <c r="AC1" s="892" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="894"/>
-      <c r="AE1" s="894"/>
-      <c r="AF1" s="895"/>
-      <c r="AG1" s="896" t="s">
+      <c r="AD1" s="893"/>
+      <c r="AE1" s="893"/>
+      <c r="AF1" s="894"/>
+      <c r="AG1" s="895" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="881"/>
-      <c r="AI1" s="881"/>
-      <c r="AJ1" s="881"/>
-      <c r="AK1" s="881"/>
-      <c r="AL1" s="881"/>
-      <c r="AM1" s="881"/>
-      <c r="AN1" s="881"/>
-      <c r="AO1" s="897" t="s">
+      <c r="AH1" s="896"/>
+      <c r="AI1" s="896"/>
+      <c r="AJ1" s="896"/>
+      <c r="AK1" s="896"/>
+      <c r="AL1" s="896"/>
+      <c r="AM1" s="896"/>
+      <c r="AN1" s="896"/>
+      <c r="AO1" s="878" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" s="883" t="s">
+      <c r="AP1" s="890" t="s">
         <v>471</v>
       </c>
-      <c r="AQ1" s="872"/>
-      <c r="AR1" s="872"/>
-      <c r="AS1" s="873"/>
-      <c r="AT1" s="900" t="s">
+      <c r="AQ1" s="860"/>
+      <c r="AR1" s="860"/>
+      <c r="AS1" s="861"/>
+      <c r="AT1" s="898" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="901"/>
-      <c r="AV1" s="901"/>
-      <c r="AW1" s="901"/>
-      <c r="AX1" s="901"/>
-      <c r="AY1" s="901"/>
-      <c r="AZ1" s="901"/>
-      <c r="BA1" s="901"/>
-      <c r="BB1" s="901"/>
-      <c r="BC1" s="901"/>
-      <c r="BD1" s="901"/>
-      <c r="BE1" s="901"/>
-      <c r="BF1" s="901"/>
-      <c r="BG1" s="901"/>
-      <c r="BH1" s="901"/>
-      <c r="BI1" s="901"/>
-      <c r="BJ1" s="901"/>
-      <c r="BK1" s="901"/>
-      <c r="BL1" s="901"/>
-      <c r="BM1" s="901"/>
-      <c r="BN1" s="901"/>
-      <c r="BO1" s="901"/>
-      <c r="BP1" s="901"/>
-      <c r="BQ1" s="901"/>
-      <c r="BR1" s="901"/>
-      <c r="BS1" s="901"/>
-      <c r="BT1" s="901"/>
-      <c r="BU1" s="901"/>
-      <c r="BV1" s="901"/>
-      <c r="BW1" s="897" t="s">
+      <c r="AU1" s="899"/>
+      <c r="AV1" s="899"/>
+      <c r="AW1" s="899"/>
+      <c r="AX1" s="899"/>
+      <c r="AY1" s="899"/>
+      <c r="AZ1" s="899"/>
+      <c r="BA1" s="899"/>
+      <c r="BB1" s="899"/>
+      <c r="BC1" s="899"/>
+      <c r="BD1" s="899"/>
+      <c r="BE1" s="899"/>
+      <c r="BF1" s="899"/>
+      <c r="BG1" s="899"/>
+      <c r="BH1" s="899"/>
+      <c r="BI1" s="899"/>
+      <c r="BJ1" s="899"/>
+      <c r="BK1" s="899"/>
+      <c r="BL1" s="899"/>
+      <c r="BM1" s="899"/>
+      <c r="BN1" s="899"/>
+      <c r="BO1" s="899"/>
+      <c r="BP1" s="899"/>
+      <c r="BQ1" s="899"/>
+      <c r="BR1" s="899"/>
+      <c r="BS1" s="899"/>
+      <c r="BT1" s="899"/>
+      <c r="BU1" s="899"/>
+      <c r="BV1" s="899"/>
+      <c r="BW1" s="878" t="s">
         <v>175</v>
       </c>
-      <c r="BX1" s="883" t="s">
+      <c r="BX1" s="890" t="s">
         <v>470</v>
       </c>
-      <c r="BY1" s="872"/>
-      <c r="BZ1" s="872"/>
-      <c r="CA1" s="873"/>
-      <c r="CB1" s="909" t="s">
+      <c r="BY1" s="860"/>
+      <c r="BZ1" s="860"/>
+      <c r="CA1" s="861"/>
+      <c r="CB1" s="889" t="s">
         <v>487</v>
       </c>
       <c r="CC1" s="891" t="s">
@@ -59782,16 +59782,16 @@
       <c r="CM1" s="891"/>
       <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="905" t="s">
+      <c r="CP1" s="877" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" s="842"/>
-      <c r="CR1" s="842"/>
-      <c r="CS1" s="842"/>
-      <c r="CT1" s="842"/>
-      <c r="CU1" s="842"/>
-      <c r="CV1" s="842"/>
-      <c r="CW1" s="861"/>
+      <c r="CQ1" s="848"/>
+      <c r="CR1" s="848"/>
+      <c r="CS1" s="848"/>
+      <c r="CT1" s="848"/>
+      <c r="CU1" s="848"/>
+      <c r="CV1" s="848"/>
+      <c r="CW1" s="849"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59830,7 +59830,7 @@
       <c r="L2" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="877"/>
+      <c r="M2" s="900"/>
       <c r="N2" s="152" t="s">
         <v>180</v>
       </c>
@@ -59846,22 +59846,22 @@
       <c r="R2" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="888" t="s">
+      <c r="S2" s="907" t="s">
         <v>465</v>
       </c>
-      <c r="T2" s="867"/>
-      <c r="U2" s="889" t="s">
+      <c r="T2" s="855"/>
+      <c r="U2" s="908" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="889"/>
-      <c r="W2" s="889" t="s">
+      <c r="V2" s="908"/>
+      <c r="W2" s="908" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="890"/>
+      <c r="X2" s="909"/>
       <c r="Y2" s="884"/>
       <c r="Z2" s="885"/>
-      <c r="AA2" s="887"/>
-      <c r="AB2" s="898"/>
+      <c r="AA2" s="906"/>
+      <c r="AB2" s="879"/>
       <c r="AC2" s="153" t="s">
         <v>184</v>
       </c>
@@ -59874,81 +59874,81 @@
       <c r="AF2" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="AG2" s="899" t="s">
+      <c r="AG2" s="897" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" s="892"/>
-      <c r="AI2" s="892" t="s">
+      <c r="AH2" s="882"/>
+      <c r="AI2" s="882" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="892"/>
-      <c r="AK2" s="892" t="s">
+      <c r="AJ2" s="882"/>
+      <c r="AK2" s="882" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" s="892"/>
+      <c r="AL2" s="882"/>
       <c r="AM2" s="154" t="s">
         <v>191</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="AO2" s="898"/>
+      <c r="AO2" s="879"/>
       <c r="AP2" s="884" t="s">
         <v>193</v>
       </c>
       <c r="AQ2" s="885"/>
-      <c r="AR2" s="902" t="s">
+      <c r="AR2" s="886" t="s">
         <v>194</v>
       </c>
-      <c r="AS2" s="903"/>
-      <c r="AT2" s="892" t="s">
+      <c r="AS2" s="887"/>
+      <c r="AT2" s="882" t="s">
         <v>195</v>
       </c>
-      <c r="AU2" s="892"/>
-      <c r="AV2" s="904" t="s">
+      <c r="AU2" s="882"/>
+      <c r="AV2" s="883" t="s">
         <v>196</v>
       </c>
-      <c r="AW2" s="904"/>
-      <c r="AX2" s="904" t="s">
+      <c r="AW2" s="883"/>
+      <c r="AX2" s="883" t="s">
         <v>197</v>
       </c>
-      <c r="AY2" s="904"/>
+      <c r="AY2" s="883"/>
       <c r="AZ2" s="154" t="s">
         <v>198</v>
       </c>
       <c r="BA2" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="BB2" s="892" t="s">
+      <c r="BB2" s="882" t="s">
         <v>200</v>
       </c>
-      <c r="BC2" s="892"/>
-      <c r="BD2" s="904" t="s">
+      <c r="BC2" s="882"/>
+      <c r="BD2" s="883" t="s">
         <v>201</v>
       </c>
-      <c r="BE2" s="904"/>
-      <c r="BF2" s="904" t="s">
+      <c r="BE2" s="883"/>
+      <c r="BF2" s="883" t="s">
         <v>202</v>
       </c>
-      <c r="BG2" s="904"/>
+      <c r="BG2" s="883"/>
       <c r="BH2" s="154" t="s">
         <v>203</v>
       </c>
       <c r="BI2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="BJ2" s="892" t="s">
+      <c r="BJ2" s="882" t="s">
         <v>205</v>
       </c>
-      <c r="BK2" s="892"/>
-      <c r="BL2" s="904" t="s">
+      <c r="BK2" s="882"/>
+      <c r="BL2" s="883" t="s">
         <v>206</v>
       </c>
-      <c r="BM2" s="904"/>
-      <c r="BN2" s="904" t="s">
+      <c r="BM2" s="883"/>
+      <c r="BN2" s="883" t="s">
         <v>207</v>
       </c>
-      <c r="BO2" s="904"/>
+      <c r="BO2" s="883"/>
       <c r="BP2" s="154" t="s">
         <v>208</v>
       </c>
@@ -59970,16 +59970,16 @@
       <c r="BV2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="BW2" s="898"/>
+      <c r="BW2" s="879"/>
       <c r="BX2" s="884" t="s">
         <v>193</v>
       </c>
       <c r="BY2" s="885"/>
-      <c r="BZ2" s="902" t="s">
+      <c r="BZ2" s="886" t="s">
         <v>194</v>
       </c>
-      <c r="CA2" s="903"/>
-      <c r="CB2" s="909"/>
+      <c r="CA2" s="887"/>
+      <c r="CB2" s="889"/>
       <c r="CC2" s="138" t="s">
         <v>106</v>
       </c>
@@ -60008,10 +60008,10 @@
         <v>35</v>
       </c>
       <c r="CL2" s="140" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="CM2" s="140" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="CN2" s="140" t="s">
         <v>44</v>
@@ -60019,22 +60019,22 @@
       <c r="CO2" s="140" t="s">
         <v>473</v>
       </c>
-      <c r="CP2" s="908" t="s">
+      <c r="CP2" s="888" t="s">
         <v>216</v>
       </c>
-      <c r="CQ2" s="906"/>
-      <c r="CR2" s="906" t="s">
+      <c r="CQ2" s="880"/>
+      <c r="CR2" s="880" t="s">
         <v>217</v>
       </c>
-      <c r="CS2" s="906"/>
-      <c r="CT2" s="906" t="s">
+      <c r="CS2" s="880"/>
+      <c r="CT2" s="880" t="s">
         <v>218</v>
       </c>
-      <c r="CU2" s="906"/>
-      <c r="CV2" s="906" t="s">
+      <c r="CU2" s="880"/>
+      <c r="CV2" s="880" t="s">
         <v>219</v>
       </c>
-      <c r="CW2" s="907"/>
+      <c r="CW2" s="881"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60899,6 +60899,29 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60915,29 +60938,6 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60980,72 +60980,72 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="695"/>
-      <c r="N1" s="913"/>
-      <c r="O1" s="914"/>
-      <c r="P1" s="914"/>
-      <c r="Q1" s="914"/>
-      <c r="R1" s="880"/>
-      <c r="S1" s="881"/>
-      <c r="T1" s="881"/>
-      <c r="U1" s="881"/>
-      <c r="V1" s="881"/>
-      <c r="W1" s="881"/>
-      <c r="X1" s="882"/>
-      <c r="Y1" s="883"/>
-      <c r="Z1" s="872"/>
+      <c r="N1" s="910"/>
+      <c r="O1" s="911"/>
+      <c r="P1" s="911"/>
+      <c r="Q1" s="911"/>
+      <c r="R1" s="903"/>
+      <c r="S1" s="896"/>
+      <c r="T1" s="896"/>
+      <c r="U1" s="896"/>
+      <c r="V1" s="896"/>
+      <c r="W1" s="896"/>
+      <c r="X1" s="904"/>
+      <c r="Y1" s="890"/>
+      <c r="Z1" s="860"/>
       <c r="AA1" s="696"/>
       <c r="AB1" s="694"/>
-      <c r="AC1" s="893"/>
-      <c r="AD1" s="894"/>
-      <c r="AE1" s="894"/>
-      <c r="AF1" s="895"/>
-      <c r="AG1" s="896"/>
-      <c r="AH1" s="881"/>
-      <c r="AI1" s="881"/>
-      <c r="AJ1" s="881"/>
-      <c r="AK1" s="881"/>
-      <c r="AL1" s="881"/>
-      <c r="AM1" s="881"/>
-      <c r="AN1" s="881"/>
+      <c r="AC1" s="892"/>
+      <c r="AD1" s="893"/>
+      <c r="AE1" s="893"/>
+      <c r="AF1" s="894"/>
+      <c r="AG1" s="895"/>
+      <c r="AH1" s="896"/>
+      <c r="AI1" s="896"/>
+      <c r="AJ1" s="896"/>
+      <c r="AK1" s="896"/>
+      <c r="AL1" s="896"/>
+      <c r="AM1" s="896"/>
+      <c r="AN1" s="896"/>
       <c r="AO1" s="694"/>
-      <c r="AP1" s="883"/>
-      <c r="AQ1" s="872"/>
-      <c r="AR1" s="872"/>
-      <c r="AS1" s="873"/>
-      <c r="AT1" s="900"/>
-      <c r="AU1" s="901"/>
-      <c r="AV1" s="901"/>
-      <c r="AW1" s="901"/>
-      <c r="AX1" s="901"/>
-      <c r="AY1" s="901"/>
-      <c r="AZ1" s="901"/>
-      <c r="BA1" s="901"/>
-      <c r="BB1" s="901"/>
-      <c r="BC1" s="901"/>
-      <c r="BD1" s="901"/>
-      <c r="BE1" s="901"/>
-      <c r="BF1" s="901"/>
-      <c r="BG1" s="901"/>
-      <c r="BH1" s="901"/>
-      <c r="BI1" s="901"/>
-      <c r="BJ1" s="901"/>
-      <c r="BK1" s="901"/>
-      <c r="BL1" s="901"/>
-      <c r="BM1" s="901"/>
-      <c r="BN1" s="901"/>
-      <c r="BO1" s="901"/>
-      <c r="BP1" s="901"/>
-      <c r="BQ1" s="901"/>
-      <c r="BR1" s="901"/>
-      <c r="BS1" s="901"/>
-      <c r="BT1" s="901"/>
-      <c r="BU1" s="901"/>
-      <c r="BV1" s="901"/>
+      <c r="AP1" s="890"/>
+      <c r="AQ1" s="860"/>
+      <c r="AR1" s="860"/>
+      <c r="AS1" s="861"/>
+      <c r="AT1" s="898"/>
+      <c r="AU1" s="899"/>
+      <c r="AV1" s="899"/>
+      <c r="AW1" s="899"/>
+      <c r="AX1" s="899"/>
+      <c r="AY1" s="899"/>
+      <c r="AZ1" s="899"/>
+      <c r="BA1" s="899"/>
+      <c r="BB1" s="899"/>
+      <c r="BC1" s="899"/>
+      <c r="BD1" s="899"/>
+      <c r="BE1" s="899"/>
+      <c r="BF1" s="899"/>
+      <c r="BG1" s="899"/>
+      <c r="BH1" s="899"/>
+      <c r="BI1" s="899"/>
+      <c r="BJ1" s="899"/>
+      <c r="BK1" s="899"/>
+      <c r="BL1" s="899"/>
+      <c r="BM1" s="899"/>
+      <c r="BN1" s="899"/>
+      <c r="BO1" s="899"/>
+      <c r="BP1" s="899"/>
+      <c r="BQ1" s="899"/>
+      <c r="BR1" s="899"/>
+      <c r="BS1" s="899"/>
+      <c r="BT1" s="899"/>
+      <c r="BU1" s="899"/>
+      <c r="BV1" s="899"/>
       <c r="BW1" s="694"/>
-      <c r="BX1" s="883"/>
-      <c r="BY1" s="872"/>
-      <c r="BZ1" s="872"/>
-      <c r="CA1" s="873"/>
+      <c r="BX1" s="890"/>
+      <c r="BY1" s="860"/>
+      <c r="BZ1" s="860"/>
+      <c r="CA1" s="861"/>
       <c r="CB1" s="891"/>
       <c r="CC1" s="891"/>
       <c r="CD1" s="891"/>
@@ -61059,31 +61059,26 @@
       <c r="CL1" s="891"/>
       <c r="CM1" s="891"/>
       <c r="CN1" s="693"/>
-      <c r="CO1" s="905"/>
-      <c r="CP1" s="842"/>
-      <c r="CQ1" s="842"/>
-      <c r="CR1" s="842"/>
-      <c r="CS1" s="842"/>
-      <c r="CT1" s="842"/>
-      <c r="CU1" s="842"/>
-      <c r="CV1" s="861"/>
-      <c r="CW1" s="910"/>
-      <c r="CX1" s="911"/>
-      <c r="CY1" s="911"/>
-      <c r="CZ1" s="912"/>
-      <c r="DA1" s="911"/>
-      <c r="DB1" s="911"/>
-      <c r="DC1" s="912"/>
-      <c r="DD1" s="911"/>
-      <c r="DE1" s="911"/>
+      <c r="CO1" s="877"/>
+      <c r="CP1" s="848"/>
+      <c r="CQ1" s="848"/>
+      <c r="CR1" s="848"/>
+      <c r="CS1" s="848"/>
+      <c r="CT1" s="848"/>
+      <c r="CU1" s="848"/>
+      <c r="CV1" s="849"/>
+      <c r="CW1" s="912"/>
+      <c r="CX1" s="913"/>
+      <c r="CY1" s="913"/>
+      <c r="CZ1" s="914"/>
+      <c r="DA1" s="913"/>
+      <c r="DB1" s="913"/>
+      <c r="DC1" s="914"/>
+      <c r="DD1" s="913"/>
+      <c r="DE1" s="913"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61092,6 +61087,11 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61228,10 +61228,10 @@
       <c r="B2" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="924" t="s">
+      <c r="C2" s="926" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="924"/>
+      <c r="D2" s="926"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61379,7 +61379,7 @@
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="V6" s="372"/>
       <c r="W6" s="372"/>
@@ -61390,40 +61390,40 @@
       <c r="Z6" s="372"/>
       <c r="AA6" s="372"/>
       <c r="AB6" s="377" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="921"/>
-      <c r="C7" s="921"/>
-      <c r="D7" s="921"/>
+      <c r="B7" s="927"/>
+      <c r="C7" s="927"/>
+      <c r="D7" s="927"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="921"/>
-      <c r="K7" s="921"/>
-      <c r="L7" s="921"/>
+      <c r="J7" s="927"/>
+      <c r="K7" s="927"/>
+      <c r="L7" s="927"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" s="921"/>
-      <c r="R7" s="921"/>
-      <c r="S7" s="921"/>
+      <c r="Q7" s="927"/>
+      <c r="R7" s="927"/>
+      <c r="S7" s="927"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
         <v>243</v>
       </c>
-      <c r="X7" s="921"/>
-      <c r="Y7" s="921"/>
-      <c r="Z7" s="921"/>
+      <c r="X7" s="927"/>
+      <c r="Y7" s="927"/>
+      <c r="Z7" s="927"/>
       <c r="AA7" s="372"/>
       <c r="AB7" s="215"/>
     </row>
@@ -61549,7 +61549,7 @@
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R10" s="218" t="s">
         <v>69</v>
@@ -61566,7 +61566,7 @@
       <c r="V10" s="372"/>
       <c r="W10" s="372"/>
       <c r="X10" s="217" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Y10" s="218" t="s">
         <v>69</v>
@@ -61600,10 +61600,10 @@
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="926" t="s">
+      <c r="M11" s="924" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="927"/>
+      <c r="N11" s="925"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
@@ -62323,7 +62323,7 @@
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
       <c r="M30" s="919" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N30" s="920"/>
       <c r="O30" s="240"/>
@@ -62785,11 +62785,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="925"/>
-      <c r="C42" s="925"/>
-      <c r="D42" s="925"/>
-      <c r="E42" s="925"/>
-      <c r="F42" s="925"/>
+      <c r="B42" s="921"/>
+      <c r="C42" s="921"/>
+      <c r="D42" s="921"/>
+      <c r="E42" s="921"/>
+      <c r="F42" s="921"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -62976,6 +62976,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -62987,21 +63002,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA20:AB20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="3"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5(4)-areas'!$A$3:$Q$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Agglo Compliance'!$A$4:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Agglo Compliance'!$A$4:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'agglomeration debug level'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'agglomeration level'!$A$4:$CW$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Agglomerationout!$A$5:$D$5</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="605">
   <si>
     <t>Acronym</t>
   </si>
@@ -2295,6 +2295,21 @@
   <si>
     <t>First date of application of criterion P for this SA</t>
   </si>
+  <si>
+    <t>Article 3</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>RCA Compliance</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>Legal Compliance</t>
+  </si>
 </sst>
 </file>
 
@@ -3752,7 +3767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="994">
+  <cellXfs count="992">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5458,7 +5473,6 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5704,6 +5718,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5975,14 +5992,8 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -6102,9 +6113,6 @@
     <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6126,6 +6134,9 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6519,375 +6530,375 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" style="774" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.44140625" style="775" customWidth="1"/>
+    <col min="1" max="1" width="45" style="773" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.44140625" style="774" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="770" t="s">
+      <c r="A1" s="769" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="771" t="s">
+      <c r="B1" s="770" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="772" t="s">
+      <c r="A2" s="771" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="773" t="s">
+      <c r="B2" s="772" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="770" t="s">
+      <c r="A3" s="769" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="773" t="s">
+      <c r="B3" s="772" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="770" t="s">
+      <c r="A4" s="769" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="773" t="s">
+      <c r="B4" s="772" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="770" t="s">
+      <c r="A5" s="769" t="s">
         <v>537</v>
       </c>
-      <c r="B5" s="771" t="s">
+      <c r="B5" s="770" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="770" t="s">
+      <c r="A6" s="769" t="s">
         <v>538</v>
       </c>
-      <c r="B6" s="771" t="s">
+      <c r="B6" s="770" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="770" t="s">
+      <c r="A7" s="769" t="s">
         <v>539</v>
       </c>
-      <c r="B7" s="771" t="s">
+      <c r="B7" s="770" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="770" t="s">
+      <c r="A8" s="769" t="s">
         <v>540</v>
       </c>
-      <c r="B8" s="771" t="s">
+      <c r="B8" s="770" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="770" t="s">
+      <c r="A9" s="769" t="s">
         <v>541</v>
       </c>
-      <c r="B9" s="771" t="s">
+      <c r="B9" s="770" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="770" t="s">
+      <c r="A10" s="769" t="s">
         <v>542</v>
       </c>
-      <c r="B10" s="771" t="s">
+      <c r="B10" s="770" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="770" t="s">
+      <c r="A11" s="769" t="s">
         <v>544</v>
       </c>
-      <c r="B11" s="771" t="s">
+      <c r="B11" s="770" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="770" t="s">
+      <c r="A12" s="769" t="s">
         <v>545</v>
       </c>
-      <c r="B12" s="771" t="s">
+      <c r="B12" s="770" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="770" t="s">
+      <c r="A13" s="769" t="s">
         <v>547</v>
       </c>
-      <c r="B13" s="771" t="s">
+      <c r="B13" s="770" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="770" t="s">
+      <c r="A14" s="769" t="s">
         <v>548</v>
       </c>
-      <c r="B14" s="771" t="s">
+      <c r="B14" s="770" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="770" t="s">
+      <c r="A15" s="769" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="771" t="s">
+      <c r="B15" s="770" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="770" t="s">
+      <c r="A16" s="769" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="771" t="s">
+      <c r="B16" s="770" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="770" t="s">
+      <c r="A17" s="769" t="s">
         <v>552</v>
       </c>
-      <c r="B17" s="771" t="s">
+      <c r="B17" s="770" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="770" t="s">
+      <c r="A18" s="769" t="s">
         <v>554</v>
       </c>
-      <c r="B18" s="771" t="s">
+      <c r="B18" s="770" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="770" t="s">
+      <c r="A19" s="769" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="771" t="s">
+      <c r="B19" s="770" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="770" t="s">
+      <c r="A20" s="769" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="771" t="s">
+      <c r="B20" s="770" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="770" t="s">
+      <c r="A21" s="769" t="s">
         <v>509</v>
       </c>
-      <c r="B21" s="773" t="s">
+      <c r="B21" s="772" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="770" t="s">
+      <c r="A22" s="769" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="771" t="s">
+      <c r="B22" s="770" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="770" t="s">
+      <c r="A23" s="769" t="s">
         <v>503</v>
       </c>
-      <c r="B23" s="771" t="s">
+      <c r="B23" s="770" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="770" t="s">
+      <c r="A24" s="769" t="s">
         <v>505</v>
       </c>
-      <c r="B24" s="771" t="s">
+      <c r="B24" s="770" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="770" t="s">
+      <c r="A25" s="769" t="s">
         <v>558</v>
       </c>
-      <c r="B25" s="771" t="s">
+      <c r="B25" s="770" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="770" t="s">
+      <c r="A26" s="769" t="s">
         <v>559</v>
       </c>
-      <c r="B26" s="771" t="s">
+      <c r="B26" s="770" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="770" t="s">
+      <c r="A27" s="769" t="s">
         <v>560</v>
       </c>
-      <c r="B27" s="771" t="s">
+      <c r="B27" s="770" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="770" t="s">
+      <c r="A28" s="769" t="s">
         <v>562</v>
       </c>
-      <c r="B28" s="771" t="s">
+      <c r="B28" s="770" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="770">
+      <c r="A29" s="769">
         <v>1</v>
       </c>
-      <c r="B29" s="771" t="s">
+      <c r="B29" s="770" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="770" t="s">
+      <c r="A30" s="769" t="s">
         <v>563</v>
       </c>
-      <c r="B30" s="771" t="s">
+      <c r="B30" s="770" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="770">
+      <c r="A31" s="769">
         <v>2</v>
       </c>
-      <c r="B31" s="771" t="s">
+      <c r="B31" s="770" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="770" t="s">
+      <c r="A32" s="769" t="s">
         <v>564</v>
       </c>
-      <c r="B32" s="771" t="s">
+      <c r="B32" s="770" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="770" t="s">
+      <c r="A33" s="769" t="s">
         <v>565</v>
       </c>
-      <c r="B33" s="771" t="s">
+      <c r="B33" s="770" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="774" t="s">
+      <c r="A34" s="773" t="s">
         <v>567</v>
       </c>
-      <c r="B34" s="775" t="s">
+      <c r="B34" s="774" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="770" t="s">
+      <c r="A35" s="769" t="s">
         <v>569</v>
       </c>
-      <c r="B35" s="775" t="s">
+      <c r="B35" s="774" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="770" t="s">
+      <c r="A36" s="769" t="s">
         <v>571</v>
       </c>
-      <c r="B36" s="771" t="s">
+      <c r="B36" s="770" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="774" t="s">
+      <c r="A37" s="773" t="s">
         <v>573</v>
       </c>
-      <c r="B37" s="771" t="s">
+      <c r="B37" s="770" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="774" t="s">
+      <c r="A38" s="773" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="771" t="s">
+      <c r="B38" s="770" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="774" t="s">
+      <c r="A39" s="773" t="s">
         <v>576</v>
       </c>
-      <c r="B39" s="775" t="s">
+      <c r="B39" s="774" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="774" t="s">
+      <c r="A40" s="773" t="s">
         <v>578</v>
       </c>
-      <c r="B40" s="775" t="s">
+      <c r="B40" s="774" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="774" t="s">
+      <c r="A41" s="773" t="s">
         <v>580</v>
       </c>
-      <c r="B41" s="775" t="s">
+      <c r="B41" s="774" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="776" t="s">
+      <c r="A42" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="775" t="s">
+      <c r="B42" s="774" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="774" t="s">
+      <c r="A43" s="773" t="s">
         <v>520</v>
       </c>
-      <c r="B43" s="775" t="s">
+      <c r="B43" s="774" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="774" t="s">
+      <c r="A44" s="773" t="s">
         <v>530</v>
       </c>
-      <c r="B44" s="775" t="s">
+      <c r="B44" s="774" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="774" t="s">
+      <c r="A45" s="773" t="s">
         <v>585</v>
       </c>
-      <c r="B45" s="775" t="s">
+      <c r="B45" s="774" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="774" t="s">
+      <c r="A46" s="773" t="s">
         <v>587</v>
       </c>
-      <c r="B46" s="775" t="s">
+      <c r="B46" s="774" t="s">
         <v>588</v>
       </c>
     </row>
@@ -6926,8 +6937,8 @@
       <c r="B3" s="324" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="928"/>
-      <c r="D3" s="928"/>
+      <c r="C3" s="926"/>
+      <c r="D3" s="926"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="325"/>
@@ -6960,10 +6971,10 @@
       <c r="D10" s="332" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="929" t="s">
+      <c r="E10" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F10" s="930"/>
+      <c r="F10" s="928"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
@@ -7016,7 +7027,7 @@
       <c r="C15" s="346"/>
       <c r="D15" s="351"/>
       <c r="E15" s="352"/>
-      <c r="F15" s="801"/>
+      <c r="F15" s="800"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
@@ -7025,34 +7036,34 @@
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
       <c r="E16" s="353"/>
-      <c r="F16" s="802"/>
+      <c r="F16" s="801"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
         <v>524</v>
       </c>
-      <c r="C17" s="821"/>
-      <c r="D17" s="807"/>
-      <c r="E17" s="805"/>
-      <c r="F17" s="801"/>
+      <c r="C17" s="820"/>
+      <c r="D17" s="806"/>
+      <c r="E17" s="804"/>
+      <c r="F17" s="800"/>
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="798" t="s">
+      <c r="B18" s="797" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="804"/>
-      <c r="D18" s="806"/>
-      <c r="E18" s="806"/>
-      <c r="F18" s="810"/>
+      <c r="C18" s="803"/>
+      <c r="D18" s="805"/>
+      <c r="E18" s="805"/>
+      <c r="F18" s="809"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="819" t="s">
+      <c r="B19" s="818" t="s">
         <v>592</v>
       </c>
-      <c r="C19" s="820"/>
-      <c r="D19" s="822"/>
-      <c r="E19" s="822"/>
-      <c r="F19" s="809"/>
+      <c r="C19" s="819"/>
+      <c r="D19" s="821"/>
+      <c r="E19" s="821"/>
+      <c r="F19" s="808"/>
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
@@ -7061,7 +7072,7 @@
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
       <c r="E20" s="354"/>
-      <c r="F20" s="802"/>
+      <c r="F20" s="801"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
@@ -7070,7 +7081,7 @@
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
       <c r="E21" s="350"/>
-      <c r="F21" s="801"/>
+      <c r="F21" s="800"/>
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
@@ -7079,16 +7090,16 @@
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
       <c r="E22" s="350"/>
-      <c r="F22" s="801"/>
+      <c r="F22" s="800"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="803" t="s">
+      <c r="B23" s="802" t="s">
         <v>592</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
       <c r="E23" s="361"/>
-      <c r="F23" s="802"/>
+      <c r="F23" s="801"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D26" s="326"/>
@@ -7118,10 +7129,10 @@
       <c r="D30" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="929" t="s">
+      <c r="E30" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F30" s="930"/>
+      <c r="F30" s="928"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
@@ -7174,7 +7185,7 @@
       <c r="C35" s="346"/>
       <c r="D35" s="351"/>
       <c r="E35" s="352"/>
-      <c r="F35" s="801"/>
+      <c r="F35" s="800"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
@@ -7183,7 +7194,7 @@
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
       <c r="E36" s="353"/>
-      <c r="F36" s="802"/>
+      <c r="F36" s="801"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
@@ -7192,25 +7203,25 @@
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
       <c r="E37" s="350"/>
-      <c r="F37" s="801"/>
+      <c r="F37" s="800"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="812" t="s">
+      <c r="B38" s="811" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="799"/>
-      <c r="D38" s="806"/>
-      <c r="E38" s="806"/>
-      <c r="F38" s="810"/>
+      <c r="C38" s="798"/>
+      <c r="D38" s="805"/>
+      <c r="E38" s="805"/>
+      <c r="F38" s="809"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="815" t="s">
+      <c r="B39" s="814" t="s">
         <v>592</v>
       </c>
-      <c r="C39" s="816"/>
-      <c r="D39" s="822"/>
-      <c r="E39" s="822"/>
-      <c r="F39" s="809"/>
+      <c r="C39" s="815"/>
+      <c r="D39" s="821"/>
+      <c r="E39" s="821"/>
+      <c r="F39" s="808"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
@@ -7219,7 +7230,7 @@
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
       <c r="E40" s="354"/>
-      <c r="F40" s="802"/>
+      <c r="F40" s="801"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
@@ -7228,7 +7239,7 @@
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
       <c r="E41" s="350"/>
-      <c r="F41" s="801"/>
+      <c r="F41" s="800"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
@@ -7237,16 +7248,16 @@
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
       <c r="E42" s="350"/>
-      <c r="F42" s="801"/>
+      <c r="F42" s="800"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="815" t="s">
+      <c r="B43" s="814" t="s">
         <v>592</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
       <c r="E43" s="359"/>
-      <c r="F43" s="802"/>
+      <c r="F43" s="801"/>
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
@@ -7273,10 +7284,10 @@
       <c r="D49" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="929" t="s">
+      <c r="E49" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F49" s="930"/>
+      <c r="F49" s="928"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
@@ -7329,7 +7340,7 @@
       <c r="C54" s="346"/>
       <c r="D54" s="351"/>
       <c r="E54" s="352"/>
-      <c r="F54" s="801"/>
+      <c r="F54" s="800"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
@@ -7338,34 +7349,34 @@
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
       <c r="E55" s="353"/>
-      <c r="F55" s="802"/>
+      <c r="F55" s="801"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
         <v>524</v>
       </c>
       <c r="C56" s="345"/>
-      <c r="D56" s="800"/>
-      <c r="E56" s="807"/>
-      <c r="F56" s="808"/>
+      <c r="D56" s="799"/>
+      <c r="E56" s="806"/>
+      <c r="F56" s="807"/>
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="818" t="s">
+      <c r="B57" s="817" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="799"/>
-      <c r="D57" s="806"/>
-      <c r="E57" s="806"/>
-      <c r="F57" s="810"/>
+      <c r="C57" s="798"/>
+      <c r="D57" s="805"/>
+      <c r="E57" s="805"/>
+      <c r="F57" s="809"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="814" t="s">
+      <c r="B58" s="813" t="s">
         <v>592</v>
       </c>
-      <c r="C58" s="816"/>
-      <c r="D58" s="822"/>
-      <c r="E58" s="822"/>
-      <c r="F58" s="809"/>
+      <c r="C58" s="815"/>
+      <c r="D58" s="821"/>
+      <c r="E58" s="821"/>
+      <c r="F58" s="808"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
@@ -7374,7 +7385,7 @@
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
       <c r="E59" s="354"/>
-      <c r="F59" s="802"/>
+      <c r="F59" s="801"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
@@ -7383,7 +7394,7 @@
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
       <c r="E60" s="350"/>
-      <c r="F60" s="801"/>
+      <c r="F60" s="800"/>
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
@@ -7392,16 +7403,16 @@
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
       <c r="E61" s="350"/>
-      <c r="F61" s="801"/>
+      <c r="F61" s="800"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="803" t="s">
+      <c r="B62" s="802" t="s">
         <v>592</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
       <c r="E62" s="361"/>
-      <c r="F62" s="802"/>
+      <c r="F62" s="801"/>
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
@@ -7428,10 +7439,10 @@
       <c r="D68" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E68" s="929" t="s">
+      <c r="E68" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F68" s="930"/>
+      <c r="F68" s="928"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
@@ -7484,7 +7495,7 @@
       <c r="C73" s="346"/>
       <c r="D73" s="351"/>
       <c r="E73" s="352"/>
-      <c r="F73" s="801"/>
+      <c r="F73" s="800"/>
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
@@ -7493,34 +7504,34 @@
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
       <c r="E74" s="353"/>
-      <c r="F74" s="802"/>
+      <c r="F74" s="801"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="817" t="s">
+      <c r="B75" s="816" t="s">
         <v>524</v>
       </c>
-      <c r="C75" s="813"/>
+      <c r="C75" s="812"/>
       <c r="D75" s="350"/>
       <c r="E75" s="350"/>
-      <c r="F75" s="801"/>
+      <c r="F75" s="800"/>
     </row>
     <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="818" t="s">
+      <c r="B76" s="817" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="799"/>
-      <c r="D76" s="806"/>
-      <c r="E76" s="806"/>
-      <c r="F76" s="810"/>
+      <c r="C76" s="798"/>
+      <c r="D76" s="805"/>
+      <c r="E76" s="805"/>
+      <c r="F76" s="809"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="814" t="s">
+      <c r="B77" s="813" t="s">
         <v>592</v>
       </c>
-      <c r="C77" s="816"/>
-      <c r="D77" s="822"/>
-      <c r="E77" s="822"/>
-      <c r="F77" s="811"/>
+      <c r="C77" s="815"/>
+      <c r="D77" s="821"/>
+      <c r="E77" s="821"/>
+      <c r="F77" s="810"/>
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
@@ -7529,7 +7540,7 @@
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
       <c r="E78" s="354"/>
-      <c r="F78" s="802"/>
+      <c r="F78" s="801"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
@@ -7538,7 +7549,7 @@
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
       <c r="E79" s="350"/>
-      <c r="F79" s="801"/>
+      <c r="F79" s="800"/>
     </row>
     <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
@@ -7547,16 +7558,16 @@
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
       <c r="E80" s="350"/>
-      <c r="F80" s="801"/>
+      <c r="F80" s="800"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="803" t="s">
+      <c r="B81" s="802" t="s">
         <v>592</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
       <c r="E81" s="361"/>
-      <c r="F81" s="802"/>
+      <c r="F81" s="801"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7605,8 +7616,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="926"/>
-      <c r="F2" s="926"/>
+      <c r="E2" s="924"/>
+      <c r="F2" s="924"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7638,13 +7649,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="927" t="s">
+      <c r="B6" s="925" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="927"/>
-      <c r="D6" s="927"/>
-      <c r="E6" s="927"/>
-      <c r="F6" s="927"/>
+      <c r="C6" s="925"/>
+      <c r="D6" s="925"/>
+      <c r="E6" s="925"/>
+      <c r="F6" s="925"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7659,14 +7670,14 @@
       <c r="B8" s="399" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="931" t="s">
+      <c r="C8" s="929" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="932"/>
-      <c r="E8" s="931" t="s">
+      <c r="D8" s="930"/>
+      <c r="E8" s="929" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="932"/>
+      <c r="F8" s="930"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
@@ -7802,11 +7813,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="921"/>
-      <c r="C22" s="921"/>
-      <c r="D22" s="921"/>
-      <c r="E22" s="921"/>
-      <c r="F22" s="921"/>
+      <c r="B22" s="919"/>
+      <c r="C22" s="919"/>
+      <c r="D22" s="919"/>
+      <c r="E22" s="919"/>
+      <c r="F22" s="919"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7828,7 +7839,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
-      <c r="B25" s="769" t="s">
+      <c r="B25" s="768" t="s">
         <v>525</v>
       </c>
       <c r="C25" s="371"/>
@@ -7838,7 +7849,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
-      <c r="B26" s="769" t="s">
+      <c r="B26" s="768" t="s">
         <v>526</v>
       </c>
       <c r="C26" s="371"/>
@@ -7877,13 +7888,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="933" t="s">
+      <c r="B2" s="931" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="934" t="s">
+      <c r="C2" s="932" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="934" t="s">
+      <c r="D2" s="932" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="424" t="s">
@@ -7918,9 +7929,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="933"/>
-      <c r="C3" s="935"/>
-      <c r="D3" s="935"/>
+      <c r="B3" s="931"/>
+      <c r="C3" s="933"/>
+      <c r="D3" s="933"/>
       <c r="E3" s="439" t="s">
         <v>296</v>
       </c>
@@ -7953,7 +7964,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="936" t="s">
+      <c r="B4" s="934" t="s">
         <v>299</v>
       </c>
       <c r="C4" s="425" t="s">
@@ -7972,7 +7983,7 @@
       <c r="N4" s="427"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="936"/>
+      <c r="B5" s="934"/>
       <c r="C5" s="425" t="s">
         <v>93</v>
       </c>
@@ -7989,7 +8000,7 @@
       <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="937"/>
+      <c r="B6" s="935"/>
       <c r="C6" s="435" t="s">
         <v>289</v>
       </c>
@@ -8103,43 +8114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="950" t="s">
+      <c r="A1" s="948" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="951"/>
+      <c r="B1" s="949"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="941" t="s">
+      <c r="D1" s="939" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="942"/>
-      <c r="F1" s="942"/>
-      <c r="G1" s="942"/>
-      <c r="H1" s="942"/>
-      <c r="I1" s="943"/>
-      <c r="J1" s="952" t="s">
+      <c r="E1" s="940"/>
+      <c r="F1" s="940"/>
+      <c r="G1" s="940"/>
+      <c r="H1" s="940"/>
+      <c r="I1" s="941"/>
+      <c r="J1" s="950" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="953"/>
-      <c r="L1" s="953"/>
-      <c r="M1" s="953"/>
-      <c r="N1" s="954"/>
-      <c r="O1" s="955" t="s">
+      <c r="K1" s="951"/>
+      <c r="L1" s="951"/>
+      <c r="M1" s="951"/>
+      <c r="N1" s="952"/>
+      <c r="O1" s="953" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="956"/>
-      <c r="Q1" s="957"/>
+      <c r="P1" s="954"/>
+      <c r="Q1" s="955"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="949" t="s">
+      <c r="T1" s="947" t="s">
         <v>495</v>
       </c>
-      <c r="U1" s="949"/>
-      <c r="V1" s="949"/>
-      <c r="W1" s="949"/>
-      <c r="X1" s="949"/>
-      <c r="Y1" s="949"/>
+      <c r="U1" s="947"/>
+      <c r="V1" s="947"/>
+      <c r="W1" s="947"/>
+      <c r="X1" s="947"/>
+      <c r="Y1" s="947"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8151,18 +8162,18 @@
       <c r="C2" s="446" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="946" t="s">
+      <c r="D2" s="944" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="945"/>
-      <c r="F2" s="945" t="s">
+      <c r="E2" s="943"/>
+      <c r="F2" s="943" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="945"/>
-      <c r="H2" s="944" t="s">
+      <c r="G2" s="943"/>
+      <c r="H2" s="942" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="944"/>
+      <c r="I2" s="942"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8193,18 +8204,18 @@
       <c r="S2" s="681" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="947" t="s">
+      <c r="T2" s="945" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="947"/>
-      <c r="V2" s="948" t="s">
+      <c r="U2" s="945"/>
+      <c r="V2" s="946" t="s">
         <v>481</v>
       </c>
-      <c r="W2" s="948"/>
-      <c r="X2" s="948" t="s">
+      <c r="W2" s="946"/>
+      <c r="X2" s="946" t="s">
         <v>482</v>
       </c>
-      <c r="Y2" s="948"/>
+      <c r="Y2" s="946"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8230,13 +8241,13 @@
       <c r="I3" s="665" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="938" t="s">
+      <c r="J3" s="936" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="939"/>
-      <c r="L3" s="939"/>
-      <c r="M3" s="939"/>
-      <c r="N3" s="940"/>
+      <c r="K3" s="937"/>
+      <c r="L3" s="937"/>
+      <c r="M3" s="937"/>
+      <c r="N3" s="938"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -8251,13 +8262,13 @@
       <c r="V3" s="685" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="707" t="s">
+      <c r="W3" s="706" t="s">
         <v>496</v>
       </c>
       <c r="X3" s="685" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="707" t="s">
+      <c r="Y3" s="706" t="s">
         <v>496</v>
       </c>
     </row>
@@ -8309,7 +8320,7 @@
       <c r="R5" s="441"/>
       <c r="S5" s="441"/>
       <c r="T5" s="679"/>
-      <c r="U5" s="698"/>
+      <c r="U5" s="697"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="441"/>
@@ -8332,7 +8343,7 @@
       <c r="R6" s="441"/>
       <c r="S6" s="441"/>
       <c r="T6" s="679"/>
-      <c r="U6" s="698"/>
+      <c r="U6" s="697"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="441"/>
@@ -8355,7 +8366,7 @@
       <c r="R7" s="441"/>
       <c r="S7" s="441"/>
       <c r="T7" s="679"/>
-      <c r="U7" s="698"/>
+      <c r="U7" s="697"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="441"/>
@@ -8378,7 +8389,7 @@
       <c r="R8" s="441"/>
       <c r="S8" s="441"/>
       <c r="T8" s="679"/>
-      <c r="U8" s="698"/>
+      <c r="U8" s="697"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="441"/>
@@ -8401,7 +8412,7 @@
       <c r="R9" s="441"/>
       <c r="S9" s="441"/>
       <c r="T9" s="679"/>
-      <c r="U9" s="698"/>
+      <c r="U9" s="697"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="441"/>
@@ -8424,7 +8435,7 @@
       <c r="R10" s="441"/>
       <c r="S10" s="441"/>
       <c r="T10" s="679"/>
-      <c r="U10" s="698"/>
+      <c r="U10" s="697"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="441"/>
@@ -8447,7 +8458,7 @@
       <c r="R11" s="441"/>
       <c r="S11" s="441"/>
       <c r="T11" s="679"/>
-      <c r="U11" s="698"/>
+      <c r="U11" s="697"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="441"/>
@@ -8470,7 +8481,7 @@
       <c r="R12" s="441"/>
       <c r="S12" s="441"/>
       <c r="T12" s="679"/>
-      <c r="U12" s="698"/>
+      <c r="U12" s="697"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="441"/>
@@ -8493,7 +8504,7 @@
       <c r="R13" s="441"/>
       <c r="S13" s="441"/>
       <c r="T13" s="679"/>
-      <c r="U13" s="698"/>
+      <c r="U13" s="697"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="441"/>
@@ -8516,7 +8527,7 @@
       <c r="R14" s="441"/>
       <c r="S14" s="441"/>
       <c r="T14" s="679"/>
-      <c r="U14" s="698"/>
+      <c r="U14" s="697"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="441"/>
@@ -8539,7 +8550,7 @@
       <c r="R15" s="441"/>
       <c r="S15" s="441"/>
       <c r="T15" s="679"/>
-      <c r="U15" s="698"/>
+      <c r="U15" s="697"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="441"/>
@@ -8562,7 +8573,7 @@
       <c r="R16" s="441"/>
       <c r="S16" s="441"/>
       <c r="T16" s="679"/>
-      <c r="U16" s="698"/>
+      <c r="U16" s="697"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="441"/>
@@ -8585,7 +8596,7 @@
       <c r="R17" s="441"/>
       <c r="S17" s="441"/>
       <c r="T17" s="679"/>
-      <c r="U17" s="698"/>
+      <c r="U17" s="697"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="441"/>
@@ -8608,7 +8619,7 @@
       <c r="R18" s="441"/>
       <c r="S18" s="441"/>
       <c r="T18" s="679"/>
-      <c r="U18" s="698"/>
+      <c r="U18" s="697"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="441"/>
@@ -8631,7 +8642,7 @@
       <c r="R19" s="441"/>
       <c r="S19" s="441"/>
       <c r="T19" s="679"/>
-      <c r="U19" s="698"/>
+      <c r="U19" s="697"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="441"/>
@@ -8654,7 +8665,7 @@
       <c r="R20" s="441"/>
       <c r="S20" s="441"/>
       <c r="T20" s="679"/>
-      <c r="U20" s="698"/>
+      <c r="U20" s="697"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="441"/>
@@ -8677,7 +8688,7 @@
       <c r="R21" s="441"/>
       <c r="S21" s="441"/>
       <c r="T21" s="679"/>
-      <c r="U21" s="698"/>
+      <c r="U21" s="697"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="441"/>
@@ -8700,7 +8711,7 @@
       <c r="R22" s="441"/>
       <c r="S22" s="441"/>
       <c r="T22" s="679"/>
-      <c r="U22" s="698"/>
+      <c r="U22" s="697"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="441"/>
@@ -8723,7 +8734,7 @@
       <c r="R23" s="441"/>
       <c r="S23" s="441"/>
       <c r="T23" s="679"/>
-      <c r="U23" s="698"/>
+      <c r="U23" s="697"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="441"/>
@@ -8746,7 +8757,7 @@
       <c r="R24" s="441"/>
       <c r="S24" s="441"/>
       <c r="T24" s="679"/>
-      <c r="U24" s="698"/>
+      <c r="U24" s="697"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="441"/>
@@ -8769,7 +8780,7 @@
       <c r="R25" s="441"/>
       <c r="S25" s="441"/>
       <c r="T25" s="679"/>
-      <c r="U25" s="698"/>
+      <c r="U25" s="697"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="441"/>
@@ -8792,7 +8803,7 @@
       <c r="R26" s="441"/>
       <c r="S26" s="441"/>
       <c r="T26" s="679"/>
-      <c r="U26" s="698"/>
+      <c r="U26" s="697"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="441"/>
@@ -8815,7 +8826,7 @@
       <c r="R27" s="441"/>
       <c r="S27" s="441"/>
       <c r="T27" s="679"/>
-      <c r="U27" s="698"/>
+      <c r="U27" s="697"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="441"/>
@@ -8838,7 +8849,7 @@
       <c r="R28" s="441"/>
       <c r="S28" s="441"/>
       <c r="T28" s="679"/>
-      <c r="U28" s="698"/>
+      <c r="U28" s="697"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="441"/>
@@ -8861,7 +8872,7 @@
       <c r="R29" s="441"/>
       <c r="S29" s="441"/>
       <c r="T29" s="679"/>
-      <c r="U29" s="698"/>
+      <c r="U29" s="697"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="441"/>
@@ -8884,7 +8895,7 @@
       <c r="R30" s="441"/>
       <c r="S30" s="441"/>
       <c r="T30" s="679"/>
-      <c r="U30" s="698"/>
+      <c r="U30" s="697"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="441"/>
@@ -8907,7 +8918,7 @@
       <c r="R31" s="441"/>
       <c r="S31" s="441"/>
       <c r="T31" s="679"/>
-      <c r="U31" s="698"/>
+      <c r="U31" s="697"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="441"/>
@@ -8930,7 +8941,7 @@
       <c r="R32" s="441"/>
       <c r="S32" s="441"/>
       <c r="T32" s="679"/>
-      <c r="U32" s="698"/>
+      <c r="U32" s="697"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="441"/>
@@ -8953,7 +8964,7 @@
       <c r="R33" s="441"/>
       <c r="S33" s="441"/>
       <c r="T33" s="679"/>
-      <c r="U33" s="698"/>
+      <c r="U33" s="697"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="441"/>
@@ -8976,7 +8987,7 @@
       <c r="R34" s="441"/>
       <c r="S34" s="441"/>
       <c r="T34" s="679"/>
-      <c r="U34" s="698"/>
+      <c r="U34" s="697"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="441"/>
@@ -8999,7 +9010,7 @@
       <c r="R35" s="441"/>
       <c r="S35" s="441"/>
       <c r="T35" s="679"/>
-      <c r="U35" s="698"/>
+      <c r="U35" s="697"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="441"/>
@@ -9022,7 +9033,7 @@
       <c r="R36" s="441"/>
       <c r="S36" s="441"/>
       <c r="T36" s="679"/>
-      <c r="U36" s="698"/>
+      <c r="U36" s="697"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="441"/>
@@ -9045,7 +9056,7 @@
       <c r="R37" s="441"/>
       <c r="S37" s="441"/>
       <c r="T37" s="679"/>
-      <c r="U37" s="698"/>
+      <c r="U37" s="697"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="441"/>
@@ -9068,7 +9079,7 @@
       <c r="R38" s="441"/>
       <c r="S38" s="441"/>
       <c r="T38" s="679"/>
-      <c r="U38" s="698"/>
+      <c r="U38" s="697"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="441"/>
@@ -9091,7 +9102,7 @@
       <c r="R39" s="441"/>
       <c r="S39" s="441"/>
       <c r="T39" s="679"/>
-      <c r="U39" s="698"/>
+      <c r="U39" s="697"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="441"/>
@@ -9114,7 +9125,7 @@
       <c r="R40" s="441"/>
       <c r="S40" s="441"/>
       <c r="T40" s="679"/>
-      <c r="U40" s="698"/>
+      <c r="U40" s="697"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="441"/>
@@ -9137,7 +9148,7 @@
       <c r="R41" s="441"/>
       <c r="S41" s="441"/>
       <c r="T41" s="679"/>
-      <c r="U41" s="698"/>
+      <c r="U41" s="697"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="441"/>
@@ -9160,7 +9171,7 @@
       <c r="R42" s="441"/>
       <c r="S42" s="441"/>
       <c r="T42" s="679"/>
-      <c r="U42" s="698"/>
+      <c r="U42" s="697"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="441"/>
@@ -9183,7 +9194,7 @@
       <c r="R43" s="441"/>
       <c r="S43" s="441"/>
       <c r="T43" s="679"/>
-      <c r="U43" s="698"/>
+      <c r="U43" s="697"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="441"/>
@@ -9206,7 +9217,7 @@
       <c r="R44" s="441"/>
       <c r="S44" s="441"/>
       <c r="T44" s="679"/>
-      <c r="U44" s="698"/>
+      <c r="U44" s="697"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="441"/>
@@ -9229,7 +9240,7 @@
       <c r="R45" s="441"/>
       <c r="S45" s="441"/>
       <c r="T45" s="679"/>
-      <c r="U45" s="698"/>
+      <c r="U45" s="697"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="441"/>
@@ -9252,7 +9263,7 @@
       <c r="R46" s="441"/>
       <c r="S46" s="441"/>
       <c r="T46" s="679"/>
-      <c r="U46" s="698"/>
+      <c r="U46" s="697"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="441"/>
@@ -9275,7 +9286,7 @@
       <c r="R47" s="441"/>
       <c r="S47" s="441"/>
       <c r="T47" s="679"/>
-      <c r="U47" s="698"/>
+      <c r="U47" s="697"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="441"/>
@@ -9298,7 +9309,7 @@
       <c r="R48" s="441"/>
       <c r="S48" s="441"/>
       <c r="T48" s="679"/>
-      <c r="U48" s="698"/>
+      <c r="U48" s="697"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="441"/>
@@ -9321,7 +9332,7 @@
       <c r="R49" s="441"/>
       <c r="S49" s="441"/>
       <c r="T49" s="679"/>
-      <c r="U49" s="698"/>
+      <c r="U49" s="697"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="441"/>
@@ -9344,7 +9355,7 @@
       <c r="R50" s="441"/>
       <c r="S50" s="441"/>
       <c r="T50" s="679"/>
-      <c r="U50" s="698"/>
+      <c r="U50" s="697"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="441"/>
@@ -9367,7 +9378,7 @@
       <c r="R51" s="441"/>
       <c r="S51" s="441"/>
       <c r="T51" s="679"/>
-      <c r="U51" s="698"/>
+      <c r="U51" s="697"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="441"/>
@@ -9390,7 +9401,7 @@
       <c r="R52" s="441"/>
       <c r="S52" s="441"/>
       <c r="T52" s="679"/>
-      <c r="U52" s="698"/>
+      <c r="U52" s="697"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="441"/>
@@ -9413,7 +9424,7 @@
       <c r="R53" s="441"/>
       <c r="S53" s="441"/>
       <c r="T53" s="679"/>
-      <c r="U53" s="698"/>
+      <c r="U53" s="697"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="441"/>
@@ -9436,7 +9447,7 @@
       <c r="R54" s="441"/>
       <c r="S54" s="441"/>
       <c r="T54" s="679"/>
-      <c r="U54" s="698"/>
+      <c r="U54" s="697"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="441"/>
@@ -9459,7 +9470,7 @@
       <c r="R55" s="441"/>
       <c r="S55" s="441"/>
       <c r="T55" s="679"/>
-      <c r="U55" s="698"/>
+      <c r="U55" s="697"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -9525,16 +9536,16 @@
       <c r="E1" s="866"/>
       <c r="F1" s="866"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="964" t="s">
+      <c r="H1" s="961" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="965"/>
-      <c r="J1" s="965"/>
+      <c r="I1" s="962"/>
+      <c r="J1" s="962"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="962" t="s">
+      <c r="O1" s="959" t="s">
         <v>313</v>
       </c>
       <c r="P1" s="466"/>
@@ -9546,26 +9557,26 @@
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="962" t="s">
+      <c r="W1" s="959" t="s">
         <v>315</v>
       </c>
       <c r="X1" s="466"/>
-      <c r="Y1" s="966" t="s">
+      <c r="Y1" s="963" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="966"/>
-      <c r="AA1" s="966"/>
-      <c r="AB1" s="966"/>
-      <c r="AC1" s="966"/>
-      <c r="AD1" s="967"/>
-      <c r="AE1" s="962" t="s">
+      <c r="Z1" s="963"/>
+      <c r="AA1" s="963"/>
+      <c r="AB1" s="963"/>
+      <c r="AC1" s="963"/>
+      <c r="AD1" s="964"/>
+      <c r="AE1" s="959" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="961" t="s">
+      <c r="AF1" s="958" t="s">
         <v>480</v>
       </c>
-      <c r="AG1" s="949"/>
-      <c r="AH1" s="949"/>
+      <c r="AG1" s="947"/>
+      <c r="AH1" s="947"/>
       <c r="AI1" s="688"/>
       <c r="AJ1" s="688"/>
       <c r="AK1" s="688"/>
@@ -9624,56 +9635,56 @@
       <c r="C2" s="473" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="960" t="s">
+      <c r="D2" s="957" t="s">
         <v>485</v>
       </c>
-      <c r="E2" s="960"/>
-      <c r="F2" s="960" t="s">
+      <c r="E2" s="957"/>
+      <c r="F2" s="957" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="960"/>
+      <c r="G2" s="957"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="958" t="s">
+      <c r="I2" s="956" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="958"/>
-      <c r="K2" s="958" t="s">
+      <c r="J2" s="956"/>
+      <c r="K2" s="956" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="958"/>
-      <c r="M2" s="958" t="s">
+      <c r="L2" s="956"/>
+      <c r="M2" s="956" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="959"/>
-      <c r="O2" s="963"/>
+      <c r="N2" s="965"/>
+      <c r="O2" s="960"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="958" t="s">
+      <c r="Q2" s="956" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="958"/>
-      <c r="S2" s="958" t="s">
+      <c r="R2" s="956"/>
+      <c r="S2" s="956" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="958"/>
-      <c r="U2" s="958" t="s">
+      <c r="T2" s="956"/>
+      <c r="U2" s="956" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="959"/>
-      <c r="W2" s="963"/>
+      <c r="V2" s="965"/>
+      <c r="W2" s="960"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="958" t="s">
+      <c r="Y2" s="956" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="958"/>
-      <c r="AA2" s="958" t="s">
+      <c r="Z2" s="956"/>
+      <c r="AA2" s="956" t="s">
         <v>189</v>
       </c>
-      <c r="AB2" s="958"/>
-      <c r="AC2" s="958" t="s">
+      <c r="AB2" s="956"/>
+      <c r="AC2" s="956" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="959"/>
-      <c r="AE2" s="963"/>
+      <c r="AD2" s="965"/>
+      <c r="AE2" s="960"/>
       <c r="AF2" s="682" t="s">
         <v>464</v>
       </c>
@@ -10559,6 +10570,10 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
@@ -10573,10 +10588,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10791,64 +10802,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="986"/>
+      <c r="A1" s="984"/>
       <c r="B1" s="855"/>
       <c r="C1" s="855"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I2" s="741"/>
-      <c r="J2" s="742" t="s">
+      <c r="I2" s="740"/>
+      <c r="J2" s="741" t="s">
         <v>487</v>
       </c>
-      <c r="K2" s="742" t="s">
+      <c r="K2" s="741" t="s">
         <v>346</v>
       </c>
-      <c r="L2" s="742" t="s">
+      <c r="L2" s="741" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="990" t="s">
+      <c r="A3" s="988" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="992" t="s">
+      <c r="B3" s="990" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="993"/>
-      <c r="D3" s="978" t="s">
+      <c r="C3" s="991"/>
+      <c r="D3" s="976" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="979"/>
-      <c r="F3" s="978" t="s">
+      <c r="E3" s="977"/>
+      <c r="F3" s="976" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="979"/>
-      <c r="I3" s="739" t="str">
+      <c r="G3" s="977"/>
+      <c r="I3" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J3" s="740" t="s">
+      <c r="J3" s="739" t="s">
         <v>503</v>
       </c>
-      <c r="K3" s="721"/>
-      <c r="L3" s="721"/>
-      <c r="N3" s="706"/>
-      <c r="O3" s="975" t="s">
+      <c r="K3" s="720"/>
+      <c r="L3" s="720"/>
+      <c r="N3" s="705"/>
+      <c r="O3" s="973" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="975"/>
-      <c r="Q3" s="975" t="s">
+      <c r="P3" s="973"/>
+      <c r="Q3" s="973" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="975"/>
-      <c r="S3" s="706"/>
-      <c r="T3" s="714" t="s">
+      <c r="R3" s="973"/>
+      <c r="S3" s="705"/>
+      <c r="T3" s="713" t="s">
         <v>348</v>
       </c>
-      <c r="U3" s="706"/>
+      <c r="U3" s="705"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="991"/>
+      <c r="A4" s="989"/>
       <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
@@ -10867,40 +10878,40 @@
       <c r="G4" s="512" t="s">
         <v>350</v>
       </c>
-      <c r="I4" s="739" t="str">
+      <c r="I4" s="738" t="str">
         <f t="shared" ref="I4:I7" si="0">$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J4" s="740" t="s">
+      <c r="J4" s="739" t="s">
         <v>504</v>
       </c>
-      <c r="K4" s="721"/>
-      <c r="L4" s="721"/>
-      <c r="N4" s="714" t="s">
+      <c r="K4" s="720"/>
+      <c r="L4" s="720"/>
+      <c r="N4" s="713" t="s">
         <v>351</v>
       </c>
-      <c r="O4" s="723" t="str">
+      <c r="O4" s="722" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="P4" s="723" t="str">
+      <c r="P4" s="722" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="Q4" s="723" t="str">
+      <c r="Q4" s="722" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="R4" s="723" t="str">
+      <c r="R4" s="722" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="S4" s="706"/>
-      <c r="T4" s="724" t="str">
+      <c r="S4" s="705"/>
+      <c r="T4" s="723" t="str">
         <f>O4</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="U4" s="724" t="str">
+      <c r="U4" s="723" t="str">
         <f>P4</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -10915,41 +10926,41 @@
       <c r="E5" s="582"/>
       <c r="F5" s="582"/>
       <c r="G5" s="582"/>
-      <c r="I5" s="739" t="str">
+      <c r="I5" s="738" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J5" s="740" t="s">
+      <c r="J5" s="739" t="s">
         <v>505</v>
       </c>
-      <c r="K5" s="721"/>
-      <c r="L5" s="721"/>
-      <c r="N5" s="714" t="str">
+      <c r="K5" s="720"/>
+      <c r="L5" s="720"/>
+      <c r="N5" s="713" t="str">
         <f>A5</f>
         <v>2 000 - 10 000</v>
       </c>
-      <c r="O5" s="714">
+      <c r="O5" s="713">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="721">
+      <c r="P5" s="720">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="725" t="e">
+      <c r="Q5" s="724" t="e">
         <f>O5/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="725">
+      <c r="R5" s="724">
         <f>IF(P8&lt;&gt;0,P5/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="706"/>
-      <c r="T5" s="721">
+      <c r="S5" s="705"/>
+      <c r="T5" s="720">
         <f t="shared" ref="T5:U7" si="1">O5/1000</f>
         <v>0</v>
       </c>
-      <c r="U5" s="721">
+      <c r="U5" s="720">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10964,41 +10975,41 @@
       <c r="E6" s="582"/>
       <c r="F6" s="582"/>
       <c r="G6" s="582"/>
-      <c r="I6" s="739" t="str">
+      <c r="I6" s="738" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J6" s="740" t="s">
+      <c r="J6" s="739" t="s">
         <v>509</v>
       </c>
-      <c r="K6" s="721"/>
-      <c r="L6" s="721"/>
-      <c r="N6" s="714" t="str">
+      <c r="K6" s="720"/>
+      <c r="L6" s="720"/>
+      <c r="N6" s="713" t="str">
         <f>A6</f>
         <v>10 001 - 100 000</v>
       </c>
-      <c r="O6" s="714">
+      <c r="O6" s="713">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="721">
+      <c r="P6" s="720">
         <f>C6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="725" t="e">
+      <c r="Q6" s="724" t="e">
         <f>O6/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="725">
+      <c r="R6" s="724">
         <f>IF(P8&lt;&gt;0,P6/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="706"/>
-      <c r="T6" s="721">
+      <c r="S6" s="705"/>
+      <c r="T6" s="720">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="721">
+      <c r="U6" s="720">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11013,172 +11024,172 @@
       <c r="E7" s="582"/>
       <c r="F7" s="582"/>
       <c r="G7" s="582"/>
-      <c r="I7" s="739" t="str">
+      <c r="I7" s="738" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="J7" s="740" t="s">
+      <c r="J7" s="739" t="s">
         <v>506</v>
       </c>
-      <c r="K7" s="721"/>
-      <c r="L7" s="721"/>
-      <c r="N7" s="714" t="str">
+      <c r="K7" s="720"/>
+      <c r="L7" s="720"/>
+      <c r="N7" s="713" t="str">
         <f>A7</f>
         <v>&gt;100 000</v>
       </c>
-      <c r="O7" s="714">
+      <c r="O7" s="713">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="721">
+      <c r="P7" s="720">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="725" t="e">
+      <c r="Q7" s="724" t="e">
         <f>O7/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="725">
+      <c r="R7" s="724">
         <f>IF(P8&lt;&gt;0,P7/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="706"/>
-      <c r="T7" s="721">
+      <c r="S7" s="705"/>
+      <c r="T7" s="720">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="721">
+      <c r="U7" s="720">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I8" s="739" t="str">
+      <c r="I8" s="738" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J8" s="740" t="s">
+      <c r="J8" s="739" t="s">
         <v>503</v>
       </c>
-      <c r="K8" s="721"/>
-      <c r="L8" s="721"/>
-      <c r="N8" s="714" t="s">
+      <c r="K8" s="720"/>
+      <c r="L8" s="720"/>
+      <c r="N8" s="713" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="714">
+      <c r="O8" s="713">
         <f>SUM(O5:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="721">
+      <c r="P8" s="720">
         <f>SUM(P5:P7)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="725" t="e">
+      <c r="Q8" s="724" t="e">
         <f>O8/O$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="725">
+      <c r="R8" s="724">
         <f>IF(P8&lt;&gt;0,P8/P$8,0)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="706"/>
-      <c r="T8" s="706"/>
-      <c r="U8" s="706"/>
+      <c r="S8" s="705"/>
+      <c r="T8" s="705"/>
+      <c r="U8" s="705"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I9" s="739" t="str">
+      <c r="I9" s="738" t="str">
         <f t="shared" ref="I9:I12" si="2">$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J9" s="740" t="s">
+      <c r="J9" s="739" t="s">
         <v>504</v>
       </c>
-      <c r="K9" s="721"/>
-      <c r="L9" s="721"/>
+      <c r="K9" s="720"/>
+      <c r="L9" s="720"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I10" s="739" t="str">
+      <c r="I10" s="738" t="str">
         <f t="shared" si="2"/>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J10" s="740" t="s">
+      <c r="J10" s="739" t="s">
         <v>505</v>
       </c>
-      <c r="K10" s="721"/>
-      <c r="L10" s="721"/>
-      <c r="N10" s="714"/>
-      <c r="O10" s="975" t="s">
+      <c r="K10" s="720"/>
+      <c r="L10" s="720"/>
+      <c r="N10" s="713"/>
+      <c r="O10" s="973" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="975"/>
-      <c r="Q10" s="975" t="s">
+      <c r="P10" s="973"/>
+      <c r="Q10" s="973" t="s">
         <v>356</v>
       </c>
-      <c r="R10" s="975"/>
+      <c r="R10" s="973"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I11" s="739" t="str">
+      <c r="I11" s="738" t="str">
         <f t="shared" si="2"/>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J11" s="740" t="s">
+      <c r="J11" s="739" t="s">
         <v>509</v>
       </c>
-      <c r="K11" s="721"/>
-      <c r="L11" s="721"/>
-      <c r="N11" s="714" t="s">
+      <c r="K11" s="720"/>
+      <c r="L11" s="720"/>
+      <c r="N11" s="713" t="s">
         <v>345</v>
       </c>
-      <c r="O11" s="731" t="str">
+      <c r="O11" s="730" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="P11" s="723" t="str">
+      <c r="P11" s="722" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="Q11" s="723" t="str">
+      <c r="Q11" s="722" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="R11" s="723" t="str">
+      <c r="R11" s="722" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I12" s="739" t="str">
+      <c r="I12" s="738" t="str">
         <f t="shared" si="2"/>
         <v>[#previous_year#]</v>
       </c>
-      <c r="J12" s="740" t="s">
+      <c r="J12" s="739" t="s">
         <v>506</v>
       </c>
-      <c r="K12" s="721"/>
-      <c r="L12" s="721"/>
-      <c r="N12" s="714" t="str">
+      <c r="K12" s="720"/>
+      <c r="L12" s="720"/>
+      <c r="N12" s="713" t="str">
         <f>A5</f>
         <v>2 000 - 10 000</v>
       </c>
-      <c r="O12" s="714">
+      <c r="O12" s="713">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="P12" s="721">
+      <c r="P12" s="720">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="725" t="e">
+      <c r="Q12" s="724" t="e">
         <f>O12/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="725">
+      <c r="R12" s="724">
         <f>IF(P15&lt;&gt;0,P12/P$15,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="990" t="s">
+      <c r="A13" s="988" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11189,77 +11200,77 @@
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="D13" s="699" t="str">
+      <c r="D13" s="698" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="I13" s="739" t="str">
+      <c r="I13" s="738" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J13" s="740" t="s">
+      <c r="J13" s="739" t="s">
         <v>503</v>
       </c>
-      <c r="K13" s="721"/>
-      <c r="L13" s="721"/>
-      <c r="N13" s="714" t="str">
+      <c r="K13" s="720"/>
+      <c r="L13" s="720"/>
+      <c r="N13" s="713" t="str">
         <f>A6</f>
         <v>10 001 - 100 000</v>
       </c>
-      <c r="O13" s="714">
+      <c r="O13" s="713">
         <f>D6</f>
         <v>0</v>
       </c>
-      <c r="P13" s="721">
+      <c r="P13" s="720">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="725" t="e">
+      <c r="Q13" s="724" t="e">
         <f>O13/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="725">
+      <c r="R13" s="724">
         <f>IF(P15&lt;&gt;0,P13/P$15,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="991"/>
+      <c r="A14" s="989"/>
       <c r="B14" s="514" t="s">
         <v>350</v>
       </c>
       <c r="C14" s="525" t="s">
         <v>350</v>
       </c>
-      <c r="D14" s="700" t="s">
+      <c r="D14" s="699" t="s">
         <v>350</v>
       </c>
-      <c r="I14" s="739" t="str">
+      <c r="I14" s="738" t="str">
         <f t="shared" ref="I14:I17" si="3">$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J14" s="740" t="s">
+      <c r="J14" s="739" t="s">
         <v>504</v>
       </c>
-      <c r="K14" s="721"/>
-      <c r="L14" s="721"/>
-      <c r="N14" s="714" t="str">
+      <c r="K14" s="720"/>
+      <c r="L14" s="720"/>
+      <c r="N14" s="713" t="str">
         <f>A7</f>
         <v>&gt;100 000</v>
       </c>
-      <c r="O14" s="714">
+      <c r="O14" s="713">
         <f>D7</f>
         <v>0</v>
       </c>
-      <c r="P14" s="721">
+      <c r="P14" s="720">
         <f>B7</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="725" t="e">
+      <c r="Q14" s="724" t="e">
         <f>O14/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="725">
+      <c r="R14" s="724">
         <f>IF(P15&lt;&gt;0,P14/P$15,0)</f>
         <v>0</v>
       </c>
@@ -11271,31 +11282,31 @@
       <c r="B15" s="520"/>
       <c r="C15" s="520"/>
       <c r="D15" s="582"/>
-      <c r="I15" s="739" t="str">
+      <c r="I15" s="738" t="str">
         <f t="shared" si="3"/>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J15" s="740" t="s">
+      <c r="J15" s="739" t="s">
         <v>505</v>
       </c>
-      <c r="K15" s="721"/>
-      <c r="L15" s="721"/>
-      <c r="N15" s="714" t="s">
+      <c r="K15" s="720"/>
+      <c r="L15" s="720"/>
+      <c r="N15" s="713" t="s">
         <v>355</v>
       </c>
-      <c r="O15" s="714">
+      <c r="O15" s="713">
         <f>SUM(O12:O14)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="714">
+      <c r="P15" s="713">
         <f>SUM(P12:P14)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="725" t="e">
+      <c r="Q15" s="724" t="e">
         <f>O15/O$15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="725">
+      <c r="R15" s="724">
         <f>IF(P15&lt;&gt;0,P15/P$15,0)</f>
         <v>0</v>
       </c>
@@ -11307,15 +11318,15 @@
       <c r="B16" s="520"/>
       <c r="C16" s="520"/>
       <c r="D16" s="582"/>
-      <c r="I16" s="739" t="str">
+      <c r="I16" s="738" t="str">
         <f t="shared" si="3"/>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J16" s="740" t="s">
+      <c r="J16" s="739" t="s">
         <v>509</v>
       </c>
-      <c r="K16" s="721"/>
-      <c r="L16" s="721"/>
+      <c r="K16" s="720"/>
+      <c r="L16" s="720"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="513" t="s">
@@ -11324,15 +11335,15 @@
       <c r="B17" s="520"/>
       <c r="C17" s="520"/>
       <c r="D17" s="582"/>
-      <c r="I17" s="739" t="str">
+      <c r="I17" s="738" t="str">
         <f t="shared" si="3"/>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="J17" s="740" t="s">
+      <c r="J17" s="739" t="s">
         <v>506</v>
       </c>
-      <c r="K17" s="721"/>
-      <c r="L17" s="721"/>
+      <c r="K17" s="720"/>
+      <c r="L17" s="720"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
@@ -11354,34 +11365,34 @@
       <c r="A21" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="980" t="s">
+      <c r="B21" s="978" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="981"/>
-      <c r="D21" s="981"/>
-      <c r="E21" s="981"/>
-      <c r="F21" s="981"/>
-      <c r="G21" s="981"/>
+      <c r="C21" s="979"/>
+      <c r="D21" s="979"/>
+      <c r="E21" s="979"/>
+      <c r="F21" s="979"/>
+      <c r="G21" s="979"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="982" t="str">
+      <c r="B22" s="980" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="983"/>
-      <c r="D22" s="982" t="str">
+      <c r="C22" s="981"/>
+      <c r="D22" s="980" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="983"/>
-      <c r="F22" s="982" t="str">
+      <c r="E22" s="981"/>
+      <c r="F22" s="980" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="983"/>
+      <c r="G22" s="981"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11403,22 +11414,22 @@
       <c r="G23" s="518" t="s">
         <v>363</v>
       </c>
-      <c r="N23" s="726" t="s">
+      <c r="N23" s="725" t="s">
         <v>364</v>
       </c>
-      <c r="O23" s="726" t="s">
+      <c r="O23" s="725" t="s">
         <v>363</v>
       </c>
-      <c r="Q23" s="726" t="s">
+      <c r="Q23" s="725" t="s">
         <v>364</v>
       </c>
-      <c r="R23" s="726" t="s">
+      <c r="R23" s="725" t="s">
         <v>330</v>
       </c>
-      <c r="T23" s="726" t="s">
+      <c r="T23" s="725" t="s">
         <v>364</v>
       </c>
-      <c r="U23" s="726" t="s">
+      <c r="U23" s="725" t="s">
         <v>330</v>
       </c>
     </row>
@@ -11432,26 +11443,26 @@
       <c r="E24" s="605"/>
       <c r="F24" s="606"/>
       <c r="G24" s="606"/>
-      <c r="N24" s="714" t="str">
+      <c r="N24" s="713" t="str">
         <f t="shared" ref="N24:N29" si="4">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="O24" s="725">
+      <c r="O24" s="724">
         <f t="shared" ref="O24:O29" si="5">C25/100</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="714" t="str">
+      <c r="Q24" s="713" t="str">
         <f t="shared" ref="Q24:R29" si="6">A25</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="R24" s="727">
+      <c r="R24" s="726">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T24" s="714" t="s">
+      <c r="T24" s="713" t="s">
         <v>454</v>
       </c>
-      <c r="U24" s="728">
+      <c r="U24" s="727">
         <f>D24</f>
         <v>0</v>
       </c>
@@ -11466,26 +11477,26 @@
       <c r="E25" s="606"/>
       <c r="F25" s="606"/>
       <c r="G25" s="606"/>
-      <c r="N25" s="714" t="str">
+      <c r="N25" s="713" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="O25" s="725">
+      <c r="O25" s="724">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="714" t="str">
+      <c r="Q25" s="713" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="R25" s="727">
+      <c r="R25" s="726">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T25" s="714" t="s">
+      <c r="T25" s="713" t="s">
         <v>456</v>
       </c>
-      <c r="U25" s="728">
+      <c r="U25" s="727">
         <f>B24</f>
         <v>0</v>
       </c>
@@ -11500,19 +11511,19 @@
       <c r="E26" s="607"/>
       <c r="F26" s="607"/>
       <c r="G26" s="607"/>
-      <c r="N26" s="714" t="str">
+      <c r="N26" s="713" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="O26" s="725">
+      <c r="O26" s="724">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="714" t="str">
+      <c r="Q26" s="713" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="R26" s="727">
+      <c r="R26" s="726">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11527,19 +11538,19 @@
       <c r="E27" s="607"/>
       <c r="F27" s="607"/>
       <c r="G27" s="607"/>
-      <c r="N27" s="714" t="str">
+      <c r="N27" s="713" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="O27" s="725">
+      <c r="O27" s="724">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="714" t="str">
+      <c r="Q27" s="713" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="R27" s="727">
+      <c r="R27" s="726">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11554,19 +11565,19 @@
       <c r="E28" s="607"/>
       <c r="F28" s="607"/>
       <c r="G28" s="607"/>
-      <c r="N28" s="714" t="str">
+      <c r="N28" s="713" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="O28" s="725">
+      <c r="O28" s="724">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="714" t="str">
+      <c r="Q28" s="713" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="R28" s="727">
+      <c r="R28" s="726">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11581,19 +11592,19 @@
       <c r="E29" s="607"/>
       <c r="F29" s="607"/>
       <c r="G29" s="607"/>
-      <c r="N29" s="714" t="str">
+      <c r="N29" s="713" t="str">
         <f t="shared" si="4"/>
         <v>not reported</v>
       </c>
-      <c r="O29" s="725">
+      <c r="O29" s="724">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="714" t="str">
+      <c r="Q29" s="713" t="str">
         <f t="shared" si="6"/>
         <v>not reported</v>
       </c>
-      <c r="R29" s="727">
+      <c r="R29" s="726">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -11610,100 +11621,100 @@
       <c r="G30" s="582"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N31" s="714" t="s">
+      <c r="N31" s="713" t="s">
         <v>371</v>
       </c>
-      <c r="O31" s="714" t="s">
+      <c r="O31" s="713" t="s">
         <v>457</v>
       </c>
-      <c r="P31" s="706"/>
-      <c r="Q31" s="706"/>
-      <c r="R31" s="706"/>
-      <c r="S31" s="706"/>
-      <c r="T31" s="706"/>
+      <c r="P31" s="705"/>
+      <c r="Q31" s="705"/>
+      <c r="R31" s="705"/>
+      <c r="S31" s="705"/>
+      <c r="T31" s="705"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N32" s="706"/>
-      <c r="O32" s="714" t="str">
+      <c r="N32" s="705"/>
+      <c r="O32" s="713" t="str">
         <f>N24</f>
         <v xml:space="preserve">re-used: Soil and agriculture </v>
       </c>
-      <c r="P32" s="714" t="str">
+      <c r="P32" s="713" t="str">
         <f>N25</f>
         <v xml:space="preserve">re-used: Others </v>
       </c>
-      <c r="Q32" s="714" t="str">
+      <c r="Q32" s="713" t="str">
         <f>N26</f>
         <v xml:space="preserve">disposed: Landfill </v>
       </c>
-      <c r="R32" s="714" t="str">
+      <c r="R32" s="713" t="str">
         <f>N27</f>
         <v xml:space="preserve">disposed: Incineration </v>
       </c>
-      <c r="S32" s="714" t="str">
+      <c r="S32" s="713" t="str">
         <f>N28</f>
         <v xml:space="preserve">disposed: Others </v>
       </c>
-      <c r="T32" s="714" t="str">
+      <c r="T32" s="713" t="str">
         <f>N29</f>
         <v>not reported</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N33" s="714" t="s">
+      <c r="N33" s="713" t="s">
         <v>454</v>
       </c>
-      <c r="O33" s="721">
+      <c r="O33" s="720">
         <f>D25</f>
         <v>0</v>
       </c>
-      <c r="P33" s="721">
+      <c r="P33" s="720">
         <f>D26</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="721">
+      <c r="Q33" s="720">
         <f>D27</f>
         <v>0</v>
       </c>
-      <c r="R33" s="721">
+      <c r="R33" s="720">
         <f>D28</f>
         <v>0</v>
       </c>
-      <c r="S33" s="721">
+      <c r="S33" s="720">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="T33" s="721">
+      <c r="T33" s="720">
         <f>D24-D25-D26-D27-D28-D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N34" s="714" t="str">
+      <c r="N34" s="713" t="str">
         <f>B22</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="O34" s="727">
+      <c r="O34" s="726">
         <f>B25</f>
         <v>0</v>
       </c>
-      <c r="P34" s="727">
+      <c r="P34" s="726">
         <f>B26</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="727">
+      <c r="Q34" s="726">
         <f>B27</f>
         <v>0</v>
       </c>
-      <c r="R34" s="727">
+      <c r="R34" s="726">
         <f>B28</f>
         <v>0</v>
       </c>
-      <c r="S34" s="721">
+      <c r="S34" s="720">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="T34" s="727">
+      <c r="T34" s="726">
         <f>B24-B25-B26-B27-B28-B29</f>
         <v>0</v>
       </c>
@@ -11727,30 +11738,30 @@
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="N35" s="725">
+      <c r="N35" s="724">
         <v>20.12</v>
       </c>
-      <c r="O35" s="725" t="e">
+      <c r="O35" s="724" t="e">
         <f t="shared" ref="O35:T36" si="7">O33/SUM($O33:$T33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P35" s="725" t="e">
+      <c r="P35" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q35" s="725" t="e">
+      <c r="Q35" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="725" t="e">
+      <c r="R35" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="725" t="e">
+      <c r="S35" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="725" t="e">
+      <c r="T35" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -11765,30 +11776,30 @@
       <c r="C36" s="585"/>
       <c r="D36" s="585"/>
       <c r="E36" s="585"/>
-      <c r="N36" s="725">
+      <c r="N36" s="724">
         <v>20.14</v>
       </c>
-      <c r="O36" s="725" t="e">
+      <c r="O36" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P36" s="725" t="e">
+      <c r="P36" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q36" s="725" t="e">
+      <c r="Q36" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="725" t="e">
+      <c r="R36" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S36" s="725" t="e">
+      <c r="S36" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="725" t="e">
+      <c r="T36" s="724" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -11808,38 +11819,38 @@
       <c r="A41" s="519" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="988" t="str">
+      <c r="B41" s="986" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="989"/>
-      <c r="D41" s="976" t="str">
+      <c r="C41" s="987"/>
+      <c r="D41" s="974" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="977"/>
-      <c r="F41" s="976" t="str">
+      <c r="E41" s="975"/>
+      <c r="F41" s="974" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="977"/>
-      <c r="N41" s="706"/>
-      <c r="O41" s="733" t="s">
+      <c r="G41" s="975"/>
+      <c r="N41" s="705"/>
+      <c r="O41" s="732" t="s">
         <v>458</v>
       </c>
-      <c r="P41" s="733" t="s">
+      <c r="P41" s="732" t="s">
         <v>461</v>
       </c>
-      <c r="Q41" s="714" t="s">
+      <c r="Q41" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="R41" s="714" t="s">
+      <c r="R41" s="713" t="s">
         <v>462</v>
       </c>
-      <c r="S41" s="714" t="s">
+      <c r="S41" s="713" t="s">
         <v>460</v>
       </c>
-      <c r="T41" s="714" t="s">
+      <c r="T41" s="713" t="s">
         <v>463</v>
       </c>
     </row>
@@ -11863,30 +11874,30 @@
       <c r="G42" s="519" t="s">
         <v>346</v>
       </c>
-      <c r="N42" s="732" t="s">
+      <c r="N42" s="731" t="s">
         <v>374</v>
       </c>
-      <c r="O42" s="721">
+      <c r="O42" s="720">
         <f>C43</f>
         <v>0</v>
       </c>
-      <c r="P42" s="721">
+      <c r="P42" s="720">
         <f>E43</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="721">
+      <c r="Q42" s="720">
         <f>C46</f>
         <v>0</v>
       </c>
-      <c r="R42" s="721">
+      <c r="R42" s="720">
         <f>E46</f>
         <v>0</v>
       </c>
-      <c r="S42" s="721">
+      <c r="S42" s="720">
         <f>C49</f>
         <v>0</v>
       </c>
-      <c r="T42" s="721">
+      <c r="T42" s="720">
         <f>E49</f>
         <v>0</v>
       </c>
@@ -11901,30 +11912,30 @@
       <c r="E43" s="520"/>
       <c r="F43" s="582"/>
       <c r="G43" s="582"/>
-      <c r="N43" s="714" t="s">
+      <c r="N43" s="713" t="s">
         <v>376</v>
       </c>
-      <c r="O43" s="721">
+      <c r="O43" s="720">
         <f>B44</f>
         <v>0</v>
       </c>
-      <c r="P43" s="721">
+      <c r="P43" s="720">
         <f>E44</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="721">
+      <c r="Q43" s="720">
         <f>C47</f>
         <v>0</v>
       </c>
-      <c r="R43" s="721">
+      <c r="R43" s="720">
         <f>E47</f>
         <v>0</v>
       </c>
-      <c r="S43" s="721">
+      <c r="S43" s="720">
         <f>C50</f>
         <v>0</v>
       </c>
-      <c r="T43" s="721">
+      <c r="T43" s="720">
         <f>E50</f>
         <v>0</v>
       </c>
@@ -12018,7 +12029,7 @@
       <c r="G51" s="582"/>
     </row>
     <row r="53" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="729" t="s">
+      <c r="A53" s="728" t="s">
         <v>502</v>
       </c>
       <c r="B53" s="526" t="s">
@@ -12027,172 +12038,172 @@
       <c r="C53" s="526" t="s">
         <v>376</v>
       </c>
-      <c r="D53" s="711" t="s">
+      <c r="D53" s="710" t="s">
         <v>385</v>
       </c>
-      <c r="E53" s="711" t="s">
+      <c r="E53" s="710" t="s">
         <v>512</v>
       </c>
-      <c r="F53" s="711" t="s">
+      <c r="F53" s="710" t="s">
         <v>513</v>
       </c>
-      <c r="H53" s="968" t="s">
+      <c r="H53" s="966" t="s">
         <v>500</v>
       </c>
-      <c r="I53" s="968"/>
-      <c r="J53" s="968"/>
+      <c r="I53" s="966"/>
+      <c r="J53" s="966"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="702" t="s">
+      <c r="A54" s="701" t="s">
         <v>497</v>
       </c>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
-      <c r="D54" s="712"/>
-      <c r="E54" s="712"/>
-      <c r="F54" s="712">
+      <c r="D54" s="711"/>
+      <c r="E54" s="711"/>
+      <c r="F54" s="711">
         <f>D54-E54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="702" t="s">
+      <c r="A55" s="701" t="s">
         <v>489</v>
       </c>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
-      <c r="D55" s="712"/>
-      <c r="E55" s="712"/>
-      <c r="F55" s="712">
+      <c r="D55" s="711"/>
+      <c r="E55" s="711"/>
+      <c r="F55" s="711">
         <f t="shared" ref="F55:F62" si="8">D55-E55</f>
         <v>0</v>
       </c>
-      <c r="H55" s="709"/>
-      <c r="I55" s="709"/>
-      <c r="J55" s="709"/>
-      <c r="L55" s="709"/>
+      <c r="H55" s="708"/>
+      <c r="I55" s="708"/>
+      <c r="J55" s="708"/>
+      <c r="L55" s="708"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="702" t="s">
+      <c r="A56" s="701" t="s">
         <v>492</v>
       </c>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
-      <c r="D56" s="712"/>
-      <c r="E56" s="712"/>
-      <c r="F56" s="712">
+      <c r="D56" s="711"/>
+      <c r="E56" s="711"/>
+      <c r="F56" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H56" s="709"/>
-      <c r="I56" s="709"/>
-      <c r="J56" s="709"/>
-      <c r="L56" s="709"/>
+      <c r="H56" s="708"/>
+      <c r="I56" s="708"/>
+      <c r="J56" s="708"/>
+      <c r="L56" s="708"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="702" t="s">
+      <c r="A57" s="701" t="s">
         <v>498</v>
       </c>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
-      <c r="D57" s="712"/>
-      <c r="E57" s="712"/>
-      <c r="F57" s="712">
+      <c r="D57" s="711"/>
+      <c r="E57" s="711"/>
+      <c r="F57" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H57" s="709"/>
-      <c r="I57" s="709"/>
-      <c r="J57" s="709"/>
-      <c r="L57" s="709"/>
+      <c r="H57" s="708"/>
+      <c r="I57" s="708"/>
+      <c r="J57" s="708"/>
+      <c r="L57" s="708"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="702" t="s">
+      <c r="A58" s="701" t="s">
         <v>490</v>
       </c>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
-      <c r="D58" s="712"/>
-      <c r="E58" s="712"/>
-      <c r="F58" s="712">
+      <c r="D58" s="711"/>
+      <c r="E58" s="711"/>
+      <c r="F58" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H58" s="709"/>
-      <c r="I58" s="709"/>
-      <c r="J58" s="709"/>
-      <c r="L58" s="709"/>
+      <c r="H58" s="708"/>
+      <c r="I58" s="708"/>
+      <c r="J58" s="708"/>
+      <c r="L58" s="708"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="702" t="s">
+      <c r="A59" s="701" t="s">
         <v>493</v>
       </c>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
-      <c r="D59" s="712"/>
-      <c r="E59" s="712"/>
-      <c r="F59" s="712">
+      <c r="D59" s="711"/>
+      <c r="E59" s="711"/>
+      <c r="F59" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H59" s="709"/>
-      <c r="I59" s="709"/>
-      <c r="J59" s="709"/>
-      <c r="L59" s="709"/>
+      <c r="H59" s="708"/>
+      <c r="I59" s="708"/>
+      <c r="J59" s="708"/>
+      <c r="L59" s="708"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="702" t="s">
+      <c r="A60" s="701" t="s">
         <v>499</v>
       </c>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
-      <c r="D60" s="712"/>
-      <c r="E60" s="712"/>
-      <c r="F60" s="712">
+      <c r="D60" s="711"/>
+      <c r="E60" s="711"/>
+      <c r="F60" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H60" s="709"/>
-      <c r="I60" s="709"/>
-      <c r="J60" s="709"/>
-      <c r="L60" s="709"/>
+      <c r="H60" s="708"/>
+      <c r="I60" s="708"/>
+      <c r="J60" s="708"/>
+      <c r="L60" s="708"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="702" t="s">
+      <c r="A61" s="701" t="s">
         <v>491</v>
       </c>
       <c r="B61" s="582"/>
       <c r="C61" s="582"/>
-      <c r="D61" s="712"/>
-      <c r="E61" s="712"/>
-      <c r="F61" s="712">
+      <c r="D61" s="711"/>
+      <c r="E61" s="711"/>
+      <c r="F61" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H61" s="709"/>
-      <c r="I61" s="709"/>
-      <c r="J61" s="709"/>
-      <c r="L61" s="709"/>
+      <c r="H61" s="708"/>
+      <c r="I61" s="708"/>
+      <c r="J61" s="708"/>
+      <c r="L61" s="708"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="702" t="s">
+      <c r="A62" s="701" t="s">
         <v>494</v>
       </c>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
-      <c r="D62" s="712"/>
-      <c r="E62" s="712"/>
-      <c r="F62" s="712">
+      <c r="D62" s="711"/>
+      <c r="E62" s="711"/>
+      <c r="F62" s="711">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H62" s="709"/>
-      <c r="I62" s="709"/>
-      <c r="J62" s="709"/>
-      <c r="L62" s="709"/>
+      <c r="H62" s="708"/>
+      <c r="I62" s="708"/>
+      <c r="J62" s="708"/>
+      <c r="L62" s="708"/>
     </row>
     <row r="63" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="730" t="s">
+      <c r="A63" s="729" t="s">
         <v>501</v>
       </c>
       <c r="B63" s="527" t="s">
@@ -12201,216 +12212,216 @@
       <c r="C63" s="527" t="s">
         <v>376</v>
       </c>
-      <c r="D63" s="711" t="s">
+      <c r="D63" s="710" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="711" t="s">
+      <c r="E63" s="710" t="s">
         <v>512</v>
       </c>
-      <c r="F63" s="711" t="s">
+      <c r="F63" s="710" t="s">
         <v>513</v>
       </c>
-      <c r="H63" s="968" t="s">
+      <c r="H63" s="966" t="s">
         <v>514</v>
       </c>
-      <c r="I63" s="968"/>
-      <c r="J63" s="968"/>
-      <c r="L63" s="709"/>
+      <c r="I63" s="966"/>
+      <c r="J63" s="966"/>
+      <c r="L63" s="708"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="702" t="s">
+      <c r="A64" s="701" t="s">
         <v>497</v>
       </c>
       <c r="B64" s="581"/>
       <c r="C64" s="581"/>
-      <c r="D64" s="712"/>
-      <c r="E64" s="712"/>
-      <c r="F64" s="712">
+      <c r="D64" s="711"/>
+      <c r="E64" s="711"/>
+      <c r="F64" s="711">
         <f>D64-E64</f>
         <v>0</v>
       </c>
-      <c r="G64" s="709"/>
-      <c r="H64" s="709"/>
-      <c r="I64" s="709"/>
-      <c r="J64" s="709"/>
-      <c r="K64" s="709"/>
-      <c r="L64" s="709"/>
+      <c r="G64" s="708"/>
+      <c r="H64" s="708"/>
+      <c r="I64" s="708"/>
+      <c r="J64" s="708"/>
+      <c r="K64" s="708"/>
+      <c r="L64" s="708"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="702" t="s">
+      <c r="A65" s="701" t="s">
         <v>489</v>
       </c>
       <c r="B65" s="582"/>
       <c r="C65" s="582"/>
-      <c r="D65" s="712"/>
-      <c r="E65" s="712"/>
-      <c r="F65" s="712">
+      <c r="D65" s="711"/>
+      <c r="E65" s="711"/>
+      <c r="F65" s="711">
         <f t="shared" ref="F65:F72" si="9">D65-E65</f>
         <v>0</v>
       </c>
-      <c r="G65" s="709"/>
-      <c r="H65" s="709"/>
-      <c r="I65" s="709"/>
-      <c r="J65" s="709"/>
-      <c r="K65" s="709"/>
-      <c r="L65" s="709"/>
+      <c r="G65" s="708"/>
+      <c r="H65" s="708"/>
+      <c r="I65" s="708"/>
+      <c r="J65" s="708"/>
+      <c r="K65" s="708"/>
+      <c r="L65" s="708"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="702" t="s">
+      <c r="A66" s="701" t="s">
         <v>492</v>
       </c>
       <c r="B66" s="582"/>
       <c r="C66" s="582"/>
-      <c r="D66" s="712"/>
-      <c r="E66" s="712"/>
-      <c r="F66" s="712">
+      <c r="D66" s="711"/>
+      <c r="E66" s="711"/>
+      <c r="F66" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G66" s="709"/>
-      <c r="H66" s="709"/>
-      <c r="I66" s="709"/>
-      <c r="J66" s="709"/>
-      <c r="K66" s="709"/>
-      <c r="L66" s="709"/>
+      <c r="G66" s="708"/>
+      <c r="H66" s="708"/>
+      <c r="I66" s="708"/>
+      <c r="J66" s="708"/>
+      <c r="K66" s="708"/>
+      <c r="L66" s="708"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="702" t="s">
+      <c r="A67" s="701" t="s">
         <v>498</v>
       </c>
       <c r="B67" s="582"/>
       <c r="C67" s="582"/>
-      <c r="D67" s="712"/>
-      <c r="E67" s="712"/>
-      <c r="F67" s="712">
+      <c r="D67" s="711"/>
+      <c r="E67" s="711"/>
+      <c r="F67" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G67" s="709"/>
-      <c r="H67" s="709"/>
-      <c r="I67" s="709"/>
-      <c r="J67" s="709"/>
-      <c r="K67" s="709"/>
-      <c r="L67" s="709"/>
+      <c r="G67" s="708"/>
+      <c r="H67" s="708"/>
+      <c r="I67" s="708"/>
+      <c r="J67" s="708"/>
+      <c r="K67" s="708"/>
+      <c r="L67" s="708"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="702" t="s">
+      <c r="A68" s="701" t="s">
         <v>490</v>
       </c>
       <c r="B68" s="582"/>
       <c r="C68" s="582"/>
-      <c r="D68" s="712"/>
-      <c r="E68" s="712"/>
-      <c r="F68" s="712">
+      <c r="D68" s="711"/>
+      <c r="E68" s="711"/>
+      <c r="F68" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G68" s="709"/>
-      <c r="H68" s="709"/>
-      <c r="I68" s="709"/>
-      <c r="J68" s="709"/>
-      <c r="K68" s="709"/>
-      <c r="L68" s="709"/>
+      <c r="G68" s="708"/>
+      <c r="H68" s="708"/>
+      <c r="I68" s="708"/>
+      <c r="J68" s="708"/>
+      <c r="K68" s="708"/>
+      <c r="L68" s="708"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="702" t="s">
+      <c r="A69" s="701" t="s">
         <v>493</v>
       </c>
       <c r="B69" s="582"/>
       <c r="C69" s="582"/>
-      <c r="D69" s="712"/>
-      <c r="E69" s="712"/>
-      <c r="F69" s="712">
+      <c r="D69" s="711"/>
+      <c r="E69" s="711"/>
+      <c r="F69" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G69" s="709"/>
-      <c r="H69" s="709"/>
-      <c r="I69" s="709"/>
-      <c r="J69" s="709"/>
-      <c r="K69" s="709"/>
-      <c r="L69" s="709"/>
+      <c r="G69" s="708"/>
+      <c r="H69" s="708"/>
+      <c r="I69" s="708"/>
+      <c r="J69" s="708"/>
+      <c r="K69" s="708"/>
+      <c r="L69" s="708"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="702" t="s">
+      <c r="A70" s="701" t="s">
         <v>499</v>
       </c>
       <c r="B70" s="582"/>
       <c r="C70" s="582"/>
-      <c r="D70" s="712"/>
-      <c r="E70" s="712"/>
-      <c r="F70" s="712">
+      <c r="D70" s="711"/>
+      <c r="E70" s="711"/>
+      <c r="F70" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G70" s="709"/>
-      <c r="H70" s="709"/>
-      <c r="I70" s="709"/>
-      <c r="J70" s="709"/>
-      <c r="K70" s="709"/>
-      <c r="L70" s="709"/>
+      <c r="G70" s="708"/>
+      <c r="H70" s="708"/>
+      <c r="I70" s="708"/>
+      <c r="J70" s="708"/>
+      <c r="K70" s="708"/>
+      <c r="L70" s="708"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="703" t="s">
+      <c r="A71" s="702" t="s">
         <v>491</v>
       </c>
-      <c r="B71" s="704"/>
-      <c r="C71" s="704"/>
-      <c r="D71" s="713"/>
-      <c r="E71" s="713"/>
-      <c r="F71" s="712">
+      <c r="B71" s="703"/>
+      <c r="C71" s="703"/>
+      <c r="D71" s="712"/>
+      <c r="E71" s="712"/>
+      <c r="F71" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G71" s="709"/>
-      <c r="H71" s="709"/>
-      <c r="I71" s="709"/>
-      <c r="J71" s="709"/>
-      <c r="K71" s="709"/>
-      <c r="L71" s="709"/>
+      <c r="G71" s="708"/>
+      <c r="H71" s="708"/>
+      <c r="I71" s="708"/>
+      <c r="J71" s="708"/>
+      <c r="K71" s="708"/>
+      <c r="L71" s="708"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="705" t="s">
+      <c r="A72" s="704" t="s">
         <v>494</v>
       </c>
-      <c r="B72" s="706"/>
-      <c r="C72" s="706"/>
-      <c r="D72" s="706"/>
-      <c r="E72" s="706"/>
-      <c r="F72" s="712">
+      <c r="B72" s="705"/>
+      <c r="C72" s="705"/>
+      <c r="D72" s="705"/>
+      <c r="E72" s="705"/>
+      <c r="F72" s="711">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G72" s="710"/>
-      <c r="H72" s="710"/>
-      <c r="I72" s="709"/>
-      <c r="J72" s="709"/>
-      <c r="K72" s="709"/>
-      <c r="L72" s="709"/>
+      <c r="G72" s="709"/>
+      <c r="H72" s="709"/>
+      <c r="I72" s="708"/>
+      <c r="J72" s="708"/>
+      <c r="K72" s="708"/>
+      <c r="L72" s="708"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="502" t="s">
         <v>386</v>
       </c>
-      <c r="I73" s="709"/>
-      <c r="J73" s="709"/>
-      <c r="K73" s="709"/>
-      <c r="L73" s="709"/>
+      <c r="I73" s="708"/>
+      <c r="J73" s="708"/>
+      <c r="K73" s="708"/>
+      <c r="L73" s="708"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="623" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="987" t="s">
+      <c r="B74" s="985" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="987"/>
-      <c r="D74" s="987"/>
-      <c r="E74" s="987"/>
-      <c r="I74" s="710"/>
-      <c r="J74" s="710"/>
-      <c r="K74" s="710"/>
-      <c r="L74" s="710"/>
+      <c r="C74" s="985"/>
+      <c r="D74" s="985"/>
+      <c r="E74" s="985"/>
+      <c r="I74" s="709"/>
+      <c r="J74" s="709"/>
+      <c r="K74" s="709"/>
+      <c r="L74" s="709"/>
     </row>
     <row r="75" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="530" t="s">
@@ -12432,8 +12443,8 @@
         <v>388</v>
       </c>
       <c r="I75" s="529"/>
-      <c r="J75" s="734"/>
-      <c r="K75" s="734"/>
+      <c r="J75" s="733"/>
+      <c r="K75" s="733"/>
     </row>
     <row r="76" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="507" t="s">
@@ -12467,8 +12478,8 @@
       <c r="I76" s="622" t="s">
         <v>247</v>
       </c>
-      <c r="J76" s="735"/>
-      <c r="K76" s="735"/>
+      <c r="J76" s="734"/>
+      <c r="K76" s="734"/>
     </row>
     <row r="77" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="617" t="s">
@@ -12482,27 +12493,27 @@
       <c r="G77" s="596"/>
       <c r="H77" s="561"/>
       <c r="I77" s="600"/>
-      <c r="J77" s="736"/>
-      <c r="K77" s="736"/>
-      <c r="N77" s="719" t="s">
+      <c r="J77" s="735"/>
+      <c r="K77" s="735"/>
+      <c r="N77" s="718" t="s">
         <v>389</v>
       </c>
-      <c r="O77" s="719" t="str">
+      <c r="O77" s="718" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="P77" s="720" t="str">
+      <c r="P77" s="719" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="Q77" s="720" t="s">
+      <c r="Q77" s="719" t="s">
         <v>389</v>
       </c>
-      <c r="R77" s="738" t="str">
+      <c r="R77" s="737" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="S77" s="720" t="str">
+      <c r="S77" s="719" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -12519,27 +12530,27 @@
       <c r="G78" s="597"/>
       <c r="H78" s="563"/>
       <c r="I78" s="601"/>
-      <c r="J78" s="736"/>
-      <c r="K78" s="736"/>
-      <c r="N78" s="714" t="s">
+      <c r="J78" s="735"/>
+      <c r="K78" s="735"/>
+      <c r="N78" s="713" t="s">
         <v>390</v>
       </c>
-      <c r="O78" s="721">
+      <c r="O78" s="720">
         <f t="shared" ref="O78:O83" si="10">H77</f>
         <v>0</v>
       </c>
-      <c r="P78" s="714">
+      <c r="P78" s="713">
         <f t="shared" ref="P78:P83" si="11">D77</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="714" t="s">
+      <c r="Q78" s="713" t="s">
         <v>283</v>
       </c>
-      <c r="R78" s="721">
+      <c r="R78" s="720">
         <f t="shared" ref="R78:R83" si="12">F77</f>
         <v>0</v>
       </c>
-      <c r="S78" s="714">
+      <c r="S78" s="713">
         <f t="shared" ref="S78:S83" si="13">B77</f>
         <v>0</v>
       </c>
@@ -12556,27 +12567,27 @@
       <c r="G79" s="597"/>
       <c r="H79" s="563"/>
       <c r="I79" s="601"/>
-      <c r="J79" s="736"/>
-      <c r="K79" s="736"/>
-      <c r="N79" s="722" t="s">
+      <c r="J79" s="735"/>
+      <c r="K79" s="735"/>
+      <c r="N79" s="721" t="s">
         <v>280</v>
       </c>
-      <c r="O79" s="721">
+      <c r="O79" s="720">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P79" s="714">
+      <c r="P79" s="713">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="722" t="s">
+      <c r="Q79" s="721" t="s">
         <v>280</v>
       </c>
-      <c r="R79" s="721">
+      <c r="R79" s="720">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S79" s="714">
+      <c r="S79" s="713">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12593,27 +12604,27 @@
       <c r="G80" s="597"/>
       <c r="H80" s="563"/>
       <c r="I80" s="601"/>
-      <c r="J80" s="736"/>
-      <c r="K80" s="736"/>
-      <c r="N80" s="722" t="s">
+      <c r="J80" s="735"/>
+      <c r="K80" s="735"/>
+      <c r="N80" s="721" t="s">
         <v>391</v>
       </c>
-      <c r="O80" s="721">
+      <c r="O80" s="720">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P80" s="714">
+      <c r="P80" s="713">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="722" t="s">
+      <c r="Q80" s="721" t="s">
         <v>391</v>
       </c>
-      <c r="R80" s="721">
+      <c r="R80" s="720">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S80" s="714">
+      <c r="S80" s="713">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12630,27 +12641,27 @@
       <c r="G81" s="598"/>
       <c r="H81" s="565"/>
       <c r="I81" s="602"/>
-      <c r="J81" s="737"/>
-      <c r="K81" s="737"/>
-      <c r="N81" s="722" t="s">
+      <c r="J81" s="736"/>
+      <c r="K81" s="736"/>
+      <c r="N81" s="721" t="s">
         <v>393</v>
       </c>
-      <c r="O81" s="721">
+      <c r="O81" s="720">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P81" s="714">
+      <c r="P81" s="713">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="722" t="s">
+      <c r="Q81" s="721" t="s">
         <v>392</v>
       </c>
-      <c r="R81" s="721">
+      <c r="R81" s="720">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S81" s="714">
+      <c r="S81" s="713">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12667,51 +12678,51 @@
       <c r="G82" s="599"/>
       <c r="H82" s="567"/>
       <c r="I82" s="603"/>
-      <c r="J82" s="737"/>
-      <c r="K82" s="737"/>
-      <c r="N82" s="722" t="s">
+      <c r="J82" s="736"/>
+      <c r="K82" s="736"/>
+      <c r="N82" s="721" t="s">
         <v>394</v>
       </c>
-      <c r="O82" s="721">
+      <c r="O82" s="720">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P82" s="714">
+      <c r="P82" s="713">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="722" t="s">
+      <c r="Q82" s="721" t="s">
         <v>394</v>
       </c>
-      <c r="R82" s="721">
+      <c r="R82" s="720">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S82" s="714">
+      <c r="S82" s="713">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N83" s="722" t="s">
+      <c r="N83" s="721" t="s">
         <v>396</v>
       </c>
-      <c r="O83" s="721">
+      <c r="O83" s="720">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P83" s="714">
+      <c r="P83" s="713">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="722" t="s">
+      <c r="Q83" s="721" t="s">
         <v>395</v>
       </c>
-      <c r="R83" s="721">
+      <c r="R83" s="720">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S83" s="714">
+      <c r="S83" s="713">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -12722,48 +12733,48 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="973" t="str">
+      <c r="B85" s="971" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="974"/>
-      <c r="D85" s="973" t="str">
+      <c r="C85" s="972"/>
+      <c r="D85" s="971" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="974"/>
-      <c r="F85" s="973" t="str">
+      <c r="E85" s="972"/>
+      <c r="F85" s="971" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="974"/>
+      <c r="G85" s="972"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
-      <c r="B86" s="929" t="s">
+      <c r="B86" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="C86" s="930"/>
-      <c r="D86" s="929" t="s">
+      <c r="C86" s="928"/>
+      <c r="D86" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="E86" s="930"/>
-      <c r="F86" s="929" t="s">
+      <c r="E86" s="928"/>
+      <c r="F86" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="G86" s="930"/>
-      <c r="N86" s="714" t="s">
+      <c r="G86" s="928"/>
+      <c r="N86" s="713" t="s">
         <v>398</v>
       </c>
-      <c r="O86" s="738" t="str">
+      <c r="O86" s="737" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P86" s="738" t="str">
+      <c r="P86" s="737" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q86" s="715" t="str">
+      <c r="Q86" s="714" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -12790,18 +12801,18 @@
       <c r="G87" s="506" t="s">
         <v>70</v>
       </c>
-      <c r="N87" s="716" t="s">
+      <c r="N87" s="715" t="s">
         <v>399</v>
       </c>
-      <c r="O87" s="714">
+      <c r="O87" s="713">
         <f t="shared" ref="O87:P94" si="14">C88</f>
         <v>0</v>
       </c>
-      <c r="P87" s="714">
+      <c r="P87" s="713">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="Q87" s="714">
+      <c r="Q87" s="713">
         <f t="shared" ref="Q87:Q94" si="15">B88</f>
         <v>100</v>
       </c>
@@ -12822,18 +12833,18 @@
         <v>100</v>
       </c>
       <c r="G88" s="568"/>
-      <c r="N88" s="717" t="s">
+      <c r="N88" s="716" t="s">
         <v>400</v>
       </c>
-      <c r="O88" s="714">
+      <c r="O88" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P88" s="714">
+      <c r="P88" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="714">
+      <c r="Q88" s="713">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12848,18 +12859,18 @@
       <c r="E89" s="520"/>
       <c r="F89" s="590"/>
       <c r="G89" s="582"/>
-      <c r="N89" s="716" t="s">
+      <c r="N89" s="715" t="s">
         <v>401</v>
       </c>
-      <c r="O89" s="714">
+      <c r="O89" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P89" s="714">
+      <c r="P89" s="713">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="Q89" s="714">
+      <c r="Q89" s="713">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -12880,18 +12891,18 @@
         <v>100</v>
       </c>
       <c r="G90" s="568"/>
-      <c r="N90" s="717" t="s">
+      <c r="N90" s="716" t="s">
         <v>402</v>
       </c>
-      <c r="O90" s="714">
+      <c r="O90" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P90" s="714">
+      <c r="P90" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="714">
+      <c r="Q90" s="713">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12906,18 +12917,18 @@
       <c r="E91" s="520"/>
       <c r="F91" s="591"/>
       <c r="G91" s="582"/>
-      <c r="N91" s="717" t="s">
+      <c r="N91" s="716" t="s">
         <v>403</v>
       </c>
-      <c r="O91" s="714">
+      <c r="O91" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P91" s="714">
+      <c r="P91" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="714">
+      <c r="Q91" s="713">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12932,18 +12943,18 @@
       <c r="E92" s="520"/>
       <c r="F92" s="591"/>
       <c r="G92" s="582"/>
-      <c r="N92" s="718" t="s">
+      <c r="N92" s="717" t="s">
         <v>404</v>
       </c>
-      <c r="O92" s="714">
+      <c r="O92" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P92" s="714">
+      <c r="P92" s="713">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="Q92" s="714">
+      <c r="Q92" s="713">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
@@ -12964,18 +12975,18 @@
         <v>100</v>
       </c>
       <c r="G93" s="568"/>
-      <c r="N93" s="717" t="s">
+      <c r="N93" s="716" t="s">
         <v>405</v>
       </c>
-      <c r="O93" s="714">
+      <c r="O93" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P93" s="714">
+      <c r="P93" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="714">
+      <c r="Q93" s="713">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -12990,18 +13001,18 @@
       <c r="E94" s="520"/>
       <c r="F94" s="591"/>
       <c r="G94" s="582"/>
-      <c r="N94" s="717" t="s">
+      <c r="N94" s="716" t="s">
         <v>406</v>
       </c>
-      <c r="O94" s="714">
+      <c r="O94" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P94" s="714">
+      <c r="P94" s="713">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="714">
+      <c r="Q94" s="713">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -13032,36 +13043,36 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="973" t="str">
+      <c r="B101" s="971" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="974"/>
-      <c r="D101" s="973" t="str">
+      <c r="C101" s="972"/>
+      <c r="D101" s="971" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="974"/>
-      <c r="F101" s="973" t="str">
+      <c r="E101" s="972"/>
+      <c r="F101" s="971" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="974"/>
+      <c r="G101" s="972"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
-      <c r="B102" s="929" t="s">
+      <c r="B102" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="C102" s="930"/>
-      <c r="D102" s="929" t="s">
+      <c r="C102" s="928"/>
+      <c r="D102" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="E102" s="930"/>
-      <c r="F102" s="929" t="s">
+      <c r="E102" s="928"/>
+      <c r="F102" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="G102" s="930"/>
+      <c r="G102" s="928"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
@@ -13085,18 +13096,18 @@
       <c r="G103" s="506" t="s">
         <v>70</v>
       </c>
-      <c r="N103" s="714" t="s">
+      <c r="N103" s="713" t="s">
         <v>398</v>
       </c>
-      <c r="O103" s="738" t="str">
+      <c r="O103" s="737" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P103" s="738" t="str">
+      <c r="P103" s="737" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q103" s="738" t="str">
+      <c r="Q103" s="737" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -13120,7 +13131,7 @@
       <c r="N104" s="537" t="s">
         <v>399</v>
       </c>
-      <c r="O104" s="708">
+      <c r="O104" s="707">
         <f t="shared" ref="O104:P111" si="16">C104</f>
         <v>0</v>
       </c>
@@ -13146,7 +13157,7 @@
       <c r="N105" s="538" t="s">
         <v>400</v>
       </c>
-      <c r="O105" s="708">
+      <c r="O105" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13178,7 +13189,7 @@
       <c r="N106" s="537" t="s">
         <v>401</v>
       </c>
-      <c r="O106" s="708">
+      <c r="O106" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13204,7 +13215,7 @@
       <c r="N107" s="538" t="s">
         <v>402</v>
       </c>
-      <c r="O107" s="708">
+      <c r="O107" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13230,7 +13241,7 @@
       <c r="N108" s="538" t="s">
         <v>403</v>
       </c>
-      <c r="O108" s="708">
+      <c r="O108" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13262,7 +13273,7 @@
       <c r="N109" s="539" t="s">
         <v>404</v>
       </c>
-      <c r="O109" s="708">
+      <c r="O109" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13288,7 +13299,7 @@
       <c r="N110" s="538" t="s">
         <v>405</v>
       </c>
-      <c r="O110" s="708">
+      <c r="O110" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13314,7 +13325,7 @@
       <c r="N111" s="538" t="s">
         <v>406</v>
       </c>
-      <c r="O111" s="708">
+      <c r="O111" s="707">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13342,36 +13353,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="969" t="str">
+      <c r="B116" s="967" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="970"/>
-      <c r="D116" s="969" t="str">
+      <c r="C116" s="968"/>
+      <c r="D116" s="967" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="970"/>
-      <c r="F116" s="969" t="str">
+      <c r="E116" s="968"/>
+      <c r="F116" s="967" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="970"/>
+      <c r="G116" s="968"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="971" t="s">
+      <c r="B117" s="969" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="972"/>
-      <c r="D117" s="971" t="s">
+      <c r="C117" s="970"/>
+      <c r="D117" s="969" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="972"/>
-      <c r="F117" s="971" t="s">
+      <c r="E117" s="970"/>
+      <c r="F117" s="969" t="s">
         <v>279</v>
       </c>
-      <c r="G117" s="972"/>
+      <c r="G117" s="970"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13398,18 +13409,18 @@
       <c r="I118" s="569"/>
       <c r="J118" s="569"/>
       <c r="K118" s="569"/>
-      <c r="N118" s="714" t="s">
+      <c r="N118" s="713" t="s">
         <v>398</v>
       </c>
-      <c r="O118" s="738" t="str">
+      <c r="O118" s="737" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P118" s="738" t="str">
+      <c r="P118" s="737" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q118" s="738" t="str">
+      <c r="Q118" s="737" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -13436,7 +13447,7 @@
       <c r="N119" s="537" t="s">
         <v>399</v>
       </c>
-      <c r="O119" s="708">
+      <c r="O119" s="707">
         <f t="shared" ref="O119:P126" si="18">D119</f>
         <v>100</v>
       </c>
@@ -13465,7 +13476,7 @@
       <c r="N120" s="538" t="s">
         <v>400</v>
       </c>
-      <c r="O120" s="708">
+      <c r="O120" s="707">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -13500,7 +13511,7 @@
       <c r="N121" s="537" t="s">
         <v>401</v>
       </c>
-      <c r="O121" s="708">
+      <c r="O121" s="707">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
@@ -13529,7 +13540,7 @@
       <c r="N122" s="538" t="s">
         <v>402</v>
       </c>
-      <c r="O122" s="708">
+      <c r="O122" s="707">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -13674,24 +13685,24 @@
       <c r="A129" s="546" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="984" t="str">
+      <c r="B129" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="985"/>
-      <c r="D129" s="985"/>
-      <c r="N129" s="714" t="s">
+      <c r="C129" s="983"/>
+      <c r="D129" s="983"/>
+      <c r="N129" s="713" t="s">
         <v>398</v>
       </c>
-      <c r="O129" s="738" t="str">
+      <c r="O129" s="737" t="str">
         <f>$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="P129" s="738" t="str">
+      <c r="P129" s="737" t="str">
         <f>$D$3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="Q129" s="738" t="str">
+      <c r="Q129" s="737" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
@@ -13707,21 +13718,21 @@
       <c r="D130" s="549" t="s">
         <v>409</v>
       </c>
-      <c r="N130" s="714" t="str">
+      <c r="N130" s="713" t="str">
         <f>CONCATENATE("Collection 
 ", B3, " : target ", TEXT(Q119,"# ##0"), " p.e.")</f>
         <v>Collection 
 [#current_year#]  : target 0 p.e.</v>
       </c>
-      <c r="O130" s="721">
+      <c r="O130" s="720">
         <f>D120</f>
         <v>0</v>
       </c>
-      <c r="P130" s="721">
+      <c r="P130" s="720">
         <f>E120</f>
         <v>0</v>
       </c>
-      <c r="Q130" s="721">
+      <c r="Q130" s="720">
         <f>C120</f>
         <v>0</v>
       </c>
@@ -13735,21 +13746,21 @@
       </c>
       <c r="C131" s="568"/>
       <c r="D131" s="586"/>
-      <c r="N131" s="714" t="str">
+      <c r="N131" s="713" t="str">
         <f>CONCATENATE("Secondary treatment 
 ", B3, " : target ", TEXT(Q121,"# ##0"), " p.e.")</f>
         <v>Secondary treatment 
 [#current_year#]  : target 0 p.e.</v>
       </c>
-      <c r="O131" s="721">
+      <c r="O131" s="720">
         <f>D123</f>
         <v>0</v>
       </c>
-      <c r="P131" s="721">
+      <c r="P131" s="720">
         <f>E123</f>
         <v>0</v>
       </c>
-      <c r="Q131" s="721">
+      <c r="Q131" s="720">
         <f>C123</f>
         <v>0</v>
       </c>
@@ -13761,21 +13772,21 @@
       <c r="B132" s="588"/>
       <c r="C132" s="520"/>
       <c r="D132" s="582"/>
-      <c r="N132" s="714" t="str">
+      <c r="N132" s="713" t="str">
         <f>CONCATENATE("Tertiary treatment 
 ", B3, " : target ", TEXT(Q124,"# ##0"), " p.e.")</f>
         <v>Tertiary treatment 
 [#current_year#]  : target 0 p.e.</v>
       </c>
-      <c r="O132" s="721">
+      <c r="O132" s="720">
         <f>D126</f>
         <v>0</v>
       </c>
-      <c r="P132" s="721">
+      <c r="P132" s="720">
         <f>E126</f>
         <v>0</v>
       </c>
-      <c r="Q132" s="721">
+      <c r="Q132" s="720">
         <f>C126</f>
         <v>0</v>
       </c>
@@ -15336,7 +15347,7 @@
       <c r="B5" s="637" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="766" t="s">
+      <c r="C5" s="765" t="s">
         <v>441</v>
       </c>
       <c r="D5" s="637" t="s">
@@ -17827,7 +17838,7 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="768" t="s">
+      <c r="E1" s="767" t="s">
         <v>74</v>
       </c>
       <c r="F1" s="4"/>
@@ -17942,7 +17953,7 @@
       <c r="B5" s="828" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="796" t="s">
+      <c r="C5" s="795" t="s">
         <v>593</v>
       </c>
       <c r="D5" s="828" t="s">
@@ -18069,7 +18080,7 @@
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="829"/>
       <c r="B6" s="829"/>
-      <c r="C6" s="797"/>
+      <c r="C6" s="796"/>
       <c r="D6" s="829"/>
       <c r="E6" s="829"/>
       <c r="F6" s="14" t="s">
@@ -18176,14 +18187,14 @@
       <c r="AH7" s="8"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="C8" s="756"/>
+      <c r="C8" s="755"/>
       <c r="AE8" s="625"/>
       <c r="AH8" s="625"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="662"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="823"/>
+      <c r="C9" s="822"/>
       <c r="D9" s="662"/>
       <c r="E9" s="662"/>
       <c r="F9" s="662"/>
@@ -58254,7 +58265,7 @@
       <c r="B5" s="651" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="766" t="s">
+      <c r="C5" s="765" t="s">
         <v>511</v>
       </c>
       <c r="D5" s="651" t="s">
@@ -58263,7 +58274,7 @@
       <c r="E5" s="651" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="766" t="s">
+      <c r="F5" s="765" t="s">
         <v>441</v>
       </c>
       <c r="G5" s="651" t="s">
@@ -58307,98 +58318,98 @@
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" style="756" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" style="755" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" style="756" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" style="755" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="40.21875" style="756" customWidth="1"/>
+    <col min="9" max="9" width="40.21875" style="755" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="40.21875" style="756" customWidth="1"/>
+    <col min="12" max="12" width="40.21875" style="755" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" customWidth="1"/>
-    <col min="15" max="15" width="40.21875" style="756" customWidth="1"/>
+    <col min="15" max="15" width="40.21875" style="755" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="27.33203125" customWidth="1"/>
-    <col min="18" max="18" width="40.21875" style="756" customWidth="1"/>
+    <col min="18" max="18" width="40.21875" style="755" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="27.33203125" customWidth="1"/>
-    <col min="21" max="21" width="40.21875" style="756" customWidth="1"/>
+    <col min="21" max="21" width="40.21875" style="755" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
     <col min="23" max="23" width="27.33203125" customWidth="1"/>
-    <col min="24" max="24" width="40.21875" style="756" customWidth="1"/>
+    <col min="24" max="24" width="40.21875" style="755" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
     <col min="26" max="26" width="27.33203125" customWidth="1"/>
-    <col min="27" max="27" width="40.21875" style="756" customWidth="1"/>
+    <col min="27" max="27" width="40.21875" style="755" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
-    <col min="30" max="30" width="40.21875" style="756" customWidth="1"/>
+    <col min="30" max="30" width="40.21875" style="755" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="754" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="777"/>
-      <c r="B1" s="777"/>
-      <c r="C1" s="777"/>
-      <c r="D1" s="778"/>
-      <c r="E1" s="779"/>
-      <c r="F1" s="779"/>
-      <c r="G1" s="780"/>
-      <c r="H1" s="781"/>
-      <c r="I1" s="781"/>
-      <c r="J1" s="782"/>
-      <c r="K1" s="783"/>
-      <c r="L1" s="783"/>
-      <c r="M1" s="784"/>
-      <c r="N1" s="785"/>
-      <c r="O1" s="785"/>
-      <c r="P1" s="786"/>
-      <c r="Q1" s="787"/>
-      <c r="R1" s="787"/>
-      <c r="S1" s="788"/>
-      <c r="T1" s="789"/>
-      <c r="U1" s="789"/>
-      <c r="V1" s="790"/>
-      <c r="W1" s="791"/>
-      <c r="X1" s="791"/>
-      <c r="Y1" s="792"/>
-      <c r="Z1" s="793"/>
-      <c r="AA1" s="793"/>
-      <c r="AB1" s="794"/>
-      <c r="AC1" s="795"/>
-      <c r="AD1" s="795"/>
-    </row>
-    <row r="2" spans="1:30" s="753" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="743"/>
-      <c r="B2" s="743"/>
-      <c r="C2" s="757"/>
-      <c r="D2" s="744"/>
-      <c r="E2" s="744"/>
-      <c r="F2" s="755"/>
-      <c r="G2" s="745"/>
-      <c r="H2" s="745"/>
-      <c r="I2" s="758"/>
-      <c r="J2" s="746"/>
-      <c r="K2" s="746"/>
-      <c r="L2" s="759"/>
-      <c r="M2" s="747"/>
-      <c r="N2" s="747"/>
-      <c r="O2" s="760"/>
-      <c r="P2" s="748"/>
-      <c r="Q2" s="748"/>
-      <c r="R2" s="761"/>
-      <c r="S2" s="749"/>
-      <c r="T2" s="749"/>
-      <c r="U2" s="762"/>
-      <c r="V2" s="750"/>
-      <c r="W2" s="750"/>
-      <c r="X2" s="763"/>
-      <c r="Y2" s="751"/>
-      <c r="Z2" s="751"/>
-      <c r="AA2" s="764"/>
-      <c r="AB2" s="752"/>
-      <c r="AC2" s="752"/>
-      <c r="AD2" s="765"/>
+    <row r="1" spans="1:30" s="753" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="776"/>
+      <c r="B1" s="776"/>
+      <c r="C1" s="776"/>
+      <c r="D1" s="777"/>
+      <c r="E1" s="778"/>
+      <c r="F1" s="778"/>
+      <c r="G1" s="779"/>
+      <c r="H1" s="780"/>
+      <c r="I1" s="780"/>
+      <c r="J1" s="781"/>
+      <c r="K1" s="782"/>
+      <c r="L1" s="782"/>
+      <c r="M1" s="783"/>
+      <c r="N1" s="784"/>
+      <c r="O1" s="784"/>
+      <c r="P1" s="785"/>
+      <c r="Q1" s="786"/>
+      <c r="R1" s="786"/>
+      <c r="S1" s="787"/>
+      <c r="T1" s="788"/>
+      <c r="U1" s="788"/>
+      <c r="V1" s="789"/>
+      <c r="W1" s="790"/>
+      <c r="X1" s="790"/>
+      <c r="Y1" s="791"/>
+      <c r="Z1" s="792"/>
+      <c r="AA1" s="792"/>
+      <c r="AB1" s="793"/>
+      <c r="AC1" s="794"/>
+      <c r="AD1" s="794"/>
+    </row>
+    <row r="2" spans="1:30" s="752" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="742"/>
+      <c r="B2" s="742"/>
+      <c r="C2" s="756"/>
+      <c r="D2" s="743"/>
+      <c r="E2" s="743"/>
+      <c r="F2" s="754"/>
+      <c r="G2" s="744"/>
+      <c r="H2" s="744"/>
+      <c r="I2" s="757"/>
+      <c r="J2" s="745"/>
+      <c r="K2" s="745"/>
+      <c r="L2" s="758"/>
+      <c r="M2" s="746"/>
+      <c r="N2" s="746"/>
+      <c r="O2" s="759"/>
+      <c r="P2" s="747"/>
+      <c r="Q2" s="747"/>
+      <c r="R2" s="760"/>
+      <c r="S2" s="748"/>
+      <c r="T2" s="748"/>
+      <c r="U2" s="761"/>
+      <c r="V2" s="749"/>
+      <c r="W2" s="749"/>
+      <c r="X2" s="762"/>
+      <c r="Y2" s="750"/>
+      <c r="Z2" s="750"/>
+      <c r="AA2" s="763"/>
+      <c r="AB2" s="751"/>
+      <c r="AC2" s="751"/>
+      <c r="AD2" s="764"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58410,7 +58421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -58435,13 +58446,13 @@
       <c r="B1" s="834" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="824" t="s">
+      <c r="C1" s="823" t="s">
         <v>597</v>
       </c>
-      <c r="D1" s="767" t="s">
+      <c r="D1" s="766" t="s">
         <v>598</v>
       </c>
-      <c r="E1" s="767" t="s">
+      <c r="E1" s="766" t="s">
         <v>599</v>
       </c>
       <c r="F1" s="661" t="s">
@@ -59600,10 +59611,10 @@
   <dimension ref="A1:CZ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="CJ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="CB5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CM3" sqref="CM3"/>
+      <selection pane="bottomRight" activeCell="CI2" sqref="CI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60224,7 +60235,7 @@
       <c r="CA3" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="CB3" s="701"/>
+      <c r="CB3" s="700"/>
       <c r="CC3" s="177"/>
       <c r="CD3" s="177"/>
       <c r="CE3" s="177"/>
@@ -60343,7 +60354,7 @@
       <c r="BY4" s="161"/>
       <c r="BZ4" s="161"/>
       <c r="CA4" s="161"/>
-      <c r="CB4" s="701"/>
+      <c r="CB4" s="700"/>
       <c r="CC4" s="176"/>
       <c r="CD4" s="176"/>
       <c r="CE4" s="176"/>
@@ -60605,7 +60616,7 @@
       <c r="BY7" s="136"/>
       <c r="BZ7" s="136"/>
       <c r="CA7" s="136"/>
-      <c r="CB7" s="698"/>
+      <c r="CB7" s="697"/>
       <c r="CR7" s="136"/>
       <c r="CT7" s="136"/>
       <c r="CV7" s="136"/>
@@ -60644,7 +60655,7 @@
       <c r="BY8" s="136"/>
       <c r="BZ8" s="136"/>
       <c r="CA8" s="136"/>
-      <c r="CB8" s="698"/>
+      <c r="CB8" s="697"/>
       <c r="CR8" s="136"/>
       <c r="CT8" s="136"/>
       <c r="CV8" s="136"/>
@@ -60683,7 +60694,7 @@
       <c r="BY9" s="136"/>
       <c r="BZ9" s="136"/>
       <c r="CA9" s="136"/>
-      <c r="CB9" s="698"/>
+      <c r="CB9" s="697"/>
       <c r="CR9" s="136"/>
       <c r="CT9" s="136"/>
       <c r="CV9" s="136"/>
@@ -61100,30 +61111,44 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="3" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="12" max="12" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="917" t="s">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="442" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="918"/>
-      <c r="C1" s="918"/>
-      <c r="D1" s="915" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="443"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="916" t="s">
+        <v>603</v>
+      </c>
+      <c r="I1" s="916"/>
+      <c r="J1" s="916"/>
+      <c r="K1" s="916"/>
+      <c r="L1" s="915" t="s">
+        <v>604</v>
+      </c>
+      <c r="M1" s="915"/>
+      <c r="N1" s="915"/>
+      <c r="O1" s="915"/>
+    </row>
+    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
         <v>90</v>
       </c>
@@ -61133,37 +61158,102 @@
       <c r="C2" s="462" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="916"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="140" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2" s="824" t="s">
+        <v>600</v>
+      </c>
+      <c r="M2" s="824" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="824" t="s">
+        <v>262</v>
+      </c>
+      <c r="O2" s="824" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="453"/>
       <c r="B3" s="454"/>
-      <c r="C3" s="454" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="678"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="475" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="475"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="475"/>
+      <c r="G3" s="475" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="678"/>
+      <c r="M3" s="678"/>
+      <c r="N3" s="678"/>
+      <c r="O3" s="678"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="453"/>
       <c r="B4" s="453"/>
-      <c r="C4" s="697"/>
-      <c r="D4" s="678"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="678"/>
+      <c r="M4" s="678"/>
+      <c r="N4" s="678"/>
+      <c r="O4" s="678"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="167"/>
       <c r="B5" s="167"/>
       <c r="C5" s="167"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="167"/>
       <c r="B6" s="167"/>
       <c r="C6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:D4"/>
   <mergeCells count="2">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61228,10 +61318,10 @@
       <c r="B2" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="926" t="s">
+      <c r="C2" s="924" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="926"/>
+      <c r="D2" s="924"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61395,35 +61485,35 @@
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="927"/>
-      <c r="C7" s="927"/>
-      <c r="D7" s="927"/>
+      <c r="B7" s="925"/>
+      <c r="C7" s="925"/>
+      <c r="D7" s="925"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="927"/>
-      <c r="K7" s="927"/>
-      <c r="L7" s="927"/>
+      <c r="J7" s="925"/>
+      <c r="K7" s="925"/>
+      <c r="L7" s="925"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" s="927"/>
-      <c r="R7" s="927"/>
-      <c r="S7" s="927"/>
+      <c r="Q7" s="925"/>
+      <c r="R7" s="925"/>
+      <c r="S7" s="925"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
         <v>243</v>
       </c>
-      <c r="X7" s="927"/>
-      <c r="Y7" s="927"/>
-      <c r="Z7" s="927"/>
+      <c r="X7" s="925"/>
+      <c r="Y7" s="925"/>
+      <c r="Z7" s="925"/>
       <c r="AA7" s="372"/>
       <c r="AB7" s="215"/>
     </row>
@@ -61462,54 +61552,54 @@
       <c r="B9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="922" t="s">
+      <c r="C9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="923"/>
-      <c r="E9" s="922" t="s">
+      <c r="D9" s="921"/>
+      <c r="E9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="923"/>
+      <c r="F9" s="921"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="922" t="s">
+      <c r="K9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="923"/>
-      <c r="M9" s="922" t="s">
+      <c r="L9" s="921"/>
+      <c r="M9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="923"/>
+      <c r="N9" s="921"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="R9" s="922" t="s">
+      <c r="R9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="S9" s="923"/>
-      <c r="T9" s="922" t="s">
+      <c r="S9" s="921"/>
+      <c r="T9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="923"/>
+      <c r="U9" s="921"/>
       <c r="V9" s="372"/>
       <c r="W9" s="372"/>
       <c r="X9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="Y9" s="922" t="s">
+      <c r="Y9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="Z9" s="923"/>
-      <c r="AA9" s="922" t="s">
+      <c r="Z9" s="921"/>
+      <c r="AA9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="AB9" s="923"/>
+      <c r="AB9" s="921"/>
     </row>
     <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
@@ -61588,10 +61678,10 @@
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
-      <c r="E11" s="919" t="s">
+      <c r="E11" s="917" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="920"/>
+      <c r="F11" s="918"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
@@ -61600,10 +61690,10 @@
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="924" t="s">
+      <c r="M11" s="922" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="925"/>
+      <c r="N11" s="923"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
@@ -61611,10 +61701,10 @@
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
-      <c r="T11" s="919" t="s">
+      <c r="T11" s="917" t="s">
         <v>249</v>
       </c>
-      <c r="U11" s="920"/>
+      <c r="U11" s="918"/>
       <c r="V11" s="372"/>
       <c r="W11" s="372"/>
       <c r="X11" s="220" t="s">
@@ -61622,10 +61712,10 @@
       </c>
       <c r="Y11" s="221"/>
       <c r="Z11" s="221"/>
-      <c r="AA11" s="919" t="s">
+      <c r="AA11" s="917" t="s">
         <v>249</v>
       </c>
-      <c r="AB11" s="920"/>
+      <c r="AB11" s="918"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
@@ -61930,10 +62020,10 @@
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="919" t="s">
+      <c r="E20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="920"/>
+      <c r="F20" s="918"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
@@ -61942,10 +62032,10 @@
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
-      <c r="M20" s="919" t="s">
+      <c r="M20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="N20" s="920"/>
+      <c r="N20" s="918"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
@@ -61953,10 +62043,10 @@
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
-      <c r="T20" s="919" t="s">
+      <c r="T20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="U20" s="920"/>
+      <c r="U20" s="918"/>
       <c r="V20" s="277"/>
       <c r="W20" s="277"/>
       <c r="X20" s="220" t="s">
@@ -61964,10 +62054,10 @@
       </c>
       <c r="Y20" s="302"/>
       <c r="Z20" s="249"/>
-      <c r="AA20" s="919" t="s">
+      <c r="AA20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="AB20" s="920"/>
+      <c r="AB20" s="918"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
@@ -62310,10 +62400,10 @@
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="919" t="s">
+      <c r="E30" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="920"/>
+      <c r="F30" s="918"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
@@ -62322,10 +62412,10 @@
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="919" t="s">
+      <c r="M30" s="917" t="s">
         <v>589</v>
       </c>
-      <c r="N30" s="920"/>
+      <c r="N30" s="918"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
@@ -62333,10 +62423,10 @@
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
-      <c r="T30" s="919" t="s">
+      <c r="T30" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="U30" s="920"/>
+      <c r="U30" s="918"/>
       <c r="V30" s="277"/>
       <c r="W30" s="277"/>
       <c r="X30" s="220" t="s">
@@ -62344,10 +62434,10 @@
       </c>
       <c r="Y30" s="302"/>
       <c r="Z30" s="249"/>
-      <c r="AA30" s="919" t="s">
+      <c r="AA30" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="AB30" s="920"/>
+      <c r="AB30" s="918"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
@@ -62785,11 +62875,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="921"/>
-      <c r="C42" s="921"/>
-      <c r="D42" s="921"/>
-      <c r="E42" s="921"/>
-      <c r="F42" s="921"/>
+      <c r="B42" s="919"/>
+      <c r="C42" s="919"/>
+      <c r="D42" s="919"/>
+      <c r="E42" s="919"/>
+      <c r="F42" s="919"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -35,7 +35,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5(4)-areas'!$A$3:$Q$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Agglo Compliance'!$A$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Agglo Compliance'!$A$4:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'agglomeration debug level'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'agglomeration level'!$A$4:$CW$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Agglomerationout!$A$5:$D$5</definedName>
@@ -2322,7 +2322,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\/mm\/dd"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2616,6 +2616,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5718,9 +5725,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5752,6 +5756,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5788,9 +5831,6 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5839,140 +5879,113 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5980,15 +5993,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6001,26 +6005,26 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6050,6 +6054,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6077,40 +6114,10 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6135,84 +6142,84 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="45" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6524,6 +6531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -6912,6 +6920,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil10"/>
   <dimension ref="B2:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6937,8 +6946,8 @@
       <c r="B3" s="324" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="926"/>
-      <c r="D3" s="926"/>
+      <c r="C3" s="925"/>
+      <c r="D3" s="925"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="325"/>
@@ -6971,10 +6980,10 @@
       <c r="D10" s="332" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="927" t="s">
+      <c r="E10" s="926" t="s">
         <v>530</v>
       </c>
-      <c r="F10" s="928"/>
+      <c r="F10" s="927"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
@@ -7129,10 +7138,10 @@
       <c r="D30" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="927" t="s">
+      <c r="E30" s="926" t="s">
         <v>530</v>
       </c>
-      <c r="F30" s="928"/>
+      <c r="F30" s="927"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
@@ -7284,10 +7293,10 @@
       <c r="D49" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="927" t="s">
+      <c r="E49" s="926" t="s">
         <v>530</v>
       </c>
-      <c r="F49" s="928"/>
+      <c r="F49" s="927"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
@@ -7439,10 +7448,10 @@
       <c r="D68" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E68" s="927" t="s">
+      <c r="E68" s="926" t="s">
         <v>530</v>
       </c>
-      <c r="F68" s="928"/>
+      <c r="F68" s="927"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
@@ -7584,6 +7593,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7616,8 +7626,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="924"/>
-      <c r="F2" s="924"/>
+      <c r="E2" s="921"/>
+      <c r="F2" s="921"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7649,13 +7659,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="925" t="s">
+      <c r="B6" s="918" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="925"/>
-      <c r="D6" s="925"/>
-      <c r="E6" s="925"/>
-      <c r="F6" s="925"/>
+      <c r="C6" s="918"/>
+      <c r="D6" s="918"/>
+      <c r="E6" s="918"/>
+      <c r="F6" s="918"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7670,14 +7680,14 @@
       <c r="B8" s="399" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="929" t="s">
+      <c r="C8" s="928" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="930"/>
-      <c r="E8" s="929" t="s">
+      <c r="D8" s="929"/>
+      <c r="E8" s="928" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="930"/>
+      <c r="F8" s="929"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
@@ -7813,11 +7823,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="919"/>
-      <c r="C22" s="919"/>
-      <c r="D22" s="919"/>
-      <c r="E22" s="919"/>
-      <c r="F22" s="919"/>
+      <c r="B22" s="922"/>
+      <c r="C22" s="922"/>
+      <c r="D22" s="922"/>
+      <c r="E22" s="922"/>
+      <c r="F22" s="922"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7872,6 +7882,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil12"/>
   <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7888,13 +7899,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="931" t="s">
+      <c r="B2" s="930" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="932" t="s">
+      <c r="C2" s="931" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="932" t="s">
+      <c r="D2" s="931" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="424" t="s">
@@ -7929,9 +7940,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="931"/>
-      <c r="C3" s="933"/>
-      <c r="D3" s="933"/>
+      <c r="B3" s="930"/>
+      <c r="C3" s="932"/>
+      <c r="D3" s="932"/>
       <c r="E3" s="439" t="s">
         <v>296</v>
       </c>
@@ -7964,7 +7975,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="934" t="s">
+      <c r="B4" s="933" t="s">
         <v>299</v>
       </c>
       <c r="C4" s="425" t="s">
@@ -7983,7 +7994,7 @@
       <c r="N4" s="427"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="934"/>
+      <c r="B5" s="933"/>
       <c r="C5" s="425" t="s">
         <v>93</v>
       </c>
@@ -8000,7 +8011,7 @@
       <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="935"/>
+      <c r="B6" s="934"/>
       <c r="C6" s="435" t="s">
         <v>289</v>
       </c>
@@ -8092,6 +8103,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil13"/>
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8114,43 +8126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="948" t="s">
+      <c r="A1" s="938" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="949"/>
+      <c r="B1" s="939"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="939" t="s">
+      <c r="D1" s="949" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="940"/>
-      <c r="F1" s="940"/>
-      <c r="G1" s="940"/>
-      <c r="H1" s="940"/>
-      <c r="I1" s="941"/>
-      <c r="J1" s="950" t="s">
+      <c r="E1" s="950"/>
+      <c r="F1" s="950"/>
+      <c r="G1" s="950"/>
+      <c r="H1" s="950"/>
+      <c r="I1" s="951"/>
+      <c r="J1" s="940" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="951"/>
-      <c r="L1" s="951"/>
-      <c r="M1" s="951"/>
-      <c r="N1" s="952"/>
-      <c r="O1" s="953" t="s">
+      <c r="K1" s="941"/>
+      <c r="L1" s="941"/>
+      <c r="M1" s="941"/>
+      <c r="N1" s="942"/>
+      <c r="O1" s="943" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="954"/>
-      <c r="Q1" s="955"/>
+      <c r="P1" s="944"/>
+      <c r="Q1" s="945"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="947" t="s">
+      <c r="T1" s="937" t="s">
         <v>495</v>
       </c>
-      <c r="U1" s="947"/>
-      <c r="V1" s="947"/>
-      <c r="W1" s="947"/>
-      <c r="X1" s="947"/>
-      <c r="Y1" s="947"/>
+      <c r="U1" s="937"/>
+      <c r="V1" s="937"/>
+      <c r="W1" s="937"/>
+      <c r="X1" s="937"/>
+      <c r="Y1" s="937"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8162,18 +8174,18 @@
       <c r="C2" s="446" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="944" t="s">
+      <c r="D2" s="954" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="943"/>
-      <c r="F2" s="943" t="s">
+      <c r="E2" s="953"/>
+      <c r="F2" s="953" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="943"/>
-      <c r="H2" s="942" t="s">
+      <c r="G2" s="953"/>
+      <c r="H2" s="952" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="942"/>
+      <c r="I2" s="952"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8204,18 +8216,18 @@
       <c r="S2" s="681" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="945" t="s">
+      <c r="T2" s="935" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="945"/>
-      <c r="V2" s="946" t="s">
+      <c r="U2" s="935"/>
+      <c r="V2" s="936" t="s">
         <v>481</v>
       </c>
-      <c r="W2" s="946"/>
-      <c r="X2" s="946" t="s">
+      <c r="W2" s="936"/>
+      <c r="X2" s="936" t="s">
         <v>482</v>
       </c>
-      <c r="Y2" s="946"/>
+      <c r="Y2" s="936"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8241,13 +8253,13 @@
       <c r="I3" s="665" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="936" t="s">
+      <c r="J3" s="946" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="937"/>
-      <c r="L3" s="937"/>
-      <c r="M3" s="937"/>
-      <c r="N3" s="938"/>
+      <c r="K3" s="947"/>
+      <c r="L3" s="947"/>
+      <c r="M3" s="947"/>
+      <c r="N3" s="948"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -9476,6 +9488,11 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9483,11 +9500,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9496,6 +9508,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:CC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9527,14 +9540,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="865" t="s">
+      <c r="A1" s="835" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
-      <c r="D1" s="866"/>
-      <c r="E1" s="866"/>
-      <c r="F1" s="866"/>
+      <c r="B1" s="836"/>
+      <c r="C1" s="836"/>
+      <c r="D1" s="836"/>
+      <c r="E1" s="836"/>
+      <c r="F1" s="836"/>
       <c r="G1" s="472"/>
       <c r="H1" s="961" t="s">
         <v>169</v>
@@ -9575,8 +9588,8 @@
       <c r="AF1" s="958" t="s">
         <v>480</v>
       </c>
-      <c r="AG1" s="947"/>
-      <c r="AH1" s="947"/>
+      <c r="AG1" s="937"/>
+      <c r="AH1" s="937"/>
       <c r="AI1" s="688"/>
       <c r="AJ1" s="688"/>
       <c r="AK1" s="688"/>
@@ -9644,46 +9657,46 @@
       </c>
       <c r="G2" s="957"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="956" t="s">
+      <c r="I2" s="955" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="956"/>
-      <c r="K2" s="956" t="s">
+      <c r="J2" s="955"/>
+      <c r="K2" s="955" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="956"/>
-      <c r="M2" s="956" t="s">
+      <c r="L2" s="955"/>
+      <c r="M2" s="955" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="965"/>
+      <c r="N2" s="956"/>
       <c r="O2" s="960"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="956" t="s">
+      <c r="Q2" s="955" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="956"/>
-      <c r="S2" s="956" t="s">
+      <c r="R2" s="955"/>
+      <c r="S2" s="955" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="956"/>
-      <c r="U2" s="956" t="s">
+      <c r="T2" s="955"/>
+      <c r="U2" s="955" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="965"/>
+      <c r="V2" s="956"/>
       <c r="W2" s="960"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="956" t="s">
+      <c r="Y2" s="955" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="956"/>
-      <c r="AA2" s="956" t="s">
+      <c r="Z2" s="955"/>
+      <c r="AA2" s="955" t="s">
         <v>189</v>
       </c>
-      <c r="AB2" s="956"/>
-      <c r="AC2" s="956" t="s">
+      <c r="AB2" s="955"/>
+      <c r="AC2" s="955" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="965"/>
+      <c r="AD2" s="956"/>
       <c r="AE2" s="960"/>
       <c r="AF2" s="682" t="s">
         <v>464</v>
@@ -10570,11 +10583,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="A1:F1"/>
@@ -10588,6 +10596,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10595,6 +10608,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil15"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
@@ -10775,6 +10789,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil16"/>
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10802,9 +10817,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="984"/>
-      <c r="B1" s="855"/>
-      <c r="C1" s="855"/>
+      <c r="A1" s="965"/>
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="740"/>
@@ -10819,21 +10834,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="988" t="s">
+      <c r="A3" s="973" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="990" t="s">
+      <c r="B3" s="975" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="991"/>
-      <c r="D3" s="976" t="s">
+      <c r="C3" s="976"/>
+      <c r="D3" s="971" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="977"/>
-      <c r="F3" s="976" t="s">
+      <c r="E3" s="972"/>
+      <c r="F3" s="971" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="977"/>
+      <c r="G3" s="972"/>
       <c r="I3" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
@@ -10844,14 +10859,14 @@
       <c r="K3" s="720"/>
       <c r="L3" s="720"/>
       <c r="N3" s="705"/>
-      <c r="O3" s="973" t="s">
+      <c r="O3" s="987" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="973"/>
-      <c r="Q3" s="973" t="s">
+      <c r="P3" s="987"/>
+      <c r="Q3" s="987" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="973"/>
+      <c r="R3" s="987"/>
       <c r="S3" s="705"/>
       <c r="T3" s="713" t="s">
         <v>348</v>
@@ -10859,7 +10874,7 @@
       <c r="U3" s="705"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="989"/>
+      <c r="A4" s="974"/>
       <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
@@ -11118,14 +11133,14 @@
       <c r="K10" s="720"/>
       <c r="L10" s="720"/>
       <c r="N10" s="713"/>
-      <c r="O10" s="973" t="s">
+      <c r="O10" s="987" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="973"/>
-      <c r="Q10" s="973" t="s">
+      <c r="P10" s="987"/>
+      <c r="Q10" s="987" t="s">
         <v>356</v>
       </c>
-      <c r="R10" s="973"/>
+      <c r="R10" s="987"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="738" t="str">
@@ -11189,7 +11204,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="988" t="s">
+      <c r="A13" s="973" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11235,7 +11250,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="989"/>
+      <c r="A14" s="974"/>
       <c r="B14" s="514" t="s">
         <v>350</v>
       </c>
@@ -11365,34 +11380,34 @@
       <c r="A21" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="978" t="s">
+      <c r="B21" s="988" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="979"/>
-      <c r="D21" s="979"/>
-      <c r="E21" s="979"/>
-      <c r="F21" s="979"/>
-      <c r="G21" s="979"/>
+      <c r="C21" s="989"/>
+      <c r="D21" s="989"/>
+      <c r="E21" s="989"/>
+      <c r="F21" s="989"/>
+      <c r="G21" s="989"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="980" t="str">
+      <c r="B22" s="977" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="981"/>
-      <c r="D22" s="980" t="str">
+      <c r="C22" s="978"/>
+      <c r="D22" s="977" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="981"/>
-      <c r="F22" s="980" t="str">
+      <c r="E22" s="978"/>
+      <c r="F22" s="977" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="981"/>
+      <c r="G22" s="978"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11819,21 +11834,21 @@
       <c r="A41" s="519" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="986" t="str">
+      <c r="B41" s="967" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="987"/>
-      <c r="D41" s="974" t="str">
+      <c r="C41" s="968"/>
+      <c r="D41" s="969" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="975"/>
-      <c r="F41" s="974" t="str">
+      <c r="E41" s="970"/>
+      <c r="F41" s="969" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="975"/>
+      <c r="G41" s="970"/>
       <c r="N41" s="705"/>
       <c r="O41" s="732" t="s">
         <v>458</v>
@@ -12047,11 +12062,11 @@
       <c r="F53" s="710" t="s">
         <v>513</v>
       </c>
-      <c r="H53" s="966" t="s">
+      <c r="H53" s="990" t="s">
         <v>500</v>
       </c>
-      <c r="I53" s="966"/>
-      <c r="J53" s="966"/>
+      <c r="I53" s="990"/>
+      <c r="J53" s="990"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="701" t="s">
@@ -12221,11 +12236,11 @@
       <c r="F63" s="710" t="s">
         <v>513</v>
       </c>
-      <c r="H63" s="966" t="s">
+      <c r="H63" s="990" t="s">
         <v>514</v>
       </c>
-      <c r="I63" s="966"/>
-      <c r="J63" s="966"/>
+      <c r="I63" s="990"/>
+      <c r="J63" s="990"/>
       <c r="L63" s="708"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12412,12 +12427,12 @@
       <c r="A74" s="623" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="985" t="s">
+      <c r="B74" s="966" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="985"/>
-      <c r="D74" s="985"/>
-      <c r="E74" s="985"/>
+      <c r="C74" s="966"/>
+      <c r="D74" s="966"/>
+      <c r="E74" s="966"/>
       <c r="I74" s="709"/>
       <c r="J74" s="709"/>
       <c r="K74" s="709"/>
@@ -12733,36 +12748,36 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="971" t="str">
+      <c r="B85" s="981" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="972"/>
-      <c r="D85" s="971" t="str">
+      <c r="C85" s="982"/>
+      <c r="D85" s="981" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="972"/>
-      <c r="F85" s="971" t="str">
+      <c r="E85" s="982"/>
+      <c r="F85" s="981" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="972"/>
+      <c r="G85" s="982"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
-      <c r="B86" s="927" t="s">
+      <c r="B86" s="926" t="s">
         <v>279</v>
       </c>
-      <c r="C86" s="928"/>
-      <c r="D86" s="927" t="s">
+      <c r="C86" s="927"/>
+      <c r="D86" s="926" t="s">
         <v>279</v>
       </c>
-      <c r="E86" s="928"/>
-      <c r="F86" s="927" t="s">
+      <c r="E86" s="927"/>
+      <c r="F86" s="926" t="s">
         <v>279</v>
       </c>
-      <c r="G86" s="928"/>
+      <c r="G86" s="927"/>
       <c r="N86" s="713" t="s">
         <v>398</v>
       </c>
@@ -13043,36 +13058,36 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="971" t="str">
+      <c r="B101" s="981" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="972"/>
-      <c r="D101" s="971" t="str">
+      <c r="C101" s="982"/>
+      <c r="D101" s="981" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="972"/>
-      <c r="F101" s="971" t="str">
+      <c r="E101" s="982"/>
+      <c r="F101" s="981" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="972"/>
+      <c r="G101" s="982"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
-      <c r="B102" s="927" t="s">
+      <c r="B102" s="926" t="s">
         <v>279</v>
       </c>
-      <c r="C102" s="928"/>
-      <c r="D102" s="927" t="s">
+      <c r="C102" s="927"/>
+      <c r="D102" s="926" t="s">
         <v>279</v>
       </c>
-      <c r="E102" s="928"/>
-      <c r="F102" s="927" t="s">
+      <c r="E102" s="927"/>
+      <c r="F102" s="926" t="s">
         <v>279</v>
       </c>
-      <c r="G102" s="928"/>
+      <c r="G102" s="927"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
@@ -13353,36 +13368,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="967" t="str">
+      <c r="B116" s="983" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="968"/>
-      <c r="D116" s="967" t="str">
+      <c r="C116" s="984"/>
+      <c r="D116" s="983" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="968"/>
-      <c r="F116" s="967" t="str">
+      <c r="E116" s="984"/>
+      <c r="F116" s="983" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="968"/>
+      <c r="G116" s="984"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="969" t="s">
+      <c r="B117" s="985" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="970"/>
-      <c r="D117" s="969" t="s">
+      <c r="C117" s="986"/>
+      <c r="D117" s="985" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="970"/>
-      <c r="F117" s="969" t="s">
+      <c r="E117" s="986"/>
+      <c r="F117" s="985" t="s">
         <v>279</v>
       </c>
-      <c r="G117" s="970"/>
+      <c r="G117" s="986"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13685,12 +13700,12 @@
       <c r="A129" s="546" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="982" t="str">
+      <c r="B129" s="979" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="983"/>
-      <c r="D129" s="983"/>
+      <c r="C129" s="980"/>
+      <c r="D129" s="980"/>
       <c r="N129" s="713" t="s">
         <v>398</v>
       </c>
@@ -14466,16 +14481,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14489,22 +14510,16 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14513,6 +14528,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil17"/>
   <dimension ref="A2:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15320,6 +15336,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil18"/>
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15375,6 +15392,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil19"/>
   <dimension ref="A2:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17789,6 +17807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AQ10000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17900,66 +17919,66 @@
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="825" t="s">
+      <c r="A4" s="824" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="826"/>
-      <c r="C4" s="826"/>
-      <c r="D4" s="826"/>
-      <c r="E4" s="826"/>
-      <c r="F4" s="827"/>
-      <c r="G4" s="827"/>
-      <c r="H4" s="827"/>
-      <c r="I4" s="827"/>
-      <c r="J4" s="827"/>
-      <c r="K4" s="827"/>
-      <c r="L4" s="827"/>
-      <c r="M4" s="827"/>
-      <c r="N4" s="827"/>
-      <c r="O4" s="827"/>
-      <c r="P4" s="827"/>
-      <c r="Q4" s="827"/>
-      <c r="R4" s="827"/>
-      <c r="S4" s="827"/>
-      <c r="T4" s="827"/>
-      <c r="U4" s="827"/>
-      <c r="V4" s="827"/>
-      <c r="W4" s="827"/>
-      <c r="X4" s="827"/>
-      <c r="Y4" s="827"/>
-      <c r="Z4" s="827"/>
-      <c r="AA4" s="827"/>
-      <c r="AB4" s="827"/>
-      <c r="AC4" s="827"/>
-      <c r="AD4" s="827"/>
-      <c r="AE4" s="827"/>
-      <c r="AF4" s="827"/>
-      <c r="AG4" s="827"/>
-      <c r="AH4" s="827"/>
-      <c r="AI4" s="827"/>
-      <c r="AJ4" s="827"/>
-      <c r="AK4" s="827"/>
-      <c r="AL4" s="827"/>
-      <c r="AM4" s="827"/>
-      <c r="AN4" s="827"/>
-      <c r="AO4" s="827"/>
-      <c r="AP4" s="827"/>
-      <c r="AQ4" s="827"/>
+      <c r="B4" s="825"/>
+      <c r="C4" s="825"/>
+      <c r="D4" s="825"/>
+      <c r="E4" s="825"/>
+      <c r="F4" s="826"/>
+      <c r="G4" s="826"/>
+      <c r="H4" s="826"/>
+      <c r="I4" s="826"/>
+      <c r="J4" s="826"/>
+      <c r="K4" s="826"/>
+      <c r="L4" s="826"/>
+      <c r="M4" s="826"/>
+      <c r="N4" s="826"/>
+      <c r="O4" s="826"/>
+      <c r="P4" s="826"/>
+      <c r="Q4" s="826"/>
+      <c r="R4" s="826"/>
+      <c r="S4" s="826"/>
+      <c r="T4" s="826"/>
+      <c r="U4" s="826"/>
+      <c r="V4" s="826"/>
+      <c r="W4" s="826"/>
+      <c r="X4" s="826"/>
+      <c r="Y4" s="826"/>
+      <c r="Z4" s="826"/>
+      <c r="AA4" s="826"/>
+      <c r="AB4" s="826"/>
+      <c r="AC4" s="826"/>
+      <c r="AD4" s="826"/>
+      <c r="AE4" s="826"/>
+      <c r="AF4" s="826"/>
+      <c r="AG4" s="826"/>
+      <c r="AH4" s="826"/>
+      <c r="AI4" s="826"/>
+      <c r="AJ4" s="826"/>
+      <c r="AK4" s="826"/>
+      <c r="AL4" s="826"/>
+      <c r="AM4" s="826"/>
+      <c r="AN4" s="826"/>
+      <c r="AO4" s="826"/>
+      <c r="AP4" s="826"/>
+      <c r="AQ4" s="826"/>
     </row>
     <row r="5" spans="1:43" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="828" t="s">
+      <c r="A5" s="827" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="828" t="s">
+      <c r="B5" s="827" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="795" t="s">
         <v>593</v>
       </c>
-      <c r="D5" s="828" t="s">
+      <c r="D5" s="827" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="828" t="s">
+      <c r="E5" s="827" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -18019,10 +18038,10 @@
       <c r="X5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="830" t="s">
+      <c r="Y5" s="829" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="830" t="s">
+      <c r="Z5" s="829" t="s">
         <v>49</v>
       </c>
       <c r="AA5" s="16" t="s">
@@ -18052,7 +18071,7 @@
       <c r="AI5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="830" t="s">
+      <c r="AJ5" s="829" t="s">
         <v>58</v>
       </c>
       <c r="AK5" s="16" t="s">
@@ -18061,28 +18080,28 @@
       <c r="AL5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" s="828" t="s">
+      <c r="AM5" s="827" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="828" t="s">
+      <c r="AN5" s="827" t="s">
         <v>62</v>
       </c>
-      <c r="AO5" s="828" t="s">
+      <c r="AO5" s="827" t="s">
         <v>63</v>
       </c>
-      <c r="AP5" s="828" t="s">
+      <c r="AP5" s="827" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="828" t="s">
+      <c r="AQ5" s="827" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="829"/>
-      <c r="B6" s="829"/>
+      <c r="A6" s="828"/>
+      <c r="B6" s="828"/>
       <c r="C6" s="796"/>
-      <c r="D6" s="829"/>
-      <c r="E6" s="829"/>
+      <c r="D6" s="828"/>
+      <c r="E6" s="828"/>
       <c r="F6" s="14" t="s">
         <v>66</v>
       </c>
@@ -18140,8 +18159,8 @@
       <c r="X6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="831"/>
-      <c r="Z6" s="831"/>
+      <c r="Y6" s="830"/>
+      <c r="Z6" s="830"/>
       <c r="AA6" s="9" t="s">
         <v>67</v>
       </c>
@@ -18169,18 +18188,18 @@
       <c r="AI6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AJ6" s="831"/>
+      <c r="AJ6" s="830"/>
       <c r="AK6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AL6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AM6" s="829"/>
-      <c r="AN6" s="829"/>
-      <c r="AO6" s="829"/>
-      <c r="AP6" s="829"/>
-      <c r="AQ6" s="829"/>
+      <c r="AM6" s="828"/>
+      <c r="AN6" s="828"/>
+      <c r="AO6" s="828"/>
+      <c r="AP6" s="828"/>
+      <c r="AQ6" s="828"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AE7" s="8"/>
@@ -58235,6 +58254,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil20"/>
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58308,6 +58328,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -58419,6 +58440,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58440,10 +58462,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="832" t="s">
+      <c r="A1" s="831" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="834" t="s">
+      <c r="B1" s="833" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="823" t="s">
@@ -58493,8 +58515,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="833"/>
-      <c r="B2" s="835"/>
+      <c r="A2" s="832"/>
+      <c r="B2" s="834"/>
       <c r="C2" s="9" t="s">
         <v>67</v>
       </c>
@@ -58628,6 +58650,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:CQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58658,123 +58681,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="865" t="s">
+      <c r="A1" s="835" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
-      <c r="D1" s="866"/>
-      <c r="E1" s="866"/>
-      <c r="F1" s="866"/>
-      <c r="G1" s="866"/>
-      <c r="H1" s="867" t="s">
+      <c r="B1" s="836"/>
+      <c r="C1" s="836"/>
+      <c r="D1" s="836"/>
+      <c r="E1" s="836"/>
+      <c r="F1" s="836"/>
+      <c r="G1" s="836"/>
+      <c r="H1" s="837" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="868"/>
-      <c r="J1" s="868"/>
-      <c r="K1" s="868"/>
-      <c r="L1" s="868"/>
-      <c r="M1" s="869"/>
-      <c r="N1" s="870" t="s">
+      <c r="I1" s="838"/>
+      <c r="J1" s="838"/>
+      <c r="K1" s="838"/>
+      <c r="L1" s="838"/>
+      <c r="M1" s="839"/>
+      <c r="N1" s="840" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="848"/>
-      <c r="P1" s="848"/>
-      <c r="Q1" s="848"/>
-      <c r="R1" s="848"/>
-      <c r="S1" s="848"/>
-      <c r="T1" s="848"/>
-      <c r="U1" s="848"/>
-      <c r="V1" s="871" t="s">
+      <c r="O1" s="841"/>
+      <c r="P1" s="841"/>
+      <c r="Q1" s="841"/>
+      <c r="R1" s="841"/>
+      <c r="S1" s="841"/>
+      <c r="T1" s="841"/>
+      <c r="U1" s="841"/>
+      <c r="V1" s="842" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="872"/>
-      <c r="X1" s="873"/>
-      <c r="Y1" s="873"/>
-      <c r="Z1" s="874"/>
-      <c r="AA1" s="875" t="s">
+      <c r="W1" s="843"/>
+      <c r="X1" s="844"/>
+      <c r="Y1" s="844"/>
+      <c r="Z1" s="845"/>
+      <c r="AA1" s="846" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="876"/>
-      <c r="AC1" s="876"/>
-      <c r="AD1" s="876"/>
-      <c r="AE1" s="876"/>
-      <c r="AF1" s="876"/>
-      <c r="AG1" s="876"/>
-      <c r="AH1" s="876"/>
-      <c r="AI1" s="876"/>
-      <c r="AJ1" s="876"/>
-      <c r="AK1" s="876"/>
-      <c r="AL1" s="876"/>
-      <c r="AM1" s="876"/>
+      <c r="AB1" s="847"/>
+      <c r="AC1" s="847"/>
+      <c r="AD1" s="847"/>
+      <c r="AE1" s="847"/>
+      <c r="AF1" s="847"/>
+      <c r="AG1" s="847"/>
+      <c r="AH1" s="847"/>
+      <c r="AI1" s="847"/>
+      <c r="AJ1" s="847"/>
+      <c r="AK1" s="847"/>
+      <c r="AL1" s="847"/>
+      <c r="AM1" s="847"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="847" t="s">
+      <c r="AP1" s="859" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="848"/>
-      <c r="AR1" s="848"/>
-      <c r="AS1" s="848"/>
-      <c r="AT1" s="848"/>
-      <c r="AU1" s="848"/>
-      <c r="AV1" s="848"/>
-      <c r="AW1" s="849"/>
-      <c r="AX1" s="856" t="s">
+      <c r="AQ1" s="841"/>
+      <c r="AR1" s="841"/>
+      <c r="AS1" s="841"/>
+      <c r="AT1" s="841"/>
+      <c r="AU1" s="841"/>
+      <c r="AV1" s="841"/>
+      <c r="AW1" s="860"/>
+      <c r="AX1" s="867" t="s">
         <v>594</v>
       </c>
-      <c r="AY1" s="857"/>
-      <c r="AZ1" s="857"/>
-      <c r="BA1" s="857"/>
-      <c r="BB1" s="857"/>
-      <c r="BC1" s="858"/>
-      <c r="BD1" s="859" t="s">
+      <c r="AY1" s="868"/>
+      <c r="AZ1" s="868"/>
+      <c r="BA1" s="868"/>
+      <c r="BB1" s="868"/>
+      <c r="BC1" s="869"/>
+      <c r="BD1" s="870" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="860"/>
-      <c r="BF1" s="860"/>
-      <c r="BG1" s="860"/>
-      <c r="BH1" s="860"/>
-      <c r="BI1" s="861"/>
-      <c r="BJ1" s="862" t="s">
+      <c r="BE1" s="871"/>
+      <c r="BF1" s="871"/>
+      <c r="BG1" s="871"/>
+      <c r="BH1" s="871"/>
+      <c r="BI1" s="872"/>
+      <c r="BJ1" s="873" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" s="863"/>
-      <c r="BL1" s="863"/>
-      <c r="BM1" s="863"/>
-      <c r="BN1" s="863"/>
-      <c r="BO1" s="863"/>
-      <c r="BP1" s="864"/>
-      <c r="BQ1" s="836" t="s">
+      <c r="BK1" s="874"/>
+      <c r="BL1" s="874"/>
+      <c r="BM1" s="874"/>
+      <c r="BN1" s="874"/>
+      <c r="BO1" s="874"/>
+      <c r="BP1" s="875"/>
+      <c r="BQ1" s="848" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="837"/>
-      <c r="BS1" s="837"/>
-      <c r="BT1" s="837"/>
-      <c r="BU1" s="837"/>
-      <c r="BV1" s="837"/>
+      <c r="BR1" s="849"/>
+      <c r="BS1" s="849"/>
+      <c r="BT1" s="849"/>
+      <c r="BU1" s="849"/>
+      <c r="BV1" s="849"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="838" t="s">
+      <c r="BY1" s="850" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="839"/>
-      <c r="CA1" s="839"/>
-      <c r="CB1" s="839"/>
-      <c r="CC1" s="839"/>
-      <c r="CD1" s="839"/>
-      <c r="CE1" s="839"/>
-      <c r="CF1" s="840"/>
-      <c r="CG1" s="840"/>
-      <c r="CH1" s="840"/>
-      <c r="CI1" s="840"/>
-      <c r="CJ1" s="840"/>
-      <c r="CK1" s="840"/>
-      <c r="CL1" s="840"/>
-      <c r="CM1" s="840"/>
-      <c r="CN1" s="840"/>
-      <c r="CO1" s="840"/>
-      <c r="CP1" s="840"/>
-      <c r="CQ1" s="840"/>
+      <c r="BZ1" s="851"/>
+      <c r="CA1" s="851"/>
+      <c r="CB1" s="851"/>
+      <c r="CC1" s="851"/>
+      <c r="CD1" s="851"/>
+      <c r="CE1" s="851"/>
+      <c r="CF1" s="852"/>
+      <c r="CG1" s="852"/>
+      <c r="CH1" s="852"/>
+      <c r="CI1" s="852"/>
+      <c r="CJ1" s="852"/>
+      <c r="CK1" s="852"/>
+      <c r="CL1" s="852"/>
+      <c r="CM1" s="852"/>
+      <c r="CN1" s="852"/>
+      <c r="CO1" s="852"/>
+      <c r="CP1" s="852"/>
+      <c r="CQ1" s="852"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58798,18 +58821,18 @@
       <c r="G2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="841" t="s">
+      <c r="H2" s="853" t="s">
         <v>465</v>
       </c>
-      <c r="I2" s="842"/>
-      <c r="J2" s="842" t="s">
+      <c r="I2" s="854"/>
+      <c r="J2" s="854" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="842"/>
-      <c r="L2" s="842" t="s">
+      <c r="K2" s="854"/>
+      <c r="L2" s="854" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="843"/>
+      <c r="M2" s="855"/>
       <c r="N2" s="57" t="s">
         <v>90</v>
       </c>
@@ -58918,36 +58941,36 @@
       <c r="AW2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AX2" s="844" t="s">
+      <c r="AX2" s="856" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" s="845"/>
-      <c r="AZ2" s="845"/>
-      <c r="BA2" s="845" t="s">
+      <c r="AY2" s="857"/>
+      <c r="AZ2" s="857"/>
+      <c r="BA2" s="857" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="845"/>
-      <c r="BC2" s="846"/>
-      <c r="BD2" s="850" t="s">
+      <c r="BB2" s="857"/>
+      <c r="BC2" s="858"/>
+      <c r="BD2" s="861" t="s">
         <v>125</v>
       </c>
-      <c r="BE2" s="851"/>
-      <c r="BF2" s="851"/>
-      <c r="BG2" s="851" t="s">
+      <c r="BE2" s="862"/>
+      <c r="BF2" s="862"/>
+      <c r="BG2" s="862" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" s="851"/>
-      <c r="BI2" s="852"/>
-      <c r="BJ2" s="853" t="s">
+      <c r="BH2" s="862"/>
+      <c r="BI2" s="863"/>
+      <c r="BJ2" s="864" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="854"/>
-      <c r="BL2" s="854"/>
-      <c r="BM2" s="854" t="s">
+      <c r="BK2" s="865"/>
+      <c r="BL2" s="865"/>
+      <c r="BM2" s="865" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="855"/>
-      <c r="BO2" s="855"/>
+      <c r="BN2" s="866"/>
+      <c r="BO2" s="866"/>
       <c r="BP2" s="69" t="s">
         <v>127</v>
       </c>
@@ -59580,11 +59603,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59600,6 +59618,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59608,6 +59631,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:CZ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59682,32 +59706,32 @@
         <v>167</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="900" t="s">
+      <c r="M1" s="876" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="901" t="s">
+      <c r="N1" s="877" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="902"/>
-      <c r="P1" s="902"/>
-      <c r="Q1" s="902"/>
-      <c r="R1" s="903" t="s">
+      <c r="O1" s="878"/>
+      <c r="P1" s="878"/>
+      <c r="Q1" s="878"/>
+      <c r="R1" s="879" t="s">
         <v>464</v>
       </c>
-      <c r="S1" s="896"/>
-      <c r="T1" s="896"/>
-      <c r="U1" s="896"/>
-      <c r="V1" s="896"/>
-      <c r="W1" s="896"/>
-      <c r="X1" s="904"/>
-      <c r="Y1" s="890" t="s">
+      <c r="S1" s="880"/>
+      <c r="T1" s="880"/>
+      <c r="U1" s="880"/>
+      <c r="V1" s="880"/>
+      <c r="W1" s="880"/>
+      <c r="X1" s="881"/>
+      <c r="Y1" s="882" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="860"/>
-      <c r="AA1" s="905" t="s">
+      <c r="Z1" s="871"/>
+      <c r="AA1" s="885" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="878" t="s">
+      <c r="AB1" s="896" t="s">
         <v>170</v>
       </c>
       <c r="AC1" s="892" t="s">
@@ -59719,90 +59743,90 @@
       <c r="AG1" s="895" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="896"/>
-      <c r="AI1" s="896"/>
-      <c r="AJ1" s="896"/>
-      <c r="AK1" s="896"/>
-      <c r="AL1" s="896"/>
-      <c r="AM1" s="896"/>
-      <c r="AN1" s="896"/>
-      <c r="AO1" s="878" t="s">
+      <c r="AH1" s="880"/>
+      <c r="AI1" s="880"/>
+      <c r="AJ1" s="880"/>
+      <c r="AK1" s="880"/>
+      <c r="AL1" s="880"/>
+      <c r="AM1" s="880"/>
+      <c r="AN1" s="880"/>
+      <c r="AO1" s="896" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" s="890" t="s">
+      <c r="AP1" s="882" t="s">
         <v>471</v>
       </c>
-      <c r="AQ1" s="860"/>
-      <c r="AR1" s="860"/>
-      <c r="AS1" s="861"/>
-      <c r="AT1" s="898" t="s">
+      <c r="AQ1" s="871"/>
+      <c r="AR1" s="871"/>
+      <c r="AS1" s="872"/>
+      <c r="AT1" s="899" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="899"/>
-      <c r="AV1" s="899"/>
-      <c r="AW1" s="899"/>
-      <c r="AX1" s="899"/>
-      <c r="AY1" s="899"/>
-      <c r="AZ1" s="899"/>
-      <c r="BA1" s="899"/>
-      <c r="BB1" s="899"/>
-      <c r="BC1" s="899"/>
-      <c r="BD1" s="899"/>
-      <c r="BE1" s="899"/>
-      <c r="BF1" s="899"/>
-      <c r="BG1" s="899"/>
-      <c r="BH1" s="899"/>
-      <c r="BI1" s="899"/>
-      <c r="BJ1" s="899"/>
-      <c r="BK1" s="899"/>
-      <c r="BL1" s="899"/>
-      <c r="BM1" s="899"/>
-      <c r="BN1" s="899"/>
-      <c r="BO1" s="899"/>
-      <c r="BP1" s="899"/>
-      <c r="BQ1" s="899"/>
-      <c r="BR1" s="899"/>
-      <c r="BS1" s="899"/>
-      <c r="BT1" s="899"/>
-      <c r="BU1" s="899"/>
-      <c r="BV1" s="899"/>
-      <c r="BW1" s="878" t="s">
+      <c r="AU1" s="900"/>
+      <c r="AV1" s="900"/>
+      <c r="AW1" s="900"/>
+      <c r="AX1" s="900"/>
+      <c r="AY1" s="900"/>
+      <c r="AZ1" s="900"/>
+      <c r="BA1" s="900"/>
+      <c r="BB1" s="900"/>
+      <c r="BC1" s="900"/>
+      <c r="BD1" s="900"/>
+      <c r="BE1" s="900"/>
+      <c r="BF1" s="900"/>
+      <c r="BG1" s="900"/>
+      <c r="BH1" s="900"/>
+      <c r="BI1" s="900"/>
+      <c r="BJ1" s="900"/>
+      <c r="BK1" s="900"/>
+      <c r="BL1" s="900"/>
+      <c r="BM1" s="900"/>
+      <c r="BN1" s="900"/>
+      <c r="BO1" s="900"/>
+      <c r="BP1" s="900"/>
+      <c r="BQ1" s="900"/>
+      <c r="BR1" s="900"/>
+      <c r="BS1" s="900"/>
+      <c r="BT1" s="900"/>
+      <c r="BU1" s="900"/>
+      <c r="BV1" s="900"/>
+      <c r="BW1" s="896" t="s">
         <v>175</v>
       </c>
-      <c r="BX1" s="890" t="s">
+      <c r="BX1" s="882" t="s">
         <v>470</v>
       </c>
-      <c r="BY1" s="860"/>
-      <c r="BZ1" s="860"/>
-      <c r="CA1" s="861"/>
-      <c r="CB1" s="889" t="s">
+      <c r="BY1" s="871"/>
+      <c r="BZ1" s="871"/>
+      <c r="CA1" s="872"/>
+      <c r="CB1" s="908" t="s">
         <v>487</v>
       </c>
-      <c r="CC1" s="891" t="s">
+      <c r="CC1" s="890" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="891"/>
-      <c r="CE1" s="891"/>
-      <c r="CF1" s="891"/>
-      <c r="CG1" s="891"/>
-      <c r="CH1" s="891"/>
-      <c r="CI1" s="891"/>
-      <c r="CJ1" s="891"/>
-      <c r="CK1" s="891"/>
-      <c r="CL1" s="891"/>
-      <c r="CM1" s="891"/>
-      <c r="CN1" s="891"/>
+      <c r="CD1" s="890"/>
+      <c r="CE1" s="890"/>
+      <c r="CF1" s="890"/>
+      <c r="CG1" s="890"/>
+      <c r="CH1" s="890"/>
+      <c r="CI1" s="890"/>
+      <c r="CJ1" s="890"/>
+      <c r="CK1" s="890"/>
+      <c r="CL1" s="890"/>
+      <c r="CM1" s="890"/>
+      <c r="CN1" s="890"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="877" t="s">
+      <c r="CP1" s="904" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" s="848"/>
-      <c r="CR1" s="848"/>
-      <c r="CS1" s="848"/>
-      <c r="CT1" s="848"/>
-      <c r="CU1" s="848"/>
-      <c r="CV1" s="848"/>
-      <c r="CW1" s="849"/>
+      <c r="CQ1" s="841"/>
+      <c r="CR1" s="841"/>
+      <c r="CS1" s="841"/>
+      <c r="CT1" s="841"/>
+      <c r="CU1" s="841"/>
+      <c r="CV1" s="841"/>
+      <c r="CW1" s="860"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59841,7 +59865,7 @@
       <c r="L2" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="900"/>
+      <c r="M2" s="876"/>
       <c r="N2" s="152" t="s">
         <v>180</v>
       </c>
@@ -59857,22 +59881,22 @@
       <c r="R2" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="907" t="s">
+      <c r="S2" s="887" t="s">
         <v>465</v>
       </c>
-      <c r="T2" s="855"/>
-      <c r="U2" s="908" t="s">
+      <c r="T2" s="866"/>
+      <c r="U2" s="888" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="908"/>
-      <c r="W2" s="908" t="s">
+      <c r="V2" s="888"/>
+      <c r="W2" s="888" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="909"/>
-      <c r="Y2" s="884"/>
-      <c r="Z2" s="885"/>
-      <c r="AA2" s="906"/>
-      <c r="AB2" s="879"/>
+      <c r="X2" s="889"/>
+      <c r="Y2" s="883"/>
+      <c r="Z2" s="884"/>
+      <c r="AA2" s="886"/>
+      <c r="AB2" s="897"/>
       <c r="AC2" s="153" t="s">
         <v>184</v>
       </c>
@@ -59885,81 +59909,81 @@
       <c r="AF2" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="AG2" s="897" t="s">
+      <c r="AG2" s="898" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" s="882"/>
-      <c r="AI2" s="882" t="s">
+      <c r="AH2" s="891"/>
+      <c r="AI2" s="891" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="882"/>
-      <c r="AK2" s="882" t="s">
+      <c r="AJ2" s="891"/>
+      <c r="AK2" s="891" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" s="882"/>
+      <c r="AL2" s="891"/>
       <c r="AM2" s="154" t="s">
         <v>191</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="AO2" s="879"/>
-      <c r="AP2" s="884" t="s">
+      <c r="AO2" s="897"/>
+      <c r="AP2" s="883" t="s">
         <v>193</v>
       </c>
-      <c r="AQ2" s="885"/>
-      <c r="AR2" s="886" t="s">
+      <c r="AQ2" s="884"/>
+      <c r="AR2" s="901" t="s">
         <v>194</v>
       </c>
-      <c r="AS2" s="887"/>
-      <c r="AT2" s="882" t="s">
+      <c r="AS2" s="902"/>
+      <c r="AT2" s="891" t="s">
         <v>195</v>
       </c>
-      <c r="AU2" s="882"/>
-      <c r="AV2" s="883" t="s">
+      <c r="AU2" s="891"/>
+      <c r="AV2" s="903" t="s">
         <v>196</v>
       </c>
-      <c r="AW2" s="883"/>
-      <c r="AX2" s="883" t="s">
+      <c r="AW2" s="903"/>
+      <c r="AX2" s="903" t="s">
         <v>197</v>
       </c>
-      <c r="AY2" s="883"/>
+      <c r="AY2" s="903"/>
       <c r="AZ2" s="154" t="s">
         <v>198</v>
       </c>
       <c r="BA2" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="BB2" s="882" t="s">
+      <c r="BB2" s="891" t="s">
         <v>200</v>
       </c>
-      <c r="BC2" s="882"/>
-      <c r="BD2" s="883" t="s">
+      <c r="BC2" s="891"/>
+      <c r="BD2" s="903" t="s">
         <v>201</v>
       </c>
-      <c r="BE2" s="883"/>
-      <c r="BF2" s="883" t="s">
+      <c r="BE2" s="903"/>
+      <c r="BF2" s="903" t="s">
         <v>202</v>
       </c>
-      <c r="BG2" s="883"/>
+      <c r="BG2" s="903"/>
       <c r="BH2" s="154" t="s">
         <v>203</v>
       </c>
       <c r="BI2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="BJ2" s="882" t="s">
+      <c r="BJ2" s="891" t="s">
         <v>205</v>
       </c>
-      <c r="BK2" s="882"/>
-      <c r="BL2" s="883" t="s">
+      <c r="BK2" s="891"/>
+      <c r="BL2" s="903" t="s">
         <v>206</v>
       </c>
-      <c r="BM2" s="883"/>
-      <c r="BN2" s="883" t="s">
+      <c r="BM2" s="903"/>
+      <c r="BN2" s="903" t="s">
         <v>207</v>
       </c>
-      <c r="BO2" s="883"/>
+      <c r="BO2" s="903"/>
       <c r="BP2" s="154" t="s">
         <v>208</v>
       </c>
@@ -59981,16 +60005,16 @@
       <c r="BV2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="BW2" s="879"/>
-      <c r="BX2" s="884" t="s">
+      <c r="BW2" s="897"/>
+      <c r="BX2" s="883" t="s">
         <v>193</v>
       </c>
-      <c r="BY2" s="885"/>
-      <c r="BZ2" s="886" t="s">
+      <c r="BY2" s="884"/>
+      <c r="BZ2" s="901" t="s">
         <v>194</v>
       </c>
-      <c r="CA2" s="887"/>
-      <c r="CB2" s="889"/>
+      <c r="CA2" s="902"/>
+      <c r="CB2" s="908"/>
       <c r="CC2" s="138" t="s">
         <v>106</v>
       </c>
@@ -60030,22 +60054,22 @@
       <c r="CO2" s="140" t="s">
         <v>473</v>
       </c>
-      <c r="CP2" s="888" t="s">
+      <c r="CP2" s="907" t="s">
         <v>216</v>
       </c>
-      <c r="CQ2" s="880"/>
-      <c r="CR2" s="880" t="s">
+      <c r="CQ2" s="905"/>
+      <c r="CR2" s="905" t="s">
         <v>217</v>
       </c>
-      <c r="CS2" s="880"/>
-      <c r="CT2" s="880" t="s">
+      <c r="CS2" s="905"/>
+      <c r="CT2" s="905" t="s">
         <v>218</v>
       </c>
-      <c r="CU2" s="880"/>
-      <c r="CV2" s="880" t="s">
+      <c r="CU2" s="905"/>
+      <c r="CV2" s="905" t="s">
         <v>219</v>
       </c>
-      <c r="CW2" s="881"/>
+      <c r="CW2" s="906"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60910,29 +60934,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60949,6 +60950,29 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60957,6 +60981,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:DE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60991,19 +61016,19 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="695"/>
-      <c r="N1" s="910"/>
-      <c r="O1" s="911"/>
-      <c r="P1" s="911"/>
-      <c r="Q1" s="911"/>
-      <c r="R1" s="903"/>
-      <c r="S1" s="896"/>
-      <c r="T1" s="896"/>
-      <c r="U1" s="896"/>
-      <c r="V1" s="896"/>
-      <c r="W1" s="896"/>
-      <c r="X1" s="904"/>
-      <c r="Y1" s="890"/>
-      <c r="Z1" s="860"/>
+      <c r="N1" s="912"/>
+      <c r="O1" s="913"/>
+      <c r="P1" s="913"/>
+      <c r="Q1" s="913"/>
+      <c r="R1" s="879"/>
+      <c r="S1" s="880"/>
+      <c r="T1" s="880"/>
+      <c r="U1" s="880"/>
+      <c r="V1" s="880"/>
+      <c r="W1" s="880"/>
+      <c r="X1" s="881"/>
+      <c r="Y1" s="882"/>
+      <c r="Z1" s="871"/>
       <c r="AA1" s="696"/>
       <c r="AB1" s="694"/>
       <c r="AC1" s="892"/>
@@ -61011,85 +61036,90 @@
       <c r="AE1" s="893"/>
       <c r="AF1" s="894"/>
       <c r="AG1" s="895"/>
-      <c r="AH1" s="896"/>
-      <c r="AI1" s="896"/>
-      <c r="AJ1" s="896"/>
-      <c r="AK1" s="896"/>
-      <c r="AL1" s="896"/>
-      <c r="AM1" s="896"/>
-      <c r="AN1" s="896"/>
+      <c r="AH1" s="880"/>
+      <c r="AI1" s="880"/>
+      <c r="AJ1" s="880"/>
+      <c r="AK1" s="880"/>
+      <c r="AL1" s="880"/>
+      <c r="AM1" s="880"/>
+      <c r="AN1" s="880"/>
       <c r="AO1" s="694"/>
-      <c r="AP1" s="890"/>
-      <c r="AQ1" s="860"/>
-      <c r="AR1" s="860"/>
-      <c r="AS1" s="861"/>
-      <c r="AT1" s="898"/>
-      <c r="AU1" s="899"/>
-      <c r="AV1" s="899"/>
-      <c r="AW1" s="899"/>
-      <c r="AX1" s="899"/>
-      <c r="AY1" s="899"/>
-      <c r="AZ1" s="899"/>
-      <c r="BA1" s="899"/>
-      <c r="BB1" s="899"/>
-      <c r="BC1" s="899"/>
-      <c r="BD1" s="899"/>
-      <c r="BE1" s="899"/>
-      <c r="BF1" s="899"/>
-      <c r="BG1" s="899"/>
-      <c r="BH1" s="899"/>
-      <c r="BI1" s="899"/>
-      <c r="BJ1" s="899"/>
-      <c r="BK1" s="899"/>
-      <c r="BL1" s="899"/>
-      <c r="BM1" s="899"/>
-      <c r="BN1" s="899"/>
-      <c r="BO1" s="899"/>
-      <c r="BP1" s="899"/>
-      <c r="BQ1" s="899"/>
-      <c r="BR1" s="899"/>
-      <c r="BS1" s="899"/>
-      <c r="BT1" s="899"/>
-      <c r="BU1" s="899"/>
-      <c r="BV1" s="899"/>
+      <c r="AP1" s="882"/>
+      <c r="AQ1" s="871"/>
+      <c r="AR1" s="871"/>
+      <c r="AS1" s="872"/>
+      <c r="AT1" s="899"/>
+      <c r="AU1" s="900"/>
+      <c r="AV1" s="900"/>
+      <c r="AW1" s="900"/>
+      <c r="AX1" s="900"/>
+      <c r="AY1" s="900"/>
+      <c r="AZ1" s="900"/>
+      <c r="BA1" s="900"/>
+      <c r="BB1" s="900"/>
+      <c r="BC1" s="900"/>
+      <c r="BD1" s="900"/>
+      <c r="BE1" s="900"/>
+      <c r="BF1" s="900"/>
+      <c r="BG1" s="900"/>
+      <c r="BH1" s="900"/>
+      <c r="BI1" s="900"/>
+      <c r="BJ1" s="900"/>
+      <c r="BK1" s="900"/>
+      <c r="BL1" s="900"/>
+      <c r="BM1" s="900"/>
+      <c r="BN1" s="900"/>
+      <c r="BO1" s="900"/>
+      <c r="BP1" s="900"/>
+      <c r="BQ1" s="900"/>
+      <c r="BR1" s="900"/>
+      <c r="BS1" s="900"/>
+      <c r="BT1" s="900"/>
+      <c r="BU1" s="900"/>
+      <c r="BV1" s="900"/>
       <c r="BW1" s="694"/>
-      <c r="BX1" s="890"/>
-      <c r="BY1" s="860"/>
-      <c r="BZ1" s="860"/>
-      <c r="CA1" s="861"/>
-      <c r="CB1" s="891"/>
-      <c r="CC1" s="891"/>
-      <c r="CD1" s="891"/>
-      <c r="CE1" s="891"/>
-      <c r="CF1" s="891"/>
-      <c r="CG1" s="891"/>
-      <c r="CH1" s="891"/>
-      <c r="CI1" s="891"/>
-      <c r="CJ1" s="891"/>
-      <c r="CK1" s="891"/>
-      <c r="CL1" s="891"/>
-      <c r="CM1" s="891"/>
+      <c r="BX1" s="882"/>
+      <c r="BY1" s="871"/>
+      <c r="BZ1" s="871"/>
+      <c r="CA1" s="872"/>
+      <c r="CB1" s="890"/>
+      <c r="CC1" s="890"/>
+      <c r="CD1" s="890"/>
+      <c r="CE1" s="890"/>
+      <c r="CF1" s="890"/>
+      <c r="CG1" s="890"/>
+      <c r="CH1" s="890"/>
+      <c r="CI1" s="890"/>
+      <c r="CJ1" s="890"/>
+      <c r="CK1" s="890"/>
+      <c r="CL1" s="890"/>
+      <c r="CM1" s="890"/>
       <c r="CN1" s="693"/>
-      <c r="CO1" s="877"/>
-      <c r="CP1" s="848"/>
-      <c r="CQ1" s="848"/>
-      <c r="CR1" s="848"/>
-      <c r="CS1" s="848"/>
-      <c r="CT1" s="848"/>
-      <c r="CU1" s="848"/>
-      <c r="CV1" s="849"/>
-      <c r="CW1" s="912"/>
-      <c r="CX1" s="913"/>
-      <c r="CY1" s="913"/>
-      <c r="CZ1" s="914"/>
-      <c r="DA1" s="913"/>
-      <c r="DB1" s="913"/>
-      <c r="DC1" s="914"/>
-      <c r="DD1" s="913"/>
-      <c r="DE1" s="913"/>
+      <c r="CO1" s="904"/>
+      <c r="CP1" s="841"/>
+      <c r="CQ1" s="841"/>
+      <c r="CR1" s="841"/>
+      <c r="CS1" s="841"/>
+      <c r="CT1" s="841"/>
+      <c r="CU1" s="841"/>
+      <c r="CV1" s="860"/>
+      <c r="CW1" s="909"/>
+      <c r="CX1" s="910"/>
+      <c r="CY1" s="910"/>
+      <c r="CZ1" s="911"/>
+      <c r="DA1" s="910"/>
+      <c r="DB1" s="910"/>
+      <c r="DC1" s="911"/>
+      <c r="DD1" s="910"/>
+      <c r="DE1" s="910"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61098,11 +61128,6 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61111,18 +61136,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="3" width="32.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
-    <col min="12" max="12" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -61135,20 +61167,20 @@
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
       <c r="G1" s="143"/>
-      <c r="H1" s="916" t="s">
+      <c r="H1" s="915" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="916"/>
-      <c r="J1" s="916"/>
-      <c r="K1" s="916"/>
-      <c r="L1" s="915" t="s">
+      <c r="I1" s="915"/>
+      <c r="J1" s="915"/>
+      <c r="K1" s="915"/>
+      <c r="L1" s="914" t="s">
         <v>604</v>
       </c>
-      <c r="M1" s="915"/>
-      <c r="N1" s="915"/>
-      <c r="O1" s="915"/>
-    </row>
-    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="M1" s="914"/>
+      <c r="N1" s="914"/>
+      <c r="O1" s="914"/>
+    </row>
+    <row r="2" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
         <v>90</v>
       </c>
@@ -61182,16 +61214,16 @@
       <c r="K2" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="L2" s="824" t="s">
+      <c r="L2" s="991" t="s">
         <v>600</v>
       </c>
-      <c r="M2" s="824" t="s">
+      <c r="M2" s="991" t="s">
         <v>255</v>
       </c>
-      <c r="N2" s="824" t="s">
+      <c r="N2" s="991" t="s">
         <v>262</v>
       </c>
-      <c r="O2" s="824" t="s">
+      <c r="O2" s="991" t="s">
         <v>601</v>
       </c>
     </row>
@@ -61250,7 +61282,7 @@
       <c r="J6" s="167"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D4"/>
+  <autoFilter ref="A4:O4"/>
   <mergeCells count="2">
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="H1:K1"/>
@@ -61262,6 +61294,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61318,10 +61351,10 @@
       <c r="B2" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="924" t="s">
+      <c r="C2" s="921" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="924"/>
+      <c r="D2" s="921"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61485,35 +61518,35 @@
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="925"/>
-      <c r="C7" s="925"/>
-      <c r="D7" s="925"/>
+      <c r="B7" s="918"/>
+      <c r="C7" s="918"/>
+      <c r="D7" s="918"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="925"/>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
+      <c r="J7" s="918"/>
+      <c r="K7" s="918"/>
+      <c r="L7" s="918"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
+      <c r="Q7" s="918"/>
+      <c r="R7" s="918"/>
+      <c r="S7" s="918"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
         <v>243</v>
       </c>
-      <c r="X7" s="925"/>
-      <c r="Y7" s="925"/>
-      <c r="Z7" s="925"/>
+      <c r="X7" s="918"/>
+      <c r="Y7" s="918"/>
+      <c r="Z7" s="918"/>
       <c r="AA7" s="372"/>
       <c r="AB7" s="215"/>
     </row>
@@ -61552,54 +61585,54 @@
       <c r="B9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="920" t="s">
+      <c r="C9" s="919" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="921"/>
-      <c r="E9" s="920" t="s">
+      <c r="D9" s="920"/>
+      <c r="E9" s="919" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="921"/>
+      <c r="F9" s="920"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="920" t="s">
+      <c r="K9" s="919" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="921"/>
-      <c r="M9" s="920" t="s">
+      <c r="L9" s="920"/>
+      <c r="M9" s="919" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="921"/>
+      <c r="N9" s="920"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="R9" s="920" t="s">
+      <c r="R9" s="919" t="s">
         <v>244</v>
       </c>
-      <c r="S9" s="921"/>
-      <c r="T9" s="920" t="s">
+      <c r="S9" s="920"/>
+      <c r="T9" s="919" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="921"/>
+      <c r="U9" s="920"/>
       <c r="V9" s="372"/>
       <c r="W9" s="372"/>
       <c r="X9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="Y9" s="920" t="s">
+      <c r="Y9" s="919" t="s">
         <v>244</v>
       </c>
-      <c r="Z9" s="921"/>
-      <c r="AA9" s="920" t="s">
+      <c r="Z9" s="920"/>
+      <c r="AA9" s="919" t="s">
         <v>245</v>
       </c>
-      <c r="AB9" s="921"/>
+      <c r="AB9" s="920"/>
     </row>
     <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
@@ -61678,10 +61711,10 @@
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
-      <c r="E11" s="917" t="s">
+      <c r="E11" s="916" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="918"/>
+      <c r="F11" s="917"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
@@ -61690,10 +61723,10 @@
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="922" t="s">
+      <c r="M11" s="923" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="923"/>
+      <c r="N11" s="924"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
@@ -61701,10 +61734,10 @@
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
-      <c r="T11" s="917" t="s">
+      <c r="T11" s="916" t="s">
         <v>249</v>
       </c>
-      <c r="U11" s="918"/>
+      <c r="U11" s="917"/>
       <c r="V11" s="372"/>
       <c r="W11" s="372"/>
       <c r="X11" s="220" t="s">
@@ -61712,10 +61745,10 @@
       </c>
       <c r="Y11" s="221"/>
       <c r="Z11" s="221"/>
-      <c r="AA11" s="917" t="s">
+      <c r="AA11" s="916" t="s">
         <v>249</v>
       </c>
-      <c r="AB11" s="918"/>
+      <c r="AB11" s="917"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
@@ -62020,10 +62053,10 @@
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="917" t="s">
+      <c r="E20" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="918"/>
+      <c r="F20" s="917"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
@@ -62032,10 +62065,10 @@
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
-      <c r="M20" s="917" t="s">
+      <c r="M20" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="N20" s="918"/>
+      <c r="N20" s="917"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
@@ -62043,10 +62076,10 @@
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
-      <c r="T20" s="917" t="s">
+      <c r="T20" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="U20" s="918"/>
+      <c r="U20" s="917"/>
       <c r="V20" s="277"/>
       <c r="W20" s="277"/>
       <c r="X20" s="220" t="s">
@@ -62054,10 +62087,10 @@
       </c>
       <c r="Y20" s="302"/>
       <c r="Z20" s="249"/>
-      <c r="AA20" s="917" t="s">
+      <c r="AA20" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="AB20" s="918"/>
+      <c r="AB20" s="917"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
@@ -62400,10 +62433,10 @@
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="917" t="s">
+      <c r="E30" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="918"/>
+      <c r="F30" s="917"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
@@ -62412,10 +62445,10 @@
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="917" t="s">
+      <c r="M30" s="916" t="s">
         <v>589</v>
       </c>
-      <c r="N30" s="918"/>
+      <c r="N30" s="917"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
@@ -62423,10 +62456,10 @@
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
-      <c r="T30" s="917" t="s">
+      <c r="T30" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="U30" s="918"/>
+      <c r="U30" s="917"/>
       <c r="V30" s="277"/>
       <c r="W30" s="277"/>
       <c r="X30" s="220" t="s">
@@ -62434,10 +62467,10 @@
       </c>
       <c r="Y30" s="302"/>
       <c r="Z30" s="249"/>
-      <c r="AA30" s="917" t="s">
+      <c r="AA30" s="916" t="s">
         <v>256</v>
       </c>
-      <c r="AB30" s="918"/>
+      <c r="AB30" s="917"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
@@ -62875,11 +62908,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="919"/>
-      <c r="C42" s="919"/>
-      <c r="D42" s="919"/>
-      <c r="E42" s="919"/>
-      <c r="F42" s="919"/>
+      <c r="B42" s="922"/>
+      <c r="C42" s="922"/>
+      <c r="D42" s="922"/>
+      <c r="E42" s="922"/>
+      <c r="F42" s="922"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -63066,21 +63099,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -63092,6 +63110,21 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA20:AB20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -19,7 +19,7 @@
     <sheet name="UWWTP Level" sheetId="4" r:id="rId5"/>
     <sheet name="agglomeration level" sheetId="5" r:id="rId6"/>
     <sheet name="agglomeration debug level" sheetId="20" r:id="rId7"/>
-    <sheet name="Agglo Compliance" sheetId="19" r:id="rId8"/>
+    <sheet name="Agglomeration legal compliance" sheetId="19" r:id="rId8"/>
     <sheet name="Summary_legal_compliance" sheetId="6" r:id="rId9"/>
     <sheet name="distance to compliance" sheetId="7" r:id="rId10"/>
     <sheet name="Summary_installation_in_place" sheetId="8" r:id="rId11"/>
@@ -35,8 +35,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5(4)-areas'!$A$3:$Q$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Agglo Compliance'!$A$4:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'agglomeration debug level'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Agglomeration legal compliance'!$A$4:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'agglomeration level'!$A$4:$CW$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Agglomerationout!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">breach_list!$B$7:$N$7</definedName>
@@ -2299,9 +2299,6 @@
     <t>Article 3</t>
   </si>
   <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>RCA Compliance</t>
   </si>
   <si>
@@ -2309,6 +2306,9 @@
   </si>
   <si>
     <t>Legal Compliance</t>
+  </si>
+  <si>
+    <t>Legal compliance</t>
   </si>
 </sst>
 </file>
@@ -5725,6 +5725,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="45" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5756,45 +5759,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5831,6 +5795,9 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5879,6 +5846,111 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5891,21 +5963,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5921,62 +5981,11 @@
     <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5987,12 +5996,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6005,26 +6008,26 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6054,6 +6057,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6086,42 +6116,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6142,6 +6136,67 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6154,18 +6209,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6177,49 +6220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6946,8 +6946,8 @@
       <c r="B3" s="324" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="925"/>
-      <c r="D3" s="925"/>
+      <c r="C3" s="926"/>
+      <c r="D3" s="926"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="325"/>
@@ -6980,10 +6980,10 @@
       <c r="D10" s="332" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="926" t="s">
+      <c r="E10" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F10" s="927"/>
+      <c r="F10" s="928"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
@@ -7138,10 +7138,10 @@
       <c r="D30" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E30" s="926" t="s">
+      <c r="E30" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F30" s="927"/>
+      <c r="F30" s="928"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
@@ -7293,10 +7293,10 @@
       <c r="D49" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="926" t="s">
+      <c r="E49" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F49" s="927"/>
+      <c r="F49" s="928"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
@@ -7448,10 +7448,10 @@
       <c r="D68" s="342" t="s">
         <v>278</v>
       </c>
-      <c r="E68" s="926" t="s">
+      <c r="E68" s="927" t="s">
         <v>530</v>
       </c>
-      <c r="F68" s="927"/>
+      <c r="F68" s="928"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
@@ -7626,8 +7626,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="921"/>
-      <c r="F2" s="921"/>
+      <c r="E2" s="924"/>
+      <c r="F2" s="924"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7659,13 +7659,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="918" t="s">
+      <c r="B6" s="925" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="918"/>
-      <c r="D6" s="918"/>
-      <c r="E6" s="918"/>
-      <c r="F6" s="918"/>
+      <c r="C6" s="925"/>
+      <c r="D6" s="925"/>
+      <c r="E6" s="925"/>
+      <c r="F6" s="925"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7680,14 +7680,14 @@
       <c r="B8" s="399" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="928" t="s">
+      <c r="C8" s="929" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="929"/>
-      <c r="E8" s="928" t="s">
+      <c r="D8" s="930"/>
+      <c r="E8" s="929" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="929"/>
+      <c r="F8" s="930"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
@@ -7823,11 +7823,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="922"/>
-      <c r="C22" s="922"/>
-      <c r="D22" s="922"/>
-      <c r="E22" s="922"/>
-      <c r="F22" s="922"/>
+      <c r="B22" s="919"/>
+      <c r="C22" s="919"/>
+      <c r="D22" s="919"/>
+      <c r="E22" s="919"/>
+      <c r="F22" s="919"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7899,13 +7899,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="930" t="s">
+      <c r="B2" s="931" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="931" t="s">
+      <c r="C2" s="932" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="931" t="s">
+      <c r="D2" s="932" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="424" t="s">
@@ -7940,9 +7940,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="930"/>
-      <c r="C3" s="932"/>
-      <c r="D3" s="932"/>
+      <c r="B3" s="931"/>
+      <c r="C3" s="933"/>
+      <c r="D3" s="933"/>
       <c r="E3" s="439" t="s">
         <v>296</v>
       </c>
@@ -7975,7 +7975,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="933" t="s">
+      <c r="B4" s="934" t="s">
         <v>299</v>
       </c>
       <c r="C4" s="425" t="s">
@@ -7994,7 +7994,7 @@
       <c r="N4" s="427"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="933"/>
+      <c r="B5" s="934"/>
       <c r="C5" s="425" t="s">
         <v>93</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="934"/>
+      <c r="B6" s="935"/>
       <c r="C6" s="435" t="s">
         <v>289</v>
       </c>
@@ -8126,43 +8126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="938" t="s">
+      <c r="A1" s="948" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="939"/>
+      <c r="B1" s="949"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="949" t="s">
+      <c r="D1" s="939" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="950"/>
-      <c r="F1" s="950"/>
-      <c r="G1" s="950"/>
-      <c r="H1" s="950"/>
-      <c r="I1" s="951"/>
-      <c r="J1" s="940" t="s">
+      <c r="E1" s="940"/>
+      <c r="F1" s="940"/>
+      <c r="G1" s="940"/>
+      <c r="H1" s="940"/>
+      <c r="I1" s="941"/>
+      <c r="J1" s="950" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="941"/>
-      <c r="L1" s="941"/>
-      <c r="M1" s="941"/>
-      <c r="N1" s="942"/>
-      <c r="O1" s="943" t="s">
+      <c r="K1" s="951"/>
+      <c r="L1" s="951"/>
+      <c r="M1" s="951"/>
+      <c r="N1" s="952"/>
+      <c r="O1" s="953" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="944"/>
-      <c r="Q1" s="945"/>
+      <c r="P1" s="954"/>
+      <c r="Q1" s="955"/>
       <c r="R1" s="442" t="s">
         <v>81</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="937" t="s">
+      <c r="T1" s="947" t="s">
         <v>495</v>
       </c>
-      <c r="U1" s="937"/>
-      <c r="V1" s="937"/>
-      <c r="W1" s="937"/>
-      <c r="X1" s="937"/>
-      <c r="Y1" s="937"/>
+      <c r="U1" s="947"/>
+      <c r="V1" s="947"/>
+      <c r="W1" s="947"/>
+      <c r="X1" s="947"/>
+      <c r="Y1" s="947"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8174,18 +8174,18 @@
       <c r="C2" s="446" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="954" t="s">
+      <c r="D2" s="944" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="953"/>
-      <c r="F2" s="953" t="s">
+      <c r="E2" s="943"/>
+      <c r="F2" s="943" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="953"/>
-      <c r="H2" s="952" t="s">
+      <c r="G2" s="943"/>
+      <c r="H2" s="942" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="952"/>
+      <c r="I2" s="942"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8216,18 +8216,18 @@
       <c r="S2" s="681" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="935" t="s">
+      <c r="T2" s="945" t="s">
         <v>464</v>
       </c>
-      <c r="U2" s="935"/>
-      <c r="V2" s="936" t="s">
+      <c r="U2" s="945"/>
+      <c r="V2" s="946" t="s">
         <v>481</v>
       </c>
-      <c r="W2" s="936"/>
-      <c r="X2" s="936" t="s">
+      <c r="W2" s="946"/>
+      <c r="X2" s="946" t="s">
         <v>482</v>
       </c>
-      <c r="Y2" s="936"/>
+      <c r="Y2" s="946"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8253,13 +8253,13 @@
       <c r="I3" s="665" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="946" t="s">
+      <c r="J3" s="936" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="947"/>
-      <c r="L3" s="947"/>
-      <c r="M3" s="947"/>
-      <c r="N3" s="948"/>
+      <c r="K3" s="937"/>
+      <c r="L3" s="937"/>
+      <c r="M3" s="937"/>
+      <c r="N3" s="938"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -9488,11 +9488,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9500,6 +9495,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9540,25 +9540,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="835" t="s">
+      <c r="A1" s="865" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="836"/>
-      <c r="C1" s="836"/>
-      <c r="D1" s="836"/>
-      <c r="E1" s="836"/>
-      <c r="F1" s="836"/>
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="961" t="s">
+      <c r="H1" s="959" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="962"/>
-      <c r="J1" s="962"/>
+      <c r="I1" s="960"/>
+      <c r="J1" s="960"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="959" t="s">
+      <c r="O1" s="957" t="s">
         <v>313</v>
       </c>
       <c r="P1" s="466"/>
@@ -9570,26 +9570,26 @@
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="959" t="s">
+      <c r="W1" s="957" t="s">
         <v>315</v>
       </c>
       <c r="X1" s="466"/>
-      <c r="Y1" s="963" t="s">
+      <c r="Y1" s="961" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="963"/>
-      <c r="AA1" s="963"/>
-      <c r="AB1" s="963"/>
-      <c r="AC1" s="963"/>
-      <c r="AD1" s="964"/>
-      <c r="AE1" s="959" t="s">
+      <c r="Z1" s="961"/>
+      <c r="AA1" s="961"/>
+      <c r="AB1" s="961"/>
+      <c r="AC1" s="961"/>
+      <c r="AD1" s="962"/>
+      <c r="AE1" s="957" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="958" t="s">
+      <c r="AF1" s="956" t="s">
         <v>480</v>
       </c>
-      <c r="AG1" s="937"/>
-      <c r="AH1" s="937"/>
+      <c r="AG1" s="947"/>
+      <c r="AH1" s="947"/>
       <c r="AI1" s="688"/>
       <c r="AJ1" s="688"/>
       <c r="AK1" s="688"/>
@@ -9648,56 +9648,56 @@
       <c r="C2" s="473" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="957" t="s">
+      <c r="D2" s="964" t="s">
         <v>485</v>
       </c>
-      <c r="E2" s="957"/>
-      <c r="F2" s="957" t="s">
+      <c r="E2" s="964"/>
+      <c r="F2" s="964" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="957"/>
+      <c r="G2" s="964"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="955" t="s">
+      <c r="I2" s="963" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="955"/>
-      <c r="K2" s="955" t="s">
+      <c r="J2" s="963"/>
+      <c r="K2" s="963" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="955"/>
-      <c r="M2" s="955" t="s">
+      <c r="L2" s="963"/>
+      <c r="M2" s="963" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="956"/>
-      <c r="O2" s="960"/>
+      <c r="N2" s="965"/>
+      <c r="O2" s="958"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="955" t="s">
+      <c r="Q2" s="963" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="955"/>
-      <c r="S2" s="955" t="s">
+      <c r="R2" s="963"/>
+      <c r="S2" s="963" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="955"/>
-      <c r="U2" s="955" t="s">
+      <c r="T2" s="963"/>
+      <c r="U2" s="963" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="956"/>
-      <c r="W2" s="960"/>
+      <c r="V2" s="965"/>
+      <c r="W2" s="958"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="955" t="s">
+      <c r="Y2" s="963" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="955"/>
-      <c r="AA2" s="955" t="s">
+      <c r="Z2" s="963"/>
+      <c r="AA2" s="963" t="s">
         <v>189</v>
       </c>
-      <c r="AB2" s="955"/>
-      <c r="AC2" s="955" t="s">
+      <c r="AB2" s="963"/>
+      <c r="AC2" s="963" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="956"/>
-      <c r="AE2" s="960"/>
+      <c r="AD2" s="965"/>
+      <c r="AE2" s="958"/>
       <c r="AF2" s="682" t="s">
         <v>464</v>
       </c>
@@ -10583,6 +10583,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="A1:F1"/>
@@ -10599,8 +10601,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10817,9 +10817,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="965"/>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
+      <c r="A1" s="984"/>
+      <c r="B1" s="855"/>
+      <c r="C1" s="855"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="740"/>
@@ -10834,21 +10834,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="973" t="s">
+      <c r="A3" s="988" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="975" t="s">
+      <c r="B3" s="990" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="976"/>
-      <c r="D3" s="971" t="s">
+      <c r="C3" s="991"/>
+      <c r="D3" s="976" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="972"/>
-      <c r="F3" s="971" t="s">
+      <c r="E3" s="977"/>
+      <c r="F3" s="976" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="972"/>
+      <c r="G3" s="977"/>
       <c r="I3" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
@@ -10859,14 +10859,14 @@
       <c r="K3" s="720"/>
       <c r="L3" s="720"/>
       <c r="N3" s="705"/>
-      <c r="O3" s="987" t="s">
+      <c r="O3" s="973" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="987"/>
-      <c r="Q3" s="987" t="s">
+      <c r="P3" s="973"/>
+      <c r="Q3" s="973" t="s">
         <v>347</v>
       </c>
-      <c r="R3" s="987"/>
+      <c r="R3" s="973"/>
       <c r="S3" s="705"/>
       <c r="T3" s="713" t="s">
         <v>348</v>
@@ -10874,7 +10874,7 @@
       <c r="U3" s="705"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="974"/>
+      <c r="A4" s="989"/>
       <c r="B4" s="512" t="s">
         <v>349</v>
       </c>
@@ -11133,14 +11133,14 @@
       <c r="K10" s="720"/>
       <c r="L10" s="720"/>
       <c r="N10" s="713"/>
-      <c r="O10" s="987" t="s">
+      <c r="O10" s="973" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="987"/>
-      <c r="Q10" s="987" t="s">
+      <c r="P10" s="973"/>
+      <c r="Q10" s="973" t="s">
         <v>356</v>
       </c>
-      <c r="R10" s="987"/>
+      <c r="R10" s="973"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="738" t="str">
@@ -11204,7 +11204,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="973" t="s">
+      <c r="A13" s="988" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11250,7 +11250,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="974"/>
+      <c r="A14" s="989"/>
       <c r="B14" s="514" t="s">
         <v>350</v>
       </c>
@@ -11380,34 +11380,34 @@
       <c r="A21" s="502" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="988" t="s">
+      <c r="B21" s="978" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="989"/>
-      <c r="D21" s="989"/>
-      <c r="E21" s="989"/>
-      <c r="F21" s="989"/>
-      <c r="G21" s="989"/>
+      <c r="C21" s="979"/>
+      <c r="D21" s="979"/>
+      <c r="E21" s="979"/>
+      <c r="F21" s="979"/>
+      <c r="G21" s="979"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="977" t="str">
+      <c r="B22" s="980" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="978"/>
-      <c r="D22" s="977" t="str">
+      <c r="C22" s="981"/>
+      <c r="D22" s="980" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="978"/>
-      <c r="F22" s="977" t="str">
+      <c r="E22" s="981"/>
+      <c r="F22" s="980" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="978"/>
+      <c r="G22" s="981"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11834,21 +11834,21 @@
       <c r="A41" s="519" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="967" t="str">
+      <c r="B41" s="986" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="968"/>
-      <c r="D41" s="969" t="str">
+      <c r="C41" s="987"/>
+      <c r="D41" s="974" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="970"/>
-      <c r="F41" s="969" t="str">
+      <c r="E41" s="975"/>
+      <c r="F41" s="974" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="970"/>
+      <c r="G41" s="975"/>
       <c r="N41" s="705"/>
       <c r="O41" s="732" t="s">
         <v>458</v>
@@ -12062,11 +12062,11 @@
       <c r="F53" s="710" t="s">
         <v>513</v>
       </c>
-      <c r="H53" s="990" t="s">
+      <c r="H53" s="966" t="s">
         <v>500</v>
       </c>
-      <c r="I53" s="990"/>
-      <c r="J53" s="990"/>
+      <c r="I53" s="966"/>
+      <c r="J53" s="966"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="701" t="s">
@@ -12236,11 +12236,11 @@
       <c r="F63" s="710" t="s">
         <v>513</v>
       </c>
-      <c r="H63" s="990" t="s">
+      <c r="H63" s="966" t="s">
         <v>514</v>
       </c>
-      <c r="I63" s="990"/>
-      <c r="J63" s="990"/>
+      <c r="I63" s="966"/>
+      <c r="J63" s="966"/>
       <c r="L63" s="708"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12427,12 +12427,12 @@
       <c r="A74" s="623" t="s">
         <v>371</v>
       </c>
-      <c r="B74" s="966" t="s">
+      <c r="B74" s="985" t="s">
         <v>455</v>
       </c>
-      <c r="C74" s="966"/>
-      <c r="D74" s="966"/>
-      <c r="E74" s="966"/>
+      <c r="C74" s="985"/>
+      <c r="D74" s="985"/>
+      <c r="E74" s="985"/>
       <c r="I74" s="709"/>
       <c r="J74" s="709"/>
       <c r="K74" s="709"/>
@@ -12748,36 +12748,36 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="981" t="str">
+      <c r="B85" s="971" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="982"/>
-      <c r="D85" s="981" t="str">
+      <c r="C85" s="972"/>
+      <c r="D85" s="971" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="982"/>
-      <c r="F85" s="981" t="str">
+      <c r="E85" s="972"/>
+      <c r="F85" s="971" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="982"/>
+      <c r="G85" s="972"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
-      <c r="B86" s="926" t="s">
+      <c r="B86" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="C86" s="927"/>
-      <c r="D86" s="926" t="s">
+      <c r="C86" s="928"/>
+      <c r="D86" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="E86" s="927"/>
-      <c r="F86" s="926" t="s">
+      <c r="E86" s="928"/>
+      <c r="F86" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="G86" s="927"/>
+      <c r="G86" s="928"/>
       <c r="N86" s="713" t="s">
         <v>398</v>
       </c>
@@ -13058,36 +13058,36 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="981" t="str">
+      <c r="B101" s="971" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="982"/>
-      <c r="D101" s="981" t="str">
+      <c r="C101" s="972"/>
+      <c r="D101" s="971" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="982"/>
-      <c r="F101" s="981" t="str">
+      <c r="E101" s="972"/>
+      <c r="F101" s="971" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="982"/>
+      <c r="G101" s="972"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
-      <c r="B102" s="926" t="s">
+      <c r="B102" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="C102" s="927"/>
-      <c r="D102" s="926" t="s">
+      <c r="C102" s="928"/>
+      <c r="D102" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="E102" s="927"/>
-      <c r="F102" s="926" t="s">
+      <c r="E102" s="928"/>
+      <c r="F102" s="927" t="s">
         <v>279</v>
       </c>
-      <c r="G102" s="927"/>
+      <c r="G102" s="928"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
@@ -13368,36 +13368,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="983" t="str">
+      <c r="B116" s="967" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="984"/>
-      <c r="D116" s="983" t="str">
+      <c r="C116" s="968"/>
+      <c r="D116" s="967" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="984"/>
-      <c r="F116" s="983" t="str">
+      <c r="E116" s="968"/>
+      <c r="F116" s="967" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="984"/>
+      <c r="G116" s="968"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="985" t="s">
+      <c r="B117" s="969" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="986"/>
-      <c r="D117" s="985" t="s">
+      <c r="C117" s="970"/>
+      <c r="D117" s="969" t="s">
         <v>279</v>
       </c>
-      <c r="E117" s="986"/>
-      <c r="F117" s="985" t="s">
+      <c r="E117" s="970"/>
+      <c r="F117" s="969" t="s">
         <v>279</v>
       </c>
-      <c r="G117" s="986"/>
+      <c r="G117" s="970"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13700,12 +13700,12 @@
       <c r="A129" s="546" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="979" t="str">
+      <c r="B129" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="980"/>
-      <c r="D129" s="980"/>
+      <c r="C129" s="983"/>
+      <c r="D129" s="983"/>
       <c r="N129" s="713" t="s">
         <v>398</v>
       </c>
@@ -14481,22 +14481,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14510,16 +14504,22 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17919,66 +17919,66 @@
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="824" t="s">
+      <c r="A4" s="825" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="825"/>
-      <c r="C4" s="825"/>
-      <c r="D4" s="825"/>
-      <c r="E4" s="825"/>
-      <c r="F4" s="826"/>
-      <c r="G4" s="826"/>
-      <c r="H4" s="826"/>
-      <c r="I4" s="826"/>
-      <c r="J4" s="826"/>
-      <c r="K4" s="826"/>
-      <c r="L4" s="826"/>
-      <c r="M4" s="826"/>
-      <c r="N4" s="826"/>
-      <c r="O4" s="826"/>
-      <c r="P4" s="826"/>
-      <c r="Q4" s="826"/>
-      <c r="R4" s="826"/>
-      <c r="S4" s="826"/>
-      <c r="T4" s="826"/>
-      <c r="U4" s="826"/>
-      <c r="V4" s="826"/>
-      <c r="W4" s="826"/>
-      <c r="X4" s="826"/>
-      <c r="Y4" s="826"/>
-      <c r="Z4" s="826"/>
-      <c r="AA4" s="826"/>
-      <c r="AB4" s="826"/>
-      <c r="AC4" s="826"/>
-      <c r="AD4" s="826"/>
-      <c r="AE4" s="826"/>
-      <c r="AF4" s="826"/>
-      <c r="AG4" s="826"/>
-      <c r="AH4" s="826"/>
-      <c r="AI4" s="826"/>
-      <c r="AJ4" s="826"/>
-      <c r="AK4" s="826"/>
-      <c r="AL4" s="826"/>
-      <c r="AM4" s="826"/>
-      <c r="AN4" s="826"/>
-      <c r="AO4" s="826"/>
-      <c r="AP4" s="826"/>
-      <c r="AQ4" s="826"/>
+      <c r="B4" s="826"/>
+      <c r="C4" s="826"/>
+      <c r="D4" s="826"/>
+      <c r="E4" s="826"/>
+      <c r="F4" s="827"/>
+      <c r="G4" s="827"/>
+      <c r="H4" s="827"/>
+      <c r="I4" s="827"/>
+      <c r="J4" s="827"/>
+      <c r="K4" s="827"/>
+      <c r="L4" s="827"/>
+      <c r="M4" s="827"/>
+      <c r="N4" s="827"/>
+      <c r="O4" s="827"/>
+      <c r="P4" s="827"/>
+      <c r="Q4" s="827"/>
+      <c r="R4" s="827"/>
+      <c r="S4" s="827"/>
+      <c r="T4" s="827"/>
+      <c r="U4" s="827"/>
+      <c r="V4" s="827"/>
+      <c r="W4" s="827"/>
+      <c r="X4" s="827"/>
+      <c r="Y4" s="827"/>
+      <c r="Z4" s="827"/>
+      <c r="AA4" s="827"/>
+      <c r="AB4" s="827"/>
+      <c r="AC4" s="827"/>
+      <c r="AD4" s="827"/>
+      <c r="AE4" s="827"/>
+      <c r="AF4" s="827"/>
+      <c r="AG4" s="827"/>
+      <c r="AH4" s="827"/>
+      <c r="AI4" s="827"/>
+      <c r="AJ4" s="827"/>
+      <c r="AK4" s="827"/>
+      <c r="AL4" s="827"/>
+      <c r="AM4" s="827"/>
+      <c r="AN4" s="827"/>
+      <c r="AO4" s="827"/>
+      <c r="AP4" s="827"/>
+      <c r="AQ4" s="827"/>
     </row>
     <row r="5" spans="1:43" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="827" t="s">
+      <c r="A5" s="828" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="827" t="s">
+      <c r="B5" s="828" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="795" t="s">
         <v>593</v>
       </c>
-      <c r="D5" s="827" t="s">
+      <c r="D5" s="828" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="827" t="s">
+      <c r="E5" s="828" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -18038,10 +18038,10 @@
       <c r="X5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="829" t="s">
+      <c r="Y5" s="830" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="829" t="s">
+      <c r="Z5" s="830" t="s">
         <v>49</v>
       </c>
       <c r="AA5" s="16" t="s">
@@ -18071,7 +18071,7 @@
       <c r="AI5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="829" t="s">
+      <c r="AJ5" s="830" t="s">
         <v>58</v>
       </c>
       <c r="AK5" s="16" t="s">
@@ -18080,28 +18080,28 @@
       <c r="AL5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" s="827" t="s">
+      <c r="AM5" s="828" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="827" t="s">
+      <c r="AN5" s="828" t="s">
         <v>62</v>
       </c>
-      <c r="AO5" s="827" t="s">
+      <c r="AO5" s="828" t="s">
         <v>63</v>
       </c>
-      <c r="AP5" s="827" t="s">
+      <c r="AP5" s="828" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="827" t="s">
+      <c r="AQ5" s="828" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="828"/>
-      <c r="B6" s="828"/>
+      <c r="A6" s="829"/>
+      <c r="B6" s="829"/>
       <c r="C6" s="796"/>
-      <c r="D6" s="828"/>
-      <c r="E6" s="828"/>
+      <c r="D6" s="829"/>
+      <c r="E6" s="829"/>
       <c r="F6" s="14" t="s">
         <v>66</v>
       </c>
@@ -18159,8 +18159,8 @@
       <c r="X6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="830"/>
-      <c r="Z6" s="830"/>
+      <c r="Y6" s="831"/>
+      <c r="Z6" s="831"/>
       <c r="AA6" s="9" t="s">
         <v>67</v>
       </c>
@@ -18188,18 +18188,18 @@
       <c r="AI6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AJ6" s="830"/>
+      <c r="AJ6" s="831"/>
       <c r="AK6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AL6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AM6" s="828"/>
-      <c r="AN6" s="828"/>
-      <c r="AO6" s="828"/>
-      <c r="AP6" s="828"/>
-      <c r="AQ6" s="828"/>
+      <c r="AM6" s="829"/>
+      <c r="AN6" s="829"/>
+      <c r="AO6" s="829"/>
+      <c r="AP6" s="829"/>
+      <c r="AQ6" s="829"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AE7" s="8"/>
@@ -58462,10 +58462,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="831" t="s">
+      <c r="A1" s="832" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="833" t="s">
+      <c r="B1" s="834" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="823" t="s">
@@ -58515,8 +58515,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="832"/>
-      <c r="B2" s="834"/>
+      <c r="A2" s="833"/>
+      <c r="B2" s="835"/>
       <c r="C2" s="9" t="s">
         <v>67</v>
       </c>
@@ -58681,123 +58681,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="835" t="s">
+      <c r="A1" s="865" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="836"/>
-      <c r="C1" s="836"/>
-      <c r="D1" s="836"/>
-      <c r="E1" s="836"/>
-      <c r="F1" s="836"/>
-      <c r="G1" s="836"/>
-      <c r="H1" s="837" t="s">
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
+      <c r="G1" s="866"/>
+      <c r="H1" s="867" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="838"/>
-      <c r="J1" s="838"/>
-      <c r="K1" s="838"/>
-      <c r="L1" s="838"/>
-      <c r="M1" s="839"/>
-      <c r="N1" s="840" t="s">
+      <c r="I1" s="868"/>
+      <c r="J1" s="868"/>
+      <c r="K1" s="868"/>
+      <c r="L1" s="868"/>
+      <c r="M1" s="869"/>
+      <c r="N1" s="870" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="841"/>
-      <c r="P1" s="841"/>
-      <c r="Q1" s="841"/>
-      <c r="R1" s="841"/>
-      <c r="S1" s="841"/>
-      <c r="T1" s="841"/>
-      <c r="U1" s="841"/>
-      <c r="V1" s="842" t="s">
+      <c r="O1" s="848"/>
+      <c r="P1" s="848"/>
+      <c r="Q1" s="848"/>
+      <c r="R1" s="848"/>
+      <c r="S1" s="848"/>
+      <c r="T1" s="848"/>
+      <c r="U1" s="848"/>
+      <c r="V1" s="871" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="843"/>
-      <c r="X1" s="844"/>
-      <c r="Y1" s="844"/>
-      <c r="Z1" s="845"/>
-      <c r="AA1" s="846" t="s">
+      <c r="W1" s="872"/>
+      <c r="X1" s="873"/>
+      <c r="Y1" s="873"/>
+      <c r="Z1" s="874"/>
+      <c r="AA1" s="875" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="847"/>
-      <c r="AC1" s="847"/>
-      <c r="AD1" s="847"/>
-      <c r="AE1" s="847"/>
-      <c r="AF1" s="847"/>
-      <c r="AG1" s="847"/>
-      <c r="AH1" s="847"/>
-      <c r="AI1" s="847"/>
-      <c r="AJ1" s="847"/>
-      <c r="AK1" s="847"/>
-      <c r="AL1" s="847"/>
-      <c r="AM1" s="847"/>
+      <c r="AB1" s="876"/>
+      <c r="AC1" s="876"/>
+      <c r="AD1" s="876"/>
+      <c r="AE1" s="876"/>
+      <c r="AF1" s="876"/>
+      <c r="AG1" s="876"/>
+      <c r="AH1" s="876"/>
+      <c r="AI1" s="876"/>
+      <c r="AJ1" s="876"/>
+      <c r="AK1" s="876"/>
+      <c r="AL1" s="876"/>
+      <c r="AM1" s="876"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="859" t="s">
+      <c r="AP1" s="847" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="841"/>
-      <c r="AR1" s="841"/>
-      <c r="AS1" s="841"/>
-      <c r="AT1" s="841"/>
-      <c r="AU1" s="841"/>
-      <c r="AV1" s="841"/>
-      <c r="AW1" s="860"/>
-      <c r="AX1" s="867" t="s">
+      <c r="AQ1" s="848"/>
+      <c r="AR1" s="848"/>
+      <c r="AS1" s="848"/>
+      <c r="AT1" s="848"/>
+      <c r="AU1" s="848"/>
+      <c r="AV1" s="848"/>
+      <c r="AW1" s="849"/>
+      <c r="AX1" s="856" t="s">
         <v>594</v>
       </c>
-      <c r="AY1" s="868"/>
-      <c r="AZ1" s="868"/>
-      <c r="BA1" s="868"/>
-      <c r="BB1" s="868"/>
-      <c r="BC1" s="869"/>
-      <c r="BD1" s="870" t="s">
+      <c r="AY1" s="857"/>
+      <c r="AZ1" s="857"/>
+      <c r="BA1" s="857"/>
+      <c r="BB1" s="857"/>
+      <c r="BC1" s="858"/>
+      <c r="BD1" s="859" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="871"/>
-      <c r="BF1" s="871"/>
-      <c r="BG1" s="871"/>
-      <c r="BH1" s="871"/>
-      <c r="BI1" s="872"/>
-      <c r="BJ1" s="873" t="s">
+      <c r="BE1" s="860"/>
+      <c r="BF1" s="860"/>
+      <c r="BG1" s="860"/>
+      <c r="BH1" s="860"/>
+      <c r="BI1" s="861"/>
+      <c r="BJ1" s="862" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" s="874"/>
-      <c r="BL1" s="874"/>
-      <c r="BM1" s="874"/>
-      <c r="BN1" s="874"/>
-      <c r="BO1" s="874"/>
-      <c r="BP1" s="875"/>
-      <c r="BQ1" s="848" t="s">
+      <c r="BK1" s="863"/>
+      <c r="BL1" s="863"/>
+      <c r="BM1" s="863"/>
+      <c r="BN1" s="863"/>
+      <c r="BO1" s="863"/>
+      <c r="BP1" s="864"/>
+      <c r="BQ1" s="836" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="849"/>
-      <c r="BS1" s="849"/>
-      <c r="BT1" s="849"/>
-      <c r="BU1" s="849"/>
-      <c r="BV1" s="849"/>
+      <c r="BR1" s="837"/>
+      <c r="BS1" s="837"/>
+      <c r="BT1" s="837"/>
+      <c r="BU1" s="837"/>
+      <c r="BV1" s="837"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="850" t="s">
+      <c r="BY1" s="838" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="851"/>
-      <c r="CA1" s="851"/>
-      <c r="CB1" s="851"/>
-      <c r="CC1" s="851"/>
-      <c r="CD1" s="851"/>
-      <c r="CE1" s="851"/>
-      <c r="CF1" s="852"/>
-      <c r="CG1" s="852"/>
-      <c r="CH1" s="852"/>
-      <c r="CI1" s="852"/>
-      <c r="CJ1" s="852"/>
-      <c r="CK1" s="852"/>
-      <c r="CL1" s="852"/>
-      <c r="CM1" s="852"/>
-      <c r="CN1" s="852"/>
-      <c r="CO1" s="852"/>
-      <c r="CP1" s="852"/>
-      <c r="CQ1" s="852"/>
+      <c r="BZ1" s="839"/>
+      <c r="CA1" s="839"/>
+      <c r="CB1" s="839"/>
+      <c r="CC1" s="839"/>
+      <c r="CD1" s="839"/>
+      <c r="CE1" s="839"/>
+      <c r="CF1" s="840"/>
+      <c r="CG1" s="840"/>
+      <c r="CH1" s="840"/>
+      <c r="CI1" s="840"/>
+      <c r="CJ1" s="840"/>
+      <c r="CK1" s="840"/>
+      <c r="CL1" s="840"/>
+      <c r="CM1" s="840"/>
+      <c r="CN1" s="840"/>
+      <c r="CO1" s="840"/>
+      <c r="CP1" s="840"/>
+      <c r="CQ1" s="840"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58821,18 +58821,18 @@
       <c r="G2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="853" t="s">
+      <c r="H2" s="841" t="s">
         <v>465</v>
       </c>
-      <c r="I2" s="854"/>
-      <c r="J2" s="854" t="s">
+      <c r="I2" s="842"/>
+      <c r="J2" s="842" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="854"/>
-      <c r="L2" s="854" t="s">
+      <c r="K2" s="842"/>
+      <c r="L2" s="842" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="855"/>
+      <c r="M2" s="843"/>
       <c r="N2" s="57" t="s">
         <v>90</v>
       </c>
@@ -58941,36 +58941,36 @@
       <c r="AW2" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AX2" s="856" t="s">
+      <c r="AX2" s="844" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" s="857"/>
-      <c r="AZ2" s="857"/>
-      <c r="BA2" s="857" t="s">
+      <c r="AY2" s="845"/>
+      <c r="AZ2" s="845"/>
+      <c r="BA2" s="845" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="857"/>
-      <c r="BC2" s="858"/>
-      <c r="BD2" s="861" t="s">
+      <c r="BB2" s="845"/>
+      <c r="BC2" s="846"/>
+      <c r="BD2" s="850" t="s">
         <v>125</v>
       </c>
-      <c r="BE2" s="862"/>
-      <c r="BF2" s="862"/>
-      <c r="BG2" s="862" t="s">
+      <c r="BE2" s="851"/>
+      <c r="BF2" s="851"/>
+      <c r="BG2" s="851" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" s="862"/>
-      <c r="BI2" s="863"/>
-      <c r="BJ2" s="864" t="s">
+      <c r="BH2" s="851"/>
+      <c r="BI2" s="852"/>
+      <c r="BJ2" s="853" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="865"/>
-      <c r="BL2" s="865"/>
-      <c r="BM2" s="865" t="s">
+      <c r="BK2" s="854"/>
+      <c r="BL2" s="854"/>
+      <c r="BM2" s="854" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="866"/>
-      <c r="BO2" s="866"/>
+      <c r="BN2" s="855"/>
+      <c r="BO2" s="855"/>
       <c r="BP2" s="69" t="s">
         <v>127</v>
       </c>
@@ -59603,6 +59603,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59618,11 +59623,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59706,32 +59706,32 @@
         <v>167</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="876" t="s">
+      <c r="M1" s="900" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="877" t="s">
+      <c r="N1" s="901" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="878"/>
-      <c r="P1" s="878"/>
-      <c r="Q1" s="878"/>
-      <c r="R1" s="879" t="s">
+      <c r="O1" s="902"/>
+      <c r="P1" s="902"/>
+      <c r="Q1" s="902"/>
+      <c r="R1" s="903" t="s">
         <v>464</v>
       </c>
-      <c r="S1" s="880"/>
-      <c r="T1" s="880"/>
-      <c r="U1" s="880"/>
-      <c r="V1" s="880"/>
-      <c r="W1" s="880"/>
-      <c r="X1" s="881"/>
-      <c r="Y1" s="882" t="s">
+      <c r="S1" s="896"/>
+      <c r="T1" s="896"/>
+      <c r="U1" s="896"/>
+      <c r="V1" s="896"/>
+      <c r="W1" s="896"/>
+      <c r="X1" s="904"/>
+      <c r="Y1" s="890" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="871"/>
-      <c r="AA1" s="885" t="s">
+      <c r="Z1" s="860"/>
+      <c r="AA1" s="905" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="896" t="s">
+      <c r="AB1" s="878" t="s">
         <v>170</v>
       </c>
       <c r="AC1" s="892" t="s">
@@ -59743,90 +59743,90 @@
       <c r="AG1" s="895" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="880"/>
-      <c r="AI1" s="880"/>
-      <c r="AJ1" s="880"/>
-      <c r="AK1" s="880"/>
-      <c r="AL1" s="880"/>
-      <c r="AM1" s="880"/>
-      <c r="AN1" s="880"/>
-      <c r="AO1" s="896" t="s">
+      <c r="AH1" s="896"/>
+      <c r="AI1" s="896"/>
+      <c r="AJ1" s="896"/>
+      <c r="AK1" s="896"/>
+      <c r="AL1" s="896"/>
+      <c r="AM1" s="896"/>
+      <c r="AN1" s="896"/>
+      <c r="AO1" s="878" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" s="882" t="s">
+      <c r="AP1" s="890" t="s">
         <v>471</v>
       </c>
-      <c r="AQ1" s="871"/>
-      <c r="AR1" s="871"/>
-      <c r="AS1" s="872"/>
-      <c r="AT1" s="899" t="s">
+      <c r="AQ1" s="860"/>
+      <c r="AR1" s="860"/>
+      <c r="AS1" s="861"/>
+      <c r="AT1" s="898" t="s">
         <v>174</v>
       </c>
-      <c r="AU1" s="900"/>
-      <c r="AV1" s="900"/>
-      <c r="AW1" s="900"/>
-      <c r="AX1" s="900"/>
-      <c r="AY1" s="900"/>
-      <c r="AZ1" s="900"/>
-      <c r="BA1" s="900"/>
-      <c r="BB1" s="900"/>
-      <c r="BC1" s="900"/>
-      <c r="BD1" s="900"/>
-      <c r="BE1" s="900"/>
-      <c r="BF1" s="900"/>
-      <c r="BG1" s="900"/>
-      <c r="BH1" s="900"/>
-      <c r="BI1" s="900"/>
-      <c r="BJ1" s="900"/>
-      <c r="BK1" s="900"/>
-      <c r="BL1" s="900"/>
-      <c r="BM1" s="900"/>
-      <c r="BN1" s="900"/>
-      <c r="BO1" s="900"/>
-      <c r="BP1" s="900"/>
-      <c r="BQ1" s="900"/>
-      <c r="BR1" s="900"/>
-      <c r="BS1" s="900"/>
-      <c r="BT1" s="900"/>
-      <c r="BU1" s="900"/>
-      <c r="BV1" s="900"/>
-      <c r="BW1" s="896" t="s">
+      <c r="AU1" s="899"/>
+      <c r="AV1" s="899"/>
+      <c r="AW1" s="899"/>
+      <c r="AX1" s="899"/>
+      <c r="AY1" s="899"/>
+      <c r="AZ1" s="899"/>
+      <c r="BA1" s="899"/>
+      <c r="BB1" s="899"/>
+      <c r="BC1" s="899"/>
+      <c r="BD1" s="899"/>
+      <c r="BE1" s="899"/>
+      <c r="BF1" s="899"/>
+      <c r="BG1" s="899"/>
+      <c r="BH1" s="899"/>
+      <c r="BI1" s="899"/>
+      <c r="BJ1" s="899"/>
+      <c r="BK1" s="899"/>
+      <c r="BL1" s="899"/>
+      <c r="BM1" s="899"/>
+      <c r="BN1" s="899"/>
+      <c r="BO1" s="899"/>
+      <c r="BP1" s="899"/>
+      <c r="BQ1" s="899"/>
+      <c r="BR1" s="899"/>
+      <c r="BS1" s="899"/>
+      <c r="BT1" s="899"/>
+      <c r="BU1" s="899"/>
+      <c r="BV1" s="899"/>
+      <c r="BW1" s="878" t="s">
         <v>175</v>
       </c>
-      <c r="BX1" s="882" t="s">
+      <c r="BX1" s="890" t="s">
         <v>470</v>
       </c>
-      <c r="BY1" s="871"/>
-      <c r="BZ1" s="871"/>
-      <c r="CA1" s="872"/>
-      <c r="CB1" s="908" t="s">
+      <c r="BY1" s="860"/>
+      <c r="BZ1" s="860"/>
+      <c r="CA1" s="861"/>
+      <c r="CB1" s="889" t="s">
         <v>487</v>
       </c>
-      <c r="CC1" s="890" t="s">
+      <c r="CC1" s="891" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="890"/>
-      <c r="CE1" s="890"/>
-      <c r="CF1" s="890"/>
-      <c r="CG1" s="890"/>
-      <c r="CH1" s="890"/>
-      <c r="CI1" s="890"/>
-      <c r="CJ1" s="890"/>
-      <c r="CK1" s="890"/>
-      <c r="CL1" s="890"/>
-      <c r="CM1" s="890"/>
-      <c r="CN1" s="890"/>
+      <c r="CD1" s="891"/>
+      <c r="CE1" s="891"/>
+      <c r="CF1" s="891"/>
+      <c r="CG1" s="891"/>
+      <c r="CH1" s="891"/>
+      <c r="CI1" s="891"/>
+      <c r="CJ1" s="891"/>
+      <c r="CK1" s="891"/>
+      <c r="CL1" s="891"/>
+      <c r="CM1" s="891"/>
+      <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="904" t="s">
+      <c r="CP1" s="877" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" s="841"/>
-      <c r="CR1" s="841"/>
-      <c r="CS1" s="841"/>
-      <c r="CT1" s="841"/>
-      <c r="CU1" s="841"/>
-      <c r="CV1" s="841"/>
-      <c r="CW1" s="860"/>
+      <c r="CQ1" s="848"/>
+      <c r="CR1" s="848"/>
+      <c r="CS1" s="848"/>
+      <c r="CT1" s="848"/>
+      <c r="CU1" s="848"/>
+      <c r="CV1" s="848"/>
+      <c r="CW1" s="849"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59865,7 +59865,7 @@
       <c r="L2" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="876"/>
+      <c r="M2" s="900"/>
       <c r="N2" s="152" t="s">
         <v>180</v>
       </c>
@@ -59881,22 +59881,22 @@
       <c r="R2" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="887" t="s">
+      <c r="S2" s="907" t="s">
         <v>465</v>
       </c>
-      <c r="T2" s="866"/>
-      <c r="U2" s="888" t="s">
+      <c r="T2" s="855"/>
+      <c r="U2" s="908" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="888"/>
-      <c r="W2" s="888" t="s">
+      <c r="V2" s="908"/>
+      <c r="W2" s="908" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="889"/>
-      <c r="Y2" s="883"/>
-      <c r="Z2" s="884"/>
-      <c r="AA2" s="886"/>
-      <c r="AB2" s="897"/>
+      <c r="X2" s="909"/>
+      <c r="Y2" s="884"/>
+      <c r="Z2" s="885"/>
+      <c r="AA2" s="906"/>
+      <c r="AB2" s="879"/>
       <c r="AC2" s="153" t="s">
         <v>184</v>
       </c>
@@ -59909,81 +59909,81 @@
       <c r="AF2" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="AG2" s="898" t="s">
+      <c r="AG2" s="897" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" s="891"/>
-      <c r="AI2" s="891" t="s">
+      <c r="AH2" s="882"/>
+      <c r="AI2" s="882" t="s">
         <v>189</v>
       </c>
-      <c r="AJ2" s="891"/>
-      <c r="AK2" s="891" t="s">
+      <c r="AJ2" s="882"/>
+      <c r="AK2" s="882" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" s="891"/>
+      <c r="AL2" s="882"/>
       <c r="AM2" s="154" t="s">
         <v>191</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="AO2" s="897"/>
-      <c r="AP2" s="883" t="s">
+      <c r="AO2" s="879"/>
+      <c r="AP2" s="884" t="s">
         <v>193</v>
       </c>
-      <c r="AQ2" s="884"/>
-      <c r="AR2" s="901" t="s">
+      <c r="AQ2" s="885"/>
+      <c r="AR2" s="886" t="s">
         <v>194</v>
       </c>
-      <c r="AS2" s="902"/>
-      <c r="AT2" s="891" t="s">
+      <c r="AS2" s="887"/>
+      <c r="AT2" s="882" t="s">
         <v>195</v>
       </c>
-      <c r="AU2" s="891"/>
-      <c r="AV2" s="903" t="s">
+      <c r="AU2" s="882"/>
+      <c r="AV2" s="883" t="s">
         <v>196</v>
       </c>
-      <c r="AW2" s="903"/>
-      <c r="AX2" s="903" t="s">
+      <c r="AW2" s="883"/>
+      <c r="AX2" s="883" t="s">
         <v>197</v>
       </c>
-      <c r="AY2" s="903"/>
+      <c r="AY2" s="883"/>
       <c r="AZ2" s="154" t="s">
         <v>198</v>
       </c>
       <c r="BA2" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="BB2" s="891" t="s">
+      <c r="BB2" s="882" t="s">
         <v>200</v>
       </c>
-      <c r="BC2" s="891"/>
-      <c r="BD2" s="903" t="s">
+      <c r="BC2" s="882"/>
+      <c r="BD2" s="883" t="s">
         <v>201</v>
       </c>
-      <c r="BE2" s="903"/>
-      <c r="BF2" s="903" t="s">
+      <c r="BE2" s="883"/>
+      <c r="BF2" s="883" t="s">
         <v>202</v>
       </c>
-      <c r="BG2" s="903"/>
+      <c r="BG2" s="883"/>
       <c r="BH2" s="154" t="s">
         <v>203</v>
       </c>
       <c r="BI2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="BJ2" s="891" t="s">
+      <c r="BJ2" s="882" t="s">
         <v>205</v>
       </c>
-      <c r="BK2" s="891"/>
-      <c r="BL2" s="903" t="s">
+      <c r="BK2" s="882"/>
+      <c r="BL2" s="883" t="s">
         <v>206</v>
       </c>
-      <c r="BM2" s="903"/>
-      <c r="BN2" s="903" t="s">
+      <c r="BM2" s="883"/>
+      <c r="BN2" s="883" t="s">
         <v>207</v>
       </c>
-      <c r="BO2" s="903"/>
+      <c r="BO2" s="883"/>
       <c r="BP2" s="154" t="s">
         <v>208</v>
       </c>
@@ -60005,16 +60005,16 @@
       <c r="BV2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="BW2" s="897"/>
-      <c r="BX2" s="883" t="s">
+      <c r="BW2" s="879"/>
+      <c r="BX2" s="884" t="s">
         <v>193</v>
       </c>
-      <c r="BY2" s="884"/>
-      <c r="BZ2" s="901" t="s">
+      <c r="BY2" s="885"/>
+      <c r="BZ2" s="886" t="s">
         <v>194</v>
       </c>
-      <c r="CA2" s="902"/>
-      <c r="CB2" s="908"/>
+      <c r="CA2" s="887"/>
+      <c r="CB2" s="889"/>
       <c r="CC2" s="138" t="s">
         <v>106</v>
       </c>
@@ -60054,22 +60054,22 @@
       <c r="CO2" s="140" t="s">
         <v>473</v>
       </c>
-      <c r="CP2" s="907" t="s">
+      <c r="CP2" s="888" t="s">
         <v>216</v>
       </c>
-      <c r="CQ2" s="905"/>
-      <c r="CR2" s="905" t="s">
+      <c r="CQ2" s="880"/>
+      <c r="CR2" s="880" t="s">
         <v>217</v>
       </c>
-      <c r="CS2" s="905"/>
-      <c r="CT2" s="905" t="s">
+      <c r="CS2" s="880"/>
+      <c r="CT2" s="880" t="s">
         <v>218</v>
       </c>
-      <c r="CU2" s="905"/>
-      <c r="CV2" s="905" t="s">
+      <c r="CU2" s="880"/>
+      <c r="CV2" s="880" t="s">
         <v>219</v>
       </c>
-      <c r="CW2" s="906"/>
+      <c r="CW2" s="881"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60934,6 +60934,29 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60950,29 +60973,6 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61016,19 +61016,19 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="695"/>
-      <c r="N1" s="912"/>
-      <c r="O1" s="913"/>
-      <c r="P1" s="913"/>
-      <c r="Q1" s="913"/>
-      <c r="R1" s="879"/>
-      <c r="S1" s="880"/>
-      <c r="T1" s="880"/>
-      <c r="U1" s="880"/>
-      <c r="V1" s="880"/>
-      <c r="W1" s="880"/>
-      <c r="X1" s="881"/>
-      <c r="Y1" s="882"/>
-      <c r="Z1" s="871"/>
+      <c r="N1" s="910"/>
+      <c r="O1" s="911"/>
+      <c r="P1" s="911"/>
+      <c r="Q1" s="911"/>
+      <c r="R1" s="903"/>
+      <c r="S1" s="896"/>
+      <c r="T1" s="896"/>
+      <c r="U1" s="896"/>
+      <c r="V1" s="896"/>
+      <c r="W1" s="896"/>
+      <c r="X1" s="904"/>
+      <c r="Y1" s="890"/>
+      <c r="Z1" s="860"/>
       <c r="AA1" s="696"/>
       <c r="AB1" s="694"/>
       <c r="AC1" s="892"/>
@@ -61036,90 +61036,85 @@
       <c r="AE1" s="893"/>
       <c r="AF1" s="894"/>
       <c r="AG1" s="895"/>
-      <c r="AH1" s="880"/>
-      <c r="AI1" s="880"/>
-      <c r="AJ1" s="880"/>
-      <c r="AK1" s="880"/>
-      <c r="AL1" s="880"/>
-      <c r="AM1" s="880"/>
-      <c r="AN1" s="880"/>
+      <c r="AH1" s="896"/>
+      <c r="AI1" s="896"/>
+      <c r="AJ1" s="896"/>
+      <c r="AK1" s="896"/>
+      <c r="AL1" s="896"/>
+      <c r="AM1" s="896"/>
+      <c r="AN1" s="896"/>
       <c r="AO1" s="694"/>
-      <c r="AP1" s="882"/>
-      <c r="AQ1" s="871"/>
-      <c r="AR1" s="871"/>
-      <c r="AS1" s="872"/>
-      <c r="AT1" s="899"/>
-      <c r="AU1" s="900"/>
-      <c r="AV1" s="900"/>
-      <c r="AW1" s="900"/>
-      <c r="AX1" s="900"/>
-      <c r="AY1" s="900"/>
-      <c r="AZ1" s="900"/>
-      <c r="BA1" s="900"/>
-      <c r="BB1" s="900"/>
-      <c r="BC1" s="900"/>
-      <c r="BD1" s="900"/>
-      <c r="BE1" s="900"/>
-      <c r="BF1" s="900"/>
-      <c r="BG1" s="900"/>
-      <c r="BH1" s="900"/>
-      <c r="BI1" s="900"/>
-      <c r="BJ1" s="900"/>
-      <c r="BK1" s="900"/>
-      <c r="BL1" s="900"/>
-      <c r="BM1" s="900"/>
-      <c r="BN1" s="900"/>
-      <c r="BO1" s="900"/>
-      <c r="BP1" s="900"/>
-      <c r="BQ1" s="900"/>
-      <c r="BR1" s="900"/>
-      <c r="BS1" s="900"/>
-      <c r="BT1" s="900"/>
-      <c r="BU1" s="900"/>
-      <c r="BV1" s="900"/>
+      <c r="AP1" s="890"/>
+      <c r="AQ1" s="860"/>
+      <c r="AR1" s="860"/>
+      <c r="AS1" s="861"/>
+      <c r="AT1" s="898"/>
+      <c r="AU1" s="899"/>
+      <c r="AV1" s="899"/>
+      <c r="AW1" s="899"/>
+      <c r="AX1" s="899"/>
+      <c r="AY1" s="899"/>
+      <c r="AZ1" s="899"/>
+      <c r="BA1" s="899"/>
+      <c r="BB1" s="899"/>
+      <c r="BC1" s="899"/>
+      <c r="BD1" s="899"/>
+      <c r="BE1" s="899"/>
+      <c r="BF1" s="899"/>
+      <c r="BG1" s="899"/>
+      <c r="BH1" s="899"/>
+      <c r="BI1" s="899"/>
+      <c r="BJ1" s="899"/>
+      <c r="BK1" s="899"/>
+      <c r="BL1" s="899"/>
+      <c r="BM1" s="899"/>
+      <c r="BN1" s="899"/>
+      <c r="BO1" s="899"/>
+      <c r="BP1" s="899"/>
+      <c r="BQ1" s="899"/>
+      <c r="BR1" s="899"/>
+      <c r="BS1" s="899"/>
+      <c r="BT1" s="899"/>
+      <c r="BU1" s="899"/>
+      <c r="BV1" s="899"/>
       <c r="BW1" s="694"/>
-      <c r="BX1" s="882"/>
-      <c r="BY1" s="871"/>
-      <c r="BZ1" s="871"/>
-      <c r="CA1" s="872"/>
-      <c r="CB1" s="890"/>
-      <c r="CC1" s="890"/>
-      <c r="CD1" s="890"/>
-      <c r="CE1" s="890"/>
-      <c r="CF1" s="890"/>
-      <c r="CG1" s="890"/>
-      <c r="CH1" s="890"/>
-      <c r="CI1" s="890"/>
-      <c r="CJ1" s="890"/>
-      <c r="CK1" s="890"/>
-      <c r="CL1" s="890"/>
-      <c r="CM1" s="890"/>
+      <c r="BX1" s="890"/>
+      <c r="BY1" s="860"/>
+      <c r="BZ1" s="860"/>
+      <c r="CA1" s="861"/>
+      <c r="CB1" s="891"/>
+      <c r="CC1" s="891"/>
+      <c r="CD1" s="891"/>
+      <c r="CE1" s="891"/>
+      <c r="CF1" s="891"/>
+      <c r="CG1" s="891"/>
+      <c r="CH1" s="891"/>
+      <c r="CI1" s="891"/>
+      <c r="CJ1" s="891"/>
+      <c r="CK1" s="891"/>
+      <c r="CL1" s="891"/>
+      <c r="CM1" s="891"/>
       <c r="CN1" s="693"/>
-      <c r="CO1" s="904"/>
-      <c r="CP1" s="841"/>
-      <c r="CQ1" s="841"/>
-      <c r="CR1" s="841"/>
-      <c r="CS1" s="841"/>
-      <c r="CT1" s="841"/>
-      <c r="CU1" s="841"/>
-      <c r="CV1" s="860"/>
-      <c r="CW1" s="909"/>
-      <c r="CX1" s="910"/>
-      <c r="CY1" s="910"/>
-      <c r="CZ1" s="911"/>
-      <c r="DA1" s="910"/>
-      <c r="DB1" s="910"/>
-      <c r="DC1" s="911"/>
-      <c r="DD1" s="910"/>
-      <c r="DE1" s="910"/>
+      <c r="CO1" s="877"/>
+      <c r="CP1" s="848"/>
+      <c r="CQ1" s="848"/>
+      <c r="CR1" s="848"/>
+      <c r="CS1" s="848"/>
+      <c r="CT1" s="848"/>
+      <c r="CU1" s="848"/>
+      <c r="CV1" s="849"/>
+      <c r="CW1" s="912"/>
+      <c r="CX1" s="913"/>
+      <c r="CY1" s="913"/>
+      <c r="CZ1" s="914"/>
+      <c r="DA1" s="913"/>
+      <c r="DB1" s="913"/>
+      <c r="DC1" s="914"/>
+      <c r="DD1" s="913"/>
+      <c r="DE1" s="913"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61128,6 +61123,11 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61140,7 +61140,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61154,7 +61154,7 @@
     <col min="12" max="12" width="11.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.21875" customWidth="1"/>
     <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -61167,20 +61167,20 @@
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
       <c r="G1" s="143"/>
-      <c r="H1" s="915" t="s">
+      <c r="H1" s="916" t="s">
+        <v>602</v>
+      </c>
+      <c r="I1" s="916"/>
+      <c r="J1" s="916"/>
+      <c r="K1" s="916"/>
+      <c r="L1" s="915" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="915"/>
-      <c r="J1" s="915"/>
-      <c r="K1" s="915"/>
-      <c r="L1" s="914" t="s">
-        <v>604</v>
-      </c>
-      <c r="M1" s="914"/>
-      <c r="N1" s="914"/>
-      <c r="O1" s="914"/>
-    </row>
-    <row r="2" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="M1" s="915"/>
+      <c r="N1" s="915"/>
+      <c r="O1" s="915"/>
+    </row>
+    <row r="2" spans="1:15" ht="54" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
         <v>90</v>
       </c>
@@ -61212,19 +61212,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>602</v>
-      </c>
-      <c r="L2" s="991" t="s">
+        <v>601</v>
+      </c>
+      <c r="L2" s="824" t="s">
         <v>600</v>
       </c>
-      <c r="M2" s="991" t="s">
+      <c r="M2" s="824" t="s">
         <v>255</v>
       </c>
-      <c r="N2" s="991" t="s">
+      <c r="N2" s="824" t="s">
         <v>262</v>
       </c>
-      <c r="O2" s="991" t="s">
-        <v>601</v>
+      <c r="O2" s="824" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -61351,10 +61351,10 @@
       <c r="B2" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="921" t="s">
+      <c r="C2" s="924" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="921"/>
+      <c r="D2" s="924"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61518,35 +61518,35 @@
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="918"/>
-      <c r="C7" s="918"/>
-      <c r="D7" s="918"/>
+      <c r="B7" s="925"/>
+      <c r="C7" s="925"/>
+      <c r="D7" s="925"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="918"/>
-      <c r="K7" s="918"/>
-      <c r="L7" s="918"/>
+      <c r="J7" s="925"/>
+      <c r="K7" s="925"/>
+      <c r="L7" s="925"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" s="918"/>
-      <c r="R7" s="918"/>
-      <c r="S7" s="918"/>
+      <c r="Q7" s="925"/>
+      <c r="R7" s="925"/>
+      <c r="S7" s="925"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
         <v>243</v>
       </c>
-      <c r="X7" s="918"/>
-      <c r="Y7" s="918"/>
-      <c r="Z7" s="918"/>
+      <c r="X7" s="925"/>
+      <c r="Y7" s="925"/>
+      <c r="Z7" s="925"/>
       <c r="AA7" s="372"/>
       <c r="AB7" s="215"/>
     </row>
@@ -61585,54 +61585,54 @@
       <c r="B9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="919" t="s">
+      <c r="C9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="920"/>
-      <c r="E9" s="919" t="s">
+      <c r="D9" s="921"/>
+      <c r="E9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="920"/>
+      <c r="F9" s="921"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="919" t="s">
+      <c r="K9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="920"/>
-      <c r="M9" s="919" t="s">
+      <c r="L9" s="921"/>
+      <c r="M9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="920"/>
+      <c r="N9" s="921"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="R9" s="919" t="s">
+      <c r="R9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="S9" s="920"/>
-      <c r="T9" s="919" t="s">
+      <c r="S9" s="921"/>
+      <c r="T9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="920"/>
+      <c r="U9" s="921"/>
       <c r="V9" s="372"/>
       <c r="W9" s="372"/>
       <c r="X9" s="216" t="s">
         <v>450</v>
       </c>
-      <c r="Y9" s="919" t="s">
+      <c r="Y9" s="920" t="s">
         <v>244</v>
       </c>
-      <c r="Z9" s="920"/>
-      <c r="AA9" s="919" t="s">
+      <c r="Z9" s="921"/>
+      <c r="AA9" s="920" t="s">
         <v>245</v>
       </c>
-      <c r="AB9" s="920"/>
+      <c r="AB9" s="921"/>
     </row>
     <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
@@ -61711,10 +61711,10 @@
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
-      <c r="E11" s="916" t="s">
+      <c r="E11" s="917" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="917"/>
+      <c r="F11" s="918"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
@@ -61723,10 +61723,10 @@
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="923" t="s">
+      <c r="M11" s="922" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="924"/>
+      <c r="N11" s="923"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
@@ -61734,10 +61734,10 @@
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
-      <c r="T11" s="916" t="s">
+      <c r="T11" s="917" t="s">
         <v>249</v>
       </c>
-      <c r="U11" s="917"/>
+      <c r="U11" s="918"/>
       <c r="V11" s="372"/>
       <c r="W11" s="372"/>
       <c r="X11" s="220" t="s">
@@ -61745,10 +61745,10 @@
       </c>
       <c r="Y11" s="221"/>
       <c r="Z11" s="221"/>
-      <c r="AA11" s="916" t="s">
+      <c r="AA11" s="917" t="s">
         <v>249</v>
       </c>
-      <c r="AB11" s="917"/>
+      <c r="AB11" s="918"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
@@ -62053,10 +62053,10 @@
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="916" t="s">
+      <c r="E20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="917"/>
+      <c r="F20" s="918"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
@@ -62065,10 +62065,10 @@
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
-      <c r="M20" s="916" t="s">
+      <c r="M20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="N20" s="917"/>
+      <c r="N20" s="918"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
@@ -62076,10 +62076,10 @@
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
-      <c r="T20" s="916" t="s">
+      <c r="T20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="U20" s="917"/>
+      <c r="U20" s="918"/>
       <c r="V20" s="277"/>
       <c r="W20" s="277"/>
       <c r="X20" s="220" t="s">
@@ -62087,10 +62087,10 @@
       </c>
       <c r="Y20" s="302"/>
       <c r="Z20" s="249"/>
-      <c r="AA20" s="916" t="s">
+      <c r="AA20" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="AB20" s="917"/>
+      <c r="AB20" s="918"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
@@ -62433,10 +62433,10 @@
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="916" t="s">
+      <c r="E30" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="917"/>
+      <c r="F30" s="918"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
@@ -62445,10 +62445,10 @@
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="916" t="s">
+      <c r="M30" s="917" t="s">
         <v>589</v>
       </c>
-      <c r="N30" s="917"/>
+      <c r="N30" s="918"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
@@ -62456,10 +62456,10 @@
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
-      <c r="T30" s="916" t="s">
+      <c r="T30" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="U30" s="917"/>
+      <c r="U30" s="918"/>
       <c r="V30" s="277"/>
       <c r="W30" s="277"/>
       <c r="X30" s="220" t="s">
@@ -62467,10 +62467,10 @@
       </c>
       <c r="Y30" s="302"/>
       <c r="Z30" s="249"/>
-      <c r="AA30" s="916" t="s">
+      <c r="AA30" s="917" t="s">
         <v>256</v>
       </c>
-      <c r="AB30" s="917"/>
+      <c r="AB30" s="918"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
@@ -62908,11 +62908,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="922"/>
-      <c r="C42" s="922"/>
-      <c r="D42" s="922"/>
-      <c r="E42" s="922"/>
-      <c r="F42" s="922"/>
+      <c r="B42" s="919"/>
+      <c r="C42" s="919"/>
+      <c r="D42" s="919"/>
+      <c r="E42" s="919"/>
+      <c r="F42" s="919"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -63099,6 +63099,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -63110,21 +63125,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA20:AB20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="607">
   <si>
     <t>Acronym</t>
   </si>
@@ -917,10 +917,6 @@
   </si>
   <si>
     <t>(reference: generated wastewater load)</t>
-  </si>
-  <si>
-    <t>connected to IAS [Individual &amp; 
-appropriated system]</t>
   </si>
   <si>
     <t>not connected not treated</t>
@@ -2309,6 +2305,15 @@
   </si>
   <si>
     <t>Legal compliance</t>
+  </si>
+  <si>
+    <t>collected load</t>
+  </si>
+  <si>
+    <t>connected totally or partially to IAS [Individual &amp; appropriate system]</t>
+  </si>
+  <si>
+    <t>Volume of treated wastewater re-used</t>
   </si>
 </sst>
 </file>
@@ -6117,6 +6122,15 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6135,15 +6149,6 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6552,31 +6557,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="771" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="772" t="s">
         <v>474</v>
-      </c>
-      <c r="B2" s="772" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="769" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" s="772" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="769" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" s="772" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="769" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" s="770" t="s">
         <v>6</v>
@@ -6584,7 +6589,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="769" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6" s="770" t="s">
         <v>3</v>
@@ -6592,7 +6597,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="769" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B7" s="770" t="s">
         <v>15</v>
@@ -6600,7 +6605,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="769" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B8" s="770" t="s">
         <v>2</v>
@@ -6608,7 +6613,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="769" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B9" s="770" t="s">
         <v>21</v>
@@ -6616,15 +6621,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="769" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="770" t="s">
         <v>542</v>
-      </c>
-      <c r="B10" s="770" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="769" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" s="770" t="s">
         <v>4</v>
@@ -6632,15 +6637,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="769" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="770" t="s">
         <v>545</v>
-      </c>
-      <c r="B12" s="770" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="769" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B13" s="770" t="s">
         <v>7</v>
@@ -6648,10 +6653,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="769" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="770" t="s">
         <v>548</v>
-      </c>
-      <c r="B14" s="770" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6659,7 +6664,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="770" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6667,20 +6672,20 @@
         <v>23</v>
       </c>
       <c r="B16" s="770" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="769" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" s="770" t="s">
         <v>552</v>
-      </c>
-      <c r="B17" s="770" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="769" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B18" s="770" t="s">
         <v>13</v>
@@ -6688,7 +6693,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="769" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" s="770" t="s">
         <v>10</v>
@@ -6696,7 +6701,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="769" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B20" s="770" t="s">
         <v>12</v>
@@ -6704,10 +6709,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="769" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B21" s="772" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -6720,7 +6725,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="769" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B23" s="770" t="s">
         <v>18</v>
@@ -6728,7 +6733,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="769" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B24" s="770" t="s">
         <v>11</v>
@@ -6736,7 +6741,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="769" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B25" s="770" t="s">
         <v>9</v>
@@ -6744,7 +6749,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="769" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B26" s="770" t="s">
         <v>17</v>
@@ -6752,15 +6757,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="769" t="s">
+        <v>559</v>
+      </c>
+      <c r="B27" s="770" t="s">
         <v>560</v>
-      </c>
-      <c r="B27" s="770" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="769" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B28" s="770" t="s">
         <v>14</v>
@@ -6776,7 +6781,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="769" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B30" s="770" t="s">
         <v>16</v>
@@ -6792,7 +6797,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="769" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B32" s="770" t="s">
         <v>5</v>
@@ -6800,42 +6805,42 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="769" t="s">
+        <v>564</v>
+      </c>
+      <c r="B33" s="770" t="s">
         <v>565</v>
-      </c>
-      <c r="B33" s="770" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="773" t="s">
+        <v>566</v>
+      </c>
+      <c r="B34" s="774" t="s">
         <v>567</v>
-      </c>
-      <c r="B34" s="774" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="769" t="s">
+        <v>568</v>
+      </c>
+      <c r="B35" s="774" t="s">
         <v>569</v>
-      </c>
-      <c r="B35" s="774" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="769" t="s">
+        <v>570</v>
+      </c>
+      <c r="B36" s="770" t="s">
         <v>571</v>
-      </c>
-      <c r="B36" s="770" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="773" t="s">
+        <v>572</v>
+      </c>
+      <c r="B37" s="770" t="s">
         <v>573</v>
-      </c>
-      <c r="B37" s="770" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6843,31 +6848,31 @@
         <v>102</v>
       </c>
       <c r="B38" s="770" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="773" t="s">
+        <v>575</v>
+      </c>
+      <c r="B39" s="774" t="s">
         <v>576</v>
-      </c>
-      <c r="B39" s="774" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="773" t="s">
+        <v>577</v>
+      </c>
+      <c r="B40" s="774" t="s">
         <v>578</v>
-      </c>
-      <c r="B40" s="774" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="773" t="s">
+        <v>579</v>
+      </c>
+      <c r="B41" s="774" t="s">
         <v>580</v>
-      </c>
-      <c r="B41" s="774" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -6875,39 +6880,39 @@
         <v>124</v>
       </c>
       <c r="B42" s="774" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="773" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B43" s="774" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="773" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B44" s="774" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="773" t="s">
+        <v>584</v>
+      </c>
+      <c r="B45" s="774" t="s">
         <v>585</v>
-      </c>
-      <c r="B45" s="774" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="773" t="s">
+        <v>586</v>
+      </c>
+      <c r="B46" s="774" t="s">
         <v>587</v>
-      </c>
-      <c r="B46" s="774" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6957,7 +6962,7 @@
     </row>
     <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="327" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -6972,16 +6977,16 @@
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="503" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C10" s="331" t="s">
         <v>245</v>
       </c>
       <c r="D10" s="332" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="927" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F10" s="928"/>
     </row>
@@ -6993,10 +6998,10 @@
         <v>155</v>
       </c>
       <c r="D11" s="343" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="505" t="s">
         <v>478</v>
-      </c>
-      <c r="E11" s="505" t="s">
-        <v>479</v>
       </c>
       <c r="F11" s="336" t="s">
         <v>70</v>
@@ -7004,7 +7009,7 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C12" s="344"/>
       <c r="D12" s="349">
@@ -7015,7 +7020,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="338" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" s="345"/>
       <c r="D13" s="350"/>
@@ -7024,7 +7029,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="356" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" s="357"/>
       <c r="D14" s="358"/>
@@ -7040,7 +7045,7 @@
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
@@ -7049,7 +7054,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C17" s="820"/>
       <c r="D17" s="806"/>
@@ -7058,7 +7063,7 @@
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="797" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="803"/>
       <c r="D18" s="805"/>
@@ -7067,7 +7072,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="818" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C19" s="819"/>
       <c r="D19" s="821"/>
@@ -7076,7 +7081,7 @@
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
@@ -7085,7 +7090,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
@@ -7094,7 +7099,7 @@
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
@@ -7103,7 +7108,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="802" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
@@ -7115,7 +7120,7 @@
     </row>
     <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="327" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7130,16 +7135,16 @@
     </row>
     <row r="30" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="503" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C30" s="331" t="s">
         <v>245</v>
       </c>
       <c r="D30" s="342" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E30" s="927" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F30" s="928"/>
     </row>
@@ -7151,10 +7156,10 @@
         <v>155</v>
       </c>
       <c r="D31" s="343" t="s">
+        <v>477</v>
+      </c>
+      <c r="E31" s="335" t="s">
         <v>478</v>
-      </c>
-      <c r="E31" s="335" t="s">
-        <v>479</v>
       </c>
       <c r="F31" s="336" t="s">
         <v>70</v>
@@ -7162,7 +7167,7 @@
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C32" s="344"/>
       <c r="D32" s="349">
@@ -7173,7 +7178,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="338" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="345"/>
       <c r="D33" s="350"/>
@@ -7182,7 +7187,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="356" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" s="357"/>
       <c r="D34" s="358"/>
@@ -7198,7 +7203,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
@@ -7207,7 +7212,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
@@ -7216,7 +7221,7 @@
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="811" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="798"/>
       <c r="D38" s="805"/>
@@ -7225,7 +7230,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="814" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C39" s="815"/>
       <c r="D39" s="821"/>
@@ -7234,7 +7239,7 @@
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
@@ -7243,7 +7248,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
@@ -7252,7 +7257,7 @@
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
@@ -7261,7 +7266,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="814" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
@@ -7270,7 +7275,7 @@
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7285,16 +7290,16 @@
     </row>
     <row r="49" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="503" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C49" s="331" t="s">
         <v>245</v>
       </c>
       <c r="D49" s="342" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E49" s="927" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F49" s="928"/>
     </row>
@@ -7306,10 +7311,10 @@
         <v>155</v>
       </c>
       <c r="D50" s="343" t="s">
+        <v>477</v>
+      </c>
+      <c r="E50" s="505" t="s">
         <v>478</v>
-      </c>
-      <c r="E50" s="505" t="s">
-        <v>479</v>
       </c>
       <c r="F50" s="336" t="s">
         <v>70</v>
@@ -7317,7 +7322,7 @@
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="344"/>
       <c r="D51" s="349">
@@ -7328,7 +7333,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="338" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C52" s="345"/>
       <c r="D52" s="350"/>
@@ -7337,7 +7342,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="356" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C53" s="357"/>
       <c r="D53" s="358"/>
@@ -7353,7 +7358,7 @@
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
@@ -7362,7 +7367,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C56" s="345"/>
       <c r="D56" s="799"/>
@@ -7371,7 +7376,7 @@
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="817" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" s="798"/>
       <c r="D57" s="805"/>
@@ -7380,7 +7385,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="813" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C58" s="815"/>
       <c r="D58" s="821"/>
@@ -7389,7 +7394,7 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
@@ -7398,7 +7403,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
@@ -7407,7 +7412,7 @@
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
@@ -7416,7 +7421,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="802" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
@@ -7425,7 +7430,7 @@
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
@@ -7440,16 +7445,16 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="503" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C68" s="331" t="s">
         <v>245</v>
       </c>
       <c r="D68" s="342" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E68" s="927" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F68" s="928"/>
     </row>
@@ -7461,10 +7466,10 @@
         <v>155</v>
       </c>
       <c r="D69" s="343" t="s">
+        <v>477</v>
+      </c>
+      <c r="E69" s="505" t="s">
         <v>478</v>
-      </c>
-      <c r="E69" s="505" t="s">
-        <v>479</v>
       </c>
       <c r="F69" s="506" t="s">
         <v>70</v>
@@ -7472,7 +7477,7 @@
     </row>
     <row r="70" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="337" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C70" s="344"/>
       <c r="D70" s="349">
@@ -7483,7 +7488,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="338" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C71" s="345"/>
       <c r="D71" s="350"/>
@@ -7492,7 +7497,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="356" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C72" s="357"/>
       <c r="D72" s="358"/>
@@ -7508,7 +7513,7 @@
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
@@ -7517,7 +7522,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="816" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C75" s="812"/>
       <c r="D75" s="350"/>
@@ -7526,7 +7531,7 @@
     </row>
     <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B76" s="817" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C76" s="798"/>
       <c r="D76" s="805"/>
@@ -7535,7 +7540,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="813" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C77" s="815"/>
       <c r="D77" s="821"/>
@@ -7544,7 +7549,7 @@
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
@@ -7553,7 +7558,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
@@ -7562,7 +7567,7 @@
     </row>
     <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
@@ -7571,7 +7576,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="802" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
@@ -7648,7 +7653,7 @@
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="370"/>
       <c r="B5" s="376" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
@@ -7660,7 +7665,7 @@
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
       <c r="B6" s="925" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="925"/>
       <c r="D6" s="925"/>
@@ -7678,7 +7683,7 @@
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="370"/>
       <c r="B8" s="399" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C8" s="929" t="s">
         <v>244</v>
@@ -7710,7 +7715,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="382"/>
       <c r="B10" s="404" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="383"/>
       <c r="D10" s="410"/>
@@ -7720,7 +7725,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="382"/>
       <c r="B11" s="405" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" s="387"/>
       <c r="D11" s="411"/>
@@ -7730,7 +7735,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="385"/>
       <c r="B12" s="401" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" s="396"/>
       <c r="D12" s="395"/>
@@ -7748,7 +7753,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="382"/>
       <c r="B14" s="389" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" s="407"/>
       <c r="D14" s="413"/>
@@ -7758,7 +7763,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="385"/>
       <c r="B15" s="402" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" s="384"/>
       <c r="D15" s="386"/>
@@ -7768,7 +7773,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="385"/>
       <c r="B16" s="401" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="396"/>
       <c r="D16" s="395"/>
@@ -7786,7 +7791,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="382"/>
       <c r="B18" s="389" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" s="407"/>
       <c r="D18" s="413"/>
@@ -7796,7 +7801,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="385"/>
       <c r="B19" s="402" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="386"/>
@@ -7806,7 +7811,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="385"/>
       <c r="B20" s="403" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C20" s="390"/>
       <c r="D20" s="388"/>
@@ -7840,7 +7845,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="370"/>
       <c r="B24" s="379" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="371"/>
       <c r="D24" s="371"/>
@@ -7850,7 +7855,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
       <c r="B25" s="768" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" s="371"/>
       <c r="D25" s="371"/>
@@ -7860,7 +7865,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
       <c r="B26" s="768" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="371"/>
       <c r="D26" s="371"/>
@@ -7887,7 +7892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7909,13 +7914,13 @@
         <v>178</v>
       </c>
       <c r="E2" s="424" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2" s="424" t="s">
+        <v>604</v>
+      </c>
+      <c r="G2" s="424" t="s">
         <v>289</v>
-      </c>
-      <c r="G2" s="424" t="s">
-        <v>290</v>
       </c>
       <c r="H2" s="424" t="s">
         <v>98</v>
@@ -7924,19 +7929,19 @@
         <v>105</v>
       </c>
       <c r="J2" s="424" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="438" t="s">
         <v>291</v>
       </c>
-      <c r="K2" s="438" t="s">
+      <c r="L2" s="438" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="438" t="s">
+      <c r="M2" s="438" t="s">
         <v>293</v>
       </c>
-      <c r="M2" s="438" t="s">
+      <c r="N2" s="438" t="s">
         <v>294</v>
-      </c>
-      <c r="N2" s="438" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -7944,42 +7949,42 @@
       <c r="C3" s="933"/>
       <c r="D3" s="933"/>
       <c r="E3" s="439" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="439" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="439" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="439" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="439" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="439" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="440" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="439" t="s">
+      <c r="L3" s="440" t="s">
         <v>296</v>
       </c>
-      <c r="G3" s="439" t="s">
+      <c r="M3" s="440" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="439" t="s">
-        <v>296</v>
-      </c>
-      <c r="I3" s="439" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="439" t="s">
-        <v>296</v>
-      </c>
-      <c r="K3" s="440" t="s">
+      <c r="N3" s="440" t="s">
         <v>297</v>
-      </c>
-      <c r="L3" s="440" t="s">
-        <v>297</v>
-      </c>
-      <c r="M3" s="440" t="s">
-        <v>297</v>
-      </c>
-      <c r="N3" s="440" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="934" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="425" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D4" s="425"/>
       <c r="E4" s="426"/>
@@ -8013,7 +8018,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="935"/>
       <c r="C6" s="435" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="435"/>
       <c r="E6" s="436"/>
@@ -8132,7 +8137,7 @@
       <c r="B1" s="949"/>
       <c r="C1" s="455"/>
       <c r="D1" s="939" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1" s="940"/>
       <c r="F1" s="940"/>
@@ -8140,14 +8145,14 @@
       <c r="H1" s="940"/>
       <c r="I1" s="941"/>
       <c r="J1" s="950" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K1" s="951"/>
       <c r="L1" s="951"/>
       <c r="M1" s="951"/>
       <c r="N1" s="952"/>
       <c r="O1" s="953" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P1" s="954"/>
       <c r="Q1" s="955"/>
@@ -8156,7 +8161,7 @@
       </c>
       <c r="S1" s="443"/>
       <c r="T1" s="947" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U1" s="947"/>
       <c r="V1" s="947"/>
@@ -8166,7 +8171,7 @@
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="445" t="s">
         <v>91</v>
@@ -8175,15 +8180,15 @@
         <v>93</v>
       </c>
       <c r="D2" s="944" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E2" s="943"/>
       <c r="F2" s="943" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G2" s="943"/>
       <c r="H2" s="942" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I2" s="942"/>
       <c r="J2" s="447">
@@ -8196,16 +8201,16 @@
         <v>2</v>
       </c>
       <c r="M2" s="448" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="449" t="s">
         <v>307</v>
       </c>
-      <c r="N2" s="449" t="s">
+      <c r="O2" s="459" t="s">
         <v>308</v>
       </c>
-      <c r="O2" s="459" t="s">
+      <c r="P2" s="459" t="s">
         <v>309</v>
-      </c>
-      <c r="P2" s="459" t="s">
-        <v>310</v>
       </c>
       <c r="Q2" s="459" t="s">
         <v>78</v>
@@ -8217,15 +8222,15 @@
         <v>91</v>
       </c>
       <c r="T2" s="945" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U2" s="945"/>
       <c r="V2" s="946" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W2" s="946"/>
       <c r="X2" s="946" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y2" s="946"/>
     </row>
@@ -8236,25 +8241,25 @@
         <v>155</v>
       </c>
       <c r="D3" s="663" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" s="665" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="663" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" s="665" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="663" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3" s="665" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="936" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K3" s="937"/>
       <c r="L3" s="937"/>
@@ -8269,19 +8274,19 @@
         <v>72</v>
       </c>
       <c r="U3" s="684" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V3" s="685" t="s">
         <v>72</v>
       </c>
       <c r="W3" s="706" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X3" s="685" t="s">
         <v>72</v>
       </c>
       <c r="Y3" s="706" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9541,7 +9546,7 @@
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="865" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="866"/>
       <c r="C1" s="866"/>
@@ -9549,44 +9554,44 @@
       <c r="E1" s="866"/>
       <c r="F1" s="866"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="959" t="s">
+      <c r="H1" s="962" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="960"/>
-      <c r="J1" s="960"/>
+      <c r="I1" s="963"/>
+      <c r="J1" s="963"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="957" t="s">
-        <v>313</v>
+      <c r="O1" s="960" t="s">
+        <v>312</v>
       </c>
       <c r="P1" s="466"/>
       <c r="Q1" s="474" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R1" s="464"/>
       <c r="S1" s="474"/>
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="957" t="s">
+      <c r="W1" s="960" t="s">
+        <v>314</v>
+      </c>
+      <c r="X1" s="466"/>
+      <c r="Y1" s="964" t="s">
         <v>315</v>
       </c>
-      <c r="X1" s="466"/>
-      <c r="Y1" s="961" t="s">
+      <c r="Z1" s="964"/>
+      <c r="AA1" s="964"/>
+      <c r="AB1" s="964"/>
+      <c r="AC1" s="964"/>
+      <c r="AD1" s="965"/>
+      <c r="AE1" s="960" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="961"/>
-      <c r="AA1" s="961"/>
-      <c r="AB1" s="961"/>
-      <c r="AC1" s="961"/>
-      <c r="AD1" s="962"/>
-      <c r="AE1" s="957" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF1" s="956" t="s">
-        <v>480</v>
+      <c r="AF1" s="959" t="s">
+        <v>479</v>
       </c>
       <c r="AG1" s="947"/>
       <c r="AH1" s="947"/>
@@ -9643,69 +9648,69 @@
         <v>178</v>
       </c>
       <c r="B2" s="473" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="473" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="473" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="964" t="s">
+      <c r="D2" s="958" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="958"/>
+      <c r="F2" s="958" t="s">
         <v>485</v>
       </c>
-      <c r="E2" s="964"/>
-      <c r="F2" s="964" t="s">
-        <v>486</v>
-      </c>
-      <c r="G2" s="964"/>
+      <c r="G2" s="958"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="963" t="s">
+      <c r="I2" s="956" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="963"/>
-      <c r="K2" s="963" t="s">
+      <c r="J2" s="956"/>
+      <c r="K2" s="956" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="963"/>
-      <c r="M2" s="963" t="s">
+      <c r="L2" s="956"/>
+      <c r="M2" s="956" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="965"/>
-      <c r="O2" s="958"/>
+      <c r="N2" s="957"/>
+      <c r="O2" s="961"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="963" t="s">
+      <c r="Q2" s="956" t="s">
         <v>188</v>
       </c>
-      <c r="R2" s="963"/>
-      <c r="S2" s="963" t="s">
+      <c r="R2" s="956"/>
+      <c r="S2" s="956" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="963"/>
-      <c r="U2" s="963" t="s">
+      <c r="T2" s="956"/>
+      <c r="U2" s="956" t="s">
         <v>190</v>
       </c>
-      <c r="V2" s="965"/>
-      <c r="W2" s="958"/>
+      <c r="V2" s="957"/>
+      <c r="W2" s="961"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="963" t="s">
+      <c r="Y2" s="956" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="963"/>
-      <c r="AA2" s="963" t="s">
+      <c r="Z2" s="956"/>
+      <c r="AA2" s="956" t="s">
         <v>189</v>
       </c>
-      <c r="AB2" s="963"/>
-      <c r="AC2" s="963" t="s">
+      <c r="AB2" s="956"/>
+      <c r="AC2" s="956" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="965"/>
-      <c r="AE2" s="958"/>
+      <c r="AD2" s="957"/>
+      <c r="AE2" s="961"/>
       <c r="AF2" s="682" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG2" s="683" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH2" s="683" t="s">
         <v>481</v>
-      </c>
-      <c r="AH2" s="683" t="s">
-        <v>482</v>
       </c>
       <c r="AI2" s="688"/>
       <c r="AJ2" s="688"/>
@@ -9774,76 +9779,76 @@
         <v>72</v>
       </c>
       <c r="H3" s="481" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="484" t="s">
         <v>320</v>
-      </c>
-      <c r="I3" s="484" t="s">
-        <v>321</v>
       </c>
       <c r="J3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N3" s="482" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="483" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P3" s="481" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="484" t="s">
         <v>320</v>
-      </c>
-      <c r="Q3" s="484" t="s">
-        <v>321</v>
       </c>
       <c r="R3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="S3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="U3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V3" s="482" t="s">
         <v>70</v>
       </c>
       <c r="W3" s="485" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X3" s="481" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="AA3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB3" s="478" t="s">
         <v>70</v>
       </c>
       <c r="AC3" s="479" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD3" s="482" t="s">
         <v>70</v>
       </c>
       <c r="AE3" s="485" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF3" s="684" t="s">
         <v>72</v>
@@ -10583,6 +10588,10 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
@@ -10597,10 +10606,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10611,7 +10616,9 @@
   <sheetPr codeName="Feuil15"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10621,18 +10628,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="486" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="487" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="488" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="488" t="s">
+      <c r="C3" s="489" t="s">
         <v>327</v>
-      </c>
-      <c r="C3" s="489" t="s">
-        <v>328</v>
       </c>
       <c r="D3" s="666" t="s">
         <v>72</v>
@@ -10640,67 +10647,67 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="490" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="491" t="s">
         <v>329</v>
-      </c>
-      <c r="B4" s="491" t="s">
-        <v>330</v>
       </c>
       <c r="C4" s="668"/>
       <c r="D4" s="690"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="492" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" s="493" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="669"/>
       <c r="D5" s="691"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="492" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B6" s="493" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="669"/>
       <c r="D6" s="691"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="492" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="493" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="669"/>
       <c r="D7" s="691"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="492" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" s="493" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="670"/>
       <c r="D8" s="692"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="492" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="493" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="670"/>
       <c r="D9" s="692"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="494" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="495"/>
       <c r="C10" s="671"/>
@@ -10708,74 +10715,74 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="486" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="496" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="497" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="497" t="s">
+      <c r="C17" s="672" t="s">
         <v>327</v>
-      </c>
-      <c r="C17" s="672" t="s">
-        <v>328</v>
       </c>
       <c r="D17" s="676"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="498" t="s">
-        <v>134</v>
+        <v>606</v>
       </c>
       <c r="B18" s="499" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C18" s="673"/>
       <c r="D18" s="677"/>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="498" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="499" t="s">
         <v>339</v>
-      </c>
-      <c r="B19" s="499" t="s">
-        <v>340</v>
       </c>
       <c r="C19" s="674"/>
       <c r="D19" s="677"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="492" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="500" t="s">
         <v>341</v>
-      </c>
-      <c r="B20" s="500" t="s">
-        <v>342</v>
       </c>
       <c r="C20" s="674"/>
       <c r="D20" s="677"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="492" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="500" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="674"/>
       <c r="D21" s="677"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="492" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="500" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="674"/>
       <c r="D22" s="677"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="494" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B23" s="501"/>
       <c r="C23" s="675"/>
@@ -10824,29 +10831,29 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="740"/>
       <c r="J2" s="741" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K2" s="741" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L2" s="741" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="988" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="990" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C3" s="991"/>
       <c r="D3" s="976" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E3" s="977"/>
       <c r="F3" s="976" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G3" s="977"/>
       <c r="I3" s="738" t="str">
@@ -10854,56 +10861,56 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J3" s="739" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K3" s="720"/>
       <c r="L3" s="720"/>
       <c r="N3" s="705"/>
       <c r="O3" s="973" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P3" s="973"/>
       <c r="Q3" s="973" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R3" s="973"/>
       <c r="S3" s="705"/>
       <c r="T3" s="713" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U3" s="705"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="989"/>
       <c r="B4" s="512" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="512" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="512" t="s">
-        <v>350</v>
-      </c>
       <c r="D4" s="512" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="512" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="512" t="s">
-        <v>350</v>
-      </c>
       <c r="F4" s="512" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="512" t="s">
         <v>349</v>
-      </c>
-      <c r="G4" s="512" t="s">
-        <v>350</v>
       </c>
       <c r="I4" s="738" t="str">
         <f t="shared" ref="I4:I7" si="0">$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J4" s="739" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K4" s="720"/>
       <c r="L4" s="720"/>
       <c r="N4" s="713" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O4" s="722" t="str">
         <f>D3</f>
@@ -10933,7 +10940,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="574" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="575"/>
       <c r="C5" s="575"/>
@@ -10946,7 +10953,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J5" s="739" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K5" s="720"/>
       <c r="L5" s="720"/>
@@ -10982,7 +10989,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="577" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="578"/>
       <c r="C6" s="578"/>
@@ -10995,7 +11002,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J6" s="739" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K6" s="720"/>
       <c r="L6" s="720"/>
@@ -11031,7 +11038,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="577" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" s="578"/>
       <c r="C7" s="578"/>
@@ -11044,7 +11051,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J7" s="739" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K7" s="720"/>
       <c r="L7" s="720"/>
@@ -11084,12 +11091,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J8" s="739" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K8" s="720"/>
       <c r="L8" s="720"/>
       <c r="N8" s="713" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O8" s="713">
         <f>SUM(O5:O7)</f>
@@ -11117,7 +11124,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J9" s="739" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K9" s="720"/>
       <c r="L9" s="720"/>
@@ -11128,17 +11135,17 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J10" s="739" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K10" s="720"/>
       <c r="L10" s="720"/>
       <c r="N10" s="713"/>
       <c r="O10" s="973" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P10" s="973"/>
       <c r="Q10" s="973" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R10" s="973"/>
     </row>
@@ -11148,12 +11155,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J11" s="739" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K11" s="720"/>
       <c r="L11" s="720"/>
       <c r="N11" s="713" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O11" s="730" t="str">
         <f>D3</f>
@@ -11178,7 +11185,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J12" s="739" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K12" s="720"/>
       <c r="L12" s="720"/>
@@ -11205,7 +11212,7 @@
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="988" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B13" s="511" t="str">
         <f>B3</f>
@@ -11224,7 +11231,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J13" s="739" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K13" s="720"/>
       <c r="L13" s="720"/>
@@ -11252,20 +11259,20 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="989"/>
       <c r="B14" s="514" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C14" s="525" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" s="699" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I14" s="738" t="str">
         <f t="shared" ref="I14:I17" si="3">$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J14" s="739" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K14" s="720"/>
       <c r="L14" s="720"/>
@@ -11292,7 +11299,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="513" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="520"/>
       <c r="C15" s="520"/>
@@ -11302,12 +11309,12 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J15" s="739" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K15" s="720"/>
       <c r="L15" s="720"/>
       <c r="N15" s="713" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O15" s="713">
         <f>SUM(O12:O14)</f>
@@ -11328,7 +11335,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="513" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" s="520"/>
       <c r="C16" s="520"/>
@@ -11338,14 +11345,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J16" s="739" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K16" s="720"/>
       <c r="L16" s="720"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="513" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" s="520"/>
       <c r="C17" s="520"/>
@@ -11355,14 +11362,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J17" s="739" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K17" s="720"/>
       <c r="L17" s="720"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B18" s="520"/>
       <c r="C18" s="520"/>
@@ -11370,7 +11377,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="515" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" s="520"/>
       <c r="C19" s="520"/>
@@ -11378,10 +11385,10 @@
     </row>
     <row r="21" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="502" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" s="978" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C21" s="979"/>
       <c r="D21" s="979"/>
@@ -11391,7 +11398,7 @@
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B22" s="980" t="str">
         <f>B3</f>
@@ -11412,45 +11419,45 @@
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
       <c r="B23" s="609" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C23" s="518" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="518" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="518" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="518" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" s="518" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" s="725" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="518" t="s">
-        <v>330</v>
-      </c>
-      <c r="E23" s="518" t="s">
+      <c r="O23" s="725" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q23" s="725" t="s">
         <v>363</v>
       </c>
-      <c r="F23" s="518" t="s">
-        <v>330</v>
-      </c>
-      <c r="G23" s="518" t="s">
+      <c r="R23" s="725" t="s">
+        <v>329</v>
+      </c>
+      <c r="T23" s="725" t="s">
         <v>363</v>
       </c>
-      <c r="N23" s="725" t="s">
-        <v>364</v>
-      </c>
-      <c r="O23" s="725" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q23" s="725" t="s">
-        <v>364</v>
-      </c>
-      <c r="R23" s="725" t="s">
-        <v>330</v>
-      </c>
-      <c r="T23" s="725" t="s">
-        <v>364</v>
-      </c>
       <c r="U23" s="725" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="572" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" s="605"/>
       <c r="C24" s="605"/>
@@ -11475,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="713" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U24" s="727">
         <f>D24</f>
@@ -11484,7 +11491,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="579" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B25" s="606"/>
       <c r="C25" s="606"/>
@@ -11509,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="713" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U25" s="727">
         <f>B24</f>
@@ -11518,7 +11525,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="573" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B26" s="607"/>
       <c r="C26" s="607"/>
@@ -11545,7 +11552,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="573" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B27" s="607"/>
       <c r="C27" s="607"/>
@@ -11572,7 +11579,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="573" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B28" s="607"/>
       <c r="C28" s="607"/>
@@ -11599,7 +11606,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="573" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B29" s="607"/>
       <c r="C29" s="607"/>
@@ -11626,7 +11633,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="583" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B30" s="607"/>
       <c r="C30" s="607"/>
@@ -11637,10 +11644,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N31" s="713" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O31" s="713" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P31" s="705"/>
       <c r="Q31" s="705"/>
@@ -11677,7 +11684,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N33" s="713" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O33" s="720">
         <f>D25</f>
@@ -11736,10 +11743,10 @@
     </row>
     <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="521" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="521" t="s">
         <v>326</v>
-      </c>
-      <c r="B35" s="521" t="s">
-        <v>327</v>
       </c>
       <c r="C35" s="522" t="str">
         <f>B3</f>
@@ -11786,7 +11793,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="524" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="585"/>
       <c r="D36" s="585"/>
@@ -11821,10 +11828,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="523" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="524" t="s">
         <v>339</v>
-      </c>
-      <c r="B37" s="524" t="s">
-        <v>340</v>
       </c>
       <c r="C37" s="604"/>
       <c r="D37" s="604"/>
@@ -11832,7 +11839,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="519" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B41" s="986" t="str">
         <f>B3</f>
@@ -11851,46 +11858,46 @@
       <c r="G41" s="975"/>
       <c r="N41" s="705"/>
       <c r="O41" s="732" t="s">
+        <v>457</v>
+      </c>
+      <c r="P41" s="732" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q41" s="713" t="s">
         <v>458</v>
       </c>
-      <c r="P41" s="732" t="s">
+      <c r="R41" s="713" t="s">
         <v>461</v>
       </c>
-      <c r="Q41" s="713" t="s">
+      <c r="S41" s="713" t="s">
         <v>459</v>
       </c>
-      <c r="R41" s="713" t="s">
+      <c r="T41" s="713" t="s">
         <v>462</v>
-      </c>
-      <c r="S41" s="713" t="s">
-        <v>460</v>
-      </c>
-      <c r="T41" s="713" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="519"/>
       <c r="B42" s="519" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="519" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="519" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" s="519" t="s">
+        <v>345</v>
+      </c>
+      <c r="F42" s="519" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" s="519" t="s">
+        <v>345</v>
+      </c>
+      <c r="N42" s="731" t="s">
         <v>373</v>
-      </c>
-      <c r="C42" s="519" t="s">
-        <v>346</v>
-      </c>
-      <c r="D42" s="519" t="s">
-        <v>373</v>
-      </c>
-      <c r="E42" s="519" t="s">
-        <v>346</v>
-      </c>
-      <c r="F42" s="519" t="s">
-        <v>373</v>
-      </c>
-      <c r="G42" s="519" t="s">
-        <v>346</v>
-      </c>
-      <c r="N42" s="731" t="s">
-        <v>374</v>
       </c>
       <c r="O42" s="720">
         <f>C43</f>
@@ -11919,7 +11926,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="513" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" s="520"/>
       <c r="C43" s="520"/>
@@ -11928,7 +11935,7 @@
       <c r="F43" s="582"/>
       <c r="G43" s="582"/>
       <c r="N43" s="713" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O43" s="720">
         <f>B44</f>
@@ -11957,7 +11964,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="576" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44" s="580"/>
       <c r="C44" s="580"/>
@@ -11968,7 +11975,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="576" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" s="580"/>
       <c r="C45" s="580"/>
@@ -11979,7 +11986,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="576" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" s="580"/>
       <c r="C46" s="580"/>
@@ -11990,7 +11997,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="576" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" s="580"/>
       <c r="C47" s="580"/>
@@ -12001,7 +12008,7 @@
     </row>
     <row r="48" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="576" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" s="580"/>
       <c r="C48" s="580"/>
@@ -12012,7 +12019,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="576" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="580"/>
       <c r="C49" s="580"/>
@@ -12023,7 +12030,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="576" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B50" s="580"/>
       <c r="C50" s="580"/>
@@ -12034,7 +12041,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="576" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" s="580"/>
       <c r="C51" s="580"/>
@@ -12045,32 +12052,32 @@
     </row>
     <row r="53" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="728" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B53" s="526" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C53" s="526" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="710" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E53" s="710" t="s">
+        <v>511</v>
+      </c>
+      <c r="F53" s="710" t="s">
         <v>512</v>
       </c>
-      <c r="F53" s="710" t="s">
-        <v>513</v>
-      </c>
       <c r="H53" s="966" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I53" s="966"/>
       <c r="J53" s="966"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="701" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
@@ -12083,7 +12090,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="701" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
@@ -12100,7 +12107,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="701" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
@@ -12117,7 +12124,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="701" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
@@ -12134,7 +12141,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="701" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
@@ -12151,7 +12158,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="701" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
@@ -12168,7 +12175,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="701" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
@@ -12185,7 +12192,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="701" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" s="582"/>
       <c r="C61" s="582"/>
@@ -12202,7 +12209,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="701" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
@@ -12219,25 +12226,25 @@
     </row>
     <row r="63" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="729" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B63" s="527" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C63" s="527" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D63" s="710" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E63" s="710" t="s">
+        <v>511</v>
+      </c>
+      <c r="F63" s="710" t="s">
         <v>512</v>
       </c>
-      <c r="F63" s="710" t="s">
+      <c r="H63" s="966" t="s">
         <v>513</v>
-      </c>
-      <c r="H63" s="966" t="s">
-        <v>514</v>
       </c>
       <c r="I63" s="966"/>
       <c r="J63" s="966"/>
@@ -12245,7 +12252,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="701" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B64" s="581"/>
       <c r="C64" s="581"/>
@@ -12264,7 +12271,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="701" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B65" s="582"/>
       <c r="C65" s="582"/>
@@ -12283,7 +12290,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="701" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B66" s="582"/>
       <c r="C66" s="582"/>
@@ -12302,7 +12309,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="701" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B67" s="582"/>
       <c r="C67" s="582"/>
@@ -12321,7 +12328,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="701" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B68" s="582"/>
       <c r="C68" s="582"/>
@@ -12340,7 +12347,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="701" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="582"/>
       <c r="C69" s="582"/>
@@ -12359,7 +12366,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="701" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B70" s="582"/>
       <c r="C70" s="582"/>
@@ -12378,7 +12385,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="702" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="703"/>
       <c r="C71" s="703"/>
@@ -12397,7 +12404,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="704" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B72" s="705"/>
       <c r="C72" s="705"/>
@@ -12416,7 +12423,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="502" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I73" s="708"/>
       <c r="J73" s="708"/>
@@ -12425,10 +12432,10 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="623" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B74" s="985" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C74" s="985"/>
       <c r="D74" s="985"/>
@@ -12440,22 +12447,22 @@
     </row>
     <row r="75" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="530" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B75" s="608" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C75" s="531"/>
       <c r="D75" s="608" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E75" s="532"/>
       <c r="F75" s="533" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G75" s="534"/>
       <c r="H75" s="533" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I75" s="529"/>
       <c r="J75" s="733"/>
@@ -12498,7 +12505,7 @@
     </row>
     <row r="77" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="617" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B77" s="620"/>
       <c r="C77" s="593"/>
@@ -12511,7 +12518,7 @@
       <c r="J77" s="735"/>
       <c r="K77" s="735"/>
       <c r="N77" s="718" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O77" s="718" t="str">
         <f>D3</f>
@@ -12522,7 +12529,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="Q77" s="719" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R77" s="737" t="str">
         <f>$D$3</f>
@@ -12535,7 +12542,7 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="618" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B78" s="611"/>
       <c r="C78" s="594"/>
@@ -12548,7 +12555,7 @@
       <c r="J78" s="735"/>
       <c r="K78" s="735"/>
       <c r="N78" s="713" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O78" s="720">
         <f t="shared" ref="O78:O83" si="10">H77</f>
@@ -12559,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="713" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R78" s="720">
         <f t="shared" ref="R78:R83" si="12">F77</f>
@@ -12572,7 +12579,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="618" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" s="611"/>
       <c r="C79" s="594"/>
@@ -12585,7 +12592,7 @@
       <c r="J79" s="735"/>
       <c r="K79" s="735"/>
       <c r="N79" s="721" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O79" s="720">
         <f t="shared" si="10"/>
@@ -12596,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="721" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R79" s="720">
         <f t="shared" si="12"/>
@@ -12609,7 +12616,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="618" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B80" s="611"/>
       <c r="C80" s="594"/>
@@ -12622,7 +12629,7 @@
       <c r="J80" s="735"/>
       <c r="K80" s="735"/>
       <c r="N80" s="721" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O80" s="720">
         <f t="shared" si="10"/>
@@ -12633,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="721" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R80" s="720">
         <f t="shared" si="12"/>
@@ -12646,7 +12653,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="618" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B81" s="613"/>
       <c r="C81" s="594"/>
@@ -12659,7 +12666,7 @@
       <c r="J81" s="736"/>
       <c r="K81" s="736"/>
       <c r="N81" s="721" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O81" s="720">
         <f t="shared" si="10"/>
@@ -12670,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="721" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R81" s="720">
         <f t="shared" si="12"/>
@@ -12683,7 +12690,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="619" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B82" s="615"/>
       <c r="C82" s="595"/>
@@ -12696,7 +12703,7 @@
       <c r="J82" s="736"/>
       <c r="K82" s="736"/>
       <c r="N82" s="721" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O82" s="720">
         <f t="shared" si="10"/>
@@ -12707,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="721" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R82" s="720">
         <f t="shared" si="12"/>
@@ -12720,7 +12727,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N83" s="721" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O83" s="720">
         <f t="shared" si="10"/>
@@ -12731,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="721" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R83" s="720">
         <f t="shared" si="12"/>
@@ -12744,7 +12751,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="536" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -12767,19 +12774,19 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
       <c r="B86" s="927" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C86" s="928"/>
       <c r="D86" s="927" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E86" s="928"/>
       <c r="F86" s="927" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G86" s="928"/>
       <c r="N86" s="713" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O86" s="737" t="str">
         <f>F3</f>
@@ -12817,7 +12824,7 @@
         <v>70</v>
       </c>
       <c r="N87" s="715" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O87" s="713">
         <f t="shared" ref="O87:P94" si="14">C88</f>
@@ -12834,7 +12841,7 @@
     </row>
     <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="537" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B88" s="590">
         <v>100</v>
@@ -12849,7 +12856,7 @@
       </c>
       <c r="G88" s="568"/>
       <c r="N88" s="716" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O88" s="713">
         <f t="shared" si="14"/>
@@ -12866,7 +12873,7 @@
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="538" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B89" s="590"/>
       <c r="C89" s="520"/>
@@ -12875,7 +12882,7 @@
       <c r="F89" s="590"/>
       <c r="G89" s="582"/>
       <c r="N89" s="715" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O89" s="713">
         <f t="shared" si="14"/>
@@ -12892,7 +12899,7 @@
     </row>
     <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="537" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B90" s="590">
         <v>100</v>
@@ -12907,7 +12914,7 @@
       </c>
       <c r="G90" s="568"/>
       <c r="N90" s="716" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O90" s="713">
         <f t="shared" si="14"/>
@@ -12924,7 +12931,7 @@
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="538" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B91" s="591"/>
       <c r="C91" s="520"/>
@@ -12933,7 +12940,7 @@
       <c r="F91" s="591"/>
       <c r="G91" s="582"/>
       <c r="N91" s="716" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O91" s="713">
         <f t="shared" si="14"/>
@@ -12950,7 +12957,7 @@
     </row>
     <row r="92" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B92" s="591"/>
       <c r="C92" s="520"/>
@@ -12959,7 +12966,7 @@
       <c r="F92" s="591"/>
       <c r="G92" s="582"/>
       <c r="N92" s="717" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O92" s="713">
         <f t="shared" si="14"/>
@@ -12976,7 +12983,7 @@
     </row>
     <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="539" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B93" s="592">
         <v>100</v>
@@ -12991,7 +12998,7 @@
       </c>
       <c r="G93" s="568"/>
       <c r="N93" s="716" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O93" s="713">
         <f t="shared" si="14"/>
@@ -13008,7 +13015,7 @@
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="538" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B94" s="591"/>
       <c r="C94" s="520"/>
@@ -13017,7 +13024,7 @@
       <c r="F94" s="591"/>
       <c r="G94" s="582"/>
       <c r="N94" s="716" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O94" s="713">
         <f t="shared" si="14"/>
@@ -13034,7 +13041,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B95" s="591"/>
       <c r="C95" s="520"/>
@@ -13054,7 +13061,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="536" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -13077,15 +13084,15 @@
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
       <c r="B102" s="927" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C102" s="928"/>
       <c r="D102" s="927" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E102" s="928"/>
       <c r="F102" s="927" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G102" s="928"/>
     </row>
@@ -13112,7 +13119,7 @@
         <v>70</v>
       </c>
       <c r="N103" s="713" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O103" s="737" t="str">
         <f>$F$3</f>
@@ -13129,7 +13136,7 @@
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="537" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B104" s="590">
         <v>100</v>
@@ -13144,7 +13151,7 @@
       </c>
       <c r="G104" s="568"/>
       <c r="N104" s="537" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O104" s="707">
         <f t="shared" ref="O104:P111" si="16">C104</f>
@@ -13161,7 +13168,7 @@
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="538" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B105" s="590"/>
       <c r="C105" s="520"/>
@@ -13170,7 +13177,7 @@
       <c r="F105" s="590"/>
       <c r="G105" s="582"/>
       <c r="N105" s="538" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O105" s="707">
         <f t="shared" si="16"/>
@@ -13187,7 +13194,7 @@
     </row>
     <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="537" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B106" s="590">
         <v>100</v>
@@ -13202,7 +13209,7 @@
       </c>
       <c r="G106" s="568"/>
       <c r="N106" s="537" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O106" s="707">
         <f t="shared" si="16"/>
@@ -13219,7 +13226,7 @@
     </row>
     <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="538" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B107" s="591"/>
       <c r="C107" s="520"/>
@@ -13228,7 +13235,7 @@
       <c r="F107" s="591"/>
       <c r="G107" s="582"/>
       <c r="N107" s="538" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O107" s="707">
         <f t="shared" si="16"/>
@@ -13245,7 +13252,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B108" s="591"/>
       <c r="C108" s="520"/>
@@ -13254,7 +13261,7 @@
       <c r="F108" s="591"/>
       <c r="G108" s="582"/>
       <c r="N108" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O108" s="707">
         <f t="shared" si="16"/>
@@ -13271,7 +13278,7 @@
     </row>
     <row r="109" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="539" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B109" s="592">
         <v>100</v>
@@ -13286,7 +13293,7 @@
       </c>
       <c r="G109" s="568"/>
       <c r="N109" s="539" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O109" s="707">
         <f t="shared" si="16"/>
@@ -13303,7 +13310,7 @@
     </row>
     <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="538" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B110" s="591"/>
       <c r="C110" s="520"/>
@@ -13312,7 +13319,7 @@
       <c r="F110" s="591"/>
       <c r="G110" s="582"/>
       <c r="N110" s="538" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O110" s="707">
         <f t="shared" si="16"/>
@@ -13329,7 +13336,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B111" s="591"/>
       <c r="C111" s="520"/>
@@ -13338,7 +13345,7 @@
       <c r="F111" s="591"/>
       <c r="G111" s="582"/>
       <c r="N111" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O111" s="707">
         <f t="shared" si="16"/>
@@ -13364,7 +13371,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="536" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -13387,15 +13394,15 @@
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
       <c r="B117" s="969" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C117" s="970"/>
       <c r="D117" s="969" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E117" s="970"/>
       <c r="F117" s="969" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G117" s="970"/>
     </row>
@@ -13425,7 +13432,7 @@
       <c r="J118" s="569"/>
       <c r="K118" s="569"/>
       <c r="N118" s="713" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O118" s="737" t="str">
         <f>$F$3</f>
@@ -13442,7 +13449,7 @@
     </row>
     <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="537" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" s="590">
         <v>100</v>
@@ -13460,7 +13467,7 @@
       <c r="J119" s="569"/>
       <c r="K119" s="569"/>
       <c r="N119" s="537" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O119" s="707">
         <f t="shared" ref="O119:P126" si="18">D119</f>
@@ -13477,7 +13484,7 @@
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="538" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" s="590"/>
       <c r="C120" s="520"/>
@@ -13489,7 +13496,7 @@
       <c r="J120" s="569"/>
       <c r="K120" s="569"/>
       <c r="N120" s="538" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O120" s="707">
         <f t="shared" si="18"/>
@@ -13506,7 +13513,7 @@
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="537" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" s="590">
         <v>100</v>
@@ -13524,7 +13531,7 @@
       <c r="J121" s="569"/>
       <c r="K121" s="569"/>
       <c r="N121" s="537" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O121" s="707">
         <f t="shared" si="18"/>
@@ -13541,7 +13548,7 @@
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="538" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" s="591"/>
       <c r="C122" s="520"/>
@@ -13553,7 +13560,7 @@
       <c r="J122" s="569"/>
       <c r="K122" s="569"/>
       <c r="N122" s="538" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O122" s="707">
         <f t="shared" si="18"/>
@@ -13570,7 +13577,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B123" s="591"/>
       <c r="C123" s="520"/>
@@ -13582,7 +13589,7 @@
       <c r="J123" s="569"/>
       <c r="K123" s="569"/>
       <c r="N123" s="538" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O123" s="626">
         <f t="shared" si="18"/>
@@ -13599,7 +13606,7 @@
     </row>
     <row r="124" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="539" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B124" s="592">
         <v>100</v>
@@ -13617,7 +13624,7 @@
       <c r="J124" s="569"/>
       <c r="K124" s="569"/>
       <c r="N124" s="539" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O124" s="626">
         <f t="shared" si="18"/>
@@ -13634,7 +13641,7 @@
     </row>
     <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="538" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B125" s="591"/>
       <c r="C125" s="520"/>
@@ -13646,7 +13653,7 @@
       <c r="J125" s="569"/>
       <c r="K125" s="569"/>
       <c r="N125" s="538" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O125" s="626">
         <f t="shared" si="18"/>
@@ -13663,7 +13670,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B126" s="591"/>
       <c r="C126" s="520"/>
@@ -13672,7 +13679,7 @@
       <c r="F126" s="591"/>
       <c r="G126" s="582"/>
       <c r="N126" s="538" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O126" s="626">
         <f t="shared" si="18"/>
@@ -13698,7 +13705,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="546" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B129" s="982" t="str">
         <f>B3</f>
@@ -13707,7 +13714,7 @@
       <c r="C129" s="983"/>
       <c r="D129" s="983"/>
       <c r="N129" s="713" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O129" s="737" t="str">
         <f>$F$3</f>
@@ -13731,7 +13738,7 @@
         <v>70</v>
       </c>
       <c r="D130" s="549" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N130" s="713" t="str">
         <f>CONCATENATE("Collection 
@@ -13754,7 +13761,7 @@
     </row>
     <row r="131" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="550" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B131" s="588">
         <v>100</v>
@@ -13782,7 +13789,7 @@
     </row>
     <row r="132" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="513" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B132" s="588"/>
       <c r="C132" s="520"/>
@@ -13808,7 +13815,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="513" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B133" s="588"/>
       <c r="C133" s="520"/>
@@ -13816,7 +13823,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="513" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B134" s="588"/>
       <c r="C134" s="520"/>
@@ -13824,7 +13831,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="513" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B135" s="588"/>
       <c r="C135" s="520"/>
@@ -13832,7 +13839,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="513" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B136" s="588"/>
       <c r="C136" s="520"/>
@@ -13840,7 +13847,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="513" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B137" s="588"/>
       <c r="C137" s="520"/>
@@ -13848,7 +13855,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="513" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B138" s="588"/>
       <c r="C138" s="520"/>
@@ -13856,7 +13863,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="513" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B139" s="588"/>
       <c r="C139" s="520"/>
@@ -13867,7 +13874,7 @@
     </row>
     <row r="147" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B147" s="553"/>
       <c r="C147" s="554" t="str">
@@ -13885,7 +13892,7 @@
     </row>
     <row r="148" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="556" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B148" s="556" t="s">
         <v>73</v>
@@ -13894,7 +13901,7 @@
       <c r="D148" s="587"/>
       <c r="E148" s="587"/>
       <c r="N148" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O148" s="553"/>
       <c r="P148" s="555" t="str">
@@ -13908,7 +13915,7 @@
     </row>
     <row r="149" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="556" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B149" s="556" t="s">
         <v>73</v>
@@ -13917,7 +13924,7 @@
       <c r="D149" s="587"/>
       <c r="E149" s="587"/>
       <c r="N149" s="556" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O149" s="556" t="s">
         <v>73</v>
@@ -13927,7 +13934,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>73</v>
@@ -13936,7 +13943,7 @@
       <c r="D150" s="587"/>
       <c r="E150" s="587"/>
       <c r="N150" s="556" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O150" s="556" t="s">
         <v>73</v>
@@ -13946,7 +13953,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>73</v>
@@ -13955,7 +13962,7 @@
       <c r="D151" s="587"/>
       <c r="E151" s="587"/>
       <c r="N151" s="556" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O151" s="556" t="s">
         <v>73</v>
@@ -13965,7 +13972,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="556" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B152" s="556" t="s">
         <v>73</v>
@@ -13974,7 +13981,7 @@
       <c r="D152" s="587"/>
       <c r="E152" s="587"/>
       <c r="N152" s="556" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O152" s="556" t="s">
         <v>73</v>
@@ -13984,7 +13991,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="556" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B153" s="556" t="s">
         <v>73</v>
@@ -13995,7 +14002,7 @@
     </row>
     <row r="154" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="556" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B154" s="556" t="s">
         <v>73</v>
@@ -14004,7 +14011,7 @@
       <c r="D154" s="587"/>
       <c r="E154" s="587"/>
       <c r="N154" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O154" s="553"/>
       <c r="P154" s="555" t="str">
@@ -14018,7 +14025,7 @@
     </row>
     <row r="155" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="556" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B155" s="556" t="s">
         <v>73</v>
@@ -14027,7 +14034,7 @@
       <c r="D155" s="587"/>
       <c r="E155" s="587"/>
       <c r="N155" s="556" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O155" s="556" t="s">
         <v>73</v>
@@ -14038,7 +14045,7 @@
     <row r="156" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D156" s="528"/>
       <c r="N156" s="556" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O156" s="556" t="s">
         <v>73</v>
@@ -14049,7 +14056,7 @@
     <row r="157" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="528"/>
       <c r="N157" s="556" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O157" s="556" t="s">
         <v>73</v>
@@ -14059,7 +14066,7 @@
     </row>
     <row r="158" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B158" s="552"/>
       <c r="C158" s="555" t="str">
@@ -14075,7 +14082,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="N158" s="556" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O158" s="556" t="s">
         <v>73</v>
@@ -14105,7 +14112,7 @@
       <c r="D160" s="589"/>
       <c r="E160" s="589"/>
       <c r="N160" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O160" s="552"/>
       <c r="P160" s="555" t="str">
@@ -14203,7 +14210,7 @@
     </row>
     <row r="165" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A165" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B165" s="558"/>
       <c r="C165" s="554" t="str">
@@ -14221,7 +14228,7 @@
     </row>
     <row r="166" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="556" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B166" s="556" t="s">
         <v>161</v>
@@ -14232,7 +14239,7 @@
     </row>
     <row r="168" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B168" s="553"/>
       <c r="C168" s="554" t="str">
@@ -14250,7 +14257,7 @@
     </row>
     <row r="169" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="556" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B169" s="556" t="s">
         <v>162</v>
@@ -14259,7 +14266,7 @@
       <c r="D169" s="589"/>
       <c r="E169" s="589"/>
       <c r="N169" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O169" s="553"/>
       <c r="P169" s="555" t="str">
@@ -14273,7 +14280,7 @@
     </row>
     <row r="170" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="556" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B170" s="556" t="s">
         <v>162</v>
@@ -14282,7 +14289,7 @@
       <c r="D170" s="589"/>
       <c r="E170" s="589"/>
       <c r="N170" s="556" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O170" s="556" t="s">
         <v>162</v>
@@ -14298,7 +14305,7 @@
     </row>
     <row r="171" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="556" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B171" s="556" t="s">
         <v>162</v>
@@ -14307,7 +14314,7 @@
       <c r="D171" s="589"/>
       <c r="E171" s="589"/>
       <c r="N171" s="556" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O171" s="556" t="s">
         <v>162</v>
@@ -14323,7 +14330,7 @@
     </row>
     <row r="172" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="556" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B172" s="556" t="s">
         <v>162</v>
@@ -14332,7 +14339,7 @@
       <c r="D172" s="589"/>
       <c r="E172" s="589"/>
       <c r="N172" s="556" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O172" s="556" t="s">
         <v>162</v>
@@ -14348,7 +14355,7 @@
     </row>
     <row r="173" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="556" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B173" s="556" t="s">
         <v>162</v>
@@ -14357,7 +14364,7 @@
       <c r="D173" s="589"/>
       <c r="E173" s="589"/>
       <c r="N173" s="556" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O173" s="556" t="s">
         <v>162</v>
@@ -14373,7 +14380,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="556" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B174" s="556" t="s">
         <v>162</v>
@@ -14384,7 +14391,7 @@
     </row>
     <row r="175" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="556" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B175" s="556" t="s">
         <v>162</v>
@@ -14393,7 +14400,7 @@
       <c r="D175" s="589"/>
       <c r="E175" s="589"/>
       <c r="N175" s="552" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O175" s="553"/>
       <c r="P175" s="555" t="str">
@@ -14407,7 +14414,7 @@
     </row>
     <row r="176" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="556" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B176" s="556" t="s">
         <v>162</v>
@@ -14416,7 +14423,7 @@
       <c r="D176" s="589"/>
       <c r="E176" s="589"/>
       <c r="N176" s="556" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O176" s="556" t="s">
         <v>162</v>
@@ -14432,7 +14439,7 @@
     </row>
     <row r="177" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N177" s="556" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O177" s="556" t="s">
         <v>162</v>
@@ -14448,7 +14455,7 @@
     </row>
     <row r="178" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N178" s="556" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O178" s="556" t="s">
         <v>162</v>
@@ -14464,7 +14471,7 @@
     </row>
     <row r="179" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N179" s="556" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O179" s="556" t="s">
         <v>162</v>
@@ -14543,7 +14550,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="627" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14553,16 +14560,16 @@
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="631" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="631" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="631" t="s">
+      <c r="C5" s="631" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="631" t="s">
         <v>438</v>
-      </c>
-      <c r="C5" s="631" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="631" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15351,7 +15358,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="636" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15359,16 +15366,16 @@
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="637" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="637" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="637" t="s">
-        <v>438</v>
-      </c>
       <c r="C5" s="765" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="637" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15407,27 +15414,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="643" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="644" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="644" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="644" t="s">
+      <c r="C4" s="644" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="644" t="s">
+      <c r="D4" s="644" t="s">
         <v>445</v>
       </c>
-      <c r="D4" s="644" t="s">
+      <c r="E4" s="644" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="644" t="s">
-        <v>447</v>
-      </c>
       <c r="F4" s="644" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -17920,7 +17927,7 @@
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="825" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" s="826"/>
       <c r="C4" s="826"/>
@@ -17973,7 +17980,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="795" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="828" t="s">
         <v>27</v>
@@ -58269,7 +58276,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="649" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -58280,25 +58287,25 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="651" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="651" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="651" t="s">
+      <c r="C5" s="765" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="651" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="765" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="651" t="s">
+      <c r="E5" s="651" t="s">
         <v>445</v>
       </c>
-      <c r="E5" s="651" t="s">
-        <v>446</v>
-      </c>
       <c r="F5" s="765" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5" s="651" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -58469,16 +58476,16 @@
         <v>26</v>
       </c>
       <c r="C1" s="823" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="766" t="s">
         <v>597</v>
       </c>
-      <c r="D1" s="766" t="s">
+      <c r="E1" s="766" t="s">
         <v>598</v>
       </c>
-      <c r="E1" s="766" t="s">
-        <v>599</v>
-      </c>
       <c r="F1" s="661" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G1" s="661" t="s">
         <v>50</v>
@@ -58691,7 +58698,7 @@
       <c r="F1" s="866"/>
       <c r="G1" s="866"/>
       <c r="H1" s="867" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I1" s="868"/>
       <c r="J1" s="868"/>
@@ -58743,7 +58750,7 @@
       <c r="AV1" s="848"/>
       <c r="AW1" s="849"/>
       <c r="AX1" s="856" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AY1" s="857"/>
       <c r="AZ1" s="857"/>
@@ -58822,7 +58829,7 @@
         <v>96</v>
       </c>
       <c r="H2" s="841" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I2" s="842"/>
       <c r="J2" s="842" t="s">
@@ -58867,10 +58874,10 @@
         <v>103</v>
       </c>
       <c r="Y2" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z2" s="63" t="s">
         <v>516</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>517</v>
       </c>
       <c r="AA2" s="64" t="s">
         <v>106</v>
@@ -58903,10 +58910,10 @@
         <v>114</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AL2" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM2" s="67" t="s">
         <v>115</v>
@@ -58936,7 +58943,7 @@
         <v>123</v>
       </c>
       <c r="AV2" s="58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AW2" s="59" t="s">
         <v>124</v>
@@ -59710,13 +59717,13 @@
         <v>168</v>
       </c>
       <c r="N1" s="901" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O1" s="902"/>
       <c r="P1" s="902"/>
       <c r="Q1" s="902"/>
       <c r="R1" s="903" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S1" s="896"/>
       <c r="T1" s="896"/>
@@ -59725,7 +59732,7 @@
       <c r="W1" s="896"/>
       <c r="X1" s="904"/>
       <c r="Y1" s="890" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z1" s="860"/>
       <c r="AA1" s="905" t="s">
@@ -59754,7 +59761,7 @@
         <v>173</v>
       </c>
       <c r="AP1" s="890" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AQ1" s="860"/>
       <c r="AR1" s="860"/>
@@ -59794,13 +59801,13 @@
         <v>175</v>
       </c>
       <c r="BX1" s="890" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BY1" s="860"/>
       <c r="BZ1" s="860"/>
       <c r="CA1" s="861"/>
       <c r="CB1" s="889" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="CC1" s="891" t="s">
         <v>84</v>
@@ -59882,7 +59889,7 @@
         <v>183</v>
       </c>
       <c r="S2" s="907" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T2" s="855"/>
       <c r="U2" s="908" t="s">
@@ -60043,16 +60050,16 @@
         <v>35</v>
       </c>
       <c r="CL2" s="140" t="s">
+        <v>520</v>
+      </c>
+      <c r="CM2" s="140" t="s">
         <v>521</v>
-      </c>
-      <c r="CM2" s="140" t="s">
-        <v>522</v>
       </c>
       <c r="CN2" s="140" t="s">
         <v>44</v>
       </c>
       <c r="CO2" s="140" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="CP2" s="888" t="s">
         <v>216</v>
@@ -61139,7 +61146,7 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -61168,19 +61175,19 @@
       <c r="F1" s="143"/>
       <c r="G1" s="143"/>
       <c r="H1" s="916" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I1" s="916"/>
       <c r="J1" s="916"/>
       <c r="K1" s="916"/>
       <c r="L1" s="915" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M1" s="915"/>
       <c r="N1" s="915"/>
       <c r="O1" s="915"/>
     </row>
-    <row r="2" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
         <v>90</v>
       </c>
@@ -61212,19 +61219,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L2" s="824" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M2" s="824" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2" s="824" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O2" s="824" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -61297,7 +61304,9 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -61318,7 +61327,7 @@
         <v>238</v>
       </c>
       <c r="C1" s="202" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
@@ -61502,7 +61511,7 @@
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V6" s="372"/>
       <c r="W6" s="372"/>
@@ -61513,7 +61522,7 @@
       <c r="Z6" s="372"/>
       <c r="AA6" s="372"/>
       <c r="AB6" s="377" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -61583,7 +61592,7 @@
     <row r="9" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="200"/>
       <c r="B9" s="216" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C9" s="920" t="s">
         <v>244</v>
@@ -61597,7 +61606,7 @@
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K9" s="920" t="s">
         <v>244</v>
@@ -61610,7 +61619,7 @@
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R9" s="920" t="s">
         <v>244</v>
@@ -61623,7 +61632,7 @@
       <c r="V9" s="372"/>
       <c r="W9" s="372"/>
       <c r="X9" s="216" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y9" s="920" t="s">
         <v>244</v>
@@ -61672,7 +61681,7 @@
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R10" s="218" t="s">
         <v>69</v>
@@ -61689,7 +61698,7 @@
       <c r="V10" s="372"/>
       <c r="W10" s="372"/>
       <c r="X10" s="217" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Y10" s="218" t="s">
         <v>69</v>
@@ -61753,7 +61762,7 @@
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
       <c r="B12" s="224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C12" s="300"/>
       <c r="D12" s="282"/>
@@ -61763,7 +61772,7 @@
       <c r="H12" s="222"/>
       <c r="I12" s="222"/>
       <c r="J12" s="224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K12" s="300"/>
       <c r="L12" s="282"/>
@@ -61772,7 +61781,7 @@
       <c r="O12" s="222"/>
       <c r="P12" s="222"/>
       <c r="Q12" s="224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R12" s="300"/>
       <c r="S12" s="282"/>
@@ -61781,7 +61790,7 @@
       <c r="V12" s="372"/>
       <c r="W12" s="372"/>
       <c r="X12" s="224" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Y12" s="300"/>
       <c r="Z12" s="282"/>
@@ -61791,7 +61800,7 @@
     <row r="13" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="200"/>
       <c r="B13" s="321" t="s">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="C13" s="301"/>
       <c r="D13" s="283"/>
@@ -61801,7 +61810,7 @@
       <c r="H13" s="222"/>
       <c r="I13" s="222"/>
       <c r="J13" s="321" t="s">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="K13" s="301"/>
       <c r="L13" s="283"/>
@@ -61810,7 +61819,7 @@
       <c r="O13" s="222"/>
       <c r="P13" s="222"/>
       <c r="Q13" s="321" t="s">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="R13" s="301"/>
       <c r="S13" s="283"/>
@@ -61819,7 +61828,7 @@
       <c r="V13" s="372"/>
       <c r="W13" s="372"/>
       <c r="X13" s="321" t="s">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="Y13" s="301"/>
       <c r="Z13" s="283"/>
@@ -61829,7 +61838,7 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="200"/>
       <c r="B14" s="225" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="301"/>
       <c r="D14" s="284"/>
@@ -61839,7 +61848,7 @@
       <c r="H14" s="222"/>
       <c r="I14" s="222"/>
       <c r="J14" s="225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K14" s="301"/>
       <c r="L14" s="284"/>
@@ -61848,7 +61857,7 @@
       <c r="O14" s="222"/>
       <c r="P14" s="222"/>
       <c r="Q14" s="225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R14" s="301"/>
       <c r="S14" s="284"/>
@@ -61857,7 +61866,7 @@
       <c r="V14" s="372"/>
       <c r="W14" s="372"/>
       <c r="X14" s="225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y14" s="301"/>
       <c r="Z14" s="284"/>
@@ -61867,7 +61876,7 @@
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="200"/>
       <c r="B15" s="226" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="227"/>
       <c r="D15" s="228"/>
@@ -61877,7 +61886,7 @@
       <c r="H15" s="230"/>
       <c r="I15" s="201"/>
       <c r="J15" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15" s="227"/>
       <c r="L15" s="228"/>
@@ -61886,7 +61895,7 @@
       <c r="O15" s="201"/>
       <c r="P15" s="201"/>
       <c r="Q15" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R15" s="227"/>
       <c r="S15" s="228"/>
@@ -61895,7 +61904,7 @@
       <c r="V15" s="372"/>
       <c r="W15" s="372"/>
       <c r="X15" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y15" s="269"/>
       <c r="Z15" s="270"/>
@@ -61905,7 +61914,7 @@
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="231"/>
       <c r="B16" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="233"/>
       <c r="D16" s="234"/>
@@ -61915,7 +61924,7 @@
       <c r="H16" s="230"/>
       <c r="I16" s="230"/>
       <c r="J16" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K16" s="233"/>
       <c r="L16" s="234"/>
@@ -61924,7 +61933,7 @@
       <c r="O16" s="201"/>
       <c r="P16" s="201"/>
       <c r="Q16" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R16" s="233"/>
       <c r="S16" s="234"/>
@@ -61933,7 +61942,7 @@
       <c r="V16" s="372"/>
       <c r="W16" s="372"/>
       <c r="X16" s="378" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y16" s="273"/>
       <c r="Z16" s="278"/>
@@ -61981,7 +61990,7 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="200"/>
       <c r="B18" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="242"/>
       <c r="D18" s="243"/>
@@ -61991,7 +62000,7 @@
       <c r="H18" s="230"/>
       <c r="I18" s="201"/>
       <c r="J18" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K18" s="242"/>
       <c r="L18" s="243"/>
@@ -62000,7 +62009,7 @@
       <c r="O18" s="201"/>
       <c r="P18" s="201"/>
       <c r="Q18" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R18" s="242"/>
       <c r="S18" s="243"/>
@@ -62009,7 +62018,7 @@
       <c r="V18" s="372"/>
       <c r="W18" s="372"/>
       <c r="X18" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y18" s="242"/>
       <c r="Z18" s="243"/>
@@ -62049,53 +62058,53 @@
     <row r="20" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="200"/>
       <c r="B20" s="220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
       <c r="E20" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="918"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
       <c r="J20" s="220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
       <c r="M20" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N20" s="918"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
       <c r="T20" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U20" s="918"/>
       <c r="V20" s="277"/>
       <c r="W20" s="277"/>
       <c r="X20" s="220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y20" s="302"/>
       <c r="Z20" s="249"/>
       <c r="AA20" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB20" s="918"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
       <c r="B21" s="250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="251"/>
       <c r="D21" s="252"/>
@@ -62105,7 +62114,7 @@
       <c r="H21" s="230"/>
       <c r="I21" s="201"/>
       <c r="J21" s="250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K21" s="251"/>
       <c r="L21" s="252"/>
@@ -62114,7 +62123,7 @@
       <c r="O21" s="240"/>
       <c r="P21" s="240"/>
       <c r="Q21" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R21" s="227"/>
       <c r="S21" s="228"/>
@@ -62123,7 +62132,7 @@
       <c r="V21" s="277"/>
       <c r="W21" s="277"/>
       <c r="X21" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y21" s="269"/>
       <c r="Z21" s="270"/>
@@ -62133,7 +62142,7 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="231"/>
       <c r="B22" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22" s="233"/>
       <c r="D22" s="234"/>
@@ -62143,7 +62152,7 @@
       <c r="H22" s="230"/>
       <c r="I22" s="240"/>
       <c r="J22" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K22" s="233"/>
       <c r="L22" s="234"/>
@@ -62152,7 +62161,7 @@
       <c r="O22" s="240"/>
       <c r="P22" s="240"/>
       <c r="Q22" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R22" s="233"/>
       <c r="S22" s="234"/>
@@ -62161,7 +62170,7 @@
       <c r="V22" s="277"/>
       <c r="W22" s="277"/>
       <c r="X22" s="378" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y22" s="273"/>
       <c r="Z22" s="278"/>
@@ -62171,7 +62180,7 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="200"/>
       <c r="B23" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" s="237"/>
       <c r="D23" s="238"/>
@@ -62181,7 +62190,7 @@
       <c r="H23" s="230"/>
       <c r="I23" s="201"/>
       <c r="J23" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K23" s="237"/>
       <c r="L23" s="238"/>
@@ -62190,7 +62199,7 @@
       <c r="O23" s="240"/>
       <c r="P23" s="240"/>
       <c r="Q23" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R23" s="237"/>
       <c r="S23" s="238"/>
@@ -62199,7 +62208,7 @@
       <c r="V23" s="277"/>
       <c r="W23" s="277"/>
       <c r="X23" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y23" s="237"/>
       <c r="Z23" s="238"/>
@@ -62209,7 +62218,7 @@
     <row r="24" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="200"/>
       <c r="B24" s="254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" s="237"/>
       <c r="D24" s="239"/>
@@ -62219,7 +62228,7 @@
       <c r="H24" s="230"/>
       <c r="I24" s="201"/>
       <c r="J24" s="254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K24" s="255"/>
       <c r="L24" s="238"/>
@@ -62228,7 +62237,7 @@
       <c r="O24" s="240"/>
       <c r="P24" s="240"/>
       <c r="Q24" s="254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R24" s="255"/>
       <c r="S24" s="238"/>
@@ -62237,7 +62246,7 @@
       <c r="V24" s="277"/>
       <c r="W24" s="277"/>
       <c r="X24" s="254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y24" s="255"/>
       <c r="Z24" s="238"/>
@@ -62247,7 +62256,7 @@
     <row r="25" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="200"/>
       <c r="B25" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" s="237"/>
       <c r="D25" s="239"/>
@@ -62257,7 +62266,7 @@
       <c r="H25" s="230"/>
       <c r="I25" s="201"/>
       <c r="J25" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K25" s="255"/>
       <c r="L25" s="238"/>
@@ -62266,7 +62275,7 @@
       <c r="O25" s="240"/>
       <c r="P25" s="240"/>
       <c r="Q25" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R25" s="255"/>
       <c r="S25" s="238"/>
@@ -62275,7 +62284,7 @@
       <c r="V25" s="277"/>
       <c r="W25" s="277"/>
       <c r="X25" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y25" s="255"/>
       <c r="Z25" s="238"/>
@@ -62285,7 +62294,7 @@
     <row r="26" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="200"/>
       <c r="B26" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="237"/>
       <c r="D26" s="239"/>
@@ -62295,7 +62304,7 @@
       <c r="H26" s="230"/>
       <c r="I26" s="201"/>
       <c r="J26" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K26" s="255"/>
       <c r="L26" s="246"/>
@@ -62304,7 +62313,7 @@
       <c r="O26" s="240"/>
       <c r="P26" s="240"/>
       <c r="Q26" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R26" s="255"/>
       <c r="S26" s="238"/>
@@ -62313,7 +62322,7 @@
       <c r="V26" s="277"/>
       <c r="W26" s="277"/>
       <c r="X26" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y26" s="255"/>
       <c r="Z26" s="238"/>
@@ -62323,7 +62332,7 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="200"/>
       <c r="B27" s="256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="237"/>
       <c r="D27" s="239"/>
@@ -62333,7 +62342,7 @@
       <c r="H27" s="230"/>
       <c r="I27" s="201"/>
       <c r="J27" s="256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K27" s="255"/>
       <c r="L27" s="239"/>
@@ -62342,7 +62351,7 @@
       <c r="O27" s="240"/>
       <c r="P27" s="240"/>
       <c r="Q27" s="254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R27" s="255"/>
       <c r="S27" s="238"/>
@@ -62351,7 +62360,7 @@
       <c r="V27" s="277"/>
       <c r="W27" s="277"/>
       <c r="X27" s="254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y27" s="255"/>
       <c r="Z27" s="238"/>
@@ -62361,7 +62370,7 @@
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="200"/>
       <c r="B28" s="303" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C28" s="242"/>
       <c r="D28" s="244"/>
@@ -62371,7 +62380,7 @@
       <c r="H28" s="230"/>
       <c r="I28" s="201"/>
       <c r="J28" s="303" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K28" s="242"/>
       <c r="L28" s="244"/>
@@ -62380,7 +62389,7 @@
       <c r="O28" s="240"/>
       <c r="P28" s="240"/>
       <c r="Q28" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R28" s="242"/>
       <c r="S28" s="243"/>
@@ -62389,7 +62398,7 @@
       <c r="V28" s="277"/>
       <c r="W28" s="277"/>
       <c r="X28" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y28" s="242"/>
       <c r="Z28" s="243"/>
@@ -62429,53 +62438,53 @@
     <row r="30" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="200"/>
       <c r="B30" s="220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
       <c r="E30" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="918"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
       <c r="J30" s="220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
       <c r="M30" s="917" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N30" s="918"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
       <c r="T30" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U30" s="918"/>
       <c r="V30" s="277"/>
       <c r="W30" s="277"/>
       <c r="X30" s="220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y30" s="302"/>
       <c r="Z30" s="249"/>
       <c r="AA30" s="917" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB30" s="918"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
       <c r="B31" s="250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="263"/>
       <c r="D31" s="264"/>
@@ -62485,24 +62494,24 @@
       <c r="H31" s="266"/>
       <c r="I31" s="267"/>
       <c r="J31" s="304" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K31" s="305" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L31" s="306" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M31" s="306" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N31" s="306" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O31" s="268"/>
       <c r="P31" s="268"/>
       <c r="Q31" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R31" s="269"/>
       <c r="S31" s="270"/>
@@ -62511,7 +62520,7 @@
       <c r="V31" s="379"/>
       <c r="W31" s="379"/>
       <c r="X31" s="226" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y31" s="269"/>
       <c r="Z31" s="270"/>
@@ -62521,7 +62530,7 @@
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="272"/>
       <c r="B32" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="273"/>
       <c r="D32" s="274"/>
@@ -62531,24 +62540,24 @@
       <c r="H32" s="276"/>
       <c r="I32" s="277"/>
       <c r="J32" s="307" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K32" s="308" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L32" s="309" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M32" s="309" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O32" s="277"/>
       <c r="P32" s="277"/>
       <c r="Q32" s="232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R32" s="273"/>
       <c r="S32" s="278"/>
@@ -62557,7 +62566,7 @@
       <c r="V32" s="277"/>
       <c r="W32" s="277"/>
       <c r="X32" s="378" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y32" s="273"/>
       <c r="Z32" s="278"/>
@@ -62567,7 +62576,7 @@
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="200"/>
       <c r="B33" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="237"/>
       <c r="D33" s="238"/>
@@ -62577,7 +62586,7 @@
       <c r="H33" s="230"/>
       <c r="I33" s="201"/>
       <c r="J33" s="310" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K33" s="311"/>
       <c r="L33" s="312"/>
@@ -62586,7 +62595,7 @@
       <c r="O33" s="240"/>
       <c r="P33" s="240"/>
       <c r="Q33" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R33" s="237"/>
       <c r="S33" s="238"/>
@@ -62595,7 +62604,7 @@
       <c r="V33" s="277"/>
       <c r="W33" s="277"/>
       <c r="X33" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y33" s="237"/>
       <c r="Z33" s="238"/>
@@ -62605,7 +62614,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="279"/>
       <c r="B34" s="254" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="237"/>
       <c r="D34" s="239"/>
@@ -62615,7 +62624,7 @@
       <c r="H34" s="230"/>
       <c r="I34" s="230"/>
       <c r="J34" s="315" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K34" s="316"/>
       <c r="L34" s="312"/>
@@ -62624,7 +62633,7 @@
       <c r="O34" s="280"/>
       <c r="P34" s="280"/>
       <c r="Q34" s="254" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R34" s="255"/>
       <c r="S34" s="238"/>
@@ -62633,7 +62642,7 @@
       <c r="V34" s="280"/>
       <c r="W34" s="280"/>
       <c r="X34" s="254" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y34" s="255"/>
       <c r="Z34" s="238"/>
@@ -62643,7 +62652,7 @@
     <row r="35" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="279"/>
       <c r="B35" s="254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="237"/>
       <c r="D35" s="239"/>
@@ -62653,7 +62662,7 @@
       <c r="H35" s="230"/>
       <c r="I35" s="230"/>
       <c r="J35" s="315" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K35" s="316"/>
       <c r="L35" s="312"/>
@@ -62662,7 +62671,7 @@
       <c r="O35" s="280"/>
       <c r="P35" s="280"/>
       <c r="Q35" s="254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R35" s="255"/>
       <c r="S35" s="238"/>
@@ -62671,7 +62680,7 @@
       <c r="V35" s="280"/>
       <c r="W35" s="280"/>
       <c r="X35" s="254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y35" s="255"/>
       <c r="Z35" s="238"/>
@@ -62681,7 +62690,7 @@
     <row r="36" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="279"/>
       <c r="B36" s="254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C36" s="237"/>
       <c r="D36" s="239"/>
@@ -62691,7 +62700,7 @@
       <c r="H36" s="230"/>
       <c r="I36" s="230"/>
       <c r="J36" s="315" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K36" s="316"/>
       <c r="L36" s="312"/>
@@ -62700,7 +62709,7 @@
       <c r="O36" s="280"/>
       <c r="P36" s="280"/>
       <c r="Q36" s="254" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R36" s="255"/>
       <c r="S36" s="238"/>
@@ -62709,7 +62718,7 @@
       <c r="V36" s="280"/>
       <c r="W36" s="280"/>
       <c r="X36" s="254" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y36" s="255"/>
       <c r="Z36" s="238"/>
@@ -62719,7 +62728,7 @@
     <row r="37" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="279"/>
       <c r="B37" s="254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="237"/>
       <c r="D37" s="239"/>
@@ -62729,7 +62738,7 @@
       <c r="H37" s="230"/>
       <c r="I37" s="230"/>
       <c r="J37" s="315" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K37" s="316"/>
       <c r="L37" s="312"/>
@@ -62738,7 +62747,7 @@
       <c r="O37" s="280"/>
       <c r="P37" s="280"/>
       <c r="Q37" s="254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R37" s="255"/>
       <c r="S37" s="238"/>
@@ -62747,7 +62756,7 @@
       <c r="V37" s="280"/>
       <c r="W37" s="280"/>
       <c r="X37" s="254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y37" s="255"/>
       <c r="Z37" s="238"/>
@@ -62757,7 +62766,7 @@
     <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="279"/>
       <c r="B38" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="237"/>
       <c r="D38" s="239"/>
@@ -62767,7 +62776,7 @@
       <c r="H38" s="230"/>
       <c r="I38" s="230"/>
       <c r="J38" s="315" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K38" s="316"/>
       <c r="L38" s="312"/>
@@ -62776,7 +62785,7 @@
       <c r="O38" s="280"/>
       <c r="P38" s="280"/>
       <c r="Q38" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R38" s="255"/>
       <c r="S38" s="238"/>
@@ -62785,7 +62794,7 @@
       <c r="V38" s="280"/>
       <c r="W38" s="280"/>
       <c r="X38" s="254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y38" s="255"/>
       <c r="Z38" s="238"/>
@@ -62795,7 +62804,7 @@
     <row r="39" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="279"/>
       <c r="B39" s="254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" s="237"/>
       <c r="D39" s="239"/>
@@ -62805,7 +62814,7 @@
       <c r="H39" s="230"/>
       <c r="I39" s="230"/>
       <c r="J39" s="315" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K39" s="316"/>
       <c r="L39" s="312"/>
@@ -62814,7 +62823,7 @@
       <c r="O39" s="280"/>
       <c r="P39" s="280"/>
       <c r="Q39" s="254" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R39" s="255"/>
       <c r="S39" s="238"/>
@@ -62823,7 +62832,7 @@
       <c r="V39" s="280"/>
       <c r="W39" s="280"/>
       <c r="X39" s="254" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y39" s="255"/>
       <c r="Z39" s="238"/>
@@ -62833,7 +62842,7 @@
     <row r="40" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="279"/>
       <c r="B40" s="254" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C40" s="237"/>
       <c r="D40" s="239"/>
@@ -62843,7 +62852,7 @@
       <c r="H40" s="230"/>
       <c r="I40" s="230"/>
       <c r="J40" s="315" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K40" s="316"/>
       <c r="L40" s="312"/>
@@ -62852,7 +62861,7 @@
       <c r="O40" s="280"/>
       <c r="P40" s="280"/>
       <c r="Q40" s="254" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R40" s="255"/>
       <c r="S40" s="238"/>
@@ -62861,7 +62870,7 @@
       <c r="V40" s="280"/>
       <c r="W40" s="280"/>
       <c r="X40" s="254" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y40" s="255"/>
       <c r="Z40" s="238"/>
@@ -62871,7 +62880,7 @@
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="200"/>
       <c r="B41" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C41" s="242"/>
       <c r="D41" s="243"/>
@@ -62881,7 +62890,7 @@
       <c r="H41" s="230"/>
       <c r="I41" s="201"/>
       <c r="J41" s="317" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K41" s="318"/>
       <c r="L41" s="319"/>
@@ -62890,7 +62899,7 @@
       <c r="O41" s="240"/>
       <c r="P41" s="240"/>
       <c r="Q41" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R41" s="242"/>
       <c r="S41" s="243"/>
@@ -62899,7 +62908,7 @@
       <c r="V41" s="277"/>
       <c r="W41" s="277"/>
       <c r="X41" s="241" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y41" s="242"/>
       <c r="Z41" s="243"/>
@@ -62939,7 +62948,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="200"/>
       <c r="B43" s="281" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" s="230"/>
       <c r="D43" s="230"/>
@@ -62971,7 +62980,7 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="200"/>
       <c r="B44" s="202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="230"/>
       <c r="D44" s="230"/>
@@ -63003,7 +63012,7 @@
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="200"/>
       <c r="B45" s="202" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C45" s="201"/>
       <c r="D45" s="201"/>
@@ -63035,7 +63044,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="200"/>
       <c r="B46" s="202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46" s="201"/>
       <c r="D46" s="201"/>
@@ -63067,7 +63076,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="200"/>
       <c r="B47" s="202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="201"/>
       <c r="D47" s="201"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="608">
   <si>
     <t>Acronym</t>
   </si>
@@ -164,43 +164,13 @@
     <t>Starting date of application of Art. 5(4)</t>
   </si>
   <si>
-    <t>Designation criteria Art. 5(1) a N</t>
-  </si>
-  <si>
-    <t>Date of designation of Art. 5(1) a N</t>
-  </si>
-  <si>
-    <t>Starting date of application Art. 5(1) a N</t>
-  </si>
-  <si>
-    <t>Designation criteria  Art. 5(1) a P</t>
-  </si>
-  <si>
-    <t>Starting date of designation Art. 5(1) a P</t>
-  </si>
-  <si>
-    <t>Starting date of applicationArt. 5(1)  a P</t>
-  </si>
-  <si>
-    <t>Designation criteria Art. 5(1)  b</t>
-  </si>
-  <si>
-    <t>Starting date of designation Art. 5(1) b</t>
-  </si>
-  <si>
     <t>Starting date of application Art. 5(1) b</t>
-  </si>
-  <si>
-    <t>Designation criteria Art. 5(1) c</t>
   </si>
   <si>
     <t>Starting date of designation c</t>
   </si>
   <si>
     <t>Starting date of application c</t>
-  </si>
-  <si>
-    <t>Designation criteria Art. 5(1) c - relevant EU-Directives and related parameters</t>
   </si>
   <si>
     <t>Designation criteria c - ID applied to the area according to this Directive</t>
@@ -2315,6 +2285,39 @@
   <si>
     <t>Volume of treated wastewater re-used</t>
   </si>
+  <si>
+    <t>Designation criteria Art. 5(2,3) a N</t>
+  </si>
+  <si>
+    <t>Date of designation of Art. 5(2,3) a N</t>
+  </si>
+  <si>
+    <t>Starting date of application Art. 5(2,3) a N</t>
+  </si>
+  <si>
+    <t>Designation criteria  Art. 5(2,3) a P</t>
+  </si>
+  <si>
+    <t>Starting date of designation Art. 5(2,3) a P</t>
+  </si>
+  <si>
+    <t>Starting date of applicationArt. 5(2,3)  a P</t>
+  </si>
+  <si>
+    <t>Designation criteria Art. 5(2,3)  b</t>
+  </si>
+  <si>
+    <t>Starting date of designation Art. 5(2,3) b</t>
+  </si>
+  <si>
+    <t>Starting date of application Art. 5(2,3) b</t>
+  </si>
+  <si>
+    <t>Designation criteria Art. 5(2,3) c</t>
+  </si>
+  <si>
+    <t>Designation criteria Art. 5(2,3) c - relevant EU-Directives and related parameters</t>
+  </si>
 </sst>
 </file>
 
@@ -6557,31 +6560,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="771" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B2" s="772" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="769" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B3" s="772" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="769" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B4" s="772" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="769" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B5" s="770" t="s">
         <v>6</v>
@@ -6589,7 +6592,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="769" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B6" s="770" t="s">
         <v>3</v>
@@ -6597,7 +6600,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="769" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B7" s="770" t="s">
         <v>15</v>
@@ -6605,7 +6608,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="769" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B8" s="770" t="s">
         <v>2</v>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="769" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B9" s="770" t="s">
         <v>21</v>
@@ -6621,15 +6624,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="769" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B10" s="770" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="769" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B11" s="770" t="s">
         <v>4</v>
@@ -6637,15 +6640,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="769" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B12" s="770" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="769" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B13" s="770" t="s">
         <v>7</v>
@@ -6653,10 +6656,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="769" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B14" s="770" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6664,7 +6667,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="770" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6672,20 +6675,20 @@
         <v>23</v>
       </c>
       <c r="B16" s="770" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="769" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B17" s="770" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="769" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B18" s="770" t="s">
         <v>13</v>
@@ -6693,7 +6696,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="769" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B19" s="770" t="s">
         <v>10</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="769" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B20" s="770" t="s">
         <v>12</v>
@@ -6709,15 +6712,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="769" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B21" s="772" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="769" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B22" s="770" t="s">
         <v>8</v>
@@ -6725,7 +6728,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="769" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B23" s="770" t="s">
         <v>18</v>
@@ -6733,7 +6736,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="769" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B24" s="770" t="s">
         <v>11</v>
@@ -6741,7 +6744,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="769" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B25" s="770" t="s">
         <v>9</v>
@@ -6749,7 +6752,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="769" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B26" s="770" t="s">
         <v>17</v>
@@ -6757,15 +6760,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="769" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B27" s="770" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="769" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B28" s="770" t="s">
         <v>14</v>
@@ -6781,7 +6784,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="769" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B30" s="770" t="s">
         <v>16</v>
@@ -6797,7 +6800,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="769" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B32" s="770" t="s">
         <v>5</v>
@@ -6805,114 +6808,114 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="769" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B33" s="770" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="773" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B34" s="774" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="769" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B35" s="774" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="769" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B36" s="770" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="773" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B37" s="770" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="773" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="770" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="773" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B39" s="774" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="773" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B40" s="774" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="773" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B41" s="774" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="775" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B42" s="774" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="773" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B43" s="774" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="773" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B44" s="774" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="773" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B45" s="774" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="773" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B46" s="774" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6943,13 +6946,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="322" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C2" s="323"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="324" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C3" s="926"/>
       <c r="D3" s="926"/>
@@ -6962,14 +6965,14 @@
     </row>
     <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="327" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="328"/>
       <c r="C8" s="328"/>
       <c r="D8" s="329" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -6977,39 +6980,39 @@
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="503" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C10" s="331" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D10" s="332" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E10" s="927" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F10" s="928"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C11" s="334" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D11" s="343" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E11" s="505" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F11" s="336" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="337" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C12" s="344"/>
       <c r="D12" s="349">
@@ -7020,7 +7023,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="338" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C13" s="345"/>
       <c r="D13" s="350"/>
@@ -7029,7 +7032,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="356" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C14" s="357"/>
       <c r="D14" s="358"/>
@@ -7045,7 +7048,7 @@
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
@@ -7054,7 +7057,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C17" s="820"/>
       <c r="D17" s="806"/>
@@ -7063,7 +7066,7 @@
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="797" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C18" s="803"/>
       <c r="D18" s="805"/>
@@ -7072,7 +7075,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="818" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C19" s="819"/>
       <c r="D19" s="821"/>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
@@ -7090,7 +7093,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
@@ -7099,7 +7102,7 @@
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
@@ -7108,7 +7111,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="802" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
@@ -7120,14 +7123,14 @@
     </row>
     <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="327" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="328"/>
       <c r="C28" s="328"/>
       <c r="D28" s="329" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -7135,39 +7138,39 @@
     </row>
     <row r="30" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="503" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C30" s="331" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D30" s="342" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E30" s="927" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F30" s="928"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C31" s="334" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D31" s="343" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E31" s="335" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F31" s="336" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="337" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C32" s="344"/>
       <c r="D32" s="349">
@@ -7178,7 +7181,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="338" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C33" s="345"/>
       <c r="D33" s="350"/>
@@ -7187,7 +7190,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="356" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C34" s="357"/>
       <c r="D34" s="358"/>
@@ -7203,7 +7206,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
@@ -7221,7 +7224,7 @@
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="811" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C38" s="798"/>
       <c r="D38" s="805"/>
@@ -7230,7 +7233,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="814" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C39" s="815"/>
       <c r="D39" s="821"/>
@@ -7239,7 +7242,7 @@
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
@@ -7248,7 +7251,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
@@ -7266,7 +7269,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="814" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
@@ -7275,14 +7278,14 @@
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="328"/>
       <c r="C47" s="328"/>
       <c r="D47" s="329" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -7290,39 +7293,39 @@
     </row>
     <row r="49" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="503" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C49" s="331" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D49" s="342" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E49" s="927" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F49" s="928"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C50" s="334" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D50" s="343" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E50" s="505" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F50" s="336" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="337" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C51" s="344"/>
       <c r="D51" s="349">
@@ -7333,7 +7336,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="338" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C52" s="345"/>
       <c r="D52" s="350"/>
@@ -7342,7 +7345,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="356" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C53" s="357"/>
       <c r="D53" s="358"/>
@@ -7358,7 +7361,7 @@
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C56" s="345"/>
       <c r="D56" s="799"/>
@@ -7376,7 +7379,7 @@
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="817" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C57" s="798"/>
       <c r="D57" s="805"/>
@@ -7385,7 +7388,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="813" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C58" s="815"/>
       <c r="D58" s="821"/>
@@ -7394,7 +7397,7 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
@@ -7403,7 +7406,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
@@ -7421,7 +7424,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="802" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
@@ -7430,14 +7433,14 @@
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B66" s="328"/>
       <c r="C66" s="328"/>
       <c r="D66" s="329" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
@@ -7445,39 +7448,39 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="503" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C68" s="331" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D68" s="342" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E68" s="927" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F68" s="928"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C69" s="334" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D69" s="343" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E69" s="505" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F69" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="337" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C70" s="344"/>
       <c r="D70" s="349">
@@ -7488,7 +7491,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="338" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C71" s="345"/>
       <c r="D71" s="350"/>
@@ -7497,7 +7500,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="356" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C72" s="357"/>
       <c r="D72" s="358"/>
@@ -7513,7 +7516,7 @@
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="816" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C75" s="812"/>
       <c r="D75" s="350"/>
@@ -7531,7 +7534,7 @@
     </row>
     <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B76" s="817" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C76" s="798"/>
       <c r="D76" s="805"/>
@@ -7540,7 +7543,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="813" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C77" s="815"/>
       <c r="D77" s="821"/>
@@ -7549,7 +7552,7 @@
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
@@ -7567,7 +7570,7 @@
     </row>
     <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
@@ -7576,7 +7579,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="802" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
@@ -7617,7 +7620,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="370"/>
       <c r="B1" s="371" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C1" s="371"/>
       <c r="D1" s="371"/>
@@ -7627,7 +7630,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="370"/>
       <c r="B2" s="373" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
@@ -7653,19 +7656,19 @@
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="370"/>
       <c r="B5" s="376" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
       <c r="E5" s="371"/>
       <c r="F5" s="377" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
       <c r="B6" s="925" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C6" s="925"/>
       <c r="D6" s="925"/>
@@ -7683,39 +7686,39 @@
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="370"/>
       <c r="B8" s="399" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C8" s="929" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D8" s="930"/>
       <c r="E8" s="929" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F8" s="930"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
       <c r="B9" s="400" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C9" s="397" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D9" s="398" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E9" s="380" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F9" s="381" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="382"/>
       <c r="B10" s="404" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C10" s="383"/>
       <c r="D10" s="410"/>
@@ -7725,7 +7728,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="382"/>
       <c r="B11" s="405" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C11" s="387"/>
       <c r="D11" s="411"/>
@@ -7735,7 +7738,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="385"/>
       <c r="B12" s="401" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C12" s="396"/>
       <c r="D12" s="395"/>
@@ -7753,7 +7756,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="382"/>
       <c r="B14" s="389" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C14" s="407"/>
       <c r="D14" s="413"/>
@@ -7763,7 +7766,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="385"/>
       <c r="B15" s="402" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C15" s="384"/>
       <c r="D15" s="386"/>
@@ -7773,7 +7776,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="385"/>
       <c r="B16" s="401" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C16" s="396"/>
       <c r="D16" s="395"/>
@@ -7791,7 +7794,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="382"/>
       <c r="B18" s="389" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C18" s="407"/>
       <c r="D18" s="413"/>
@@ -7801,7 +7804,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="385"/>
       <c r="B19" s="402" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="386"/>
@@ -7811,7 +7814,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="385"/>
       <c r="B20" s="403" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C20" s="390"/>
       <c r="D20" s="388"/>
@@ -7845,7 +7848,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="370"/>
       <c r="B24" s="379" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C24" s="371"/>
       <c r="D24" s="371"/>
@@ -7855,7 +7858,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
       <c r="B25" s="768" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C25" s="371"/>
       <c r="D25" s="371"/>
@@ -7865,7 +7868,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
       <c r="B26" s="768" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C26" s="371"/>
       <c r="D26" s="371"/>
@@ -7905,43 +7908,43 @@
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="931" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" s="932" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D2" s="932" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E2" s="424" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F2" s="424" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G2" s="424" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H2" s="424" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I2" s="424" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J2" s="424" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K2" s="438" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L2" s="438" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M2" s="438" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N2" s="438" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -7949,42 +7952,42 @@
       <c r="C3" s="933"/>
       <c r="D3" s="933"/>
       <c r="E3" s="439" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F3" s="439" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G3" s="439" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H3" s="439" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I3" s="439" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J3" s="439" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K3" s="440" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L3" s="440" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M3" s="440" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="N3" s="440" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="934" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C4" s="425" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D4" s="425"/>
       <c r="E4" s="426"/>
@@ -8001,7 +8004,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="934"/>
       <c r="C5" s="425" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D5" s="425"/>
       <c r="E5" s="426"/>
@@ -8018,7 +8021,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="935"/>
       <c r="C6" s="435" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D6" s="435"/>
       <c r="E6" s="436"/>
@@ -8132,12 +8135,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="948" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B1" s="949"/>
       <c r="C1" s="455"/>
       <c r="D1" s="939" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E1" s="940"/>
       <c r="F1" s="940"/>
@@ -8145,23 +8148,23 @@
       <c r="H1" s="940"/>
       <c r="I1" s="941"/>
       <c r="J1" s="950" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K1" s="951"/>
       <c r="L1" s="951"/>
       <c r="M1" s="951"/>
       <c r="N1" s="952"/>
       <c r="O1" s="953" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P1" s="954"/>
       <c r="Q1" s="955"/>
       <c r="R1" s="442" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S1" s="443"/>
       <c r="T1" s="947" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="U1" s="947"/>
       <c r="V1" s="947"/>
@@ -8171,24 +8174,24 @@
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B2" s="445" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="446" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D2" s="944" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E2" s="943"/>
       <c r="F2" s="943" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G2" s="943"/>
       <c r="H2" s="942" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I2" s="942"/>
       <c r="J2" s="447">
@@ -8201,36 +8204,36 @@
         <v>2</v>
       </c>
       <c r="M2" s="448" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="N2" s="449" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O2" s="459" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="P2" s="459" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="459" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="R2" s="680" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S2" s="681" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="T2" s="945" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="U2" s="945"/>
       <c r="V2" s="946" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="W2" s="946"/>
       <c r="X2" s="946" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="Y2" s="946"/>
     </row>
@@ -8238,28 +8241,28 @@
       <c r="A3" s="450"/>
       <c r="B3" s="450"/>
       <c r="C3" s="451" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D3" s="663" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E3" s="665" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F3" s="663" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G3" s="665" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H3" s="663" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I3" s="665" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J3" s="936" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K3" s="937"/>
       <c r="L3" s="937"/>
@@ -8271,22 +8274,22 @@
       <c r="R3" s="453"/>
       <c r="S3" s="454"/>
       <c r="T3" s="684" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="U3" s="684" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="V3" s="685" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="W3" s="706" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="X3" s="685" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="706" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9546,7 +9549,7 @@
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="865" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B1" s="866"/>
       <c r="C1" s="866"/>
@@ -9555,7 +9558,7 @@
       <c r="F1" s="866"/>
       <c r="G1" s="472"/>
       <c r="H1" s="962" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I1" s="963"/>
       <c r="J1" s="963"/>
@@ -9564,11 +9567,11 @@
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
       <c r="O1" s="960" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P1" s="466"/>
       <c r="Q1" s="474" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="R1" s="464"/>
       <c r="S1" s="474"/>
@@ -9576,11 +9579,11 @@
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
       <c r="W1" s="960" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="X1" s="466"/>
       <c r="Y1" s="964" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="964"/>
       <c r="AA1" s="964"/>
@@ -9588,10 +9591,10 @@
       <c r="AC1" s="964"/>
       <c r="AD1" s="965"/>
       <c r="AE1" s="960" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AF1" s="959" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AG1" s="947"/>
       <c r="AH1" s="947"/>
@@ -9645,72 +9648,72 @@
     </row>
     <row r="2" spans="1:81" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="467" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B2" s="473" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C2" s="473" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D2" s="958" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E2" s="958"/>
       <c r="F2" s="958" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G2" s="958"/>
       <c r="H2" s="468"/>
       <c r="I2" s="956" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J2" s="956"/>
       <c r="K2" s="956" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L2" s="956"/>
       <c r="M2" s="956" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N2" s="957"/>
       <c r="O2" s="961"/>
       <c r="P2" s="469"/>
       <c r="Q2" s="956" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="R2" s="956"/>
       <c r="S2" s="956" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="T2" s="956"/>
       <c r="U2" s="956" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="V2" s="957"/>
       <c r="W2" s="961"/>
       <c r="X2" s="469"/>
       <c r="Y2" s="956" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Z2" s="956"/>
       <c r="AA2" s="956" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AB2" s="956"/>
       <c r="AC2" s="956" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AD2" s="957"/>
       <c r="AE2" s="961"/>
       <c r="AF2" s="682" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="AG2" s="683" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AH2" s="683" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AI2" s="688"/>
       <c r="AJ2" s="688"/>
@@ -9764,100 +9767,100 @@
       <c r="A3" s="462"/>
       <c r="B3" s="462"/>
       <c r="C3" s="475" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D3" s="475" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E3" s="475" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F3" s="475" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G3" s="475" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H3" s="481" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I3" s="484" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J3" s="478" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L3" s="478" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N3" s="482" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O3" s="483" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="P3" s="481" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q3" s="484" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="R3" s="478" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="T3" s="478" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="V3" s="482" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W3" s="485" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="X3" s="481" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Y3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Z3" s="478" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AB3" s="478" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="479" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AD3" s="482" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE3" s="485" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AF3" s="684" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="685" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AH3" s="685" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AI3" s="689"/>
       <c r="AJ3" s="689"/>
@@ -10616,7 +10619,7 @@
   <sheetPr codeName="Feuil15"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -10628,86 +10631,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="486" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="487" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B3" s="488" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C3" s="489" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D3" s="666" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="490" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B4" s="491" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C4" s="668"/>
       <c r="D4" s="690"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="492" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B5" s="493" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C5" s="669"/>
       <c r="D5" s="691"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="492" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B6" s="493" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C6" s="669"/>
       <c r="D6" s="691"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="492" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B7" s="493" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C7" s="669"/>
       <c r="D7" s="691"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="492" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B8" s="493" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C8" s="670"/>
       <c r="D8" s="692"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="492" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B9" s="493" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C9" s="670"/>
       <c r="D9" s="692"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="494" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B10" s="495"/>
       <c r="C10" s="671"/>
@@ -10715,74 +10718,74 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="486" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="496" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B17" s="497" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C17" s="672" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D17" s="676"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="498" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B18" s="499" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C18" s="673"/>
       <c r="D18" s="677"/>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="498" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B19" s="499" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C19" s="674"/>
       <c r="D19" s="677"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="492" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B20" s="500" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C20" s="674"/>
       <c r="D20" s="677"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="492" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B21" s="500" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C21" s="674"/>
       <c r="D21" s="677"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="492" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B22" s="500" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C22" s="674"/>
       <c r="D22" s="677"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="494" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B23" s="501"/>
       <c r="C23" s="675"/>
@@ -10831,29 +10834,29 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="740"/>
       <c r="J2" s="741" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K2" s="741" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L2" s="741" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="988" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B3" s="990" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C3" s="991"/>
       <c r="D3" s="976" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E3" s="977"/>
       <c r="F3" s="976" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G3" s="977"/>
       <c r="I3" s="738" t="str">
@@ -10861,56 +10864,56 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J3" s="739" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K3" s="720"/>
       <c r="L3" s="720"/>
       <c r="N3" s="705"/>
       <c r="O3" s="973" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="P3" s="973"/>
       <c r="Q3" s="973" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="R3" s="973"/>
       <c r="S3" s="705"/>
       <c r="T3" s="713" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="U3" s="705"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="989"/>
       <c r="B4" s="512" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C4" s="512" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D4" s="512" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E4" s="512" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F4" s="512" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G4" s="512" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I4" s="738" t="str">
         <f t="shared" ref="I4:I7" si="0">$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J4" s="739" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K4" s="720"/>
       <c r="L4" s="720"/>
       <c r="N4" s="713" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="O4" s="722" t="str">
         <f>D3</f>
@@ -10940,7 +10943,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="574" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B5" s="575"/>
       <c r="C5" s="575"/>
@@ -10953,7 +10956,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J5" s="739" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K5" s="720"/>
       <c r="L5" s="720"/>
@@ -10989,7 +10992,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="577" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B6" s="578"/>
       <c r="C6" s="578"/>
@@ -11002,7 +11005,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J6" s="739" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K6" s="720"/>
       <c r="L6" s="720"/>
@@ -11038,7 +11041,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="577" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B7" s="578"/>
       <c r="C7" s="578"/>
@@ -11051,7 +11054,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J7" s="739" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K7" s="720"/>
       <c r="L7" s="720"/>
@@ -11091,12 +11094,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J8" s="739" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K8" s="720"/>
       <c r="L8" s="720"/>
       <c r="N8" s="713" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O8" s="713">
         <f>SUM(O5:O7)</f>
@@ -11124,7 +11127,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J9" s="739" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K9" s="720"/>
       <c r="L9" s="720"/>
@@ -11135,17 +11138,17 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J10" s="739" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K10" s="720"/>
       <c r="L10" s="720"/>
       <c r="N10" s="713"/>
       <c r="O10" s="973" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P10" s="973"/>
       <c r="Q10" s="973" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="R10" s="973"/>
     </row>
@@ -11155,12 +11158,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J11" s="739" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K11" s="720"/>
       <c r="L11" s="720"/>
       <c r="N11" s="713" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="O11" s="730" t="str">
         <f>D3</f>
@@ -11185,7 +11188,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J12" s="739" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K12" s="720"/>
       <c r="L12" s="720"/>
@@ -11212,7 +11215,7 @@
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="988" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B13" s="511" t="str">
         <f>B3</f>
@@ -11231,7 +11234,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J13" s="739" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K13" s="720"/>
       <c r="L13" s="720"/>
@@ -11259,20 +11262,20 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="989"/>
       <c r="B14" s="514" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C14" s="525" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D14" s="699" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I14" s="738" t="str">
         <f t="shared" ref="I14:I17" si="3">$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J14" s="739" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K14" s="720"/>
       <c r="L14" s="720"/>
@@ -11299,7 +11302,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="513" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B15" s="520"/>
       <c r="C15" s="520"/>
@@ -11309,12 +11312,12 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J15" s="739" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K15" s="720"/>
       <c r="L15" s="720"/>
       <c r="N15" s="713" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O15" s="713">
         <f>SUM(O12:O14)</f>
@@ -11335,7 +11338,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="513" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B16" s="520"/>
       <c r="C16" s="520"/>
@@ -11345,14 +11348,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J16" s="739" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K16" s="720"/>
       <c r="L16" s="720"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="513" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B17" s="520"/>
       <c r="C17" s="520"/>
@@ -11362,14 +11365,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J17" s="739" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K17" s="720"/>
       <c r="L17" s="720"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B18" s="520"/>
       <c r="C18" s="520"/>
@@ -11377,7 +11380,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="515" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B19" s="520"/>
       <c r="C19" s="520"/>
@@ -11385,10 +11388,10 @@
     </row>
     <row r="21" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="502" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B21" s="978" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C21" s="979"/>
       <c r="D21" s="979"/>
@@ -11398,7 +11401,7 @@
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B22" s="980" t="str">
         <f>B3</f>
@@ -11419,45 +11422,45 @@
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
       <c r="B23" s="609" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C23" s="518" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D23" s="518" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E23" s="518" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F23" s="518" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G23" s="518" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="N23" s="725" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="O23" s="725" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="725" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="R23" s="725" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="T23" s="725" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="U23" s="725" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="572" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B24" s="605"/>
       <c r="C24" s="605"/>
@@ -11482,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="713" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="U24" s="727">
         <f>D24</f>
@@ -11491,7 +11494,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="579" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B25" s="606"/>
       <c r="C25" s="606"/>
@@ -11516,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="713" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="U25" s="727">
         <f>B24</f>
@@ -11525,7 +11528,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="573" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B26" s="607"/>
       <c r="C26" s="607"/>
@@ -11552,7 +11555,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="573" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B27" s="607"/>
       <c r="C27" s="607"/>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="573" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B28" s="607"/>
       <c r="C28" s="607"/>
@@ -11606,7 +11609,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="573" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B29" s="607"/>
       <c r="C29" s="607"/>
@@ -11633,7 +11636,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="583" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B30" s="607"/>
       <c r="C30" s="607"/>
@@ -11644,10 +11647,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N31" s="713" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="O31" s="713" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P31" s="705"/>
       <c r="Q31" s="705"/>
@@ -11684,7 +11687,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N33" s="713" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="O33" s="720">
         <f>D25</f>
@@ -11743,10 +11746,10 @@
     </row>
     <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="521" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B35" s="521" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C35" s="522" t="str">
         <f>B3</f>
@@ -11790,10 +11793,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="523" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B36" s="524" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C36" s="585"/>
       <c r="D36" s="585"/>
@@ -11828,10 +11831,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="523" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B37" s="524" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C37" s="604"/>
       <c r="D37" s="604"/>
@@ -11839,7 +11842,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="519" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B41" s="986" t="str">
         <f>B3</f>
@@ -11858,46 +11861,46 @@
       <c r="G41" s="975"/>
       <c r="N41" s="705"/>
       <c r="O41" s="732" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P41" s="732" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="Q41" s="713" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="R41" s="713" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="S41" s="713" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="T41" s="713" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="519"/>
       <c r="B42" s="519" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C42" s="519" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D42" s="519" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E42" s="519" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F42" s="519" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G42" s="519" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="N42" s="731" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="O42" s="720">
         <f>C43</f>
@@ -11926,7 +11929,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="513" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B43" s="520"/>
       <c r="C43" s="520"/>
@@ -11935,7 +11938,7 @@
       <c r="F43" s="582"/>
       <c r="G43" s="582"/>
       <c r="N43" s="713" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="O43" s="720">
         <f>B44</f>
@@ -11964,7 +11967,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="576" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B44" s="580"/>
       <c r="C44" s="580"/>
@@ -11975,7 +11978,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="576" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B45" s="580"/>
       <c r="C45" s="580"/>
@@ -11986,7 +11989,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="576" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B46" s="580"/>
       <c r="C46" s="580"/>
@@ -11997,7 +12000,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="576" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B47" s="580"/>
       <c r="C47" s="580"/>
@@ -12008,7 +12011,7 @@
     </row>
     <row r="48" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="576" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B48" s="580"/>
       <c r="C48" s="580"/>
@@ -12019,7 +12022,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="576" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B49" s="580"/>
       <c r="C49" s="580"/>
@@ -12030,7 +12033,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="576" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B50" s="580"/>
       <c r="C50" s="580"/>
@@ -12041,7 +12044,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="576" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B51" s="580"/>
       <c r="C51" s="580"/>
@@ -12052,32 +12055,32 @@
     </row>
     <row r="53" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="728" t="s">
+        <v>491</v>
+      </c>
+      <c r="B53" s="526" t="s">
+        <v>363</v>
+      </c>
+      <c r="C53" s="526" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" s="710" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" s="710" t="s">
         <v>501</v>
       </c>
-      <c r="B53" s="526" t="s">
-        <v>373</v>
-      </c>
-      <c r="C53" s="526" t="s">
-        <v>375</v>
-      </c>
-      <c r="D53" s="710" t="s">
-        <v>384</v>
-      </c>
-      <c r="E53" s="710" t="s">
-        <v>511</v>
-      </c>
       <c r="F53" s="710" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="H53" s="966" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="I53" s="966"/>
       <c r="J53" s="966"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="701" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
@@ -12090,7 +12093,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="701" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
@@ -12107,7 +12110,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="701" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
@@ -12124,7 +12127,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="701" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
@@ -12141,7 +12144,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="701" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
@@ -12158,7 +12161,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="701" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
@@ -12175,7 +12178,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="701" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
@@ -12192,7 +12195,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="701" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B61" s="582"/>
       <c r="C61" s="582"/>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="701" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
@@ -12226,25 +12229,25 @@
     </row>
     <row r="63" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="729" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B63" s="527" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C63" s="527" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D63" s="710" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E63" s="710" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F63" s="710" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="H63" s="966" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="I63" s="966"/>
       <c r="J63" s="966"/>
@@ -12252,7 +12255,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="701" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B64" s="581"/>
       <c r="C64" s="581"/>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="701" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B65" s="582"/>
       <c r="C65" s="582"/>
@@ -12290,7 +12293,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="701" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B66" s="582"/>
       <c r="C66" s="582"/>
@@ -12309,7 +12312,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="701" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B67" s="582"/>
       <c r="C67" s="582"/>
@@ -12328,7 +12331,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="701" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B68" s="582"/>
       <c r="C68" s="582"/>
@@ -12347,7 +12350,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="701" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B69" s="582"/>
       <c r="C69" s="582"/>
@@ -12366,7 +12369,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="701" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B70" s="582"/>
       <c r="C70" s="582"/>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="702" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B71" s="703"/>
       <c r="C71" s="703"/>
@@ -12404,7 +12407,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="704" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B72" s="705"/>
       <c r="C72" s="705"/>
@@ -12423,7 +12426,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="502" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="I73" s="708"/>
       <c r="J73" s="708"/>
@@ -12432,10 +12435,10 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="623" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B74" s="985" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C74" s="985"/>
       <c r="D74" s="985"/>
@@ -12447,22 +12450,22 @@
     </row>
     <row r="75" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="530" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B75" s="608" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C75" s="531"/>
       <c r="D75" s="608" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E75" s="532"/>
       <c r="F75" s="533" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G75" s="534"/>
       <c r="H75" s="533" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="I75" s="529"/>
       <c r="J75" s="733"/>
@@ -12470,42 +12473,42 @@
     </row>
     <row r="76" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="507" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B76" s="508" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="C76" s="508" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D76" s="508" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="E76" s="509" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F76" s="535" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
       <c r="G76" s="584" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H76" s="621" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
       <c r="I76" s="622" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J76" s="734"/>
       <c r="K76" s="734"/>
     </row>
     <row r="77" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="617" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B77" s="620"/>
       <c r="C77" s="593"/>
@@ -12518,7 +12521,7 @@
       <c r="J77" s="735"/>
       <c r="K77" s="735"/>
       <c r="N77" s="718" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O77" s="718" t="str">
         <f>D3</f>
@@ -12529,7 +12532,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="Q77" s="719" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="R77" s="737" t="str">
         <f>$D$3</f>
@@ -12542,7 +12545,7 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="618" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B78" s="611"/>
       <c r="C78" s="594"/>
@@ -12555,7 +12558,7 @@
       <c r="J78" s="735"/>
       <c r="K78" s="735"/>
       <c r="N78" s="713" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="O78" s="720">
         <f t="shared" ref="O78:O83" si="10">H77</f>
@@ -12566,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="713" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="R78" s="720">
         <f t="shared" ref="R78:R83" si="12">F77</f>
@@ -12579,7 +12582,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="618" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B79" s="611"/>
       <c r="C79" s="594"/>
@@ -12592,7 +12595,7 @@
       <c r="J79" s="735"/>
       <c r="K79" s="735"/>
       <c r="N79" s="721" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="O79" s="720">
         <f t="shared" si="10"/>
@@ -12603,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="721" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="R79" s="720">
         <f t="shared" si="12"/>
@@ -12616,7 +12619,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="618" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B80" s="611"/>
       <c r="C80" s="594"/>
@@ -12629,7 +12632,7 @@
       <c r="J80" s="735"/>
       <c r="K80" s="735"/>
       <c r="N80" s="721" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="O80" s="720">
         <f t="shared" si="10"/>
@@ -12640,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="721" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="R80" s="720">
         <f t="shared" si="12"/>
@@ -12653,7 +12656,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="618" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B81" s="613"/>
       <c r="C81" s="594"/>
@@ -12666,7 +12669,7 @@
       <c r="J81" s="736"/>
       <c r="K81" s="736"/>
       <c r="N81" s="721" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="O81" s="720">
         <f t="shared" si="10"/>
@@ -12677,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="721" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="R81" s="720">
         <f t="shared" si="12"/>
@@ -12690,7 +12693,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="619" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B82" s="615"/>
       <c r="C82" s="595"/>
@@ -12703,7 +12706,7 @@
       <c r="J82" s="736"/>
       <c r="K82" s="736"/>
       <c r="N82" s="721" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="O82" s="720">
         <f t="shared" si="10"/>
@@ -12714,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="721" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="R82" s="720">
         <f t="shared" si="12"/>
@@ -12727,7 +12730,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N83" s="721" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O83" s="720">
         <f t="shared" si="10"/>
@@ -12738,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="721" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="R83" s="720">
         <f t="shared" si="12"/>
@@ -12751,7 +12754,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="536" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -12774,19 +12777,19 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
       <c r="B86" s="927" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C86" s="928"/>
       <c r="D86" s="927" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E86" s="928"/>
       <c r="F86" s="927" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G86" s="928"/>
       <c r="N86" s="713" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O86" s="737" t="str">
         <f>F3</f>
@@ -12803,28 +12806,28 @@
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="504" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B87" s="505" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C87" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D87" s="505" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E87" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F87" s="505" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G87" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N87" s="715" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="O87" s="713">
         <f t="shared" ref="O87:P94" si="14">C88</f>
@@ -12841,7 +12844,7 @@
     </row>
     <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="537" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B88" s="590">
         <v>100</v>
@@ -12856,7 +12859,7 @@
       </c>
       <c r="G88" s="568"/>
       <c r="N88" s="716" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="O88" s="713">
         <f t="shared" si="14"/>
@@ -12873,7 +12876,7 @@
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="538" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B89" s="590"/>
       <c r="C89" s="520"/>
@@ -12882,7 +12885,7 @@
       <c r="F89" s="590"/>
       <c r="G89" s="582"/>
       <c r="N89" s="715" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O89" s="713">
         <f t="shared" si="14"/>
@@ -12899,7 +12902,7 @@
     </row>
     <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="537" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B90" s="590">
         <v>100</v>
@@ -12914,7 +12917,7 @@
       </c>
       <c r="G90" s="568"/>
       <c r="N90" s="716" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="O90" s="713">
         <f t="shared" si="14"/>
@@ -12931,7 +12934,7 @@
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="538" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B91" s="591"/>
       <c r="C91" s="520"/>
@@ -12940,7 +12943,7 @@
       <c r="F91" s="591"/>
       <c r="G91" s="582"/>
       <c r="N91" s="716" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="O91" s="713">
         <f t="shared" si="14"/>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="92" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="538" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B92" s="591"/>
       <c r="C92" s="520"/>
@@ -12966,7 +12969,7 @@
       <c r="F92" s="591"/>
       <c r="G92" s="582"/>
       <c r="N92" s="717" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O92" s="713">
         <f t="shared" si="14"/>
@@ -12983,7 +12986,7 @@
     </row>
     <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="539" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B93" s="592">
         <v>100</v>
@@ -12998,7 +13001,7 @@
       </c>
       <c r="G93" s="568"/>
       <c r="N93" s="716" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="O93" s="713">
         <f t="shared" si="14"/>
@@ -13015,7 +13018,7 @@
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="538" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B94" s="591"/>
       <c r="C94" s="520"/>
@@ -13024,7 +13027,7 @@
       <c r="F94" s="591"/>
       <c r="G94" s="582"/>
       <c r="N94" s="716" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="O94" s="713">
         <f t="shared" si="14"/>
@@ -13041,7 +13044,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="538" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B95" s="591"/>
       <c r="C95" s="520"/>
@@ -13061,7 +13064,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="536" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -13084,42 +13087,42 @@
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
       <c r="B102" s="927" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C102" s="928"/>
       <c r="D102" s="927" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E102" s="928"/>
       <c r="F102" s="927" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G102" s="928"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B103" s="505" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C103" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D103" s="505" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E103" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F103" s="505" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G103" s="506" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N103" s="713" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O103" s="737" t="str">
         <f>$F$3</f>
@@ -13136,7 +13139,7 @@
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="537" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B104" s="590">
         <v>100</v>
@@ -13151,7 +13154,7 @@
       </c>
       <c r="G104" s="568"/>
       <c r="N104" s="537" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="O104" s="707">
         <f t="shared" ref="O104:P111" si="16">C104</f>
@@ -13168,7 +13171,7 @@
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="538" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B105" s="590"/>
       <c r="C105" s="520"/>
@@ -13177,7 +13180,7 @@
       <c r="F105" s="590"/>
       <c r="G105" s="582"/>
       <c r="N105" s="538" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="O105" s="707">
         <f t="shared" si="16"/>
@@ -13194,7 +13197,7 @@
     </row>
     <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="537" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B106" s="590">
         <v>100</v>
@@ -13209,7 +13212,7 @@
       </c>
       <c r="G106" s="568"/>
       <c r="N106" s="537" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O106" s="707">
         <f t="shared" si="16"/>
@@ -13226,7 +13229,7 @@
     </row>
     <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="538" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B107" s="591"/>
       <c r="C107" s="520"/>
@@ -13235,7 +13238,7 @@
       <c r="F107" s="591"/>
       <c r="G107" s="582"/>
       <c r="N107" s="538" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="O107" s="707">
         <f t="shared" si="16"/>
@@ -13252,7 +13255,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="538" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B108" s="591"/>
       <c r="C108" s="520"/>
@@ -13261,7 +13264,7 @@
       <c r="F108" s="591"/>
       <c r="G108" s="582"/>
       <c r="N108" s="538" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="O108" s="707">
         <f t="shared" si="16"/>
@@ -13278,7 +13281,7 @@
     </row>
     <row r="109" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="539" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B109" s="592">
         <v>100</v>
@@ -13293,7 +13296,7 @@
       </c>
       <c r="G109" s="568"/>
       <c r="N109" s="539" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O109" s="707">
         <f t="shared" si="16"/>
@@ -13310,7 +13313,7 @@
     </row>
     <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="538" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B110" s="591"/>
       <c r="C110" s="520"/>
@@ -13319,7 +13322,7 @@
       <c r="F110" s="591"/>
       <c r="G110" s="582"/>
       <c r="N110" s="538" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="O110" s="707">
         <f t="shared" si="16"/>
@@ -13336,7 +13339,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="538" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B111" s="591"/>
       <c r="C111" s="520"/>
@@ -13345,7 +13348,7 @@
       <c r="F111" s="591"/>
       <c r="G111" s="582"/>
       <c r="N111" s="538" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="O111" s="707">
         <f t="shared" si="16"/>
@@ -13371,7 +13374,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="536" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
@@ -13394,45 +13397,45 @@
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
       <c r="B117" s="969" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C117" s="970"/>
       <c r="D117" s="969" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E117" s="970"/>
       <c r="F117" s="969" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G117" s="970"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B118" s="544" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C118" s="545" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D118" s="544" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E118" s="545" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F118" s="544" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G118" s="545" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I118" s="569"/>
       <c r="J118" s="569"/>
       <c r="K118" s="569"/>
       <c r="N118" s="713" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O118" s="737" t="str">
         <f>$F$3</f>
@@ -13449,7 +13452,7 @@
     </row>
     <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="537" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B119" s="590">
         <v>100</v>
@@ -13467,7 +13470,7 @@
       <c r="J119" s="569"/>
       <c r="K119" s="569"/>
       <c r="N119" s="537" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="O119" s="707">
         <f t="shared" ref="O119:P126" si="18">D119</f>
@@ -13484,7 +13487,7 @@
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="538" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B120" s="590"/>
       <c r="C120" s="520"/>
@@ -13496,7 +13499,7 @@
       <c r="J120" s="569"/>
       <c r="K120" s="569"/>
       <c r="N120" s="538" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="O120" s="707">
         <f t="shared" si="18"/>
@@ -13513,7 +13516,7 @@
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="537" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B121" s="590">
         <v>100</v>
@@ -13531,7 +13534,7 @@
       <c r="J121" s="569"/>
       <c r="K121" s="569"/>
       <c r="N121" s="537" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O121" s="707">
         <f t="shared" si="18"/>
@@ -13548,7 +13551,7 @@
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="538" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B122" s="591"/>
       <c r="C122" s="520"/>
@@ -13560,7 +13563,7 @@
       <c r="J122" s="569"/>
       <c r="K122" s="569"/>
       <c r="N122" s="538" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="O122" s="707">
         <f t="shared" si="18"/>
@@ -13577,7 +13580,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="538" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B123" s="591"/>
       <c r="C123" s="520"/>
@@ -13589,7 +13592,7 @@
       <c r="J123" s="569"/>
       <c r="K123" s="569"/>
       <c r="N123" s="538" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="O123" s="626">
         <f t="shared" si="18"/>
@@ -13606,7 +13609,7 @@
     </row>
     <row r="124" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="539" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B124" s="592">
         <v>100</v>
@@ -13624,7 +13627,7 @@
       <c r="J124" s="569"/>
       <c r="K124" s="569"/>
       <c r="N124" s="539" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O124" s="626">
         <f t="shared" si="18"/>
@@ -13641,7 +13644,7 @@
     </row>
     <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="538" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B125" s="591"/>
       <c r="C125" s="520"/>
@@ -13653,7 +13656,7 @@
       <c r="J125" s="569"/>
       <c r="K125" s="569"/>
       <c r="N125" s="538" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="O125" s="626">
         <f t="shared" si="18"/>
@@ -13670,7 +13673,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="538" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B126" s="591"/>
       <c r="C126" s="520"/>
@@ -13679,7 +13682,7 @@
       <c r="F126" s="591"/>
       <c r="G126" s="582"/>
       <c r="N126" s="538" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="O126" s="626">
         <f t="shared" si="18"/>
@@ -13705,7 +13708,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="546" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B129" s="982" t="str">
         <f>B3</f>
@@ -13714,7 +13717,7 @@
       <c r="C129" s="983"/>
       <c r="D129" s="983"/>
       <c r="N129" s="713" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O129" s="737" t="str">
         <f>$F$3</f>
@@ -13732,13 +13735,13 @@
     <row r="130" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="547"/>
       <c r="B130" s="548" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C130" s="549" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D130" s="549" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="N130" s="713" t="str">
         <f>CONCATENATE("Collection 
@@ -13761,7 +13764,7 @@
     </row>
     <row r="131" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="550" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B131" s="588">
         <v>100</v>
@@ -13789,7 +13792,7 @@
     </row>
     <row r="132" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="513" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B132" s="588"/>
       <c r="C132" s="520"/>
@@ -13815,7 +13818,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="513" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B133" s="588"/>
       <c r="C133" s="520"/>
@@ -13823,7 +13826,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="513" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B134" s="588"/>
       <c r="C134" s="520"/>
@@ -13831,7 +13834,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="513" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B135" s="588"/>
       <c r="C135" s="520"/>
@@ -13839,7 +13842,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="513" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B136" s="588"/>
       <c r="C136" s="520"/>
@@ -13847,7 +13850,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="513" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B137" s="588"/>
       <c r="C137" s="520"/>
@@ -13855,7 +13858,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="513" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B138" s="588"/>
       <c r="C138" s="520"/>
@@ -13863,7 +13866,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="513" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B139" s="588"/>
       <c r="C139" s="520"/>
@@ -13874,7 +13877,7 @@
     </row>
     <row r="147" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B147" s="553"/>
       <c r="C147" s="554" t="str">
@@ -13892,16 +13895,16 @@
     </row>
     <row r="148" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="556" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B148" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C148" s="520"/>
       <c r="D148" s="587"/>
       <c r="E148" s="587"/>
       <c r="N148" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="O148" s="553"/>
       <c r="P148" s="555" t="str">
@@ -13915,86 +13918,86 @@
     </row>
     <row r="149" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="556" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B149" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C149" s="520"/>
       <c r="D149" s="587"/>
       <c r="E149" s="587"/>
       <c r="N149" s="556" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="O149" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P149" s="557"/>
       <c r="Q149" s="513"/>
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B150" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C150" s="520"/>
       <c r="D150" s="587"/>
       <c r="E150" s="587"/>
       <c r="N150" s="556" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="O150" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P150" s="557"/>
       <c r="Q150" s="513"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B151" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C151" s="520"/>
       <c r="D151" s="587"/>
       <c r="E151" s="587"/>
       <c r="N151" s="556" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="O151" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P151" s="557"/>
       <c r="Q151" s="513"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="556" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B152" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C152" s="520"/>
       <c r="D152" s="587"/>
       <c r="E152" s="587"/>
       <c r="N152" s="556" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="O152" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P152" s="557"/>
       <c r="Q152" s="513"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="556" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B153" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C153" s="520"/>
       <c r="D153" s="587"/>
@@ -14002,16 +14005,16 @@
     </row>
     <row r="154" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="556" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B154" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C154" s="520"/>
       <c r="D154" s="587"/>
       <c r="E154" s="587"/>
       <c r="N154" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="O154" s="553"/>
       <c r="P154" s="555" t="str">
@@ -14025,19 +14028,19 @@
     </row>
     <row r="155" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="556" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B155" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C155" s="520"/>
       <c r="D155" s="587"/>
       <c r="E155" s="587"/>
       <c r="N155" s="556" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="O155" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P155" s="557"/>
       <c r="Q155" s="513"/>
@@ -14045,10 +14048,10 @@
     <row r="156" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D156" s="528"/>
       <c r="N156" s="556" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="O156" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P156" s="557"/>
       <c r="Q156" s="513"/>
@@ -14056,17 +14059,17 @@
     <row r="157" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="528"/>
       <c r="N157" s="556" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="O157" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P157" s="557"/>
       <c r="Q157" s="513"/>
     </row>
     <row r="158" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B158" s="552"/>
       <c r="C158" s="555" t="str">
@@ -14082,20 +14085,20 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="N158" s="556" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="O158" s="556" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P158" s="557"/>
       <c r="Q158" s="513"/>
     </row>
     <row r="159" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="556" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B159" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C159" s="588"/>
       <c r="D159" s="589"/>
@@ -14103,16 +14106,16 @@
     </row>
     <row r="160" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="556" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B160" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C160" s="588"/>
       <c r="D160" s="589"/>
       <c r="E160" s="589"/>
       <c r="N160" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="O160" s="552"/>
       <c r="P160" s="555" t="str">
@@ -14126,19 +14129,19 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="556" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B161" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C161" s="588"/>
       <c r="D161" s="589"/>
       <c r="E161" s="589"/>
       <c r="N161" s="556" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O161" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P161" s="541">
         <f>D159</f>
@@ -14151,19 +14154,19 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="556" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B162" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C162" s="588"/>
       <c r="D162" s="589"/>
       <c r="E162" s="589"/>
       <c r="N162" s="556" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="O162" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P162" s="541">
         <f>D160</f>
@@ -14177,10 +14180,10 @@
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D163" s="528"/>
       <c r="N163" s="556" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O163" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P163" s="541">
         <f>D161</f>
@@ -14194,10 +14197,10 @@
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D164" s="528"/>
       <c r="N164" s="556" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O164" s="556" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P164" s="541">
         <f>D162</f>
@@ -14210,7 +14213,7 @@
     </row>
     <row r="165" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A165" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B165" s="558"/>
       <c r="C165" s="554" t="str">
@@ -14228,10 +14231,10 @@
     </row>
     <row r="166" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="556" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B166" s="556" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C166" s="520"/>
       <c r="D166" s="587"/>
@@ -14239,7 +14242,7 @@
     </row>
     <row r="168" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B168" s="553"/>
       <c r="C168" s="554" t="str">
@@ -14257,16 +14260,16 @@
     </row>
     <row r="169" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="556" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B169" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C169" s="588"/>
       <c r="D169" s="589"/>
       <c r="E169" s="589"/>
       <c r="N169" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="O169" s="553"/>
       <c r="P169" s="555" t="str">
@@ -14280,19 +14283,19 @@
     </row>
     <row r="170" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="556" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B170" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C170" s="588"/>
       <c r="D170" s="589"/>
       <c r="E170" s="589"/>
       <c r="N170" s="556" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="O170" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P170" s="557">
         <f>D169</f>
@@ -14305,19 +14308,19 @@
     </row>
     <row r="171" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="556" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B171" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C171" s="588"/>
       <c r="D171" s="589"/>
       <c r="E171" s="589"/>
       <c r="N171" s="556" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="O171" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P171" s="557">
         <f>D171</f>
@@ -14330,19 +14333,19 @@
     </row>
     <row r="172" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="556" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B172" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C172" s="588"/>
       <c r="D172" s="589"/>
       <c r="E172" s="589"/>
       <c r="N172" s="556" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="O172" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P172" s="557">
         <f>D173</f>
@@ -14355,19 +14358,19 @@
     </row>
     <row r="173" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="556" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B173" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C173" s="588"/>
       <c r="D173" s="589"/>
       <c r="E173" s="589"/>
       <c r="N173" s="556" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="O173" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P173" s="557">
         <f>D175</f>
@@ -14380,10 +14383,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="556" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B174" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C174" s="588"/>
       <c r="D174" s="589"/>
@@ -14391,16 +14394,16 @@
     </row>
     <row r="175" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="556" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B175" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C175" s="588"/>
       <c r="D175" s="589"/>
       <c r="E175" s="589"/>
       <c r="N175" s="552" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="O175" s="553"/>
       <c r="P175" s="555" t="str">
@@ -14414,19 +14417,19 @@
     </row>
     <row r="176" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="556" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B176" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C176" s="588"/>
       <c r="D176" s="589"/>
       <c r="E176" s="589"/>
       <c r="N176" s="556" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="O176" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P176" s="557">
         <f>D170</f>
@@ -14439,10 +14442,10 @@
     </row>
     <row r="177" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N177" s="556" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="O177" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P177" s="557">
         <f>D172</f>
@@ -14455,10 +14458,10 @@
     </row>
     <row r="178" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N178" s="556" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="O178" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P178" s="557">
         <f>D174</f>
@@ -14471,10 +14474,10 @@
     </row>
     <row r="179" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N179" s="556" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="O179" s="556" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P179" s="557">
         <f>D176</f>
@@ -14550,7 +14553,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="627" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14560,16 +14563,16 @@
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="631" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B5" s="631" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C5" s="631" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D5" s="631" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15358,7 +15361,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="636" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15366,16 +15369,16 @@
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="637" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B5" s="637" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C5" s="765" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D5" s="637" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15414,27 +15417,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="643" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="644" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B4" s="644" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C4" s="644" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D4" s="644" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E4" s="644" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F4" s="644" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -17817,11 +17820,11 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AQ10000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:C9"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17865,7 +17868,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="767" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -17878,7 +17881,7 @@
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="E2" s="428" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -17927,7 +17930,7 @@
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="825" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B4" s="826"/>
       <c r="C4" s="826"/>
@@ -17980,7 +17983,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="795" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D5" s="828" t="s">
         <v>27</v>
@@ -18010,97 +18013,97 @@
         <v>35</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>36</v>
+        <v>597</v>
       </c>
       <c r="N5" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="W5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="X5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="Y5" s="830" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z5" s="830" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="AA5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="AC5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="AD5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="AE5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="AF5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="AG5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="AH5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="AI5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="830" t="s">
+      <c r="AJ5" s="830" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="830" t="s">
+      <c r="AK5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AL5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AM5" s="828" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AN5" s="828" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AO5" s="828" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AP5" s="828" t="s">
         <v>54</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AQ5" s="828" t="s">
         <v>55</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ5" s="830" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM5" s="828" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN5" s="828" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO5" s="828" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP5" s="828" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ5" s="828" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18110,97 +18113,97 @@
       <c r="D6" s="829"/>
       <c r="E6" s="829"/>
       <c r="F6" s="14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="831"/>
       <c r="Z6" s="831"/>
       <c r="AA6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AE6" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AJ6" s="831"/>
       <c r="AK6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AM6" s="829"/>
       <c r="AN6" s="829"/>
@@ -18264,14 +18267,14 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="428" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="428" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AH11" s="8"/>
@@ -58276,7 +58279,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="649" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -58287,25 +58290,25 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="651" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B5" s="651" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C5" s="765" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D5" s="651" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E5" s="651" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F5" s="765" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G5" s="651" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -58476,89 +58479,89 @@
         <v>26</v>
       </c>
       <c r="C1" s="823" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D1" s="766" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E1" s="766" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="F1" s="661" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G1" s="661" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H1" s="661" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I1" s="661" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J1" s="661" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K1" s="661" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L1" s="661" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M1" s="661" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N1" s="661" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="833"/>
       <c r="B2" s="835"/>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O2" s="23"/>
       <c r="P2" s="21"/>
@@ -58689,7 +58692,7 @@
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="865" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="866"/>
       <c r="C1" s="866"/>
@@ -58698,7 +58701,7 @@
       <c r="F1" s="866"/>
       <c r="G1" s="866"/>
       <c r="H1" s="867" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="I1" s="868"/>
       <c r="J1" s="868"/>
@@ -58706,7 +58709,7 @@
       <c r="L1" s="868"/>
       <c r="M1" s="869"/>
       <c r="N1" s="870" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O1" s="848"/>
       <c r="P1" s="848"/>
@@ -58716,14 +58719,14 @@
       <c r="T1" s="848"/>
       <c r="U1" s="848"/>
       <c r="V1" s="871" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="W1" s="872"/>
       <c r="X1" s="873"/>
       <c r="Y1" s="873"/>
       <c r="Z1" s="874"/>
       <c r="AA1" s="875" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AB1" s="876"/>
       <c r="AC1" s="876"/>
@@ -58740,7 +58743,7 @@
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
       <c r="AP1" s="847" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AQ1" s="848"/>
       <c r="AR1" s="848"/>
@@ -58750,7 +58753,7 @@
       <c r="AV1" s="848"/>
       <c r="AW1" s="849"/>
       <c r="AX1" s="856" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="AY1" s="857"/>
       <c r="AZ1" s="857"/>
@@ -58758,7 +58761,7 @@
       <c r="BB1" s="857"/>
       <c r="BC1" s="858"/>
       <c r="BD1" s="859" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="BE1" s="860"/>
       <c r="BF1" s="860"/>
@@ -58766,7 +58769,7 @@
       <c r="BH1" s="860"/>
       <c r="BI1" s="861"/>
       <c r="BJ1" s="862" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="BK1" s="863"/>
       <c r="BL1" s="863"/>
@@ -58775,7 +58778,7 @@
       <c r="BO1" s="863"/>
       <c r="BP1" s="864"/>
       <c r="BQ1" s="836" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="BR1" s="837"/>
       <c r="BS1" s="837"/>
@@ -58785,7 +58788,7 @@
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
       <c r="BY1" s="838" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BZ1" s="839"/>
       <c r="CA1" s="839"/>
@@ -58808,259 +58811,259 @@
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H2" s="841" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="I2" s="842"/>
       <c r="J2" s="842" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K2" s="842"/>
       <c r="L2" s="842" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M2" s="843"/>
       <c r="N2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="S2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="T2" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="U2" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="AE2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="AF2" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="AG2" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="AH2" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="AJ2" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="61" t="s">
+      <c r="AK2" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="AL2" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM2" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="61" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA2" s="64" t="s">
+      <c r="AN2" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AO2" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="65" t="s">
+      <c r="AP2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AQ2" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AR2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AS2" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" s="67" t="s">
+      <c r="AT2" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" s="67" t="s">
+      <c r="AU2" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="67" t="s">
+      <c r="AV2" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW2" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="AK2" s="67" t="s">
-        <v>518</v>
-      </c>
-      <c r="AL2" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="AM2" s="67" t="s">
+      <c r="AX2" s="844" t="s">
         <v>115</v>
-      </c>
-      <c r="AN2" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP2" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU2" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV2" s="58" t="s">
-        <v>468</v>
-      </c>
-      <c r="AW2" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX2" s="844" t="s">
-        <v>125</v>
       </c>
       <c r="AY2" s="845"/>
       <c r="AZ2" s="845"/>
       <c r="BA2" s="845" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="BB2" s="845"/>
       <c r="BC2" s="846"/>
       <c r="BD2" s="850" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="851"/>
       <c r="BF2" s="851"/>
       <c r="BG2" s="851" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="BH2" s="851"/>
       <c r="BI2" s="852"/>
       <c r="BJ2" s="853" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="BK2" s="854"/>
       <c r="BL2" s="854"/>
       <c r="BM2" s="854" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="BN2" s="855"/>
       <c r="BO2" s="855"/>
       <c r="BP2" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ2" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR2" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS2" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT2" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU2" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV2" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW2" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX2" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY2" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="BQ2" s="70" t="s">
+      <c r="CA2" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="BR2" s="71" t="s">
+      <c r="CB2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="BS2" s="71" t="s">
+      <c r="CC2" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="BT2" s="71" t="s">
+      <c r="CD2" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="BU2" s="71" t="s">
+      <c r="CE2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="BV2" s="71" t="s">
+      <c r="CF2" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="BW2" s="57" t="s">
+      <c r="CG2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="BX2" s="58" t="s">
+      <c r="CH2" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="BY2" s="58" t="s">
+      <c r="CI2" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="BZ2" s="58" t="s">
+      <c r="CJ2" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="CA2" s="58" t="s">
+      <c r="CK2" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="CB2" s="58" t="s">
+      <c r="CL2" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="CC2" s="58" t="s">
+      <c r="CM2" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="CD2" s="58" t="s">
+      <c r="CN2" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="CE2" s="58" t="s">
+      <c r="CO2" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="CF2" s="58" t="s">
+      <c r="CP2" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="CG2" s="58" t="s">
+      <c r="CQ2" s="58" t="s">
         <v>144</v>
-      </c>
-      <c r="CH2" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="CI2" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="CJ2" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK2" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="CL2" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="CM2" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="CN2" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="CO2" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="CP2" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="CQ2" s="58" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:95" s="659" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -59068,59 +59071,59 @@
       <c r="B3" s="72"/>
       <c r="C3" s="73"/>
       <c r="D3" s="79" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
       <c r="H3" s="105" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I3" s="106" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J3" s="106" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K3" s="106" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L3" s="106" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M3" s="107" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N3" s="108"/>
       <c r="O3" s="109"/>
       <c r="P3" s="109"/>
       <c r="Q3" s="109" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="R3" s="109" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S3" s="109" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="T3" s="109" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U3" s="109" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V3" s="110"/>
       <c r="W3" s="110" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X3" s="110" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="111" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="112" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="113"/>
       <c r="AB3" s="114"/>
@@ -59146,58 +59149,58 @@
       <c r="AV3" s="119"/>
       <c r="AW3" s="120"/>
       <c r="AX3" s="121" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AY3" s="122" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AZ3" s="123" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BA3" s="122" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BB3" s="122" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="BC3" s="124" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BD3" s="125" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BE3" s="126" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="BF3" s="127" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BG3" s="126" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BH3" s="126" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="BI3" s="128" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BJ3" s="129" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BK3" s="130" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="BL3" s="131" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BM3" s="130" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BN3" s="130" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="BO3" s="132" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BP3" s="133"/>
       <c r="BQ3" s="134"/>
@@ -59207,67 +59210,67 @@
       <c r="BU3" s="135"/>
       <c r="BV3" s="135"/>
       <c r="BW3" s="57" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BX3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="BY3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="BZ3" s="58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="CA3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CB3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CC3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="CD3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="CE3" s="58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="CF3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CG3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CH3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="CI3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="CJ3" s="58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="CK3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CL3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CM3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="CN3" s="58" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="CO3" s="58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="CP3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="CQ3" s="58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:95" s="660" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -59563,7 +59566,7 @@
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="S7" s="51"/>
       <c r="T7" s="51"/>
@@ -59575,7 +59578,7 @@
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="S8" s="51"/>
       <c r="T8" s="51"/>
@@ -59587,7 +59590,7 @@
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
@@ -59599,7 +59602,7 @@
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -59698,7 +59701,7 @@
   <sheetData>
     <row r="1" spans="1:104" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="141" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="143"/>
@@ -59710,20 +59713,20 @@
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
       <c r="K1" s="144" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L1" s="145"/>
       <c r="M1" s="900" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="N1" s="901" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="O1" s="902"/>
       <c r="P1" s="902"/>
       <c r="Q1" s="902"/>
       <c r="R1" s="903" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="S1" s="896"/>
       <c r="T1" s="896"/>
@@ -59732,23 +59735,23 @@
       <c r="W1" s="896"/>
       <c r="X1" s="904"/>
       <c r="Y1" s="890" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Z1" s="860"/>
       <c r="AA1" s="905" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AB1" s="878" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AC1" s="892" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AD1" s="893"/>
       <c r="AE1" s="893"/>
       <c r="AF1" s="894"/>
       <c r="AG1" s="895" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AH1" s="896"/>
       <c r="AI1" s="896"/>
@@ -59758,16 +59761,16 @@
       <c r="AM1" s="896"/>
       <c r="AN1" s="896"/>
       <c r="AO1" s="878" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AP1" s="890" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AQ1" s="860"/>
       <c r="AR1" s="860"/>
       <c r="AS1" s="861"/>
       <c r="AT1" s="898" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AU1" s="899"/>
       <c r="AV1" s="899"/>
@@ -59798,19 +59801,19 @@
       <c r="BU1" s="899"/>
       <c r="BV1" s="899"/>
       <c r="BW1" s="878" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="BX1" s="890" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="BY1" s="860"/>
       <c r="BZ1" s="860"/>
       <c r="CA1" s="861"/>
       <c r="CB1" s="889" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="CC1" s="891" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="CD1" s="891"/>
       <c r="CE1" s="891"/>
@@ -59825,7 +59828,7 @@
       <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
       <c r="CP1" s="877" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="CQ1" s="848"/>
       <c r="CR1" s="848"/>
@@ -59837,67 +59840,67 @@
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="148" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F2" s="149" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H2" s="137" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="I2" s="137" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J2" s="137" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K2" s="150" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L2" s="151" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M2" s="900"/>
       <c r="N2" s="152" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O2" s="152" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P2" s="152" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="152" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="R2" s="157" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="S2" s="907" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="T2" s="855"/>
       <c r="U2" s="908" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="V2" s="908"/>
       <c r="W2" s="908" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="X2" s="909"/>
       <c r="Y2" s="884"/>
@@ -59905,137 +59908,137 @@
       <c r="AA2" s="906"/>
       <c r="AB2" s="879"/>
       <c r="AC2" s="153" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AD2" s="153" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AE2" s="153" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="153" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AG2" s="897" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AH2" s="882"/>
       <c r="AI2" s="882" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AJ2" s="882"/>
       <c r="AK2" s="882" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AL2" s="882"/>
       <c r="AM2" s="154" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AN2" s="154" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AO2" s="879"/>
       <c r="AP2" s="884" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AQ2" s="885"/>
       <c r="AR2" s="886" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AS2" s="887"/>
       <c r="AT2" s="882" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AU2" s="882"/>
       <c r="AV2" s="883" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AW2" s="883"/>
       <c r="AX2" s="883" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AY2" s="883"/>
       <c r="AZ2" s="154" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="BA2" s="154" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="BB2" s="882" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="BC2" s="882"/>
       <c r="BD2" s="883" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="BE2" s="883"/>
       <c r="BF2" s="883" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="BG2" s="883"/>
       <c r="BH2" s="154" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="BI2" s="154" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="BJ2" s="882" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="BK2" s="882"/>
       <c r="BL2" s="883" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="BM2" s="883"/>
       <c r="BN2" s="883" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="BO2" s="883"/>
       <c r="BP2" s="154" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="BQ2" s="154" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="BR2" s="156" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="BS2" s="156" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="BT2" s="156" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="BU2" s="154" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="BV2" s="154" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="BW2" s="879"/>
       <c r="BX2" s="884" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="BY2" s="885"/>
       <c r="BZ2" s="886" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="CA2" s="887"/>
       <c r="CB2" s="889"/>
       <c r="CC2" s="138" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="CD2" s="138" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="CE2" s="138" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="CF2" s="138" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="CG2" s="139" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="CH2" s="140" t="s">
         <v>25</v>
@@ -60050,31 +60053,31 @@
         <v>35</v>
       </c>
       <c r="CL2" s="140" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="CM2" s="140" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="CN2" s="140" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="CO2" s="140" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="CP2" s="888" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="CQ2" s="880"/>
       <c r="CR2" s="880" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="CS2" s="880"/>
       <c r="CT2" s="880" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="CU2" s="880"/>
       <c r="CV2" s="880" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="CW2" s="881"/>
     </row>
@@ -60082,13 +60085,13 @@
       <c r="A3" s="168"/>
       <c r="B3" s="169"/>
       <c r="C3" s="158" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D3" s="158"/>
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="158" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
@@ -60099,172 +60102,172 @@
       <c r="N3" s="159"/>
       <c r="O3" s="159"/>
       <c r="P3" s="159" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="159"/>
       <c r="R3" s="157"/>
       <c r="S3" s="181" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="T3" s="181" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="U3" s="181" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="V3" s="181" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="W3" s="181" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X3" s="182" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Y3" s="183" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Z3" s="184" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AA3" s="185" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AB3" s="186" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AC3" s="158" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AD3" s="158" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="158" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AF3" s="158" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="155" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AH3" s="166" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AI3" s="166" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AJ3" s="166" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AK3" s="166" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AL3" s="166" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AM3" s="175"/>
       <c r="AN3" s="175"/>
       <c r="AO3" s="186" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AP3" s="187" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AQ3" s="184" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AR3" s="188" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AS3" s="189" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AT3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AU3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AV3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AW3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AX3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AY3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AZ3" s="175"/>
       <c r="BA3" s="175"/>
       <c r="BB3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BC3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BD3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BE3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BF3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BG3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BH3" s="175"/>
       <c r="BI3" s="175"/>
       <c r="BJ3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BK3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BL3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BM3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BN3" s="164" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BO3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BP3" s="175"/>
       <c r="BQ3" s="175"/>
       <c r="BR3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BS3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BT3" s="164" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BU3" s="175"/>
       <c r="BV3" s="175"/>
       <c r="BW3" s="186" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="BX3" s="183" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="BY3" s="184" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="BZ3" s="184" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="CA3" s="189" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="CB3" s="700"/>
       <c r="CC3" s="177"/>
@@ -60281,28 +60284,28 @@
       <c r="CN3" s="179"/>
       <c r="CO3" s="179"/>
       <c r="CP3" s="190" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="CQ3" s="191" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="CR3" s="191" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="CS3" s="191" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="CT3" s="191" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="CU3" s="191" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="CV3" s="191" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="CW3" s="192" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:104" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -60616,7 +60619,7 @@
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C7" s="136"/>
       <c r="P7" s="136"/>
@@ -60655,7 +60658,7 @@
     </row>
     <row r="8" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A8" s="136" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C8" s="136"/>
       <c r="P8" s="136"/>
@@ -60694,7 +60697,7 @@
     </row>
     <row r="9" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C9" s="136"/>
       <c r="P9" s="136"/>
@@ -60733,171 +60736,171 @@
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A13" s="136" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F15" s="136"/>
       <c r="G15" s="136"/>
     </row>
     <row r="16" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A16" s="136" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F16" s="136"/>
       <c r="G16" s="136"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F17" s="136"/>
       <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="136" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="136" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="136"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="136" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F22" s="136"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="136" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="136" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F24" s="136"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="136" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F25" s="136"/>
       <c r="G25" s="136"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="136" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="136" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F27" s="136"/>
       <c r="G27" s="136"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="136" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F28" s="136"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="136" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F29" s="136"/>
       <c r="G29" s="136"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="136" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="136" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F32" s="136"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="136" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F33" s="136"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="136" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="136" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F35" s="136"/>
       <c r="G35" s="136"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="136" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F36" s="136"/>
       <c r="G36" s="136"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="136" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="136" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="136" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F39" s="136"/>
       <c r="G39" s="136"/>
@@ -60907,7 +60910,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="136" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F41" s="136"/>
     </row>
@@ -61166,7 +61169,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="442" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="443"/>
       <c r="C1" s="143"/>
@@ -61175,13 +61178,13 @@
       <c r="F1" s="143"/>
       <c r="G1" s="143"/>
       <c r="H1" s="916" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="I1" s="916"/>
       <c r="J1" s="916"/>
       <c r="K1" s="916"/>
       <c r="L1" s="915" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="M1" s="915"/>
       <c r="N1" s="915"/>
@@ -61189,28 +61192,28 @@
     </row>
     <row r="2" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B2" s="462" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="462" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F2" s="149" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G2" s="137" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H2" s="139" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I2" s="140" t="s">
         <v>25</v>
@@ -61219,32 +61222,32 @@
         <v>26</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="L2" s="824" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="M2" s="824" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N2" s="824" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="O2" s="824" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="453"/>
       <c r="B3" s="454"/>
       <c r="C3" s="475" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D3" s="475"/>
       <c r="E3" s="475"/>
       <c r="F3" s="475"/>
       <c r="G3" s="475" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H3" s="179"/>
       <c r="I3" s="179"/>
@@ -61324,10 +61327,10 @@
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="200"/>
       <c r="B1" s="201" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C1" s="202" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
@@ -61358,10 +61361,10 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="200"/>
       <c r="B2" s="203" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C2" s="924" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D2" s="924"/>
       <c r="E2" s="201"/>
@@ -61482,47 +61485,47 @@
     <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="200"/>
       <c r="B6" s="213" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C6" s="201"/>
       <c r="D6" s="201"/>
       <c r="E6" s="201"/>
       <c r="F6" s="214" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
       <c r="I6" s="201"/>
       <c r="J6" s="213" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K6" s="201"/>
       <c r="L6" s="201"/>
       <c r="M6" s="201"/>
       <c r="N6" s="214" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="O6" s="201"/>
       <c r="P6" s="201"/>
       <c r="Q6" s="213" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="R6" s="201"/>
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="V6" s="372"/>
       <c r="W6" s="372"/>
       <c r="X6" s="376" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Y6" s="372"/>
       <c r="Z6" s="372"/>
       <c r="AA6" s="372"/>
       <c r="AB6" s="377" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -61542,7 +61545,7 @@
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="925"/>
       <c r="R7" s="925"/>
@@ -61551,7 +61554,7 @@
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="X7" s="925"/>
       <c r="Y7" s="925"/>
@@ -61592,177 +61595,177 @@
     <row r="9" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="200"/>
       <c r="B9" s="216" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C9" s="920" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D9" s="921"/>
       <c r="E9" s="920" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F9" s="921"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K9" s="920" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="L9" s="921"/>
       <c r="M9" s="920" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N9" s="921"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="R9" s="920" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="S9" s="921"/>
       <c r="T9" s="920" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="U9" s="921"/>
       <c r="V9" s="372"/>
       <c r="W9" s="372"/>
       <c r="X9" s="216" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="Y9" s="920" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="Z9" s="921"/>
       <c r="AA9" s="920" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AB9" s="921"/>
     </row>
     <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
       <c r="B10" s="217" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C10" s="218" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D10" s="219" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E10" s="218" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F10" s="219" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G10" s="201"/>
       <c r="H10" s="201"/>
       <c r="I10" s="201"/>
       <c r="J10" s="217" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K10" s="218" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L10" s="219" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M10" s="218" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N10" s="219" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="R10" s="218" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="S10" s="219" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="T10" s="218" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="U10" s="219" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="V10" s="372"/>
       <c r="W10" s="372"/>
       <c r="X10" s="217" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Y10" s="218" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="219" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AA10" s="218" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AB10" s="219" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="200"/>
       <c r="B11" s="220" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
       <c r="E11" s="917" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F11" s="918"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
       <c r="J11" s="223" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
       <c r="M11" s="922" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N11" s="923"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
       <c r="T11" s="917" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="U11" s="918"/>
       <c r="V11" s="372"/>
       <c r="W11" s="372"/>
       <c r="X11" s="220" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Y11" s="221"/>
       <c r="Z11" s="221"/>
       <c r="AA11" s="917" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AB11" s="918"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
       <c r="B12" s="224" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C12" s="300"/>
       <c r="D12" s="282"/>
@@ -61772,7 +61775,7 @@
       <c r="H12" s="222"/>
       <c r="I12" s="222"/>
       <c r="J12" s="224" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="K12" s="300"/>
       <c r="L12" s="282"/>
@@ -61781,7 +61784,7 @@
       <c r="O12" s="222"/>
       <c r="P12" s="222"/>
       <c r="Q12" s="224" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="R12" s="300"/>
       <c r="S12" s="282"/>
@@ -61790,7 +61793,7 @@
       <c r="V12" s="372"/>
       <c r="W12" s="372"/>
       <c r="X12" s="224" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Y12" s="300"/>
       <c r="Z12" s="282"/>
@@ -61800,7 +61803,7 @@
     <row r="13" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="200"/>
       <c r="B13" s="321" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C13" s="301"/>
       <c r="D13" s="283"/>
@@ -61810,7 +61813,7 @@
       <c r="H13" s="222"/>
       <c r="I13" s="222"/>
       <c r="J13" s="321" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="K13" s="301"/>
       <c r="L13" s="283"/>
@@ -61819,7 +61822,7 @@
       <c r="O13" s="222"/>
       <c r="P13" s="222"/>
       <c r="Q13" s="321" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="R13" s="301"/>
       <c r="S13" s="283"/>
@@ -61828,7 +61831,7 @@
       <c r="V13" s="372"/>
       <c r="W13" s="372"/>
       <c r="X13" s="321" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="Y13" s="301"/>
       <c r="Z13" s="283"/>
@@ -61838,7 +61841,7 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="200"/>
       <c r="B14" s="225" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C14" s="301"/>
       <c r="D14" s="284"/>
@@ -61848,7 +61851,7 @@
       <c r="H14" s="222"/>
       <c r="I14" s="222"/>
       <c r="J14" s="225" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="K14" s="301"/>
       <c r="L14" s="284"/>
@@ -61857,7 +61860,7 @@
       <c r="O14" s="222"/>
       <c r="P14" s="222"/>
       <c r="Q14" s="225" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="R14" s="301"/>
       <c r="S14" s="284"/>
@@ -61866,7 +61869,7 @@
       <c r="V14" s="372"/>
       <c r="W14" s="372"/>
       <c r="X14" s="225" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Y14" s="301"/>
       <c r="Z14" s="284"/>
@@ -61876,7 +61879,7 @@
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="200"/>
       <c r="B15" s="226" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="227"/>
       <c r="D15" s="228"/>
@@ -61886,7 +61889,7 @@
       <c r="H15" s="230"/>
       <c r="I15" s="201"/>
       <c r="J15" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K15" s="227"/>
       <c r="L15" s="228"/>
@@ -61895,7 +61898,7 @@
       <c r="O15" s="201"/>
       <c r="P15" s="201"/>
       <c r="Q15" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="R15" s="227"/>
       <c r="S15" s="228"/>
@@ -61904,7 +61907,7 @@
       <c r="V15" s="372"/>
       <c r="W15" s="372"/>
       <c r="X15" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Y15" s="269"/>
       <c r="Z15" s="270"/>
@@ -61914,7 +61917,7 @@
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="231"/>
       <c r="B16" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C16" s="233"/>
       <c r="D16" s="234"/>
@@ -61924,7 +61927,7 @@
       <c r="H16" s="230"/>
       <c r="I16" s="230"/>
       <c r="J16" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K16" s="233"/>
       <c r="L16" s="234"/>
@@ -61933,7 +61936,7 @@
       <c r="O16" s="201"/>
       <c r="P16" s="201"/>
       <c r="Q16" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="R16" s="233"/>
       <c r="S16" s="234"/>
@@ -61942,7 +61945,7 @@
       <c r="V16" s="372"/>
       <c r="W16" s="372"/>
       <c r="X16" s="378" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Y16" s="273"/>
       <c r="Z16" s="278"/>
@@ -61952,7 +61955,7 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="200"/>
       <c r="B17" s="236" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C17" s="237"/>
       <c r="D17" s="239"/>
@@ -61962,7 +61965,7 @@
       <c r="H17" s="230"/>
       <c r="I17" s="201"/>
       <c r="J17" s="236" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K17" s="237"/>
       <c r="L17" s="238"/>
@@ -61971,7 +61974,7 @@
       <c r="O17" s="240"/>
       <c r="P17" s="240"/>
       <c r="Q17" s="236" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="R17" s="237"/>
       <c r="S17" s="238"/>
@@ -61980,7 +61983,7 @@
       <c r="V17" s="277"/>
       <c r="W17" s="277"/>
       <c r="X17" s="236" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Y17" s="237"/>
       <c r="Z17" s="238"/>
@@ -61990,7 +61993,7 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="200"/>
       <c r="B18" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C18" s="242"/>
       <c r="D18" s="243"/>
@@ -62000,7 +62003,7 @@
       <c r="H18" s="230"/>
       <c r="I18" s="201"/>
       <c r="J18" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K18" s="242"/>
       <c r="L18" s="243"/>
@@ -62009,7 +62012,7 @@
       <c r="O18" s="201"/>
       <c r="P18" s="201"/>
       <c r="Q18" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="R18" s="242"/>
       <c r="S18" s="243"/>
@@ -62018,7 +62021,7 @@
       <c r="V18" s="372"/>
       <c r="W18" s="372"/>
       <c r="X18" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Y18" s="242"/>
       <c r="Z18" s="243"/>
@@ -62058,53 +62061,53 @@
     <row r="20" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="200"/>
       <c r="B20" s="220" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
       <c r="E20" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F20" s="918"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
       <c r="J20" s="220" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
       <c r="M20" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N20" s="918"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
       <c r="T20" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="U20" s="918"/>
       <c r="V20" s="277"/>
       <c r="W20" s="277"/>
       <c r="X20" s="220" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Y20" s="302"/>
       <c r="Z20" s="249"/>
       <c r="AA20" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="918"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
       <c r="B21" s="250" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C21" s="251"/>
       <c r="D21" s="252"/>
@@ -62114,7 +62117,7 @@
       <c r="H21" s="230"/>
       <c r="I21" s="201"/>
       <c r="J21" s="250" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K21" s="251"/>
       <c r="L21" s="252"/>
@@ -62123,7 +62126,7 @@
       <c r="O21" s="240"/>
       <c r="P21" s="240"/>
       <c r="Q21" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="R21" s="227"/>
       <c r="S21" s="228"/>
@@ -62132,7 +62135,7 @@
       <c r="V21" s="277"/>
       <c r="W21" s="277"/>
       <c r="X21" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Y21" s="269"/>
       <c r="Z21" s="270"/>
@@ -62142,7 +62145,7 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="231"/>
       <c r="B22" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C22" s="233"/>
       <c r="D22" s="234"/>
@@ -62152,7 +62155,7 @@
       <c r="H22" s="230"/>
       <c r="I22" s="240"/>
       <c r="J22" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K22" s="233"/>
       <c r="L22" s="234"/>
@@ -62161,7 +62164,7 @@
       <c r="O22" s="240"/>
       <c r="P22" s="240"/>
       <c r="Q22" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="R22" s="233"/>
       <c r="S22" s="234"/>
@@ -62170,7 +62173,7 @@
       <c r="V22" s="277"/>
       <c r="W22" s="277"/>
       <c r="X22" s="378" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Y22" s="273"/>
       <c r="Z22" s="278"/>
@@ -62180,7 +62183,7 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="200"/>
       <c r="B23" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C23" s="237"/>
       <c r="D23" s="238"/>
@@ -62190,7 +62193,7 @@
       <c r="H23" s="230"/>
       <c r="I23" s="201"/>
       <c r="J23" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K23" s="237"/>
       <c r="L23" s="238"/>
@@ -62199,7 +62202,7 @@
       <c r="O23" s="240"/>
       <c r="P23" s="240"/>
       <c r="Q23" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="R23" s="237"/>
       <c r="S23" s="238"/>
@@ -62208,7 +62211,7 @@
       <c r="V23" s="277"/>
       <c r="W23" s="277"/>
       <c r="X23" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Y23" s="237"/>
       <c r="Z23" s="238"/>
@@ -62218,7 +62221,7 @@
     <row r="24" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="200"/>
       <c r="B24" s="254" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C24" s="237"/>
       <c r="D24" s="239"/>
@@ -62228,7 +62231,7 @@
       <c r="H24" s="230"/>
       <c r="I24" s="201"/>
       <c r="J24" s="254" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K24" s="255"/>
       <c r="L24" s="238"/>
@@ -62237,7 +62240,7 @@
       <c r="O24" s="240"/>
       <c r="P24" s="240"/>
       <c r="Q24" s="254" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="R24" s="255"/>
       <c r="S24" s="238"/>
@@ -62246,7 +62249,7 @@
       <c r="V24" s="277"/>
       <c r="W24" s="277"/>
       <c r="X24" s="254" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Y24" s="255"/>
       <c r="Z24" s="238"/>
@@ -62256,7 +62259,7 @@
     <row r="25" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="200"/>
       <c r="B25" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C25" s="237"/>
       <c r="D25" s="239"/>
@@ -62266,7 +62269,7 @@
       <c r="H25" s="230"/>
       <c r="I25" s="201"/>
       <c r="J25" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K25" s="255"/>
       <c r="L25" s="238"/>
@@ -62275,7 +62278,7 @@
       <c r="O25" s="240"/>
       <c r="P25" s="240"/>
       <c r="Q25" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="R25" s="255"/>
       <c r="S25" s="238"/>
@@ -62284,7 +62287,7 @@
       <c r="V25" s="277"/>
       <c r="W25" s="277"/>
       <c r="X25" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Y25" s="255"/>
       <c r="Z25" s="238"/>
@@ -62294,7 +62297,7 @@
     <row r="26" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="200"/>
       <c r="B26" s="254" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C26" s="237"/>
       <c r="D26" s="239"/>
@@ -62304,7 +62307,7 @@
       <c r="H26" s="230"/>
       <c r="I26" s="201"/>
       <c r="J26" s="254" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="K26" s="255"/>
       <c r="L26" s="246"/>
@@ -62313,7 +62316,7 @@
       <c r="O26" s="240"/>
       <c r="P26" s="240"/>
       <c r="Q26" s="254" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="R26" s="255"/>
       <c r="S26" s="238"/>
@@ -62322,7 +62325,7 @@
       <c r="V26" s="277"/>
       <c r="W26" s="277"/>
       <c r="X26" s="254" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="Y26" s="255"/>
       <c r="Z26" s="238"/>
@@ -62332,7 +62335,7 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="200"/>
       <c r="B27" s="256" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C27" s="237"/>
       <c r="D27" s="239"/>
@@ -62342,7 +62345,7 @@
       <c r="H27" s="230"/>
       <c r="I27" s="201"/>
       <c r="J27" s="256" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K27" s="255"/>
       <c r="L27" s="239"/>
@@ -62351,7 +62354,7 @@
       <c r="O27" s="240"/>
       <c r="P27" s="240"/>
       <c r="Q27" s="254" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="R27" s="255"/>
       <c r="S27" s="238"/>
@@ -62360,7 +62363,7 @@
       <c r="V27" s="277"/>
       <c r="W27" s="277"/>
       <c r="X27" s="254" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Y27" s="255"/>
       <c r="Z27" s="238"/>
@@ -62370,7 +62373,7 @@
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="200"/>
       <c r="B28" s="303" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C28" s="242"/>
       <c r="D28" s="244"/>
@@ -62380,7 +62383,7 @@
       <c r="H28" s="230"/>
       <c r="I28" s="201"/>
       <c r="J28" s="303" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K28" s="242"/>
       <c r="L28" s="244"/>
@@ -62389,7 +62392,7 @@
       <c r="O28" s="240"/>
       <c r="P28" s="240"/>
       <c r="Q28" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="R28" s="242"/>
       <c r="S28" s="243"/>
@@ -62398,7 +62401,7 @@
       <c r="V28" s="277"/>
       <c r="W28" s="277"/>
       <c r="X28" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Y28" s="242"/>
       <c r="Z28" s="243"/>
@@ -62438,53 +62441,53 @@
     <row r="30" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="200"/>
       <c r="B30" s="220" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
       <c r="E30" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F30" s="918"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
       <c r="J30" s="220" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
       <c r="M30" s="917" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="N30" s="918"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
       <c r="T30" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="U30" s="918"/>
       <c r="V30" s="277"/>
       <c r="W30" s="277"/>
       <c r="X30" s="220" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Y30" s="302"/>
       <c r="Z30" s="249"/>
       <c r="AA30" s="917" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AB30" s="918"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
       <c r="B31" s="250" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C31" s="263"/>
       <c r="D31" s="264"/>
@@ -62494,24 +62497,24 @@
       <c r="H31" s="266"/>
       <c r="I31" s="267"/>
       <c r="J31" s="304" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K31" s="305" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L31" s="306" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M31" s="306" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N31" s="306" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="O31" s="268"/>
       <c r="P31" s="268"/>
       <c r="Q31" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="R31" s="269"/>
       <c r="S31" s="270"/>
@@ -62520,7 +62523,7 @@
       <c r="V31" s="379"/>
       <c r="W31" s="379"/>
       <c r="X31" s="226" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Y31" s="269"/>
       <c r="Z31" s="270"/>
@@ -62530,7 +62533,7 @@
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="272"/>
       <c r="B32" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C32" s="273"/>
       <c r="D32" s="274"/>
@@ -62540,24 +62543,24 @@
       <c r="H32" s="276"/>
       <c r="I32" s="277"/>
       <c r="J32" s="307" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K32" s="308" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L32" s="309" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M32" s="309" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="O32" s="277"/>
       <c r="P32" s="277"/>
       <c r="Q32" s="232" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="R32" s="273"/>
       <c r="S32" s="278"/>
@@ -62566,7 +62569,7 @@
       <c r="V32" s="277"/>
       <c r="W32" s="277"/>
       <c r="X32" s="378" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Y32" s="273"/>
       <c r="Z32" s="278"/>
@@ -62576,7 +62579,7 @@
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="200"/>
       <c r="B33" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C33" s="237"/>
       <c r="D33" s="238"/>
@@ -62586,7 +62589,7 @@
       <c r="H33" s="230"/>
       <c r="I33" s="201"/>
       <c r="J33" s="310" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K33" s="311"/>
       <c r="L33" s="312"/>
@@ -62595,7 +62598,7 @@
       <c r="O33" s="240"/>
       <c r="P33" s="240"/>
       <c r="Q33" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="R33" s="237"/>
       <c r="S33" s="238"/>
@@ -62604,7 +62607,7 @@
       <c r="V33" s="277"/>
       <c r="W33" s="277"/>
       <c r="X33" s="236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Y33" s="237"/>
       <c r="Z33" s="238"/>
@@ -62614,7 +62617,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="279"/>
       <c r="B34" s="254" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C34" s="237"/>
       <c r="D34" s="239"/>
@@ -62624,7 +62627,7 @@
       <c r="H34" s="230"/>
       <c r="I34" s="230"/>
       <c r="J34" s="315" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K34" s="316"/>
       <c r="L34" s="312"/>
@@ -62633,7 +62636,7 @@
       <c r="O34" s="280"/>
       <c r="P34" s="280"/>
       <c r="Q34" s="254" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="R34" s="255"/>
       <c r="S34" s="238"/>
@@ -62642,7 +62645,7 @@
       <c r="V34" s="280"/>
       <c r="W34" s="280"/>
       <c r="X34" s="254" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Y34" s="255"/>
       <c r="Z34" s="238"/>
@@ -62652,7 +62655,7 @@
     <row r="35" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="279"/>
       <c r="B35" s="254" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C35" s="237"/>
       <c r="D35" s="239"/>
@@ -62662,7 +62665,7 @@
       <c r="H35" s="230"/>
       <c r="I35" s="230"/>
       <c r="J35" s="315" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K35" s="316"/>
       <c r="L35" s="312"/>
@@ -62671,7 +62674,7 @@
       <c r="O35" s="280"/>
       <c r="P35" s="280"/>
       <c r="Q35" s="254" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="R35" s="255"/>
       <c r="S35" s="238"/>
@@ -62680,7 +62683,7 @@
       <c r="V35" s="280"/>
       <c r="W35" s="280"/>
       <c r="X35" s="254" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Y35" s="255"/>
       <c r="Z35" s="238"/>
@@ -62690,7 +62693,7 @@
     <row r="36" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="279"/>
       <c r="B36" s="254" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C36" s="237"/>
       <c r="D36" s="239"/>
@@ -62700,7 +62703,7 @@
       <c r="H36" s="230"/>
       <c r="I36" s="230"/>
       <c r="J36" s="315" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K36" s="316"/>
       <c r="L36" s="312"/>
@@ -62709,7 +62712,7 @@
       <c r="O36" s="280"/>
       <c r="P36" s="280"/>
       <c r="Q36" s="254" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="R36" s="255"/>
       <c r="S36" s="238"/>
@@ -62718,7 +62721,7 @@
       <c r="V36" s="280"/>
       <c r="W36" s="280"/>
       <c r="X36" s="254" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Y36" s="255"/>
       <c r="Z36" s="238"/>
@@ -62728,7 +62731,7 @@
     <row r="37" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="279"/>
       <c r="B37" s="254" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C37" s="237"/>
       <c r="D37" s="239"/>
@@ -62738,7 +62741,7 @@
       <c r="H37" s="230"/>
       <c r="I37" s="230"/>
       <c r="J37" s="315" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K37" s="316"/>
       <c r="L37" s="312"/>
@@ -62747,7 +62750,7 @@
       <c r="O37" s="280"/>
       <c r="P37" s="280"/>
       <c r="Q37" s="254" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="R37" s="255"/>
       <c r="S37" s="238"/>
@@ -62756,7 +62759,7 @@
       <c r="V37" s="280"/>
       <c r="W37" s="280"/>
       <c r="X37" s="254" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="Y37" s="255"/>
       <c r="Z37" s="238"/>
@@ -62766,7 +62769,7 @@
     <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="279"/>
       <c r="B38" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C38" s="237"/>
       <c r="D38" s="239"/>
@@ -62776,7 +62779,7 @@
       <c r="H38" s="230"/>
       <c r="I38" s="230"/>
       <c r="J38" s="315" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K38" s="316"/>
       <c r="L38" s="312"/>
@@ -62785,7 +62788,7 @@
       <c r="O38" s="280"/>
       <c r="P38" s="280"/>
       <c r="Q38" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="R38" s="255"/>
       <c r="S38" s="238"/>
@@ -62794,7 +62797,7 @@
       <c r="V38" s="280"/>
       <c r="W38" s="280"/>
       <c r="X38" s="254" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Y38" s="255"/>
       <c r="Z38" s="238"/>
@@ -62804,7 +62807,7 @@
     <row r="39" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="279"/>
       <c r="B39" s="254" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C39" s="237"/>
       <c r="D39" s="239"/>
@@ -62814,7 +62817,7 @@
       <c r="H39" s="230"/>
       <c r="I39" s="230"/>
       <c r="J39" s="315" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K39" s="316"/>
       <c r="L39" s="312"/>
@@ -62823,7 +62826,7 @@
       <c r="O39" s="280"/>
       <c r="P39" s="280"/>
       <c r="Q39" s="254" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="R39" s="255"/>
       <c r="S39" s="238"/>
@@ -62832,7 +62835,7 @@
       <c r="V39" s="280"/>
       <c r="W39" s="280"/>
       <c r="X39" s="254" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Y39" s="255"/>
       <c r="Z39" s="238"/>
@@ -62842,7 +62845,7 @@
     <row r="40" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="279"/>
       <c r="B40" s="254" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C40" s="237"/>
       <c r="D40" s="239"/>
@@ -62852,7 +62855,7 @@
       <c r="H40" s="230"/>
       <c r="I40" s="230"/>
       <c r="J40" s="315" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K40" s="316"/>
       <c r="L40" s="312"/>
@@ -62861,7 +62864,7 @@
       <c r="O40" s="280"/>
       <c r="P40" s="280"/>
       <c r="Q40" s="254" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="R40" s="255"/>
       <c r="S40" s="238"/>
@@ -62870,7 +62873,7 @@
       <c r="V40" s="280"/>
       <c r="W40" s="280"/>
       <c r="X40" s="254" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Y40" s="255"/>
       <c r="Z40" s="238"/>
@@ -62880,7 +62883,7 @@
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="200"/>
       <c r="B41" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C41" s="242"/>
       <c r="D41" s="243"/>
@@ -62890,7 +62893,7 @@
       <c r="H41" s="230"/>
       <c r="I41" s="201"/>
       <c r="J41" s="317" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K41" s="318"/>
       <c r="L41" s="319"/>
@@ -62899,7 +62902,7 @@
       <c r="O41" s="240"/>
       <c r="P41" s="240"/>
       <c r="Q41" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="R41" s="242"/>
       <c r="S41" s="243"/>
@@ -62908,7 +62911,7 @@
       <c r="V41" s="277"/>
       <c r="W41" s="277"/>
       <c r="X41" s="241" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Y41" s="242"/>
       <c r="Z41" s="243"/>
@@ -62948,7 +62951,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="200"/>
       <c r="B43" s="281" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C43" s="230"/>
       <c r="D43" s="230"/>
@@ -62980,7 +62983,7 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="200"/>
       <c r="B44" s="202" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C44" s="230"/>
       <c r="D44" s="230"/>
@@ -63012,7 +63015,7 @@
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="200"/>
       <c r="B45" s="202" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C45" s="201"/>
       <c r="D45" s="201"/>
@@ -63044,7 +63047,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="200"/>
       <c r="B46" s="202" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C46" s="201"/>
       <c r="D46" s="201"/>
@@ -63076,7 +63079,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="200"/>
       <c r="B47" s="202" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C47" s="201"/>
       <c r="D47" s="201"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="610">
   <si>
     <t>Acronym</t>
   </si>
@@ -629,12 +629,6 @@
       </rPr>
       <t xml:space="preserve"> (hierarchical approach)</t>
     </r>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Performance</t>
   </si>
   <si>
     <t>compliant 5 a</t>
@@ -2318,6 +2312,19 @@
   <si>
     <t>Designation criteria Art. 5(2,3) c - relevant EU-Directives and related parameters</t>
   </si>
+  <si>
+    <t>Insufficient treatment level DTT</t>
+  </si>
+  <si>
+    <t>total DTT</t>
+  </si>
+  <si>
+    <t>total DTT
+for discharge</t>
+  </si>
+  <si>
+    <t>of which DTT due to insufficient collection</t>
+  </si>
 </sst>
 </file>
 
@@ -3782,7 +3789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="992">
+  <cellXfs count="993">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5769,6 +5776,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5803,9 +5849,6 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5854,140 +5897,110 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5995,15 +6008,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6016,26 +6020,26 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6065,6 +6069,39 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6091,39 +6128,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6153,80 +6157,86 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6560,31 +6570,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="771" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B2" s="772" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="769" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B3" s="772" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="769" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B4" s="772" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="769" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B5" s="770" t="s">
         <v>6</v>
@@ -6592,7 +6602,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="769" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B6" s="770" t="s">
         <v>3</v>
@@ -6600,7 +6610,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="769" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B7" s="770" t="s">
         <v>15</v>
@@ -6608,7 +6618,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="769" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B8" s="770" t="s">
         <v>2</v>
@@ -6616,7 +6626,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="769" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B9" s="770" t="s">
         <v>21</v>
@@ -6624,15 +6634,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="769" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B10" s="770" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="769" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B11" s="770" t="s">
         <v>4</v>
@@ -6640,15 +6650,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="769" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B12" s="770" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="769" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B13" s="770" t="s">
         <v>7</v>
@@ -6656,10 +6666,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="769" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B14" s="770" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -6667,7 +6677,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="770" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6675,20 +6685,20 @@
         <v>23</v>
       </c>
       <c r="B16" s="770" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="769" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B17" s="770" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="769" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B18" s="770" t="s">
         <v>13</v>
@@ -6696,7 +6706,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="769" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B19" s="770" t="s">
         <v>10</v>
@@ -6704,7 +6714,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="769" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B20" s="770" t="s">
         <v>12</v>
@@ -6712,15 +6722,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="769" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B21" s="772" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="769" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22" s="770" t="s">
         <v>8</v>
@@ -6728,7 +6738,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="769" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="770" t="s">
         <v>18</v>
@@ -6736,7 +6746,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="769" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B24" s="770" t="s">
         <v>11</v>
@@ -6744,7 +6754,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="769" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B25" s="770" t="s">
         <v>9</v>
@@ -6752,7 +6762,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="769" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B26" s="770" t="s">
         <v>17</v>
@@ -6760,15 +6770,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="769" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B27" s="770" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="769" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B28" s="770" t="s">
         <v>14</v>
@@ -6784,7 +6794,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="769" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B30" s="770" t="s">
         <v>16</v>
@@ -6800,7 +6810,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="769" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B32" s="770" t="s">
         <v>5</v>
@@ -6808,42 +6818,42 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="769" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B33" s="770" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="773" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B34" s="774" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="769" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B35" s="774" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="769" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B36" s="770" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="773" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B37" s="770" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6851,31 +6861,31 @@
         <v>92</v>
       </c>
       <c r="B38" s="770" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="773" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B39" s="774" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="773" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B40" s="774" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="773" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B41" s="774" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -6883,39 +6893,39 @@
         <v>114</v>
       </c>
       <c r="B42" s="774" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="773" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B43" s="774" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="773" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B44" s="774" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="773" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B45" s="774" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="773" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B46" s="774" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6931,13 +6941,14 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
@@ -6946,16 +6957,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="322" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="323"/>
     </row>
     <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="324" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="926"/>
-      <c r="D3" s="926"/>
+        <v>227</v>
+      </c>
+      <c r="C3" s="925"/>
+      <c r="D3" s="925"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="325"/>
@@ -6965,14 +6976,14 @@
     </row>
     <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="327" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="328"/>
       <c r="C8" s="328"/>
       <c r="D8" s="329" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -6980,31 +6991,31 @@
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="503" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C10" s="331" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D10" s="332" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="927" t="s">
-        <v>519</v>
-      </c>
-      <c r="F10" s="928"/>
+        <v>265</v>
+      </c>
+      <c r="E10" s="926" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" s="927"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C11" s="334" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="343" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E11" s="505" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F11" s="336" t="s">
         <v>60</v>
@@ -7012,7 +7023,7 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="337" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C12" s="344"/>
       <c r="D12" s="349">
@@ -7023,7 +7034,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="338" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C13" s="345"/>
       <c r="D13" s="350"/>
@@ -7032,7 +7043,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="356" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C14" s="357"/>
       <c r="D14" s="358"/>
@@ -7048,7 +7059,7 @@
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
@@ -7057,7 +7068,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C17" s="820"/>
       <c r="D17" s="806"/>
@@ -7066,7 +7077,7 @@
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="797" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" s="803"/>
       <c r="D18" s="805"/>
@@ -7075,7 +7086,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="818" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C19" s="819"/>
       <c r="D19" s="821"/>
@@ -7084,7 +7095,7 @@
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
@@ -7093,7 +7104,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
@@ -7102,7 +7113,7 @@
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
@@ -7111,7 +7122,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="802" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
@@ -7123,14 +7134,14 @@
     </row>
     <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="327" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="328"/>
       <c r="C28" s="328"/>
       <c r="D28" s="329" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -7138,31 +7149,31 @@
     </row>
     <row r="30" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="503" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C30" s="331" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D30" s="342" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="927" t="s">
-        <v>519</v>
-      </c>
-      <c r="F30" s="928"/>
+        <v>265</v>
+      </c>
+      <c r="E30" s="926" t="s">
+        <v>517</v>
+      </c>
+      <c r="F30" s="927"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C31" s="334" t="s">
         <v>145</v>
       </c>
       <c r="D31" s="343" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E31" s="335" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F31" s="336" t="s">
         <v>60</v>
@@ -7170,7 +7181,7 @@
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="337" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C32" s="344"/>
       <c r="D32" s="349">
@@ -7181,7 +7192,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="338" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C33" s="345"/>
       <c r="D33" s="350"/>
@@ -7190,7 +7201,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="356" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C34" s="357"/>
       <c r="D34" s="358"/>
@@ -7206,7 +7217,7 @@
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
@@ -7215,7 +7226,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
@@ -7224,7 +7235,7 @@
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="811" t="s">
-        <v>271</v>
+        <v>608</v>
       </c>
       <c r="C38" s="798"/>
       <c r="D38" s="805"/>
@@ -7233,7 +7244,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="814" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C39" s="815"/>
       <c r="D39" s="821"/>
@@ -7242,7 +7253,7 @@
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
@@ -7251,7 +7262,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
@@ -7260,7 +7271,7 @@
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
@@ -7269,7 +7280,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="814" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
@@ -7278,14 +7289,14 @@
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="328"/>
       <c r="C47" s="328"/>
       <c r="D47" s="329" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -7293,31 +7304,31 @@
     </row>
     <row r="49" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="503" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C49" s="331" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" s="342" t="s">
-        <v>267</v>
-      </c>
-      <c r="E49" s="927" t="s">
-        <v>519</v>
-      </c>
-      <c r="F49" s="928"/>
+        <v>265</v>
+      </c>
+      <c r="E49" s="926" t="s">
+        <v>517</v>
+      </c>
+      <c r="F49" s="927"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C50" s="334" t="s">
         <v>145</v>
       </c>
       <c r="D50" s="343" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E50" s="505" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F50" s="336" t="s">
         <v>60</v>
@@ -7325,7 +7336,7 @@
     </row>
     <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="337" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C51" s="344"/>
       <c r="D51" s="349">
@@ -7336,7 +7347,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="338" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C52" s="345"/>
       <c r="D52" s="350"/>
@@ -7345,7 +7356,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="356" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C53" s="357"/>
       <c r="D53" s="358"/>
@@ -7361,7 +7372,7 @@
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
@@ -7370,7 +7381,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C56" s="345"/>
       <c r="D56" s="799"/>
@@ -7379,7 +7390,7 @@
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="817" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
       <c r="C57" s="798"/>
       <c r="D57" s="805"/>
@@ -7388,7 +7399,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="813" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C58" s="815"/>
       <c r="D58" s="821"/>
@@ -7397,7 +7408,7 @@
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
@@ -7406,7 +7417,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
@@ -7415,7 +7426,7 @@
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
@@ -7424,7 +7435,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="802" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
@@ -7433,14 +7444,14 @@
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B66" s="328"/>
       <c r="C66" s="328"/>
       <c r="D66" s="329" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
@@ -7448,31 +7459,31 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="503" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C68" s="331" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D68" s="342" t="s">
-        <v>267</v>
-      </c>
-      <c r="E68" s="927" t="s">
-        <v>519</v>
-      </c>
-      <c r="F68" s="928"/>
+        <v>265</v>
+      </c>
+      <c r="E68" s="926" t="s">
+        <v>517</v>
+      </c>
+      <c r="F68" s="927"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C69" s="334" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="343" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E69" s="505" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F69" s="506" t="s">
         <v>60</v>
@@ -7480,7 +7491,7 @@
     </row>
     <row r="70" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="337" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C70" s="344"/>
       <c r="D70" s="349">
@@ -7491,7 +7502,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="338" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C71" s="345"/>
       <c r="D71" s="350"/>
@@ -7500,7 +7511,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="356" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C72" s="357"/>
       <c r="D72" s="358"/>
@@ -7516,7 +7527,7 @@
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
@@ -7525,16 +7536,16 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="816" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C75" s="812"/>
       <c r="D75" s="350"/>
       <c r="E75" s="350"/>
       <c r="F75" s="800"/>
     </row>
-    <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="817" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
       <c r="C76" s="798"/>
       <c r="D76" s="805"/>
@@ -7543,7 +7554,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="813" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C77" s="815"/>
       <c r="D77" s="821"/>
@@ -7552,7 +7563,7 @@
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
@@ -7561,16 +7572,16 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
       <c r="E79" s="350"/>
       <c r="F79" s="800"/>
     </row>
-    <row r="80" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
@@ -7579,7 +7590,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="802" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
@@ -7620,7 +7631,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="370"/>
       <c r="B1" s="371" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="371"/>
       <c r="D1" s="371"/>
@@ -7630,12 +7641,12 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="370"/>
       <c r="B2" s="373" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="924"/>
-      <c r="F2" s="924"/>
+      <c r="E2" s="921"/>
+      <c r="F2" s="921"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7656,24 +7667,24 @@
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="370"/>
       <c r="B5" s="376" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
       <c r="E5" s="371"/>
       <c r="F5" s="377" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="925" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="925"/>
-      <c r="D6" s="925"/>
-      <c r="E6" s="925"/>
-      <c r="F6" s="925"/>
+      <c r="B6" s="918" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="918"/>
+      <c r="D6" s="918"/>
+      <c r="E6" s="918"/>
+      <c r="F6" s="918"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7686,39 +7697,39 @@
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="370"/>
       <c r="B8" s="399" t="s">
-        <v>473</v>
-      </c>
-      <c r="C8" s="929" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="930"/>
-      <c r="E8" s="929" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="930"/>
+        <v>471</v>
+      </c>
+      <c r="C8" s="928" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="929"/>
+      <c r="E8" s="928" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="929"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
       <c r="B9" s="400" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" s="397" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="398" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E9" s="380" t="s">
         <v>145</v>
       </c>
       <c r="F9" s="381" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="382"/>
       <c r="B10" s="404" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C10" s="383"/>
       <c r="D10" s="410"/>
@@ -7728,7 +7739,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="382"/>
       <c r="B11" s="405" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" s="387"/>
       <c r="D11" s="411"/>
@@ -7738,7 +7749,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="385"/>
       <c r="B12" s="401" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="396"/>
       <c r="D12" s="395"/>
@@ -7756,7 +7767,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="382"/>
       <c r="B14" s="389" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C14" s="407"/>
       <c r="D14" s="413"/>
@@ -7766,7 +7777,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="385"/>
       <c r="B15" s="402" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C15" s="384"/>
       <c r="D15" s="386"/>
@@ -7776,7 +7787,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="385"/>
       <c r="B16" s="401" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" s="396"/>
       <c r="D16" s="395"/>
@@ -7794,7 +7805,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="382"/>
       <c r="B18" s="389" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C18" s="407"/>
       <c r="D18" s="413"/>
@@ -7804,7 +7815,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="385"/>
       <c r="B19" s="402" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C19" s="384"/>
       <c r="D19" s="386"/>
@@ -7814,7 +7825,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="385"/>
       <c r="B20" s="403" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C20" s="390"/>
       <c r="D20" s="388"/>
@@ -7831,11 +7842,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="919"/>
-      <c r="C22" s="919"/>
-      <c r="D22" s="919"/>
-      <c r="E22" s="919"/>
-      <c r="F22" s="919"/>
+      <c r="B22" s="922"/>
+      <c r="C22" s="922"/>
+      <c r="D22" s="922"/>
+      <c r="E22" s="922"/>
+      <c r="F22" s="922"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7848,7 +7859,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="370"/>
       <c r="B24" s="379" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="371"/>
       <c r="D24" s="371"/>
@@ -7858,7 +7869,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="370"/>
       <c r="B25" s="768" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C25" s="371"/>
       <c r="D25" s="371"/>
@@ -7868,7 +7879,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="370"/>
       <c r="B26" s="768" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C26" s="371"/>
       <c r="D26" s="371"/>
@@ -7907,23 +7918,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="931" t="s">
+      <c r="B2" s="930" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="932" t="s">
+      <c r="C2" s="931" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="932" t="s">
+      <c r="D2" s="931" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="424" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="424" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2" s="424" t="s">
         <v>277</v>
-      </c>
-      <c r="F2" s="424" t="s">
-        <v>594</v>
-      </c>
-      <c r="G2" s="424" t="s">
-        <v>279</v>
       </c>
       <c r="H2" s="424" t="s">
         <v>88</v>
@@ -7932,62 +7943,62 @@
         <v>95</v>
       </c>
       <c r="J2" s="424" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="438" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" s="438" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="438" t="s">
+      <c r="M2" s="438" t="s">
         <v>281</v>
       </c>
-      <c r="L2" s="438" t="s">
+      <c r="N2" s="438" t="s">
         <v>282</v>
       </c>
-      <c r="M2" s="438" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="930"/>
+      <c r="C3" s="932"/>
+      <c r="D3" s="932"/>
+      <c r="E3" s="439" t="s">
         <v>283</v>
       </c>
-      <c r="N2" s="438" t="s">
+      <c r="F3" s="439" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="439" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="439" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="439" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" s="439" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="440" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="931"/>
-      <c r="C3" s="933"/>
-      <c r="D3" s="933"/>
-      <c r="E3" s="439" t="s">
+      <c r="L3" s="440" t="s">
+        <v>284</v>
+      </c>
+      <c r="M3" s="440" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="440" t="s">
         <v>285</v>
       </c>
-      <c r="F3" s="439" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="439" t="s">
-        <v>285</v>
-      </c>
-      <c r="H3" s="439" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" s="439" t="s">
-        <v>285</v>
-      </c>
-      <c r="J3" s="439" t="s">
-        <v>285</v>
-      </c>
-      <c r="K3" s="440" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="933" t="s">
         <v>286</v>
       </c>
-      <c r="L3" s="440" t="s">
-        <v>286</v>
-      </c>
-      <c r="M3" s="440" t="s">
-        <v>286</v>
-      </c>
-      <c r="N3" s="440" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="934" t="s">
-        <v>288</v>
-      </c>
       <c r="C4" s="425" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D4" s="425"/>
       <c r="E4" s="426"/>
@@ -8002,7 +8013,7 @@
       <c r="N4" s="427"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="934"/>
+      <c r="B5" s="933"/>
       <c r="C5" s="425" t="s">
         <v>83</v>
       </c>
@@ -8019,9 +8030,9 @@
       <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="935"/>
+      <c r="B6" s="934"/>
       <c r="C6" s="435" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="435"/>
       <c r="E6" s="436"/>
@@ -8134,47 +8145,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="948" t="s">
+      <c r="A1" s="938" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="949"/>
+      <c r="B1" s="939"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="939" t="s">
+      <c r="D1" s="949" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="950"/>
+      <c r="F1" s="950"/>
+      <c r="G1" s="950"/>
+      <c r="H1" s="950"/>
+      <c r="I1" s="951"/>
+      <c r="J1" s="940" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="941"/>
+      <c r="L1" s="941"/>
+      <c r="M1" s="941"/>
+      <c r="N1" s="942"/>
+      <c r="O1" s="943" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="940"/>
-      <c r="F1" s="940"/>
-      <c r="G1" s="940"/>
-      <c r="H1" s="940"/>
-      <c r="I1" s="941"/>
-      <c r="J1" s="950" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="951"/>
-      <c r="L1" s="951"/>
-      <c r="M1" s="951"/>
-      <c r="N1" s="952"/>
-      <c r="O1" s="953" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="954"/>
-      <c r="Q1" s="955"/>
+      <c r="P1" s="944"/>
+      <c r="Q1" s="945"/>
       <c r="R1" s="442" t="s">
         <v>71</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="947" t="s">
-        <v>484</v>
-      </c>
-      <c r="U1" s="947"/>
-      <c r="V1" s="947"/>
-      <c r="W1" s="947"/>
-      <c r="X1" s="947"/>
-      <c r="Y1" s="947"/>
+      <c r="T1" s="937" t="s">
+        <v>482</v>
+      </c>
+      <c r="U1" s="937"/>
+      <c r="V1" s="937"/>
+      <c r="W1" s="937"/>
+      <c r="X1" s="937"/>
+      <c r="Y1" s="937"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" s="445" t="s">
         <v>81</v>
@@ -8182,18 +8193,18 @@
       <c r="C2" s="446" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="944" t="s">
+      <c r="D2" s="954" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="953"/>
+      <c r="F2" s="953" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="953"/>
+      <c r="H2" s="952" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="943"/>
-      <c r="F2" s="943" t="s">
-        <v>294</v>
-      </c>
-      <c r="G2" s="943"/>
-      <c r="H2" s="942" t="s">
-        <v>295</v>
-      </c>
-      <c r="I2" s="942"/>
+      <c r="I2" s="952"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8204,16 +8215,16 @@
         <v>2</v>
       </c>
       <c r="M2" s="448" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="449" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="459" t="s">
         <v>296</v>
       </c>
-      <c r="N2" s="449" t="s">
+      <c r="P2" s="459" t="s">
         <v>297</v>
-      </c>
-      <c r="O2" s="459" t="s">
-        <v>298</v>
-      </c>
-      <c r="P2" s="459" t="s">
-        <v>299</v>
       </c>
       <c r="Q2" s="459" t="s">
         <v>68</v>
@@ -8224,18 +8235,18 @@
       <c r="S2" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="945" t="s">
-        <v>453</v>
-      </c>
-      <c r="U2" s="945"/>
-      <c r="V2" s="946" t="s">
-        <v>470</v>
-      </c>
-      <c r="W2" s="946"/>
-      <c r="X2" s="946" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y2" s="946"/>
+      <c r="T2" s="935" t="s">
+        <v>451</v>
+      </c>
+      <c r="U2" s="935"/>
+      <c r="V2" s="936" t="s">
+        <v>468</v>
+      </c>
+      <c r="W2" s="936"/>
+      <c r="X2" s="936" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y2" s="936"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8244,30 +8255,30 @@
         <v>145</v>
       </c>
       <c r="D3" s="663" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" s="665" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="663" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G3" s="665" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="663" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I3" s="665" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="936" t="s">
-        <v>300</v>
-      </c>
-      <c r="K3" s="937"/>
-      <c r="L3" s="937"/>
-      <c r="M3" s="937"/>
-      <c r="N3" s="938"/>
+      <c r="J3" s="946" t="s">
+        <v>298</v>
+      </c>
+      <c r="K3" s="947"/>
+      <c r="L3" s="947"/>
+      <c r="M3" s="947"/>
+      <c r="N3" s="948"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -8277,19 +8288,19 @@
         <v>62</v>
       </c>
       <c r="U3" s="684" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="V3" s="685" t="s">
         <v>62</v>
       </c>
       <c r="W3" s="706" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="X3" s="685" t="s">
         <v>62</v>
       </c>
       <c r="Y3" s="706" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9496,6 +9507,11 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9503,11 +9519,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9548,56 +9559,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="865" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
-      <c r="D1" s="866"/>
-      <c r="E1" s="866"/>
-      <c r="F1" s="866"/>
+      <c r="A1" s="836" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="962" t="s">
+      <c r="H1" s="961" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="963"/>
-      <c r="J1" s="963"/>
+      <c r="I1" s="962"/>
+      <c r="J1" s="962"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="960" t="s">
-        <v>302</v>
+      <c r="O1" s="959" t="s">
+        <v>300</v>
       </c>
       <c r="P1" s="466"/>
       <c r="Q1" s="474" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R1" s="464"/>
       <c r="S1" s="474"/>
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="960" t="s">
+      <c r="W1" s="959" t="s">
+        <v>302</v>
+      </c>
+      <c r="X1" s="466"/>
+      <c r="Y1" s="963" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z1" s="963"/>
+      <c r="AA1" s="963"/>
+      <c r="AB1" s="963"/>
+      <c r="AC1" s="963"/>
+      <c r="AD1" s="964"/>
+      <c r="AE1" s="959" t="s">
         <v>304</v>
       </c>
-      <c r="X1" s="466"/>
-      <c r="Y1" s="964" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z1" s="964"/>
-      <c r="AA1" s="964"/>
-      <c r="AB1" s="964"/>
-      <c r="AC1" s="964"/>
-      <c r="AD1" s="965"/>
-      <c r="AE1" s="960" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF1" s="959" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG1" s="947"/>
-      <c r="AH1" s="947"/>
+      <c r="AF1" s="958" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG1" s="937"/>
+      <c r="AH1" s="937"/>
       <c r="AI1" s="688"/>
       <c r="AJ1" s="688"/>
       <c r="AK1" s="688"/>
@@ -9651,69 +9662,69 @@
         <v>168</v>
       </c>
       <c r="B2" s="473" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="473" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="958" t="s">
-        <v>474</v>
-      </c>
-      <c r="E2" s="958"/>
-      <c r="F2" s="958" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" s="958"/>
+        <v>306</v>
+      </c>
+      <c r="D2" s="957" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="957"/>
+      <c r="F2" s="957" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="957"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="956" t="s">
+      <c r="I2" s="955" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="956"/>
-      <c r="K2" s="956" t="s">
+      <c r="J2" s="955"/>
+      <c r="K2" s="955" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="956"/>
-      <c r="M2" s="956" t="s">
+      <c r="L2" s="955"/>
+      <c r="M2" s="955" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="957"/>
-      <c r="O2" s="961"/>
+      <c r="N2" s="956"/>
+      <c r="O2" s="960"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="956" t="s">
+      <c r="Q2" s="955" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="956"/>
-      <c r="S2" s="956" t="s">
+      <c r="R2" s="955"/>
+      <c r="S2" s="955" t="s">
         <v>179</v>
       </c>
-      <c r="T2" s="956"/>
-      <c r="U2" s="956" t="s">
+      <c r="T2" s="955"/>
+      <c r="U2" s="955" t="s">
         <v>180</v>
       </c>
-      <c r="V2" s="957"/>
-      <c r="W2" s="961"/>
+      <c r="V2" s="956"/>
+      <c r="W2" s="960"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="956" t="s">
+      <c r="Y2" s="955" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" s="956"/>
-      <c r="AA2" s="956" t="s">
+      <c r="Z2" s="955"/>
+      <c r="AA2" s="955" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="956"/>
-      <c r="AC2" s="956" t="s">
+      <c r="AB2" s="955"/>
+      <c r="AC2" s="955" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="957"/>
-      <c r="AE2" s="961"/>
+      <c r="AD2" s="956"/>
+      <c r="AE2" s="960"/>
       <c r="AF2" s="682" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG2" s="683" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AH2" s="683" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AI2" s="688"/>
       <c r="AJ2" s="688"/>
@@ -9782,76 +9793,76 @@
         <v>62</v>
       </c>
       <c r="H3" s="481" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I3" s="484" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J3" s="478" t="s">
         <v>60</v>
       </c>
       <c r="K3" s="479" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L3" s="478" t="s">
         <v>60</v>
       </c>
       <c r="M3" s="479" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N3" s="482" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="483" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P3" s="481" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q3" s="484" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R3" s="478" t="s">
         <v>60</v>
       </c>
       <c r="S3" s="479" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T3" s="478" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="479" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V3" s="482" t="s">
         <v>60</v>
       </c>
       <c r="W3" s="485" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="X3" s="481" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y3" s="479" t="s">
         <v>309</v>
-      </c>
-      <c r="Y3" s="479" t="s">
-        <v>311</v>
       </c>
       <c r="Z3" s="478" t="s">
         <v>60</v>
       </c>
       <c r="AA3" s="479" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AB3" s="478" t="s">
         <v>60</v>
       </c>
       <c r="AC3" s="479" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AD3" s="482" t="s">
         <v>60</v>
       </c>
       <c r="AE3" s="485" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF3" s="684" t="s">
         <v>62</v>
@@ -10591,11 +10602,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
@@ -10609,6 +10615,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10631,18 +10642,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="486" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="487" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="488" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="489" t="s">
         <v>315</v>
-      </c>
-      <c r="B3" s="488" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="489" t="s">
-        <v>317</v>
       </c>
       <c r="D3" s="666" t="s">
         <v>62</v>
@@ -10650,67 +10661,67 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="490" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B4" s="491" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" s="668"/>
       <c r="D4" s="690"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="492" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" s="493" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C5" s="669"/>
       <c r="D5" s="691"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="492" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" s="493" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="669"/>
       <c r="D6" s="691"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="492" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="493" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="669"/>
       <c r="D7" s="691"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="492" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B8" s="493" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C8" s="670"/>
       <c r="D8" s="692"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="492" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B9" s="493" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" s="670"/>
       <c r="D9" s="692"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="494" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B10" s="495"/>
       <c r="C10" s="671"/>
@@ -10718,74 +10729,74 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="486" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="496" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="497" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="672" t="s">
         <v>315</v>
-      </c>
-      <c r="B17" s="497" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="672" t="s">
-        <v>317</v>
       </c>
       <c r="D17" s="676"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="498" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B18" s="499" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C18" s="673"/>
       <c r="D18" s="677"/>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="498" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B19" s="499" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C19" s="674"/>
       <c r="D19" s="677"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="492" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B20" s="500" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C20" s="674"/>
       <c r="D20" s="677"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="492" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B21" s="500" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C21" s="674"/>
       <c r="D21" s="677"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="492" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B22" s="500" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C22" s="674"/>
       <c r="D22" s="677"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="494" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B23" s="501"/>
       <c r="C23" s="675"/>
@@ -10827,93 +10838,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="984"/>
-      <c r="B1" s="855"/>
-      <c r="C1" s="855"/>
+      <c r="A1" s="965"/>
+      <c r="B1" s="867"/>
+      <c r="C1" s="867"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="740"/>
       <c r="J2" s="741" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K2" s="741" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L2" s="741" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="988" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="990" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="991"/>
-      <c r="D3" s="976" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="977"/>
-      <c r="F3" s="976" t="s">
-        <v>477</v>
-      </c>
-      <c r="G3" s="977"/>
+      <c r="A3" s="973" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="975" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="976"/>
+      <c r="D3" s="971" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="972"/>
+      <c r="F3" s="971" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="972"/>
       <c r="I3" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J3" s="739" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K3" s="720"/>
       <c r="L3" s="720"/>
       <c r="N3" s="705"/>
-      <c r="O3" s="973" t="s">
-        <v>335</v>
-      </c>
-      <c r="P3" s="973"/>
-      <c r="Q3" s="973" t="s">
-        <v>336</v>
-      </c>
-      <c r="R3" s="973"/>
+      <c r="O3" s="987" t="s">
+        <v>333</v>
+      </c>
+      <c r="P3" s="987"/>
+      <c r="Q3" s="987" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3" s="987"/>
       <c r="S3" s="705"/>
       <c r="T3" s="713" t="s">
+        <v>335</v>
+      </c>
+      <c r="U3" s="705"/>
+    </row>
+    <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="974"/>
+      <c r="B4" s="512" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="512" t="s">
         <v>337</v>
       </c>
-      <c r="U3" s="705"/>
-    </row>
-    <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="989"/>
-      <c r="B4" s="512" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="512" t="s">
-        <v>339</v>
-      </c>
       <c r="D4" s="512" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" s="512" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="512" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" s="512" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I4" s="738" t="str">
         <f t="shared" ref="I4:I7" si="0">$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J4" s="739" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K4" s="720"/>
       <c r="L4" s="720"/>
       <c r="N4" s="713" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O4" s="722" t="str">
         <f>D3</f>
@@ -10943,7 +10954,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="574" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="575"/>
       <c r="C5" s="575"/>
@@ -10956,7 +10967,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J5" s="739" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K5" s="720"/>
       <c r="L5" s="720"/>
@@ -10992,7 +11003,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="577" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B6" s="578"/>
       <c r="C6" s="578"/>
@@ -11005,7 +11016,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J6" s="739" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K6" s="720"/>
       <c r="L6" s="720"/>
@@ -11041,7 +11052,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="577" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7" s="578"/>
       <c r="C7" s="578"/>
@@ -11054,7 +11065,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="J7" s="739" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K7" s="720"/>
       <c r="L7" s="720"/>
@@ -11094,12 +11105,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J8" s="739" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K8" s="720"/>
       <c r="L8" s="720"/>
       <c r="N8" s="713" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O8" s="713">
         <f>SUM(O5:O7)</f>
@@ -11127,7 +11138,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J9" s="739" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K9" s="720"/>
       <c r="L9" s="720"/>
@@ -11138,19 +11149,19 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J10" s="739" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K10" s="720"/>
       <c r="L10" s="720"/>
       <c r="N10" s="713"/>
-      <c r="O10" s="973" t="s">
-        <v>338</v>
-      </c>
-      <c r="P10" s="973"/>
-      <c r="Q10" s="973" t="s">
-        <v>345</v>
-      </c>
-      <c r="R10" s="973"/>
+      <c r="O10" s="987" t="s">
+        <v>336</v>
+      </c>
+      <c r="P10" s="987"/>
+      <c r="Q10" s="987" t="s">
+        <v>343</v>
+      </c>
+      <c r="R10" s="987"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="738" t="str">
@@ -11158,12 +11169,12 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J11" s="739" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K11" s="720"/>
       <c r="L11" s="720"/>
       <c r="N11" s="713" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O11" s="730" t="str">
         <f>D3</f>
@@ -11188,7 +11199,7 @@
         <v>[#previous_year#]</v>
       </c>
       <c r="J12" s="739" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K12" s="720"/>
       <c r="L12" s="720"/>
@@ -11214,8 +11225,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="988" t="s">
-        <v>346</v>
+      <c r="A13" s="973" t="s">
+        <v>344</v>
       </c>
       <c r="B13" s="511" t="str">
         <f>B3</f>
@@ -11234,7 +11245,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J13" s="739" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K13" s="720"/>
       <c r="L13" s="720"/>
@@ -11260,22 +11271,22 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="989"/>
+      <c r="A14" s="974"/>
       <c r="B14" s="514" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C14" s="525" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D14" s="699" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I14" s="738" t="str">
         <f t="shared" ref="I14:I17" si="3">$F$3</f>
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J14" s="739" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K14" s="720"/>
       <c r="L14" s="720"/>
@@ -11302,7 +11313,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="513" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B15" s="520"/>
       <c r="C15" s="520"/>
@@ -11312,12 +11323,12 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J15" s="739" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K15" s="720"/>
       <c r="L15" s="720"/>
       <c r="N15" s="713" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O15" s="713">
         <f>SUM(O12:O14)</f>
@@ -11338,7 +11349,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="513" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B16" s="520"/>
       <c r="C16" s="520"/>
@@ -11348,14 +11359,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J16" s="739" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K16" s="720"/>
       <c r="L16" s="720"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="513" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B17" s="520"/>
       <c r="C17" s="520"/>
@@ -11365,14 +11376,14 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="J17" s="739" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K17" s="720"/>
       <c r="L17" s="720"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B18" s="520"/>
       <c r="C18" s="520"/>
@@ -11380,7 +11391,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="515" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B19" s="520"/>
       <c r="C19" s="520"/>
@@ -11388,79 +11399,79 @@
     </row>
     <row r="21" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="502" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="978" t="s">
-        <v>496</v>
-      </c>
-      <c r="C21" s="979"/>
-      <c r="D21" s="979"/>
-      <c r="E21" s="979"/>
-      <c r="F21" s="979"/>
-      <c r="G21" s="979"/>
+        <v>349</v>
+      </c>
+      <c r="B21" s="988" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" s="989"/>
+      <c r="D21" s="989"/>
+      <c r="E21" s="989"/>
+      <c r="F21" s="989"/>
+      <c r="G21" s="989"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
-        <v>315</v>
-      </c>
-      <c r="B22" s="980" t="str">
+        <v>313</v>
+      </c>
+      <c r="B22" s="977" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="981"/>
-      <c r="D22" s="980" t="str">
+      <c r="C22" s="978"/>
+      <c r="D22" s="977" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="981"/>
-      <c r="F22" s="980" t="str">
+      <c r="E22" s="978"/>
+      <c r="F22" s="977" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="981"/>
+      <c r="G22" s="978"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
       <c r="B23" s="609" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C23" s="518" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D23" s="518" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E23" s="518" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F23" s="518" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G23" s="518" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N23" s="725" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O23" s="725" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="725" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R23" s="725" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T23" s="725" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U23" s="725" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="572" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B24" s="605"/>
       <c r="C24" s="605"/>
@@ -11485,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="713" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U24" s="727">
         <f>D24</f>
@@ -11494,7 +11505,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="579" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B25" s="606"/>
       <c r="C25" s="606"/>
@@ -11519,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="713" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U25" s="727">
         <f>B24</f>
@@ -11528,7 +11539,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="573" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B26" s="607"/>
       <c r="C26" s="607"/>
@@ -11555,7 +11566,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="573" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B27" s="607"/>
       <c r="C27" s="607"/>
@@ -11582,7 +11593,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="573" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B28" s="607"/>
       <c r="C28" s="607"/>
@@ -11609,7 +11620,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="573" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B29" s="607"/>
       <c r="C29" s="607"/>
@@ -11636,7 +11647,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="583" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B30" s="607"/>
       <c r="C30" s="607"/>
@@ -11647,10 +11658,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N31" s="713" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O31" s="713" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P31" s="705"/>
       <c r="Q31" s="705"/>
@@ -11687,7 +11698,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N33" s="713" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O33" s="720">
         <f>D25</f>
@@ -11746,10 +11757,10 @@
     </row>
     <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="521" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B35" s="521" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="522" t="str">
         <f>B3</f>
@@ -11796,7 +11807,7 @@
         <v>124</v>
       </c>
       <c r="B36" s="524" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C36" s="585"/>
       <c r="D36" s="585"/>
@@ -11831,10 +11842,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="523" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B37" s="524" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C37" s="604"/>
       <c r="D37" s="604"/>
@@ -11842,65 +11853,65 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="519" t="s">
-        <v>361</v>
-      </c>
-      <c r="B41" s="986" t="str">
+        <v>359</v>
+      </c>
+      <c r="B41" s="967" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="987"/>
-      <c r="D41" s="974" t="str">
+      <c r="C41" s="968"/>
+      <c r="D41" s="969" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="975"/>
-      <c r="F41" s="974" t="str">
+      <c r="E41" s="970"/>
+      <c r="F41" s="969" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="975"/>
+      <c r="G41" s="970"/>
       <c r="N41" s="705"/>
       <c r="O41" s="732" t="s">
+        <v>445</v>
+      </c>
+      <c r="P41" s="732" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q41" s="713" t="s">
+        <v>446</v>
+      </c>
+      <c r="R41" s="713" t="s">
+        <v>449</v>
+      </c>
+      <c r="S41" s="713" t="s">
         <v>447</v>
       </c>
-      <c r="P41" s="732" t="s">
+      <c r="T41" s="713" t="s">
         <v>450</v>
-      </c>
-      <c r="Q41" s="713" t="s">
-        <v>448</v>
-      </c>
-      <c r="R41" s="713" t="s">
-        <v>451</v>
-      </c>
-      <c r="S41" s="713" t="s">
-        <v>449</v>
-      </c>
-      <c r="T41" s="713" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="519"/>
       <c r="B42" s="519" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C42" s="519" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D42" s="519" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E42" s="519" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F42" s="519" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G42" s="519" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N42" s="731" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O42" s="720">
         <f>C43</f>
@@ -11929,7 +11940,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="513" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B43" s="520"/>
       <c r="C43" s="520"/>
@@ -11938,7 +11949,7 @@
       <c r="F43" s="582"/>
       <c r="G43" s="582"/>
       <c r="N43" s="713" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O43" s="720">
         <f>B44</f>
@@ -11967,7 +11978,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="576" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B44" s="580"/>
       <c r="C44" s="580"/>
@@ -11978,7 +11989,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="576" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B45" s="580"/>
       <c r="C45" s="580"/>
@@ -11989,7 +12000,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="576" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B46" s="580"/>
       <c r="C46" s="580"/>
@@ -12000,7 +12011,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="576" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B47" s="580"/>
       <c r="C47" s="580"/>
@@ -12011,7 +12022,7 @@
     </row>
     <row r="48" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="576" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B48" s="580"/>
       <c r="C48" s="580"/>
@@ -12022,7 +12033,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="576" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B49" s="580"/>
       <c r="C49" s="580"/>
@@ -12033,7 +12044,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="576" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B50" s="580"/>
       <c r="C50" s="580"/>
@@ -12044,7 +12055,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="576" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B51" s="580"/>
       <c r="C51" s="580"/>
@@ -12055,32 +12066,32 @@
     </row>
     <row r="53" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="728" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B53" s="526" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="526" t="s">
         <v>363</v>
       </c>
-      <c r="C53" s="526" t="s">
-        <v>365</v>
-      </c>
       <c r="D53" s="710" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E53" s="710" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F53" s="710" t="s">
-        <v>502</v>
-      </c>
-      <c r="H53" s="966" t="s">
-        <v>489</v>
-      </c>
-      <c r="I53" s="966"/>
-      <c r="J53" s="966"/>
+        <v>500</v>
+      </c>
+      <c r="H53" s="990" t="s">
+        <v>487</v>
+      </c>
+      <c r="I53" s="990"/>
+      <c r="J53" s="990"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="701" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B54" s="580"/>
       <c r="C54" s="580"/>
@@ -12093,7 +12104,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="701" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B55" s="580"/>
       <c r="C55" s="580"/>
@@ -12110,7 +12121,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="701" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B56" s="580"/>
       <c r="C56" s="580"/>
@@ -12127,7 +12138,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="701" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B57" s="580"/>
       <c r="C57" s="580"/>
@@ -12144,7 +12155,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="701" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B58" s="580"/>
       <c r="C58" s="580"/>
@@ -12161,7 +12172,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="701" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B59" s="580"/>
       <c r="C59" s="580"/>
@@ -12178,7 +12189,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="701" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="580"/>
       <c r="C60" s="580"/>
@@ -12195,7 +12206,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="701" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B61" s="582"/>
       <c r="C61" s="582"/>
@@ -12212,7 +12223,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="701" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B62" s="580"/>
       <c r="C62" s="580"/>
@@ -12229,33 +12240,33 @@
     </row>
     <row r="63" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="729" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B63" s="527" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="527" t="s">
         <v>363</v>
       </c>
-      <c r="C63" s="527" t="s">
-        <v>365</v>
-      </c>
       <c r="D63" s="710" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E63" s="710" t="s">
+        <v>499</v>
+      </c>
+      <c r="F63" s="710" t="s">
+        <v>500</v>
+      </c>
+      <c r="H63" s="990" t="s">
         <v>501</v>
       </c>
-      <c r="F63" s="710" t="s">
-        <v>502</v>
-      </c>
-      <c r="H63" s="966" t="s">
-        <v>503</v>
-      </c>
-      <c r="I63" s="966"/>
-      <c r="J63" s="966"/>
+      <c r="I63" s="990"/>
+      <c r="J63" s="990"/>
       <c r="L63" s="708"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="701" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B64" s="581"/>
       <c r="C64" s="581"/>
@@ -12274,7 +12285,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="701" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B65" s="582"/>
       <c r="C65" s="582"/>
@@ -12293,7 +12304,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="701" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B66" s="582"/>
       <c r="C66" s="582"/>
@@ -12312,7 +12323,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="701" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B67" s="582"/>
       <c r="C67" s="582"/>
@@ -12331,7 +12342,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="701" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B68" s="582"/>
       <c r="C68" s="582"/>
@@ -12350,7 +12361,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="701" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B69" s="582"/>
       <c r="C69" s="582"/>
@@ -12369,7 +12380,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="701" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B70" s="582"/>
       <c r="C70" s="582"/>
@@ -12388,7 +12399,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="702" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B71" s="703"/>
       <c r="C71" s="703"/>
@@ -12407,7 +12418,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="704" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B72" s="705"/>
       <c r="C72" s="705"/>
@@ -12426,7 +12437,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="502" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I73" s="708"/>
       <c r="J73" s="708"/>
@@ -12435,14 +12446,14 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="623" t="s">
-        <v>360</v>
-      </c>
-      <c r="B74" s="985" t="s">
-        <v>444</v>
-      </c>
-      <c r="C74" s="985"/>
-      <c r="D74" s="985"/>
-      <c r="E74" s="985"/>
+        <v>358</v>
+      </c>
+      <c r="B74" s="966" t="s">
+        <v>442</v>
+      </c>
+      <c r="C74" s="966"/>
+      <c r="D74" s="966"/>
+      <c r="E74" s="966"/>
       <c r="I74" s="709"/>
       <c r="J74" s="709"/>
       <c r="K74" s="709"/>
@@ -12450,22 +12461,22 @@
     </row>
     <row r="75" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="530" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B75" s="608" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C75" s="531"/>
       <c r="D75" s="608" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E75" s="532"/>
       <c r="F75" s="533" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G75" s="534"/>
       <c r="H75" s="533" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I75" s="529"/>
       <c r="J75" s="733"/>
@@ -12473,42 +12484,42 @@
     </row>
     <row r="76" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="507" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B76" s="508" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="C76" s="508" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D76" s="508" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="E76" s="509" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F76" s="535" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
       <c r="G76" s="584" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H76" s="621" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
       <c r="I76" s="622" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J76" s="734"/>
       <c r="K76" s="734"/>
     </row>
     <row r="77" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="617" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B77" s="620"/>
       <c r="C77" s="593"/>
@@ -12521,7 +12532,7 @@
       <c r="J77" s="735"/>
       <c r="K77" s="735"/>
       <c r="N77" s="718" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O77" s="718" t="str">
         <f>D3</f>
@@ -12532,7 +12543,7 @@
         <v xml:space="preserve">[#current_year#] </v>
       </c>
       <c r="Q77" s="719" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R77" s="737" t="str">
         <f>$D$3</f>
@@ -12545,7 +12556,7 @@
     </row>
     <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="618" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B78" s="611"/>
       <c r="C78" s="594"/>
@@ -12558,7 +12569,7 @@
       <c r="J78" s="735"/>
       <c r="K78" s="735"/>
       <c r="N78" s="713" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O78" s="720">
         <f t="shared" ref="O78:O83" si="10">H77</f>
@@ -12569,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="713" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R78" s="720">
         <f t="shared" ref="R78:R83" si="12">F77</f>
@@ -12582,7 +12593,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="618" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B79" s="611"/>
       <c r="C79" s="594"/>
@@ -12595,7 +12606,7 @@
       <c r="J79" s="735"/>
       <c r="K79" s="735"/>
       <c r="N79" s="721" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O79" s="720">
         <f t="shared" si="10"/>
@@ -12606,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="721" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R79" s="720">
         <f t="shared" si="12"/>
@@ -12619,7 +12630,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="618" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B80" s="611"/>
       <c r="C80" s="594"/>
@@ -12632,7 +12643,7 @@
       <c r="J80" s="735"/>
       <c r="K80" s="735"/>
       <c r="N80" s="721" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O80" s="720">
         <f t="shared" si="10"/>
@@ -12643,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="721" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R80" s="720">
         <f t="shared" si="12"/>
@@ -12656,7 +12667,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="618" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B81" s="613"/>
       <c r="C81" s="594"/>
@@ -12669,7 +12680,7 @@
       <c r="J81" s="736"/>
       <c r="K81" s="736"/>
       <c r="N81" s="721" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O81" s="720">
         <f t="shared" si="10"/>
@@ -12680,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="721" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R81" s="720">
         <f t="shared" si="12"/>
@@ -12693,7 +12704,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="619" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B82" s="615"/>
       <c r="C82" s="595"/>
@@ -12706,7 +12717,7 @@
       <c r="J82" s="736"/>
       <c r="K82" s="736"/>
       <c r="N82" s="721" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O82" s="720">
         <f t="shared" si="10"/>
@@ -12717,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="721" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="R82" s="720">
         <f t="shared" si="12"/>
@@ -12730,7 +12741,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N83" s="721" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O83" s="720">
         <f t="shared" si="10"/>
@@ -12741,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="721" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R83" s="720">
         <f t="shared" si="12"/>
@@ -12754,42 +12765,42 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="536" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="971" t="str">
+      <c r="B85" s="981" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="972"/>
-      <c r="D85" s="971" t="str">
+      <c r="C85" s="982"/>
+      <c r="D85" s="981" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="972"/>
-      <c r="F85" s="971" t="str">
+      <c r="E85" s="982"/>
+      <c r="F85" s="981" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="972"/>
+      <c r="G85" s="982"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
-      <c r="B86" s="927" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="928"/>
-      <c r="D86" s="927" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" s="928"/>
-      <c r="F86" s="927" t="s">
-        <v>268</v>
-      </c>
-      <c r="G86" s="928"/>
+      <c r="B86" s="926" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="927"/>
+      <c r="D86" s="926" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="927"/>
+      <c r="F86" s="926" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86" s="927"/>
       <c r="N86" s="713" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O86" s="737" t="str">
         <f>F3</f>
@@ -12806,28 +12817,28 @@
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="504" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B87" s="505" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C87" s="506" t="s">
         <v>60</v>
       </c>
       <c r="D87" s="505" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E87" s="506" t="s">
         <v>60</v>
       </c>
       <c r="F87" s="505" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G87" s="506" t="s">
         <v>60</v>
       </c>
       <c r="N87" s="715" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O87" s="713">
         <f t="shared" ref="O87:P94" si="14">C88</f>
@@ -12844,7 +12855,7 @@
     </row>
     <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="537" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B88" s="590">
         <v>100</v>
@@ -12859,7 +12870,7 @@
       </c>
       <c r="G88" s="568"/>
       <c r="N88" s="716" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O88" s="713">
         <f t="shared" si="14"/>
@@ -12876,7 +12887,7 @@
     </row>
     <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="538" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B89" s="590"/>
       <c r="C89" s="520"/>
@@ -12885,7 +12896,7 @@
       <c r="F89" s="590"/>
       <c r="G89" s="582"/>
       <c r="N89" s="715" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O89" s="713">
         <f t="shared" si="14"/>
@@ -12902,7 +12913,7 @@
     </row>
     <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="537" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B90" s="590">
         <v>100</v>
@@ -12917,7 +12928,7 @@
       </c>
       <c r="G90" s="568"/>
       <c r="N90" s="716" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O90" s="713">
         <f t="shared" si="14"/>
@@ -12934,7 +12945,7 @@
     </row>
     <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="538" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B91" s="591"/>
       <c r="C91" s="520"/>
@@ -12943,7 +12954,7 @@
       <c r="F91" s="591"/>
       <c r="G91" s="582"/>
       <c r="N91" s="716" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O91" s="713">
         <f t="shared" si="14"/>
@@ -12960,7 +12971,7 @@
     </row>
     <row r="92" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="538" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B92" s="591"/>
       <c r="C92" s="520"/>
@@ -12969,7 +12980,7 @@
       <c r="F92" s="591"/>
       <c r="G92" s="582"/>
       <c r="N92" s="717" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O92" s="713">
         <f t="shared" si="14"/>
@@ -12986,7 +12997,7 @@
     </row>
     <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="539" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B93" s="592">
         <v>100</v>
@@ -13001,7 +13012,7 @@
       </c>
       <c r="G93" s="568"/>
       <c r="N93" s="716" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O93" s="713">
         <f t="shared" si="14"/>
@@ -13018,7 +13029,7 @@
     </row>
     <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="538" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B94" s="591"/>
       <c r="C94" s="520"/>
@@ -13027,7 +13038,7 @@
       <c r="F94" s="591"/>
       <c r="G94" s="582"/>
       <c r="N94" s="716" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O94" s="713">
         <f t="shared" si="14"/>
@@ -13044,7 +13055,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="538" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B95" s="591"/>
       <c r="C95" s="520"/>
@@ -13064,65 +13075,65 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="536" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="971" t="str">
+      <c r="B101" s="981" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="972"/>
-      <c r="D101" s="971" t="str">
+      <c r="C101" s="982"/>
+      <c r="D101" s="981" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="972"/>
-      <c r="F101" s="971" t="str">
+      <c r="E101" s="982"/>
+      <c r="F101" s="981" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="972"/>
+      <c r="G101" s="982"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
-      <c r="B102" s="927" t="s">
-        <v>268</v>
-      </c>
-      <c r="C102" s="928"/>
-      <c r="D102" s="927" t="s">
-        <v>268</v>
-      </c>
-      <c r="E102" s="928"/>
-      <c r="F102" s="927" t="s">
-        <v>268</v>
-      </c>
-      <c r="G102" s="928"/>
+      <c r="B102" s="926" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="927"/>
+      <c r="D102" s="926" t="s">
+        <v>266</v>
+      </c>
+      <c r="E102" s="927"/>
+      <c r="F102" s="926" t="s">
+        <v>266</v>
+      </c>
+      <c r="G102" s="927"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B103" s="505" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C103" s="506" t="s">
         <v>60</v>
       </c>
       <c r="D103" s="505" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E103" s="506" t="s">
         <v>60</v>
       </c>
       <c r="F103" s="505" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G103" s="506" t="s">
         <v>60</v>
       </c>
       <c r="N103" s="713" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O103" s="737" t="str">
         <f>$F$3</f>
@@ -13139,7 +13150,7 @@
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="537" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B104" s="590">
         <v>100</v>
@@ -13154,7 +13165,7 @@
       </c>
       <c r="G104" s="568"/>
       <c r="N104" s="537" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O104" s="707">
         <f t="shared" ref="O104:P111" si="16">C104</f>
@@ -13171,7 +13182,7 @@
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="538" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B105" s="590"/>
       <c r="C105" s="520"/>
@@ -13180,7 +13191,7 @@
       <c r="F105" s="590"/>
       <c r="G105" s="582"/>
       <c r="N105" s="538" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O105" s="707">
         <f t="shared" si="16"/>
@@ -13197,7 +13208,7 @@
     </row>
     <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="537" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B106" s="590">
         <v>100</v>
@@ -13212,7 +13223,7 @@
       </c>
       <c r="G106" s="568"/>
       <c r="N106" s="537" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O106" s="707">
         <f t="shared" si="16"/>
@@ -13229,7 +13240,7 @@
     </row>
     <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="538" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B107" s="591"/>
       <c r="C107" s="520"/>
@@ -13238,7 +13249,7 @@
       <c r="F107" s="591"/>
       <c r="G107" s="582"/>
       <c r="N107" s="538" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O107" s="707">
         <f t="shared" si="16"/>
@@ -13255,7 +13266,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="538" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B108" s="591"/>
       <c r="C108" s="520"/>
@@ -13264,7 +13275,7 @@
       <c r="F108" s="591"/>
       <c r="G108" s="582"/>
       <c r="N108" s="538" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O108" s="707">
         <f t="shared" si="16"/>
@@ -13281,7 +13292,7 @@
     </row>
     <row r="109" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="539" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B109" s="592">
         <v>100</v>
@@ -13296,7 +13307,7 @@
       </c>
       <c r="G109" s="568"/>
       <c r="N109" s="539" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O109" s="707">
         <f t="shared" si="16"/>
@@ -13313,7 +13324,7 @@
     </row>
     <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="538" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B110" s="591"/>
       <c r="C110" s="520"/>
@@ -13322,7 +13333,7 @@
       <c r="F110" s="591"/>
       <c r="G110" s="582"/>
       <c r="N110" s="538" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O110" s="707">
         <f t="shared" si="16"/>
@@ -13339,7 +13350,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="538" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B111" s="591"/>
       <c r="C111" s="520"/>
@@ -13348,7 +13359,7 @@
       <c r="F111" s="591"/>
       <c r="G111" s="582"/>
       <c r="N111" s="538" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O111" s="707">
         <f t="shared" si="16"/>
@@ -13374,59 +13385,59 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="536" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="967" t="str">
+      <c r="B116" s="983" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="968"/>
-      <c r="D116" s="967" t="str">
+      <c r="C116" s="984"/>
+      <c r="D116" s="983" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="968"/>
-      <c r="F116" s="967" t="str">
+      <c r="E116" s="984"/>
+      <c r="F116" s="983" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="968"/>
+      <c r="G116" s="984"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="969" t="s">
-        <v>268</v>
-      </c>
-      <c r="C117" s="970"/>
-      <c r="D117" s="969" t="s">
-        <v>268</v>
-      </c>
-      <c r="E117" s="970"/>
-      <c r="F117" s="969" t="s">
-        <v>268</v>
-      </c>
-      <c r="G117" s="970"/>
+      <c r="B117" s="985" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" s="986"/>
+      <c r="D117" s="985" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" s="986"/>
+      <c r="F117" s="985" t="s">
+        <v>266</v>
+      </c>
+      <c r="G117" s="986"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B118" s="544" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C118" s="545" t="s">
         <v>60</v>
       </c>
       <c r="D118" s="544" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E118" s="545" t="s">
         <v>60</v>
       </c>
       <c r="F118" s="544" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G118" s="545" t="s">
         <v>60</v>
@@ -13435,7 +13446,7 @@
       <c r="J118" s="569"/>
       <c r="K118" s="569"/>
       <c r="N118" s="713" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O118" s="737" t="str">
         <f>$F$3</f>
@@ -13452,7 +13463,7 @@
     </row>
     <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="537" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B119" s="590">
         <v>100</v>
@@ -13470,7 +13481,7 @@
       <c r="J119" s="569"/>
       <c r="K119" s="569"/>
       <c r="N119" s="537" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O119" s="707">
         <f t="shared" ref="O119:P126" si="18">D119</f>
@@ -13487,7 +13498,7 @@
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="538" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B120" s="590"/>
       <c r="C120" s="520"/>
@@ -13499,7 +13510,7 @@
       <c r="J120" s="569"/>
       <c r="K120" s="569"/>
       <c r="N120" s="538" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O120" s="707">
         <f t="shared" si="18"/>
@@ -13516,7 +13527,7 @@
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="537" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B121" s="590">
         <v>100</v>
@@ -13534,7 +13545,7 @@
       <c r="J121" s="569"/>
       <c r="K121" s="569"/>
       <c r="N121" s="537" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O121" s="707">
         <f t="shared" si="18"/>
@@ -13551,7 +13562,7 @@
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="538" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B122" s="591"/>
       <c r="C122" s="520"/>
@@ -13563,7 +13574,7 @@
       <c r="J122" s="569"/>
       <c r="K122" s="569"/>
       <c r="N122" s="538" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O122" s="707">
         <f t="shared" si="18"/>
@@ -13580,7 +13591,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="538" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B123" s="591"/>
       <c r="C123" s="520"/>
@@ -13592,7 +13603,7 @@
       <c r="J123" s="569"/>
       <c r="K123" s="569"/>
       <c r="N123" s="538" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O123" s="626">
         <f t="shared" si="18"/>
@@ -13609,7 +13620,7 @@
     </row>
     <row r="124" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="539" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B124" s="592">
         <v>100</v>
@@ -13627,7 +13638,7 @@
       <c r="J124" s="569"/>
       <c r="K124" s="569"/>
       <c r="N124" s="539" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O124" s="626">
         <f t="shared" si="18"/>
@@ -13644,7 +13655,7 @@
     </row>
     <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="538" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B125" s="591"/>
       <c r="C125" s="520"/>
@@ -13656,7 +13667,7 @@
       <c r="J125" s="569"/>
       <c r="K125" s="569"/>
       <c r="N125" s="538" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O125" s="626">
         <f t="shared" si="18"/>
@@ -13673,7 +13684,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="538" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B126" s="591"/>
       <c r="C126" s="520"/>
@@ -13682,7 +13693,7 @@
       <c r="F126" s="591"/>
       <c r="G126" s="582"/>
       <c r="N126" s="538" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O126" s="626">
         <f t="shared" si="18"/>
@@ -13708,16 +13719,16 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="546" t="s">
-        <v>346</v>
-      </c>
-      <c r="B129" s="982" t="str">
+        <v>344</v>
+      </c>
+      <c r="B129" s="979" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="983"/>
-      <c r="D129" s="983"/>
+      <c r="C129" s="980"/>
+      <c r="D129" s="980"/>
       <c r="N129" s="713" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O129" s="737" t="str">
         <f>$F$3</f>
@@ -13741,7 +13752,7 @@
         <v>60</v>
       </c>
       <c r="D130" s="549" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N130" s="713" t="str">
         <f>CONCATENATE("Collection 
@@ -13764,7 +13775,7 @@
     </row>
     <row r="131" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="550" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B131" s="588">
         <v>100</v>
@@ -13792,7 +13803,7 @@
     </row>
     <row r="132" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="513" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B132" s="588"/>
       <c r="C132" s="520"/>
@@ -13818,7 +13829,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="513" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B133" s="588"/>
       <c r="C133" s="520"/>
@@ -13826,7 +13837,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="513" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B134" s="588"/>
       <c r="C134" s="520"/>
@@ -13834,7 +13845,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="513" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B135" s="588"/>
       <c r="C135" s="520"/>
@@ -13842,7 +13853,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="513" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B136" s="588"/>
       <c r="C136" s="520"/>
@@ -13850,7 +13861,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="513" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B137" s="588"/>
       <c r="C137" s="520"/>
@@ -13858,7 +13869,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="513" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B138" s="588"/>
       <c r="C138" s="520"/>
@@ -13866,7 +13877,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="513" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B139" s="588"/>
       <c r="C139" s="520"/>
@@ -13877,7 +13888,7 @@
     </row>
     <row r="147" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B147" s="553"/>
       <c r="C147" s="554" t="str">
@@ -13895,7 +13906,7 @@
     </row>
     <row r="148" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="556" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B148" s="556" t="s">
         <v>63</v>
@@ -13904,7 +13915,7 @@
       <c r="D148" s="587"/>
       <c r="E148" s="587"/>
       <c r="N148" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O148" s="553"/>
       <c r="P148" s="555" t="str">
@@ -13918,7 +13929,7 @@
     </row>
     <row r="149" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="556" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B149" s="556" t="s">
         <v>63</v>
@@ -13927,7 +13938,7 @@
       <c r="D149" s="587"/>
       <c r="E149" s="587"/>
       <c r="N149" s="556" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O149" s="556" t="s">
         <v>63</v>
@@ -13937,7 +13948,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>63</v>
@@ -13946,7 +13957,7 @@
       <c r="D150" s="587"/>
       <c r="E150" s="587"/>
       <c r="N150" s="556" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O150" s="556" t="s">
         <v>63</v>
@@ -13956,7 +13967,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>63</v>
@@ -13965,7 +13976,7 @@
       <c r="D151" s="587"/>
       <c r="E151" s="587"/>
       <c r="N151" s="556" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O151" s="556" t="s">
         <v>63</v>
@@ -13975,7 +13986,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="556" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B152" s="556" t="s">
         <v>63</v>
@@ -13984,7 +13995,7 @@
       <c r="D152" s="587"/>
       <c r="E152" s="587"/>
       <c r="N152" s="556" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O152" s="556" t="s">
         <v>63</v>
@@ -13994,7 +14005,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="556" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B153" s="556" t="s">
         <v>63</v>
@@ -14005,7 +14016,7 @@
     </row>
     <row r="154" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="556" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B154" s="556" t="s">
         <v>63</v>
@@ -14014,7 +14025,7 @@
       <c r="D154" s="587"/>
       <c r="E154" s="587"/>
       <c r="N154" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O154" s="553"/>
       <c r="P154" s="555" t="str">
@@ -14028,7 +14039,7 @@
     </row>
     <row r="155" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="556" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B155" s="556" t="s">
         <v>63</v>
@@ -14037,7 +14048,7 @@
       <c r="D155" s="587"/>
       <c r="E155" s="587"/>
       <c r="N155" s="556" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O155" s="556" t="s">
         <v>63</v>
@@ -14048,7 +14059,7 @@
     <row r="156" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D156" s="528"/>
       <c r="N156" s="556" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O156" s="556" t="s">
         <v>63</v>
@@ -14059,7 +14070,7 @@
     <row r="157" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="528"/>
       <c r="N157" s="556" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O157" s="556" t="s">
         <v>63</v>
@@ -14069,7 +14080,7 @@
     </row>
     <row r="158" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B158" s="552"/>
       <c r="C158" s="555" t="str">
@@ -14085,7 +14096,7 @@
         <v>[#previous_year_n2#]</v>
       </c>
       <c r="N158" s="556" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O158" s="556" t="s">
         <v>63</v>
@@ -14115,7 +14126,7 @@
       <c r="D160" s="589"/>
       <c r="E160" s="589"/>
       <c r="N160" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O160" s="552"/>
       <c r="P160" s="555" t="str">
@@ -14213,7 +14224,7 @@
     </row>
     <row r="165" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A165" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B165" s="558"/>
       <c r="C165" s="554" t="str">
@@ -14231,7 +14242,7 @@
     </row>
     <row r="166" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="556" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B166" s="556" t="s">
         <v>151</v>
@@ -14242,7 +14253,7 @@
     </row>
     <row r="168" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B168" s="553"/>
       <c r="C168" s="554" t="str">
@@ -14260,7 +14271,7 @@
     </row>
     <row r="169" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="556" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B169" s="556" t="s">
         <v>152</v>
@@ -14269,7 +14280,7 @@
       <c r="D169" s="589"/>
       <c r="E169" s="589"/>
       <c r="N169" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O169" s="553"/>
       <c r="P169" s="555" t="str">
@@ -14283,7 +14294,7 @@
     </row>
     <row r="170" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="556" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B170" s="556" t="s">
         <v>152</v>
@@ -14292,7 +14303,7 @@
       <c r="D170" s="589"/>
       <c r="E170" s="589"/>
       <c r="N170" s="556" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O170" s="556" t="s">
         <v>152</v>
@@ -14308,7 +14319,7 @@
     </row>
     <row r="171" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="556" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B171" s="556" t="s">
         <v>152</v>
@@ -14317,7 +14328,7 @@
       <c r="D171" s="589"/>
       <c r="E171" s="589"/>
       <c r="N171" s="556" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O171" s="556" t="s">
         <v>152</v>
@@ -14333,7 +14344,7 @@
     </row>
     <row r="172" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="556" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B172" s="556" t="s">
         <v>152</v>
@@ -14342,7 +14353,7 @@
       <c r="D172" s="589"/>
       <c r="E172" s="589"/>
       <c r="N172" s="556" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O172" s="556" t="s">
         <v>152</v>
@@ -14358,7 +14369,7 @@
     </row>
     <row r="173" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="556" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B173" s="556" t="s">
         <v>152</v>
@@ -14367,7 +14378,7 @@
       <c r="D173" s="589"/>
       <c r="E173" s="589"/>
       <c r="N173" s="556" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O173" s="556" t="s">
         <v>152</v>
@@ -14383,7 +14394,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="556" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B174" s="556" t="s">
         <v>152</v>
@@ -14394,7 +14405,7 @@
     </row>
     <row r="175" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="556" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B175" s="556" t="s">
         <v>152</v>
@@ -14403,7 +14414,7 @@
       <c r="D175" s="589"/>
       <c r="E175" s="589"/>
       <c r="N175" s="552" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O175" s="553"/>
       <c r="P175" s="555" t="str">
@@ -14417,7 +14428,7 @@
     </row>
     <row r="176" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="556" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B176" s="556" t="s">
         <v>152</v>
@@ -14426,7 +14437,7 @@
       <c r="D176" s="589"/>
       <c r="E176" s="589"/>
       <c r="N176" s="556" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O176" s="556" t="s">
         <v>152</v>
@@ -14442,7 +14453,7 @@
     </row>
     <row r="177" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N177" s="556" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O177" s="556" t="s">
         <v>152</v>
@@ -14458,7 +14469,7 @@
     </row>
     <row r="178" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N178" s="556" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O178" s="556" t="s">
         <v>152</v>
@@ -14474,7 +14485,7 @@
     </row>
     <row r="179" spans="14:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N179" s="556" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O179" s="556" t="s">
         <v>152</v>
@@ -14491,16 +14502,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14514,22 +14531,16 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14553,7 +14564,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="627" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14563,16 +14574,16 @@
     </row>
     <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="631" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="631" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="631" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="631" t="s">
         <v>426</v>
-      </c>
-      <c r="B5" s="631" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" s="631" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="631" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15361,7 +15372,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="636" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15369,16 +15380,16 @@
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="637" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B5" s="637" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C5" s="765" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D5" s="637" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15417,27 +15428,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="643" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="644" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="644" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="644" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="644" t="s">
+      <c r="D4" s="644" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="644" t="s">
+      <c r="E4" s="644" t="s">
         <v>434</v>
       </c>
-      <c r="D4" s="644" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" s="644" t="s">
-        <v>436</v>
-      </c>
       <c r="F4" s="644" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -17820,7 +17831,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AQ10000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -17930,7 +17941,7 @@
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="825" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B4" s="826"/>
       <c r="C4" s="826"/>
@@ -17983,7 +17994,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="795" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D5" s="828" t="s">
         <v>27</v>
@@ -18013,34 +18024,34 @@
         <v>35</v>
       </c>
       <c r="M5" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="Q5" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="R5" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="S5" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="U5" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="V5" s="16" t="s">
         <v>604</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>606</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>37</v>
@@ -18049,7 +18060,7 @@
         <v>38</v>
       </c>
       <c r="Y5" s="830" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Z5" s="830" t="s">
         <v>39</v>
@@ -58279,7 +58290,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="649" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -58290,25 +58301,25 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="651" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="651" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="765" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="651" t="s">
         <v>432</v>
       </c>
-      <c r="B5" s="651" t="s">
+      <c r="E5" s="651" t="s">
         <v>433</v>
       </c>
-      <c r="C5" s="765" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="651" t="s">
-        <v>434</v>
-      </c>
-      <c r="E5" s="651" t="s">
-        <v>435</v>
-      </c>
       <c r="F5" s="765" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G5" s="651" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -58479,16 +58490,16 @@
         <v>26</v>
       </c>
       <c r="C1" s="823" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1" s="766" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="766" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="766" t="s">
-        <v>587</v>
-      </c>
-      <c r="E1" s="766" t="s">
-        <v>588</v>
-      </c>
       <c r="F1" s="661" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G1" s="661" t="s">
         <v>40</v>
@@ -58691,123 +58702,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="865" t="s">
+      <c r="A1" s="836" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="866"/>
-      <c r="C1" s="866"/>
-      <c r="D1" s="866"/>
-      <c r="E1" s="866"/>
-      <c r="F1" s="866"/>
-      <c r="G1" s="866"/>
-      <c r="H1" s="867" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" s="868"/>
-      <c r="J1" s="868"/>
-      <c r="K1" s="868"/>
-      <c r="L1" s="868"/>
-      <c r="M1" s="869"/>
-      <c r="N1" s="870" t="s">
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
+      <c r="G1" s="837"/>
+      <c r="H1" s="838" t="s">
+        <v>451</v>
+      </c>
+      <c r="I1" s="839"/>
+      <c r="J1" s="839"/>
+      <c r="K1" s="839"/>
+      <c r="L1" s="839"/>
+      <c r="M1" s="840"/>
+      <c r="N1" s="841" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="848"/>
-      <c r="P1" s="848"/>
-      <c r="Q1" s="848"/>
-      <c r="R1" s="848"/>
-      <c r="S1" s="848"/>
-      <c r="T1" s="848"/>
-      <c r="U1" s="848"/>
-      <c r="V1" s="871" t="s">
+      <c r="O1" s="842"/>
+      <c r="P1" s="842"/>
+      <c r="Q1" s="842"/>
+      <c r="R1" s="842"/>
+      <c r="S1" s="842"/>
+      <c r="T1" s="842"/>
+      <c r="U1" s="842"/>
+      <c r="V1" s="843" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="872"/>
-      <c r="X1" s="873"/>
-      <c r="Y1" s="873"/>
-      <c r="Z1" s="874"/>
-      <c r="AA1" s="875" t="s">
+      <c r="W1" s="844"/>
+      <c r="X1" s="845"/>
+      <c r="Y1" s="845"/>
+      <c r="Z1" s="846"/>
+      <c r="AA1" s="847" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="876"/>
-      <c r="AC1" s="876"/>
-      <c r="AD1" s="876"/>
-      <c r="AE1" s="876"/>
-      <c r="AF1" s="876"/>
-      <c r="AG1" s="876"/>
-      <c r="AH1" s="876"/>
-      <c r="AI1" s="876"/>
-      <c r="AJ1" s="876"/>
-      <c r="AK1" s="876"/>
-      <c r="AL1" s="876"/>
-      <c r="AM1" s="876"/>
+      <c r="AB1" s="848"/>
+      <c r="AC1" s="848"/>
+      <c r="AD1" s="848"/>
+      <c r="AE1" s="848"/>
+      <c r="AF1" s="848"/>
+      <c r="AG1" s="848"/>
+      <c r="AH1" s="848"/>
+      <c r="AI1" s="848"/>
+      <c r="AJ1" s="848"/>
+      <c r="AK1" s="848"/>
+      <c r="AL1" s="848"/>
+      <c r="AM1" s="848"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="847" t="s">
+      <c r="AP1" s="860" t="s">
         <v>75</v>
       </c>
-      <c r="AQ1" s="848"/>
-      <c r="AR1" s="848"/>
-      <c r="AS1" s="848"/>
-      <c r="AT1" s="848"/>
-      <c r="AU1" s="848"/>
-      <c r="AV1" s="848"/>
-      <c r="AW1" s="849"/>
-      <c r="AX1" s="856" t="s">
-        <v>583</v>
-      </c>
-      <c r="AY1" s="857"/>
-      <c r="AZ1" s="857"/>
-      <c r="BA1" s="857"/>
-      <c r="BB1" s="857"/>
-      <c r="BC1" s="858"/>
-      <c r="BD1" s="859" t="s">
+      <c r="AQ1" s="842"/>
+      <c r="AR1" s="842"/>
+      <c r="AS1" s="842"/>
+      <c r="AT1" s="842"/>
+      <c r="AU1" s="842"/>
+      <c r="AV1" s="842"/>
+      <c r="AW1" s="861"/>
+      <c r="AX1" s="868" t="s">
+        <v>581</v>
+      </c>
+      <c r="AY1" s="869"/>
+      <c r="AZ1" s="869"/>
+      <c r="BA1" s="869"/>
+      <c r="BB1" s="869"/>
+      <c r="BC1" s="870"/>
+      <c r="BD1" s="871" t="s">
         <v>76</v>
       </c>
-      <c r="BE1" s="860"/>
-      <c r="BF1" s="860"/>
-      <c r="BG1" s="860"/>
-      <c r="BH1" s="860"/>
-      <c r="BI1" s="861"/>
-      <c r="BJ1" s="862" t="s">
+      <c r="BE1" s="872"/>
+      <c r="BF1" s="872"/>
+      <c r="BG1" s="872"/>
+      <c r="BH1" s="872"/>
+      <c r="BI1" s="873"/>
+      <c r="BJ1" s="874" t="s">
         <v>77</v>
       </c>
-      <c r="BK1" s="863"/>
-      <c r="BL1" s="863"/>
-      <c r="BM1" s="863"/>
-      <c r="BN1" s="863"/>
-      <c r="BO1" s="863"/>
-      <c r="BP1" s="864"/>
-      <c r="BQ1" s="836" t="s">
+      <c r="BK1" s="875"/>
+      <c r="BL1" s="875"/>
+      <c r="BM1" s="875"/>
+      <c r="BN1" s="875"/>
+      <c r="BO1" s="875"/>
+      <c r="BP1" s="876"/>
+      <c r="BQ1" s="849" t="s">
         <v>78</v>
       </c>
-      <c r="BR1" s="837"/>
-      <c r="BS1" s="837"/>
-      <c r="BT1" s="837"/>
-      <c r="BU1" s="837"/>
-      <c r="BV1" s="837"/>
+      <c r="BR1" s="850"/>
+      <c r="BS1" s="850"/>
+      <c r="BT1" s="850"/>
+      <c r="BU1" s="850"/>
+      <c r="BV1" s="850"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="838" t="s">
+      <c r="BY1" s="851" t="s">
         <v>79</v>
       </c>
-      <c r="BZ1" s="839"/>
-      <c r="CA1" s="839"/>
-      <c r="CB1" s="839"/>
-      <c r="CC1" s="839"/>
-      <c r="CD1" s="839"/>
-      <c r="CE1" s="839"/>
-      <c r="CF1" s="840"/>
-      <c r="CG1" s="840"/>
-      <c r="CH1" s="840"/>
-      <c r="CI1" s="840"/>
-      <c r="CJ1" s="840"/>
-      <c r="CK1" s="840"/>
-      <c r="CL1" s="840"/>
-      <c r="CM1" s="840"/>
-      <c r="CN1" s="840"/>
-      <c r="CO1" s="840"/>
-      <c r="CP1" s="840"/>
-      <c r="CQ1" s="840"/>
+      <c r="BZ1" s="852"/>
+      <c r="CA1" s="852"/>
+      <c r="CB1" s="852"/>
+      <c r="CC1" s="852"/>
+      <c r="CD1" s="852"/>
+      <c r="CE1" s="852"/>
+      <c r="CF1" s="853"/>
+      <c r="CG1" s="853"/>
+      <c r="CH1" s="853"/>
+      <c r="CI1" s="853"/>
+      <c r="CJ1" s="853"/>
+      <c r="CK1" s="853"/>
+      <c r="CL1" s="853"/>
+      <c r="CM1" s="853"/>
+      <c r="CN1" s="853"/>
+      <c r="CO1" s="853"/>
+      <c r="CP1" s="853"/>
+      <c r="CQ1" s="853"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58831,18 +58842,18 @@
       <c r="G2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="841" t="s">
-        <v>454</v>
-      </c>
-      <c r="I2" s="842"/>
-      <c r="J2" s="842" t="s">
+      <c r="H2" s="854" t="s">
+        <v>452</v>
+      </c>
+      <c r="I2" s="855"/>
+      <c r="J2" s="855" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="842"/>
-      <c r="L2" s="842" t="s">
+      <c r="K2" s="855"/>
+      <c r="L2" s="855" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="843"/>
+      <c r="M2" s="856"/>
       <c r="N2" s="57" t="s">
         <v>80</v>
       </c>
@@ -58877,10 +58888,10 @@
         <v>93</v>
       </c>
       <c r="Y2" s="61" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z2" s="63" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA2" s="64" t="s">
         <v>96</v>
@@ -58913,10 +58924,10 @@
         <v>104</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AL2" s="67" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM2" s="67" t="s">
         <v>105</v>
@@ -58946,41 +58957,41 @@
         <v>113</v>
       </c>
       <c r="AV2" s="58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AW2" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="AX2" s="844" t="s">
+      <c r="AX2" s="857" t="s">
         <v>115</v>
       </c>
-      <c r="AY2" s="845"/>
-      <c r="AZ2" s="845"/>
-      <c r="BA2" s="845" t="s">
+      <c r="AY2" s="858"/>
+      <c r="AZ2" s="858"/>
+      <c r="BA2" s="858" t="s">
         <v>116</v>
       </c>
-      <c r="BB2" s="845"/>
-      <c r="BC2" s="846"/>
-      <c r="BD2" s="850" t="s">
+      <c r="BB2" s="858"/>
+      <c r="BC2" s="859"/>
+      <c r="BD2" s="862" t="s">
         <v>115</v>
       </c>
-      <c r="BE2" s="851"/>
-      <c r="BF2" s="851"/>
-      <c r="BG2" s="851" t="s">
+      <c r="BE2" s="863"/>
+      <c r="BF2" s="863"/>
+      <c r="BG2" s="863" t="s">
         <v>116</v>
       </c>
-      <c r="BH2" s="851"/>
-      <c r="BI2" s="852"/>
-      <c r="BJ2" s="853" t="s">
+      <c r="BH2" s="863"/>
+      <c r="BI2" s="864"/>
+      <c r="BJ2" s="865" t="s">
         <v>115</v>
       </c>
-      <c r="BK2" s="854"/>
-      <c r="BL2" s="854"/>
-      <c r="BM2" s="854" t="s">
+      <c r="BK2" s="866"/>
+      <c r="BL2" s="866"/>
+      <c r="BM2" s="866" t="s">
         <v>116</v>
       </c>
-      <c r="BN2" s="855"/>
-      <c r="BO2" s="855"/>
+      <c r="BN2" s="867"/>
+      <c r="BO2" s="867"/>
       <c r="BP2" s="69" t="s">
         <v>117</v>
       </c>
@@ -59613,11 +59624,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59633,6 +59639,11 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59644,11 +59655,11 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:CZ47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="CB5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="BP5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CI2" sqref="CI2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59716,101 +59727,101 @@
         <v>157</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="900" t="s">
+      <c r="M1" s="877" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="901" t="s">
-        <v>509</v>
-      </c>
-      <c r="O1" s="902"/>
-      <c r="P1" s="902"/>
-      <c r="Q1" s="902"/>
-      <c r="R1" s="903" t="s">
-        <v>453</v>
-      </c>
-      <c r="S1" s="896"/>
-      <c r="T1" s="896"/>
-      <c r="U1" s="896"/>
-      <c r="V1" s="896"/>
-      <c r="W1" s="896"/>
-      <c r="X1" s="904"/>
-      <c r="Y1" s="890" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z1" s="860"/>
-      <c r="AA1" s="905" t="s">
+      <c r="N1" s="878" t="s">
+        <v>507</v>
+      </c>
+      <c r="O1" s="879"/>
+      <c r="P1" s="879"/>
+      <c r="Q1" s="879"/>
+      <c r="R1" s="880" t="s">
+        <v>451</v>
+      </c>
+      <c r="S1" s="881"/>
+      <c r="T1" s="881"/>
+      <c r="U1" s="881"/>
+      <c r="V1" s="881"/>
+      <c r="W1" s="881"/>
+      <c r="X1" s="882"/>
+      <c r="Y1" s="883" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z1" s="872"/>
+      <c r="AA1" s="886" t="s">
         <v>159</v>
       </c>
-      <c r="AB1" s="878" t="s">
+      <c r="AB1" s="897" t="s">
         <v>160</v>
       </c>
-      <c r="AC1" s="892" t="s">
+      <c r="AC1" s="893" t="s">
         <v>161</v>
       </c>
-      <c r="AD1" s="893"/>
-      <c r="AE1" s="893"/>
-      <c r="AF1" s="894"/>
-      <c r="AG1" s="895" t="s">
+      <c r="AD1" s="894"/>
+      <c r="AE1" s="894"/>
+      <c r="AF1" s="895"/>
+      <c r="AG1" s="896" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="896"/>
-      <c r="AI1" s="896"/>
-      <c r="AJ1" s="896"/>
-      <c r="AK1" s="896"/>
-      <c r="AL1" s="896"/>
-      <c r="AM1" s="896"/>
-      <c r="AN1" s="896"/>
-      <c r="AO1" s="878" t="s">
+      <c r="AH1" s="881"/>
+      <c r="AI1" s="881"/>
+      <c r="AJ1" s="881"/>
+      <c r="AK1" s="881"/>
+      <c r="AL1" s="881"/>
+      <c r="AM1" s="881"/>
+      <c r="AN1" s="881"/>
+      <c r="AO1" s="897" t="s">
         <v>163</v>
       </c>
-      <c r="AP1" s="890" t="s">
-        <v>460</v>
-      </c>
-      <c r="AQ1" s="860"/>
-      <c r="AR1" s="860"/>
-      <c r="AS1" s="861"/>
-      <c r="AT1" s="898" t="s">
+      <c r="AP1" s="883" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ1" s="872"/>
+      <c r="AR1" s="872"/>
+      <c r="AS1" s="873"/>
+      <c r="AT1" s="900" t="s">
         <v>164</v>
       </c>
-      <c r="AU1" s="899"/>
-      <c r="AV1" s="899"/>
-      <c r="AW1" s="899"/>
-      <c r="AX1" s="899"/>
-      <c r="AY1" s="899"/>
-      <c r="AZ1" s="899"/>
-      <c r="BA1" s="899"/>
-      <c r="BB1" s="899"/>
-      <c r="BC1" s="899"/>
-      <c r="BD1" s="899"/>
-      <c r="BE1" s="899"/>
-      <c r="BF1" s="899"/>
-      <c r="BG1" s="899"/>
-      <c r="BH1" s="899"/>
-      <c r="BI1" s="899"/>
-      <c r="BJ1" s="899"/>
-      <c r="BK1" s="899"/>
-      <c r="BL1" s="899"/>
-      <c r="BM1" s="899"/>
-      <c r="BN1" s="899"/>
-      <c r="BO1" s="899"/>
-      <c r="BP1" s="899"/>
-      <c r="BQ1" s="899"/>
-      <c r="BR1" s="899"/>
-      <c r="BS1" s="899"/>
-      <c r="BT1" s="899"/>
-      <c r="BU1" s="899"/>
-      <c r="BV1" s="899"/>
-      <c r="BW1" s="878" t="s">
+      <c r="AU1" s="901"/>
+      <c r="AV1" s="901"/>
+      <c r="AW1" s="901"/>
+      <c r="AX1" s="901"/>
+      <c r="AY1" s="901"/>
+      <c r="AZ1" s="901"/>
+      <c r="BA1" s="901"/>
+      <c r="BB1" s="901"/>
+      <c r="BC1" s="901"/>
+      <c r="BD1" s="901"/>
+      <c r="BE1" s="901"/>
+      <c r="BF1" s="901"/>
+      <c r="BG1" s="901"/>
+      <c r="BH1" s="901"/>
+      <c r="BI1" s="901"/>
+      <c r="BJ1" s="901"/>
+      <c r="BK1" s="901"/>
+      <c r="BL1" s="901"/>
+      <c r="BM1" s="901"/>
+      <c r="BN1" s="901"/>
+      <c r="BO1" s="901"/>
+      <c r="BP1" s="901"/>
+      <c r="BQ1" s="901"/>
+      <c r="BR1" s="901"/>
+      <c r="BS1" s="901"/>
+      <c r="BT1" s="901"/>
+      <c r="BU1" s="901"/>
+      <c r="BV1" s="901"/>
+      <c r="BW1" s="897" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" s="890" t="s">
-        <v>459</v>
-      </c>
-      <c r="BY1" s="860"/>
-      <c r="BZ1" s="860"/>
-      <c r="CA1" s="861"/>
-      <c r="CB1" s="889" t="s">
-        <v>476</v>
+      <c r="BX1" s="883" t="s">
+        <v>457</v>
+      </c>
+      <c r="BY1" s="872"/>
+      <c r="BZ1" s="872"/>
+      <c r="CA1" s="873"/>
+      <c r="CB1" s="908" t="s">
+        <v>474</v>
       </c>
       <c r="CC1" s="891" t="s">
         <v>74</v>
@@ -59827,16 +59838,16 @@
       <c r="CM1" s="891"/>
       <c r="CN1" s="891"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="877" t="s">
+      <c r="CP1" s="904" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="848"/>
-      <c r="CR1" s="848"/>
-      <c r="CS1" s="848"/>
-      <c r="CT1" s="848"/>
-      <c r="CU1" s="848"/>
-      <c r="CV1" s="848"/>
-      <c r="CW1" s="849"/>
+      <c r="CQ1" s="842"/>
+      <c r="CR1" s="842"/>
+      <c r="CS1" s="842"/>
+      <c r="CT1" s="842"/>
+      <c r="CU1" s="842"/>
+      <c r="CV1" s="842"/>
+      <c r="CW1" s="861"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59875,7 +59886,7 @@
       <c r="L2" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="900"/>
+      <c r="M2" s="877"/>
       <c r="N2" s="152" t="s">
         <v>170</v>
       </c>
@@ -59891,22 +59902,22 @@
       <c r="R2" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="907" t="s">
-        <v>454</v>
-      </c>
-      <c r="T2" s="855"/>
-      <c r="U2" s="908" t="s">
+      <c r="S2" s="888" t="s">
+        <v>452</v>
+      </c>
+      <c r="T2" s="867"/>
+      <c r="U2" s="889" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="908"/>
-      <c r="W2" s="908" t="s">
+      <c r="V2" s="889"/>
+      <c r="W2" s="889" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="909"/>
+      <c r="X2" s="890"/>
       <c r="Y2" s="884"/>
       <c r="Z2" s="885"/>
-      <c r="AA2" s="906"/>
-      <c r="AB2" s="879"/>
+      <c r="AA2" s="887"/>
+      <c r="AB2" s="898"/>
       <c r="AC2" s="153" t="s">
         <v>174</v>
       </c>
@@ -59919,117 +59930,117 @@
       <c r="AF2" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="AG2" s="897" t="s">
+      <c r="AG2" s="899" t="s">
         <v>178</v>
       </c>
-      <c r="AH2" s="882"/>
-      <c r="AI2" s="882" t="s">
+      <c r="AH2" s="892"/>
+      <c r="AI2" s="892" t="s">
         <v>179</v>
       </c>
-      <c r="AJ2" s="882"/>
-      <c r="AK2" s="882" t="s">
+      <c r="AJ2" s="892"/>
+      <c r="AK2" s="892" t="s">
         <v>180</v>
       </c>
-      <c r="AL2" s="882"/>
+      <c r="AL2" s="892"/>
       <c r="AM2" s="154" t="s">
         <v>181</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="AO2" s="879"/>
-      <c r="AP2" s="884" t="s">
+      <c r="AO2" s="898"/>
+      <c r="AP2" s="991" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ2" s="885"/>
+      <c r="AR2" s="992" t="s">
+        <v>607</v>
+      </c>
+      <c r="AS2" s="902"/>
+      <c r="AT2" s="892" t="s">
         <v>183</v>
       </c>
-      <c r="AQ2" s="885"/>
-      <c r="AR2" s="886" t="s">
+      <c r="AU2" s="892"/>
+      <c r="AV2" s="903" t="s">
         <v>184</v>
       </c>
-      <c r="AS2" s="887"/>
-      <c r="AT2" s="882" t="s">
+      <c r="AW2" s="903"/>
+      <c r="AX2" s="903" t="s">
         <v>185</v>
       </c>
-      <c r="AU2" s="882"/>
-      <c r="AV2" s="883" t="s">
+      <c r="AY2" s="903"/>
+      <c r="AZ2" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="AW2" s="883"/>
-      <c r="AX2" s="883" t="s">
+      <c r="BA2" s="154" t="s">
         <v>187</v>
       </c>
-      <c r="AY2" s="883"/>
-      <c r="AZ2" s="154" t="s">
+      <c r="BB2" s="892" t="s">
         <v>188</v>
       </c>
-      <c r="BA2" s="154" t="s">
+      <c r="BC2" s="892"/>
+      <c r="BD2" s="903" t="s">
         <v>189</v>
       </c>
-      <c r="BB2" s="882" t="s">
+      <c r="BE2" s="903"/>
+      <c r="BF2" s="903" t="s">
         <v>190</v>
       </c>
-      <c r="BC2" s="882"/>
-      <c r="BD2" s="883" t="s">
+      <c r="BG2" s="903"/>
+      <c r="BH2" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="BE2" s="883"/>
-      <c r="BF2" s="883" t="s">
+      <c r="BI2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="BG2" s="883"/>
-      <c r="BH2" s="154" t="s">
+      <c r="BJ2" s="892" t="s">
         <v>193</v>
       </c>
-      <c r="BI2" s="154" t="s">
+      <c r="BK2" s="892"/>
+      <c r="BL2" s="903" t="s">
         <v>194</v>
       </c>
-      <c r="BJ2" s="882" t="s">
+      <c r="BM2" s="903"/>
+      <c r="BN2" s="903" t="s">
         <v>195</v>
       </c>
-      <c r="BK2" s="882"/>
-      <c r="BL2" s="883" t="s">
+      <c r="BO2" s="903"/>
+      <c r="BP2" s="154" t="s">
         <v>196</v>
       </c>
-      <c r="BM2" s="883"/>
-      <c r="BN2" s="883" t="s">
+      <c r="BQ2" s="154" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="883"/>
-      <c r="BP2" s="154" t="s">
+      <c r="BR2" s="156" t="s">
         <v>198</v>
       </c>
-      <c r="BQ2" s="154" t="s">
+      <c r="BS2" s="156" t="s">
         <v>199</v>
       </c>
-      <c r="BR2" s="156" t="s">
+      <c r="BT2" s="156" t="s">
         <v>200</v>
       </c>
-      <c r="BS2" s="156" t="s">
+      <c r="BU2" s="154" t="s">
         <v>201</v>
       </c>
-      <c r="BT2" s="156" t="s">
+      <c r="BV2" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="BU2" s="154" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV2" s="154" t="s">
-        <v>204</v>
-      </c>
-      <c r="BW2" s="879"/>
-      <c r="BX2" s="884" t="s">
-        <v>183</v>
+      <c r="BW2" s="898"/>
+      <c r="BX2" s="991" t="s">
+        <v>606</v>
       </c>
       <c r="BY2" s="885"/>
-      <c r="BZ2" s="886" t="s">
-        <v>184</v>
-      </c>
-      <c r="CA2" s="887"/>
-      <c r="CB2" s="889"/>
+      <c r="BZ2" s="992" t="s">
+        <v>607</v>
+      </c>
+      <c r="CA2" s="902"/>
+      <c r="CB2" s="908"/>
       <c r="CC2" s="138" t="s">
         <v>96</v>
       </c>
       <c r="CD2" s="138" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CE2" s="138" t="s">
         <v>99</v>
@@ -60053,33 +60064,33 @@
         <v>35</v>
       </c>
       <c r="CL2" s="140" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CM2" s="140" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="CN2" s="140" t="s">
         <v>36</v>
       </c>
       <c r="CO2" s="140" t="s">
-        <v>462</v>
-      </c>
-      <c r="CP2" s="888" t="s">
+        <v>460</v>
+      </c>
+      <c r="CP2" s="907" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ2" s="905"/>
+      <c r="CR2" s="905" t="s">
+        <v>205</v>
+      </c>
+      <c r="CS2" s="905"/>
+      <c r="CT2" s="905" t="s">
         <v>206</v>
       </c>
-      <c r="CQ2" s="880"/>
-      <c r="CR2" s="880" t="s">
+      <c r="CU2" s="905"/>
+      <c r="CV2" s="905" t="s">
         <v>207</v>
       </c>
-      <c r="CS2" s="880"/>
-      <c r="CT2" s="880" t="s">
-        <v>208</v>
-      </c>
-      <c r="CU2" s="880"/>
-      <c r="CV2" s="880" t="s">
-        <v>209</v>
-      </c>
-      <c r="CW2" s="881"/>
+      <c r="CW2" s="906"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60091,7 +60102,7 @@
       <c r="E3" s="158"/>
       <c r="F3" s="158"/>
       <c r="G3" s="158" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
@@ -60128,13 +60139,13 @@
         <v>147</v>
       </c>
       <c r="Z3" s="184" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA3" s="185" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB3" s="186" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC3" s="158" t="s">
         <v>145</v>
@@ -60169,19 +60180,19 @@
       <c r="AM3" s="175"/>
       <c r="AN3" s="175"/>
       <c r="AO3" s="186" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP3" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ3" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="AP3" s="187" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="184" t="s">
-        <v>214</v>
-      </c>
       <c r="AR3" s="188" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AS3" s="189" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AT3" s="164" t="s">
         <v>146</v>
@@ -60255,19 +60266,19 @@
       <c r="BU3" s="175"/>
       <c r="BV3" s="175"/>
       <c r="BW3" s="186" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BX3" s="183" t="s">
         <v>147</v>
       </c>
       <c r="BY3" s="184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BZ3" s="184" t="s">
         <v>147</v>
       </c>
       <c r="CA3" s="189" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="CB3" s="700"/>
       <c r="CC3" s="177"/>
@@ -60697,7 +60708,7 @@
     </row>
     <row r="9" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="136"/>
       <c r="P9" s="136"/>
@@ -60736,171 +60747,171 @@
     </row>
     <row r="11" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A13" s="136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F15" s="136"/>
       <c r="G15" s="136"/>
     </row>
     <row r="16" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A16" s="136" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F16" s="136"/>
       <c r="G16" s="136"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F17" s="136"/>
       <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="136"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="136" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F22" s="136"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F24" s="136"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="136" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F25" s="136"/>
       <c r="G25" s="136"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="136" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F27" s="136"/>
       <c r="G27" s="136"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F28" s="136"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F29" s="136"/>
       <c r="G29" s="136"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="136" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="136" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F32" s="136"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F33" s="136"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="136" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F35" s="136"/>
       <c r="G35" s="136"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="136" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F36" s="136"/>
       <c r="G36" s="136"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F37" s="136"/>
       <c r="G37" s="136"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F39" s="136"/>
       <c r="G39" s="136"/>
@@ -60910,7 +60921,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="136" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F41" s="136"/>
     </row>
@@ -60944,29 +60955,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60983,6 +60971,29 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61026,72 +61037,72 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="695"/>
-      <c r="N1" s="910"/>
-      <c r="O1" s="911"/>
-      <c r="P1" s="911"/>
-      <c r="Q1" s="911"/>
-      <c r="R1" s="903"/>
-      <c r="S1" s="896"/>
-      <c r="T1" s="896"/>
-      <c r="U1" s="896"/>
-      <c r="V1" s="896"/>
-      <c r="W1" s="896"/>
-      <c r="X1" s="904"/>
-      <c r="Y1" s="890"/>
-      <c r="Z1" s="860"/>
+      <c r="N1" s="912"/>
+      <c r="O1" s="913"/>
+      <c r="P1" s="913"/>
+      <c r="Q1" s="913"/>
+      <c r="R1" s="880"/>
+      <c r="S1" s="881"/>
+      <c r="T1" s="881"/>
+      <c r="U1" s="881"/>
+      <c r="V1" s="881"/>
+      <c r="W1" s="881"/>
+      <c r="X1" s="882"/>
+      <c r="Y1" s="883"/>
+      <c r="Z1" s="872"/>
       <c r="AA1" s="696"/>
       <c r="AB1" s="694"/>
-      <c r="AC1" s="892"/>
-      <c r="AD1" s="893"/>
-      <c r="AE1" s="893"/>
-      <c r="AF1" s="894"/>
-      <c r="AG1" s="895"/>
-      <c r="AH1" s="896"/>
-      <c r="AI1" s="896"/>
-      <c r="AJ1" s="896"/>
-      <c r="AK1" s="896"/>
-      <c r="AL1" s="896"/>
-      <c r="AM1" s="896"/>
-      <c r="AN1" s="896"/>
+      <c r="AC1" s="893"/>
+      <c r="AD1" s="894"/>
+      <c r="AE1" s="894"/>
+      <c r="AF1" s="895"/>
+      <c r="AG1" s="896"/>
+      <c r="AH1" s="881"/>
+      <c r="AI1" s="881"/>
+      <c r="AJ1" s="881"/>
+      <c r="AK1" s="881"/>
+      <c r="AL1" s="881"/>
+      <c r="AM1" s="881"/>
+      <c r="AN1" s="881"/>
       <c r="AO1" s="694"/>
-      <c r="AP1" s="890"/>
-      <c r="AQ1" s="860"/>
-      <c r="AR1" s="860"/>
-      <c r="AS1" s="861"/>
-      <c r="AT1" s="898"/>
-      <c r="AU1" s="899"/>
-      <c r="AV1" s="899"/>
-      <c r="AW1" s="899"/>
-      <c r="AX1" s="899"/>
-      <c r="AY1" s="899"/>
-      <c r="AZ1" s="899"/>
-      <c r="BA1" s="899"/>
-      <c r="BB1" s="899"/>
-      <c r="BC1" s="899"/>
-      <c r="BD1" s="899"/>
-      <c r="BE1" s="899"/>
-      <c r="BF1" s="899"/>
-      <c r="BG1" s="899"/>
-      <c r="BH1" s="899"/>
-      <c r="BI1" s="899"/>
-      <c r="BJ1" s="899"/>
-      <c r="BK1" s="899"/>
-      <c r="BL1" s="899"/>
-      <c r="BM1" s="899"/>
-      <c r="BN1" s="899"/>
-      <c r="BO1" s="899"/>
-      <c r="BP1" s="899"/>
-      <c r="BQ1" s="899"/>
-      <c r="BR1" s="899"/>
-      <c r="BS1" s="899"/>
-      <c r="BT1" s="899"/>
-      <c r="BU1" s="899"/>
-      <c r="BV1" s="899"/>
+      <c r="AP1" s="883"/>
+      <c r="AQ1" s="872"/>
+      <c r="AR1" s="872"/>
+      <c r="AS1" s="873"/>
+      <c r="AT1" s="900"/>
+      <c r="AU1" s="901"/>
+      <c r="AV1" s="901"/>
+      <c r="AW1" s="901"/>
+      <c r="AX1" s="901"/>
+      <c r="AY1" s="901"/>
+      <c r="AZ1" s="901"/>
+      <c r="BA1" s="901"/>
+      <c r="BB1" s="901"/>
+      <c r="BC1" s="901"/>
+      <c r="BD1" s="901"/>
+      <c r="BE1" s="901"/>
+      <c r="BF1" s="901"/>
+      <c r="BG1" s="901"/>
+      <c r="BH1" s="901"/>
+      <c r="BI1" s="901"/>
+      <c r="BJ1" s="901"/>
+      <c r="BK1" s="901"/>
+      <c r="BL1" s="901"/>
+      <c r="BM1" s="901"/>
+      <c r="BN1" s="901"/>
+      <c r="BO1" s="901"/>
+      <c r="BP1" s="901"/>
+      <c r="BQ1" s="901"/>
+      <c r="BR1" s="901"/>
+      <c r="BS1" s="901"/>
+      <c r="BT1" s="901"/>
+      <c r="BU1" s="901"/>
+      <c r="BV1" s="901"/>
       <c r="BW1" s="694"/>
-      <c r="BX1" s="890"/>
-      <c r="BY1" s="860"/>
-      <c r="BZ1" s="860"/>
-      <c r="CA1" s="861"/>
+      <c r="BX1" s="883"/>
+      <c r="BY1" s="872"/>
+      <c r="BZ1" s="872"/>
+      <c r="CA1" s="873"/>
       <c r="CB1" s="891"/>
       <c r="CC1" s="891"/>
       <c r="CD1" s="891"/>
@@ -61105,26 +61116,31 @@
       <c r="CL1" s="891"/>
       <c r="CM1" s="891"/>
       <c r="CN1" s="693"/>
-      <c r="CO1" s="877"/>
-      <c r="CP1" s="848"/>
-      <c r="CQ1" s="848"/>
-      <c r="CR1" s="848"/>
-      <c r="CS1" s="848"/>
-      <c r="CT1" s="848"/>
-      <c r="CU1" s="848"/>
-      <c r="CV1" s="849"/>
-      <c r="CW1" s="912"/>
-      <c r="CX1" s="913"/>
-      <c r="CY1" s="913"/>
-      <c r="CZ1" s="914"/>
-      <c r="DA1" s="913"/>
-      <c r="DB1" s="913"/>
-      <c r="DC1" s="914"/>
-      <c r="DD1" s="913"/>
-      <c r="DE1" s="913"/>
+      <c r="CO1" s="904"/>
+      <c r="CP1" s="842"/>
+      <c r="CQ1" s="842"/>
+      <c r="CR1" s="842"/>
+      <c r="CS1" s="842"/>
+      <c r="CT1" s="842"/>
+      <c r="CU1" s="842"/>
+      <c r="CV1" s="861"/>
+      <c r="CW1" s="909"/>
+      <c r="CX1" s="910"/>
+      <c r="CY1" s="910"/>
+      <c r="CZ1" s="911"/>
+      <c r="DA1" s="910"/>
+      <c r="DB1" s="910"/>
+      <c r="DC1" s="911"/>
+      <c r="DD1" s="910"/>
+      <c r="DE1" s="910"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61133,11 +61149,6 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61177,18 +61188,18 @@
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
       <c r="G1" s="143"/>
-      <c r="H1" s="916" t="s">
-        <v>591</v>
-      </c>
-      <c r="I1" s="916"/>
-      <c r="J1" s="916"/>
-      <c r="K1" s="916"/>
-      <c r="L1" s="915" t="s">
-        <v>592</v>
-      </c>
-      <c r="M1" s="915"/>
-      <c r="N1" s="915"/>
-      <c r="O1" s="915"/>
+      <c r="H1" s="915" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" s="915"/>
+      <c r="J1" s="915"/>
+      <c r="K1" s="915"/>
+      <c r="L1" s="914" t="s">
+        <v>590</v>
+      </c>
+      <c r="M1" s="914"/>
+      <c r="N1" s="914"/>
+      <c r="O1" s="914"/>
     </row>
     <row r="2" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="444" t="s">
@@ -61222,19 +61233,19 @@
         <v>26</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L2" s="824" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M2" s="824" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="824" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O2" s="824" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -61247,7 +61258,7 @@
       <c r="E3" s="475"/>
       <c r="F3" s="475"/>
       <c r="G3" s="475" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H3" s="179"/>
       <c r="I3" s="179"/>
@@ -61327,10 +61338,10 @@
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="200"/>
       <c r="B1" s="201" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="202" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D1" s="201"/>
       <c r="E1" s="201"/>
@@ -61361,12 +61372,12 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="200"/>
       <c r="B2" s="203" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="924" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="924"/>
+        <v>227</v>
+      </c>
+      <c r="C2" s="921" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="921"/>
       <c r="E2" s="201"/>
       <c r="F2" s="201"/>
       <c r="G2" s="201"/>
@@ -61485,80 +61496,80 @@
     <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="200"/>
       <c r="B6" s="213" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="201"/>
       <c r="D6" s="201"/>
       <c r="E6" s="201"/>
       <c r="F6" s="214" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
       <c r="I6" s="201"/>
       <c r="J6" s="213" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="201"/>
       <c r="L6" s="201"/>
       <c r="M6" s="201"/>
       <c r="N6" s="214" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O6" s="201"/>
       <c r="P6" s="201"/>
       <c r="Q6" s="213" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R6" s="201"/>
       <c r="S6" s="201"/>
       <c r="T6" s="201"/>
       <c r="U6" s="214" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V6" s="372"/>
       <c r="W6" s="372"/>
       <c r="X6" s="376" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y6" s="372"/>
       <c r="Z6" s="372"/>
       <c r="AA6" s="372"/>
       <c r="AB6" s="377" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
-      <c r="B7" s="925"/>
-      <c r="C7" s="925"/>
-      <c r="D7" s="925"/>
+      <c r="B7" s="918"/>
+      <c r="C7" s="918"/>
+      <c r="D7" s="918"/>
       <c r="E7" s="201"/>
       <c r="F7" s="201"/>
       <c r="G7" s="201"/>
       <c r="H7" s="201"/>
       <c r="I7" s="201"/>
-      <c r="J7" s="925"/>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
+      <c r="J7" s="918"/>
+      <c r="K7" s="918"/>
+      <c r="L7" s="918"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
+        <v>231</v>
+      </c>
+      <c r="Q7" s="918"/>
+      <c r="R7" s="918"/>
+      <c r="S7" s="918"/>
       <c r="T7" s="201"/>
       <c r="U7" s="215"/>
       <c r="V7" s="372"/>
       <c r="W7" s="372" t="s">
-        <v>233</v>
-      </c>
-      <c r="X7" s="925"/>
-      <c r="Y7" s="925"/>
-      <c r="Z7" s="925"/>
+        <v>231</v>
+      </c>
+      <c r="X7" s="918"/>
+      <c r="Y7" s="918"/>
+      <c r="Z7" s="918"/>
       <c r="AA7" s="372"/>
       <c r="AB7" s="215"/>
     </row>
@@ -61595,177 +61606,177 @@
     <row r="9" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="200"/>
       <c r="B9" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="920" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="921"/>
-      <c r="E9" s="920" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="921"/>
+        <v>437</v>
+      </c>
+      <c r="C9" s="919" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="920"/>
+      <c r="E9" s="919" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="920"/>
       <c r="G9" s="201"/>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
       <c r="J9" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="K9" s="920" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="921"/>
-      <c r="M9" s="920" t="s">
-        <v>235</v>
-      </c>
-      <c r="N9" s="921"/>
+        <v>437</v>
+      </c>
+      <c r="K9" s="919" t="s">
+        <v>232</v>
+      </c>
+      <c r="L9" s="920"/>
+      <c r="M9" s="919" t="s">
+        <v>233</v>
+      </c>
+      <c r="N9" s="920"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="R9" s="920" t="s">
-        <v>234</v>
-      </c>
-      <c r="S9" s="921"/>
-      <c r="T9" s="920" t="s">
-        <v>235</v>
-      </c>
-      <c r="U9" s="921"/>
+        <v>437</v>
+      </c>
+      <c r="R9" s="919" t="s">
+        <v>232</v>
+      </c>
+      <c r="S9" s="920"/>
+      <c r="T9" s="919" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" s="920"/>
       <c r="V9" s="372"/>
       <c r="W9" s="372"/>
       <c r="X9" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y9" s="920" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z9" s="921"/>
-      <c r="AA9" s="920" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB9" s="921"/>
+        <v>437</v>
+      </c>
+      <c r="Y9" s="919" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z9" s="920"/>
+      <c r="AA9" s="919" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB9" s="920"/>
     </row>
     <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="200"/>
       <c r="B10" s="217" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="218" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="219" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E10" s="218" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="219" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G10" s="201"/>
       <c r="H10" s="201"/>
       <c r="I10" s="201"/>
       <c r="J10" s="217" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>59</v>
       </c>
       <c r="L10" s="219" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M10" s="218" t="s">
         <v>145</v>
       </c>
       <c r="N10" s="219" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="217" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R10" s="218" t="s">
         <v>59</v>
       </c>
       <c r="S10" s="219" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T10" s="218" t="s">
         <v>145</v>
       </c>
       <c r="U10" s="219" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V10" s="372"/>
       <c r="W10" s="372"/>
       <c r="X10" s="217" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Y10" s="218" t="s">
         <v>59</v>
       </c>
       <c r="Z10" s="219" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AA10" s="218" t="s">
         <v>145</v>
       </c>
       <c r="AB10" s="219" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="200"/>
       <c r="B11" s="220" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="221"/>
-      <c r="E11" s="917" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="918"/>
+      <c r="E11" s="916" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="917"/>
       <c r="G11" s="222"/>
       <c r="H11" s="222"/>
       <c r="I11" s="222"/>
       <c r="J11" s="223" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K11" s="201"/>
       <c r="L11" s="201"/>
-      <c r="M11" s="922" t="s">
-        <v>239</v>
-      </c>
-      <c r="N11" s="923"/>
+      <c r="M11" s="923" t="s">
+        <v>237</v>
+      </c>
+      <c r="N11" s="924"/>
       <c r="O11" s="222"/>
       <c r="P11" s="222"/>
       <c r="Q11" s="220" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R11" s="221"/>
       <c r="S11" s="221"/>
-      <c r="T11" s="917" t="s">
-        <v>239</v>
-      </c>
-      <c r="U11" s="918"/>
+      <c r="T11" s="916" t="s">
+        <v>237</v>
+      </c>
+      <c r="U11" s="917"/>
       <c r="V11" s="372"/>
       <c r="W11" s="372"/>
       <c r="X11" s="220" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y11" s="221"/>
       <c r="Z11" s="221"/>
-      <c r="AA11" s="917" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB11" s="918"/>
+      <c r="AA11" s="916" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB11" s="917"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="200"/>
       <c r="B12" s="224" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C12" s="300"/>
       <c r="D12" s="282"/>
@@ -61775,7 +61786,7 @@
       <c r="H12" s="222"/>
       <c r="I12" s="222"/>
       <c r="J12" s="224" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K12" s="300"/>
       <c r="L12" s="282"/>
@@ -61784,7 +61795,7 @@
       <c r="O12" s="222"/>
       <c r="P12" s="222"/>
       <c r="Q12" s="224" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R12" s="300"/>
       <c r="S12" s="282"/>
@@ -61793,7 +61804,7 @@
       <c r="V12" s="372"/>
       <c r="W12" s="372"/>
       <c r="X12" s="224" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Y12" s="300"/>
       <c r="Z12" s="282"/>
@@ -61803,7 +61814,7 @@
     <row r="13" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="200"/>
       <c r="B13" s="321" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C13" s="301"/>
       <c r="D13" s="283"/>
@@ -61813,7 +61824,7 @@
       <c r="H13" s="222"/>
       <c r="I13" s="222"/>
       <c r="J13" s="321" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K13" s="301"/>
       <c r="L13" s="283"/>
@@ -61822,7 +61833,7 @@
       <c r="O13" s="222"/>
       <c r="P13" s="222"/>
       <c r="Q13" s="321" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R13" s="301"/>
       <c r="S13" s="283"/>
@@ -61831,7 +61842,7 @@
       <c r="V13" s="372"/>
       <c r="W13" s="372"/>
       <c r="X13" s="321" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Y13" s="301"/>
       <c r="Z13" s="283"/>
@@ -61841,7 +61852,7 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="200"/>
       <c r="B14" s="225" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C14" s="301"/>
       <c r="D14" s="284"/>
@@ -61851,7 +61862,7 @@
       <c r="H14" s="222"/>
       <c r="I14" s="222"/>
       <c r="J14" s="225" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K14" s="301"/>
       <c r="L14" s="284"/>
@@ -61860,7 +61871,7 @@
       <c r="O14" s="222"/>
       <c r="P14" s="222"/>
       <c r="Q14" s="225" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R14" s="301"/>
       <c r="S14" s="284"/>
@@ -61869,7 +61880,7 @@
       <c r="V14" s="372"/>
       <c r="W14" s="372"/>
       <c r="X14" s="225" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Y14" s="301"/>
       <c r="Z14" s="284"/>
@@ -61879,7 +61890,7 @@
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="200"/>
       <c r="B15" s="226" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" s="227"/>
       <c r="D15" s="228"/>
@@ -61889,7 +61900,7 @@
       <c r="H15" s="230"/>
       <c r="I15" s="201"/>
       <c r="J15" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K15" s="227"/>
       <c r="L15" s="228"/>
@@ -61898,7 +61909,7 @@
       <c r="O15" s="201"/>
       <c r="P15" s="201"/>
       <c r="Q15" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R15" s="227"/>
       <c r="S15" s="228"/>
@@ -61907,7 +61918,7 @@
       <c r="V15" s="372"/>
       <c r="W15" s="372"/>
       <c r="X15" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y15" s="269"/>
       <c r="Z15" s="270"/>
@@ -61917,7 +61928,7 @@
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="231"/>
       <c r="B16" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" s="233"/>
       <c r="D16" s="234"/>
@@ -61927,7 +61938,7 @@
       <c r="H16" s="230"/>
       <c r="I16" s="230"/>
       <c r="J16" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K16" s="233"/>
       <c r="L16" s="234"/>
@@ -61936,7 +61947,7 @@
       <c r="O16" s="201"/>
       <c r="P16" s="201"/>
       <c r="Q16" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R16" s="233"/>
       <c r="S16" s="234"/>
@@ -61945,7 +61956,7 @@
       <c r="V16" s="372"/>
       <c r="W16" s="372"/>
       <c r="X16" s="378" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y16" s="273"/>
       <c r="Z16" s="278"/>
@@ -61955,7 +61966,7 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="200"/>
       <c r="B17" s="236" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C17" s="237"/>
       <c r="D17" s="239"/>
@@ -61965,7 +61976,7 @@
       <c r="H17" s="230"/>
       <c r="I17" s="201"/>
       <c r="J17" s="236" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K17" s="237"/>
       <c r="L17" s="238"/>
@@ -61974,7 +61985,7 @@
       <c r="O17" s="240"/>
       <c r="P17" s="240"/>
       <c r="Q17" s="236" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R17" s="237"/>
       <c r="S17" s="238"/>
@@ -61983,7 +61994,7 @@
       <c r="V17" s="277"/>
       <c r="W17" s="277"/>
       <c r="X17" s="236" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y17" s="237"/>
       <c r="Z17" s="238"/>
@@ -61993,7 +62004,7 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="200"/>
       <c r="B18" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C18" s="242"/>
       <c r="D18" s="243"/>
@@ -62003,7 +62014,7 @@
       <c r="H18" s="230"/>
       <c r="I18" s="201"/>
       <c r="J18" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K18" s="242"/>
       <c r="L18" s="243"/>
@@ -62012,7 +62023,7 @@
       <c r="O18" s="201"/>
       <c r="P18" s="201"/>
       <c r="Q18" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="R18" s="242"/>
       <c r="S18" s="243"/>
@@ -62021,7 +62032,7 @@
       <c r="V18" s="372"/>
       <c r="W18" s="372"/>
       <c r="X18" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y18" s="242"/>
       <c r="Z18" s="243"/>
@@ -62061,53 +62072,53 @@
     <row r="20" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="200"/>
       <c r="B20" s="220" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="249"/>
-      <c r="E20" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="918"/>
+      <c r="E20" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="917"/>
       <c r="G20" s="230"/>
       <c r="H20" s="230"/>
       <c r="I20" s="201"/>
       <c r="J20" s="220" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K20" s="302"/>
       <c r="L20" s="249"/>
-      <c r="M20" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="N20" s="918"/>
+      <c r="M20" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="N20" s="917"/>
       <c r="O20" s="240"/>
       <c r="P20" s="240"/>
       <c r="Q20" s="220" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R20" s="302"/>
       <c r="S20" s="249"/>
-      <c r="T20" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="U20" s="918"/>
+      <c r="T20" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="U20" s="917"/>
       <c r="V20" s="277"/>
       <c r="W20" s="277"/>
       <c r="X20" s="220" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Y20" s="302"/>
       <c r="Z20" s="249"/>
-      <c r="AA20" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB20" s="918"/>
+      <c r="AA20" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB20" s="917"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="200"/>
       <c r="B21" s="250" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C21" s="251"/>
       <c r="D21" s="252"/>
@@ -62117,7 +62128,7 @@
       <c r="H21" s="230"/>
       <c r="I21" s="201"/>
       <c r="J21" s="250" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K21" s="251"/>
       <c r="L21" s="252"/>
@@ -62126,7 +62137,7 @@
       <c r="O21" s="240"/>
       <c r="P21" s="240"/>
       <c r="Q21" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R21" s="227"/>
       <c r="S21" s="228"/>
@@ -62135,7 +62146,7 @@
       <c r="V21" s="277"/>
       <c r="W21" s="277"/>
       <c r="X21" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y21" s="269"/>
       <c r="Z21" s="270"/>
@@ -62145,7 +62156,7 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="231"/>
       <c r="B22" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="233"/>
       <c r="D22" s="234"/>
@@ -62155,7 +62166,7 @@
       <c r="H22" s="230"/>
       <c r="I22" s="240"/>
       <c r="J22" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K22" s="233"/>
       <c r="L22" s="234"/>
@@ -62164,7 +62175,7 @@
       <c r="O22" s="240"/>
       <c r="P22" s="240"/>
       <c r="Q22" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R22" s="233"/>
       <c r="S22" s="234"/>
@@ -62173,7 +62184,7 @@
       <c r="V22" s="277"/>
       <c r="W22" s="277"/>
       <c r="X22" s="378" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y22" s="273"/>
       <c r="Z22" s="278"/>
@@ -62183,7 +62194,7 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="200"/>
       <c r="B23" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C23" s="237"/>
       <c r="D23" s="238"/>
@@ -62193,7 +62204,7 @@
       <c r="H23" s="230"/>
       <c r="I23" s="201"/>
       <c r="J23" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K23" s="237"/>
       <c r="L23" s="238"/>
@@ -62202,7 +62213,7 @@
       <c r="O23" s="240"/>
       <c r="P23" s="240"/>
       <c r="Q23" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R23" s="237"/>
       <c r="S23" s="238"/>
@@ -62211,7 +62222,7 @@
       <c r="V23" s="277"/>
       <c r="W23" s="277"/>
       <c r="X23" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y23" s="237"/>
       <c r="Z23" s="238"/>
@@ -62221,7 +62232,7 @@
     <row r="24" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="200"/>
       <c r="B24" s="254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C24" s="237"/>
       <c r="D24" s="239"/>
@@ -62231,7 +62242,7 @@
       <c r="H24" s="230"/>
       <c r="I24" s="201"/>
       <c r="J24" s="254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K24" s="255"/>
       <c r="L24" s="238"/>
@@ -62240,7 +62251,7 @@
       <c r="O24" s="240"/>
       <c r="P24" s="240"/>
       <c r="Q24" s="254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R24" s="255"/>
       <c r="S24" s="238"/>
@@ -62249,7 +62260,7 @@
       <c r="V24" s="277"/>
       <c r="W24" s="277"/>
       <c r="X24" s="254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y24" s="255"/>
       <c r="Z24" s="238"/>
@@ -62259,7 +62270,7 @@
     <row r="25" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="200"/>
       <c r="B25" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C25" s="237"/>
       <c r="D25" s="239"/>
@@ -62269,7 +62280,7 @@
       <c r="H25" s="230"/>
       <c r="I25" s="201"/>
       <c r="J25" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K25" s="255"/>
       <c r="L25" s="238"/>
@@ -62278,7 +62289,7 @@
       <c r="O25" s="240"/>
       <c r="P25" s="240"/>
       <c r="Q25" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R25" s="255"/>
       <c r="S25" s="238"/>
@@ -62287,7 +62298,7 @@
       <c r="V25" s="277"/>
       <c r="W25" s="277"/>
       <c r="X25" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Y25" s="255"/>
       <c r="Z25" s="238"/>
@@ -62297,7 +62308,7 @@
     <row r="26" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="200"/>
       <c r="B26" s="254" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C26" s="237"/>
       <c r="D26" s="239"/>
@@ -62307,7 +62318,7 @@
       <c r="H26" s="230"/>
       <c r="I26" s="201"/>
       <c r="J26" s="254" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K26" s="255"/>
       <c r="L26" s="246"/>
@@ -62316,7 +62327,7 @@
       <c r="O26" s="240"/>
       <c r="P26" s="240"/>
       <c r="Q26" s="254" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R26" s="255"/>
       <c r="S26" s="238"/>
@@ -62325,7 +62336,7 @@
       <c r="V26" s="277"/>
       <c r="W26" s="277"/>
       <c r="X26" s="254" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y26" s="255"/>
       <c r="Z26" s="238"/>
@@ -62335,7 +62346,7 @@
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="200"/>
       <c r="B27" s="256" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C27" s="237"/>
       <c r="D27" s="239"/>
@@ -62345,7 +62356,7 @@
       <c r="H27" s="230"/>
       <c r="I27" s="201"/>
       <c r="J27" s="256" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K27" s="255"/>
       <c r="L27" s="239"/>
@@ -62354,7 +62365,7 @@
       <c r="O27" s="240"/>
       <c r="P27" s="240"/>
       <c r="Q27" s="254" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R27" s="255"/>
       <c r="S27" s="238"/>
@@ -62363,7 +62374,7 @@
       <c r="V27" s="277"/>
       <c r="W27" s="277"/>
       <c r="X27" s="254" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y27" s="255"/>
       <c r="Z27" s="238"/>
@@ -62373,7 +62384,7 @@
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="200"/>
       <c r="B28" s="303" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C28" s="242"/>
       <c r="D28" s="244"/>
@@ -62383,7 +62394,7 @@
       <c r="H28" s="230"/>
       <c r="I28" s="201"/>
       <c r="J28" s="303" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K28" s="242"/>
       <c r="L28" s="244"/>
@@ -62392,7 +62403,7 @@
       <c r="O28" s="240"/>
       <c r="P28" s="240"/>
       <c r="Q28" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="R28" s="242"/>
       <c r="S28" s="243"/>
@@ -62401,7 +62412,7 @@
       <c r="V28" s="277"/>
       <c r="W28" s="277"/>
       <c r="X28" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y28" s="242"/>
       <c r="Z28" s="243"/>
@@ -62441,53 +62452,53 @@
     <row r="30" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="200"/>
       <c r="B30" s="220" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C30" s="302"/>
       <c r="D30" s="249"/>
-      <c r="E30" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="F30" s="918"/>
+      <c r="E30" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="917"/>
       <c r="G30" s="230"/>
       <c r="H30" s="230"/>
       <c r="I30" s="201"/>
       <c r="J30" s="220" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K30" s="302"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="917" t="s">
-        <v>578</v>
-      </c>
-      <c r="N30" s="918"/>
+      <c r="M30" s="916" t="s">
+        <v>576</v>
+      </c>
+      <c r="N30" s="917"/>
       <c r="O30" s="240"/>
       <c r="P30" s="240"/>
       <c r="Q30" s="220" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R30" s="302"/>
       <c r="S30" s="249"/>
-      <c r="T30" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="U30" s="918"/>
+      <c r="T30" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="U30" s="917"/>
       <c r="V30" s="277"/>
       <c r="W30" s="277"/>
       <c r="X30" s="220" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y30" s="302"/>
       <c r="Z30" s="249"/>
-      <c r="AA30" s="917" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB30" s="918"/>
+      <c r="AA30" s="916" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB30" s="917"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="262"/>
       <c r="B31" s="250" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="263"/>
       <c r="D31" s="264"/>
@@ -62497,24 +62508,24 @@
       <c r="H31" s="266"/>
       <c r="I31" s="267"/>
       <c r="J31" s="304" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K31" s="305" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L31" s="306" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M31" s="306" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N31" s="306" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O31" s="268"/>
       <c r="P31" s="268"/>
       <c r="Q31" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R31" s="269"/>
       <c r="S31" s="270"/>
@@ -62523,7 +62534,7 @@
       <c r="V31" s="379"/>
       <c r="W31" s="379"/>
       <c r="X31" s="226" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Y31" s="269"/>
       <c r="Z31" s="270"/>
@@ -62533,7 +62544,7 @@
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="272"/>
       <c r="B32" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C32" s="273"/>
       <c r="D32" s="274"/>
@@ -62543,24 +62554,24 @@
       <c r="H32" s="276"/>
       <c r="I32" s="277"/>
       <c r="J32" s="307" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K32" s="308" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L32" s="309" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M32" s="309" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N32" s="309" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O32" s="277"/>
       <c r="P32" s="277"/>
       <c r="Q32" s="232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R32" s="273"/>
       <c r="S32" s="278"/>
@@ -62569,7 +62580,7 @@
       <c r="V32" s="277"/>
       <c r="W32" s="277"/>
       <c r="X32" s="378" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y32" s="273"/>
       <c r="Z32" s="278"/>
@@ -62579,7 +62590,7 @@
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="200"/>
       <c r="B33" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="237"/>
       <c r="D33" s="238"/>
@@ -62589,7 +62600,7 @@
       <c r="H33" s="230"/>
       <c r="I33" s="201"/>
       <c r="J33" s="310" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K33" s="311"/>
       <c r="L33" s="312"/>
@@ -62598,7 +62609,7 @@
       <c r="O33" s="240"/>
       <c r="P33" s="240"/>
       <c r="Q33" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R33" s="237"/>
       <c r="S33" s="238"/>
@@ -62607,7 +62618,7 @@
       <c r="V33" s="277"/>
       <c r="W33" s="277"/>
       <c r="X33" s="236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y33" s="237"/>
       <c r="Z33" s="238"/>
@@ -62617,7 +62628,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="279"/>
       <c r="B34" s="254" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" s="237"/>
       <c r="D34" s="239"/>
@@ -62627,7 +62638,7 @@
       <c r="H34" s="230"/>
       <c r="I34" s="230"/>
       <c r="J34" s="315" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K34" s="316"/>
       <c r="L34" s="312"/>
@@ -62636,7 +62647,7 @@
       <c r="O34" s="280"/>
       <c r="P34" s="280"/>
       <c r="Q34" s="254" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R34" s="255"/>
       <c r="S34" s="238"/>
@@ -62645,7 +62656,7 @@
       <c r="V34" s="280"/>
       <c r="W34" s="280"/>
       <c r="X34" s="254" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Y34" s="255"/>
       <c r="Z34" s="238"/>
@@ -62655,7 +62666,7 @@
     <row r="35" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="279"/>
       <c r="B35" s="254" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C35" s="237"/>
       <c r="D35" s="239"/>
@@ -62665,7 +62676,7 @@
       <c r="H35" s="230"/>
       <c r="I35" s="230"/>
       <c r="J35" s="315" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K35" s="316"/>
       <c r="L35" s="312"/>
@@ -62674,7 +62685,7 @@
       <c r="O35" s="280"/>
       <c r="P35" s="280"/>
       <c r="Q35" s="254" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R35" s="255"/>
       <c r="S35" s="238"/>
@@ -62683,7 +62694,7 @@
       <c r="V35" s="280"/>
       <c r="W35" s="280"/>
       <c r="X35" s="254" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Y35" s="255"/>
       <c r="Z35" s="238"/>
@@ -62693,7 +62704,7 @@
     <row r="36" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="279"/>
       <c r="B36" s="254" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C36" s="237"/>
       <c r="D36" s="239"/>
@@ -62703,7 +62714,7 @@
       <c r="H36" s="230"/>
       <c r="I36" s="230"/>
       <c r="J36" s="315" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K36" s="316"/>
       <c r="L36" s="312"/>
@@ -62712,7 +62723,7 @@
       <c r="O36" s="280"/>
       <c r="P36" s="280"/>
       <c r="Q36" s="254" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R36" s="255"/>
       <c r="S36" s="238"/>
@@ -62721,7 +62732,7 @@
       <c r="V36" s="280"/>
       <c r="W36" s="280"/>
       <c r="X36" s="254" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y36" s="255"/>
       <c r="Z36" s="238"/>
@@ -62731,7 +62742,7 @@
     <row r="37" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="279"/>
       <c r="B37" s="254" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" s="237"/>
       <c r="D37" s="239"/>
@@ -62741,7 +62752,7 @@
       <c r="H37" s="230"/>
       <c r="I37" s="230"/>
       <c r="J37" s="315" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K37" s="316"/>
       <c r="L37" s="312"/>
@@ -62750,7 +62761,7 @@
       <c r="O37" s="280"/>
       <c r="P37" s="280"/>
       <c r="Q37" s="254" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R37" s="255"/>
       <c r="S37" s="238"/>
@@ -62759,7 +62770,7 @@
       <c r="V37" s="280"/>
       <c r="W37" s="280"/>
       <c r="X37" s="254" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Y37" s="255"/>
       <c r="Z37" s="238"/>
@@ -62769,7 +62780,7 @@
     <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="279"/>
       <c r="B38" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C38" s="237"/>
       <c r="D38" s="239"/>
@@ -62779,7 +62790,7 @@
       <c r="H38" s="230"/>
       <c r="I38" s="230"/>
       <c r="J38" s="315" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K38" s="316"/>
       <c r="L38" s="312"/>
@@ -62788,7 +62799,7 @@
       <c r="O38" s="280"/>
       <c r="P38" s="280"/>
       <c r="Q38" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R38" s="255"/>
       <c r="S38" s="238"/>
@@ -62797,7 +62808,7 @@
       <c r="V38" s="280"/>
       <c r="W38" s="280"/>
       <c r="X38" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Y38" s="255"/>
       <c r="Z38" s="238"/>
@@ -62807,7 +62818,7 @@
     <row r="39" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="279"/>
       <c r="B39" s="254" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C39" s="237"/>
       <c r="D39" s="239"/>
@@ -62817,7 +62828,7 @@
       <c r="H39" s="230"/>
       <c r="I39" s="230"/>
       <c r="J39" s="315" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K39" s="316"/>
       <c r="L39" s="312"/>
@@ -62826,7 +62837,7 @@
       <c r="O39" s="280"/>
       <c r="P39" s="280"/>
       <c r="Q39" s="254" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R39" s="255"/>
       <c r="S39" s="238"/>
@@ -62835,7 +62846,7 @@
       <c r="V39" s="280"/>
       <c r="W39" s="280"/>
       <c r="X39" s="254" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Y39" s="255"/>
       <c r="Z39" s="238"/>
@@ -62845,7 +62856,7 @@
     <row r="40" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="279"/>
       <c r="B40" s="254" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C40" s="237"/>
       <c r="D40" s="239"/>
@@ -62855,7 +62866,7 @@
       <c r="H40" s="230"/>
       <c r="I40" s="230"/>
       <c r="J40" s="315" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K40" s="316"/>
       <c r="L40" s="312"/>
@@ -62864,7 +62875,7 @@
       <c r="O40" s="280"/>
       <c r="P40" s="280"/>
       <c r="Q40" s="254" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R40" s="255"/>
       <c r="S40" s="238"/>
@@ -62873,7 +62884,7 @@
       <c r="V40" s="280"/>
       <c r="W40" s="280"/>
       <c r="X40" s="254" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y40" s="255"/>
       <c r="Z40" s="238"/>
@@ -62883,7 +62894,7 @@
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="200"/>
       <c r="B41" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C41" s="242"/>
       <c r="D41" s="243"/>
@@ -62893,7 +62904,7 @@
       <c r="H41" s="230"/>
       <c r="I41" s="201"/>
       <c r="J41" s="317" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K41" s="318"/>
       <c r="L41" s="319"/>
@@ -62902,7 +62913,7 @@
       <c r="O41" s="240"/>
       <c r="P41" s="240"/>
       <c r="Q41" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="R41" s="242"/>
       <c r="S41" s="243"/>
@@ -62911,7 +62922,7 @@
       <c r="V41" s="277"/>
       <c r="W41" s="277"/>
       <c r="X41" s="241" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y41" s="242"/>
       <c r="Z41" s="243"/>
@@ -62920,11 +62931,11 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="200"/>
-      <c r="B42" s="919"/>
-      <c r="C42" s="919"/>
-      <c r="D42" s="919"/>
-      <c r="E42" s="919"/>
-      <c r="F42" s="919"/>
+      <c r="B42" s="922"/>
+      <c r="C42" s="922"/>
+      <c r="D42" s="922"/>
+      <c r="E42" s="922"/>
+      <c r="F42" s="922"/>
       <c r="G42" s="240"/>
       <c r="H42" s="201"/>
       <c r="I42" s="240"/>
@@ -62951,7 +62962,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="200"/>
       <c r="B43" s="281" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C43" s="230"/>
       <c r="D43" s="230"/>
@@ -62983,7 +62994,7 @@
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="200"/>
       <c r="B44" s="202" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C44" s="230"/>
       <c r="D44" s="230"/>
@@ -63015,7 +63026,7 @@
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="200"/>
       <c r="B45" s="202" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C45" s="201"/>
       <c r="D45" s="201"/>
@@ -63047,7 +63058,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="200"/>
       <c r="B46" s="202" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C46" s="201"/>
       <c r="D46" s="201"/>
@@ -63079,7 +63090,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="200"/>
       <c r="B47" s="202" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C47" s="201"/>
       <c r="D47" s="201"/>
@@ -63111,21 +63122,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="T30:U30"/>
@@ -63137,6 +63133,21 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA20:AB20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2020_register_model_20210212.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368" activeTab="5"/>
+    <workbookView xWindow="660" yWindow="480" windowWidth="13740" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'agglomeration level'!$A$4:$CW$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Agglomerationout!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">breach_list!$B$7:$N$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Glossary!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Glossary!$A$8:$B$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Information on sensitive area'!$A$7:$AQ$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'New agglomerations'!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'New treatment plants'!$A$4:$F$4</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="615">
   <si>
     <t>Acronym</t>
   </si>
@@ -2085,9 +2085,6 @@
     <t>EXP-PD</t>
   </si>
   <si>
-    <t>EXPired deadline - Pending Deadline (used when deadline date different for the articles 3, 4 and 5)</t>
-  </si>
-  <si>
     <t>FW</t>
   </si>
   <si>
@@ -2125,9 +2122,6 @@
   </si>
   <si>
     <t xml:space="preserve">NPO   </t>
-  </si>
-  <si>
-    <t>No Information provided (and required/needed)</t>
   </si>
   <si>
     <t xml:space="preserve">O </t>
@@ -2172,22 +2166,10 @@
     <t>SA history</t>
   </si>
   <si>
-    <t>This sheet presents in summary the status of the sensitve areas and their historical change(s) where relevant.</t>
-  </si>
-  <si>
     <t>entering load calculated</t>
   </si>
   <si>
-    <t>(sheet UWWTP Level) The load is calculated from the share (%) of generated load of agglomeration collected in collecting system and entering particular plant which is declared at agglomeration level.</t>
-  </si>
-  <si>
-    <t>(sheet UWWTP Level) The load entering the treatment plant is declared at the plant level. If difference with entering load calculated &gt;30%, warning message.</t>
-  </si>
-  <si>
     <t>In case of discharge on land</t>
-  </si>
-  <si>
-    <t>(sheet UWWTP Level) Refers to situations where discharged waste water is reused at least partly for infiltration, irrigation or other purposes.</t>
   </si>
   <si>
     <t>Starting date of application 5 N</t>
@@ -2202,25 +2184,10 @@
     <t>(sheet UWWTP Level and sheet agglomeration level) Refers to starting date of application of criterion P for the sensitive area. It is relevant for sensitive areas under article 5(4) and under 5(2,3)P</t>
   </si>
   <si>
-    <t>(sheet UWWTP Level) Refers to situations where the country reported equipment to treat nutrients and no monitoring results for N and/or P or monitoring results and no equipment.</t>
-  </si>
-  <si>
-    <t>(sheet agglomeration level) These columns present the agglomeration information in previous reporting. It can be a different agglomeration in some cases.</t>
-  </si>
-  <si>
-    <t>(sheet agglomeration leve &amp; distance to compliance) it represents the remaining effort necessary to meet the required level for the article. For the treatment, it is separated in equipment and performance of the equipment. The DTT on collection is added to the DTT for article 4 and where relevant article 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">monitoring results meet requirements </t>
   </si>
   <si>
-    <t>(sheet distance to compliance) for each level of treatment, it is necessary to reach a fixed performance (reduction of load) on a set of monitored parameters. This performance is summarised by year for each parameter by a simple word: pass or fail. Monitoring results meet requirements only if all parameters for this level of treatment are pass.</t>
-  </si>
-  <si>
     <t>Summary_installation_in_place</t>
-  </si>
-  <si>
-    <t>This sheet presents at country level aggregated values for waste water collection and treatment situation when for each level of treatment respectively equipment is in place and performance = pass. This is different from sheet summary legal compliance which considers all rules of the Directive.</t>
   </si>
   <si>
     <t>NR (reference: wastewater load connected to collecting system)</t>
@@ -2325,6 +2292,150 @@
   <si>
     <t>of which DTT due to insufficient collection</t>
   </si>
+  <si>
+    <t>EXPired deadline - Pending Deadline (used when deadline date different for the articles 3, 4 and 5 and at least one deadline is not expired)</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>discharge on land (catchment of coastal water)</t>
+  </si>
+  <si>
+    <t>No Information provided (while this is required by reporting/needed)</t>
+  </si>
+  <si>
+    <t>(sheet UWWTP Level, columns Q &amp; R) Member States have to report the share (%) of generated load (this is often a theoretical value derived from a specific methodology to include anticipated evolutions of an agglomeration, see definition in terms and definitions) of agglomeration collected in collecting system and entering the different plants which are connected to this agglomeration. This value is shown in column Q and the load is calculated in column R.</t>
+  </si>
+  <si>
+    <t>(sheet UWWTP Level, columns S &amp; T) Member States have to report the load entering the treatment plants. This is often based on monitoring at plant level. The value is presented in column T and the % of generated load of the agglomeration it is connected to is calculated. If difference with entering load calculated is &gt;30%, a feedback to MS is made to check why.</t>
+  </si>
+  <si>
+    <r>
+      <t>(sheet final graphs, agglomeration level, distance to compliance &amp; Summary_big_cities) it represents the remaining effort necessary to meet the required level for complying with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the article (and with UWWTD) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the agglomeration in question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. For the collection, it covers part of generated waste water not currently collected. It is conveyed to DTT for article 4 and 5 because waste water not currently collected needs to be collected but also afterwards be treated. For the treatment, it is separated in "equipment in place" and performance of the equipment i.e. "monitoring results meet requirements". The DTT on collection is added to the DTT for article 4 and where relevant article 5. DTT for "monitoring results meet requirements" generally include also DTT "equipment in place" because it is rarely possible to reach the performance without equipment.  There are however some exceptions because some specific secondary treatment allow good performance on nutrient removal or because under UWWTD it is not required to report monitoring results for more stringent treatment in case of discharge in catchment of sensitive areas. The DTT refered to in part "pending deadline" of the tables refers to situations where the agglomerations have still pending deadline and do not need currently to reach this level of equipment respectively performance. It allow also see separately the remaining effort necessary for those agglomerations.</t>
+    </r>
+  </si>
+  <si>
+    <t>For different reasons, local situation may differ and in particular waste water is treated to an higher degree than what is required as a minimum under UWWTD. This sheet presents, at country level, aggregated values for waste water collection and treatment situation when for each level of treatment respectively equipment is in place and monitoring results = pass. This is different from sheet summary legal compliance which considers solely the minimum requirements of the Directive. column BQ = 1 if secondary treatment in place, column BR if COD and BOD performance = pass, column BS if BQ+BR=2 (equipment + performance) and same for the following. In some cases compliance art4 fail because of issue in collection, but installation and performance are correct. In some cases MS declare a more stringent treatment while the standard directive rule do not require.</t>
+  </si>
+  <si>
+    <t>Information on sensitive area</t>
+  </si>
+  <si>
+    <t>this sheet presents in summary the status of the sensitive areas and details on their specificities: zone type, parameters, dates for designation and application, link to other areas, and for article 5(4) number of plants and loads. Normally a single area applies only one specialised zone type (article 5(8), article 5(4) or article 5(2,3)) but in the case of France, the country applies both article 5(4) and article 5(2,3) and therefore dates can be found in columns K &amp; M, N, P and Q.</t>
+  </si>
+  <si>
+    <t>This sheet presents in summary the status of the sensitive areas and their historical change(s) along the various reportings where relevant. It is used to check coherence of situation and changes introduced if any.</t>
+  </si>
+  <si>
+    <t>(sheet UWWTP Level) Refers to situations where discharged waste water is reused at least partly. This value should be reported if part or all the treated waste water is reused and possible values are " infiltration", "irrigation" or "other purposes". When more than one discharge point, it is possible that different reuse may be reported. In such case they are listed and separated by a ";".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(sheet UWWTP Level column AW) For treatment, in particular of nutrients N and P two information are reported: the equipment in place and the monitoring results of this treatment. In some cases the reporting does not include both information. This column therefore indicate when both information are reported with "no" and when this is not the case with "yes". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(sheet agglomeration level columns N to Q) These columns present the same information than previous columns of this table, taken from previous reporting, to allow compare current situation with previous reporting. It can be a different agglomeration in some cases. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(sheet distance to compliance &amp; summary installation in place) For waste water treatment, it is necessary to reach a so called </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Minimum percentage of reduction in relation to the load of the influent." (table 1 and 2 of annexe I of UWWTD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for parameters BOD5 and COD for secondary treatment and in addition for parameters Ntot and/or Ptot and or other parameter for more stringent treatment. Member States have to monitor these paramaters. When the minimum percentage is reached for one of the parameters, it is summarised in the reporting by a simple word: "pass" or "fail". In sheet "distance to compliance" these information are used to calculate if, for a waste water treatm ent plant, the monitoring results meet UWWTD requirements. This is the case only if all parameters for this level of treatment (secondary or more stringent) are = "pass". In sheet "summary installation in place" these information are used to calculate if, for a waste water treatment plant, the monitoring results reported meet the specific level of treatment (secondary respectively more stringent), with no consideration of  UWWTD requirements, i.e. including cases in which it is not required by the UWWTD. For agglomerations without obligations under the Directive, it is not mandatory to report monitoring results, this is why generally there is a significant difference between equipment and monitoring results for article 5 in sheet summary installation in place.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(sheet distance to compliance &amp; summary installation in place) For waste water treatment, it is necessary under article 4 to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ensure that urban waste water entering collecting systems shall before discharge be subject to secondary treatment"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and respectively under article 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ensure that urban waste water entering collecting systems shall before discharge into sensitive areas be subject to more stringent treatment"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Member States have to report the treatment for each of their treatment plant in categories "primary", "secondary", "Other" (for more stringent treatment) and details for more stringent in categories "Nremoval", "Premoval", "UV", "Chlorination", "ozonation", "sand filtration", "microfiltration"  and "other". In sheet "distance to compliance" these information are used to calculate if, for a waste water treatment plant, the equipment reported (in place) meet UWWTD requirements. This is the case only if all equipment for this level of treatment (secondary or more stringent) are reported. In sheet "summary installation in place" these information are used to calculate if, for a waste water treatment plant, the equipment reported (in place) meet the specific level of treatment (secondary respectively more stringent), with no consideration of  UWWTD requirements, i.e. including cases in which it is not required by the UWWTD.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2337,7 +2448,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\/mm\/dd"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2640,6 +2751,38 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="49">
@@ -3789,7 +3932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="993">
+  <cellXfs count="1001">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5656,9 +5799,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="45" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5776,45 +5916,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5849,6 +5950,9 @@
     <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5897,6 +6001,111 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5909,21 +6118,12 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5939,59 +6139,11 @@
     <xf numFmtId="3" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6002,12 +6154,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6020,26 +6166,26 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6069,6 +6215,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6101,39 +6274,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6157,6 +6297,64 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6169,18 +6367,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6193,51 +6379,32 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="30" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6550,9 +6717,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6561,378 +6730,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="769" t="s">
+      <c r="A1" s="1000"/>
+      <c r="B1" s="992"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="771"/>
+      <c r="B2" s="772"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="769"/>
+      <c r="B3" s="772"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="769"/>
+      <c r="B4" s="772"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="769"/>
+      <c r="B5" s="772"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="769"/>
+      <c r="B6" s="772"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="769"/>
+      <c r="B7" s="772"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="994" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="770" t="s">
+      <c r="B8" s="992" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="771" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="995" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="772" t="s">
+      <c r="B9" s="772" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="769" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="996" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="772" t="s">
+      <c r="B10" s="772" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="769" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="996" t="s">
         <v>523</v>
       </c>
-      <c r="B4" s="772" t="s">
+      <c r="B11" s="772" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="769" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="996" t="s">
         <v>524</v>
       </c>
-      <c r="B5" s="770" t="s">
+      <c r="B12" s="770" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="769" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="996" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="770" t="s">
+      <c r="B13" s="770" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="769" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="996" t="s">
         <v>526</v>
       </c>
-      <c r="B7" s="770" t="s">
+      <c r="B14" s="770" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="769" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="996" t="s">
         <v>527</v>
       </c>
-      <c r="B8" s="770" t="s">
+      <c r="B15" s="770" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="769" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="996" t="s">
         <v>528</v>
       </c>
-      <c r="B9" s="770" t="s">
+      <c r="B16" s="770" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="769" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="996" t="s">
         <v>529</v>
       </c>
-      <c r="B10" s="770" t="s">
+      <c r="B17" s="770" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="996" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="769" t="s">
+      <c r="B18" s="770" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="996" t="s">
         <v>531</v>
       </c>
-      <c r="B11" s="770" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="769" t="s">
+      <c r="B19" s="770" t="s">
         <v>532</v>
       </c>
-      <c r="B12" s="770" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="996" t="s">
+        <v>600</v>
+      </c>
+      <c r="B20" s="770" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="996" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="769" t="s">
+      <c r="B21" s="770" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="996" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="770" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="769" t="s">
+      <c r="B22" s="770" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="770" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="996" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="770" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="769" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="770" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="996" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="770" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="769" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="770" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="996" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="769" t="s">
+      <c r="B25" s="770" t="s">
         <v>539</v>
       </c>
-      <c r="B17" s="770" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="996" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="769" t="s">
+      <c r="B26" s="770" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="996" t="s">
         <v>541</v>
       </c>
-      <c r="B18" s="770" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="769" t="s">
+      <c r="B27" s="770" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="996" t="s">
         <v>542</v>
       </c>
-      <c r="B19" s="770" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="769" t="s">
+      <c r="B28" s="770" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="996" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" s="772" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="996" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="770" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="996" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" s="770" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="996" t="s">
+        <v>492</v>
+      </c>
+      <c r="B32" s="770" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="996" t="s">
         <v>543</v>
       </c>
-      <c r="B20" s="770" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="769" t="s">
-        <v>496</v>
-      </c>
-      <c r="B21" s="772" t="s">
+      <c r="B33" s="770" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="996" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="769" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="770" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="769" t="s">
-        <v>490</v>
-      </c>
-      <c r="B23" s="770" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="769" t="s">
-        <v>492</v>
-      </c>
-      <c r="B24" s="770" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="769" t="s">
+      <c r="B34" s="770" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="996" t="s">
         <v>545</v>
       </c>
-      <c r="B25" s="770" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="769" t="s">
+      <c r="B35" s="770" t="s">
         <v>546</v>
       </c>
-      <c r="B26" s="770" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="769" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="996" t="s">
         <v>547</v>
       </c>
-      <c r="B27" s="770" t="s">
+      <c r="B36" s="770" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="996">
+        <v>1</v>
+      </c>
+      <c r="B37" s="770" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="996" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="769" t="s">
+      <c r="B38" s="770" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="996">
+        <v>2</v>
+      </c>
+      <c r="B39" s="770" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="996" t="s">
         <v>549</v>
       </c>
-      <c r="B28" s="770" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="769">
-        <v>1</v>
-      </c>
-      <c r="B29" s="770" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="769" t="s">
+      <c r="B40" s="770" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="996" t="s">
         <v>550</v>
       </c>
-      <c r="B30" s="770" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="769">
-        <v>2</v>
-      </c>
-      <c r="B31" s="770" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="769" t="s">
+      <c r="B41" s="770" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="770" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="769" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="997" t="s">
         <v>552</v>
       </c>
-      <c r="B33" s="770" t="s">
+      <c r="B42" s="993" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="773" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="996" t="s">
         <v>554</v>
       </c>
-      <c r="B34" s="774" t="s">
+      <c r="B43" s="993" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="769" t="s">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="996" t="s">
         <v>556</v>
       </c>
-      <c r="B35" s="774" t="s">
+      <c r="B44" s="770" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="997" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="769" t="s">
+      <c r="B45" s="770" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="997" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="770" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="997" t="s">
         <v>558</v>
       </c>
-      <c r="B36" s="770" t="s">
+      <c r="B47" s="993" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="997" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="773" t="s">
+      <c r="B48" s="993" t="s">
         <v>560</v>
       </c>
-      <c r="B37" s="770" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="997" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="773" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="770" t="s">
+      <c r="B49" s="993" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="773" t="s">
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="998" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="772" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="997" t="s">
+        <v>507</v>
+      </c>
+      <c r="B51" s="772" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="997" t="s">
+        <v>517</v>
+      </c>
+      <c r="B52" s="993" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="997" t="s">
         <v>563</v>
       </c>
-      <c r="B39" s="774" t="s">
+      <c r="B53" s="993" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="997" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" s="999" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="997" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="773" t="s">
-        <v>565</v>
-      </c>
-      <c r="B40" s="774" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="773" t="s">
-        <v>567</v>
-      </c>
-      <c r="B41" s="774" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="775" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="774" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="773" t="s">
-        <v>507</v>
-      </c>
-      <c r="B43" s="774" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="773" t="s">
-        <v>517</v>
-      </c>
-      <c r="B44" s="774" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="773" t="s">
-        <v>572</v>
-      </c>
-      <c r="B45" s="774" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="773" t="s">
-        <v>574</v>
-      </c>
-      <c r="B46" s="774" t="s">
-        <v>575</v>
-      </c>
+      <c r="B55" s="993" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="997" t="s">
+        <v>607</v>
+      </c>
+      <c r="B56" s="993" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="997"/>
+      <c r="B57" s="993"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="997"/>
+      <c r="B58" s="993"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A8:B8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6965,8 +7194,8 @@
       <c r="B3" s="324" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="925"/>
-      <c r="D3" s="925"/>
+      <c r="C3" s="926"/>
+      <c r="D3" s="926"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="325"/>
@@ -6999,10 +7228,10 @@
       <c r="D10" s="332" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="926" t="s">
+      <c r="E10" s="927" t="s">
         <v>517</v>
       </c>
-      <c r="F10" s="927"/>
+      <c r="F10" s="928"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="333" t="s">
@@ -7055,7 +7284,7 @@
       <c r="C15" s="346"/>
       <c r="D15" s="351"/>
       <c r="E15" s="352"/>
-      <c r="F15" s="800"/>
+      <c r="F15" s="799"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="340" t="s">
@@ -7064,34 +7293,34 @@
       <c r="C16" s="347"/>
       <c r="D16" s="353"/>
       <c r="E16" s="353"/>
-      <c r="F16" s="801"/>
+      <c r="F16" s="800"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="338" t="s">
-        <v>606</v>
-      </c>
-      <c r="C17" s="820"/>
-      <c r="D17" s="806"/>
-      <c r="E17" s="804"/>
-      <c r="F17" s="800"/>
+        <v>595</v>
+      </c>
+      <c r="C17" s="819"/>
+      <c r="D17" s="805"/>
+      <c r="E17" s="803"/>
+      <c r="F17" s="799"/>
     </row>
     <row r="18" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="797" t="s">
+      <c r="B18" s="796" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="803"/>
-      <c r="D18" s="805"/>
-      <c r="E18" s="805"/>
-      <c r="F18" s="809"/>
+      <c r="C18" s="802"/>
+      <c r="D18" s="804"/>
+      <c r="E18" s="804"/>
+      <c r="F18" s="808"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="818" t="s">
-        <v>579</v>
-      </c>
-      <c r="C19" s="819"/>
-      <c r="D19" s="821"/>
-      <c r="E19" s="821"/>
-      <c r="F19" s="808"/>
+      <c r="B19" s="817" t="s">
+        <v>568</v>
+      </c>
+      <c r="C19" s="818"/>
+      <c r="D19" s="820"/>
+      <c r="E19" s="820"/>
+      <c r="F19" s="807"/>
     </row>
     <row r="20" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="341" t="s">
@@ -7100,16 +7329,16 @@
       <c r="C20" s="347"/>
       <c r="D20" s="354"/>
       <c r="E20" s="354"/>
-      <c r="F20" s="801"/>
+      <c r="F20" s="800"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="338" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C21" s="345"/>
       <c r="D21" s="350"/>
       <c r="E21" s="350"/>
-      <c r="F21" s="800"/>
+      <c r="F21" s="799"/>
     </row>
     <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="369" t="s">
@@ -7118,16 +7347,16 @@
       <c r="C22" s="345"/>
       <c r="D22" s="350"/>
       <c r="E22" s="350"/>
-      <c r="F22" s="800"/>
+      <c r="F22" s="799"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="802" t="s">
-        <v>579</v>
+      <c r="B23" s="801" t="s">
+        <v>568</v>
       </c>
       <c r="C23" s="363"/>
       <c r="D23" s="362"/>
       <c r="E23" s="361"/>
-      <c r="F23" s="801"/>
+      <c r="F23" s="800"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D26" s="326"/>
@@ -7157,10 +7386,10 @@
       <c r="D30" s="342" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="926" t="s">
+      <c r="E30" s="927" t="s">
         <v>517</v>
       </c>
-      <c r="F30" s="927"/>
+      <c r="F30" s="928"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="333" t="s">
@@ -7213,7 +7442,7 @@
       <c r="C35" s="346"/>
       <c r="D35" s="351"/>
       <c r="E35" s="352"/>
-      <c r="F35" s="800"/>
+      <c r="F35" s="799"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="340" t="s">
@@ -7222,34 +7451,34 @@
       <c r="C36" s="347"/>
       <c r="D36" s="353"/>
       <c r="E36" s="353"/>
-      <c r="F36" s="801"/>
+      <c r="F36" s="800"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="338" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C37" s="345"/>
       <c r="D37" s="350"/>
       <c r="E37" s="350"/>
-      <c r="F37" s="800"/>
+      <c r="F37" s="799"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="811" t="s">
-        <v>608</v>
-      </c>
-      <c r="C38" s="798"/>
-      <c r="D38" s="805"/>
-      <c r="E38" s="805"/>
-      <c r="F38" s="809"/>
+      <c r="B38" s="810" t="s">
+        <v>597</v>
+      </c>
+      <c r="C38" s="797"/>
+      <c r="D38" s="804"/>
+      <c r="E38" s="804"/>
+      <c r="F38" s="808"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="814" t="s">
-        <v>609</v>
-      </c>
-      <c r="C39" s="815"/>
-      <c r="D39" s="821"/>
-      <c r="E39" s="821"/>
-      <c r="F39" s="808"/>
+      <c r="B39" s="813" t="s">
+        <v>598</v>
+      </c>
+      <c r="C39" s="814"/>
+      <c r="D39" s="820"/>
+      <c r="E39" s="820"/>
+      <c r="F39" s="807"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="341" t="s">
@@ -7258,34 +7487,34 @@
       <c r="C40" s="347"/>
       <c r="D40" s="354"/>
       <c r="E40" s="354"/>
-      <c r="F40" s="801"/>
+      <c r="F40" s="800"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="338" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C41" s="345"/>
       <c r="D41" s="350"/>
       <c r="E41" s="350"/>
-      <c r="F41" s="800"/>
+      <c r="F41" s="799"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="369" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C42" s="345"/>
       <c r="D42" s="350"/>
       <c r="E42" s="350"/>
-      <c r="F42" s="800"/>
+      <c r="F42" s="799"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="814" t="s">
-        <v>609</v>
+      <c r="B43" s="813" t="s">
+        <v>598</v>
       </c>
       <c r="C43" s="360"/>
       <c r="D43" s="355"/>
       <c r="E43" s="359"/>
-      <c r="F43" s="801"/>
+      <c r="F43" s="800"/>
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="327" t="s">
@@ -7312,10 +7541,10 @@
       <c r="D49" s="342" t="s">
         <v>265</v>
       </c>
-      <c r="E49" s="926" t="s">
+      <c r="E49" s="927" t="s">
         <v>517</v>
       </c>
-      <c r="F49" s="927"/>
+      <c r="F49" s="928"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="333" t="s">
@@ -7368,7 +7597,7 @@
       <c r="C54" s="346"/>
       <c r="D54" s="351"/>
       <c r="E54" s="352"/>
-      <c r="F54" s="800"/>
+      <c r="F54" s="799"/>
     </row>
     <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="340" t="s">
@@ -7377,34 +7606,34 @@
       <c r="C55" s="347"/>
       <c r="D55" s="353"/>
       <c r="E55" s="353"/>
-      <c r="F55" s="801"/>
+      <c r="F55" s="800"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="338" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C56" s="345"/>
-      <c r="D56" s="799"/>
-      <c r="E56" s="806"/>
-      <c r="F56" s="807"/>
+      <c r="D56" s="798"/>
+      <c r="E56" s="805"/>
+      <c r="F56" s="806"/>
     </row>
     <row r="57" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="817" t="s">
-        <v>607</v>
-      </c>
-      <c r="C57" s="798"/>
-      <c r="D57" s="805"/>
-      <c r="E57" s="805"/>
-      <c r="F57" s="809"/>
+      <c r="B57" s="816" t="s">
+        <v>596</v>
+      </c>
+      <c r="C57" s="797"/>
+      <c r="D57" s="804"/>
+      <c r="E57" s="804"/>
+      <c r="F57" s="808"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="813" t="s">
-        <v>609</v>
-      </c>
-      <c r="C58" s="815"/>
-      <c r="D58" s="821"/>
-      <c r="E58" s="821"/>
-      <c r="F58" s="808"/>
+      <c r="B58" s="812" t="s">
+        <v>598</v>
+      </c>
+      <c r="C58" s="814"/>
+      <c r="D58" s="820"/>
+      <c r="E58" s="820"/>
+      <c r="F58" s="807"/>
     </row>
     <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="340" t="s">
@@ -7413,16 +7642,16 @@
       <c r="C59" s="347"/>
       <c r="D59" s="354"/>
       <c r="E59" s="354"/>
-      <c r="F59" s="801"/>
+      <c r="F59" s="800"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="338" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C60" s="345"/>
       <c r="D60" s="350"/>
       <c r="E60" s="350"/>
-      <c r="F60" s="800"/>
+      <c r="F60" s="799"/>
     </row>
     <row r="61" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="369" t="s">
@@ -7431,16 +7660,16 @@
       <c r="C61" s="345"/>
       <c r="D61" s="350"/>
       <c r="E61" s="350"/>
-      <c r="F61" s="800"/>
+      <c r="F61" s="799"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="802" t="s">
-        <v>609</v>
+      <c r="B62" s="801" t="s">
+        <v>598</v>
       </c>
       <c r="C62" s="360"/>
       <c r="D62" s="364"/>
       <c r="E62" s="361"/>
-      <c r="F62" s="801"/>
+      <c r="F62" s="800"/>
     </row>
     <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B65" s="327" t="s">
@@ -7467,10 +7696,10 @@
       <c r="D68" s="342" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="926" t="s">
+      <c r="E68" s="927" t="s">
         <v>517</v>
       </c>
-      <c r="F68" s="927"/>
+      <c r="F68" s="928"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="504" t="s">
@@ -7523,7 +7752,7 @@
       <c r="C73" s="346"/>
       <c r="D73" s="351"/>
       <c r="E73" s="352"/>
-      <c r="F73" s="800"/>
+      <c r="F73" s="799"/>
     </row>
     <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="340" t="s">
@@ -7532,34 +7761,34 @@
       <c r="C74" s="347"/>
       <c r="D74" s="353"/>
       <c r="E74" s="353"/>
-      <c r="F74" s="801"/>
+      <c r="F74" s="800"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="816" t="s">
-        <v>606</v>
-      </c>
-      <c r="C75" s="812"/>
+      <c r="B75" s="815" t="s">
+        <v>595</v>
+      </c>
+      <c r="C75" s="811"/>
       <c r="D75" s="350"/>
       <c r="E75" s="350"/>
-      <c r="F75" s="800"/>
+      <c r="F75" s="799"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="817" t="s">
-        <v>607</v>
-      </c>
-      <c r="C76" s="798"/>
-      <c r="D76" s="805"/>
-      <c r="E76" s="805"/>
-      <c r="F76" s="809"/>
+      <c r="B76" s="816" t="s">
+        <v>596</v>
+      </c>
+      <c r="C76" s="797"/>
+      <c r="D76" s="804"/>
+      <c r="E76" s="804"/>
+      <c r="F76" s="808"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="813" t="s">
-        <v>579</v>
-      </c>
-      <c r="C77" s="815"/>
-      <c r="D77" s="821"/>
-      <c r="E77" s="821"/>
-      <c r="F77" s="810"/>
+      <c r="B77" s="812" t="s">
+        <v>568</v>
+      </c>
+      <c r="C77" s="814"/>
+      <c r="D77" s="820"/>
+      <c r="E77" s="820"/>
+      <c r="F77" s="809"/>
     </row>
     <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="340" t="s">
@@ -7568,34 +7797,34 @@
       <c r="C78" s="347"/>
       <c r="D78" s="354"/>
       <c r="E78" s="354"/>
-      <c r="F78" s="801"/>
+      <c r="F78" s="800"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="338" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C79" s="345"/>
       <c r="D79" s="350"/>
       <c r="E79" s="350"/>
-      <c r="F79" s="800"/>
+      <c r="F79" s="799"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="369" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C80" s="345"/>
       <c r="D80" s="350"/>
       <c r="E80" s="350"/>
-      <c r="F80" s="800"/>
+      <c r="F80" s="799"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="802" t="s">
-        <v>609</v>
+      <c r="B81" s="801" t="s">
+        <v>598</v>
       </c>
       <c r="C81" s="360"/>
       <c r="D81" s="364"/>
       <c r="E81" s="361"/>
-      <c r="F81" s="801"/>
+      <c r="F81" s="800"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7645,8 +7874,8 @@
       </c>
       <c r="C2" s="373"/>
       <c r="D2" s="373"/>
-      <c r="E2" s="921"/>
-      <c r="F2" s="921"/>
+      <c r="E2" s="924"/>
+      <c r="F2" s="924"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="372"/>
@@ -7678,13 +7907,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="370"/>
-      <c r="B6" s="918" t="s">
+      <c r="B6" s="925" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="918"/>
-      <c r="D6" s="918"/>
-      <c r="E6" s="918"/>
-      <c r="F6" s="918"/>
+      <c r="C6" s="925"/>
+      <c r="D6" s="925"/>
+      <c r="E6" s="925"/>
+      <c r="F6" s="925"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="370"/>
@@ -7699,14 +7928,14 @@
       <c r="B8" s="399" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="928" t="s">
+      <c r="C8" s="929" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="929"/>
-      <c r="E8" s="928" t="s">
+      <c r="D8" s="930"/>
+      <c r="E8" s="929" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="929"/>
+      <c r="F8" s="930"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="370"/>
@@ -7842,11 +8071,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="370"/>
-      <c r="B22" s="922"/>
-      <c r="C22" s="922"/>
-      <c r="D22" s="922"/>
-      <c r="E22" s="922"/>
-      <c r="F22" s="922"/>
+      <c r="B22" s="919"/>
+      <c r="C22" s="919"/>
+      <c r="D22" s="919"/>
+      <c r="E22" s="919"/>
+      <c r="F22" s="919"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="370"/>
@@ -7918,20 +8147,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="930" t="s">
+      <c r="B2" s="931" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="931" t="s">
+      <c r="C2" s="932" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="931" t="s">
+      <c r="D2" s="932" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="424" t="s">
         <v>275</v>
       </c>
       <c r="F2" s="424" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G2" s="424" t="s">
         <v>277</v>
@@ -7959,9 +8188,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="930"/>
-      <c r="C3" s="932"/>
-      <c r="D3" s="932"/>
+      <c r="B3" s="931"/>
+      <c r="C3" s="933"/>
+      <c r="D3" s="933"/>
       <c r="E3" s="439" t="s">
         <v>283</v>
       </c>
@@ -7994,7 +8223,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="933" t="s">
+      <c r="B4" s="934" t="s">
         <v>286</v>
       </c>
       <c r="C4" s="425" t="s">
@@ -8013,7 +8242,7 @@
       <c r="N4" s="427"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="933"/>
+      <c r="B5" s="934"/>
       <c r="C5" s="425" t="s">
         <v>83</v>
       </c>
@@ -8030,7 +8259,7 @@
       <c r="N5" s="427"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="934"/>
+      <c r="B6" s="935"/>
       <c r="C6" s="435" t="s">
         <v>276</v>
       </c>
@@ -8145,43 +8374,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="938" t="s">
+      <c r="A1" s="948" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="939"/>
+      <c r="B1" s="949"/>
       <c r="C1" s="455"/>
-      <c r="D1" s="949" t="s">
+      <c r="D1" s="939" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="950"/>
-      <c r="F1" s="950"/>
-      <c r="G1" s="950"/>
-      <c r="H1" s="950"/>
-      <c r="I1" s="951"/>
-      <c r="J1" s="940" t="s">
+      <c r="E1" s="940"/>
+      <c r="F1" s="940"/>
+      <c r="G1" s="940"/>
+      <c r="H1" s="940"/>
+      <c r="I1" s="941"/>
+      <c r="J1" s="950" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="941"/>
-      <c r="L1" s="941"/>
-      <c r="M1" s="941"/>
-      <c r="N1" s="942"/>
-      <c r="O1" s="943" t="s">
+      <c r="K1" s="951"/>
+      <c r="L1" s="951"/>
+      <c r="M1" s="951"/>
+      <c r="N1" s="952"/>
+      <c r="O1" s="953" t="s">
         <v>289</v>
       </c>
-      <c r="P1" s="944"/>
-      <c r="Q1" s="945"/>
+      <c r="P1" s="954"/>
+      <c r="Q1" s="955"/>
       <c r="R1" s="442" t="s">
         <v>71</v>
       </c>
       <c r="S1" s="443"/>
-      <c r="T1" s="937" t="s">
+      <c r="T1" s="947" t="s">
         <v>482</v>
       </c>
-      <c r="U1" s="937"/>
-      <c r="V1" s="937"/>
-      <c r="W1" s="937"/>
-      <c r="X1" s="937"/>
-      <c r="Y1" s="937"/>
+      <c r="U1" s="947"/>
+      <c r="V1" s="947"/>
+      <c r="W1" s="947"/>
+      <c r="X1" s="947"/>
+      <c r="Y1" s="947"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="445" t="s">
@@ -8193,18 +8422,18 @@
       <c r="C2" s="446" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="954" t="s">
+      <c r="D2" s="944" t="s">
         <v>291</v>
       </c>
-      <c r="E2" s="953"/>
-      <c r="F2" s="953" t="s">
+      <c r="E2" s="943"/>
+      <c r="F2" s="943" t="s">
         <v>292</v>
       </c>
-      <c r="G2" s="953"/>
-      <c r="H2" s="952" t="s">
+      <c r="G2" s="943"/>
+      <c r="H2" s="942" t="s">
         <v>293</v>
       </c>
-      <c r="I2" s="952"/>
+      <c r="I2" s="942"/>
       <c r="J2" s="447">
         <v>0</v>
       </c>
@@ -8235,18 +8464,18 @@
       <c r="S2" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="935" t="s">
+      <c r="T2" s="945" t="s">
         <v>451</v>
       </c>
-      <c r="U2" s="935"/>
-      <c r="V2" s="936" t="s">
+      <c r="U2" s="945"/>
+      <c r="V2" s="946" t="s">
         <v>468</v>
       </c>
-      <c r="W2" s="936"/>
-      <c r="X2" s="936" t="s">
+      <c r="W2" s="946"/>
+      <c r="X2" s="946" t="s">
         <v>469</v>
       </c>
-      <c r="Y2" s="936"/>
+      <c r="Y2" s="946"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="450"/>
@@ -8272,13 +8501,13 @@
       <c r="I3" s="665" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="946" t="s">
+      <c r="J3" s="936" t="s">
         <v>298</v>
       </c>
-      <c r="K3" s="947"/>
-      <c r="L3" s="947"/>
-      <c r="M3" s="947"/>
-      <c r="N3" s="948"/>
+      <c r="K3" s="937"/>
+      <c r="L3" s="937"/>
+      <c r="M3" s="937"/>
+      <c r="N3" s="938"/>
       <c r="O3" s="458"/>
       <c r="P3" s="458"/>
       <c r="Q3" s="458"/>
@@ -9507,11 +9736,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:X4"/>
   <mergeCells count="12">
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
@@ -9519,6 +9743,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9559,25 +9788,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="836" t="s">
+      <c r="A1" s="864" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="837"/>
-      <c r="E1" s="837"/>
-      <c r="F1" s="837"/>
+      <c r="B1" s="865"/>
+      <c r="C1" s="865"/>
+      <c r="D1" s="865"/>
+      <c r="E1" s="865"/>
+      <c r="F1" s="865"/>
       <c r="G1" s="472"/>
-      <c r="H1" s="961" t="s">
+      <c r="H1" s="960" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="962"/>
-      <c r="J1" s="962"/>
+      <c r="I1" s="961"/>
+      <c r="J1" s="961"/>
       <c r="K1" s="474"/>
       <c r="L1" s="464"/>
       <c r="M1" s="474"/>
       <c r="N1" s="465"/>
-      <c r="O1" s="959" t="s">
+      <c r="O1" s="958" t="s">
         <v>300</v>
       </c>
       <c r="P1" s="466"/>
@@ -9589,26 +9818,26 @@
       <c r="T1" s="464"/>
       <c r="U1" s="474"/>
       <c r="V1" s="465"/>
-      <c r="W1" s="959" t="s">
+      <c r="W1" s="958" t="s">
         <v>302</v>
       </c>
       <c r="X1" s="466"/>
-      <c r="Y1" s="963" t="s">
+      <c r="Y1" s="962" t="s">
         <v>303</v>
       </c>
-      <c r="Z1" s="963"/>
-      <c r="AA1" s="963"/>
-      <c r="AB1" s="963"/>
-      <c r="AC1" s="963"/>
-      <c r="AD1" s="964"/>
-      <c r="AE1" s="959" t="s">
+      <c r="Z1" s="962"/>
+      <c r="AA1" s="962"/>
+      <c r="AB1" s="962"/>
+      <c r="AC1" s="962"/>
+      <c r="AD1" s="963"/>
+      <c r="AE1" s="958" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="958" t="s">
+      <c r="AF1" s="957" t="s">
         <v>467</v>
       </c>
-      <c r="AG1" s="937"/>
-      <c r="AH1" s="937"/>
+      <c r="AG1" s="947"/>
+      <c r="AH1" s="947"/>
       <c r="AI1" s="688"/>
       <c r="AJ1" s="688"/>
       <c r="AK1" s="688"/>
@@ -9667,56 +9896,56 @@
       <c r="C2" s="473" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="957" t="s">
+      <c r="D2" s="956" t="s">
         <v>472</v>
       </c>
-      <c r="E2" s="957"/>
-      <c r="F2" s="957" t="s">
+      <c r="E2" s="956"/>
+      <c r="F2" s="956" t="s">
         <v>473</v>
       </c>
-      <c r="G2" s="957"/>
+      <c r="G2" s="956"/>
       <c r="H2" s="468"/>
-      <c r="I2" s="955" t="s">
+      <c r="I2" s="964" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="955"/>
-      <c r="K2" s="955" t="s">
+      <c r="J2" s="964"/>
+      <c r="K2" s="964" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="955"/>
-      <c r="M2" s="955" t="s">
+      <c r="L2" s="964"/>
+      <c r="M2" s="964" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="956"/>
-      <c r="O2" s="960"/>
+      <c r="N2" s="965"/>
+      <c r="O2" s="959"/>
       <c r="P2" s="469"/>
-      <c r="Q2" s="955" t="s">
+      <c r="Q2" s="964" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="955"/>
-      <c r="S2" s="955" t="s">
+      <c r="R2" s="964"/>
+      <c r="S2" s="964" t="s">
         <v>179</v>
       </c>
-      <c r="T2" s="955"/>
-      <c r="U2" s="955" t="s">
+      <c r="T2" s="964"/>
+      <c r="U2" s="964" t="s">
         <v>180</v>
       </c>
-      <c r="V2" s="956"/>
-      <c r="W2" s="960"/>
+      <c r="V2" s="965"/>
+      <c r="W2" s="959"/>
       <c r="X2" s="469"/>
-      <c r="Y2" s="955" t="s">
+      <c r="Y2" s="964" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" s="955"/>
-      <c r="AA2" s="955" t="s">
+      <c r="Z2" s="964"/>
+      <c r="AA2" s="964" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="955"/>
-      <c r="AC2" s="955" t="s">
+      <c r="AB2" s="964"/>
+      <c r="AC2" s="964" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="956"/>
-      <c r="AE2" s="960"/>
+      <c r="AD2" s="965"/>
+      <c r="AE2" s="959"/>
       <c r="AF2" s="682" t="s">
         <v>451</v>
       </c>
@@ -10602,6 +10831,8 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:AH4"/>
   <mergeCells count="18">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AE1:AE2"/>
@@ -10618,8 +10849,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10746,7 +10975,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="498" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B18" s="499" t="s">
         <v>325</v>
@@ -10838,9 +11067,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="965"/>
-      <c r="B1" s="867"/>
-      <c r="C1" s="867"/>
+      <c r="A1" s="984"/>
+      <c r="B1" s="854"/>
+      <c r="C1" s="854"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I2" s="740"/>
@@ -10855,21 +11084,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="973" t="s">
+      <c r="A3" s="988" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="975" t="s">
+      <c r="B3" s="990" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="976"/>
-      <c r="D3" s="971" t="s">
+      <c r="C3" s="991"/>
+      <c r="D3" s="976" t="s">
         <v>441</v>
       </c>
-      <c r="E3" s="972"/>
-      <c r="F3" s="971" t="s">
+      <c r="E3" s="977"/>
+      <c r="F3" s="976" t="s">
         <v>475</v>
       </c>
-      <c r="G3" s="972"/>
+      <c r="G3" s="977"/>
       <c r="I3" s="738" t="str">
         <f>$B$3</f>
         <v xml:space="preserve">[#current_year#] </v>
@@ -10880,14 +11109,14 @@
       <c r="K3" s="720"/>
       <c r="L3" s="720"/>
       <c r="N3" s="705"/>
-      <c r="O3" s="987" t="s">
+      <c r="O3" s="973" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="987"/>
-      <c r="Q3" s="987" t="s">
+      <c r="P3" s="973"/>
+      <c r="Q3" s="973" t="s">
         <v>334</v>
       </c>
-      <c r="R3" s="987"/>
+      <c r="R3" s="973"/>
       <c r="S3" s="705"/>
       <c r="T3" s="713" t="s">
         <v>335</v>
@@ -10895,7 +11124,7 @@
       <c r="U3" s="705"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="974"/>
+      <c r="A4" s="989"/>
       <c r="B4" s="512" t="s">
         <v>336</v>
       </c>
@@ -11154,14 +11383,14 @@
       <c r="K10" s="720"/>
       <c r="L10" s="720"/>
       <c r="N10" s="713"/>
-      <c r="O10" s="987" t="s">
+      <c r="O10" s="973" t="s">
         <v>336</v>
       </c>
-      <c r="P10" s="987"/>
-      <c r="Q10" s="987" t="s">
+      <c r="P10" s="973"/>
+      <c r="Q10" s="973" t="s">
         <v>343</v>
       </c>
-      <c r="R10" s="987"/>
+      <c r="R10" s="973"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I11" s="738" t="str">
@@ -11225,7 +11454,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="973" t="s">
+      <c r="A13" s="988" t="s">
         <v>344</v>
       </c>
       <c r="B13" s="511" t="str">
@@ -11271,7 +11500,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="974"/>
+      <c r="A14" s="989"/>
       <c r="B14" s="514" t="s">
         <v>337</v>
       </c>
@@ -11401,34 +11630,34 @@
       <c r="A21" s="502" t="s">
         <v>349</v>
       </c>
-      <c r="B21" s="988" t="s">
+      <c r="B21" s="978" t="s">
         <v>494</v>
       </c>
-      <c r="C21" s="989"/>
-      <c r="D21" s="989"/>
-      <c r="E21" s="989"/>
-      <c r="F21" s="989"/>
-      <c r="G21" s="989"/>
+      <c r="C21" s="979"/>
+      <c r="D21" s="979"/>
+      <c r="E21" s="979"/>
+      <c r="F21" s="979"/>
+      <c r="G21" s="979"/>
     </row>
     <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="516" t="s">
         <v>313</v>
       </c>
-      <c r="B22" s="977" t="str">
+      <c r="B22" s="980" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="978"/>
-      <c r="D22" s="977" t="str">
+      <c r="C22" s="981"/>
+      <c r="D22" s="980" t="str">
         <f>D3</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E22" s="978"/>
-      <c r="F22" s="977" t="str">
+      <c r="E22" s="981"/>
+      <c r="F22" s="980" t="str">
         <f>F3</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G22" s="978"/>
+      <c r="G22" s="981"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="517"/>
@@ -11855,21 +12084,21 @@
       <c r="A41" s="519" t="s">
         <v>359</v>
       </c>
-      <c r="B41" s="967" t="str">
+      <c r="B41" s="986" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="968"/>
-      <c r="D41" s="969" t="str">
+      <c r="C41" s="987"/>
+      <c r="D41" s="974" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="970"/>
-      <c r="F41" s="969" t="str">
+      <c r="E41" s="975"/>
+      <c r="F41" s="974" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G41" s="970"/>
+      <c r="G41" s="975"/>
       <c r="N41" s="705"/>
       <c r="O41" s="732" t="s">
         <v>445</v>
@@ -12083,11 +12312,11 @@
       <c r="F53" s="710" t="s">
         <v>500</v>
       </c>
-      <c r="H53" s="990" t="s">
+      <c r="H53" s="966" t="s">
         <v>487</v>
       </c>
-      <c r="I53" s="990"/>
-      <c r="J53" s="990"/>
+      <c r="I53" s="966"/>
+      <c r="J53" s="966"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="701" t="s">
@@ -12257,11 +12486,11 @@
       <c r="F63" s="710" t="s">
         <v>500</v>
       </c>
-      <c r="H63" s="990" t="s">
+      <c r="H63" s="966" t="s">
         <v>501</v>
       </c>
-      <c r="I63" s="990"/>
-      <c r="J63" s="990"/>
+      <c r="I63" s="966"/>
+      <c r="J63" s="966"/>
       <c r="L63" s="708"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12448,12 +12677,12 @@
       <c r="A74" s="623" t="s">
         <v>358</v>
       </c>
-      <c r="B74" s="966" t="s">
+      <c r="B74" s="985" t="s">
         <v>442</v>
       </c>
-      <c r="C74" s="966"/>
-      <c r="D74" s="966"/>
-      <c r="E74" s="966"/>
+      <c r="C74" s="985"/>
+      <c r="D74" s="985"/>
+      <c r="E74" s="985"/>
       <c r="I74" s="709"/>
       <c r="J74" s="709"/>
       <c r="K74" s="709"/>
@@ -12769,36 +12998,36 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B85" s="981" t="str">
+      <c r="B85" s="971" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="982"/>
-      <c r="D85" s="981" t="str">
+      <c r="C85" s="972"/>
+      <c r="D85" s="971" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="982"/>
-      <c r="F85" s="981" t="str">
+      <c r="E85" s="972"/>
+      <c r="F85" s="971" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G85" s="982"/>
+      <c r="G85" s="972"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="503"/>
-      <c r="B86" s="926" t="s">
+      <c r="B86" s="927" t="s">
         <v>266</v>
       </c>
-      <c r="C86" s="927"/>
-      <c r="D86" s="926" t="s">
+      <c r="C86" s="928"/>
+      <c r="D86" s="927" t="s">
         <v>266</v>
       </c>
-      <c r="E86" s="927"/>
-      <c r="F86" s="926" t="s">
+      <c r="E86" s="928"/>
+      <c r="F86" s="927" t="s">
         <v>266</v>
       </c>
-      <c r="G86" s="927"/>
+      <c r="G86" s="928"/>
       <c r="N86" s="713" t="s">
         <v>385</v>
       </c>
@@ -13079,36 +13308,36 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="981" t="str">
+      <c r="B101" s="971" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="982"/>
-      <c r="D101" s="981" t="str">
+      <c r="C101" s="972"/>
+      <c r="D101" s="971" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="982"/>
-      <c r="F101" s="981" t="str">
+      <c r="E101" s="972"/>
+      <c r="F101" s="971" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G101" s="982"/>
+      <c r="G101" s="972"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="503"/>
-      <c r="B102" s="926" t="s">
+      <c r="B102" s="927" t="s">
         <v>266</v>
       </c>
-      <c r="C102" s="927"/>
-      <c r="D102" s="926" t="s">
+      <c r="C102" s="928"/>
+      <c r="D102" s="927" t="s">
         <v>266</v>
       </c>
-      <c r="E102" s="927"/>
-      <c r="F102" s="926" t="s">
+      <c r="E102" s="928"/>
+      <c r="F102" s="927" t="s">
         <v>266</v>
       </c>
-      <c r="G102" s="927"/>
+      <c r="G102" s="928"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="504" t="s">
@@ -13389,36 +13618,36 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B116" s="983" t="str">
+      <c r="B116" s="967" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="984"/>
-      <c r="D116" s="983" t="str">
+      <c r="C116" s="968"/>
+      <c r="D116" s="967" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="984"/>
-      <c r="F116" s="983" t="str">
+      <c r="E116" s="968"/>
+      <c r="F116" s="967" t="str">
         <f>D13</f>
         <v>[#previous_year_n2#]</v>
       </c>
-      <c r="G116" s="984"/>
+      <c r="G116" s="968"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="542"/>
-      <c r="B117" s="985" t="s">
+      <c r="B117" s="969" t="s">
         <v>266</v>
       </c>
-      <c r="C117" s="986"/>
-      <c r="D117" s="985" t="s">
+      <c r="C117" s="970"/>
+      <c r="D117" s="969" t="s">
         <v>266</v>
       </c>
-      <c r="E117" s="986"/>
-      <c r="F117" s="985" t="s">
+      <c r="E117" s="970"/>
+      <c r="F117" s="969" t="s">
         <v>266</v>
       </c>
-      <c r="G117" s="986"/>
+      <c r="G117" s="970"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="543" t="s">
@@ -13721,12 +13950,12 @@
       <c r="A129" s="546" t="s">
         <v>344</v>
       </c>
-      <c r="B129" s="979" t="str">
+      <c r="B129" s="982" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="980"/>
-      <c r="D129" s="980"/>
+      <c r="C129" s="983"/>
+      <c r="D129" s="983"/>
       <c r="N129" s="713" t="s">
         <v>385</v>
       </c>
@@ -13948,7 +14177,7 @@
     </row>
     <row r="150" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="556" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B150" s="556" t="s">
         <v>63</v>
@@ -13967,7 +14196,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="556" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B151" s="556" t="s">
         <v>63</v>
@@ -14502,22 +14731,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
@@ -14531,16 +14754,22 @@
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17940,66 +18169,66 @@
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="825" t="s">
+      <c r="A4" s="824" t="s">
         <v>497</v>
       </c>
-      <c r="B4" s="826"/>
-      <c r="C4" s="826"/>
-      <c r="D4" s="826"/>
-      <c r="E4" s="826"/>
-      <c r="F4" s="827"/>
-      <c r="G4" s="827"/>
-      <c r="H4" s="827"/>
-      <c r="I4" s="827"/>
-      <c r="J4" s="827"/>
-      <c r="K4" s="827"/>
-      <c r="L4" s="827"/>
-      <c r="M4" s="827"/>
-      <c r="N4" s="827"/>
-      <c r="O4" s="827"/>
-      <c r="P4" s="827"/>
-      <c r="Q4" s="827"/>
-      <c r="R4" s="827"/>
-      <c r="S4" s="827"/>
-      <c r="T4" s="827"/>
-      <c r="U4" s="827"/>
-      <c r="V4" s="827"/>
-      <c r="W4" s="827"/>
-      <c r="X4" s="827"/>
-      <c r="Y4" s="827"/>
-      <c r="Z4" s="827"/>
-      <c r="AA4" s="827"/>
-      <c r="AB4" s="827"/>
-      <c r="AC4" s="827"/>
-      <c r="AD4" s="827"/>
-      <c r="AE4" s="827"/>
-      <c r="AF4" s="827"/>
-      <c r="AG4" s="827"/>
-      <c r="AH4" s="827"/>
-      <c r="AI4" s="827"/>
-      <c r="AJ4" s="827"/>
-      <c r="AK4" s="827"/>
-      <c r="AL4" s="827"/>
-      <c r="AM4" s="827"/>
-      <c r="AN4" s="827"/>
-      <c r="AO4" s="827"/>
-      <c r="AP4" s="827"/>
-      <c r="AQ4" s="827"/>
+      <c r="B4" s="825"/>
+      <c r="C4" s="825"/>
+      <c r="D4" s="825"/>
+      <c r="E4" s="825"/>
+      <c r="F4" s="826"/>
+      <c r="G4" s="826"/>
+      <c r="H4" s="826"/>
+      <c r="I4" s="826"/>
+      <c r="J4" s="826"/>
+      <c r="K4" s="826"/>
+      <c r="L4" s="826"/>
+      <c r="M4" s="826"/>
+      <c r="N4" s="826"/>
+      <c r="O4" s="826"/>
+      <c r="P4" s="826"/>
+      <c r="Q4" s="826"/>
+      <c r="R4" s="826"/>
+      <c r="S4" s="826"/>
+      <c r="T4" s="826"/>
+      <c r="U4" s="826"/>
+      <c r="V4" s="826"/>
+      <c r="W4" s="826"/>
+      <c r="X4" s="826"/>
+      <c r="Y4" s="826"/>
+      <c r="Z4" s="826"/>
+      <c r="AA4" s="826"/>
+      <c r="AB4" s="826"/>
+      <c r="AC4" s="826"/>
+      <c r="AD4" s="826"/>
+      <c r="AE4" s="826"/>
+      <c r="AF4" s="826"/>
+      <c r="AG4" s="826"/>
+      <c r="AH4" s="826"/>
+      <c r="AI4" s="826"/>
+      <c r="AJ4" s="826"/>
+      <c r="AK4" s="826"/>
+      <c r="AL4" s="826"/>
+      <c r="AM4" s="826"/>
+      <c r="AN4" s="826"/>
+      <c r="AO4" s="826"/>
+      <c r="AP4" s="826"/>
+      <c r="AQ4" s="826"/>
     </row>
     <row r="5" spans="1:43" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="828" t="s">
+      <c r="A5" s="827" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="828" t="s">
+      <c r="B5" s="827" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="795" t="s">
-        <v>580</v>
-      </c>
-      <c r="D5" s="828" t="s">
+      <c r="C5" s="794" t="s">
+        <v>569</v>
+      </c>
+      <c r="D5" s="827" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="828" t="s">
+      <c r="E5" s="827" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -18024,34 +18253,34 @@
         <v>35</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>37</v>
@@ -18059,10 +18288,10 @@
       <c r="X5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="830" t="s">
-        <v>605</v>
-      </c>
-      <c r="Z5" s="830" t="s">
+      <c r="Y5" s="829" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z5" s="829" t="s">
         <v>39</v>
       </c>
       <c r="AA5" s="16" t="s">
@@ -18092,7 +18321,7 @@
       <c r="AI5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AJ5" s="830" t="s">
+      <c r="AJ5" s="829" t="s">
         <v>48</v>
       </c>
       <c r="AK5" s="16" t="s">
@@ -18101,28 +18330,28 @@
       <c r="AL5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AM5" s="828" t="s">
+      <c r="AM5" s="827" t="s">
         <v>51</v>
       </c>
-      <c r="AN5" s="828" t="s">
+      <c r="AN5" s="827" t="s">
         <v>52</v>
       </c>
-      <c r="AO5" s="828" t="s">
+      <c r="AO5" s="827" t="s">
         <v>53</v>
       </c>
-      <c r="AP5" s="828" t="s">
+      <c r="AP5" s="827" t="s">
         <v>54</v>
       </c>
-      <c r="AQ5" s="828" t="s">
+      <c r="AQ5" s="827" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="829"/>
-      <c r="B6" s="829"/>
-      <c r="C6" s="796"/>
-      <c r="D6" s="829"/>
-      <c r="E6" s="829"/>
+      <c r="A6" s="828"/>
+      <c r="B6" s="828"/>
+      <c r="C6" s="795"/>
+      <c r="D6" s="828"/>
+      <c r="E6" s="828"/>
       <c r="F6" s="14" t="s">
         <v>56</v>
       </c>
@@ -18180,8 +18409,8 @@
       <c r="X6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="831"/>
-      <c r="Z6" s="831"/>
+      <c r="Y6" s="830"/>
+      <c r="Z6" s="830"/>
       <c r="AA6" s="9" t="s">
         <v>57</v>
       </c>
@@ -18209,18 +18438,18 @@
       <c r="AI6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AJ6" s="831"/>
+      <c r="AJ6" s="830"/>
       <c r="AK6" s="9" t="s">
         <v>57</v>
       </c>
       <c r="AL6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" s="829"/>
-      <c r="AN6" s="829"/>
-      <c r="AO6" s="829"/>
-      <c r="AP6" s="829"/>
-      <c r="AQ6" s="829"/>
+      <c r="AM6" s="828"/>
+      <c r="AN6" s="828"/>
+      <c r="AO6" s="828"/>
+      <c r="AP6" s="828"/>
+      <c r="AQ6" s="828"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AE7" s="8"/>
@@ -18234,7 +18463,7 @@
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="662"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="822"/>
+      <c r="C9" s="821"/>
       <c r="D9" s="662"/>
       <c r="E9" s="662"/>
       <c r="F9" s="662"/>
@@ -58390,36 +58619,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="753" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="776"/>
-      <c r="B1" s="776"/>
-      <c r="C1" s="776"/>
-      <c r="D1" s="777"/>
-      <c r="E1" s="778"/>
-      <c r="F1" s="778"/>
-      <c r="G1" s="779"/>
-      <c r="H1" s="780"/>
-      <c r="I1" s="780"/>
-      <c r="J1" s="781"/>
-      <c r="K1" s="782"/>
-      <c r="L1" s="782"/>
-      <c r="M1" s="783"/>
-      <c r="N1" s="784"/>
-      <c r="O1" s="784"/>
-      <c r="P1" s="785"/>
-      <c r="Q1" s="786"/>
-      <c r="R1" s="786"/>
-      <c r="S1" s="787"/>
-      <c r="T1" s="788"/>
-      <c r="U1" s="788"/>
-      <c r="V1" s="789"/>
-      <c r="W1" s="790"/>
-      <c r="X1" s="790"/>
-      <c r="Y1" s="791"/>
-      <c r="Z1" s="792"/>
-      <c r="AA1" s="792"/>
-      <c r="AB1" s="793"/>
-      <c r="AC1" s="794"/>
-      <c r="AD1" s="794"/>
+      <c r="A1" s="775"/>
+      <c r="B1" s="775"/>
+      <c r="C1" s="775"/>
+      <c r="D1" s="776"/>
+      <c r="E1" s="777"/>
+      <c r="F1" s="777"/>
+      <c r="G1" s="778"/>
+      <c r="H1" s="779"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="780"/>
+      <c r="K1" s="781"/>
+      <c r="L1" s="781"/>
+      <c r="M1" s="782"/>
+      <c r="N1" s="783"/>
+      <c r="O1" s="783"/>
+      <c r="P1" s="784"/>
+      <c r="Q1" s="785"/>
+      <c r="R1" s="785"/>
+      <c r="S1" s="786"/>
+      <c r="T1" s="787"/>
+      <c r="U1" s="787"/>
+      <c r="V1" s="788"/>
+      <c r="W1" s="789"/>
+      <c r="X1" s="789"/>
+      <c r="Y1" s="790"/>
+      <c r="Z1" s="791"/>
+      <c r="AA1" s="791"/>
+      <c r="AB1" s="792"/>
+      <c r="AC1" s="793"/>
+      <c r="AD1" s="793"/>
     </row>
     <row r="2" spans="1:30" s="752" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="742"/>
@@ -58483,20 +58712,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="832" t="s">
+      <c r="A1" s="831" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="834" t="s">
+      <c r="B1" s="833" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="823" t="s">
-        <v>584</v>
+      <c r="C1" s="822" t="s">
+        <v>573</v>
       </c>
       <c r="D1" s="766" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="E1" s="766" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="F1" s="661" t="s">
         <v>502</v>
@@ -58536,8 +58765,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="833"/>
-      <c r="B2" s="835"/>
+      <c r="A2" s="832"/>
+      <c r="B2" s="834"/>
       <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
@@ -58702,123 +58931,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="658" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="836" t="s">
+      <c r="A1" s="864" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="837"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="837"/>
-      <c r="E1" s="837"/>
-      <c r="F1" s="837"/>
-      <c r="G1" s="837"/>
-      <c r="H1" s="838" t="s">
+      <c r="B1" s="865"/>
+      <c r="C1" s="865"/>
+      <c r="D1" s="865"/>
+      <c r="E1" s="865"/>
+      <c r="F1" s="865"/>
+      <c r="G1" s="865"/>
+      <c r="H1" s="866" t="s">
         <v>451</v>
       </c>
-      <c r="I1" s="839"/>
-      <c r="J1" s="839"/>
-      <c r="K1" s="839"/>
-      <c r="L1" s="839"/>
-      <c r="M1" s="840"/>
-      <c r="N1" s="841" t="s">
+      <c r="I1" s="867"/>
+      <c r="J1" s="867"/>
+      <c r="K1" s="867"/>
+      <c r="L1" s="867"/>
+      <c r="M1" s="868"/>
+      <c r="N1" s="869" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="842"/>
-      <c r="P1" s="842"/>
-      <c r="Q1" s="842"/>
-      <c r="R1" s="842"/>
-      <c r="S1" s="842"/>
-      <c r="T1" s="842"/>
-      <c r="U1" s="842"/>
-      <c r="V1" s="843" t="s">
+      <c r="O1" s="847"/>
+      <c r="P1" s="847"/>
+      <c r="Q1" s="847"/>
+      <c r="R1" s="847"/>
+      <c r="S1" s="847"/>
+      <c r="T1" s="847"/>
+      <c r="U1" s="847"/>
+      <c r="V1" s="870" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="844"/>
-      <c r="X1" s="845"/>
-      <c r="Y1" s="845"/>
-      <c r="Z1" s="846"/>
-      <c r="AA1" s="847" t="s">
+      <c r="W1" s="871"/>
+      <c r="X1" s="872"/>
+      <c r="Y1" s="872"/>
+      <c r="Z1" s="873"/>
+      <c r="AA1" s="874" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="848"/>
-      <c r="AC1" s="848"/>
-      <c r="AD1" s="848"/>
-      <c r="AE1" s="848"/>
-      <c r="AF1" s="848"/>
-      <c r="AG1" s="848"/>
-      <c r="AH1" s="848"/>
-      <c r="AI1" s="848"/>
-      <c r="AJ1" s="848"/>
-      <c r="AK1" s="848"/>
-      <c r="AL1" s="848"/>
-      <c r="AM1" s="848"/>
+      <c r="AB1" s="875"/>
+      <c r="AC1" s="875"/>
+      <c r="AD1" s="875"/>
+      <c r="AE1" s="875"/>
+      <c r="AF1" s="875"/>
+      <c r="AG1" s="875"/>
+      <c r="AH1" s="875"/>
+      <c r="AI1" s="875"/>
+      <c r="AJ1" s="875"/>
+      <c r="AK1" s="875"/>
+      <c r="AL1" s="875"/>
+      <c r="AM1" s="875"/>
       <c r="AN1" s="52"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="860" t="s">
+      <c r="AP1" s="846" t="s">
         <v>75</v>
       </c>
-      <c r="AQ1" s="842"/>
-      <c r="AR1" s="842"/>
-      <c r="AS1" s="842"/>
-      <c r="AT1" s="842"/>
-      <c r="AU1" s="842"/>
-      <c r="AV1" s="842"/>
-      <c r="AW1" s="861"/>
-      <c r="AX1" s="868" t="s">
-        <v>581</v>
-      </c>
-      <c r="AY1" s="869"/>
-      <c r="AZ1" s="869"/>
-      <c r="BA1" s="869"/>
-      <c r="BB1" s="869"/>
-      <c r="BC1" s="870"/>
-      <c r="BD1" s="871" t="s">
+      <c r="AQ1" s="847"/>
+      <c r="AR1" s="847"/>
+      <c r="AS1" s="847"/>
+      <c r="AT1" s="847"/>
+      <c r="AU1" s="847"/>
+      <c r="AV1" s="847"/>
+      <c r="AW1" s="848"/>
+      <c r="AX1" s="855" t="s">
+        <v>570</v>
+      </c>
+      <c r="AY1" s="856"/>
+      <c r="AZ1" s="856"/>
+      <c r="BA1" s="856"/>
+      <c r="BB1" s="856"/>
+      <c r="BC1" s="857"/>
+      <c r="BD1" s="858" t="s">
         <v>76</v>
       </c>
-      <c r="BE1" s="872"/>
-      <c r="BF1" s="872"/>
-      <c r="BG1" s="872"/>
-      <c r="BH1" s="872"/>
-      <c r="BI1" s="873"/>
-      <c r="BJ1" s="874" t="s">
+      <c r="BE1" s="859"/>
+      <c r="BF1" s="859"/>
+      <c r="BG1" s="859"/>
+      <c r="BH1" s="859"/>
+      <c r="BI1" s="860"/>
+      <c r="BJ1" s="861" t="s">
         <v>77</v>
       </c>
-      <c r="BK1" s="875"/>
-      <c r="BL1" s="875"/>
-      <c r="BM1" s="875"/>
-      <c r="BN1" s="875"/>
-      <c r="BO1" s="875"/>
-      <c r="BP1" s="876"/>
-      <c r="BQ1" s="849" t="s">
+      <c r="BK1" s="862"/>
+      <c r="BL1" s="862"/>
+      <c r="BM1" s="862"/>
+      <c r="BN1" s="862"/>
+      <c r="BO1" s="862"/>
+      <c r="BP1" s="863"/>
+      <c r="BQ1" s="835" t="s">
         <v>78</v>
       </c>
-      <c r="BR1" s="850"/>
-      <c r="BS1" s="850"/>
-      <c r="BT1" s="850"/>
-      <c r="BU1" s="850"/>
-      <c r="BV1" s="850"/>
+      <c r="BR1" s="836"/>
+      <c r="BS1" s="836"/>
+      <c r="BT1" s="836"/>
+      <c r="BU1" s="836"/>
+      <c r="BV1" s="836"/>
       <c r="BW1" s="53"/>
       <c r="BX1" s="54"/>
-      <c r="BY1" s="851" t="s">
+      <c r="BY1" s="837" t="s">
         <v>79</v>
       </c>
-      <c r="BZ1" s="852"/>
-      <c r="CA1" s="852"/>
-      <c r="CB1" s="852"/>
-      <c r="CC1" s="852"/>
-      <c r="CD1" s="852"/>
-      <c r="CE1" s="852"/>
-      <c r="CF1" s="853"/>
-      <c r="CG1" s="853"/>
-      <c r="CH1" s="853"/>
-      <c r="CI1" s="853"/>
-      <c r="CJ1" s="853"/>
-      <c r="CK1" s="853"/>
-      <c r="CL1" s="853"/>
-      <c r="CM1" s="853"/>
-      <c r="CN1" s="853"/>
-      <c r="CO1" s="853"/>
-      <c r="CP1" s="853"/>
-      <c r="CQ1" s="853"/>
+      <c r="BZ1" s="838"/>
+      <c r="CA1" s="838"/>
+      <c r="CB1" s="838"/>
+      <c r="CC1" s="838"/>
+      <c r="CD1" s="838"/>
+      <c r="CE1" s="838"/>
+      <c r="CF1" s="839"/>
+      <c r="CG1" s="839"/>
+      <c r="CH1" s="839"/>
+      <c r="CI1" s="839"/>
+      <c r="CJ1" s="839"/>
+      <c r="CK1" s="839"/>
+      <c r="CL1" s="839"/>
+      <c r="CM1" s="839"/>
+      <c r="CN1" s="839"/>
+      <c r="CO1" s="839"/>
+      <c r="CP1" s="839"/>
+      <c r="CQ1" s="839"/>
     </row>
     <row r="2" spans="1:95" s="658" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -58842,18 +59071,18 @@
       <c r="G2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="854" t="s">
+      <c r="H2" s="840" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="855"/>
-      <c r="J2" s="855" t="s">
+      <c r="I2" s="841"/>
+      <c r="J2" s="841" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="855"/>
-      <c r="L2" s="855" t="s">
+      <c r="K2" s="841"/>
+      <c r="L2" s="841" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="856"/>
+      <c r="M2" s="842"/>
       <c r="N2" s="57" t="s">
         <v>80</v>
       </c>
@@ -58962,36 +59191,36 @@
       <c r="AW2" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="AX2" s="857" t="s">
+      <c r="AX2" s="843" t="s">
         <v>115</v>
       </c>
-      <c r="AY2" s="858"/>
-      <c r="AZ2" s="858"/>
-      <c r="BA2" s="858" t="s">
+      <c r="AY2" s="844"/>
+      <c r="AZ2" s="844"/>
+      <c r="BA2" s="844" t="s">
         <v>116</v>
       </c>
-      <c r="BB2" s="858"/>
-      <c r="BC2" s="859"/>
-      <c r="BD2" s="862" t="s">
+      <c r="BB2" s="844"/>
+      <c r="BC2" s="845"/>
+      <c r="BD2" s="849" t="s">
         <v>115</v>
       </c>
-      <c r="BE2" s="863"/>
-      <c r="BF2" s="863"/>
-      <c r="BG2" s="863" t="s">
+      <c r="BE2" s="850"/>
+      <c r="BF2" s="850"/>
+      <c r="BG2" s="850" t="s">
         <v>116</v>
       </c>
-      <c r="BH2" s="863"/>
-      <c r="BI2" s="864"/>
-      <c r="BJ2" s="865" t="s">
+      <c r="BH2" s="850"/>
+      <c r="BI2" s="851"/>
+      <c r="BJ2" s="852" t="s">
         <v>115</v>
       </c>
-      <c r="BK2" s="866"/>
-      <c r="BL2" s="866"/>
-      <c r="BM2" s="866" t="s">
+      <c r="BK2" s="853"/>
+      <c r="BL2" s="853"/>
+      <c r="BM2" s="853" t="s">
         <v>116</v>
       </c>
-      <c r="BN2" s="867"/>
-      <c r="BO2" s="867"/>
+      <c r="BN2" s="854"/>
+      <c r="BO2" s="854"/>
       <c r="BP2" s="69" t="s">
         <v>117</v>
       </c>
@@ -59624,6 +59853,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AM1"/>
     <mergeCell ref="BQ1:BV1"/>
     <mergeCell ref="BY1:CQ1"/>
     <mergeCell ref="H2:I2"/>
@@ -59639,11 +59873,6 @@
     <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59655,7 +59884,7 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:CZ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="BP5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -59727,127 +59956,127 @@
         <v>157</v>
       </c>
       <c r="L1" s="145"/>
-      <c r="M1" s="877" t="s">
+      <c r="M1" s="899" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="878" t="s">
+      <c r="N1" s="900" t="s">
         <v>507</v>
       </c>
-      <c r="O1" s="879"/>
-      <c r="P1" s="879"/>
-      <c r="Q1" s="879"/>
-      <c r="R1" s="880" t="s">
+      <c r="O1" s="901"/>
+      <c r="P1" s="901"/>
+      <c r="Q1" s="901"/>
+      <c r="R1" s="902" t="s">
         <v>451</v>
       </c>
-      <c r="S1" s="881"/>
-      <c r="T1" s="881"/>
-      <c r="U1" s="881"/>
-      <c r="V1" s="881"/>
-      <c r="W1" s="881"/>
-      <c r="X1" s="882"/>
-      <c r="Y1" s="883" t="s">
+      <c r="S1" s="895"/>
+      <c r="T1" s="895"/>
+      <c r="U1" s="895"/>
+      <c r="V1" s="895"/>
+      <c r="W1" s="895"/>
+      <c r="X1" s="903"/>
+      <c r="Y1" s="889" t="s">
         <v>459</v>
       </c>
-      <c r="Z1" s="872"/>
-      <c r="AA1" s="886" t="s">
+      <c r="Z1" s="859"/>
+      <c r="AA1" s="905" t="s">
         <v>159</v>
       </c>
-      <c r="AB1" s="897" t="s">
+      <c r="AB1" s="877" t="s">
         <v>160</v>
       </c>
-      <c r="AC1" s="893" t="s">
+      <c r="AC1" s="891" t="s">
         <v>161</v>
       </c>
-      <c r="AD1" s="894"/>
-      <c r="AE1" s="894"/>
-      <c r="AF1" s="895"/>
-      <c r="AG1" s="896" t="s">
+      <c r="AD1" s="892"/>
+      <c r="AE1" s="892"/>
+      <c r="AF1" s="893"/>
+      <c r="AG1" s="894" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="881"/>
-      <c r="AI1" s="881"/>
-      <c r="AJ1" s="881"/>
-      <c r="AK1" s="881"/>
-      <c r="AL1" s="881"/>
-      <c r="AM1" s="881"/>
-      <c r="AN1" s="881"/>
-      <c r="AO1" s="897" t="s">
+      <c r="AH1" s="895"/>
+      <c r="AI1" s="895"/>
+      <c r="AJ1" s="895"/>
+      <c r="AK1" s="895"/>
+      <c r="AL1" s="895"/>
+      <c r="AM1" s="895"/>
+      <c r="AN1" s="895"/>
+      <c r="AO1" s="877" t="s">
         <v>163</v>
       </c>
-      <c r="AP1" s="883" t="s">
+      <c r="AP1" s="889" t="s">
         <v>458</v>
       </c>
-      <c r="AQ1" s="872"/>
-      <c r="AR1" s="872"/>
-      <c r="AS1" s="873"/>
-      <c r="AT1" s="900" t="s">
+      <c r="AQ1" s="859"/>
+      <c r="AR1" s="859"/>
+      <c r="AS1" s="860"/>
+      <c r="AT1" s="897" t="s">
         <v>164</v>
       </c>
-      <c r="AU1" s="901"/>
-      <c r="AV1" s="901"/>
-      <c r="AW1" s="901"/>
-      <c r="AX1" s="901"/>
-      <c r="AY1" s="901"/>
-      <c r="AZ1" s="901"/>
-      <c r="BA1" s="901"/>
-      <c r="BB1" s="901"/>
-      <c r="BC1" s="901"/>
-      <c r="BD1" s="901"/>
-      <c r="BE1" s="901"/>
-      <c r="BF1" s="901"/>
-      <c r="BG1" s="901"/>
-      <c r="BH1" s="901"/>
-      <c r="BI1" s="901"/>
-      <c r="BJ1" s="901"/>
-      <c r="BK1" s="901"/>
-      <c r="BL1" s="901"/>
-      <c r="BM1" s="901"/>
-      <c r="BN1" s="901"/>
-      <c r="BO1" s="901"/>
-      <c r="BP1" s="901"/>
-      <c r="BQ1" s="901"/>
-      <c r="BR1" s="901"/>
-      <c r="BS1" s="901"/>
-      <c r="BT1" s="901"/>
-      <c r="BU1" s="901"/>
-      <c r="BV1" s="901"/>
-      <c r="BW1" s="897" t="s">
+      <c r="AU1" s="898"/>
+      <c r="AV1" s="898"/>
+      <c r="AW1" s="898"/>
+      <c r="AX1" s="898"/>
+      <c r="AY1" s="898"/>
+      <c r="AZ1" s="898"/>
+      <c r="BA1" s="898"/>
+      <c r="BB1" s="898"/>
+      <c r="BC1" s="898"/>
+      <c r="BD1" s="898"/>
+      <c r="BE1" s="898"/>
+      <c r="BF1" s="898"/>
+      <c r="BG1" s="898"/>
+      <c r="BH1" s="898"/>
+      <c r="BI1" s="898"/>
+      <c r="BJ1" s="898"/>
+      <c r="BK1" s="898"/>
+      <c r="BL1" s="898"/>
+      <c r="BM1" s="898"/>
+      <c r="BN1" s="898"/>
+      <c r="BO1" s="898"/>
+      <c r="BP1" s="898"/>
+      <c r="BQ1" s="898"/>
+      <c r="BR1" s="898"/>
+      <c r="BS1" s="898"/>
+      <c r="BT1" s="898"/>
+      <c r="BU1" s="898"/>
+      <c r="BV1" s="898"/>
+      <c r="BW1" s="877" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" s="883" t="s">
+      <c r="BX1" s="889" t="s">
         <v>457</v>
       </c>
-      <c r="BY1" s="872"/>
-      <c r="BZ1" s="872"/>
-      <c r="CA1" s="873"/>
-      <c r="CB1" s="908" t="s">
+      <c r="BY1" s="859"/>
+      <c r="BZ1" s="859"/>
+      <c r="CA1" s="860"/>
+      <c r="CB1" s="888" t="s">
         <v>474</v>
       </c>
-      <c r="CC1" s="891" t="s">
+      <c r="CC1" s="890" t="s">
         <v>74</v>
       </c>
-      <c r="CD1" s="891"/>
-      <c r="CE1" s="891"/>
-      <c r="CF1" s="891"/>
-      <c r="CG1" s="891"/>
-      <c r="CH1" s="891"/>
-      <c r="CI1" s="891"/>
-      <c r="CJ1" s="891"/>
-      <c r="CK1" s="891"/>
-      <c r="CL1" s="891"/>
-      <c r="CM1" s="891"/>
-      <c r="CN1" s="891"/>
+      <c r="CD1" s="890"/>
+      <c r="CE1" s="890"/>
+      <c r="CF1" s="890"/>
+      <c r="CG1" s="890"/>
+      <c r="CH1" s="890"/>
+      <c r="CI1" s="890"/>
+      <c r="CJ1" s="890"/>
+      <c r="CK1" s="890"/>
+      <c r="CL1" s="890"/>
+      <c r="CM1" s="890"/>
+      <c r="CN1" s="890"/>
       <c r="CO1" s="146"/>
-      <c r="CP1" s="904" t="s">
+      <c r="CP1" s="876" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="842"/>
-      <c r="CR1" s="842"/>
-      <c r="CS1" s="842"/>
-      <c r="CT1" s="842"/>
-      <c r="CU1" s="842"/>
-      <c r="CV1" s="842"/>
-      <c r="CW1" s="861"/>
+      <c r="CQ1" s="847"/>
+      <c r="CR1" s="847"/>
+      <c r="CS1" s="847"/>
+      <c r="CT1" s="847"/>
+      <c r="CU1" s="847"/>
+      <c r="CV1" s="847"/>
+      <c r="CW1" s="848"/>
     </row>
     <row r="2" spans="1:104" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
@@ -59886,7 +60115,7 @@
       <c r="L2" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="877"/>
+      <c r="M2" s="899"/>
       <c r="N2" s="152" t="s">
         <v>170</v>
       </c>
@@ -59902,22 +60131,22 @@
       <c r="R2" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="888" t="s">
+      <c r="S2" s="907" t="s">
         <v>452</v>
       </c>
-      <c r="T2" s="867"/>
-      <c r="U2" s="889" t="s">
+      <c r="T2" s="854"/>
+      <c r="U2" s="908" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="889"/>
-      <c r="W2" s="889" t="s">
+      <c r="V2" s="908"/>
+      <c r="W2" s="908" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="890"/>
-      <c r="Y2" s="884"/>
-      <c r="Z2" s="885"/>
-      <c r="AA2" s="887"/>
-      <c r="AB2" s="898"/>
+      <c r="X2" s="909"/>
+      <c r="Y2" s="904"/>
+      <c r="Z2" s="884"/>
+      <c r="AA2" s="906"/>
+      <c r="AB2" s="878"/>
       <c r="AC2" s="153" t="s">
         <v>174</v>
       </c>
@@ -59930,81 +60159,81 @@
       <c r="AF2" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="AG2" s="899" t="s">
+      <c r="AG2" s="896" t="s">
         <v>178</v>
       </c>
-      <c r="AH2" s="892"/>
-      <c r="AI2" s="892" t="s">
+      <c r="AH2" s="881"/>
+      <c r="AI2" s="881" t="s">
         <v>179</v>
       </c>
-      <c r="AJ2" s="892"/>
-      <c r="AK2" s="892" t="s">
+      <c r="AJ2" s="881"/>
+      <c r="AK2" s="881" t="s">
         <v>180</v>
       </c>
-      <c r="AL2" s="892"/>
+      <c r="AL2" s="881"/>
       <c r="AM2" s="154" t="s">
         <v>181</v>
       </c>
       <c r="AN2" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="AO2" s="898"/>
-      <c r="AP2" s="991" t="s">
-        <v>606</v>
-      </c>
-      <c r="AQ2" s="885"/>
-      <c r="AR2" s="992" t="s">
-        <v>607</v>
-      </c>
-      <c r="AS2" s="902"/>
-      <c r="AT2" s="892" t="s">
+      <c r="AO2" s="878"/>
+      <c r="AP2" s="883" t="s">
+        <v>595</v>
+      </c>
+      <c r="AQ2" s="884"/>
+      <c r="AR2" s="885" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS2" s="886"/>
+      <c r="AT2" s="881" t="s">
         <v>183</v>
       </c>
-      <c r="AU2" s="892"/>
-      <c r="AV2" s="903" t="s">
+      <c r="AU2" s="881"/>
+      <c r="AV2" s="882" t="s">
         <v>184</v>
       </c>
-      <c r="AW2" s="903"/>
-      <c r="AX2" s="903" t="s">
+      <c r="AW2" s="882"/>
+      <c r="AX2" s="882" t="s">
         <v>185</v>
       </c>
-      <c r="AY2" s="903"/>
+      <c r="AY2" s="882"/>
       <c r="AZ2" s="154" t="s">
         <v>186</v>
       </c>
       <c r="BA2" s="154" t="s">
         <v>187</v>
       </c>
-      <c r="BB2" s="892" t="s">
+      <c r="BB2" s="881" t="s">
         <v>188</v>
       </c>
-      <c r="BC2" s="892"/>
-      <c r="BD2" s="903" t="s">
+      <c r="BC2" s="881"/>
+      <c r="BD2" s="882" t="s">
         <v>189</v>
       </c>
-      <c r="BE2" s="903"/>
-      <c r="BF2" s="903" t="s">
+      <c r="BE2" s="882"/>
+      <c r="BF2" s="882" t="s">
         <v>190</v>
       </c>
-      <c r="BG2" s="903"/>
+      <c r="BG2" s="882"/>
       <c r="BH2" s="154" t="s">
         <v>191</v>
       </c>
       <c r="BI2" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="BJ2" s="892" t="s">
+      <c r="BJ2" s="881" t="s">
         <v>193</v>
       </c>
-      <c r="BK2" s="892"/>
-      <c r="BL2" s="903" t="s">
+      <c r="BK2" s="881"/>
+      <c r="BL2" s="882" t="s">
         <v>194</v>
       </c>
-      <c r="BM2" s="903"/>
-      <c r="BN2" s="903" t="s">
+      <c r="BM2" s="882"/>
+      <c r="BN2" s="882" t="s">
         <v>195</v>
       </c>
-      <c r="BO2" s="903"/>
+      <c r="BO2" s="882"/>
       <c r="BP2" s="154" t="s">
         <v>196</v>
       </c>
@@ -60026,16 +60255,16 @@
       <c r="BV2" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="BW2" s="898"/>
-      <c r="BX2" s="991" t="s">
-        <v>606</v>
-      </c>
-      <c r="BY2" s="885"/>
-      <c r="BZ2" s="992" t="s">
-        <v>607</v>
-      </c>
-      <c r="CA2" s="902"/>
-      <c r="CB2" s="908"/>
+      <c r="BW2" s="878"/>
+      <c r="BX2" s="883" t="s">
+        <v>595</v>
+      </c>
+      <c r="BY2" s="884"/>
+      <c r="BZ2" s="885" t="s">
+        <v>596</v>
+      </c>
+      <c r="CA2" s="886"/>
+      <c r="CB2" s="888"/>
       <c r="CC2" s="138" t="s">
         <v>96</v>
       </c>
@@ -60075,22 +60304,22 @@
       <c r="CO2" s="140" t="s">
         <v>460</v>
       </c>
-      <c r="CP2" s="907" t="s">
+      <c r="CP2" s="887" t="s">
         <v>204</v>
       </c>
-      <c r="CQ2" s="905"/>
-      <c r="CR2" s="905" t="s">
+      <c r="CQ2" s="879"/>
+      <c r="CR2" s="879" t="s">
         <v>205</v>
       </c>
-      <c r="CS2" s="905"/>
-      <c r="CT2" s="905" t="s">
+      <c r="CS2" s="879"/>
+      <c r="CT2" s="879" t="s">
         <v>206</v>
       </c>
-      <c r="CU2" s="905"/>
-      <c r="CV2" s="905" t="s">
+      <c r="CU2" s="879"/>
+      <c r="CV2" s="879" t="s">
         <v>207</v>
       </c>
-      <c r="CW2" s="906"/>
+      <c r="CW2" s="880"/>
     </row>
     <row r="3" spans="1:104" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168"/>
@@ -60955,6 +61184,29 @@
     </sortState>
   </autoFilter>
   <mergeCells count="39">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="CC1:CN1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="CP1:CW1"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="CV2:CW2"/>
@@ -60971,29 +61223,6 @@
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CC1:CN1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AT1:BV1"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61037,110 +61266,105 @@
       <c r="K1" s="144"/>
       <c r="L1" s="145"/>
       <c r="M1" s="695"/>
-      <c r="N1" s="912"/>
-      <c r="O1" s="913"/>
-      <c r="P1" s="913"/>
-      <c r="Q1" s="913"/>
-      <c r="R1" s="880"/>
-      <c r="S1" s="881"/>
-      <c r="T1" s="881"/>
-      <c r="U1" s="881"/>
-      <c r="V1" s="881"/>
-      <c r="W1" s="881"/>
-      <c r="X1" s="882"/>
-      <c r="Y1" s="883"/>
-      <c r="Z1" s="872"/>
+      <c r="N1" s="910"/>
+      <c r="O1" s="911"/>
+      <c r="P1" s="911"/>
+      <c r="Q1" s="911"/>
+      <c r="R1" s="902"/>
+      <c r="S1" s="895"/>
+      <c r="T1" s="895"/>
+      <c r="U1" s="895"/>
+      <c r="V1" s="895"/>
+      <c r="W1" s="895"/>
+      <c r="X1" s="903"/>
+      <c r="Y1" s="889"/>
+      <c r="Z1" s="859"/>
       <c r="AA1" s="696"/>
       <c r="AB1" s="694"/>
-      <c r="AC1" s="893"/>
-      <c r="AD1" s="894"/>
-      <c r="AE1" s="894"/>
-      <c r="AF1" s="895"/>
-      <c r="AG1" s="896"/>
-      <c r="AH1" s="881"/>
-      <c r="AI1" s="881"/>
-      <c r="AJ1" s="881"/>
-      <c r="AK1" s="881"/>
-      <c r="AL1" s="881"/>
-      <c r="AM1" s="881"/>
-      <c r="AN1" s="881"/>
+      <c r="AC1" s="891"/>
+      <c r="AD1" s="892"/>
+      <c r="AE1" s="892"/>
+      <c r="AF1" s="893"/>
+      <c r="AG1" s="894"/>
+      <c r="AH1" s="895"/>
+      <c r="AI1" s="895"/>
+      <c r="AJ1" s="895"/>
+      <c r="AK1" s="895"/>
+      <c r="AL1" s="895"/>
+      <c r="AM1" s="895"/>
+      <c r="AN1" s="895"/>
       <c r="AO1" s="694"/>
-      <c r="AP1" s="883"/>
-      <c r="AQ1" s="872"/>
-      <c r="AR1" s="872"/>
-      <c r="AS1" s="873"/>
-      <c r="AT1" s="900"/>
-      <c r="AU1" s="901"/>
-      <c r="AV1" s="901"/>
-      <c r="AW1" s="901"/>
-      <c r="AX1" s="901"/>
-      <c r="AY1" s="901"/>
-      <c r="AZ1" s="901"/>
-      <c r="BA1" s="901"/>
-      <c r="BB1" s="901"/>
-      <c r="BC1" s="901"/>
-      <c r="BD1" s="901"/>
-      <c r="BE1" s="901"/>
-      <c r="BF1" s="901"/>
-      <c r="BG1" s="901"/>
-      <c r="BH1" s="901"/>
-      <c r="BI1" s="901"/>
-      <c r="BJ1" s="901"/>
-      <c r="BK1" s="901"/>
-      <c r="BL1" s="901"/>
-      <c r="BM1" s="901"/>
-      <c r="BN1" s="901"/>
-      <c r="BO1" s="901"/>
-      <c r="BP1" s="901"/>
-      <c r="BQ1" s="901"/>
-      <c r="BR1" s="901"/>
-      <c r="BS1" s="901"/>
-      <c r="BT1" s="901"/>
-      <c r="BU1" s="901"/>
-      <c r="BV1" s="901"/>
+      <c r="AP1" s="889"/>
+      <c r="AQ1" s="859"/>
+      <c r="AR1" s="859"/>
+      <c r="AS1" s="860"/>
+      <c r="AT1" s="897"/>
+      <c r="AU1" s="898"/>
+      <c r="AV1" s="898"/>
+      <c r="AW1" s="898"/>
+      <c r="AX1" s="898"/>
+      <c r="AY1" s="898"/>
+      <c r="AZ1" s="898"/>
+      <c r="BA1" s="898"/>
+      <c r="BB1" s="898"/>
+      <c r="BC1" s="898"/>
+      <c r="BD1" s="898"/>
+      <c r="BE1" s="898"/>
+      <c r="BF1" s="898"/>
+      <c r="BG1" s="898"/>
+      <c r="BH1" s="898"/>
+      <c r="BI1" s="898"/>
+      <c r="BJ1" s="898"/>
+      <c r="BK1" s="898"/>
+      <c r="BL1" s="898"/>
+      <c r="BM1" s="898"/>
+      <c r="BN1" s="898"/>
+      <c r="BO1" s="898"/>
+      <c r="BP1" s="898"/>
+      <c r="BQ1" s="898"/>
+      <c r="BR1" s="898"/>
+      <c r="BS1" s="898"/>
+      <c r="BT1" s="898"/>
+      <c r="BU1" s="898"/>
+      <c r="BV1" s="898"/>
       <c r="BW1" s="694"/>
-      <c r="BX1" s="883"/>
-      <c r="BY1" s="872"/>
-      <c r="BZ1" s="872"/>
-      <c r="CA1" s="873"/>
-      <c r="CB1" s="891"/>
-      <c r="CC1" s="891"/>
-      <c r="CD1" s="891"/>
-      <c r="CE1" s="891"/>
-      <c r="CF1" s="891"/>
-      <c r="CG1" s="891"/>
-      <c r="CH1" s="891"/>
-      <c r="CI1" s="891"/>
-      <c r="CJ1" s="891"/>
-      <c r="CK1" s="891"/>
-      <c r="CL1" s="891"/>
-      <c r="CM1" s="891"/>
+      <c r="BX1" s="889"/>
+      <c r="BY1" s="859"/>
+      <c r="BZ1" s="859"/>
+      <c r="CA1" s="860"/>
+      <c r="CB1" s="890"/>
+      <c r="CC1" s="890"/>
+      <c r="CD1" s="890"/>
+      <c r="CE1" s="890"/>
+      <c r="CF1" s="890"/>
+      <c r="CG1" s="890"/>
+      <c r="CH1" s="890"/>
+      <c r="CI1" s="890"/>
+      <c r="CJ1" s="890"/>
+      <c r="CK1" s="890"/>
+      <c r="CL1" s="890"/>
+      <c r="CM1" s="890"/>
       <c r="CN1" s="693"/>
-      <c r="CO1" s="904"/>
-      <c r="CP1" s="842"/>
-      <c r="CQ1" s="842"/>
-      <c r="CR1" s="842"/>
-      <c r="CS1" s="842"/>
-      <c r="CT1" s="842"/>
-      <c r="CU1" s="842"/>
-      <c r="CV1" s="861"/>
-      <c r="CW1" s="909"/>
-      <c r="CX1" s="910"/>
-      <c r="CY1" s="910"/>
-      <c r="CZ1" s="911"/>
-      <c r="DA1" s="910"/>
-      <c r="DB1" s="910"/>
-      <c r="DC1" s="911"/>
-      <c r="DD1" s="910"/>
-      <c r="DE1" s="910"/>
+      <c r="CO1" s="876"/>
+      <c r="CP1" s="847"/>
+      <c r="CQ1" s="847"/>
+      <c r="CR1" s="847"/>
+      <c r="CS1" s="847"/>
+      <c r="CT1" s="847"/>
+      <c r="CU1" s="847"/>
+      <c r="CV1" s="848"/>
+      <c r="CW1" s="912"/>
+      <c r="CX1" s="913"/>
+      <c r="CY1" s="913"/>
+      <c r="CZ1" s="914"/>
+      <c r="DA1" s="913"/>
+      <c r="DB1" s="913"/>
+      <c r="DC1" s="914"/>
+      <c r="DD1" s="913"/>
+      <c r="DE1" s="913"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="CZ1:DB1"/>
     <mergeCell ref="DC1:DE1"/>
@@ -61149,6 +61373,11 @@
     <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BV1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -61188,18 +61417,18 @@
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
       <c r="G1" s="143"/>
-      <c r="H1" s="915" t="s">
-        <v>589</v>
-      </c>
-      <c r="I1" s="915"/>
-      <c r="J1" s="915"/>
-      <c r="K1" s="915"/>
-      <c r="L1" s="914" t="s">
-        <v>590</v>
-      </c>
-      <c r="M1" s="914"/>
-      <c r="N1" s="914"/>
-      <c r="O1" s="914"/>
+      <c r="H1" s="916" t="s">
+        <v>578</v>
+      </c>
+      <c r="I1" s="916"/>
+      <c r="J1" s="916"/>
+      <c r="K1" s="916"/>
+      <c r="L1